--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -447,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,529 +508,529 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B2">
-        <v>395424</v>
+        <v>555697</v>
       </c>
       <c r="C2">
-        <v>68050</v>
+        <v>102729</v>
       </c>
       <c r="D2">
-        <v>1520148</v>
+        <v>2206303</v>
       </c>
       <c r="E2">
-        <v>200146</v>
+        <v>358530</v>
       </c>
       <c r="F2">
-        <v>9564</v>
+        <v>11487</v>
       </c>
       <c r="G2">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="H2">
-        <v>9604</v>
+        <v>13000</v>
       </c>
       <c r="I2">
-        <v>955</v>
+        <v>2066</v>
       </c>
       <c r="J2">
-        <v>1368</v>
+        <v>1557</v>
       </c>
       <c r="K2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L2">
-        <v>663</v>
+        <v>809</v>
       </c>
       <c r="M2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="N2">
-        <v>1443</v>
+        <v>1774</v>
       </c>
       <c r="O2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="P2">
-        <v>1606</v>
+        <v>1863</v>
       </c>
       <c r="Q2">
-        <v>132</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B3">
-        <v>251412</v>
+        <v>395424</v>
       </c>
       <c r="C3">
-        <v>34617</v>
+        <v>68050</v>
       </c>
       <c r="D3">
-        <v>822338</v>
+        <v>1520148</v>
       </c>
       <c r="E3">
-        <v>79260</v>
+        <v>200146</v>
       </c>
       <c r="F3">
-        <v>8278</v>
+        <v>9564</v>
       </c>
       <c r="G3">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="H3">
-        <v>8063</v>
+        <v>9604</v>
       </c>
       <c r="I3">
-        <v>546</v>
+        <v>955</v>
       </c>
       <c r="J3">
-        <v>1202</v>
+        <v>1368</v>
       </c>
       <c r="K3">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L3">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="M3">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N3">
-        <v>1170</v>
+        <v>1443</v>
       </c>
       <c r="O3">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P3">
-        <v>1489</v>
+        <v>1606</v>
       </c>
       <c r="Q3">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B4">
-        <v>170551</v>
+        <v>251412</v>
       </c>
       <c r="C4">
-        <v>14491</v>
+        <v>34617</v>
       </c>
       <c r="D4">
-        <v>385856</v>
+        <v>822338</v>
       </c>
       <c r="E4">
-        <v>20375</v>
+        <v>79260</v>
       </c>
       <c r="F4">
-        <v>7059</v>
+        <v>8278</v>
       </c>
       <c r="G4">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="H4">
-        <v>7229</v>
+        <v>8063</v>
       </c>
       <c r="I4">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="J4">
-        <v>1036</v>
+        <v>1202</v>
       </c>
       <c r="K4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4">
-        <v>555</v>
+        <v>614</v>
       </c>
       <c r="M4">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N4">
-        <v>994</v>
+        <v>1170</v>
       </c>
       <c r="O4">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="P4">
-        <v>1262</v>
+        <v>1489</v>
       </c>
       <c r="Q4">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B5">
-        <v>140677</v>
+        <v>170551</v>
       </c>
       <c r="C5">
-        <v>9069</v>
+        <v>14491</v>
       </c>
       <c r="D5">
-        <v>254999</v>
+        <v>385856</v>
       </c>
       <c r="E5">
-        <v>7655</v>
+        <v>20375</v>
       </c>
       <c r="F5">
-        <v>5944</v>
+        <v>7059</v>
       </c>
       <c r="G5">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="H5">
-        <v>6384</v>
+        <v>7229</v>
       </c>
       <c r="I5">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="J5">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="K5">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L5">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N5">
-        <v>839</v>
+        <v>994</v>
       </c>
       <c r="O5">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="P5">
-        <v>1105</v>
+        <v>1262</v>
       </c>
       <c r="Q5">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B6">
-        <v>114674</v>
+        <v>140677</v>
       </c>
       <c r="C6">
-        <v>7107</v>
+        <v>9069</v>
       </c>
       <c r="D6">
-        <v>198287</v>
+        <v>254999</v>
       </c>
       <c r="E6">
-        <v>4219</v>
+        <v>7655</v>
       </c>
       <c r="F6">
-        <v>5081</v>
+        <v>5944</v>
       </c>
       <c r="G6">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="H6">
-        <v>5451</v>
+        <v>6384</v>
       </c>
       <c r="I6">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="J6">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="K6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L6">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="M6">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N6">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="O6">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="P6">
-        <v>991</v>
+        <v>1105</v>
       </c>
       <c r="Q6">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B7">
-        <v>93220</v>
+        <v>114674</v>
       </c>
       <c r="C7">
-        <v>6181</v>
+        <v>7107</v>
       </c>
       <c r="D7">
-        <v>161951</v>
+        <v>198287</v>
       </c>
       <c r="E7">
-        <v>2652</v>
+        <v>4219</v>
       </c>
       <c r="F7">
-        <v>4402</v>
+        <v>5081</v>
       </c>
       <c r="G7">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H7">
-        <v>4653</v>
+        <v>5451</v>
       </c>
       <c r="I7">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="J7">
-        <v>618</v>
+        <v>747</v>
       </c>
       <c r="K7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L7">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="M7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N7">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="O7">
+        <v>42</v>
+      </c>
+      <c r="P7">
+        <v>991</v>
+      </c>
+      <c r="Q7">
         <v>29</v>
-      </c>
-      <c r="P7">
-        <v>807</v>
-      </c>
-      <c r="Q7">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B8">
-        <v>75512</v>
+        <v>93220</v>
       </c>
       <c r="C8">
-        <v>5587</v>
+        <v>6181</v>
       </c>
       <c r="D8">
-        <v>128488</v>
+        <v>161951</v>
       </c>
       <c r="E8">
-        <v>1710</v>
+        <v>2652</v>
       </c>
       <c r="F8">
-        <v>3733</v>
+        <v>4402</v>
       </c>
       <c r="G8">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="H8">
-        <v>3845</v>
+        <v>4653</v>
       </c>
       <c r="I8">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="J8">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L8">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N8">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="O8">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="P8">
-        <v>690</v>
+        <v>807</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B9">
-        <v>61908</v>
+        <v>75512</v>
       </c>
       <c r="C9">
-        <v>4260</v>
+        <v>5587</v>
       </c>
       <c r="D9">
-        <v>98228</v>
+        <v>128488</v>
       </c>
       <c r="E9">
-        <v>969</v>
+        <v>1710</v>
       </c>
       <c r="F9">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="G9">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="H9">
-        <v>3693</v>
+        <v>3845</v>
       </c>
       <c r="I9">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J9">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="K9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L9">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="M9">
         <v>3</v>
       </c>
       <c r="N9">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="O9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P9">
-        <v>555</v>
+        <v>690</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B10">
-        <v>50564</v>
+        <v>61908</v>
       </c>
       <c r="C10">
-        <v>3980</v>
+        <v>4260</v>
       </c>
       <c r="D10">
-        <v>72159</v>
+        <v>98228</v>
       </c>
       <c r="E10">
-        <v>537</v>
+        <v>969</v>
       </c>
       <c r="F10">
-        <v>3220</v>
+        <v>3737</v>
       </c>
       <c r="G10">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="H10">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="I10">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="J10">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="K10">
         <v>14</v>
       </c>
       <c r="L10">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="O10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P10">
-        <v>444</v>
+        <v>555</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B11">
-        <v>40182</v>
+        <v>50564</v>
       </c>
       <c r="C11">
-        <v>3466</v>
+        <v>3980</v>
       </c>
       <c r="D11">
-        <v>52302</v>
+        <v>72159</v>
       </c>
       <c r="E11">
-        <v>286</v>
+        <v>537</v>
       </c>
       <c r="F11">
-        <v>2890</v>
+        <v>3220</v>
       </c>
       <c r="G11">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H11">
-        <v>2409</v>
+        <v>2936</v>
       </c>
       <c r="I11">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J11">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L11">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="O11">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="P11">
-        <v>384</v>
+        <v>444</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1038,52 +1038,52 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B12">
-        <v>35398</v>
+        <v>40182</v>
       </c>
       <c r="C12">
-        <v>3207</v>
+        <v>3466</v>
       </c>
       <c r="D12">
-        <v>40991</v>
+        <v>52302</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="F12">
-        <v>2696</v>
+        <v>2890</v>
       </c>
       <c r="G12">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H12">
-        <v>2037</v>
+        <v>2409</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J12">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="K12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L12">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="O12">
         <v>27</v>
       </c>
       <c r="P12">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1091,52 +1091,52 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B13">
-        <v>34128</v>
+        <v>35398</v>
       </c>
       <c r="C13">
-        <v>3421</v>
+        <v>3207</v>
       </c>
       <c r="D13">
-        <v>34131</v>
+        <v>40991</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2845</v>
+        <v>2696</v>
       </c>
       <c r="G13">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="H13">
-        <v>1815</v>
+        <v>2037</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="K13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L13">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="O13">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P13">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1144,52 +1144,52 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B14">
-        <v>36194</v>
+        <v>34128</v>
       </c>
       <c r="C14">
-        <v>4127</v>
+        <v>3421</v>
       </c>
       <c r="D14">
-        <v>31514</v>
+        <v>34131</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3396</v>
+        <v>2845</v>
       </c>
       <c r="G14">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="H14">
-        <v>1954</v>
+        <v>1815</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L14">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="O14">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P14">
-        <v>511</v>
+        <v>461</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1197,52 +1197,52 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B15">
-        <v>45790</v>
+        <v>36194</v>
       </c>
       <c r="C15">
-        <v>5352</v>
+        <v>4127</v>
       </c>
       <c r="D15">
-        <v>33496</v>
+        <v>31514</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4274</v>
+        <v>3396</v>
       </c>
       <c r="G15">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="H15">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="K15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L15">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>775</v>
+        <v>636</v>
       </c>
       <c r="O15">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P15">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1250,52 +1250,52 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B16">
-        <v>56808</v>
+        <v>45790</v>
       </c>
       <c r="C16">
-        <v>6952</v>
+        <v>5352</v>
       </c>
       <c r="D16">
-        <v>36529</v>
+        <v>33496</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>5224</v>
+        <v>4274</v>
       </c>
       <c r="G16">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="H16">
-        <v>2268</v>
+        <v>2133</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="K16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L16">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="O16">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P16">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1303,52 +1303,52 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B17">
-        <v>70900</v>
+        <v>56808</v>
       </c>
       <c r="C17">
-        <v>9284</v>
+        <v>6952</v>
       </c>
       <c r="D17">
-        <v>40060</v>
+        <v>36529</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>6160</v>
+        <v>5224</v>
       </c>
       <c r="G17">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="H17">
-        <v>2418</v>
+        <v>2268</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="K17">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L17">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="O17">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="P17">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1356,52 +1356,52 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B18">
-        <v>86133</v>
+        <v>70900</v>
       </c>
       <c r="C18">
-        <v>11735</v>
+        <v>9284</v>
       </c>
       <c r="D18">
-        <v>44050</v>
+        <v>40060</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>6782</v>
+        <v>6160</v>
       </c>
       <c r="G18">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="H18">
-        <v>2456</v>
+        <v>2418</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="K18">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L18">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="O18">
         <v>57</v>
       </c>
       <c r="P18">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1409,52 +1409,52 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B19">
-        <v>96900</v>
+        <v>86133</v>
       </c>
       <c r="C19">
-        <v>13728</v>
+        <v>11735</v>
       </c>
       <c r="D19">
-        <v>44990</v>
+        <v>44050</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>6841</v>
+        <v>6782</v>
       </c>
       <c r="G19">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="H19">
-        <v>2331</v>
+        <v>2456</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="K19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L19">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>770</v>
+        <v>877</v>
       </c>
       <c r="O19">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P19">
-        <v>405</v>
+        <v>509</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1462,52 +1462,52 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B20">
-        <v>104890</v>
+        <v>96900</v>
       </c>
       <c r="C20">
-        <v>16129</v>
+        <v>13728</v>
       </c>
       <c r="D20">
-        <v>43775</v>
+        <v>44990</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>6579</v>
+        <v>6841</v>
       </c>
       <c r="G20">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="H20">
-        <v>2118</v>
+        <v>2331</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="K20">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L20">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="O20">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P20">
-        <v>280</v>
+        <v>405</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1515,52 +1515,52 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B21">
-        <v>107937</v>
+        <v>104890</v>
       </c>
       <c r="C21">
-        <v>18925</v>
+        <v>16129</v>
       </c>
       <c r="D21">
-        <v>40380</v>
+        <v>43775</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>5988</v>
+        <v>6579</v>
       </c>
       <c r="G21">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="H21">
-        <v>1788</v>
+        <v>2118</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="K21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L21">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>383</v>
+        <v>571</v>
       </c>
       <c r="O21">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="P21">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1568,52 +1568,52 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B22">
-        <v>104405</v>
+        <v>107937</v>
       </c>
       <c r="C22">
-        <v>21703</v>
+        <v>18925</v>
       </c>
       <c r="D22">
-        <v>33894</v>
+        <v>40380</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5162</v>
+        <v>5988</v>
       </c>
       <c r="G22">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="H22">
-        <v>1349</v>
+        <v>1788</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="K22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L22">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="O22">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="P22">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1621,52 +1621,52 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B23">
-        <v>95261</v>
+        <v>104405</v>
       </c>
       <c r="C23">
-        <v>22568</v>
+        <v>21703</v>
       </c>
       <c r="D23">
-        <v>24978</v>
+        <v>33894</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4052</v>
+        <v>5162</v>
       </c>
       <c r="G23">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="H23">
-        <v>959</v>
+        <v>1349</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="K23">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L23">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="O23">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P23">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -1674,52 +1674,52 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B24">
-        <v>80585</v>
+        <v>95261</v>
       </c>
       <c r="C24">
-        <v>21570</v>
+        <v>22568</v>
       </c>
       <c r="D24">
-        <v>18887</v>
+        <v>24978</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3067</v>
+        <v>4052</v>
       </c>
       <c r="G24">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="H24">
-        <v>627</v>
+        <v>959</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="K24">
         <v>22</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="O24">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P24">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -1727,49 +1727,49 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B25">
-        <v>60267</v>
+        <v>80585</v>
       </c>
       <c r="C25">
-        <v>17420</v>
+        <v>21570</v>
       </c>
       <c r="D25">
-        <v>12333</v>
+        <v>18887</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2234</v>
+        <v>3067</v>
       </c>
       <c r="G25">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="H25">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="K25">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="O25">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P25">
         <v>34</v>
@@ -1780,52 +1780,52 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B26">
-        <v>40729</v>
+        <v>60267</v>
       </c>
       <c r="C26">
-        <v>12032</v>
+        <v>17420</v>
       </c>
       <c r="D26">
-        <v>7277</v>
+        <v>12333</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1619</v>
+        <v>2234</v>
       </c>
       <c r="G26">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="H26">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="K26">
         <v>11</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="O26">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="P26">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -1833,52 +1833,52 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B27">
-        <v>26284</v>
+        <v>40729</v>
       </c>
       <c r="C27">
-        <v>6813</v>
+        <v>12032</v>
       </c>
       <c r="D27">
-        <v>3805</v>
+        <v>7277</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1483</v>
+        <v>1619</v>
       </c>
       <c r="G27">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H27">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K27">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="O27">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="P27">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -1886,54 +1886,107 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B28">
+        <v>26284</v>
+      </c>
+      <c r="C28">
+        <v>6813</v>
+      </c>
+      <c r="D28">
+        <v>3805</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1483</v>
+      </c>
+      <c r="G28">
+        <v>199</v>
+      </c>
+      <c r="H28">
+        <v>224</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>117</v>
+      </c>
+      <c r="K28">
+        <v>14</v>
+      </c>
+      <c r="L28">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>250</v>
+      </c>
+      <c r="O28">
+        <v>47</v>
+      </c>
+      <c r="P28">
+        <v>46</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="2">
         <v>44391</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>21089</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>3954</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>2310</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>1880</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>240</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>240</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>147</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>20</v>
       </c>
-      <c r="L28">
+      <c r="L29">
         <v>7</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
         <v>357</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <v>72</v>
       </c>
-      <c r="P28">
+      <c r="P29">
         <v>68</v>
       </c>
-      <c r="Q28">
+      <c r="Q29">
         <v>0</v>
       </c>
     </row>
@@ -1944,7 +1997,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1993,368 +2046,368 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B2">
-        <v>6414467</v>
+        <v>6194434</v>
       </c>
       <c r="C2">
-        <v>1678301</v>
+        <v>1720841</v>
       </c>
       <c r="D2">
-        <v>45917177</v>
+        <v>46094670</v>
       </c>
       <c r="E2">
-        <v>10972555</v>
+        <v>14235354</v>
       </c>
       <c r="F2">
-        <v>6876688</v>
+        <v>6647970</v>
       </c>
       <c r="G2">
-        <v>1504168</v>
+        <v>1566179</v>
       </c>
       <c r="H2">
-        <v>45629089</v>
+        <v>45795796</v>
       </c>
       <c r="I2">
-        <v>5694939</v>
+        <v>8107388</v>
       </c>
       <c r="J2">
-        <v>7031651</v>
+        <v>6862315</v>
       </c>
       <c r="K2">
-        <v>1502381</v>
+        <v>1493790</v>
       </c>
       <c r="L2">
-        <v>45475912</v>
+        <v>45653840</v>
       </c>
       <c r="M2">
-        <v>4133267</v>
+        <v>5699241</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B3">
-        <v>6660263</v>
+        <v>6414467</v>
       </c>
       <c r="C3">
-        <v>1578764</v>
+        <v>1678301</v>
       </c>
       <c r="D3">
-        <v>45770918</v>
+        <v>45917177</v>
       </c>
       <c r="E3">
-        <v>8102818</v>
+        <v>10972555</v>
       </c>
       <c r="F3">
+        <v>6876688</v>
+      </c>
+      <c r="G3">
+        <v>1504168</v>
+      </c>
+      <c r="H3">
+        <v>45629089</v>
+      </c>
+      <c r="I3">
+        <v>5694939</v>
+      </c>
+      <c r="J3">
         <v>7031651</v>
       </c>
-      <c r="G3">
+      <c r="K3">
         <v>1502381</v>
       </c>
-      <c r="H3">
+      <c r="L3">
         <v>45475912</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <v>4133267</v>
-      </c>
-      <c r="J3">
-        <v>7160934</v>
-      </c>
-      <c r="K3">
-        <v>1577260</v>
-      </c>
-      <c r="L3">
-        <v>45271750</v>
-      </c>
-      <c r="M3">
-        <v>3060479</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B4">
-        <v>6876688</v>
+        <v>6660263</v>
       </c>
       <c r="C4">
-        <v>1504168</v>
+        <v>1578764</v>
       </c>
       <c r="D4">
-        <v>45629089</v>
+        <v>45770918</v>
       </c>
       <c r="E4">
-        <v>5694939</v>
+        <v>8102818</v>
       </c>
       <c r="F4">
+        <v>7031651</v>
+      </c>
+      <c r="G4">
+        <v>1502381</v>
+      </c>
+      <c r="H4">
+        <v>45475912</v>
+      </c>
+      <c r="I4">
+        <v>4133267</v>
+      </c>
+      <c r="J4">
         <v>7160934</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <v>1577260</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>45271750</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>3060479</v>
-      </c>
-      <c r="J4">
-        <v>7291722</v>
-      </c>
-      <c r="K4">
-        <v>1749607</v>
-      </c>
-      <c r="L4">
-        <v>44968615</v>
-      </c>
-      <c r="M4">
-        <v>2189265</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B5">
-        <v>7031651</v>
+        <v>6876688</v>
       </c>
       <c r="C5">
-        <v>1502381</v>
+        <v>1504168</v>
       </c>
       <c r="D5">
-        <v>45475912</v>
+        <v>45629089</v>
       </c>
       <c r="E5">
-        <v>4133267</v>
+        <v>5694939</v>
       </c>
       <c r="F5">
+        <v>7160934</v>
+      </c>
+      <c r="G5">
+        <v>1577260</v>
+      </c>
+      <c r="H5">
+        <v>45271750</v>
+      </c>
+      <c r="I5">
+        <v>3060479</v>
+      </c>
+      <c r="J5">
         <v>7291722</v>
       </c>
-      <c r="G5">
+      <c r="K5">
         <v>1749607</v>
       </c>
-      <c r="H5">
+      <c r="L5">
         <v>44968615</v>
       </c>
-      <c r="I5">
+      <c r="M5">
         <v>2189265</v>
-      </c>
-      <c r="J5">
-        <v>7404599</v>
-      </c>
-      <c r="K5">
-        <v>1981131</v>
-      </c>
-      <c r="L5">
-        <v>44624214</v>
-      </c>
-      <c r="M5">
-        <v>1594076</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B6">
-        <v>7160934</v>
+        <v>7031651</v>
       </c>
       <c r="C6">
-        <v>1577260</v>
+        <v>1502381</v>
       </c>
       <c r="D6">
-        <v>45271750</v>
+        <v>45475912</v>
       </c>
       <c r="E6">
-        <v>3060479</v>
+        <v>4133267</v>
       </c>
       <c r="F6">
+        <v>7291722</v>
+      </c>
+      <c r="G6">
+        <v>1749607</v>
+      </c>
+      <c r="H6">
+        <v>44968615</v>
+      </c>
+      <c r="I6">
+        <v>2189265</v>
+      </c>
+      <c r="J6">
         <v>7404599</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <v>1981131</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <v>44624214</v>
       </c>
-      <c r="I6">
+      <c r="M6">
         <v>1594076</v>
-      </c>
-      <c r="J6">
-        <v>7586013</v>
-      </c>
-      <c r="K6">
-        <v>2222672</v>
-      </c>
-      <c r="L6">
-        <v>44201259</v>
-      </c>
-      <c r="M6">
-        <v>1016007</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B7">
-        <v>7291722</v>
+        <v>7160934</v>
       </c>
       <c r="C7">
-        <v>1749607</v>
+        <v>1577260</v>
       </c>
       <c r="D7">
-        <v>44968615</v>
+        <v>45271750</v>
       </c>
       <c r="E7">
-        <v>2189265</v>
+        <v>3060479</v>
       </c>
       <c r="F7">
+        <v>7404599</v>
+      </c>
+      <c r="G7">
+        <v>1981131</v>
+      </c>
+      <c r="H7">
+        <v>44624214</v>
+      </c>
+      <c r="I7">
+        <v>1594076</v>
+      </c>
+      <c r="J7">
         <v>7586013</v>
       </c>
-      <c r="G7">
+      <c r="K7">
         <v>2222672</v>
       </c>
-      <c r="H7">
+      <c r="L7">
         <v>44201259</v>
       </c>
-      <c r="I7">
+      <c r="M7">
         <v>1016007</v>
-      </c>
-      <c r="J7">
-        <v>7862567</v>
-      </c>
-      <c r="K7">
-        <v>2422756</v>
-      </c>
-      <c r="L7">
-        <v>43724619</v>
-      </c>
-      <c r="M7">
-        <v>570032</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B8">
-        <v>7404599</v>
+        <v>7291722</v>
       </c>
       <c r="C8">
-        <v>1981131</v>
+        <v>1749607</v>
       </c>
       <c r="D8">
-        <v>44624214</v>
+        <v>44968615</v>
       </c>
       <c r="E8">
-        <v>1594076</v>
+        <v>2189265</v>
       </c>
       <c r="F8">
+        <v>7586013</v>
+      </c>
+      <c r="G8">
+        <v>2222672</v>
+      </c>
+      <c r="H8">
+        <v>44201259</v>
+      </c>
+      <c r="I8">
+        <v>1016007</v>
+      </c>
+      <c r="J8">
         <v>7862567</v>
       </c>
-      <c r="G8">
+      <c r="K8">
         <v>2422756</v>
       </c>
-      <c r="H8">
+      <c r="L8">
         <v>43724619</v>
       </c>
-      <c r="I8">
+      <c r="M8">
         <v>570032</v>
-      </c>
-      <c r="J8">
-        <v>8302865</v>
-      </c>
-      <c r="K8">
-        <v>2538614</v>
-      </c>
-      <c r="L8">
-        <v>43168463</v>
-      </c>
-      <c r="M8">
-        <v>294719</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B9">
-        <v>7586013</v>
+        <v>7404599</v>
       </c>
       <c r="C9">
-        <v>2222672</v>
+        <v>1981131</v>
       </c>
       <c r="D9">
-        <v>44201259</v>
+        <v>44624214</v>
       </c>
       <c r="E9">
-        <v>1016007</v>
+        <v>1594076</v>
       </c>
       <c r="F9">
+        <v>7862567</v>
+      </c>
+      <c r="G9">
+        <v>2422756</v>
+      </c>
+      <c r="H9">
+        <v>43724619</v>
+      </c>
+      <c r="I9">
+        <v>570032</v>
+      </c>
+      <c r="J9">
         <v>8302865</v>
       </c>
-      <c r="G9">
+      <c r="K9">
         <v>2538614</v>
       </c>
-      <c r="H9">
+      <c r="L9">
         <v>43168463</v>
       </c>
-      <c r="I9">
+      <c r="M9">
         <v>294719</v>
-      </c>
-      <c r="J9">
-        <v>8683749</v>
-      </c>
-      <c r="K9">
-        <v>2653423</v>
-      </c>
-      <c r="L9">
-        <v>42672767</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B10">
-        <v>7862567</v>
+        <v>7586013</v>
       </c>
       <c r="C10">
-        <v>2422756</v>
+        <v>2222672</v>
       </c>
       <c r="D10">
-        <v>43724619</v>
+        <v>44201259</v>
       </c>
       <c r="E10">
-        <v>570032</v>
+        <v>1016007</v>
       </c>
       <c r="F10">
+        <v>8302865</v>
+      </c>
+      <c r="G10">
+        <v>2538614</v>
+      </c>
+      <c r="H10">
+        <v>43168463</v>
+      </c>
+      <c r="I10">
+        <v>294719</v>
+      </c>
+      <c r="J10">
         <v>8683749</v>
       </c>
-      <c r="G10">
+      <c r="K10">
         <v>2653423</v>
       </c>
-      <c r="H10">
+      <c r="L10">
         <v>42672767</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>9231487</v>
-      </c>
-      <c r="K10">
-        <v>2863195</v>
-      </c>
-      <c r="L10">
-        <v>41915257</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2362,40 +2415,40 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B11">
-        <v>8302865</v>
+        <v>7862567</v>
       </c>
       <c r="C11">
-        <v>2538614</v>
+        <v>2422756</v>
       </c>
       <c r="D11">
-        <v>43168463</v>
+        <v>43724619</v>
       </c>
       <c r="E11">
-        <v>294719</v>
+        <v>570032</v>
       </c>
       <c r="F11">
+        <v>8683749</v>
+      </c>
+      <c r="G11">
+        <v>2653423</v>
+      </c>
+      <c r="H11">
+        <v>42672767</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>9231487</v>
       </c>
-      <c r="G11">
+      <c r="K11">
         <v>2863195</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>41915257</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>9829232</v>
-      </c>
-      <c r="K11">
-        <v>3259454</v>
-      </c>
-      <c r="L11">
-        <v>40921215</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2403,40 +2456,40 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B12">
-        <v>8683749</v>
+        <v>8302865</v>
       </c>
       <c r="C12">
-        <v>2653423</v>
+        <v>2538614</v>
       </c>
       <c r="D12">
-        <v>42672767</v>
+        <v>43168463</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>294719</v>
       </c>
       <c r="F12">
+        <v>9231487</v>
+      </c>
+      <c r="G12">
+        <v>2863195</v>
+      </c>
+      <c r="H12">
+        <v>41915257</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>9829232</v>
       </c>
-      <c r="G12">
+      <c r="K12">
         <v>3259454</v>
       </c>
-      <c r="H12">
+      <c r="L12">
         <v>40921215</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>10307179</v>
-      </c>
-      <c r="K12">
-        <v>3862335</v>
-      </c>
-      <c r="L12">
-        <v>39840387</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2444,40 +2497,40 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B13">
-        <v>9231487</v>
+        <v>8683749</v>
       </c>
       <c r="C13">
-        <v>2863195</v>
+        <v>2653423</v>
       </c>
       <c r="D13">
-        <v>41915257</v>
+        <v>42672767</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
+        <v>9829232</v>
+      </c>
+      <c r="G13">
+        <v>3259454</v>
+      </c>
+      <c r="H13">
+        <v>40921215</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>10307179</v>
       </c>
-      <c r="G13">
+      <c r="K13">
         <v>3862335</v>
       </c>
-      <c r="H13">
+      <c r="L13">
         <v>39840387</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>10942694</v>
-      </c>
-      <c r="K13">
-        <v>4426185</v>
-      </c>
-      <c r="L13">
-        <v>38641022</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2485,40 +2538,40 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B14">
-        <v>9829232</v>
+        <v>9231487</v>
       </c>
       <c r="C14">
-        <v>3259454</v>
+        <v>2863195</v>
       </c>
       <c r="D14">
-        <v>40921215</v>
+        <v>41915257</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
+        <v>10307179</v>
+      </c>
+      <c r="G14">
+        <v>3862335</v>
+      </c>
+      <c r="H14">
+        <v>39840387</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>10942694</v>
       </c>
-      <c r="G14">
+      <c r="K14">
         <v>4426185</v>
       </c>
-      <c r="H14">
+      <c r="L14">
         <v>38641022</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>11786620</v>
-      </c>
-      <c r="K14">
-        <v>4805486</v>
-      </c>
-      <c r="L14">
-        <v>37417795</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2526,40 +2579,40 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B15">
-        <v>10307179</v>
+        <v>9829232</v>
       </c>
       <c r="C15">
-        <v>3862335</v>
+        <v>3259454</v>
       </c>
       <c r="D15">
-        <v>39840387</v>
+        <v>40921215</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
+        <v>10942694</v>
+      </c>
+      <c r="G15">
+        <v>4426185</v>
+      </c>
+      <c r="H15">
+        <v>38641022</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>11786620</v>
       </c>
-      <c r="G15">
+      <c r="K15">
         <v>4805486</v>
       </c>
-      <c r="H15">
+      <c r="L15">
         <v>37417795</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>12581126</v>
-      </c>
-      <c r="K15">
-        <v>5096568</v>
-      </c>
-      <c r="L15">
-        <v>36332207</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2567,40 +2620,40 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B16">
-        <v>10942694</v>
+        <v>10307179</v>
       </c>
       <c r="C16">
-        <v>4426185</v>
+        <v>3862335</v>
       </c>
       <c r="D16">
-        <v>38641022</v>
+        <v>39840387</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
+        <v>11786620</v>
+      </c>
+      <c r="G16">
+        <v>4805486</v>
+      </c>
+      <c r="H16">
+        <v>37417795</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>12581126</v>
       </c>
-      <c r="G16">
+      <c r="K16">
         <v>5096568</v>
       </c>
-      <c r="H16">
+      <c r="L16">
         <v>36332207</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>13334156</v>
-      </c>
-      <c r="K16">
-        <v>5075930</v>
-      </c>
-      <c r="L16">
-        <v>35599815</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2608,40 +2661,40 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B17">
-        <v>11786620</v>
+        <v>10942694</v>
       </c>
       <c r="C17">
-        <v>4805486</v>
+        <v>4426185</v>
       </c>
       <c r="D17">
-        <v>37417795</v>
+        <v>38641022</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
+        <v>12581126</v>
+      </c>
+      <c r="G17">
+        <v>5096568</v>
+      </c>
+      <c r="H17">
+        <v>36332207</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>13334156</v>
       </c>
-      <c r="G17">
+      <c r="K17">
         <v>5075930</v>
       </c>
-      <c r="H17">
+      <c r="L17">
         <v>35599815</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>14507530</v>
-      </c>
-      <c r="K17">
-        <v>5210293</v>
-      </c>
-      <c r="L17">
-        <v>34292078</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2649,40 +2702,40 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B18">
-        <v>12581126</v>
+        <v>11786620</v>
       </c>
       <c r="C18">
-        <v>5096568</v>
+        <v>4805486</v>
       </c>
       <c r="D18">
-        <v>36332207</v>
+        <v>37417795</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
+        <v>13334156</v>
+      </c>
+      <c r="G18">
+        <v>5075930</v>
+      </c>
+      <c r="H18">
+        <v>35599815</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>14507530</v>
       </c>
-      <c r="G18">
+      <c r="K18">
         <v>5210293</v>
       </c>
-      <c r="H18">
+      <c r="L18">
         <v>34292078</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>15656647</v>
-      </c>
-      <c r="K18">
-        <v>6065610</v>
-      </c>
-      <c r="L18">
-        <v>32287644</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2690,40 +2743,40 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B19">
-        <v>13334156</v>
+        <v>12581126</v>
       </c>
       <c r="C19">
-        <v>5075930</v>
+        <v>5096568</v>
       </c>
       <c r="D19">
-        <v>35599815</v>
+        <v>36332207</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
+        <v>14507530</v>
+      </c>
+      <c r="G19">
+        <v>5210293</v>
+      </c>
+      <c r="H19">
+        <v>34292078</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>15656647</v>
       </c>
-      <c r="G19">
+      <c r="K19">
         <v>6065610</v>
       </c>
-      <c r="H19">
+      <c r="L19">
         <v>32287644</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>16708830</v>
-      </c>
-      <c r="K19">
-        <v>7672393</v>
-      </c>
-      <c r="L19">
-        <v>29628678</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2731,40 +2784,40 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B20">
-        <v>14507530</v>
+        <v>13334156</v>
       </c>
       <c r="C20">
-        <v>5210293</v>
+        <v>5075930</v>
       </c>
       <c r="D20">
-        <v>34292078</v>
+        <v>35599815</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
+        <v>15656647</v>
+      </c>
+      <c r="G20">
+        <v>6065610</v>
+      </c>
+      <c r="H20">
+        <v>32287644</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>16708830</v>
       </c>
-      <c r="G20">
+      <c r="K20">
         <v>7672393</v>
       </c>
-      <c r="H20">
+      <c r="L20">
         <v>29628678</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>17568325</v>
-      </c>
-      <c r="K20">
-        <v>9940124</v>
-      </c>
-      <c r="L20">
-        <v>26501452</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2772,40 +2825,40 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B21">
-        <v>15656647</v>
+        <v>14507530</v>
       </c>
       <c r="C21">
-        <v>6065610</v>
+        <v>5210293</v>
       </c>
       <c r="D21">
-        <v>32287644</v>
+        <v>34292078</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
+        <v>16708830</v>
+      </c>
+      <c r="G21">
+        <v>7672393</v>
+      </c>
+      <c r="H21">
+        <v>29628678</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>17568325</v>
       </c>
-      <c r="G21">
+      <c r="K21">
         <v>9940124</v>
       </c>
-      <c r="H21">
+      <c r="L21">
         <v>26501452</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>20322806</v>
-      </c>
-      <c r="K21">
-        <v>11341436</v>
-      </c>
-      <c r="L21">
-        <v>22345659</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2813,40 +2866,40 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B22">
-        <v>16708830</v>
+        <v>15656647</v>
       </c>
       <c r="C22">
-        <v>7672393</v>
+        <v>6065610</v>
       </c>
       <c r="D22">
-        <v>29628678</v>
+        <v>32287644</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
+        <v>17568325</v>
+      </c>
+      <c r="G22">
+        <v>9940124</v>
+      </c>
+      <c r="H22">
+        <v>26501452</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>20322806</v>
       </c>
-      <c r="G22">
+      <c r="K22">
         <v>11341436</v>
       </c>
-      <c r="H22">
+      <c r="L22">
         <v>22345659</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>21289761</v>
-      </c>
-      <c r="K22">
-        <v>13149676</v>
-      </c>
-      <c r="L22">
-        <v>19570464</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2854,40 +2907,40 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B23">
-        <v>17568325</v>
+        <v>16708830</v>
       </c>
       <c r="C23">
-        <v>9940124</v>
+        <v>7672393</v>
       </c>
       <c r="D23">
-        <v>26501452</v>
+        <v>29628678</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
+        <v>20322806</v>
+      </c>
+      <c r="G23">
+        <v>11341436</v>
+      </c>
+      <c r="H23">
+        <v>22345659</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>21289761</v>
       </c>
-      <c r="G23">
+      <c r="K23">
         <v>13149676</v>
       </c>
-      <c r="H23">
+      <c r="L23">
         <v>19570464</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>22879167</v>
-      </c>
-      <c r="K23">
-        <v>13741130</v>
-      </c>
-      <c r="L23">
-        <v>17389604</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2895,40 +2948,40 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B24">
-        <v>20322806</v>
+        <v>17568325</v>
       </c>
       <c r="C24">
-        <v>11341436</v>
+        <v>9940124</v>
       </c>
       <c r="D24">
-        <v>22345659</v>
+        <v>26501452</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
+        <v>21289761</v>
+      </c>
+      <c r="G24">
+        <v>13149676</v>
+      </c>
+      <c r="H24">
+        <v>19570464</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>22879167</v>
       </c>
-      <c r="G24">
+      <c r="K24">
         <v>13741130</v>
       </c>
-      <c r="H24">
+      <c r="L24">
         <v>17389604</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>24745853</v>
-      </c>
-      <c r="K24">
-        <v>13879852</v>
-      </c>
-      <c r="L24">
-        <v>15384196</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2936,40 +2989,40 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B25">
-        <v>21289761</v>
+        <v>20322806</v>
       </c>
       <c r="C25">
-        <v>13149676</v>
+        <v>11341436</v>
       </c>
       <c r="D25">
-        <v>19570464</v>
+        <v>22345659</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
+        <v>22879167</v>
+      </c>
+      <c r="G25">
+        <v>13741130</v>
+      </c>
+      <c r="H25">
+        <v>17389604</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>24745853</v>
       </c>
-      <c r="G25">
+      <c r="K25">
         <v>13879852</v>
       </c>
-      <c r="H25">
+      <c r="L25">
         <v>15384196</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>27065063</v>
-      </c>
-      <c r="K25">
-        <v>13015437</v>
-      </c>
-      <c r="L25">
-        <v>13929401</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2977,40 +3030,40 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B26">
-        <v>22879167</v>
+        <v>21289761</v>
       </c>
       <c r="C26">
-        <v>13741130</v>
+        <v>13149676</v>
       </c>
       <c r="D26">
-        <v>17389604</v>
+        <v>19570464</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
+        <v>24745853</v>
+      </c>
+      <c r="G26">
+        <v>13879852</v>
+      </c>
+      <c r="H26">
+        <v>15384196</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>27065063</v>
       </c>
-      <c r="G26">
+      <c r="K26">
         <v>13015437</v>
       </c>
-      <c r="H26">
+      <c r="L26">
         <v>13929401</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -3018,28 +3071,28 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B27">
-        <v>24745853</v>
+        <v>22879167</v>
       </c>
       <c r="C27">
-        <v>13879852</v>
+        <v>13741130</v>
       </c>
       <c r="D27">
-        <v>15384196</v>
+        <v>17389604</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>27065063</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>13015437</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>13929401</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3059,42 +3112,83 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B28">
+        <v>24745853</v>
+      </c>
+      <c r="C28">
+        <v>13879852</v>
+      </c>
+      <c r="D28">
+        <v>15384196</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2">
         <v>44391</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>27065063</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>13015437</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>13929401</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -447,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,582 +508,582 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B2">
-        <v>555697</v>
+        <v>703732</v>
       </c>
       <c r="C2">
-        <v>102729</v>
+        <v>127478</v>
       </c>
       <c r="D2">
-        <v>2206303</v>
+        <v>2706554</v>
       </c>
       <c r="E2">
-        <v>358530</v>
+        <v>521657</v>
       </c>
       <c r="F2">
-        <v>11487</v>
+        <v>13946</v>
       </c>
       <c r="G2">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="H2">
-        <v>13000</v>
+        <v>18336</v>
       </c>
       <c r="I2">
-        <v>2066</v>
+        <v>4177</v>
       </c>
       <c r="J2">
-        <v>1557</v>
+        <v>1753</v>
       </c>
       <c r="K2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L2">
-        <v>809</v>
+        <v>1014</v>
       </c>
       <c r="M2">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="N2">
-        <v>1774</v>
+        <v>2120</v>
       </c>
       <c r="O2">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="P2">
-        <v>1863</v>
+        <v>2375</v>
       </c>
       <c r="Q2">
-        <v>215</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B3">
-        <v>395424</v>
+        <v>555697</v>
       </c>
       <c r="C3">
-        <v>68050</v>
+        <v>102729</v>
       </c>
       <c r="D3">
-        <v>1520148</v>
+        <v>2206303</v>
       </c>
       <c r="E3">
-        <v>200146</v>
+        <v>358530</v>
       </c>
       <c r="F3">
-        <v>9564</v>
+        <v>11487</v>
       </c>
       <c r="G3">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="H3">
-        <v>9604</v>
+        <v>13000</v>
       </c>
       <c r="I3">
-        <v>955</v>
+        <v>2066</v>
       </c>
       <c r="J3">
-        <v>1368</v>
+        <v>1557</v>
       </c>
       <c r="K3">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L3">
-        <v>663</v>
+        <v>809</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="N3">
-        <v>1443</v>
+        <v>1774</v>
       </c>
       <c r="O3">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="P3">
-        <v>1606</v>
+        <v>1863</v>
       </c>
       <c r="Q3">
-        <v>132</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B4">
-        <v>251412</v>
+        <v>395424</v>
       </c>
       <c r="C4">
-        <v>34617</v>
+        <v>68050</v>
       </c>
       <c r="D4">
-        <v>822338</v>
+        <v>1520148</v>
       </c>
       <c r="E4">
-        <v>79260</v>
+        <v>200146</v>
       </c>
       <c r="F4">
-        <v>8278</v>
+        <v>9564</v>
       </c>
       <c r="G4">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="H4">
-        <v>8063</v>
+        <v>9604</v>
       </c>
       <c r="I4">
-        <v>546</v>
+        <v>955</v>
       </c>
       <c r="J4">
-        <v>1202</v>
+        <v>1368</v>
       </c>
       <c r="K4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L4">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N4">
-        <v>1170</v>
+        <v>1443</v>
       </c>
       <c r="O4">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P4">
-        <v>1489</v>
+        <v>1606</v>
       </c>
       <c r="Q4">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B5">
-        <v>170551</v>
+        <v>251412</v>
       </c>
       <c r="C5">
-        <v>14491</v>
+        <v>34617</v>
       </c>
       <c r="D5">
-        <v>385856</v>
+        <v>822338</v>
       </c>
       <c r="E5">
-        <v>20375</v>
+        <v>79260</v>
       </c>
       <c r="F5">
-        <v>7059</v>
+        <v>8278</v>
       </c>
       <c r="G5">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="H5">
-        <v>7229</v>
+        <v>8063</v>
       </c>
       <c r="I5">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="J5">
-        <v>1036</v>
+        <v>1202</v>
       </c>
       <c r="K5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5">
-        <v>555</v>
+        <v>614</v>
       </c>
       <c r="M5">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N5">
-        <v>994</v>
+        <v>1170</v>
       </c>
       <c r="O5">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="P5">
-        <v>1262</v>
+        <v>1489</v>
       </c>
       <c r="Q5">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B6">
-        <v>140677</v>
+        <v>170551</v>
       </c>
       <c r="C6">
-        <v>9069</v>
+        <v>14491</v>
       </c>
       <c r="D6">
-        <v>254999</v>
+        <v>385856</v>
       </c>
       <c r="E6">
-        <v>7655</v>
+        <v>20375</v>
       </c>
       <c r="F6">
-        <v>5944</v>
+        <v>7059</v>
       </c>
       <c r="G6">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="H6">
-        <v>6384</v>
+        <v>7229</v>
       </c>
       <c r="I6">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="J6">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="K6">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L6">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N6">
-        <v>839</v>
+        <v>994</v>
       </c>
       <c r="O6">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="P6">
-        <v>1105</v>
+        <v>1262</v>
       </c>
       <c r="Q6">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B7">
-        <v>114674</v>
+        <v>140677</v>
       </c>
       <c r="C7">
-        <v>7107</v>
+        <v>9069</v>
       </c>
       <c r="D7">
-        <v>198287</v>
+        <v>254999</v>
       </c>
       <c r="E7">
-        <v>4219</v>
+        <v>7655</v>
       </c>
       <c r="F7">
-        <v>5081</v>
+        <v>5944</v>
       </c>
       <c r="G7">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="H7">
-        <v>5451</v>
+        <v>6384</v>
       </c>
       <c r="I7">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="J7">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="K7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L7">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="M7">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N7">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="O7">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="P7">
-        <v>991</v>
+        <v>1105</v>
       </c>
       <c r="Q7">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B8">
-        <v>93220</v>
+        <v>114674</v>
       </c>
       <c r="C8">
-        <v>6181</v>
+        <v>7107</v>
       </c>
       <c r="D8">
-        <v>161951</v>
+        <v>198287</v>
       </c>
       <c r="E8">
-        <v>2652</v>
+        <v>4219</v>
       </c>
       <c r="F8">
-        <v>4402</v>
+        <v>5081</v>
       </c>
       <c r="G8">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H8">
-        <v>4653</v>
+        <v>5451</v>
       </c>
       <c r="I8">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="J8">
-        <v>618</v>
+        <v>747</v>
       </c>
       <c r="K8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L8">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N8">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="O8">
+        <v>42</v>
+      </c>
+      <c r="P8">
+        <v>991</v>
+      </c>
+      <c r="Q8">
         <v>29</v>
-      </c>
-      <c r="P8">
-        <v>807</v>
-      </c>
-      <c r="Q8">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B9">
-        <v>75512</v>
+        <v>93220</v>
       </c>
       <c r="C9">
-        <v>5587</v>
+        <v>6181</v>
       </c>
       <c r="D9">
-        <v>128488</v>
+        <v>161951</v>
       </c>
       <c r="E9">
-        <v>1710</v>
+        <v>2652</v>
       </c>
       <c r="F9">
-        <v>3733</v>
+        <v>4402</v>
       </c>
       <c r="G9">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="H9">
-        <v>3845</v>
+        <v>4653</v>
       </c>
       <c r="I9">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="J9">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="K9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L9">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N9">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="O9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="P9">
-        <v>690</v>
+        <v>807</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B10">
-        <v>61908</v>
+        <v>75512</v>
       </c>
       <c r="C10">
-        <v>4260</v>
+        <v>5587</v>
       </c>
       <c r="D10">
-        <v>98228</v>
+        <v>128488</v>
       </c>
       <c r="E10">
-        <v>969</v>
+        <v>1710</v>
       </c>
       <c r="F10">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="G10">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="H10">
-        <v>3693</v>
+        <v>3845</v>
       </c>
       <c r="I10">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J10">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="K10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L10">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
       <c r="N10">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="O10">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P10">
-        <v>555</v>
+        <v>690</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B11">
-        <v>50564</v>
+        <v>61908</v>
       </c>
       <c r="C11">
-        <v>3980</v>
+        <v>4260</v>
       </c>
       <c r="D11">
-        <v>72159</v>
+        <v>98228</v>
       </c>
       <c r="E11">
-        <v>537</v>
+        <v>969</v>
       </c>
       <c r="F11">
-        <v>3220</v>
+        <v>3737</v>
       </c>
       <c r="G11">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="H11">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="I11">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="J11">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="K11">
         <v>14</v>
       </c>
       <c r="L11">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="O11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P11">
-        <v>444</v>
+        <v>555</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B12">
-        <v>40182</v>
+        <v>50564</v>
       </c>
       <c r="C12">
-        <v>3466</v>
+        <v>3980</v>
       </c>
       <c r="D12">
-        <v>52302</v>
+        <v>72159</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>537</v>
       </c>
       <c r="F12">
-        <v>2890</v>
+        <v>3220</v>
       </c>
       <c r="G12">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H12">
-        <v>2409</v>
+        <v>2936</v>
       </c>
       <c r="I12">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J12">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="K12">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L12">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="O12">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="P12">
-        <v>384</v>
+        <v>444</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1091,52 +1091,52 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B13">
-        <v>35398</v>
+        <v>40182</v>
       </c>
       <c r="C13">
-        <v>3207</v>
+        <v>3466</v>
       </c>
       <c r="D13">
-        <v>40991</v>
+        <v>52302</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="F13">
-        <v>2696</v>
+        <v>2890</v>
       </c>
       <c r="G13">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13">
-        <v>2037</v>
+        <v>2409</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J13">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L13">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="O13">
         <v>27</v>
       </c>
       <c r="P13">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1144,52 +1144,52 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B14">
-        <v>34128</v>
+        <v>35398</v>
       </c>
       <c r="C14">
-        <v>3421</v>
+        <v>3207</v>
       </c>
       <c r="D14">
-        <v>34131</v>
+        <v>40991</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2845</v>
+        <v>2696</v>
       </c>
       <c r="G14">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="H14">
-        <v>1815</v>
+        <v>2037</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="K14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L14">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="O14">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P14">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1197,52 +1197,52 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B15">
-        <v>36194</v>
+        <v>34128</v>
       </c>
       <c r="C15">
-        <v>4127</v>
+        <v>3421</v>
       </c>
       <c r="D15">
-        <v>31514</v>
+        <v>34131</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3396</v>
+        <v>2845</v>
       </c>
       <c r="G15">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="H15">
-        <v>1954</v>
+        <v>1815</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L15">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="O15">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P15">
-        <v>511</v>
+        <v>461</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1250,52 +1250,52 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B16">
-        <v>45790</v>
+        <v>36194</v>
       </c>
       <c r="C16">
-        <v>5352</v>
+        <v>4127</v>
       </c>
       <c r="D16">
-        <v>33496</v>
+        <v>31514</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4274</v>
+        <v>3396</v>
       </c>
       <c r="G16">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="H16">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="K16">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L16">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>775</v>
+        <v>636</v>
       </c>
       <c r="O16">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P16">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1303,52 +1303,52 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B17">
-        <v>56808</v>
+        <v>45790</v>
       </c>
       <c r="C17">
-        <v>6952</v>
+        <v>5352</v>
       </c>
       <c r="D17">
-        <v>36529</v>
+        <v>33496</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>5224</v>
+        <v>4274</v>
       </c>
       <c r="G17">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="H17">
-        <v>2268</v>
+        <v>2133</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="K17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L17">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="O17">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P17">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1356,52 +1356,52 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B18">
-        <v>70900</v>
+        <v>56808</v>
       </c>
       <c r="C18">
-        <v>9284</v>
+        <v>6952</v>
       </c>
       <c r="D18">
-        <v>40060</v>
+        <v>36529</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>6160</v>
+        <v>5224</v>
       </c>
       <c r="G18">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="H18">
-        <v>2418</v>
+        <v>2268</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="K18">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L18">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="O18">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="P18">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1409,52 +1409,52 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B19">
-        <v>86133</v>
+        <v>70900</v>
       </c>
       <c r="C19">
-        <v>11735</v>
+        <v>9284</v>
       </c>
       <c r="D19">
-        <v>44050</v>
+        <v>40060</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>6782</v>
+        <v>6160</v>
       </c>
       <c r="G19">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="H19">
-        <v>2456</v>
+        <v>2418</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="K19">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L19">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="O19">
         <v>57</v>
       </c>
       <c r="P19">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1462,52 +1462,52 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B20">
-        <v>96900</v>
+        <v>86133</v>
       </c>
       <c r="C20">
-        <v>13728</v>
+        <v>11735</v>
       </c>
       <c r="D20">
-        <v>44990</v>
+        <v>44050</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>6841</v>
+        <v>6782</v>
       </c>
       <c r="G20">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="H20">
-        <v>2331</v>
+        <v>2456</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="K20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L20">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>770</v>
+        <v>877</v>
       </c>
       <c r="O20">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P20">
-        <v>405</v>
+        <v>509</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1515,52 +1515,52 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B21">
-        <v>104890</v>
+        <v>96900</v>
       </c>
       <c r="C21">
-        <v>16129</v>
+        <v>13728</v>
       </c>
       <c r="D21">
-        <v>43775</v>
+        <v>44990</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>6579</v>
+        <v>6841</v>
       </c>
       <c r="G21">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="H21">
-        <v>2118</v>
+        <v>2331</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="K21">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L21">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="O21">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P21">
-        <v>280</v>
+        <v>405</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1568,52 +1568,52 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B22">
-        <v>107937</v>
+        <v>104890</v>
       </c>
       <c r="C22">
-        <v>18925</v>
+        <v>16129</v>
       </c>
       <c r="D22">
-        <v>40380</v>
+        <v>43775</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5988</v>
+        <v>6579</v>
       </c>
       <c r="G22">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="H22">
-        <v>1788</v>
+        <v>2118</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="K22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L22">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>383</v>
+        <v>571</v>
       </c>
       <c r="O22">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="P22">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1621,52 +1621,52 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B23">
-        <v>104405</v>
+        <v>107937</v>
       </c>
       <c r="C23">
-        <v>21703</v>
+        <v>18925</v>
       </c>
       <c r="D23">
-        <v>33894</v>
+        <v>40380</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5162</v>
+        <v>5988</v>
       </c>
       <c r="G23">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="H23">
-        <v>1349</v>
+        <v>1788</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="K23">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L23">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="O23">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="P23">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -1674,52 +1674,52 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B24">
-        <v>95261</v>
+        <v>104405</v>
       </c>
       <c r="C24">
-        <v>22568</v>
+        <v>21703</v>
       </c>
       <c r="D24">
-        <v>24978</v>
+        <v>33894</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4052</v>
+        <v>5162</v>
       </c>
       <c r="G24">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="H24">
-        <v>959</v>
+        <v>1349</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="K24">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L24">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="O24">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P24">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -1727,52 +1727,52 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B25">
-        <v>80585</v>
+        <v>95261</v>
       </c>
       <c r="C25">
-        <v>21570</v>
+        <v>22568</v>
       </c>
       <c r="D25">
-        <v>18887</v>
+        <v>24978</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3067</v>
+        <v>4052</v>
       </c>
       <c r="G25">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="H25">
-        <v>627</v>
+        <v>959</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="K25">
         <v>22</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="O25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P25">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -1780,49 +1780,49 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B26">
-        <v>60267</v>
+        <v>80585</v>
       </c>
       <c r="C26">
-        <v>17420</v>
+        <v>21570</v>
       </c>
       <c r="D26">
-        <v>12333</v>
+        <v>18887</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2234</v>
+        <v>3067</v>
       </c>
       <c r="G26">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="H26">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="K26">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="O26">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P26">
         <v>34</v>
@@ -1833,52 +1833,52 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B27">
-        <v>40729</v>
+        <v>60267</v>
       </c>
       <c r="C27">
-        <v>12032</v>
+        <v>17420</v>
       </c>
       <c r="D27">
-        <v>7277</v>
+        <v>12333</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1619</v>
+        <v>2234</v>
       </c>
       <c r="G27">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="H27">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="K27">
         <v>11</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="O27">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="P27">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -1886,52 +1886,52 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B28">
-        <v>26284</v>
+        <v>40729</v>
       </c>
       <c r="C28">
-        <v>6813</v>
+        <v>12032</v>
       </c>
       <c r="D28">
-        <v>3805</v>
+        <v>7277</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1483</v>
+        <v>1619</v>
       </c>
       <c r="G28">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H28">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="O28">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="P28">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -1939,54 +1939,107 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B29">
+        <v>26284</v>
+      </c>
+      <c r="C29">
+        <v>6813</v>
+      </c>
+      <c r="D29">
+        <v>3805</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1483</v>
+      </c>
+      <c r="G29">
+        <v>199</v>
+      </c>
+      <c r="H29">
+        <v>224</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>117</v>
+      </c>
+      <c r="K29">
+        <v>14</v>
+      </c>
+      <c r="L29">
+        <v>8</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>250</v>
+      </c>
+      <c r="O29">
+        <v>47</v>
+      </c>
+      <c r="P29">
+        <v>46</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="2">
         <v>44391</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>21089</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>3954</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>2310</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>1880</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>240</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>240</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>147</v>
       </c>
-      <c r="K29">
+      <c r="K30">
         <v>20</v>
       </c>
-      <c r="L29">
+      <c r="L30">
         <v>7</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
         <v>357</v>
       </c>
-      <c r="O29">
+      <c r="O30">
         <v>72</v>
       </c>
-      <c r="P29">
+      <c r="P30">
         <v>68</v>
       </c>
-      <c r="Q29">
+      <c r="Q30">
         <v>0</v>
       </c>
     </row>
@@ -1997,7 +2050,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2046,409 +2099,409 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B2">
-        <v>6194434</v>
+        <v>6113428</v>
       </c>
       <c r="C2">
-        <v>1720841</v>
+        <v>1676275</v>
       </c>
       <c r="D2">
-        <v>46094670</v>
+        <v>46220242</v>
       </c>
       <c r="E2">
-        <v>14235354</v>
+        <v>17089973</v>
       </c>
       <c r="F2">
-        <v>6647970</v>
+        <v>6466161</v>
       </c>
       <c r="G2">
-        <v>1566179</v>
+        <v>1644869</v>
       </c>
       <c r="H2">
-        <v>45795796</v>
+        <v>45898915</v>
       </c>
       <c r="I2">
-        <v>8107388</v>
+        <v>10974280</v>
       </c>
       <c r="J2">
-        <v>6862315</v>
+        <v>6710026</v>
       </c>
       <c r="K2">
-        <v>1493790</v>
+        <v>1549282</v>
       </c>
       <c r="L2">
-        <v>45653840</v>
+        <v>45750637</v>
       </c>
       <c r="M2">
-        <v>5699241</v>
+        <v>8104259</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B3">
-        <v>6414467</v>
+        <v>6194434</v>
       </c>
       <c r="C3">
-        <v>1678301</v>
+        <v>1720841</v>
       </c>
       <c r="D3">
-        <v>45917177</v>
+        <v>46094670</v>
       </c>
       <c r="E3">
-        <v>10972555</v>
+        <v>14235354</v>
       </c>
       <c r="F3">
-        <v>6876688</v>
+        <v>6647970</v>
       </c>
       <c r="G3">
-        <v>1504168</v>
+        <v>1566179</v>
       </c>
       <c r="H3">
-        <v>45629089</v>
+        <v>45795796</v>
       </c>
       <c r="I3">
-        <v>5694939</v>
+        <v>8107388</v>
       </c>
       <c r="J3">
-        <v>7031651</v>
+        <v>6862315</v>
       </c>
       <c r="K3">
-        <v>1502381</v>
+        <v>1493790</v>
       </c>
       <c r="L3">
-        <v>45475912</v>
+        <v>45653840</v>
       </c>
       <c r="M3">
-        <v>4133267</v>
+        <v>5699241</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B4">
-        <v>6660263</v>
+        <v>6414467</v>
       </c>
       <c r="C4">
-        <v>1578764</v>
+        <v>1678301</v>
       </c>
       <c r="D4">
-        <v>45770918</v>
+        <v>45917177</v>
       </c>
       <c r="E4">
-        <v>8102818</v>
+        <v>10972555</v>
       </c>
       <c r="F4">
+        <v>6876688</v>
+      </c>
+      <c r="G4">
+        <v>1504168</v>
+      </c>
+      <c r="H4">
+        <v>45629089</v>
+      </c>
+      <c r="I4">
+        <v>5694939</v>
+      </c>
+      <c r="J4">
         <v>7031651</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <v>1502381</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>45475912</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>4133267</v>
-      </c>
-      <c r="J4">
-        <v>7160934</v>
-      </c>
-      <c r="K4">
-        <v>1577260</v>
-      </c>
-      <c r="L4">
-        <v>45271750</v>
-      </c>
-      <c r="M4">
-        <v>3060479</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B5">
-        <v>6876688</v>
+        <v>6660263</v>
       </c>
       <c r="C5">
-        <v>1504168</v>
+        <v>1578764</v>
       </c>
       <c r="D5">
-        <v>45629089</v>
+        <v>45770918</v>
       </c>
       <c r="E5">
-        <v>5694939</v>
+        <v>8102818</v>
       </c>
       <c r="F5">
+        <v>7031651</v>
+      </c>
+      <c r="G5">
+        <v>1502381</v>
+      </c>
+      <c r="H5">
+        <v>45475912</v>
+      </c>
+      <c r="I5">
+        <v>4133267</v>
+      </c>
+      <c r="J5">
         <v>7160934</v>
       </c>
-      <c r="G5">
+      <c r="K5">
         <v>1577260</v>
       </c>
-      <c r="H5">
+      <c r="L5">
         <v>45271750</v>
       </c>
-      <c r="I5">
+      <c r="M5">
         <v>3060479</v>
-      </c>
-      <c r="J5">
-        <v>7291722</v>
-      </c>
-      <c r="K5">
-        <v>1749607</v>
-      </c>
-      <c r="L5">
-        <v>44968615</v>
-      </c>
-      <c r="M5">
-        <v>2189265</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B6">
-        <v>7031651</v>
+        <v>6876688</v>
       </c>
       <c r="C6">
-        <v>1502381</v>
+        <v>1504168</v>
       </c>
       <c r="D6">
-        <v>45475912</v>
+        <v>45629089</v>
       </c>
       <c r="E6">
-        <v>4133267</v>
+        <v>5694939</v>
       </c>
       <c r="F6">
+        <v>7160934</v>
+      </c>
+      <c r="G6">
+        <v>1577260</v>
+      </c>
+      <c r="H6">
+        <v>45271750</v>
+      </c>
+      <c r="I6">
+        <v>3060479</v>
+      </c>
+      <c r="J6">
         <v>7291722</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <v>1749607</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <v>44968615</v>
       </c>
-      <c r="I6">
+      <c r="M6">
         <v>2189265</v>
-      </c>
-      <c r="J6">
-        <v>7404599</v>
-      </c>
-      <c r="K6">
-        <v>1981131</v>
-      </c>
-      <c r="L6">
-        <v>44624214</v>
-      </c>
-      <c r="M6">
-        <v>1594076</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B7">
-        <v>7160934</v>
+        <v>7031651</v>
       </c>
       <c r="C7">
-        <v>1577260</v>
+        <v>1502381</v>
       </c>
       <c r="D7">
-        <v>45271750</v>
+        <v>45475912</v>
       </c>
       <c r="E7">
-        <v>3060479</v>
+        <v>4133267</v>
       </c>
       <c r="F7">
+        <v>7291722</v>
+      </c>
+      <c r="G7">
+        <v>1749607</v>
+      </c>
+      <c r="H7">
+        <v>44968615</v>
+      </c>
+      <c r="I7">
+        <v>2189265</v>
+      </c>
+      <c r="J7">
         <v>7404599</v>
       </c>
-      <c r="G7">
+      <c r="K7">
         <v>1981131</v>
       </c>
-      <c r="H7">
+      <c r="L7">
         <v>44624214</v>
       </c>
-      <c r="I7">
+      <c r="M7">
         <v>1594076</v>
-      </c>
-      <c r="J7">
-        <v>7586013</v>
-      </c>
-      <c r="K7">
-        <v>2222672</v>
-      </c>
-      <c r="L7">
-        <v>44201259</v>
-      </c>
-      <c r="M7">
-        <v>1016007</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B8">
-        <v>7291722</v>
+        <v>7160934</v>
       </c>
       <c r="C8">
-        <v>1749607</v>
+        <v>1577260</v>
       </c>
       <c r="D8">
-        <v>44968615</v>
+        <v>45271750</v>
       </c>
       <c r="E8">
-        <v>2189265</v>
+        <v>3060479</v>
       </c>
       <c r="F8">
+        <v>7404599</v>
+      </c>
+      <c r="G8">
+        <v>1981131</v>
+      </c>
+      <c r="H8">
+        <v>44624214</v>
+      </c>
+      <c r="I8">
+        <v>1594076</v>
+      </c>
+      <c r="J8">
         <v>7586013</v>
       </c>
-      <c r="G8">
+      <c r="K8">
         <v>2222672</v>
       </c>
-      <c r="H8">
+      <c r="L8">
         <v>44201259</v>
       </c>
-      <c r="I8">
+      <c r="M8">
         <v>1016007</v>
-      </c>
-      <c r="J8">
-        <v>7862567</v>
-      </c>
-      <c r="K8">
-        <v>2422756</v>
-      </c>
-      <c r="L8">
-        <v>43724619</v>
-      </c>
-      <c r="M8">
-        <v>570032</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B9">
-        <v>7404599</v>
+        <v>7291722</v>
       </c>
       <c r="C9">
-        <v>1981131</v>
+        <v>1749607</v>
       </c>
       <c r="D9">
-        <v>44624214</v>
+        <v>44968615</v>
       </c>
       <c r="E9">
-        <v>1594076</v>
+        <v>2189265</v>
       </c>
       <c r="F9">
+        <v>7586013</v>
+      </c>
+      <c r="G9">
+        <v>2222672</v>
+      </c>
+      <c r="H9">
+        <v>44201259</v>
+      </c>
+      <c r="I9">
+        <v>1016007</v>
+      </c>
+      <c r="J9">
         <v>7862567</v>
       </c>
-      <c r="G9">
+      <c r="K9">
         <v>2422756</v>
       </c>
-      <c r="H9">
+      <c r="L9">
         <v>43724619</v>
       </c>
-      <c r="I9">
+      <c r="M9">
         <v>570032</v>
-      </c>
-      <c r="J9">
-        <v>8302865</v>
-      </c>
-      <c r="K9">
-        <v>2538614</v>
-      </c>
-      <c r="L9">
-        <v>43168463</v>
-      </c>
-      <c r="M9">
-        <v>294719</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B10">
-        <v>7586013</v>
+        <v>7404599</v>
       </c>
       <c r="C10">
-        <v>2222672</v>
+        <v>1981131</v>
       </c>
       <c r="D10">
-        <v>44201259</v>
+        <v>44624214</v>
       </c>
       <c r="E10">
-        <v>1016007</v>
+        <v>1594076</v>
       </c>
       <c r="F10">
+        <v>7862567</v>
+      </c>
+      <c r="G10">
+        <v>2422756</v>
+      </c>
+      <c r="H10">
+        <v>43724619</v>
+      </c>
+      <c r="I10">
+        <v>570032</v>
+      </c>
+      <c r="J10">
         <v>8302865</v>
       </c>
-      <c r="G10">
+      <c r="K10">
         <v>2538614</v>
       </c>
-      <c r="H10">
+      <c r="L10">
         <v>43168463</v>
       </c>
-      <c r="I10">
+      <c r="M10">
         <v>294719</v>
-      </c>
-      <c r="J10">
-        <v>8683749</v>
-      </c>
-      <c r="K10">
-        <v>2653423</v>
-      </c>
-      <c r="L10">
-        <v>42672767</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B11">
-        <v>7862567</v>
+        <v>7586013</v>
       </c>
       <c r="C11">
-        <v>2422756</v>
+        <v>2222672</v>
       </c>
       <c r="D11">
-        <v>43724619</v>
+        <v>44201259</v>
       </c>
       <c r="E11">
-        <v>570032</v>
+        <v>1016007</v>
       </c>
       <c r="F11">
+        <v>8302865</v>
+      </c>
+      <c r="G11">
+        <v>2538614</v>
+      </c>
+      <c r="H11">
+        <v>43168463</v>
+      </c>
+      <c r="I11">
+        <v>294719</v>
+      </c>
+      <c r="J11">
         <v>8683749</v>
       </c>
-      <c r="G11">
+      <c r="K11">
         <v>2653423</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>42672767</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>9231487</v>
-      </c>
-      <c r="K11">
-        <v>2863195</v>
-      </c>
-      <c r="L11">
-        <v>41915257</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2456,40 +2509,40 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B12">
-        <v>8302865</v>
+        <v>7862567</v>
       </c>
       <c r="C12">
-        <v>2538614</v>
+        <v>2422756</v>
       </c>
       <c r="D12">
-        <v>43168463</v>
+        <v>43724619</v>
       </c>
       <c r="E12">
-        <v>294719</v>
+        <v>570032</v>
       </c>
       <c r="F12">
+        <v>8683749</v>
+      </c>
+      <c r="G12">
+        <v>2653423</v>
+      </c>
+      <c r="H12">
+        <v>42672767</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>9231487</v>
       </c>
-      <c r="G12">
+      <c r="K12">
         <v>2863195</v>
       </c>
-      <c r="H12">
+      <c r="L12">
         <v>41915257</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>9829232</v>
-      </c>
-      <c r="K12">
-        <v>3259454</v>
-      </c>
-      <c r="L12">
-        <v>40921215</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2497,40 +2550,40 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B13">
-        <v>8683749</v>
+        <v>8302865</v>
       </c>
       <c r="C13">
-        <v>2653423</v>
+        <v>2538614</v>
       </c>
       <c r="D13">
-        <v>42672767</v>
+        <v>43168463</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>294719</v>
       </c>
       <c r="F13">
+        <v>9231487</v>
+      </c>
+      <c r="G13">
+        <v>2863195</v>
+      </c>
+      <c r="H13">
+        <v>41915257</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>9829232</v>
       </c>
-      <c r="G13">
+      <c r="K13">
         <v>3259454</v>
       </c>
-      <c r="H13">
+      <c r="L13">
         <v>40921215</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>10307179</v>
-      </c>
-      <c r="K13">
-        <v>3862335</v>
-      </c>
-      <c r="L13">
-        <v>39840387</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2538,40 +2591,40 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B14">
-        <v>9231487</v>
+        <v>8683749</v>
       </c>
       <c r="C14">
-        <v>2863195</v>
+        <v>2653423</v>
       </c>
       <c r="D14">
-        <v>41915257</v>
+        <v>42672767</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
+        <v>9829232</v>
+      </c>
+      <c r="G14">
+        <v>3259454</v>
+      </c>
+      <c r="H14">
+        <v>40921215</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>10307179</v>
       </c>
-      <c r="G14">
+      <c r="K14">
         <v>3862335</v>
       </c>
-      <c r="H14">
+      <c r="L14">
         <v>39840387</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>10942694</v>
-      </c>
-      <c r="K14">
-        <v>4426185</v>
-      </c>
-      <c r="L14">
-        <v>38641022</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2579,40 +2632,40 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B15">
-        <v>9829232</v>
+        <v>9231487</v>
       </c>
       <c r="C15">
-        <v>3259454</v>
+        <v>2863195</v>
       </c>
       <c r="D15">
-        <v>40921215</v>
+        <v>41915257</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
+        <v>10307179</v>
+      </c>
+      <c r="G15">
+        <v>3862335</v>
+      </c>
+      <c r="H15">
+        <v>39840387</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>10942694</v>
       </c>
-      <c r="G15">
+      <c r="K15">
         <v>4426185</v>
       </c>
-      <c r="H15">
+      <c r="L15">
         <v>38641022</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>11786620</v>
-      </c>
-      <c r="K15">
-        <v>4805486</v>
-      </c>
-      <c r="L15">
-        <v>37417795</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2620,40 +2673,40 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B16">
-        <v>10307179</v>
+        <v>9829232</v>
       </c>
       <c r="C16">
-        <v>3862335</v>
+        <v>3259454</v>
       </c>
       <c r="D16">
-        <v>39840387</v>
+        <v>40921215</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
+        <v>10942694</v>
+      </c>
+      <c r="G16">
+        <v>4426185</v>
+      </c>
+      <c r="H16">
+        <v>38641022</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>11786620</v>
       </c>
-      <c r="G16">
+      <c r="K16">
         <v>4805486</v>
       </c>
-      <c r="H16">
+      <c r="L16">
         <v>37417795</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>12581126</v>
-      </c>
-      <c r="K16">
-        <v>5096568</v>
-      </c>
-      <c r="L16">
-        <v>36332207</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2661,40 +2714,40 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B17">
-        <v>10942694</v>
+        <v>10307179</v>
       </c>
       <c r="C17">
-        <v>4426185</v>
+        <v>3862335</v>
       </c>
       <c r="D17">
-        <v>38641022</v>
+        <v>39840387</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
+        <v>11786620</v>
+      </c>
+      <c r="G17">
+        <v>4805486</v>
+      </c>
+      <c r="H17">
+        <v>37417795</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>12581126</v>
       </c>
-      <c r="G17">
+      <c r="K17">
         <v>5096568</v>
       </c>
-      <c r="H17">
+      <c r="L17">
         <v>36332207</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>13334156</v>
-      </c>
-      <c r="K17">
-        <v>5075930</v>
-      </c>
-      <c r="L17">
-        <v>35599815</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2702,40 +2755,40 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B18">
-        <v>11786620</v>
+        <v>10942694</v>
       </c>
       <c r="C18">
-        <v>4805486</v>
+        <v>4426185</v>
       </c>
       <c r="D18">
-        <v>37417795</v>
+        <v>38641022</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
+        <v>12581126</v>
+      </c>
+      <c r="G18">
+        <v>5096568</v>
+      </c>
+      <c r="H18">
+        <v>36332207</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>13334156</v>
       </c>
-      <c r="G18">
+      <c r="K18">
         <v>5075930</v>
       </c>
-      <c r="H18">
+      <c r="L18">
         <v>35599815</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>14507530</v>
-      </c>
-      <c r="K18">
-        <v>5210293</v>
-      </c>
-      <c r="L18">
-        <v>34292078</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2743,40 +2796,40 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B19">
-        <v>12581126</v>
+        <v>11786620</v>
       </c>
       <c r="C19">
-        <v>5096568</v>
+        <v>4805486</v>
       </c>
       <c r="D19">
-        <v>36332207</v>
+        <v>37417795</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
+        <v>13334156</v>
+      </c>
+      <c r="G19">
+        <v>5075930</v>
+      </c>
+      <c r="H19">
+        <v>35599815</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>14507530</v>
       </c>
-      <c r="G19">
+      <c r="K19">
         <v>5210293</v>
       </c>
-      <c r="H19">
+      <c r="L19">
         <v>34292078</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>15656647</v>
-      </c>
-      <c r="K19">
-        <v>6065610</v>
-      </c>
-      <c r="L19">
-        <v>32287644</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2784,40 +2837,40 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B20">
-        <v>13334156</v>
+        <v>12581126</v>
       </c>
       <c r="C20">
-        <v>5075930</v>
+        <v>5096568</v>
       </c>
       <c r="D20">
-        <v>35599815</v>
+        <v>36332207</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
+        <v>14507530</v>
+      </c>
+      <c r="G20">
+        <v>5210293</v>
+      </c>
+      <c r="H20">
+        <v>34292078</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>15656647</v>
       </c>
-      <c r="G20">
+      <c r="K20">
         <v>6065610</v>
       </c>
-      <c r="H20">
+      <c r="L20">
         <v>32287644</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>16708830</v>
-      </c>
-      <c r="K20">
-        <v>7672393</v>
-      </c>
-      <c r="L20">
-        <v>29628678</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2825,40 +2878,40 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B21">
-        <v>14507530</v>
+        <v>13334156</v>
       </c>
       <c r="C21">
-        <v>5210293</v>
+        <v>5075930</v>
       </c>
       <c r="D21">
-        <v>34292078</v>
+        <v>35599815</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
+        <v>15656647</v>
+      </c>
+      <c r="G21">
+        <v>6065610</v>
+      </c>
+      <c r="H21">
+        <v>32287644</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>16708830</v>
       </c>
-      <c r="G21">
+      <c r="K21">
         <v>7672393</v>
       </c>
-      <c r="H21">
+      <c r="L21">
         <v>29628678</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>17568325</v>
-      </c>
-      <c r="K21">
-        <v>9940124</v>
-      </c>
-      <c r="L21">
-        <v>26501452</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2866,40 +2919,40 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B22">
-        <v>15656647</v>
+        <v>14507530</v>
       </c>
       <c r="C22">
-        <v>6065610</v>
+        <v>5210293</v>
       </c>
       <c r="D22">
-        <v>32287644</v>
+        <v>34292078</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
+        <v>16708830</v>
+      </c>
+      <c r="G22">
+        <v>7672393</v>
+      </c>
+      <c r="H22">
+        <v>29628678</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>17568325</v>
       </c>
-      <c r="G22">
+      <c r="K22">
         <v>9940124</v>
       </c>
-      <c r="H22">
+      <c r="L22">
         <v>26501452</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>20322806</v>
-      </c>
-      <c r="K22">
-        <v>11341436</v>
-      </c>
-      <c r="L22">
-        <v>22345659</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2907,40 +2960,40 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B23">
-        <v>16708830</v>
+        <v>15656647</v>
       </c>
       <c r="C23">
-        <v>7672393</v>
+        <v>6065610</v>
       </c>
       <c r="D23">
-        <v>29628678</v>
+        <v>32287644</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
+        <v>17568325</v>
+      </c>
+      <c r="G23">
+        <v>9940124</v>
+      </c>
+      <c r="H23">
+        <v>26501452</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>20322806</v>
       </c>
-      <c r="G23">
+      <c r="K23">
         <v>11341436</v>
       </c>
-      <c r="H23">
+      <c r="L23">
         <v>22345659</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>21289761</v>
-      </c>
-      <c r="K23">
-        <v>13149676</v>
-      </c>
-      <c r="L23">
-        <v>19570464</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2948,40 +3001,40 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B24">
-        <v>17568325</v>
+        <v>16708830</v>
       </c>
       <c r="C24">
-        <v>9940124</v>
+        <v>7672393</v>
       </c>
       <c r="D24">
-        <v>26501452</v>
+        <v>29628678</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
+        <v>20322806</v>
+      </c>
+      <c r="G24">
+        <v>11341436</v>
+      </c>
+      <c r="H24">
+        <v>22345659</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>21289761</v>
       </c>
-      <c r="G24">
+      <c r="K24">
         <v>13149676</v>
       </c>
-      <c r="H24">
+      <c r="L24">
         <v>19570464</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>22879167</v>
-      </c>
-      <c r="K24">
-        <v>13741130</v>
-      </c>
-      <c r="L24">
-        <v>17389604</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2989,40 +3042,40 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B25">
-        <v>20322806</v>
+        <v>17568325</v>
       </c>
       <c r="C25">
-        <v>11341436</v>
+        <v>9940124</v>
       </c>
       <c r="D25">
-        <v>22345659</v>
+        <v>26501452</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
+        <v>21289761</v>
+      </c>
+      <c r="G25">
+        <v>13149676</v>
+      </c>
+      <c r="H25">
+        <v>19570464</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>22879167</v>
       </c>
-      <c r="G25">
+      <c r="K25">
         <v>13741130</v>
       </c>
-      <c r="H25">
+      <c r="L25">
         <v>17389604</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>24745853</v>
-      </c>
-      <c r="K25">
-        <v>13879852</v>
-      </c>
-      <c r="L25">
-        <v>15384196</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -3030,40 +3083,40 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B26">
-        <v>21289761</v>
+        <v>20322806</v>
       </c>
       <c r="C26">
-        <v>13149676</v>
+        <v>11341436</v>
       </c>
       <c r="D26">
-        <v>19570464</v>
+        <v>22345659</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
+        <v>22879167</v>
+      </c>
+      <c r="G26">
+        <v>13741130</v>
+      </c>
+      <c r="H26">
+        <v>17389604</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>24745853</v>
       </c>
-      <c r="G26">
+      <c r="K26">
         <v>13879852</v>
       </c>
-      <c r="H26">
+      <c r="L26">
         <v>15384196</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>27065063</v>
-      </c>
-      <c r="K26">
-        <v>13015437</v>
-      </c>
-      <c r="L26">
-        <v>13929401</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -3071,40 +3124,40 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B27">
-        <v>22879167</v>
+        <v>21289761</v>
       </c>
       <c r="C27">
-        <v>13741130</v>
+        <v>13149676</v>
       </c>
       <c r="D27">
-        <v>17389604</v>
+        <v>19570464</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
+        <v>24745853</v>
+      </c>
+      <c r="G27">
+        <v>13879852</v>
+      </c>
+      <c r="H27">
+        <v>15384196</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>27065063</v>
       </c>
-      <c r="G27">
+      <c r="K27">
         <v>13015437</v>
       </c>
-      <c r="H27">
+      <c r="L27">
         <v>13929401</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3112,28 +3165,28 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B28">
-        <v>24745853</v>
+        <v>22879167</v>
       </c>
       <c r="C28">
-        <v>13879852</v>
+        <v>13741130</v>
       </c>
       <c r="D28">
-        <v>15384196</v>
+        <v>17389604</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>27065063</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>13015437</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>13929401</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3153,42 +3206,83 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B29">
+        <v>24745853</v>
+      </c>
+      <c r="C29">
+        <v>13879852</v>
+      </c>
+      <c r="D29">
+        <v>15384196</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2">
         <v>44391</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>27065063</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>13015437</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>13929401</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>casi non vaccinati</t>
   </si>
@@ -23,10 +23,16 @@
     <t>casi vaccinati 1 dose</t>
   </si>
   <si>
-    <t>casi vaccinati</t>
+    <t>casi vaccinati &gt; 4-6 mesi</t>
+  </si>
+  <si>
+    <t>casi vaccinati &lt; 4-6 mesi</t>
   </si>
   <si>
     <t>casi booster</t>
+  </si>
+  <si>
+    <t>casi vaccinati completo</t>
   </si>
   <si>
     <t>ospedalizzati non vaccinati</t>
@@ -35,10 +41,16 @@
     <t>ospedalizzati vaccinati 1 dose</t>
   </si>
   <si>
-    <t>ospedalizzati vaccinati</t>
+    <t>ospedalizzati vaccinati &gt; 4-6 mesi</t>
+  </si>
+  <si>
+    <t>ospedalizzati vaccinati &lt; 4-6 mesi</t>
   </si>
   <si>
     <t>ospedalizzati booster</t>
+  </si>
+  <si>
+    <t>ospedalizzati vaccinati completo</t>
   </si>
   <si>
     <t>terapia intensiva non vaccinati</t>
@@ -47,10 +59,16 @@
     <t>terapia intensiva vaccinati 1 dose</t>
   </si>
   <si>
-    <t>terapia intensiva vaccinati</t>
+    <t>terapia intensiva vaccinati &gt; 4-6 mesi</t>
+  </si>
+  <si>
+    <t>terapia intensiva vaccinati &lt; 4-6 mesi</t>
   </si>
   <si>
     <t>terapia intensiva booster</t>
+  </si>
+  <si>
+    <t>terapia intensiva vaccinati completo</t>
   </si>
   <si>
     <t>decessi non vaccinati</t>
@@ -59,19 +77,19 @@
     <t>decessi vaccinati 1 dose</t>
   </si>
   <si>
-    <t>decessi vaccinati</t>
+    <t>decessi vaccinati &gt; 4-6 mesi</t>
+  </si>
+  <si>
+    <t>decessi vaccinati &lt; 4-6 mesi</t>
   </si>
   <si>
     <t>decessi booster</t>
   </si>
   <si>
-    <t>data</t>
+    <t>decessi vaccinati completo</t>
   </si>
   <si>
-    <t>casi vaccinati completo</t>
-  </si>
-  <si>
-    <t>casi vaccinati booster</t>
+    <t>data</t>
   </si>
   <si>
     <t>ospedalizzati/ti non vaccinati</t>
@@ -80,10 +98,16 @@
     <t>ospedalizzati/ti vaccinati 1 dose</t>
   </si>
   <si>
-    <t>ospedalizzati/ti vaccinati</t>
+    <t>ospedalizzati/ti vaccinati &gt; 4-6 mesi</t>
+  </si>
+  <si>
+    <t>ospedalizzati/ti vaccinati &lt; 4-6 mesi</t>
   </si>
   <si>
     <t>ospedalizzati/ti booster</t>
+  </si>
+  <si>
+    <t>ospedalizzati/ti vaccinati completo</t>
   </si>
 </sst>
 </file>
@@ -447,15 +471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -505,8 +529,32 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="2">
         <v>44587</v>
       </c>
@@ -517,49 +565,73 @@
         <v>127478</v>
       </c>
       <c r="D2">
+        <v>1544092</v>
+      </c>
+      <c r="E2">
+        <v>640805</v>
+      </c>
+      <c r="F2">
+        <v>521657</v>
+      </c>
+      <c r="G2">
         <v>2706554</v>
       </c>
-      <c r="E2">
-        <v>521657</v>
-      </c>
-      <c r="F2">
+      <c r="H2">
         <v>13946</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>989</v>
       </c>
-      <c r="H2">
+      <c r="J2">
+        <v>11934</v>
+      </c>
+      <c r="K2">
+        <v>2225</v>
+      </c>
+      <c r="L2">
+        <v>4177</v>
+      </c>
+      <c r="M2">
         <v>18336</v>
       </c>
-      <c r="I2">
-        <v>4177</v>
-      </c>
-      <c r="J2">
+      <c r="N2">
         <v>1753</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <v>55</v>
       </c>
-      <c r="L2">
+      <c r="P2">
+        <v>736</v>
+      </c>
+      <c r="Q2">
+        <v>90</v>
+      </c>
+      <c r="R2">
+        <v>188</v>
+      </c>
+      <c r="S2">
         <v>1014</v>
       </c>
-      <c r="M2">
-        <v>188</v>
-      </c>
-      <c r="N2">
+      <c r="T2">
         <v>2120</v>
       </c>
-      <c r="O2">
+      <c r="U2">
         <v>123</v>
       </c>
-      <c r="P2">
+      <c r="V2">
+        <v>1805</v>
+      </c>
+      <c r="W2">
+        <v>138</v>
+      </c>
+      <c r="X2">
+        <v>432</v>
+      </c>
+      <c r="Y2">
         <v>2375</v>
       </c>
-      <c r="Q2">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="2">
         <v>44580</v>
       </c>
@@ -570,49 +642,73 @@
         <v>102729</v>
       </c>
       <c r="D3">
+        <v>1320086</v>
+      </c>
+      <c r="E3">
+        <v>527687</v>
+      </c>
+      <c r="F3">
+        <v>358530</v>
+      </c>
+      <c r="G3">
         <v>2206303</v>
       </c>
-      <c r="E3">
-        <v>358530</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>11487</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>681</v>
       </c>
-      <c r="H3">
+      <c r="J3">
+        <v>9435</v>
+      </c>
+      <c r="K3">
+        <v>1499</v>
+      </c>
+      <c r="L3">
+        <v>2066</v>
+      </c>
+      <c r="M3">
         <v>13000</v>
       </c>
-      <c r="I3">
-        <v>2066</v>
-      </c>
-      <c r="J3">
+      <c r="N3">
         <v>1557</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <v>51</v>
       </c>
-      <c r="L3">
+      <c r="P3">
+        <v>634</v>
+      </c>
+      <c r="Q3">
+        <v>77</v>
+      </c>
+      <c r="R3">
+        <v>98</v>
+      </c>
+      <c r="S3">
         <v>809</v>
       </c>
-      <c r="M3">
-        <v>98</v>
-      </c>
-      <c r="N3">
+      <c r="T3">
         <v>1774</v>
       </c>
-      <c r="O3">
+      <c r="U3">
         <v>105</v>
       </c>
-      <c r="P3">
+      <c r="V3">
+        <v>1541</v>
+      </c>
+      <c r="W3">
+        <v>107</v>
+      </c>
+      <c r="X3">
+        <v>215</v>
+      </c>
+      <c r="Y3">
         <v>1863</v>
       </c>
-      <c r="Q3">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="2">
         <v>44573</v>
       </c>
@@ -623,49 +719,73 @@
         <v>68050</v>
       </c>
       <c r="D4">
+        <v>955924</v>
+      </c>
+      <c r="E4">
+        <v>364078</v>
+      </c>
+      <c r="F4">
+        <v>200146</v>
+      </c>
+      <c r="G4">
         <v>1520148</v>
       </c>
-      <c r="E4">
-        <v>200146</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>9564</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>479</v>
       </c>
-      <c r="H4">
+      <c r="J4">
+        <v>7594</v>
+      </c>
+      <c r="K4">
+        <v>1055</v>
+      </c>
+      <c r="L4">
+        <v>955</v>
+      </c>
+      <c r="M4">
         <v>9604</v>
       </c>
-      <c r="I4">
-        <v>955</v>
-      </c>
-      <c r="J4">
+      <c r="N4">
         <v>1368</v>
       </c>
-      <c r="K4">
+      <c r="O4">
         <v>44</v>
       </c>
-      <c r="L4">
+      <c r="P4">
+        <v>534</v>
+      </c>
+      <c r="Q4">
+        <v>70</v>
+      </c>
+      <c r="R4">
+        <v>59</v>
+      </c>
+      <c r="S4">
         <v>663</v>
       </c>
-      <c r="M4">
-        <v>59</v>
-      </c>
-      <c r="N4">
+      <c r="T4">
         <v>1443</v>
       </c>
-      <c r="O4">
+      <c r="U4">
         <v>92</v>
       </c>
-      <c r="P4">
+      <c r="V4">
+        <v>1370</v>
+      </c>
+      <c r="W4">
+        <v>104</v>
+      </c>
+      <c r="X4">
+        <v>132</v>
+      </c>
+      <c r="Y4">
         <v>1606</v>
       </c>
-      <c r="Q4">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="2">
         <v>44566</v>
       </c>
@@ -676,49 +796,73 @@
         <v>34617</v>
       </c>
       <c r="D5">
+        <v>547518</v>
+      </c>
+      <c r="E5">
+        <v>195560</v>
+      </c>
+      <c r="F5">
+        <v>79260</v>
+      </c>
+      <c r="G5">
         <v>822338</v>
       </c>
-      <c r="E5">
-        <v>79260</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>8278</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>410</v>
       </c>
-      <c r="H5">
+      <c r="J5">
+        <v>6612</v>
+      </c>
+      <c r="K5">
+        <v>905</v>
+      </c>
+      <c r="L5">
+        <v>546</v>
+      </c>
+      <c r="M5">
         <v>8063</v>
       </c>
-      <c r="I5">
-        <v>546</v>
-      </c>
-      <c r="J5">
+      <c r="N5">
         <v>1202</v>
       </c>
-      <c r="K5">
+      <c r="O5">
         <v>31</v>
       </c>
-      <c r="L5">
+      <c r="P5">
+        <v>496</v>
+      </c>
+      <c r="Q5">
+        <v>72</v>
+      </c>
+      <c r="R5">
+        <v>46</v>
+      </c>
+      <c r="S5">
         <v>614</v>
       </c>
-      <c r="M5">
-        <v>46</v>
-      </c>
-      <c r="N5">
+      <c r="T5">
         <v>1170</v>
       </c>
-      <c r="O5">
+      <c r="U5">
         <v>89</v>
       </c>
-      <c r="P5">
+      <c r="V5">
+        <v>1298</v>
+      </c>
+      <c r="W5">
+        <v>107</v>
+      </c>
+      <c r="X5">
+        <v>84</v>
+      </c>
+      <c r="Y5">
         <v>1489</v>
       </c>
-      <c r="Q5">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="2">
         <v>44558</v>
       </c>
@@ -729,49 +873,73 @@
         <v>14491</v>
       </c>
       <c r="D6">
+        <v>265724</v>
+      </c>
+      <c r="E6">
+        <v>99757</v>
+      </c>
+      <c r="F6">
+        <v>20375</v>
+      </c>
+      <c r="G6">
         <v>385856</v>
       </c>
-      <c r="E6">
-        <v>20375</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>7059</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>358</v>
       </c>
-      <c r="H6">
+      <c r="J6">
+        <v>5927</v>
+      </c>
+      <c r="K6">
+        <v>934</v>
+      </c>
+      <c r="L6">
+        <v>368</v>
+      </c>
+      <c r="M6">
         <v>7229</v>
       </c>
-      <c r="I6">
-        <v>368</v>
-      </c>
-      <c r="J6">
+      <c r="N6">
         <v>1036</v>
       </c>
-      <c r="K6">
+      <c r="O6">
         <v>32</v>
       </c>
-      <c r="L6">
+      <c r="P6">
+        <v>433</v>
+      </c>
+      <c r="Q6">
+        <v>89</v>
+      </c>
+      <c r="R6">
+        <v>33</v>
+      </c>
+      <c r="S6">
         <v>555</v>
       </c>
-      <c r="M6">
-        <v>33</v>
-      </c>
-      <c r="N6">
+      <c r="T6">
         <v>994</v>
       </c>
-      <c r="O6">
+      <c r="U6">
         <v>75</v>
       </c>
-      <c r="P6">
+      <c r="V6">
+        <v>1108</v>
+      </c>
+      <c r="W6">
+        <v>92</v>
+      </c>
+      <c r="X6">
+        <v>62</v>
+      </c>
+      <c r="Y6">
         <v>1262</v>
       </c>
-      <c r="Q6">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="2">
         <v>44551</v>
       </c>
@@ -782,49 +950,73 @@
         <v>9069</v>
       </c>
       <c r="D7">
+        <v>91366</v>
+      </c>
+      <c r="E7">
+        <v>155978</v>
+      </c>
+      <c r="F7">
+        <v>7655</v>
+      </c>
+      <c r="G7">
         <v>254999</v>
       </c>
-      <c r="E7">
-        <v>7655</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
         <v>5944</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>316</v>
       </c>
-      <c r="H7">
+      <c r="J7">
+        <v>4047</v>
+      </c>
+      <c r="K7">
+        <v>2065</v>
+      </c>
+      <c r="L7">
+        <v>272</v>
+      </c>
+      <c r="M7">
         <v>6384</v>
       </c>
-      <c r="I7">
-        <v>272</v>
-      </c>
-      <c r="J7">
+      <c r="N7">
         <v>887</v>
       </c>
-      <c r="K7">
+      <c r="O7">
         <v>26</v>
       </c>
-      <c r="L7">
+      <c r="P7">
+        <v>254</v>
+      </c>
+      <c r="Q7">
+        <v>186</v>
+      </c>
+      <c r="R7">
+        <v>26</v>
+      </c>
+      <c r="S7">
         <v>466</v>
       </c>
-      <c r="M7">
-        <v>26</v>
-      </c>
-      <c r="N7">
+      <c r="T7">
         <v>839</v>
       </c>
-      <c r="O7">
+      <c r="U7">
         <v>54</v>
       </c>
-      <c r="P7">
+      <c r="V7">
+        <v>838</v>
+      </c>
+      <c r="W7">
+        <v>222</v>
+      </c>
+      <c r="X7">
+        <v>45</v>
+      </c>
+      <c r="Y7">
         <v>1105</v>
       </c>
-      <c r="Q7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="2">
         <v>44545</v>
       </c>
@@ -835,49 +1027,73 @@
         <v>7107</v>
       </c>
       <c r="D8">
+        <v>71563</v>
+      </c>
+      <c r="E8">
+        <v>122505</v>
+      </c>
+      <c r="F8">
+        <v>4219</v>
+      </c>
+      <c r="G8">
         <v>198287</v>
       </c>
-      <c r="E8">
-        <v>4219</v>
-      </c>
-      <c r="F8">
+      <c r="H8">
         <v>5081</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>284</v>
       </c>
-      <c r="H8">
+      <c r="J8">
+        <v>3432</v>
+      </c>
+      <c r="K8">
+        <v>1843</v>
+      </c>
+      <c r="L8">
+        <v>176</v>
+      </c>
+      <c r="M8">
         <v>5451</v>
       </c>
-      <c r="I8">
-        <v>176</v>
-      </c>
-      <c r="J8">
+      <c r="N8">
         <v>747</v>
       </c>
-      <c r="K8">
+      <c r="O8">
         <v>21</v>
       </c>
-      <c r="L8">
+      <c r="P8">
+        <v>220</v>
+      </c>
+      <c r="Q8">
+        <v>174</v>
+      </c>
+      <c r="R8">
+        <v>12</v>
+      </c>
+      <c r="S8">
         <v>406</v>
       </c>
-      <c r="M8">
-        <v>12</v>
-      </c>
-      <c r="N8">
+      <c r="T8">
         <v>722</v>
       </c>
-      <c r="O8">
+      <c r="U8">
         <v>42</v>
       </c>
-      <c r="P8">
+      <c r="V8">
+        <v>745</v>
+      </c>
+      <c r="W8">
+        <v>257</v>
+      </c>
+      <c r="X8">
+        <v>29</v>
+      </c>
+      <c r="Y8">
         <v>991</v>
       </c>
-      <c r="Q8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="2">
         <v>44537</v>
       </c>
@@ -888,49 +1104,73 @@
         <v>6181</v>
       </c>
       <c r="D9">
+        <v>57054</v>
+      </c>
+      <c r="E9">
+        <v>102245</v>
+      </c>
+      <c r="F9">
+        <v>2652</v>
+      </c>
+      <c r="G9">
         <v>161951</v>
       </c>
-      <c r="E9">
-        <v>2652</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
         <v>4402</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>247</v>
       </c>
-      <c r="H9">
+      <c r="J9">
+        <v>2916</v>
+      </c>
+      <c r="K9">
+        <v>1616</v>
+      </c>
+      <c r="L9">
+        <v>121</v>
+      </c>
+      <c r="M9">
         <v>4653</v>
       </c>
-      <c r="I9">
-        <v>121</v>
-      </c>
-      <c r="J9">
+      <c r="N9">
         <v>618</v>
       </c>
-      <c r="K9">
+      <c r="O9">
         <v>17</v>
       </c>
-      <c r="L9">
+      <c r="P9">
+        <v>188</v>
+      </c>
+      <c r="Q9">
+        <v>160</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9">
         <v>356</v>
       </c>
-      <c r="M9">
-        <v>8</v>
-      </c>
-      <c r="N9">
+      <c r="T9">
         <v>620</v>
       </c>
-      <c r="O9">
+      <c r="U9">
         <v>29</v>
       </c>
-      <c r="P9">
+      <c r="V9">
+        <v>604</v>
+      </c>
+      <c r="W9">
+        <v>186</v>
+      </c>
+      <c r="X9">
+        <v>17</v>
+      </c>
+      <c r="Y9">
         <v>807</v>
       </c>
-      <c r="Q9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="2">
         <v>44531</v>
       </c>
@@ -941,49 +1181,73 @@
         <v>5587</v>
       </c>
       <c r="D10">
+        <v>44023</v>
+      </c>
+      <c r="E10">
+        <v>82755</v>
+      </c>
+      <c r="F10">
+        <v>1710</v>
+      </c>
+      <c r="G10">
         <v>128488</v>
       </c>
-      <c r="E10">
-        <v>1710</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
         <v>3733</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>217</v>
       </c>
-      <c r="H10">
+      <c r="J10">
+        <v>2336</v>
+      </c>
+      <c r="K10">
+        <v>1435</v>
+      </c>
+      <c r="L10">
+        <v>74</v>
+      </c>
+      <c r="M10">
         <v>3845</v>
       </c>
-      <c r="I10">
-        <v>74</v>
-      </c>
-      <c r="J10">
+      <c r="N10">
         <v>546</v>
       </c>
-      <c r="K10">
+      <c r="O10">
         <v>16</v>
       </c>
-      <c r="L10">
+      <c r="P10">
+        <v>150</v>
+      </c>
+      <c r="Q10">
+        <v>132</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
         <v>285</v>
       </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
+      <c r="T10">
         <v>515</v>
       </c>
-      <c r="O10">
+      <c r="U10">
         <v>22</v>
       </c>
-      <c r="P10">
+      <c r="V10">
+        <v>482</v>
+      </c>
+      <c r="W10">
+        <v>197</v>
+      </c>
+      <c r="X10">
+        <v>11</v>
+      </c>
+      <c r="Y10">
         <v>690</v>
       </c>
-      <c r="Q10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="2">
         <v>44524</v>
       </c>
@@ -994,49 +1258,73 @@
         <v>4260</v>
       </c>
       <c r="D11">
+        <v>15519</v>
+      </c>
+      <c r="E11">
+        <v>81740</v>
+      </c>
+      <c r="F11">
+        <v>969</v>
+      </c>
+      <c r="G11">
         <v>98228</v>
       </c>
-      <c r="E11">
-        <v>969</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
         <v>3737</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>182</v>
       </c>
-      <c r="H11">
+      <c r="J11">
+        <v>1187</v>
+      </c>
+      <c r="K11">
+        <v>2437</v>
+      </c>
+      <c r="L11">
+        <v>69</v>
+      </c>
+      <c r="M11">
         <v>3693</v>
       </c>
-      <c r="I11">
-        <v>69</v>
-      </c>
-      <c r="J11">
+      <c r="N11">
         <v>509</v>
       </c>
-      <c r="K11">
+      <c r="O11">
         <v>14</v>
       </c>
-      <c r="L11">
+      <c r="P11">
+        <v>58</v>
+      </c>
+      <c r="Q11">
+        <v>209</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
         <v>270</v>
       </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11">
+      <c r="T11">
         <v>449</v>
       </c>
-      <c r="O11">
+      <c r="U11">
         <v>16</v>
       </c>
-      <c r="P11">
+      <c r="V11">
+        <v>191</v>
+      </c>
+      <c r="W11">
+        <v>359</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+      <c r="Y11">
         <v>555</v>
       </c>
-      <c r="Q11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="2">
         <v>44517</v>
       </c>
@@ -1047,49 +1335,73 @@
         <v>3980</v>
       </c>
       <c r="D12">
+        <v>11215</v>
+      </c>
+      <c r="E12">
+        <v>60407</v>
+      </c>
+      <c r="F12">
+        <v>537</v>
+      </c>
+      <c r="G12">
         <v>72159</v>
       </c>
-      <c r="E12">
-        <v>537</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>3220</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>160</v>
       </c>
-      <c r="H12">
+      <c r="J12">
+        <v>826</v>
+      </c>
+      <c r="K12">
+        <v>2075</v>
+      </c>
+      <c r="L12">
+        <v>35</v>
+      </c>
+      <c r="M12">
         <v>2936</v>
       </c>
-      <c r="I12">
-        <v>35</v>
-      </c>
-      <c r="J12">
+      <c r="N12">
         <v>424</v>
       </c>
-      <c r="K12">
+      <c r="O12">
         <v>14</v>
       </c>
-      <c r="L12">
+      <c r="P12">
+        <v>45</v>
+      </c>
+      <c r="Q12">
+        <v>177</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>224</v>
       </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12">
+      <c r="T12">
         <v>384</v>
       </c>
-      <c r="O12">
+      <c r="U12">
         <v>19</v>
       </c>
-      <c r="P12">
+      <c r="V12">
+        <v>135</v>
+      </c>
+      <c r="W12">
+        <v>309</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>444</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="2">
         <v>44510</v>
       </c>
@@ -1100,49 +1412,73 @@
         <v>3466</v>
       </c>
       <c r="D13">
+        <v>8088</v>
+      </c>
+      <c r="E13">
+        <v>43928</v>
+      </c>
+      <c r="F13">
+        <v>286</v>
+      </c>
+      <c r="G13">
         <v>52302</v>
       </c>
-      <c r="E13">
-        <v>286</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
         <v>2890</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>144</v>
       </c>
-      <c r="H13">
+      <c r="J13">
+        <v>618</v>
+      </c>
+      <c r="K13">
+        <v>1774</v>
+      </c>
+      <c r="L13">
+        <v>17</v>
+      </c>
+      <c r="M13">
         <v>2409</v>
       </c>
-      <c r="I13">
-        <v>17</v>
-      </c>
-      <c r="J13">
+      <c r="N13">
         <v>370</v>
       </c>
-      <c r="K13">
+      <c r="O13">
         <v>9</v>
       </c>
-      <c r="L13">
+      <c r="P13">
+        <v>29</v>
+      </c>
+      <c r="Q13">
+        <v>148</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
         <v>178</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
+      <c r="T13">
         <v>361</v>
       </c>
-      <c r="O13">
+      <c r="U13">
         <v>27</v>
       </c>
-      <c r="P13">
+      <c r="V13">
+        <v>85</v>
+      </c>
+      <c r="W13">
+        <v>299</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>384</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="2">
         <v>44503</v>
       </c>
@@ -1153,49 +1489,73 @@
         <v>3207</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>40991</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="H14">
         <v>2696</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>145</v>
       </c>
-      <c r="H14">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>2037</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="N14">
         <v>319</v>
       </c>
-      <c r="K14">
+      <c r="O14">
         <v>11</v>
       </c>
-      <c r="L14">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>140</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="T14">
         <v>416</v>
       </c>
-      <c r="O14">
+      <c r="U14">
         <v>27</v>
       </c>
-      <c r="P14">
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>423</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="2">
         <v>44496</v>
       </c>
@@ -1206,49 +1566,73 @@
         <v>3421</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>34131</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
         <v>2845</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>171</v>
       </c>
-      <c r="H15">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>1815</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="N15">
         <v>332</v>
       </c>
-      <c r="K15">
+      <c r="O15">
         <v>14</v>
       </c>
-      <c r="L15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>128</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
+      <c r="T15">
         <v>511</v>
       </c>
-      <c r="O15">
+      <c r="U15">
         <v>40</v>
       </c>
-      <c r="P15">
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <v>461</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="2">
         <v>44489</v>
       </c>
@@ -1259,49 +1643,73 @@
         <v>4127</v>
       </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>31514</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="H16">
         <v>3396</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>197</v>
       </c>
-      <c r="H16">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>1954</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
+      <c r="N16">
         <v>414</v>
       </c>
-      <c r="K16">
+      <c r="O16">
         <v>10</v>
       </c>
-      <c r="L16">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>145</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="T16">
         <v>636</v>
       </c>
-      <c r="O16">
+      <c r="U16">
         <v>42</v>
       </c>
-      <c r="P16">
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
         <v>511</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="2">
         <v>44482</v>
       </c>
@@ -1312,49 +1720,73 @@
         <v>5352</v>
       </c>
       <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>33496</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="H17">
         <v>4274</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>245</v>
       </c>
-      <c r="H17">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>2133</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="N17">
         <v>515</v>
       </c>
-      <c r="K17">
+      <c r="O17">
         <v>13</v>
       </c>
-      <c r="L17">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>155</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="T17">
         <v>775</v>
       </c>
-      <c r="O17">
+      <c r="U17">
         <v>51</v>
       </c>
-      <c r="P17">
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <v>578</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="2">
         <v>44475</v>
       </c>
@@ -1365,49 +1797,73 @@
         <v>6952</v>
       </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>36529</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="H18">
         <v>5224</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>278</v>
       </c>
-      <c r="H18">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>2268</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
+      <c r="N18">
         <v>604</v>
       </c>
-      <c r="K18">
+      <c r="O18">
         <v>15</v>
       </c>
-      <c r="L18">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>173</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="T18">
         <v>888</v>
       </c>
-      <c r="O18">
+      <c r="U18">
         <v>48</v>
       </c>
-      <c r="P18">
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
         <v>580</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="2">
         <v>44468</v>
       </c>
@@ -1418,49 +1874,73 @@
         <v>9284</v>
       </c>
       <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>40060</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="H19">
         <v>6160</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>330</v>
       </c>
-      <c r="H19">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>2418</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="N19">
         <v>717</v>
       </c>
-      <c r="K19">
+      <c r="O19">
         <v>21</v>
       </c>
-      <c r="L19">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>174</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
+      <c r="T19">
         <v>927</v>
       </c>
-      <c r="O19">
+      <c r="U19">
         <v>57</v>
       </c>
-      <c r="P19">
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>565</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="2">
         <v>44461</v>
       </c>
@@ -1471,49 +1951,73 @@
         <v>11735</v>
       </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>44050</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="H20">
         <v>6782</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>367</v>
       </c>
-      <c r="H20">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>2456</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="N20">
         <v>775</v>
       </c>
-      <c r="K20">
+      <c r="O20">
         <v>26</v>
       </c>
-      <c r="L20">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>173</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
+      <c r="T20">
         <v>877</v>
       </c>
-      <c r="O20">
+      <c r="U20">
         <v>57</v>
       </c>
-      <c r="P20">
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
         <v>509</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="2">
         <v>44454</v>
       </c>
@@ -1524,49 +2028,73 @@
         <v>13728</v>
       </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>44990</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="H21">
         <v>6841</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>404</v>
       </c>
-      <c r="H21">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>2331</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="N21">
         <v>786</v>
       </c>
-      <c r="K21">
+      <c r="O21">
         <v>27</v>
       </c>
-      <c r="L21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>163</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="T21">
         <v>770</v>
       </c>
-      <c r="O21">
+      <c r="U21">
         <v>58</v>
       </c>
-      <c r="P21">
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
         <v>405</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="2">
         <v>44447</v>
       </c>
@@ -1577,49 +2105,73 @@
         <v>16129</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>43775</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="H22">
         <v>6579</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>450</v>
       </c>
-      <c r="H22">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>2118</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
+      <c r="N22">
         <v>712</v>
       </c>
-      <c r="K22">
+      <c r="O22">
         <v>30</v>
       </c>
-      <c r="L22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>157</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
+      <c r="T22">
         <v>571</v>
       </c>
-      <c r="O22">
+      <c r="U22">
         <v>51</v>
       </c>
-      <c r="P22">
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>280</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="2">
         <v>44440</v>
       </c>
@@ -1630,49 +2182,73 @@
         <v>18925</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>40380</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="H23">
         <v>5988</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>480</v>
       </c>
-      <c r="H23">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>1788</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
+      <c r="N23">
         <v>641</v>
       </c>
-      <c r="K23">
+      <c r="O23">
         <v>31</v>
       </c>
-      <c r="L23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>127</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
+      <c r="T23">
         <v>383</v>
       </c>
-      <c r="O23">
+      <c r="U23">
         <v>37</v>
       </c>
-      <c r="P23">
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>187</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="2">
         <v>44433</v>
       </c>
@@ -1683,49 +2259,73 @@
         <v>21703</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>33894</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="H24">
         <v>5162</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>509</v>
       </c>
-      <c r="H24">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>1349</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="N24">
         <v>500</v>
       </c>
-      <c r="K24">
+      <c r="O24">
         <v>30</v>
       </c>
-      <c r="L24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>95</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
+      <c r="T24">
         <v>246</v>
       </c>
-      <c r="O24">
+      <c r="U24">
         <v>27</v>
       </c>
-      <c r="P24">
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>92</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="2">
         <v>44426</v>
       </c>
@@ -1736,49 +2336,73 @@
         <v>22568</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>24978</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="H25">
         <v>4052</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>444</v>
       </c>
-      <c r="H25">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>959</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="N25">
         <v>334</v>
       </c>
-      <c r="K25">
+      <c r="O25">
         <v>22</v>
       </c>
-      <c r="L25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>61</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
+      <c r="T25">
         <v>177</v>
       </c>
-      <c r="O25">
+      <c r="U25">
         <v>19</v>
       </c>
-      <c r="P25">
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>48</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="2">
         <v>44419</v>
       </c>
@@ -1789,49 +2413,73 @@
         <v>21570</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>18887</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
+      <c r="H26">
         <v>3067</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>380</v>
       </c>
-      <c r="H26">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>627</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
+      <c r="N26">
         <v>247</v>
       </c>
-      <c r="K26">
+      <c r="O26">
         <v>22</v>
       </c>
-      <c r="L26">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>34</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
+      <c r="T26">
         <v>143</v>
       </c>
-      <c r="O26">
+      <c r="U26">
         <v>14</v>
       </c>
-      <c r="P26">
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <v>34</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="2">
         <v>44412</v>
       </c>
@@ -1842,49 +2490,73 @@
         <v>17420</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>12333</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
+      <c r="H27">
         <v>2234</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>292</v>
       </c>
-      <c r="H27">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>404</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
+      <c r="N27">
         <v>169</v>
       </c>
-      <c r="K27">
+      <c r="O27">
         <v>11</v>
       </c>
-      <c r="L27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>23</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
+      <c r="T27">
         <v>128</v>
       </c>
-      <c r="O27">
+      <c r="U27">
         <v>18</v>
       </c>
-      <c r="P27">
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
         <v>34</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="2">
         <v>44405</v>
       </c>
@@ -1895,49 +2567,73 @@
         <v>12032</v>
       </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>7277</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="H28">
         <v>1619</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>216</v>
       </c>
-      <c r="H28">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>280</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
+      <c r="N28">
         <v>123</v>
       </c>
-      <c r="K28">
+      <c r="O28">
         <v>11</v>
       </c>
-      <c r="L28">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>16</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
+      <c r="T28">
         <v>169</v>
       </c>
-      <c r="O28">
+      <c r="U28">
         <v>30</v>
       </c>
-      <c r="P28">
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
         <v>38</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="2">
         <v>44398</v>
       </c>
@@ -1948,49 +2644,73 @@
         <v>6813</v>
       </c>
       <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>3805</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="H29">
         <v>1483</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>199</v>
       </c>
-      <c r="H29">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>224</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="N29">
         <v>117</v>
       </c>
-      <c r="K29">
+      <c r="O29">
         <v>14</v>
       </c>
-      <c r="L29">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>8</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
+      <c r="T29">
         <v>250</v>
       </c>
-      <c r="O29">
+      <c r="U29">
         <v>47</v>
       </c>
-      <c r="P29">
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
         <v>46</v>
       </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="2">
         <v>44391</v>
       </c>
@@ -2001,46 +2721,70 @@
         <v>3954</v>
       </c>
       <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>2310</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="H30">
         <v>1880</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>240</v>
       </c>
-      <c r="H30">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>240</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
+      <c r="N30">
         <v>147</v>
       </c>
-      <c r="K30">
+      <c r="O30">
         <v>20</v>
       </c>
-      <c r="L30">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>7</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
+      <c r="T30">
         <v>357</v>
       </c>
-      <c r="O30">
+      <c r="U30">
         <v>72</v>
       </c>
-      <c r="P30">
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
         <v>68</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2050,15 +2794,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2067,37 +2811,55 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="2">
         <v>44587</v>
       </c>
@@ -2108,37 +2870,55 @@
         <v>1676275</v>
       </c>
       <c r="D2">
+        <v>20106983</v>
+      </c>
+      <c r="E2">
+        <v>9023286</v>
+      </c>
+      <c r="F2">
+        <v>17089973</v>
+      </c>
+      <c r="G2">
         <v>46220242</v>
       </c>
-      <c r="E2">
-        <v>17089973</v>
-      </c>
-      <c r="F2">
+      <c r="H2">
         <v>6466161</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1644869</v>
       </c>
-      <c r="H2">
+      <c r="J2">
+        <v>24530417</v>
+      </c>
+      <c r="K2">
+        <v>10394218</v>
+      </c>
+      <c r="L2">
+        <v>10974280</v>
+      </c>
+      <c r="M2">
         <v>45898915</v>
       </c>
-      <c r="I2">
-        <v>10974280</v>
-      </c>
-      <c r="J2">
+      <c r="N2">
         <v>6710026</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <v>1549282</v>
       </c>
-      <c r="L2">
+      <c r="P2">
+        <v>25990113</v>
+      </c>
+      <c r="Q2">
+        <v>11656265</v>
+      </c>
+      <c r="R2">
+        <v>8104259</v>
+      </c>
+      <c r="S2">
         <v>45750637</v>
       </c>
-      <c r="M2">
-        <v>8104259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="2">
         <v>44580</v>
       </c>
@@ -2149,37 +2929,55 @@
         <v>1720841</v>
       </c>
       <c r="D3">
+        <v>22048677</v>
+      </c>
+      <c r="E3">
+        <v>9810639</v>
+      </c>
+      <c r="F3">
+        <v>14235354</v>
+      </c>
+      <c r="G3">
         <v>46094670</v>
       </c>
-      <c r="E3">
-        <v>14235354</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>6647970</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1566179</v>
       </c>
-      <c r="H3">
+      <c r="J3">
+        <v>26028307</v>
+      </c>
+      <c r="K3">
+        <v>11660101</v>
+      </c>
+      <c r="L3">
+        <v>8107388</v>
+      </c>
+      <c r="M3">
         <v>45795796</v>
       </c>
-      <c r="I3">
-        <v>8107388</v>
-      </c>
-      <c r="J3">
+      <c r="N3">
         <v>6862315</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <v>1493790</v>
       </c>
-      <c r="L3">
+      <c r="P3">
+        <v>26357835</v>
+      </c>
+      <c r="Q3">
+        <v>13596764</v>
+      </c>
+      <c r="R3">
+        <v>5699241</v>
+      </c>
+      <c r="S3">
         <v>45653840</v>
       </c>
-      <c r="M3">
-        <v>5699241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="2">
         <v>44573</v>
       </c>
@@ -2190,37 +2988,55 @@
         <v>1678301</v>
       </c>
       <c r="D4">
+        <v>24562863</v>
+      </c>
+      <c r="E4">
+        <v>10381759</v>
+      </c>
+      <c r="F4">
+        <v>10972555</v>
+      </c>
+      <c r="G4">
         <v>45917177</v>
       </c>
-      <c r="E4">
-        <v>10972555</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>6876688</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>1504168</v>
       </c>
-      <c r="H4">
+      <c r="J4">
+        <v>26348254</v>
+      </c>
+      <c r="K4">
+        <v>13585896</v>
+      </c>
+      <c r="L4">
+        <v>5694939</v>
+      </c>
+      <c r="M4">
         <v>45629089</v>
       </c>
-      <c r="I4">
-        <v>5694939</v>
-      </c>
-      <c r="J4">
+      <c r="N4">
         <v>7031651</v>
       </c>
-      <c r="K4">
+      <c r="O4">
         <v>1502381</v>
       </c>
-      <c r="L4">
+      <c r="P4">
+        <v>13119984</v>
+      </c>
+      <c r="Q4">
+        <v>28222661</v>
+      </c>
+      <c r="R4">
+        <v>4133267</v>
+      </c>
+      <c r="S4">
         <v>45475912</v>
       </c>
-      <c r="M4">
-        <v>4133267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="2">
         <v>44566</v>
       </c>
@@ -2231,37 +3047,55 @@
         <v>1578764</v>
       </c>
       <c r="D5">
+        <v>26019483</v>
+      </c>
+      <c r="E5">
+        <v>11648617</v>
+      </c>
+      <c r="F5">
+        <v>8102818</v>
+      </c>
+      <c r="G5">
         <v>45770918</v>
       </c>
-      <c r="E5">
-        <v>8102818</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>7031651</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>1502381</v>
       </c>
-      <c r="H5">
+      <c r="J5">
+        <v>13119984</v>
+      </c>
+      <c r="K5">
+        <v>28222661</v>
+      </c>
+      <c r="L5">
+        <v>4133267</v>
+      </c>
+      <c r="M5">
         <v>45475912</v>
       </c>
-      <c r="I5">
-        <v>4133267</v>
-      </c>
-      <c r="J5">
+      <c r="N5">
         <v>7160934</v>
       </c>
-      <c r="K5">
+      <c r="O5">
         <v>1577260</v>
       </c>
-      <c r="L5">
+      <c r="P5">
+        <v>12254673</v>
+      </c>
+      <c r="Q5">
+        <v>29956598</v>
+      </c>
+      <c r="R5">
+        <v>3060479</v>
+      </c>
+      <c r="S5">
         <v>45271750</v>
       </c>
-      <c r="M5">
-        <v>3060479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="2">
         <v>44558</v>
       </c>
@@ -2272,37 +3106,55 @@
         <v>1504168</v>
       </c>
       <c r="D6">
+        <v>26348254</v>
+      </c>
+      <c r="E6">
+        <v>13585896</v>
+      </c>
+      <c r="F6">
+        <v>5694939</v>
+      </c>
+      <c r="G6">
         <v>45629089</v>
       </c>
-      <c r="E6">
-        <v>5694939</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>7160934</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>1577260</v>
       </c>
-      <c r="H6">
+      <c r="J6">
+        <v>12254673</v>
+      </c>
+      <c r="K6">
+        <v>29956598</v>
+      </c>
+      <c r="L6">
+        <v>3060479</v>
+      </c>
+      <c r="M6">
         <v>45271750</v>
       </c>
-      <c r="I6">
-        <v>3060479</v>
-      </c>
-      <c r="J6">
+      <c r="N6">
         <v>7291722</v>
       </c>
-      <c r="K6">
+      <c r="O6">
         <v>1749607</v>
       </c>
-      <c r="L6">
+      <c r="P6">
+        <v>11949919</v>
+      </c>
+      <c r="Q6">
+        <v>30829431</v>
+      </c>
+      <c r="R6">
+        <v>2189265</v>
+      </c>
+      <c r="S6">
         <v>44968615</v>
       </c>
-      <c r="M6">
-        <v>2189265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="2">
         <v>44551</v>
       </c>
@@ -2313,37 +3165,55 @@
         <v>1502381</v>
       </c>
       <c r="D7">
+        <v>13119984</v>
+      </c>
+      <c r="E7">
+        <v>28222661</v>
+      </c>
+      <c r="F7">
+        <v>4133267</v>
+      </c>
+      <c r="G7">
         <v>45475912</v>
       </c>
-      <c r="E7">
-        <v>4133267</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
         <v>7291722</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>1749607</v>
       </c>
-      <c r="H7">
+      <c r="J7">
+        <v>11949919</v>
+      </c>
+      <c r="K7">
+        <v>30829431</v>
+      </c>
+      <c r="L7">
+        <v>2189265</v>
+      </c>
+      <c r="M7">
         <v>44968615</v>
       </c>
-      <c r="I7">
-        <v>2189265</v>
-      </c>
-      <c r="J7">
+      <c r="N7">
         <v>7404599</v>
       </c>
-      <c r="K7">
+      <c r="O7">
         <v>1981131</v>
       </c>
-      <c r="L7">
+      <c r="P7">
+        <v>11407859</v>
+      </c>
+      <c r="Q7">
+        <v>31622279</v>
+      </c>
+      <c r="R7">
+        <v>1594076</v>
+      </c>
+      <c r="S7">
         <v>44624214</v>
       </c>
-      <c r="M7">
-        <v>1594076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
         <v>44545</v>
       </c>
@@ -2354,37 +3224,55 @@
         <v>1577260</v>
       </c>
       <c r="D8">
+        <v>12254673</v>
+      </c>
+      <c r="E8">
+        <v>29956598</v>
+      </c>
+      <c r="F8">
+        <v>3060479</v>
+      </c>
+      <c r="G8">
         <v>45271750</v>
       </c>
-      <c r="E8">
-        <v>3060479</v>
-      </c>
-      <c r="F8">
+      <c r="H8">
         <v>7404599</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>1981131</v>
       </c>
-      <c r="H8">
+      <c r="J8">
+        <v>11407859</v>
+      </c>
+      <c r="K8">
+        <v>31622279</v>
+      </c>
+      <c r="L8">
+        <v>1594076</v>
+      </c>
+      <c r="M8">
         <v>44624214</v>
       </c>
-      <c r="I8">
-        <v>1594076</v>
-      </c>
-      <c r="J8">
+      <c r="N8">
         <v>7586013</v>
       </c>
-      <c r="K8">
+      <c r="O8">
         <v>2222672</v>
       </c>
-      <c r="L8">
+      <c r="P8">
+        <v>4526706</v>
+      </c>
+      <c r="Q8">
+        <v>38658546</v>
+      </c>
+      <c r="R8">
+        <v>1016007</v>
+      </c>
+      <c r="S8">
         <v>44201259</v>
       </c>
-      <c r="M8">
-        <v>1016007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>44537</v>
       </c>
@@ -2395,37 +3283,55 @@
         <v>1749607</v>
       </c>
       <c r="D9">
+        <v>11949919</v>
+      </c>
+      <c r="E9">
+        <v>30829431</v>
+      </c>
+      <c r="F9">
+        <v>2189265</v>
+      </c>
+      <c r="G9">
         <v>44968615</v>
       </c>
-      <c r="E9">
-        <v>2189265</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
         <v>7586013</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>2222672</v>
       </c>
-      <c r="H9">
+      <c r="J9">
+        <v>4526706</v>
+      </c>
+      <c r="K9">
+        <v>38658546</v>
+      </c>
+      <c r="L9">
+        <v>1016007</v>
+      </c>
+      <c r="M9">
         <v>44201259</v>
       </c>
-      <c r="I9">
-        <v>1016007</v>
-      </c>
-      <c r="J9">
+      <c r="N9">
         <v>7862567</v>
       </c>
-      <c r="K9">
+      <c r="O9">
         <v>2422756</v>
       </c>
-      <c r="L9">
+      <c r="P9">
+        <v>4186423</v>
+      </c>
+      <c r="Q9">
+        <v>38968164</v>
+      </c>
+      <c r="R9">
+        <v>570032</v>
+      </c>
+      <c r="S9">
         <v>43724619</v>
       </c>
-      <c r="M9">
-        <v>570032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="2">
         <v>44531</v>
       </c>
@@ -2436,37 +3342,55 @@
         <v>1981131</v>
       </c>
       <c r="D10">
+        <v>11407859</v>
+      </c>
+      <c r="E10">
+        <v>31622279</v>
+      </c>
+      <c r="F10">
+        <v>1594076</v>
+      </c>
+      <c r="G10">
         <v>44624214</v>
       </c>
-      <c r="E10">
-        <v>1594076</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
         <v>7862567</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>2422756</v>
       </c>
-      <c r="H10">
+      <c r="J10">
+        <v>4186423</v>
+      </c>
+      <c r="K10">
+        <v>38968164</v>
+      </c>
+      <c r="L10">
+        <v>570032</v>
+      </c>
+      <c r="M10">
         <v>43724619</v>
       </c>
-      <c r="I10">
-        <v>570032</v>
-      </c>
-      <c r="J10">
+      <c r="N10">
         <v>8302865</v>
       </c>
-      <c r="K10">
+      <c r="O10">
         <v>2538614</v>
       </c>
-      <c r="L10">
+      <c r="P10">
+        <v>3884826</v>
+      </c>
+      <c r="Q10">
+        <v>38988918</v>
+      </c>
+      <c r="R10">
+        <v>294719</v>
+      </c>
+      <c r="S10">
         <v>43168463</v>
       </c>
-      <c r="M10">
-        <v>294719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="2">
         <v>44524</v>
       </c>
@@ -2477,37 +3401,55 @@
         <v>2222672</v>
       </c>
       <c r="D11">
+        <v>4526706</v>
+      </c>
+      <c r="E11">
+        <v>38658546</v>
+      </c>
+      <c r="F11">
+        <v>1016007</v>
+      </c>
+      <c r="G11">
         <v>44201259</v>
       </c>
-      <c r="E11">
-        <v>1016007</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
         <v>8302865</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>2538614</v>
       </c>
-      <c r="H11">
+      <c r="J11">
+        <v>3884826</v>
+      </c>
+      <c r="K11">
+        <v>38988918</v>
+      </c>
+      <c r="L11">
+        <v>294719</v>
+      </c>
+      <c r="M11">
         <v>43168463</v>
       </c>
-      <c r="I11">
-        <v>294719</v>
-      </c>
-      <c r="J11">
+      <c r="N11">
         <v>8683749</v>
       </c>
-      <c r="K11">
+      <c r="O11">
         <v>2653423</v>
       </c>
-      <c r="L11">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>42672767</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="2">
         <v>44517</v>
       </c>
@@ -2518,37 +3460,55 @@
         <v>2422756</v>
       </c>
       <c r="D12">
+        <v>4186423</v>
+      </c>
+      <c r="E12">
+        <v>38968164</v>
+      </c>
+      <c r="F12">
+        <v>570032</v>
+      </c>
+      <c r="G12">
         <v>43724619</v>
       </c>
-      <c r="E12">
-        <v>570032</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>8683749</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>2653423</v>
       </c>
-      <c r="H12">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>42672767</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="N12">
         <v>9231487</v>
       </c>
-      <c r="K12">
+      <c r="O12">
         <v>2863195</v>
       </c>
-      <c r="L12">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>41915257</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="2">
         <v>44510</v>
       </c>
@@ -2559,37 +3519,55 @@
         <v>2538614</v>
       </c>
       <c r="D13">
+        <v>3884826</v>
+      </c>
+      <c r="E13">
+        <v>38988918</v>
+      </c>
+      <c r="F13">
+        <v>294719</v>
+      </c>
+      <c r="G13">
         <v>43168463</v>
       </c>
-      <c r="E13">
-        <v>294719</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
         <v>9231487</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>2863195</v>
       </c>
-      <c r="H13">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>41915257</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="N13">
         <v>9829232</v>
       </c>
-      <c r="K13">
+      <c r="O13">
         <v>3259454</v>
       </c>
-      <c r="L13">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>40921215</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="2">
         <v>44503</v>
       </c>
@@ -2600,37 +3578,55 @@
         <v>2653423</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>42672767</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="H14">
         <v>9829232</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>3259454</v>
       </c>
-      <c r="H14">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>40921215</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="N14">
         <v>10307179</v>
       </c>
-      <c r="K14">
+      <c r="O14">
         <v>3862335</v>
       </c>
-      <c r="L14">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>39840387</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="2">
         <v>44496</v>
       </c>
@@ -2641,37 +3637,55 @@
         <v>2863195</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>41915257</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
         <v>10307179</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>3862335</v>
       </c>
-      <c r="H15">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>39840387</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="N15">
         <v>10942694</v>
       </c>
-      <c r="K15">
+      <c r="O15">
         <v>4426185</v>
       </c>
-      <c r="L15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>38641022</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="2">
         <v>44489</v>
       </c>
@@ -2682,37 +3696,55 @@
         <v>3259454</v>
       </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>40921215</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="H16">
         <v>10942694</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>4426185</v>
       </c>
-      <c r="H16">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>38641022</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
+      <c r="N16">
         <v>11786620</v>
       </c>
-      <c r="K16">
+      <c r="O16">
         <v>4805486</v>
       </c>
-      <c r="L16">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>37417795</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="2">
         <v>44482</v>
       </c>
@@ -2723,37 +3755,55 @@
         <v>3862335</v>
       </c>
       <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>39840387</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="H17">
         <v>11786620</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>4805486</v>
       </c>
-      <c r="H17">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>37417795</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="N17">
         <v>12581126</v>
       </c>
-      <c r="K17">
+      <c r="O17">
         <v>5096568</v>
       </c>
-      <c r="L17">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>36332207</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="2">
         <v>44475</v>
       </c>
@@ -2764,37 +3814,55 @@
         <v>4426185</v>
       </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>38641022</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="H18">
         <v>12581126</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>5096568</v>
       </c>
-      <c r="H18">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>36332207</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
+      <c r="N18">
         <v>13334156</v>
       </c>
-      <c r="K18">
+      <c r="O18">
         <v>5075930</v>
       </c>
-      <c r="L18">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>35599815</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="2">
         <v>44468</v>
       </c>
@@ -2805,37 +3873,55 @@
         <v>4805486</v>
       </c>
       <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>37417795</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="H19">
         <v>13334156</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>5075930</v>
       </c>
-      <c r="H19">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>35599815</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="N19">
         <v>14507530</v>
       </c>
-      <c r="K19">
+      <c r="O19">
         <v>5210293</v>
       </c>
-      <c r="L19">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>34292078</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="2">
         <v>44461</v>
       </c>
@@ -2846,37 +3932,55 @@
         <v>5096568</v>
       </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>36332207</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="H20">
         <v>14507530</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>5210293</v>
       </c>
-      <c r="H20">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>34292078</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="N20">
         <v>15656647</v>
       </c>
-      <c r="K20">
+      <c r="O20">
         <v>6065610</v>
       </c>
-      <c r="L20">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>32287644</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="2">
         <v>44454</v>
       </c>
@@ -2887,37 +3991,55 @@
         <v>5075930</v>
       </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>35599815</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="H21">
         <v>15656647</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>6065610</v>
       </c>
-      <c r="H21">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>32287644</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="N21">
         <v>16708830</v>
       </c>
-      <c r="K21">
+      <c r="O21">
         <v>7672393</v>
       </c>
-      <c r="L21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>29628678</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="2">
         <v>44447</v>
       </c>
@@ -2928,37 +4050,55 @@
         <v>5210293</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>34292078</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="H22">
         <v>16708830</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>7672393</v>
       </c>
-      <c r="H22">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>29628678</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
+      <c r="N22">
         <v>17568325</v>
       </c>
-      <c r="K22">
+      <c r="O22">
         <v>9940124</v>
       </c>
-      <c r="L22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>26501452</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="2">
         <v>44440</v>
       </c>
@@ -2969,37 +4109,55 @@
         <v>6065610</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>32287644</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="H23">
         <v>17568325</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>9940124</v>
       </c>
-      <c r="H23">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>26501452</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
+      <c r="N23">
         <v>20322806</v>
       </c>
-      <c r="K23">
+      <c r="O23">
         <v>11341436</v>
       </c>
-      <c r="L23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>22345659</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="2">
         <v>44433</v>
       </c>
@@ -3010,37 +4168,55 @@
         <v>7672393</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>29628678</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="H24">
         <v>20322806</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>11341436</v>
       </c>
-      <c r="H24">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>22345659</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="N24">
         <v>21289761</v>
       </c>
-      <c r="K24">
+      <c r="O24">
         <v>13149676</v>
       </c>
-      <c r="L24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>19570464</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="2">
         <v>44426</v>
       </c>
@@ -3051,37 +4227,55 @@
         <v>9940124</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>26501452</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="H25">
         <v>21289761</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>13149676</v>
       </c>
-      <c r="H25">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>19570464</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="N25">
         <v>22879167</v>
       </c>
-      <c r="K25">
+      <c r="O25">
         <v>13741130</v>
       </c>
-      <c r="L25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>17389604</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="2">
         <v>44419</v>
       </c>
@@ -3092,37 +4286,55 @@
         <v>11341436</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>22345659</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
+      <c r="H26">
         <v>22879167</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>13741130</v>
       </c>
-      <c r="H26">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>17389604</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
+      <c r="N26">
         <v>24745853</v>
       </c>
-      <c r="K26">
+      <c r="O26">
         <v>13879852</v>
       </c>
-      <c r="L26">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>15384196</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="2">
         <v>44412</v>
       </c>
@@ -3133,37 +4345,55 @@
         <v>13149676</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>19570464</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
+      <c r="H27">
         <v>24745853</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>13879852</v>
       </c>
-      <c r="H27">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>15384196</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
+      <c r="N27">
         <v>27065063</v>
       </c>
-      <c r="K27">
+      <c r="O27">
         <v>13015437</v>
       </c>
-      <c r="L27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>13929401</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="2">
         <v>44405</v>
       </c>
@@ -3174,37 +4404,55 @@
         <v>13741130</v>
       </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>17389604</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="H28">
         <v>27065063</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>13015437</v>
       </c>
-      <c r="H28">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>13929401</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="2">
         <v>44398</v>
       </c>
@@ -3215,17 +4463,17 @@
         <v>13879852</v>
       </c>
       <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>15384196</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
       <c r="H29">
         <v>0</v>
       </c>
@@ -3244,8 +4492,26 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="2">
         <v>44391</v>
       </c>
@@ -3256,17 +4522,17 @@
         <v>13015437</v>
       </c>
       <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>13929401</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
       <c r="H30">
         <v>0</v>
       </c>
@@ -3283,6 +4549,24 @@
         <v>0</v>
       </c>
       <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,1014 +556,1014 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B2">
-        <v>703732</v>
+        <v>809625</v>
       </c>
       <c r="C2">
-        <v>127478</v>
+        <v>137850</v>
       </c>
       <c r="D2">
-        <v>1544092</v>
+        <v>1532777</v>
       </c>
       <c r="E2">
-        <v>640805</v>
+        <v>687597</v>
       </c>
       <c r="F2">
-        <v>521657</v>
+        <v>672910</v>
       </c>
       <c r="G2">
-        <v>2706554</v>
+        <v>2893284</v>
       </c>
       <c r="H2">
-        <v>13946</v>
+        <v>15049</v>
       </c>
       <c r="I2">
-        <v>989</v>
+        <v>1240</v>
       </c>
       <c r="J2">
-        <v>11934</v>
+        <v>13663</v>
       </c>
       <c r="K2">
-        <v>2225</v>
+        <v>2915</v>
       </c>
       <c r="L2">
-        <v>4177</v>
+        <v>6606</v>
       </c>
       <c r="M2">
-        <v>18336</v>
+        <v>23184</v>
       </c>
       <c r="N2">
-        <v>1753</v>
+        <v>1792</v>
       </c>
       <c r="O2">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P2">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="Q2">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="R2">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="S2">
-        <v>1014</v>
+        <v>1166</v>
       </c>
       <c r="T2">
-        <v>2120</v>
+        <v>2632</v>
       </c>
       <c r="U2">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="V2">
-        <v>1805</v>
+        <v>2172</v>
       </c>
       <c r="W2">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="X2">
-        <v>432</v>
+        <v>814</v>
       </c>
       <c r="Y2">
-        <v>2375</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B3">
-        <v>555697</v>
+        <v>703732</v>
       </c>
       <c r="C3">
-        <v>102729</v>
+        <v>127478</v>
       </c>
       <c r="D3">
-        <v>1320086</v>
+        <v>1544092</v>
       </c>
       <c r="E3">
-        <v>527687</v>
+        <v>640805</v>
       </c>
       <c r="F3">
-        <v>358530</v>
+        <v>521657</v>
       </c>
       <c r="G3">
-        <v>2206303</v>
+        <v>2706554</v>
       </c>
       <c r="H3">
-        <v>11487</v>
+        <v>13946</v>
       </c>
       <c r="I3">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="J3">
-        <v>9435</v>
+        <v>11934</v>
       </c>
       <c r="K3">
-        <v>1499</v>
+        <v>2225</v>
       </c>
       <c r="L3">
-        <v>2066</v>
+        <v>4177</v>
       </c>
       <c r="M3">
-        <v>13000</v>
+        <v>18336</v>
       </c>
       <c r="N3">
-        <v>1557</v>
+        <v>1753</v>
       </c>
       <c r="O3">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P3">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="Q3">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R3">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="S3">
-        <v>809</v>
+        <v>1014</v>
       </c>
       <c r="T3">
-        <v>1774</v>
+        <v>2120</v>
       </c>
       <c r="U3">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="V3">
-        <v>1541</v>
+        <v>1805</v>
       </c>
       <c r="W3">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="X3">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="Y3">
-        <v>1863</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B4">
-        <v>395424</v>
+        <v>555697</v>
       </c>
       <c r="C4">
-        <v>68050</v>
+        <v>102729</v>
       </c>
       <c r="D4">
-        <v>955924</v>
+        <v>1320086</v>
       </c>
       <c r="E4">
-        <v>364078</v>
+        <v>527687</v>
       </c>
       <c r="F4">
-        <v>200146</v>
+        <v>358530</v>
       </c>
       <c r="G4">
-        <v>1520148</v>
+        <v>2206303</v>
       </c>
       <c r="H4">
-        <v>9564</v>
+        <v>11487</v>
       </c>
       <c r="I4">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="J4">
-        <v>7594</v>
+        <v>9435</v>
       </c>
       <c r="K4">
-        <v>1055</v>
+        <v>1499</v>
       </c>
       <c r="L4">
-        <v>955</v>
+        <v>2066</v>
       </c>
       <c r="M4">
-        <v>9604</v>
+        <v>13000</v>
       </c>
       <c r="N4">
-        <v>1368</v>
+        <v>1557</v>
       </c>
       <c r="O4">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P4">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="Q4">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R4">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="S4">
-        <v>663</v>
+        <v>809</v>
       </c>
       <c r="T4">
-        <v>1443</v>
+        <v>1774</v>
       </c>
       <c r="U4">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="V4">
-        <v>1370</v>
+        <v>1541</v>
       </c>
       <c r="W4">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X4">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="Y4">
-        <v>1606</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B5">
-        <v>251412</v>
+        <v>395424</v>
       </c>
       <c r="C5">
-        <v>34617</v>
+        <v>68050</v>
       </c>
       <c r="D5">
-        <v>547518</v>
+        <v>955924</v>
       </c>
       <c r="E5">
-        <v>195560</v>
+        <v>364078</v>
       </c>
       <c r="F5">
-        <v>79260</v>
+        <v>200146</v>
       </c>
       <c r="G5">
-        <v>822338</v>
+        <v>1520148</v>
       </c>
       <c r="H5">
-        <v>8278</v>
+        <v>9564</v>
       </c>
       <c r="I5">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="J5">
-        <v>6612</v>
+        <v>7594</v>
       </c>
       <c r="K5">
-        <v>905</v>
+        <v>1055</v>
       </c>
       <c r="L5">
-        <v>546</v>
+        <v>955</v>
       </c>
       <c r="M5">
-        <v>8063</v>
+        <v>9604</v>
       </c>
       <c r="N5">
-        <v>1202</v>
+        <v>1368</v>
       </c>
       <c r="O5">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P5">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="Q5">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R5">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S5">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="T5">
-        <v>1170</v>
+        <v>1443</v>
       </c>
       <c r="U5">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V5">
-        <v>1298</v>
+        <v>1370</v>
       </c>
       <c r="W5">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X5">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Y5">
-        <v>1489</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B6">
-        <v>170551</v>
+        <v>251412</v>
       </c>
       <c r="C6">
-        <v>14491</v>
+        <v>34617</v>
       </c>
       <c r="D6">
-        <v>265724</v>
+        <v>547518</v>
       </c>
       <c r="E6">
-        <v>99757</v>
+        <v>195560</v>
       </c>
       <c r="F6">
-        <v>20375</v>
+        <v>79260</v>
       </c>
       <c r="G6">
-        <v>385856</v>
+        <v>822338</v>
       </c>
       <c r="H6">
-        <v>7059</v>
+        <v>8278</v>
       </c>
       <c r="I6">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J6">
-        <v>5927</v>
+        <v>6612</v>
       </c>
       <c r="K6">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="L6">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="M6">
-        <v>7229</v>
+        <v>8063</v>
       </c>
       <c r="N6">
-        <v>1036</v>
+        <v>1202</v>
       </c>
       <c r="O6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="Q6">
+        <v>72</v>
+      </c>
+      <c r="R6">
+        <v>46</v>
+      </c>
+      <c r="S6">
+        <v>614</v>
+      </c>
+      <c r="T6">
+        <v>1170</v>
+      </c>
+      <c r="U6">
         <v>89</v>
       </c>
-      <c r="R6">
-        <v>33</v>
-      </c>
-      <c r="S6">
-        <v>555</v>
-      </c>
-      <c r="T6">
-        <v>994</v>
-      </c>
-      <c r="U6">
-        <v>75</v>
-      </c>
       <c r="V6">
-        <v>1108</v>
+        <v>1298</v>
       </c>
       <c r="W6">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="X6">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Y6">
-        <v>1262</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B7">
-        <v>140677</v>
+        <v>170551</v>
       </c>
       <c r="C7">
-        <v>9069</v>
+        <v>14491</v>
       </c>
       <c r="D7">
-        <v>91366</v>
+        <v>265724</v>
       </c>
       <c r="E7">
-        <v>155978</v>
+        <v>99757</v>
       </c>
       <c r="F7">
-        <v>7655</v>
+        <v>20375</v>
       </c>
       <c r="G7">
-        <v>254999</v>
+        <v>385856</v>
       </c>
       <c r="H7">
-        <v>5944</v>
+        <v>7059</v>
       </c>
       <c r="I7">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J7">
-        <v>4047</v>
+        <v>5927</v>
       </c>
       <c r="K7">
-        <v>2065</v>
+        <v>934</v>
       </c>
       <c r="L7">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="M7">
-        <v>6384</v>
+        <v>7229</v>
       </c>
       <c r="N7">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="O7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P7">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="Q7">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="R7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S7">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="T7">
-        <v>839</v>
+        <v>994</v>
       </c>
       <c r="U7">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="V7">
-        <v>838</v>
+        <v>1108</v>
       </c>
       <c r="W7">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="X7">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Y7">
-        <v>1105</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B8">
-        <v>114674</v>
+        <v>140677</v>
       </c>
       <c r="C8">
-        <v>7107</v>
+        <v>9069</v>
       </c>
       <c r="D8">
-        <v>71563</v>
+        <v>91366</v>
       </c>
       <c r="E8">
-        <v>122505</v>
+        <v>155978</v>
       </c>
       <c r="F8">
-        <v>4219</v>
+        <v>7655</v>
       </c>
       <c r="G8">
-        <v>198287</v>
+        <v>254999</v>
       </c>
       <c r="H8">
-        <v>5081</v>
+        <v>5944</v>
       </c>
       <c r="I8">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="J8">
-        <v>3432</v>
+        <v>4047</v>
       </c>
       <c r="K8">
-        <v>1843</v>
+        <v>2065</v>
       </c>
       <c r="L8">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="M8">
-        <v>5451</v>
+        <v>6384</v>
       </c>
       <c r="N8">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="O8">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P8">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q8">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="R8">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S8">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="T8">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="U8">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V8">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="W8">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="X8">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Y8">
-        <v>991</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B9">
-        <v>93220</v>
+        <v>114674</v>
       </c>
       <c r="C9">
-        <v>6181</v>
+        <v>7107</v>
       </c>
       <c r="D9">
-        <v>57054</v>
+        <v>71563</v>
       </c>
       <c r="E9">
-        <v>102245</v>
+        <v>122505</v>
       </c>
       <c r="F9">
-        <v>2652</v>
+        <v>4219</v>
       </c>
       <c r="G9">
-        <v>161951</v>
+        <v>198287</v>
       </c>
       <c r="H9">
-        <v>4402</v>
+        <v>5081</v>
       </c>
       <c r="I9">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="J9">
-        <v>2916</v>
+        <v>3432</v>
       </c>
       <c r="K9">
-        <v>1616</v>
+        <v>1843</v>
       </c>
       <c r="L9">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="M9">
-        <v>4653</v>
+        <v>5451</v>
       </c>
       <c r="N9">
-        <v>618</v>
+        <v>747</v>
       </c>
       <c r="O9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P9">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q9">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S9">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="T9">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="U9">
+        <v>42</v>
+      </c>
+      <c r="V9">
+        <v>745</v>
+      </c>
+      <c r="W9">
+        <v>257</v>
+      </c>
+      <c r="X9">
         <v>29</v>
       </c>
-      <c r="V9">
-        <v>604</v>
-      </c>
-      <c r="W9">
-        <v>186</v>
-      </c>
-      <c r="X9">
-        <v>17</v>
-      </c>
       <c r="Y9">
-        <v>807</v>
+        <v>991</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B10">
-        <v>75512</v>
+        <v>93220</v>
       </c>
       <c r="C10">
-        <v>5587</v>
+        <v>6181</v>
       </c>
       <c r="D10">
-        <v>44023</v>
+        <v>57054</v>
       </c>
       <c r="E10">
-        <v>82755</v>
+        <v>102245</v>
       </c>
       <c r="F10">
-        <v>1710</v>
+        <v>2652</v>
       </c>
       <c r="G10">
-        <v>128488</v>
+        <v>161951</v>
       </c>
       <c r="H10">
-        <v>3733</v>
+        <v>4402</v>
       </c>
       <c r="I10">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J10">
-        <v>2336</v>
+        <v>2916</v>
       </c>
       <c r="K10">
-        <v>1435</v>
+        <v>1616</v>
       </c>
       <c r="L10">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M10">
-        <v>3845</v>
+        <v>4653</v>
       </c>
       <c r="N10">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="O10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P10">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q10">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S10">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="T10">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="U10">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V10">
-        <v>482</v>
+        <v>604</v>
       </c>
       <c r="W10">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="X10">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y10">
-        <v>690</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B11">
-        <v>61908</v>
+        <v>75512</v>
       </c>
       <c r="C11">
-        <v>4260</v>
+        <v>5587</v>
       </c>
       <c r="D11">
-        <v>15519</v>
+        <v>44023</v>
       </c>
       <c r="E11">
-        <v>81740</v>
+        <v>82755</v>
       </c>
       <c r="F11">
-        <v>969</v>
+        <v>1710</v>
       </c>
       <c r="G11">
-        <v>98228</v>
+        <v>128488</v>
       </c>
       <c r="H11">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="I11">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J11">
-        <v>1187</v>
+        <v>2336</v>
       </c>
       <c r="K11">
-        <v>2437</v>
+        <v>1435</v>
       </c>
       <c r="L11">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M11">
-        <v>3693</v>
+        <v>3845</v>
       </c>
       <c r="N11">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="O11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P11">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="Q11">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="R11">
         <v>3</v>
       </c>
       <c r="S11">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="T11">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="U11">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="V11">
-        <v>191</v>
+        <v>482</v>
       </c>
       <c r="W11">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="X11">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Y11">
-        <v>555</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B12">
-        <v>50564</v>
+        <v>61908</v>
       </c>
       <c r="C12">
-        <v>3980</v>
+        <v>4260</v>
       </c>
       <c r="D12">
-        <v>11215</v>
+        <v>15519</v>
       </c>
       <c r="E12">
-        <v>60407</v>
+        <v>81740</v>
       </c>
       <c r="F12">
-        <v>537</v>
+        <v>969</v>
       </c>
       <c r="G12">
-        <v>72159</v>
+        <v>98228</v>
       </c>
       <c r="H12">
-        <v>3220</v>
+        <v>3737</v>
       </c>
       <c r="I12">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J12">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="K12">
-        <v>2075</v>
+        <v>2437</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M12">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="N12">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="O12">
         <v>14</v>
       </c>
       <c r="P12">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q12">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="T12">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="U12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V12">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="W12">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y12">
-        <v>444</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B13">
-        <v>40182</v>
+        <v>50564</v>
       </c>
       <c r="C13">
-        <v>3466</v>
+        <v>3980</v>
       </c>
       <c r="D13">
-        <v>8088</v>
+        <v>11215</v>
       </c>
       <c r="E13">
-        <v>43928</v>
+        <v>60407</v>
       </c>
       <c r="F13">
-        <v>286</v>
+        <v>537</v>
       </c>
       <c r="G13">
-        <v>52302</v>
+        <v>72159</v>
       </c>
       <c r="H13">
-        <v>2890</v>
+        <v>3220</v>
       </c>
       <c r="I13">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J13">
-        <v>618</v>
+        <v>826</v>
       </c>
       <c r="K13">
-        <v>1774</v>
+        <v>2075</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>2409</v>
+        <v>2936</v>
       </c>
       <c r="N13">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="O13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P13">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q13">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="T13">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="U13">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V13">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="W13">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B14">
-        <v>35398</v>
+        <v>40182</v>
       </c>
       <c r="C14">
-        <v>3207</v>
+        <v>3466</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>43928</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G14">
-        <v>40991</v>
+        <v>52302</v>
       </c>
       <c r="H14">
-        <v>2696</v>
+        <v>2890</v>
       </c>
       <c r="I14">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>2037</v>
+        <v>2409</v>
       </c>
       <c r="N14">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="O14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="T14">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="U14">
         <v>27</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B15">
-        <v>34128</v>
+        <v>35398</v>
       </c>
       <c r="C15">
-        <v>3421</v>
+        <v>3207</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>34131</v>
+        <v>40991</v>
       </c>
       <c r="H15">
-        <v>2845</v>
+        <v>2696</v>
       </c>
       <c r="I15">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1593,13 +1593,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1815</v>
+        <v>2037</v>
       </c>
       <c r="N15">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="O15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1611,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="T15">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="U15">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -1629,18 +1629,18 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B16">
-        <v>36194</v>
+        <v>34128</v>
       </c>
       <c r="C16">
-        <v>4127</v>
+        <v>3421</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>31514</v>
+        <v>34131</v>
       </c>
       <c r="H16">
-        <v>3396</v>
+        <v>2845</v>
       </c>
       <c r="I16">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1670,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1954</v>
+        <v>1815</v>
       </c>
       <c r="N16">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="O16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="T16">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="U16">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -1706,18 +1706,18 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>511</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B17">
-        <v>45790</v>
+        <v>36194</v>
       </c>
       <c r="C17">
-        <v>5352</v>
+        <v>4127</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1729,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>33496</v>
+        <v>31514</v>
       </c>
       <c r="H17">
-        <v>4274</v>
+        <v>3396</v>
       </c>
       <c r="I17">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1747,13 +1747,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="N17">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="O17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T17">
-        <v>775</v>
+        <v>636</v>
       </c>
       <c r="U17">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -1783,18 +1783,18 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>578</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B18">
-        <v>56808</v>
+        <v>45790</v>
       </c>
       <c r="C18">
-        <v>6952</v>
+        <v>5352</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>36529</v>
+        <v>33496</v>
       </c>
       <c r="H18">
-        <v>5224</v>
+        <v>4274</v>
       </c>
       <c r="I18">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2268</v>
+        <v>2133</v>
       </c>
       <c r="N18">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="O18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="T18">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="U18">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -1860,18 +1860,18 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B19">
-        <v>70900</v>
+        <v>56808</v>
       </c>
       <c r="C19">
-        <v>9284</v>
+        <v>6952</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1883,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40060</v>
+        <v>36529</v>
       </c>
       <c r="H19">
-        <v>6160</v>
+        <v>5224</v>
       </c>
       <c r="I19">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2418</v>
+        <v>2268</v>
       </c>
       <c r="N19">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="O19">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1919,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T19">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="U19">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -1937,18 +1937,18 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B20">
-        <v>86133</v>
+        <v>70900</v>
       </c>
       <c r="C20">
-        <v>11735</v>
+        <v>9284</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1960,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>44050</v>
+        <v>40060</v>
       </c>
       <c r="H20">
-        <v>6782</v>
+        <v>6160</v>
       </c>
       <c r="I20">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1978,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2456</v>
+        <v>2418</v>
       </c>
       <c r="N20">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="O20">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1996,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T20">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="U20">
         <v>57</v>
@@ -2014,18 +2014,18 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>509</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B21">
-        <v>96900</v>
+        <v>86133</v>
       </c>
       <c r="C21">
-        <v>13728</v>
+        <v>11735</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44990</v>
+        <v>44050</v>
       </c>
       <c r="H21">
-        <v>6841</v>
+        <v>6782</v>
       </c>
       <c r="I21">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2331</v>
+        <v>2456</v>
       </c>
       <c r="N21">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="O21">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="T21">
-        <v>770</v>
+        <v>877</v>
       </c>
       <c r="U21">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2091,18 +2091,18 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>405</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B22">
-        <v>104890</v>
+        <v>96900</v>
       </c>
       <c r="C22">
-        <v>16129</v>
+        <v>13728</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>43775</v>
+        <v>44990</v>
       </c>
       <c r="H22">
-        <v>6579</v>
+        <v>6841</v>
       </c>
       <c r="I22">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2118</v>
+        <v>2331</v>
       </c>
       <c r="N22">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="O22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2150,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T22">
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="U22">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2168,18 +2168,18 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>280</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B23">
-        <v>107937</v>
+        <v>104890</v>
       </c>
       <c r="C23">
-        <v>18925</v>
+        <v>16129</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2191,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>40380</v>
+        <v>43775</v>
       </c>
       <c r="H23">
-        <v>5988</v>
+        <v>6579</v>
       </c>
       <c r="I23">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1788</v>
+        <v>2118</v>
       </c>
       <c r="N23">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="O23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="T23">
-        <v>383</v>
+        <v>571</v>
       </c>
       <c r="U23">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2245,18 +2245,18 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B24">
-        <v>104405</v>
+        <v>107937</v>
       </c>
       <c r="C24">
-        <v>21703</v>
+        <v>18925</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>33894</v>
+        <v>40380</v>
       </c>
       <c r="H24">
-        <v>5162</v>
+        <v>5988</v>
       </c>
       <c r="I24">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1349</v>
+        <v>1788</v>
       </c>
       <c r="N24">
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="O24">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2304,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="T24">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="U24">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2322,18 +2322,18 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>92</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B25">
-        <v>95261</v>
+        <v>104405</v>
       </c>
       <c r="C25">
-        <v>22568</v>
+        <v>21703</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24978</v>
+        <v>33894</v>
       </c>
       <c r="H25">
-        <v>4052</v>
+        <v>5162</v>
       </c>
       <c r="I25">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>959</v>
+        <v>1349</v>
       </c>
       <c r="N25">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="O25">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="T25">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="U25">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2399,18 +2399,18 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B26">
-        <v>80585</v>
+        <v>95261</v>
       </c>
       <c r="C26">
-        <v>21570</v>
+        <v>22568</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>18887</v>
+        <v>24978</v>
       </c>
       <c r="H26">
-        <v>3067</v>
+        <v>4052</v>
       </c>
       <c r="I26">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>627</v>
+        <v>959</v>
       </c>
       <c r="N26">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="O26">
         <v>22</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="T26">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="U26">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2476,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B27">
-        <v>60267</v>
+        <v>80585</v>
       </c>
       <c r="C27">
-        <v>17420</v>
+        <v>21570</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>12333</v>
+        <v>18887</v>
       </c>
       <c r="H27">
-        <v>2234</v>
+        <v>3067</v>
       </c>
       <c r="I27">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="N27">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="O27">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="T27">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="U27">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2558,13 +2558,13 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B28">
-        <v>40729</v>
+        <v>60267</v>
       </c>
       <c r="C28">
-        <v>12032</v>
+        <v>17420</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>7277</v>
+        <v>12333</v>
       </c>
       <c r="H28">
-        <v>1619</v>
+        <v>2234</v>
       </c>
       <c r="I28">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2594,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="N28">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="O28">
         <v>11</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T28">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="U28">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2630,18 +2630,18 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B29">
-        <v>26284</v>
+        <v>40729</v>
       </c>
       <c r="C29">
-        <v>6813</v>
+        <v>12032</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>3805</v>
+        <v>7277</v>
       </c>
       <c r="H29">
-        <v>1483</v>
+        <v>1619</v>
       </c>
       <c r="I29">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="N29">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T29">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="U29">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2707,83 +2707,160 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B30">
+        <v>26284</v>
+      </c>
+      <c r="C30">
+        <v>6813</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>3805</v>
+      </c>
+      <c r="H30">
+        <v>1483</v>
+      </c>
+      <c r="I30">
+        <v>199</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>224</v>
+      </c>
+      <c r="N30">
+        <v>117</v>
+      </c>
+      <c r="O30">
+        <v>14</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>8</v>
+      </c>
+      <c r="T30">
+        <v>250</v>
+      </c>
+      <c r="U30">
+        <v>47</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="2">
         <v>44391</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>21089</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>3954</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>2310</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>1880</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <v>240</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>240</v>
       </c>
-      <c r="N30">
+      <c r="N31">
         <v>147</v>
       </c>
-      <c r="O30">
+      <c r="O31">
         <v>20</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <v>7</v>
       </c>
-      <c r="T30">
+      <c r="T31">
         <v>357</v>
       </c>
-      <c r="U30">
+      <c r="U31">
         <v>72</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
         <v>68</v>
       </c>
     </row>
@@ -2794,7 +2871,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2861,780 +2938,780 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B2">
-        <v>6113428</v>
+        <v>5925943</v>
       </c>
       <c r="C2">
-        <v>1676275</v>
+        <v>1616298</v>
       </c>
       <c r="D2">
-        <v>20106983</v>
+        <v>18801609</v>
       </c>
       <c r="E2">
-        <v>9023286</v>
+        <v>7998741</v>
       </c>
       <c r="F2">
-        <v>17089973</v>
+        <v>19667354</v>
       </c>
       <c r="G2">
-        <v>46220242</v>
+        <v>46467704</v>
       </c>
       <c r="H2">
-        <v>6466161</v>
+        <v>6182863</v>
       </c>
       <c r="I2">
-        <v>1644869</v>
+        <v>1687002</v>
       </c>
       <c r="J2">
-        <v>24530417</v>
+        <v>22039408</v>
       </c>
       <c r="K2">
-        <v>10394218</v>
+        <v>9839532</v>
       </c>
       <c r="L2">
-        <v>10974280</v>
+        <v>14261140</v>
       </c>
       <c r="M2">
-        <v>45898915</v>
+        <v>46140080</v>
       </c>
       <c r="N2">
-        <v>6710026</v>
+        <v>6392072</v>
       </c>
       <c r="O2">
-        <v>1549282</v>
+        <v>1641693</v>
       </c>
       <c r="P2">
-        <v>25990113</v>
+        <v>24567729</v>
       </c>
       <c r="Q2">
-        <v>11656265</v>
+        <v>10413190</v>
       </c>
       <c r="R2">
-        <v>8104259</v>
+        <v>10995261</v>
       </c>
       <c r="S2">
-        <v>45750637</v>
+        <v>45976180</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B3">
-        <v>6194434</v>
+        <v>6113428</v>
       </c>
       <c r="C3">
-        <v>1720841</v>
+        <v>1676275</v>
       </c>
       <c r="D3">
-        <v>22048677</v>
+        <v>20106983</v>
       </c>
       <c r="E3">
-        <v>9810639</v>
+        <v>9023286</v>
       </c>
       <c r="F3">
-        <v>14235354</v>
+        <v>17089973</v>
       </c>
       <c r="G3">
-        <v>46094670</v>
+        <v>46220242</v>
       </c>
       <c r="H3">
-        <v>6647970</v>
+        <v>6466161</v>
       </c>
       <c r="I3">
-        <v>1566179</v>
+        <v>1644869</v>
       </c>
       <c r="J3">
-        <v>26028307</v>
+        <v>24530417</v>
       </c>
       <c r="K3">
-        <v>11660101</v>
+        <v>10394218</v>
       </c>
       <c r="L3">
-        <v>8107388</v>
+        <v>10974280</v>
       </c>
       <c r="M3">
-        <v>45795796</v>
+        <v>45898915</v>
       </c>
       <c r="N3">
-        <v>6862315</v>
+        <v>6710026</v>
       </c>
       <c r="O3">
-        <v>1493790</v>
+        <v>1549282</v>
       </c>
       <c r="P3">
-        <v>26357835</v>
+        <v>25990113</v>
       </c>
       <c r="Q3">
-        <v>13596764</v>
+        <v>11656265</v>
       </c>
       <c r="R3">
-        <v>5699241</v>
+        <v>8104259</v>
       </c>
       <c r="S3">
-        <v>45653840</v>
+        <v>45750637</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B4">
-        <v>6414467</v>
+        <v>6194434</v>
       </c>
       <c r="C4">
-        <v>1678301</v>
+        <v>1720841</v>
       </c>
       <c r="D4">
-        <v>24562863</v>
+        <v>22048677</v>
       </c>
       <c r="E4">
-        <v>10381759</v>
+        <v>9810639</v>
       </c>
       <c r="F4">
-        <v>10972555</v>
+        <v>14235354</v>
       </c>
       <c r="G4">
-        <v>45917177</v>
+        <v>46094670</v>
       </c>
       <c r="H4">
-        <v>6876688</v>
+        <v>6647970</v>
       </c>
       <c r="I4">
-        <v>1504168</v>
+        <v>1566179</v>
       </c>
       <c r="J4">
-        <v>26348254</v>
+        <v>26028307</v>
       </c>
       <c r="K4">
-        <v>13585896</v>
+        <v>11660101</v>
       </c>
       <c r="L4">
-        <v>5694939</v>
+        <v>8107388</v>
       </c>
       <c r="M4">
-        <v>45629089</v>
+        <v>45795796</v>
       </c>
       <c r="N4">
-        <v>7031651</v>
+        <v>6862315</v>
       </c>
       <c r="O4">
-        <v>1502381</v>
+        <v>1493790</v>
       </c>
       <c r="P4">
-        <v>13119984</v>
+        <v>26357835</v>
       </c>
       <c r="Q4">
-        <v>28222661</v>
+        <v>13596764</v>
       </c>
       <c r="R4">
-        <v>4133267</v>
+        <v>5699241</v>
       </c>
       <c r="S4">
-        <v>45475912</v>
+        <v>45653840</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B5">
-        <v>6660263</v>
+        <v>6414467</v>
       </c>
       <c r="C5">
-        <v>1578764</v>
+        <v>1678301</v>
       </c>
       <c r="D5">
-        <v>26019483</v>
+        <v>24562863</v>
       </c>
       <c r="E5">
-        <v>11648617</v>
+        <v>10381759</v>
       </c>
       <c r="F5">
-        <v>8102818</v>
+        <v>10972555</v>
       </c>
       <c r="G5">
-        <v>45770918</v>
+        <v>45917177</v>
       </c>
       <c r="H5">
+        <v>6876688</v>
+      </c>
+      <c r="I5">
+        <v>1504168</v>
+      </c>
+      <c r="J5">
+        <v>26348254</v>
+      </c>
+      <c r="K5">
+        <v>13585896</v>
+      </c>
+      <c r="L5">
+        <v>5694939</v>
+      </c>
+      <c r="M5">
+        <v>45629089</v>
+      </c>
+      <c r="N5">
         <v>7031651</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>1502381</v>
       </c>
-      <c r="J5">
+      <c r="P5">
         <v>13119984</v>
       </c>
-      <c r="K5">
+      <c r="Q5">
         <v>28222661</v>
       </c>
-      <c r="L5">
+      <c r="R5">
         <v>4133267</v>
       </c>
-      <c r="M5">
+      <c r="S5">
         <v>45475912</v>
-      </c>
-      <c r="N5">
-        <v>7160934</v>
-      </c>
-      <c r="O5">
-        <v>1577260</v>
-      </c>
-      <c r="P5">
-        <v>12254673</v>
-      </c>
-      <c r="Q5">
-        <v>29956598</v>
-      </c>
-      <c r="R5">
-        <v>3060479</v>
-      </c>
-      <c r="S5">
-        <v>45271750</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B6">
-        <v>6876688</v>
+        <v>6660263</v>
       </c>
       <c r="C6">
-        <v>1504168</v>
+        <v>1578764</v>
       </c>
       <c r="D6">
-        <v>26348254</v>
+        <v>26019483</v>
       </c>
       <c r="E6">
-        <v>13585896</v>
+        <v>11648617</v>
       </c>
       <c r="F6">
-        <v>5694939</v>
+        <v>8102818</v>
       </c>
       <c r="G6">
-        <v>45629089</v>
+        <v>45770918</v>
       </c>
       <c r="H6">
+        <v>7031651</v>
+      </c>
+      <c r="I6">
+        <v>1502381</v>
+      </c>
+      <c r="J6">
+        <v>13119984</v>
+      </c>
+      <c r="K6">
+        <v>28222661</v>
+      </c>
+      <c r="L6">
+        <v>4133267</v>
+      </c>
+      <c r="M6">
+        <v>45475912</v>
+      </c>
+      <c r="N6">
         <v>7160934</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>1577260</v>
       </c>
-      <c r="J6">
+      <c r="P6">
         <v>12254673</v>
       </c>
-      <c r="K6">
+      <c r="Q6">
         <v>29956598</v>
       </c>
-      <c r="L6">
+      <c r="R6">
         <v>3060479</v>
       </c>
-      <c r="M6">
+      <c r="S6">
         <v>45271750</v>
-      </c>
-      <c r="N6">
-        <v>7291722</v>
-      </c>
-      <c r="O6">
-        <v>1749607</v>
-      </c>
-      <c r="P6">
-        <v>11949919</v>
-      </c>
-      <c r="Q6">
-        <v>30829431</v>
-      </c>
-      <c r="R6">
-        <v>2189265</v>
-      </c>
-      <c r="S6">
-        <v>44968615</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B7">
-        <v>7031651</v>
+        <v>6876688</v>
       </c>
       <c r="C7">
-        <v>1502381</v>
+        <v>1504168</v>
       </c>
       <c r="D7">
-        <v>13119984</v>
+        <v>26348254</v>
       </c>
       <c r="E7">
-        <v>28222661</v>
+        <v>13585896</v>
       </c>
       <c r="F7">
-        <v>4133267</v>
+        <v>5694939</v>
       </c>
       <c r="G7">
-        <v>45475912</v>
+        <v>45629089</v>
       </c>
       <c r="H7">
+        <v>7160934</v>
+      </c>
+      <c r="I7">
+        <v>1577260</v>
+      </c>
+      <c r="J7">
+        <v>12254673</v>
+      </c>
+      <c r="K7">
+        <v>29956598</v>
+      </c>
+      <c r="L7">
+        <v>3060479</v>
+      </c>
+      <c r="M7">
+        <v>45271750</v>
+      </c>
+      <c r="N7">
         <v>7291722</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>1749607</v>
       </c>
-      <c r="J7">
+      <c r="P7">
         <v>11949919</v>
       </c>
-      <c r="K7">
+      <c r="Q7">
         <v>30829431</v>
       </c>
-      <c r="L7">
+      <c r="R7">
         <v>2189265</v>
       </c>
-      <c r="M7">
+      <c r="S7">
         <v>44968615</v>
-      </c>
-      <c r="N7">
-        <v>7404599</v>
-      </c>
-      <c r="O7">
-        <v>1981131</v>
-      </c>
-      <c r="P7">
-        <v>11407859</v>
-      </c>
-      <c r="Q7">
-        <v>31622279</v>
-      </c>
-      <c r="R7">
-        <v>1594076</v>
-      </c>
-      <c r="S7">
-        <v>44624214</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B8">
-        <v>7160934</v>
+        <v>7031651</v>
       </c>
       <c r="C8">
-        <v>1577260</v>
+        <v>1502381</v>
       </c>
       <c r="D8">
-        <v>12254673</v>
+        <v>13119984</v>
       </c>
       <c r="E8">
-        <v>29956598</v>
+        <v>28222661</v>
       </c>
       <c r="F8">
-        <v>3060479</v>
+        <v>4133267</v>
       </c>
       <c r="G8">
-        <v>45271750</v>
+        <v>45475912</v>
       </c>
       <c r="H8">
+        <v>7291722</v>
+      </c>
+      <c r="I8">
+        <v>1749607</v>
+      </c>
+      <c r="J8">
+        <v>11949919</v>
+      </c>
+      <c r="K8">
+        <v>30829431</v>
+      </c>
+      <c r="L8">
+        <v>2189265</v>
+      </c>
+      <c r="M8">
+        <v>44968615</v>
+      </c>
+      <c r="N8">
         <v>7404599</v>
       </c>
-      <c r="I8">
+      <c r="O8">
         <v>1981131</v>
       </c>
-      <c r="J8">
+      <c r="P8">
         <v>11407859</v>
       </c>
-      <c r="K8">
+      <c r="Q8">
         <v>31622279</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <v>1594076</v>
       </c>
-      <c r="M8">
+      <c r="S8">
         <v>44624214</v>
-      </c>
-      <c r="N8">
-        <v>7586013</v>
-      </c>
-      <c r="O8">
-        <v>2222672</v>
-      </c>
-      <c r="P8">
-        <v>4526706</v>
-      </c>
-      <c r="Q8">
-        <v>38658546</v>
-      </c>
-      <c r="R8">
-        <v>1016007</v>
-      </c>
-      <c r="S8">
-        <v>44201259</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B9">
-        <v>7291722</v>
+        <v>7160934</v>
       </c>
       <c r="C9">
-        <v>1749607</v>
+        <v>1577260</v>
       </c>
       <c r="D9">
-        <v>11949919</v>
+        <v>12254673</v>
       </c>
       <c r="E9">
-        <v>30829431</v>
+        <v>29956598</v>
       </c>
       <c r="F9">
-        <v>2189265</v>
+        <v>3060479</v>
       </c>
       <c r="G9">
-        <v>44968615</v>
+        <v>45271750</v>
       </c>
       <c r="H9">
+        <v>7404599</v>
+      </c>
+      <c r="I9">
+        <v>1981131</v>
+      </c>
+      <c r="J9">
+        <v>11407859</v>
+      </c>
+      <c r="K9">
+        <v>31622279</v>
+      </c>
+      <c r="L9">
+        <v>1594076</v>
+      </c>
+      <c r="M9">
+        <v>44624214</v>
+      </c>
+      <c r="N9">
         <v>7586013</v>
       </c>
-      <c r="I9">
+      <c r="O9">
         <v>2222672</v>
       </c>
-      <c r="J9">
+      <c r="P9">
         <v>4526706</v>
       </c>
-      <c r="K9">
+      <c r="Q9">
         <v>38658546</v>
       </c>
-      <c r="L9">
+      <c r="R9">
         <v>1016007</v>
       </c>
-      <c r="M9">
+      <c r="S9">
         <v>44201259</v>
-      </c>
-      <c r="N9">
-        <v>7862567</v>
-      </c>
-      <c r="O9">
-        <v>2422756</v>
-      </c>
-      <c r="P9">
-        <v>4186423</v>
-      </c>
-      <c r="Q9">
-        <v>38968164</v>
-      </c>
-      <c r="R9">
-        <v>570032</v>
-      </c>
-      <c r="S9">
-        <v>43724619</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B10">
-        <v>7404599</v>
+        <v>7291722</v>
       </c>
       <c r="C10">
-        <v>1981131</v>
+        <v>1749607</v>
       </c>
       <c r="D10">
-        <v>11407859</v>
+        <v>11949919</v>
       </c>
       <c r="E10">
-        <v>31622279</v>
+        <v>30829431</v>
       </c>
       <c r="F10">
-        <v>1594076</v>
+        <v>2189265</v>
       </c>
       <c r="G10">
-        <v>44624214</v>
+        <v>44968615</v>
       </c>
       <c r="H10">
+        <v>7586013</v>
+      </c>
+      <c r="I10">
+        <v>2222672</v>
+      </c>
+      <c r="J10">
+        <v>4526706</v>
+      </c>
+      <c r="K10">
+        <v>38658546</v>
+      </c>
+      <c r="L10">
+        <v>1016007</v>
+      </c>
+      <c r="M10">
+        <v>44201259</v>
+      </c>
+      <c r="N10">
         <v>7862567</v>
       </c>
-      <c r="I10">
+      <c r="O10">
         <v>2422756</v>
       </c>
-      <c r="J10">
+      <c r="P10">
         <v>4186423</v>
       </c>
-      <c r="K10">
+      <c r="Q10">
         <v>38968164</v>
       </c>
-      <c r="L10">
+      <c r="R10">
         <v>570032</v>
       </c>
-      <c r="M10">
+      <c r="S10">
         <v>43724619</v>
-      </c>
-      <c r="N10">
-        <v>8302865</v>
-      </c>
-      <c r="O10">
-        <v>2538614</v>
-      </c>
-      <c r="P10">
-        <v>3884826</v>
-      </c>
-      <c r="Q10">
-        <v>38988918</v>
-      </c>
-      <c r="R10">
-        <v>294719</v>
-      </c>
-      <c r="S10">
-        <v>43168463</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B11">
-        <v>7586013</v>
+        <v>7404599</v>
       </c>
       <c r="C11">
-        <v>2222672</v>
+        <v>1981131</v>
       </c>
       <c r="D11">
-        <v>4526706</v>
+        <v>11407859</v>
       </c>
       <c r="E11">
-        <v>38658546</v>
+        <v>31622279</v>
       </c>
       <c r="F11">
-        <v>1016007</v>
+        <v>1594076</v>
       </c>
       <c r="G11">
-        <v>44201259</v>
+        <v>44624214</v>
       </c>
       <c r="H11">
+        <v>7862567</v>
+      </c>
+      <c r="I11">
+        <v>2422756</v>
+      </c>
+      <c r="J11">
+        <v>4186423</v>
+      </c>
+      <c r="K11">
+        <v>38968164</v>
+      </c>
+      <c r="L11">
+        <v>570032</v>
+      </c>
+      <c r="M11">
+        <v>43724619</v>
+      </c>
+      <c r="N11">
         <v>8302865</v>
       </c>
-      <c r="I11">
+      <c r="O11">
         <v>2538614</v>
       </c>
-      <c r="J11">
+      <c r="P11">
         <v>3884826</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <v>38988918</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <v>294719</v>
       </c>
-      <c r="M11">
+      <c r="S11">
         <v>43168463</v>
-      </c>
-      <c r="N11">
-        <v>8683749</v>
-      </c>
-      <c r="O11">
-        <v>2653423</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>42672767</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B12">
-        <v>7862567</v>
+        <v>7586013</v>
       </c>
       <c r="C12">
-        <v>2422756</v>
+        <v>2222672</v>
       </c>
       <c r="D12">
-        <v>4186423</v>
+        <v>4526706</v>
       </c>
       <c r="E12">
-        <v>38968164</v>
+        <v>38658546</v>
       </c>
       <c r="F12">
-        <v>570032</v>
+        <v>1016007</v>
       </c>
       <c r="G12">
-        <v>43724619</v>
+        <v>44201259</v>
       </c>
       <c r="H12">
+        <v>8302865</v>
+      </c>
+      <c r="I12">
+        <v>2538614</v>
+      </c>
+      <c r="J12">
+        <v>3884826</v>
+      </c>
+      <c r="K12">
+        <v>38988918</v>
+      </c>
+      <c r="L12">
+        <v>294719</v>
+      </c>
+      <c r="M12">
+        <v>43168463</v>
+      </c>
+      <c r="N12">
         <v>8683749</v>
       </c>
-      <c r="I12">
+      <c r="O12">
         <v>2653423</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>42672767</v>
-      </c>
-      <c r="N12">
-        <v>9231487</v>
-      </c>
-      <c r="O12">
-        <v>2863195</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>41915257</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B13">
-        <v>8302865</v>
+        <v>7862567</v>
       </c>
       <c r="C13">
-        <v>2538614</v>
+        <v>2422756</v>
       </c>
       <c r="D13">
-        <v>3884826</v>
+        <v>4186423</v>
       </c>
       <c r="E13">
-        <v>38988918</v>
+        <v>38968164</v>
       </c>
       <c r="F13">
-        <v>294719</v>
+        <v>570032</v>
       </c>
       <c r="G13">
-        <v>43168463</v>
+        <v>43724619</v>
       </c>
       <c r="H13">
+        <v>8683749</v>
+      </c>
+      <c r="I13">
+        <v>2653423</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>42672767</v>
+      </c>
+      <c r="N13">
         <v>9231487</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>2863195</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>41915257</v>
-      </c>
-      <c r="N13">
-        <v>9829232</v>
-      </c>
-      <c r="O13">
-        <v>3259454</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>40921215</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B14">
-        <v>8683749</v>
+        <v>8302865</v>
       </c>
       <c r="C14">
-        <v>2653423</v>
+        <v>2538614</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3884826</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>38988918</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>294719</v>
       </c>
       <c r="G14">
-        <v>42672767</v>
+        <v>43168463</v>
       </c>
       <c r="H14">
+        <v>9231487</v>
+      </c>
+      <c r="I14">
+        <v>2863195</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>41915257</v>
+      </c>
+      <c r="N14">
         <v>9829232</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>3259454</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>40921215</v>
-      </c>
-      <c r="N14">
-        <v>10307179</v>
-      </c>
-      <c r="O14">
-        <v>3862335</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>39840387</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B15">
-        <v>9231487</v>
+        <v>8683749</v>
       </c>
       <c r="C15">
-        <v>2863195</v>
+        <v>2653423</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3646,54 +3723,54 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>41915257</v>
+        <v>42672767</v>
       </c>
       <c r="H15">
+        <v>9829232</v>
+      </c>
+      <c r="I15">
+        <v>3259454</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>40921215</v>
+      </c>
+      <c r="N15">
         <v>10307179</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>3862335</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>39840387</v>
-      </c>
-      <c r="N15">
-        <v>10942694</v>
-      </c>
-      <c r="O15">
-        <v>4426185</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>38641022</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B16">
-        <v>9829232</v>
+        <v>9231487</v>
       </c>
       <c r="C16">
-        <v>3259454</v>
+        <v>2863195</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3705,54 +3782,54 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>40921215</v>
+        <v>41915257</v>
       </c>
       <c r="H16">
+        <v>10307179</v>
+      </c>
+      <c r="I16">
+        <v>3862335</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>39840387</v>
+      </c>
+      <c r="N16">
         <v>10942694</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>4426185</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>38641022</v>
-      </c>
-      <c r="N16">
-        <v>11786620</v>
-      </c>
-      <c r="O16">
-        <v>4805486</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>37417795</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B17">
-        <v>10307179</v>
+        <v>9829232</v>
       </c>
       <c r="C17">
-        <v>3862335</v>
+        <v>3259454</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3764,54 +3841,54 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>39840387</v>
+        <v>40921215</v>
       </c>
       <c r="H17">
+        <v>10942694</v>
+      </c>
+      <c r="I17">
+        <v>4426185</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>38641022</v>
+      </c>
+      <c r="N17">
         <v>11786620</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>4805486</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>37417795</v>
-      </c>
-      <c r="N17">
-        <v>12581126</v>
-      </c>
-      <c r="O17">
-        <v>5096568</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>36332207</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B18">
-        <v>10942694</v>
+        <v>10307179</v>
       </c>
       <c r="C18">
-        <v>4426185</v>
+        <v>3862335</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3823,54 +3900,54 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>38641022</v>
+        <v>39840387</v>
       </c>
       <c r="H18">
+        <v>11786620</v>
+      </c>
+      <c r="I18">
+        <v>4805486</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>37417795</v>
+      </c>
+      <c r="N18">
         <v>12581126</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>5096568</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>36332207</v>
-      </c>
-      <c r="N18">
-        <v>13334156</v>
-      </c>
-      <c r="O18">
-        <v>5075930</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>35599815</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B19">
-        <v>11786620</v>
+        <v>10942694</v>
       </c>
       <c r="C19">
-        <v>4805486</v>
+        <v>4426185</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3882,54 +3959,54 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>37417795</v>
+        <v>38641022</v>
       </c>
       <c r="H19">
+        <v>12581126</v>
+      </c>
+      <c r="I19">
+        <v>5096568</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>36332207</v>
+      </c>
+      <c r="N19">
         <v>13334156</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>5075930</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>35599815</v>
-      </c>
-      <c r="N19">
-        <v>14507530</v>
-      </c>
-      <c r="O19">
-        <v>5210293</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>34292078</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B20">
-        <v>12581126</v>
+        <v>11786620</v>
       </c>
       <c r="C20">
-        <v>5096568</v>
+        <v>4805486</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3941,54 +4018,54 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>36332207</v>
+        <v>37417795</v>
       </c>
       <c r="H20">
+        <v>13334156</v>
+      </c>
+      <c r="I20">
+        <v>5075930</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>35599815</v>
+      </c>
+      <c r="N20">
         <v>14507530</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>5210293</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>34292078</v>
-      </c>
-      <c r="N20">
-        <v>15656647</v>
-      </c>
-      <c r="O20">
-        <v>6065610</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>32287644</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B21">
-        <v>13334156</v>
+        <v>12581126</v>
       </c>
       <c r="C21">
-        <v>5075930</v>
+        <v>5096568</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4000,54 +4077,54 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>35599815</v>
+        <v>36332207</v>
       </c>
       <c r="H21">
+        <v>14507530</v>
+      </c>
+      <c r="I21">
+        <v>5210293</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>34292078</v>
+      </c>
+      <c r="N21">
         <v>15656647</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>6065610</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>32287644</v>
-      </c>
-      <c r="N21">
-        <v>16708830</v>
-      </c>
-      <c r="O21">
-        <v>7672393</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>29628678</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B22">
-        <v>14507530</v>
+        <v>13334156</v>
       </c>
       <c r="C22">
-        <v>5210293</v>
+        <v>5075930</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4059,54 +4136,54 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>34292078</v>
+        <v>35599815</v>
       </c>
       <c r="H22">
+        <v>15656647</v>
+      </c>
+      <c r="I22">
+        <v>6065610</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>32287644</v>
+      </c>
+      <c r="N22">
         <v>16708830</v>
       </c>
-      <c r="I22">
+      <c r="O22">
         <v>7672393</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>29628678</v>
-      </c>
-      <c r="N22">
-        <v>17568325</v>
-      </c>
-      <c r="O22">
-        <v>9940124</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>26501452</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B23">
-        <v>15656647</v>
+        <v>14507530</v>
       </c>
       <c r="C23">
-        <v>6065610</v>
+        <v>5210293</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4118,54 +4195,54 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>32287644</v>
+        <v>34292078</v>
       </c>
       <c r="H23">
+        <v>16708830</v>
+      </c>
+      <c r="I23">
+        <v>7672393</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>29628678</v>
+      </c>
+      <c r="N23">
         <v>17568325</v>
       </c>
-      <c r="I23">
+      <c r="O23">
         <v>9940124</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>26501452</v>
-      </c>
-      <c r="N23">
-        <v>20322806</v>
-      </c>
-      <c r="O23">
-        <v>11341436</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>22345659</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B24">
-        <v>16708830</v>
+        <v>15656647</v>
       </c>
       <c r="C24">
-        <v>7672393</v>
+        <v>6065610</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4177,54 +4254,54 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>29628678</v>
+        <v>32287644</v>
       </c>
       <c r="H24">
+        <v>17568325</v>
+      </c>
+      <c r="I24">
+        <v>9940124</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>26501452</v>
+      </c>
+      <c r="N24">
         <v>20322806</v>
       </c>
-      <c r="I24">
+      <c r="O24">
         <v>11341436</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>22345659</v>
-      </c>
-      <c r="N24">
-        <v>21289761</v>
-      </c>
-      <c r="O24">
-        <v>13149676</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>19570464</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B25">
-        <v>17568325</v>
+        <v>16708830</v>
       </c>
       <c r="C25">
-        <v>9940124</v>
+        <v>7672393</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4236,54 +4313,54 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26501452</v>
+        <v>29628678</v>
       </c>
       <c r="H25">
+        <v>20322806</v>
+      </c>
+      <c r="I25">
+        <v>11341436</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>22345659</v>
+      </c>
+      <c r="N25">
         <v>21289761</v>
       </c>
-      <c r="I25">
+      <c r="O25">
         <v>13149676</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>19570464</v>
-      </c>
-      <c r="N25">
-        <v>22879167</v>
-      </c>
-      <c r="O25">
-        <v>13741130</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>17389604</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B26">
-        <v>20322806</v>
+        <v>17568325</v>
       </c>
       <c r="C26">
-        <v>11341436</v>
+        <v>9940124</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4295,54 +4372,54 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>22345659</v>
+        <v>26501452</v>
       </c>
       <c r="H26">
+        <v>21289761</v>
+      </c>
+      <c r="I26">
+        <v>13149676</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>19570464</v>
+      </c>
+      <c r="N26">
         <v>22879167</v>
       </c>
-      <c r="I26">
+      <c r="O26">
         <v>13741130</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>17389604</v>
-      </c>
-      <c r="N26">
-        <v>24745853</v>
-      </c>
-      <c r="O26">
-        <v>13879852</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>15384196</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B27">
-        <v>21289761</v>
+        <v>20322806</v>
       </c>
       <c r="C27">
-        <v>13149676</v>
+        <v>11341436</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4354,54 +4431,54 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>19570464</v>
+        <v>22345659</v>
       </c>
       <c r="H27">
+        <v>22879167</v>
+      </c>
+      <c r="I27">
+        <v>13741130</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>17389604</v>
+      </c>
+      <c r="N27">
         <v>24745853</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>13879852</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>15384196</v>
-      </c>
-      <c r="N27">
-        <v>27065063</v>
-      </c>
-      <c r="O27">
-        <v>13015437</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>13929401</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B28">
-        <v>22879167</v>
+        <v>21289761</v>
       </c>
       <c r="C28">
-        <v>13741130</v>
+        <v>13149676</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4413,54 +4490,54 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>17389604</v>
+        <v>19570464</v>
       </c>
       <c r="H28">
+        <v>24745853</v>
+      </c>
+      <c r="I28">
+        <v>13879852</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>15384196</v>
+      </c>
+      <c r="N28">
         <v>27065063</v>
       </c>
-      <c r="I28">
+      <c r="O28">
         <v>13015437</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>13929401</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B29">
-        <v>24745853</v>
+        <v>22879167</v>
       </c>
       <c r="C29">
-        <v>13879852</v>
+        <v>13741130</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4472,13 +4549,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>15384196</v>
+        <v>17389604</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>27065063</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>13015437</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -4490,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>13929401</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -4513,60 +4590,119 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B30">
+        <v>24745853</v>
+      </c>
+      <c r="C30">
+        <v>13879852</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>15384196</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="2">
         <v>44391</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>27065063</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>13015437</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>13929401</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,1091 +556,1091 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B2">
-        <v>809625</v>
+        <v>777547</v>
       </c>
       <c r="C2">
-        <v>137850</v>
+        <v>127486</v>
       </c>
       <c r="D2">
-        <v>1532777</v>
+        <v>1249396</v>
       </c>
       <c r="E2">
-        <v>687597</v>
+        <v>597335</v>
       </c>
       <c r="F2">
-        <v>672910</v>
+        <v>738378</v>
       </c>
       <c r="G2">
-        <v>2893284</v>
+        <v>2585109</v>
       </c>
       <c r="H2">
-        <v>15049</v>
+        <v>15695</v>
       </c>
       <c r="I2">
-        <v>1240</v>
+        <v>1437</v>
       </c>
       <c r="J2">
-        <v>13663</v>
+        <v>14598</v>
       </c>
       <c r="K2">
-        <v>2915</v>
+        <v>3426</v>
       </c>
       <c r="L2">
-        <v>6606</v>
+        <v>9017</v>
       </c>
       <c r="M2">
-        <v>23184</v>
+        <v>27041</v>
       </c>
       <c r="N2">
-        <v>1792</v>
+        <v>1716</v>
       </c>
       <c r="O2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P2">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="Q2">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="R2">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="S2">
-        <v>1166</v>
+        <v>1306</v>
       </c>
       <c r="T2">
-        <v>2632</v>
+        <v>3144</v>
       </c>
       <c r="U2">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="V2">
-        <v>2172</v>
+        <v>2508</v>
       </c>
       <c r="W2">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="X2">
-        <v>814</v>
+        <v>1331</v>
       </c>
       <c r="Y2">
-        <v>3168</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B3">
-        <v>703732</v>
+        <v>809625</v>
       </c>
       <c r="C3">
-        <v>127478</v>
+        <v>137850</v>
       </c>
       <c r="D3">
-        <v>1544092</v>
+        <v>1532777</v>
       </c>
       <c r="E3">
-        <v>640805</v>
+        <v>687597</v>
       </c>
       <c r="F3">
-        <v>521657</v>
+        <v>672910</v>
       </c>
       <c r="G3">
-        <v>2706554</v>
+        <v>2893284</v>
       </c>
       <c r="H3">
-        <v>13946</v>
+        <v>15049</v>
       </c>
       <c r="I3">
-        <v>989</v>
+        <v>1240</v>
       </c>
       <c r="J3">
-        <v>11934</v>
+        <v>13663</v>
       </c>
       <c r="K3">
-        <v>2225</v>
+        <v>2915</v>
       </c>
       <c r="L3">
-        <v>4177</v>
+        <v>6606</v>
       </c>
       <c r="M3">
-        <v>18336</v>
+        <v>23184</v>
       </c>
       <c r="N3">
-        <v>1753</v>
+        <v>1792</v>
       </c>
       <c r="O3">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P3">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="Q3">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="R3">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="S3">
-        <v>1014</v>
+        <v>1166</v>
       </c>
       <c r="T3">
-        <v>2120</v>
+        <v>2632</v>
       </c>
       <c r="U3">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="V3">
-        <v>1805</v>
+        <v>2172</v>
       </c>
       <c r="W3">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="X3">
-        <v>432</v>
+        <v>814</v>
       </c>
       <c r="Y3">
-        <v>2375</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B4">
-        <v>555697</v>
+        <v>703732</v>
       </c>
       <c r="C4">
-        <v>102729</v>
+        <v>127478</v>
       </c>
       <c r="D4">
-        <v>1320086</v>
+        <v>1544092</v>
       </c>
       <c r="E4">
-        <v>527687</v>
+        <v>640805</v>
       </c>
       <c r="F4">
-        <v>358530</v>
+        <v>521657</v>
       </c>
       <c r="G4">
-        <v>2206303</v>
+        <v>2706554</v>
       </c>
       <c r="H4">
-        <v>11487</v>
+        <v>13946</v>
       </c>
       <c r="I4">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="J4">
-        <v>9435</v>
+        <v>11934</v>
       </c>
       <c r="K4">
-        <v>1499</v>
+        <v>2225</v>
       </c>
       <c r="L4">
-        <v>2066</v>
+        <v>4177</v>
       </c>
       <c r="M4">
-        <v>13000</v>
+        <v>18336</v>
       </c>
       <c r="N4">
-        <v>1557</v>
+        <v>1753</v>
       </c>
       <c r="O4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P4">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="Q4">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R4">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="S4">
-        <v>809</v>
+        <v>1014</v>
       </c>
       <c r="T4">
-        <v>1774</v>
+        <v>2120</v>
       </c>
       <c r="U4">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="V4">
-        <v>1541</v>
+        <v>1805</v>
       </c>
       <c r="W4">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="X4">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="Y4">
-        <v>1863</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B5">
-        <v>395424</v>
+        <v>555697</v>
       </c>
       <c r="C5">
-        <v>68050</v>
+        <v>102729</v>
       </c>
       <c r="D5">
-        <v>955924</v>
+        <v>1320086</v>
       </c>
       <c r="E5">
-        <v>364078</v>
+        <v>527687</v>
       </c>
       <c r="F5">
-        <v>200146</v>
+        <v>358530</v>
       </c>
       <c r="G5">
-        <v>1520148</v>
+        <v>2206303</v>
       </c>
       <c r="H5">
-        <v>9564</v>
+        <v>11487</v>
       </c>
       <c r="I5">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="J5">
-        <v>7594</v>
+        <v>9435</v>
       </c>
       <c r="K5">
-        <v>1055</v>
+        <v>1499</v>
       </c>
       <c r="L5">
-        <v>955</v>
+        <v>2066</v>
       </c>
       <c r="M5">
-        <v>9604</v>
+        <v>13000</v>
       </c>
       <c r="N5">
-        <v>1368</v>
+        <v>1557</v>
       </c>
       <c r="O5">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P5">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="Q5">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R5">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="S5">
-        <v>663</v>
+        <v>809</v>
       </c>
       <c r="T5">
-        <v>1443</v>
+        <v>1774</v>
       </c>
       <c r="U5">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="V5">
-        <v>1370</v>
+        <v>1541</v>
       </c>
       <c r="W5">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X5">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="Y5">
-        <v>1606</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B6">
-        <v>251412</v>
+        <v>395424</v>
       </c>
       <c r="C6">
-        <v>34617</v>
+        <v>68050</v>
       </c>
       <c r="D6">
-        <v>547518</v>
+        <v>955924</v>
       </c>
       <c r="E6">
-        <v>195560</v>
+        <v>364078</v>
       </c>
       <c r="F6">
-        <v>79260</v>
+        <v>200146</v>
       </c>
       <c r="G6">
-        <v>822338</v>
+        <v>1520148</v>
       </c>
       <c r="H6">
-        <v>8278</v>
+        <v>9564</v>
       </c>
       <c r="I6">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="J6">
-        <v>6612</v>
+        <v>7594</v>
       </c>
       <c r="K6">
-        <v>905</v>
+        <v>1055</v>
       </c>
       <c r="L6">
-        <v>546</v>
+        <v>955</v>
       </c>
       <c r="M6">
-        <v>8063</v>
+        <v>9604</v>
       </c>
       <c r="N6">
-        <v>1202</v>
+        <v>1368</v>
       </c>
       <c r="O6">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P6">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="Q6">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R6">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S6">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="T6">
-        <v>1170</v>
+        <v>1443</v>
       </c>
       <c r="U6">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V6">
-        <v>1298</v>
+        <v>1370</v>
       </c>
       <c r="W6">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X6">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Y6">
-        <v>1489</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B7">
-        <v>170551</v>
+        <v>251412</v>
       </c>
       <c r="C7">
-        <v>14491</v>
+        <v>34617</v>
       </c>
       <c r="D7">
-        <v>265724</v>
+        <v>547518</v>
       </c>
       <c r="E7">
-        <v>99757</v>
+        <v>195560</v>
       </c>
       <c r="F7">
-        <v>20375</v>
+        <v>79260</v>
       </c>
       <c r="G7">
-        <v>385856</v>
+        <v>822338</v>
       </c>
       <c r="H7">
-        <v>7059</v>
+        <v>8278</v>
       </c>
       <c r="I7">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J7">
-        <v>5927</v>
+        <v>6612</v>
       </c>
       <c r="K7">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="L7">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="M7">
-        <v>7229</v>
+        <v>8063</v>
       </c>
       <c r="N7">
-        <v>1036</v>
+        <v>1202</v>
       </c>
       <c r="O7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="Q7">
+        <v>72</v>
+      </c>
+      <c r="R7">
+        <v>46</v>
+      </c>
+      <c r="S7">
+        <v>614</v>
+      </c>
+      <c r="T7">
+        <v>1170</v>
+      </c>
+      <c r="U7">
         <v>89</v>
       </c>
-      <c r="R7">
-        <v>33</v>
-      </c>
-      <c r="S7">
-        <v>555</v>
-      </c>
-      <c r="T7">
-        <v>994</v>
-      </c>
-      <c r="U7">
-        <v>75</v>
-      </c>
       <c r="V7">
-        <v>1108</v>
+        <v>1298</v>
       </c>
       <c r="W7">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="X7">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Y7">
-        <v>1262</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B8">
-        <v>140677</v>
+        <v>170551</v>
       </c>
       <c r="C8">
-        <v>9069</v>
+        <v>14491</v>
       </c>
       <c r="D8">
-        <v>91366</v>
+        <v>265724</v>
       </c>
       <c r="E8">
-        <v>155978</v>
+        <v>99757</v>
       </c>
       <c r="F8">
-        <v>7655</v>
+        <v>20375</v>
       </c>
       <c r="G8">
-        <v>254999</v>
+        <v>385856</v>
       </c>
       <c r="H8">
-        <v>5944</v>
+        <v>7059</v>
       </c>
       <c r="I8">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J8">
-        <v>4047</v>
+        <v>5927</v>
       </c>
       <c r="K8">
-        <v>2065</v>
+        <v>934</v>
       </c>
       <c r="L8">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="M8">
-        <v>6384</v>
+        <v>7229</v>
       </c>
       <c r="N8">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="O8">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P8">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="Q8">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="R8">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S8">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="T8">
-        <v>839</v>
+        <v>994</v>
       </c>
       <c r="U8">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="V8">
-        <v>838</v>
+        <v>1108</v>
       </c>
       <c r="W8">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="X8">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Y8">
-        <v>1105</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B9">
-        <v>114674</v>
+        <v>140677</v>
       </c>
       <c r="C9">
-        <v>7107</v>
+        <v>9069</v>
       </c>
       <c r="D9">
-        <v>71563</v>
+        <v>91366</v>
       </c>
       <c r="E9">
-        <v>122505</v>
+        <v>155978</v>
       </c>
       <c r="F9">
-        <v>4219</v>
+        <v>7655</v>
       </c>
       <c r="G9">
-        <v>198287</v>
+        <v>254999</v>
       </c>
       <c r="H9">
-        <v>5081</v>
+        <v>5944</v>
       </c>
       <c r="I9">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="J9">
-        <v>3432</v>
+        <v>4047</v>
       </c>
       <c r="K9">
-        <v>1843</v>
+        <v>2065</v>
       </c>
       <c r="L9">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="M9">
-        <v>5451</v>
+        <v>6384</v>
       </c>
       <c r="N9">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="O9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P9">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q9">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="R9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S9">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="T9">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="U9">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V9">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="W9">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="X9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Y9">
-        <v>991</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B10">
-        <v>93220</v>
+        <v>114674</v>
       </c>
       <c r="C10">
-        <v>6181</v>
+        <v>7107</v>
       </c>
       <c r="D10">
-        <v>57054</v>
+        <v>71563</v>
       </c>
       <c r="E10">
-        <v>102245</v>
+        <v>122505</v>
       </c>
       <c r="F10">
-        <v>2652</v>
+        <v>4219</v>
       </c>
       <c r="G10">
-        <v>161951</v>
+        <v>198287</v>
       </c>
       <c r="H10">
-        <v>4402</v>
+        <v>5081</v>
       </c>
       <c r="I10">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="J10">
-        <v>2916</v>
+        <v>3432</v>
       </c>
       <c r="K10">
-        <v>1616</v>
+        <v>1843</v>
       </c>
       <c r="L10">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="M10">
-        <v>4653</v>
+        <v>5451</v>
       </c>
       <c r="N10">
-        <v>618</v>
+        <v>747</v>
       </c>
       <c r="O10">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P10">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q10">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S10">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="T10">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="U10">
+        <v>42</v>
+      </c>
+      <c r="V10">
+        <v>745</v>
+      </c>
+      <c r="W10">
+        <v>257</v>
+      </c>
+      <c r="X10">
         <v>29</v>
       </c>
-      <c r="V10">
-        <v>604</v>
-      </c>
-      <c r="W10">
-        <v>186</v>
-      </c>
-      <c r="X10">
-        <v>17</v>
-      </c>
       <c r="Y10">
-        <v>807</v>
+        <v>991</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B11">
-        <v>75512</v>
+        <v>93220</v>
       </c>
       <c r="C11">
-        <v>5587</v>
+        <v>6181</v>
       </c>
       <c r="D11">
-        <v>44023</v>
+        <v>57054</v>
       </c>
       <c r="E11">
-        <v>82755</v>
+        <v>102245</v>
       </c>
       <c r="F11">
-        <v>1710</v>
+        <v>2652</v>
       </c>
       <c r="G11">
-        <v>128488</v>
+        <v>161951</v>
       </c>
       <c r="H11">
-        <v>3733</v>
+        <v>4402</v>
       </c>
       <c r="I11">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J11">
-        <v>2336</v>
+        <v>2916</v>
       </c>
       <c r="K11">
-        <v>1435</v>
+        <v>1616</v>
       </c>
       <c r="L11">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M11">
-        <v>3845</v>
+        <v>4653</v>
       </c>
       <c r="N11">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="O11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P11">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q11">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S11">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="T11">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="U11">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V11">
-        <v>482</v>
+        <v>604</v>
       </c>
       <c r="W11">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="X11">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y11">
-        <v>690</v>
+        <v>807</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B12">
-        <v>61908</v>
+        <v>75512</v>
       </c>
       <c r="C12">
-        <v>4260</v>
+        <v>5587</v>
       </c>
       <c r="D12">
-        <v>15519</v>
+        <v>44023</v>
       </c>
       <c r="E12">
-        <v>81740</v>
+        <v>82755</v>
       </c>
       <c r="F12">
-        <v>969</v>
+        <v>1710</v>
       </c>
       <c r="G12">
-        <v>98228</v>
+        <v>128488</v>
       </c>
       <c r="H12">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="I12">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J12">
-        <v>1187</v>
+        <v>2336</v>
       </c>
       <c r="K12">
-        <v>2437</v>
+        <v>1435</v>
       </c>
       <c r="L12">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M12">
-        <v>3693</v>
+        <v>3845</v>
       </c>
       <c r="N12">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="O12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P12">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="Q12">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="R12">
         <v>3</v>
       </c>
       <c r="S12">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="T12">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="U12">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="V12">
-        <v>191</v>
+        <v>482</v>
       </c>
       <c r="W12">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="X12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Y12">
-        <v>555</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B13">
-        <v>50564</v>
+        <v>61908</v>
       </c>
       <c r="C13">
-        <v>3980</v>
+        <v>4260</v>
       </c>
       <c r="D13">
-        <v>11215</v>
+        <v>15519</v>
       </c>
       <c r="E13">
-        <v>60407</v>
+        <v>81740</v>
       </c>
       <c r="F13">
-        <v>537</v>
+        <v>969</v>
       </c>
       <c r="G13">
-        <v>72159</v>
+        <v>98228</v>
       </c>
       <c r="H13">
-        <v>3220</v>
+        <v>3737</v>
       </c>
       <c r="I13">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J13">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="K13">
-        <v>2075</v>
+        <v>2437</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M13">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="N13">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="O13">
         <v>14</v>
       </c>
       <c r="P13">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q13">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S13">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="T13">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="U13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V13">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="W13">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y13">
-        <v>444</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B14">
-        <v>40182</v>
+        <v>50564</v>
       </c>
       <c r="C14">
-        <v>3466</v>
+        <v>3980</v>
       </c>
       <c r="D14">
-        <v>8088</v>
+        <v>11215</v>
       </c>
       <c r="E14">
-        <v>43928</v>
+        <v>60407</v>
       </c>
       <c r="F14">
-        <v>286</v>
+        <v>537</v>
       </c>
       <c r="G14">
-        <v>52302</v>
+        <v>72159</v>
       </c>
       <c r="H14">
-        <v>2890</v>
+        <v>3220</v>
       </c>
       <c r="I14">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J14">
-        <v>618</v>
+        <v>826</v>
       </c>
       <c r="K14">
-        <v>1774</v>
+        <v>2075</v>
       </c>
       <c r="L14">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>2409</v>
+        <v>2936</v>
       </c>
       <c r="N14">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="O14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P14">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q14">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="T14">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="U14">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V14">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="W14">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B15">
-        <v>35398</v>
+        <v>40182</v>
       </c>
       <c r="C15">
-        <v>3207</v>
+        <v>3466</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>43928</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G15">
-        <v>40991</v>
+        <v>52302</v>
       </c>
       <c r="H15">
-        <v>2696</v>
+        <v>2890</v>
       </c>
       <c r="I15">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>2037</v>
+        <v>2409</v>
       </c>
       <c r="N15">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="O15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="T15">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="U15">
         <v>27</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B16">
-        <v>34128</v>
+        <v>35398</v>
       </c>
       <c r="C16">
-        <v>3421</v>
+        <v>3207</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>34131</v>
+        <v>40991</v>
       </c>
       <c r="H16">
-        <v>2845</v>
+        <v>2696</v>
       </c>
       <c r="I16">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1670,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1815</v>
+        <v>2037</v>
       </c>
       <c r="N16">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="O16">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="T16">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="U16">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -1706,18 +1706,18 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B17">
-        <v>36194</v>
+        <v>34128</v>
       </c>
       <c r="C17">
-        <v>4127</v>
+        <v>3421</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1729,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>31514</v>
+        <v>34131</v>
       </c>
       <c r="H17">
-        <v>3396</v>
+        <v>2845</v>
       </c>
       <c r="I17">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1747,13 +1747,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1954</v>
+        <v>1815</v>
       </c>
       <c r="N17">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="O17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="T17">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="U17">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -1783,18 +1783,18 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>511</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B18">
-        <v>45790</v>
+        <v>36194</v>
       </c>
       <c r="C18">
-        <v>5352</v>
+        <v>4127</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>33496</v>
+        <v>31514</v>
       </c>
       <c r="H18">
-        <v>4274</v>
+        <v>3396</v>
       </c>
       <c r="I18">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="N18">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="O18">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T18">
-        <v>775</v>
+        <v>636</v>
       </c>
       <c r="U18">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -1860,18 +1860,18 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>578</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B19">
-        <v>56808</v>
+        <v>45790</v>
       </c>
       <c r="C19">
-        <v>6952</v>
+        <v>5352</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1883,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>36529</v>
+        <v>33496</v>
       </c>
       <c r="H19">
-        <v>5224</v>
+        <v>4274</v>
       </c>
       <c r="I19">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2268</v>
+        <v>2133</v>
       </c>
       <c r="N19">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="O19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1919,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="T19">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="U19">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -1937,18 +1937,18 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B20">
-        <v>70900</v>
+        <v>56808</v>
       </c>
       <c r="C20">
-        <v>9284</v>
+        <v>6952</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1960,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>40060</v>
+        <v>36529</v>
       </c>
       <c r="H20">
-        <v>6160</v>
+        <v>5224</v>
       </c>
       <c r="I20">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1978,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2418</v>
+        <v>2268</v>
       </c>
       <c r="N20">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="O20">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T20">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="U20">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2014,18 +2014,18 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B21">
-        <v>86133</v>
+        <v>70900</v>
       </c>
       <c r="C21">
-        <v>11735</v>
+        <v>9284</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44050</v>
+        <v>40060</v>
       </c>
       <c r="H21">
-        <v>6782</v>
+        <v>6160</v>
       </c>
       <c r="I21">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2456</v>
+        <v>2418</v>
       </c>
       <c r="N21">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="O21">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2073,10 +2073,10 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T21">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="U21">
         <v>57</v>
@@ -2091,18 +2091,18 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>509</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B22">
-        <v>96900</v>
+        <v>86133</v>
       </c>
       <c r="C22">
-        <v>13728</v>
+        <v>11735</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>44990</v>
+        <v>44050</v>
       </c>
       <c r="H22">
-        <v>6841</v>
+        <v>6782</v>
       </c>
       <c r="I22">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2331</v>
+        <v>2456</v>
       </c>
       <c r="N22">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="O22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2150,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="T22">
-        <v>770</v>
+        <v>877</v>
       </c>
       <c r="U22">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2168,18 +2168,18 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>405</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B23">
-        <v>104890</v>
+        <v>96900</v>
       </c>
       <c r="C23">
-        <v>16129</v>
+        <v>13728</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2191,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>43775</v>
+        <v>44990</v>
       </c>
       <c r="H23">
-        <v>6579</v>
+        <v>6841</v>
       </c>
       <c r="I23">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2118</v>
+        <v>2331</v>
       </c>
       <c r="N23">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="O23">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T23">
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="U23">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2245,18 +2245,18 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>280</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B24">
-        <v>107937</v>
+        <v>104890</v>
       </c>
       <c r="C24">
-        <v>18925</v>
+        <v>16129</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>40380</v>
+        <v>43775</v>
       </c>
       <c r="H24">
-        <v>5988</v>
+        <v>6579</v>
       </c>
       <c r="I24">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1788</v>
+        <v>2118</v>
       </c>
       <c r="N24">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="O24">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2304,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="T24">
-        <v>383</v>
+        <v>571</v>
       </c>
       <c r="U24">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2322,18 +2322,18 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B25">
-        <v>104405</v>
+        <v>107937</v>
       </c>
       <c r="C25">
-        <v>21703</v>
+        <v>18925</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>33894</v>
+        <v>40380</v>
       </c>
       <c r="H25">
-        <v>5162</v>
+        <v>5988</v>
       </c>
       <c r="I25">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1349</v>
+        <v>1788</v>
       </c>
       <c r="N25">
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="O25">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="T25">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="U25">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2399,18 +2399,18 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>92</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B26">
-        <v>95261</v>
+        <v>104405</v>
       </c>
       <c r="C26">
-        <v>22568</v>
+        <v>21703</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>24978</v>
+        <v>33894</v>
       </c>
       <c r="H26">
-        <v>4052</v>
+        <v>5162</v>
       </c>
       <c r="I26">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>959</v>
+        <v>1349</v>
       </c>
       <c r="N26">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="O26">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="T26">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="U26">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2476,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B27">
-        <v>80585</v>
+        <v>95261</v>
       </c>
       <c r="C27">
-        <v>21570</v>
+        <v>22568</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>18887</v>
+        <v>24978</v>
       </c>
       <c r="H27">
-        <v>3067</v>
+        <v>4052</v>
       </c>
       <c r="I27">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>627</v>
+        <v>959</v>
       </c>
       <c r="N27">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="O27">
         <v>22</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="T27">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="U27">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2553,18 +2553,18 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B28">
-        <v>60267</v>
+        <v>80585</v>
       </c>
       <c r="C28">
-        <v>17420</v>
+        <v>21570</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>12333</v>
+        <v>18887</v>
       </c>
       <c r="H28">
-        <v>2234</v>
+        <v>3067</v>
       </c>
       <c r="I28">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="N28">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="O28">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="T28">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="U28">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2635,13 +2635,13 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B29">
-        <v>40729</v>
+        <v>60267</v>
       </c>
       <c r="C29">
-        <v>12032</v>
+        <v>17420</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>7277</v>
+        <v>12333</v>
       </c>
       <c r="H29">
-        <v>1619</v>
+        <v>2234</v>
       </c>
       <c r="I29">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2671,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="N29">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="O29">
         <v>11</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T29">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="U29">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2707,18 +2707,18 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B30">
-        <v>26284</v>
+        <v>40729</v>
       </c>
       <c r="C30">
-        <v>6813</v>
+        <v>12032</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>3805</v>
+        <v>7277</v>
       </c>
       <c r="H30">
-        <v>1483</v>
+        <v>1619</v>
       </c>
       <c r="I30">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="N30">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O30">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T30">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="U30">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2784,83 +2784,160 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B31">
+        <v>26284</v>
+      </c>
+      <c r="C31">
+        <v>6813</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>3805</v>
+      </c>
+      <c r="H31">
+        <v>1483</v>
+      </c>
+      <c r="I31">
+        <v>199</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>224</v>
+      </c>
+      <c r="N31">
+        <v>117</v>
+      </c>
+      <c r="O31">
+        <v>14</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>8</v>
+      </c>
+      <c r="T31">
+        <v>250</v>
+      </c>
+      <c r="U31">
+        <v>47</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="2">
         <v>44391</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>21089</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>3954</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>2310</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>1880</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>240</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>240</v>
       </c>
-      <c r="N31">
+      <c r="N32">
         <v>147</v>
       </c>
-      <c r="O31">
+      <c r="O32">
         <v>20</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>7</v>
       </c>
-      <c r="T31">
+      <c r="T32">
         <v>357</v>
       </c>
-      <c r="U31">
+      <c r="U32">
         <v>72</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
         <v>68</v>
       </c>
     </row>
@@ -2871,7 +2948,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2938,839 +3015,839 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B2">
-        <v>5925943</v>
+        <v>5610741</v>
       </c>
       <c r="C2">
-        <v>1616298</v>
+        <v>1575333</v>
       </c>
       <c r="D2">
-        <v>18801609</v>
+        <v>17279465</v>
       </c>
       <c r="E2">
-        <v>7998741</v>
+        <v>7025036</v>
       </c>
       <c r="F2">
-        <v>19667354</v>
+        <v>22519370</v>
       </c>
       <c r="G2">
-        <v>46467704</v>
+        <v>46823871</v>
       </c>
       <c r="H2">
-        <v>6182863</v>
+        <v>5893661</v>
       </c>
       <c r="I2">
-        <v>1687002</v>
+        <v>1663892</v>
       </c>
       <c r="J2">
-        <v>22039408</v>
+        <v>20257123</v>
       </c>
       <c r="K2">
-        <v>9839532</v>
+        <v>9057038</v>
       </c>
       <c r="L2">
-        <v>14261140</v>
+        <v>17138231</v>
       </c>
       <c r="M2">
-        <v>46140080</v>
+        <v>46452392</v>
       </c>
       <c r="N2">
-        <v>6392072</v>
+        <v>6038487</v>
       </c>
       <c r="O2">
-        <v>1641693</v>
+        <v>1684410</v>
       </c>
       <c r="P2">
-        <v>24567729</v>
+        <v>22158953</v>
       </c>
       <c r="Q2">
-        <v>10413190</v>
+        <v>9853675</v>
       </c>
       <c r="R2">
-        <v>10995261</v>
+        <v>14274420</v>
       </c>
       <c r="S2">
-        <v>45976180</v>
+        <v>46287048</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B3">
-        <v>6113428</v>
+        <v>5925943</v>
       </c>
       <c r="C3">
-        <v>1676275</v>
+        <v>1616298</v>
       </c>
       <c r="D3">
-        <v>20106983</v>
+        <v>18801609</v>
       </c>
       <c r="E3">
-        <v>9023286</v>
+        <v>7998741</v>
       </c>
       <c r="F3">
-        <v>17089973</v>
+        <v>19667354</v>
       </c>
       <c r="G3">
-        <v>46220242</v>
+        <v>46467704</v>
       </c>
       <c r="H3">
-        <v>6466161</v>
+        <v>6182863</v>
       </c>
       <c r="I3">
-        <v>1644869</v>
+        <v>1687002</v>
       </c>
       <c r="J3">
-        <v>24530417</v>
+        <v>22039408</v>
       </c>
       <c r="K3">
-        <v>10394218</v>
+        <v>9839532</v>
       </c>
       <c r="L3">
-        <v>10974280</v>
+        <v>14261140</v>
       </c>
       <c r="M3">
-        <v>45898915</v>
+        <v>46140080</v>
       </c>
       <c r="N3">
-        <v>6710026</v>
+        <v>6392072</v>
       </c>
       <c r="O3">
-        <v>1549282</v>
+        <v>1641693</v>
       </c>
       <c r="P3">
-        <v>25990113</v>
+        <v>24567729</v>
       </c>
       <c r="Q3">
-        <v>11656265</v>
+        <v>10413190</v>
       </c>
       <c r="R3">
-        <v>8104259</v>
+        <v>10995261</v>
       </c>
       <c r="S3">
-        <v>45750637</v>
+        <v>45976180</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B4">
-        <v>6194434</v>
+        <v>6113428</v>
       </c>
       <c r="C4">
-        <v>1720841</v>
+        <v>1676275</v>
       </c>
       <c r="D4">
-        <v>22048677</v>
+        <v>20106983</v>
       </c>
       <c r="E4">
-        <v>9810639</v>
+        <v>9023286</v>
       </c>
       <c r="F4">
-        <v>14235354</v>
+        <v>17089973</v>
       </c>
       <c r="G4">
-        <v>46094670</v>
+        <v>46220242</v>
       </c>
       <c r="H4">
-        <v>6647970</v>
+        <v>6466161</v>
       </c>
       <c r="I4">
-        <v>1566179</v>
+        <v>1644869</v>
       </c>
       <c r="J4">
-        <v>26028307</v>
+        <v>24530417</v>
       </c>
       <c r="K4">
-        <v>11660101</v>
+        <v>10394218</v>
       </c>
       <c r="L4">
-        <v>8107388</v>
+        <v>10974280</v>
       </c>
       <c r="M4">
-        <v>45795796</v>
+        <v>45898915</v>
       </c>
       <c r="N4">
-        <v>6862315</v>
+        <v>6710026</v>
       </c>
       <c r="O4">
-        <v>1493790</v>
+        <v>1549282</v>
       </c>
       <c r="P4">
-        <v>26357835</v>
+        <v>25990113</v>
       </c>
       <c r="Q4">
-        <v>13596764</v>
+        <v>11656265</v>
       </c>
       <c r="R4">
-        <v>5699241</v>
+        <v>8104259</v>
       </c>
       <c r="S4">
-        <v>45653840</v>
+        <v>45750637</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B5">
-        <v>6414467</v>
+        <v>6194434</v>
       </c>
       <c r="C5">
-        <v>1678301</v>
+        <v>1720841</v>
       </c>
       <c r="D5">
-        <v>24562863</v>
+        <v>22048677</v>
       </c>
       <c r="E5">
-        <v>10381759</v>
+        <v>9810639</v>
       </c>
       <c r="F5">
-        <v>10972555</v>
+        <v>14235354</v>
       </c>
       <c r="G5">
-        <v>45917177</v>
+        <v>46094670</v>
       </c>
       <c r="H5">
-        <v>6876688</v>
+        <v>6647970</v>
       </c>
       <c r="I5">
-        <v>1504168</v>
+        <v>1566179</v>
       </c>
       <c r="J5">
-        <v>26348254</v>
+        <v>26028307</v>
       </c>
       <c r="K5">
-        <v>13585896</v>
+        <v>11660101</v>
       </c>
       <c r="L5">
-        <v>5694939</v>
+        <v>8107388</v>
       </c>
       <c r="M5">
-        <v>45629089</v>
+        <v>45795796</v>
       </c>
       <c r="N5">
-        <v>7031651</v>
+        <v>6862315</v>
       </c>
       <c r="O5">
-        <v>1502381</v>
+        <v>1493790</v>
       </c>
       <c r="P5">
-        <v>13119984</v>
+        <v>26357835</v>
       </c>
       <c r="Q5">
-        <v>28222661</v>
+        <v>13596764</v>
       </c>
       <c r="R5">
-        <v>4133267</v>
+        <v>5699241</v>
       </c>
       <c r="S5">
-        <v>45475912</v>
+        <v>45653840</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B6">
-        <v>6660263</v>
+        <v>6414467</v>
       </c>
       <c r="C6">
-        <v>1578764</v>
+        <v>1678301</v>
       </c>
       <c r="D6">
-        <v>26019483</v>
+        <v>24562863</v>
       </c>
       <c r="E6">
-        <v>11648617</v>
+        <v>10381759</v>
       </c>
       <c r="F6">
-        <v>8102818</v>
+        <v>10972555</v>
       </c>
       <c r="G6">
-        <v>45770918</v>
+        <v>45917177</v>
       </c>
       <c r="H6">
+        <v>6876688</v>
+      </c>
+      <c r="I6">
+        <v>1504168</v>
+      </c>
+      <c r="J6">
+        <v>26348254</v>
+      </c>
+      <c r="K6">
+        <v>13585896</v>
+      </c>
+      <c r="L6">
+        <v>5694939</v>
+      </c>
+      <c r="M6">
+        <v>45629089</v>
+      </c>
+      <c r="N6">
         <v>7031651</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>1502381</v>
       </c>
-      <c r="J6">
+      <c r="P6">
         <v>13119984</v>
       </c>
-      <c r="K6">
+      <c r="Q6">
         <v>28222661</v>
       </c>
-      <c r="L6">
+      <c r="R6">
         <v>4133267</v>
       </c>
-      <c r="M6">
+      <c r="S6">
         <v>45475912</v>
-      </c>
-      <c r="N6">
-        <v>7160934</v>
-      </c>
-      <c r="O6">
-        <v>1577260</v>
-      </c>
-      <c r="P6">
-        <v>12254673</v>
-      </c>
-      <c r="Q6">
-        <v>29956598</v>
-      </c>
-      <c r="R6">
-        <v>3060479</v>
-      </c>
-      <c r="S6">
-        <v>45271750</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B7">
-        <v>6876688</v>
+        <v>6660263</v>
       </c>
       <c r="C7">
-        <v>1504168</v>
+        <v>1578764</v>
       </c>
       <c r="D7">
-        <v>26348254</v>
+        <v>26019483</v>
       </c>
       <c r="E7">
-        <v>13585896</v>
+        <v>11648617</v>
       </c>
       <c r="F7">
-        <v>5694939</v>
+        <v>8102818</v>
       </c>
       <c r="G7">
-        <v>45629089</v>
+        <v>45770918</v>
       </c>
       <c r="H7">
+        <v>7031651</v>
+      </c>
+      <c r="I7">
+        <v>1502381</v>
+      </c>
+      <c r="J7">
+        <v>13119984</v>
+      </c>
+      <c r="K7">
+        <v>28222661</v>
+      </c>
+      <c r="L7">
+        <v>4133267</v>
+      </c>
+      <c r="M7">
+        <v>45475912</v>
+      </c>
+      <c r="N7">
         <v>7160934</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>1577260</v>
       </c>
-      <c r="J7">
+      <c r="P7">
         <v>12254673</v>
       </c>
-      <c r="K7">
+      <c r="Q7">
         <v>29956598</v>
       </c>
-      <c r="L7">
+      <c r="R7">
         <v>3060479</v>
       </c>
-      <c r="M7">
+      <c r="S7">
         <v>45271750</v>
-      </c>
-      <c r="N7">
-        <v>7291722</v>
-      </c>
-      <c r="O7">
-        <v>1749607</v>
-      </c>
-      <c r="P7">
-        <v>11949919</v>
-      </c>
-      <c r="Q7">
-        <v>30829431</v>
-      </c>
-      <c r="R7">
-        <v>2189265</v>
-      </c>
-      <c r="S7">
-        <v>44968615</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B8">
-        <v>7031651</v>
+        <v>6876688</v>
       </c>
       <c r="C8">
-        <v>1502381</v>
+        <v>1504168</v>
       </c>
       <c r="D8">
-        <v>13119984</v>
+        <v>26348254</v>
       </c>
       <c r="E8">
-        <v>28222661</v>
+        <v>13585896</v>
       </c>
       <c r="F8">
-        <v>4133267</v>
+        <v>5694939</v>
       </c>
       <c r="G8">
-        <v>45475912</v>
+        <v>45629089</v>
       </c>
       <c r="H8">
+        <v>7160934</v>
+      </c>
+      <c r="I8">
+        <v>1577260</v>
+      </c>
+      <c r="J8">
+        <v>12254673</v>
+      </c>
+      <c r="K8">
+        <v>29956598</v>
+      </c>
+      <c r="L8">
+        <v>3060479</v>
+      </c>
+      <c r="M8">
+        <v>45271750</v>
+      </c>
+      <c r="N8">
         <v>7291722</v>
       </c>
-      <c r="I8">
+      <c r="O8">
         <v>1749607</v>
       </c>
-      <c r="J8">
+      <c r="P8">
         <v>11949919</v>
       </c>
-      <c r="K8">
+      <c r="Q8">
         <v>30829431</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <v>2189265</v>
       </c>
-      <c r="M8">
+      <c r="S8">
         <v>44968615</v>
-      </c>
-      <c r="N8">
-        <v>7404599</v>
-      </c>
-      <c r="O8">
-        <v>1981131</v>
-      </c>
-      <c r="P8">
-        <v>11407859</v>
-      </c>
-      <c r="Q8">
-        <v>31622279</v>
-      </c>
-      <c r="R8">
-        <v>1594076</v>
-      </c>
-      <c r="S8">
-        <v>44624214</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B9">
-        <v>7160934</v>
+        <v>7031651</v>
       </c>
       <c r="C9">
-        <v>1577260</v>
+        <v>1502381</v>
       </c>
       <c r="D9">
-        <v>12254673</v>
+        <v>13119984</v>
       </c>
       <c r="E9">
-        <v>29956598</v>
+        <v>28222661</v>
       </c>
       <c r="F9">
-        <v>3060479</v>
+        <v>4133267</v>
       </c>
       <c r="G9">
-        <v>45271750</v>
+        <v>45475912</v>
       </c>
       <c r="H9">
+        <v>7291722</v>
+      </c>
+      <c r="I9">
+        <v>1749607</v>
+      </c>
+      <c r="J9">
+        <v>11949919</v>
+      </c>
+      <c r="K9">
+        <v>30829431</v>
+      </c>
+      <c r="L9">
+        <v>2189265</v>
+      </c>
+      <c r="M9">
+        <v>44968615</v>
+      </c>
+      <c r="N9">
         <v>7404599</v>
       </c>
-      <c r="I9">
+      <c r="O9">
         <v>1981131</v>
       </c>
-      <c r="J9">
+      <c r="P9">
         <v>11407859</v>
       </c>
-      <c r="K9">
+      <c r="Q9">
         <v>31622279</v>
       </c>
-      <c r="L9">
+      <c r="R9">
         <v>1594076</v>
       </c>
-      <c r="M9">
+      <c r="S9">
         <v>44624214</v>
-      </c>
-      <c r="N9">
-        <v>7586013</v>
-      </c>
-      <c r="O9">
-        <v>2222672</v>
-      </c>
-      <c r="P9">
-        <v>4526706</v>
-      </c>
-      <c r="Q9">
-        <v>38658546</v>
-      </c>
-      <c r="R9">
-        <v>1016007</v>
-      </c>
-      <c r="S9">
-        <v>44201259</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B10">
-        <v>7291722</v>
+        <v>7160934</v>
       </c>
       <c r="C10">
-        <v>1749607</v>
+        <v>1577260</v>
       </c>
       <c r="D10">
-        <v>11949919</v>
+        <v>12254673</v>
       </c>
       <c r="E10">
-        <v>30829431</v>
+        <v>29956598</v>
       </c>
       <c r="F10">
-        <v>2189265</v>
+        <v>3060479</v>
       </c>
       <c r="G10">
-        <v>44968615</v>
+        <v>45271750</v>
       </c>
       <c r="H10">
+        <v>7404599</v>
+      </c>
+      <c r="I10">
+        <v>1981131</v>
+      </c>
+      <c r="J10">
+        <v>11407859</v>
+      </c>
+      <c r="K10">
+        <v>31622279</v>
+      </c>
+      <c r="L10">
+        <v>1594076</v>
+      </c>
+      <c r="M10">
+        <v>44624214</v>
+      </c>
+      <c r="N10">
         <v>7586013</v>
       </c>
-      <c r="I10">
+      <c r="O10">
         <v>2222672</v>
       </c>
-      <c r="J10">
+      <c r="P10">
         <v>4526706</v>
       </c>
-      <c r="K10">
+      <c r="Q10">
         <v>38658546</v>
       </c>
-      <c r="L10">
+      <c r="R10">
         <v>1016007</v>
       </c>
-      <c r="M10">
+      <c r="S10">
         <v>44201259</v>
-      </c>
-      <c r="N10">
-        <v>7862567</v>
-      </c>
-      <c r="O10">
-        <v>2422756</v>
-      </c>
-      <c r="P10">
-        <v>4186423</v>
-      </c>
-      <c r="Q10">
-        <v>38968164</v>
-      </c>
-      <c r="R10">
-        <v>570032</v>
-      </c>
-      <c r="S10">
-        <v>43724619</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B11">
-        <v>7404599</v>
+        <v>7291722</v>
       </c>
       <c r="C11">
-        <v>1981131</v>
+        <v>1749607</v>
       </c>
       <c r="D11">
-        <v>11407859</v>
+        <v>11949919</v>
       </c>
       <c r="E11">
-        <v>31622279</v>
+        <v>30829431</v>
       </c>
       <c r="F11">
-        <v>1594076</v>
+        <v>2189265</v>
       </c>
       <c r="G11">
-        <v>44624214</v>
+        <v>44968615</v>
       </c>
       <c r="H11">
+        <v>7586013</v>
+      </c>
+      <c r="I11">
+        <v>2222672</v>
+      </c>
+      <c r="J11">
+        <v>4526706</v>
+      </c>
+      <c r="K11">
+        <v>38658546</v>
+      </c>
+      <c r="L11">
+        <v>1016007</v>
+      </c>
+      <c r="M11">
+        <v>44201259</v>
+      </c>
+      <c r="N11">
         <v>7862567</v>
       </c>
-      <c r="I11">
+      <c r="O11">
         <v>2422756</v>
       </c>
-      <c r="J11">
+      <c r="P11">
         <v>4186423</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <v>38968164</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <v>570032</v>
       </c>
-      <c r="M11">
+      <c r="S11">
         <v>43724619</v>
-      </c>
-      <c r="N11">
-        <v>8302865</v>
-      </c>
-      <c r="O11">
-        <v>2538614</v>
-      </c>
-      <c r="P11">
-        <v>3884826</v>
-      </c>
-      <c r="Q11">
-        <v>38988918</v>
-      </c>
-      <c r="R11">
-        <v>294719</v>
-      </c>
-      <c r="S11">
-        <v>43168463</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B12">
-        <v>7586013</v>
+        <v>7404599</v>
       </c>
       <c r="C12">
-        <v>2222672</v>
+        <v>1981131</v>
       </c>
       <c r="D12">
-        <v>4526706</v>
+        <v>11407859</v>
       </c>
       <c r="E12">
-        <v>38658546</v>
+        <v>31622279</v>
       </c>
       <c r="F12">
-        <v>1016007</v>
+        <v>1594076</v>
       </c>
       <c r="G12">
-        <v>44201259</v>
+        <v>44624214</v>
       </c>
       <c r="H12">
+        <v>7862567</v>
+      </c>
+      <c r="I12">
+        <v>2422756</v>
+      </c>
+      <c r="J12">
+        <v>4186423</v>
+      </c>
+      <c r="K12">
+        <v>38968164</v>
+      </c>
+      <c r="L12">
+        <v>570032</v>
+      </c>
+      <c r="M12">
+        <v>43724619</v>
+      </c>
+      <c r="N12">
         <v>8302865</v>
       </c>
-      <c r="I12">
+      <c r="O12">
         <v>2538614</v>
       </c>
-      <c r="J12">
+      <c r="P12">
         <v>3884826</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <v>38988918</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <v>294719</v>
       </c>
-      <c r="M12">
+      <c r="S12">
         <v>43168463</v>
-      </c>
-      <c r="N12">
-        <v>8683749</v>
-      </c>
-      <c r="O12">
-        <v>2653423</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>42672767</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B13">
-        <v>7862567</v>
+        <v>7586013</v>
       </c>
       <c r="C13">
-        <v>2422756</v>
+        <v>2222672</v>
       </c>
       <c r="D13">
-        <v>4186423</v>
+        <v>4526706</v>
       </c>
       <c r="E13">
-        <v>38968164</v>
+        <v>38658546</v>
       </c>
       <c r="F13">
-        <v>570032</v>
+        <v>1016007</v>
       </c>
       <c r="G13">
-        <v>43724619</v>
+        <v>44201259</v>
       </c>
       <c r="H13">
+        <v>8302865</v>
+      </c>
+      <c r="I13">
+        <v>2538614</v>
+      </c>
+      <c r="J13">
+        <v>3884826</v>
+      </c>
+      <c r="K13">
+        <v>38988918</v>
+      </c>
+      <c r="L13">
+        <v>294719</v>
+      </c>
+      <c r="M13">
+        <v>43168463</v>
+      </c>
+      <c r="N13">
         <v>8683749</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>2653423</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>42672767</v>
-      </c>
-      <c r="N13">
-        <v>9231487</v>
-      </c>
-      <c r="O13">
-        <v>2863195</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>41915257</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B14">
-        <v>8302865</v>
+        <v>7862567</v>
       </c>
       <c r="C14">
-        <v>2538614</v>
+        <v>2422756</v>
       </c>
       <c r="D14">
-        <v>3884826</v>
+        <v>4186423</v>
       </c>
       <c r="E14">
-        <v>38988918</v>
+        <v>38968164</v>
       </c>
       <c r="F14">
-        <v>294719</v>
+        <v>570032</v>
       </c>
       <c r="G14">
-        <v>43168463</v>
+        <v>43724619</v>
       </c>
       <c r="H14">
+        <v>8683749</v>
+      </c>
+      <c r="I14">
+        <v>2653423</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>42672767</v>
+      </c>
+      <c r="N14">
         <v>9231487</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>2863195</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>41915257</v>
-      </c>
-      <c r="N14">
-        <v>9829232</v>
-      </c>
-      <c r="O14">
-        <v>3259454</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>40921215</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B15">
-        <v>8683749</v>
+        <v>8302865</v>
       </c>
       <c r="C15">
-        <v>2653423</v>
+        <v>2538614</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>3884826</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>38988918</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>294719</v>
       </c>
       <c r="G15">
-        <v>42672767</v>
+        <v>43168463</v>
       </c>
       <c r="H15">
+        <v>9231487</v>
+      </c>
+      <c r="I15">
+        <v>2863195</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>41915257</v>
+      </c>
+      <c r="N15">
         <v>9829232</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>3259454</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>40921215</v>
-      </c>
-      <c r="N15">
-        <v>10307179</v>
-      </c>
-      <c r="O15">
-        <v>3862335</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>39840387</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B16">
-        <v>9231487</v>
+        <v>8683749</v>
       </c>
       <c r="C16">
-        <v>2863195</v>
+        <v>2653423</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3782,54 +3859,54 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>41915257</v>
+        <v>42672767</v>
       </c>
       <c r="H16">
+        <v>9829232</v>
+      </c>
+      <c r="I16">
+        <v>3259454</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>40921215</v>
+      </c>
+      <c r="N16">
         <v>10307179</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>3862335</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>39840387</v>
-      </c>
-      <c r="N16">
-        <v>10942694</v>
-      </c>
-      <c r="O16">
-        <v>4426185</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>38641022</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B17">
-        <v>9829232</v>
+        <v>9231487</v>
       </c>
       <c r="C17">
-        <v>3259454</v>
+        <v>2863195</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3841,54 +3918,54 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>40921215</v>
+        <v>41915257</v>
       </c>
       <c r="H17">
+        <v>10307179</v>
+      </c>
+      <c r="I17">
+        <v>3862335</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>39840387</v>
+      </c>
+      <c r="N17">
         <v>10942694</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>4426185</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>38641022</v>
-      </c>
-      <c r="N17">
-        <v>11786620</v>
-      </c>
-      <c r="O17">
-        <v>4805486</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>37417795</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B18">
-        <v>10307179</v>
+        <v>9829232</v>
       </c>
       <c r="C18">
-        <v>3862335</v>
+        <v>3259454</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3900,54 +3977,54 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>39840387</v>
+        <v>40921215</v>
       </c>
       <c r="H18">
+        <v>10942694</v>
+      </c>
+      <c r="I18">
+        <v>4426185</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>38641022</v>
+      </c>
+      <c r="N18">
         <v>11786620</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>4805486</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>37417795</v>
-      </c>
-      <c r="N18">
-        <v>12581126</v>
-      </c>
-      <c r="O18">
-        <v>5096568</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>36332207</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B19">
-        <v>10942694</v>
+        <v>10307179</v>
       </c>
       <c r="C19">
-        <v>4426185</v>
+        <v>3862335</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3959,54 +4036,54 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>38641022</v>
+        <v>39840387</v>
       </c>
       <c r="H19">
+        <v>11786620</v>
+      </c>
+      <c r="I19">
+        <v>4805486</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>37417795</v>
+      </c>
+      <c r="N19">
         <v>12581126</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>5096568</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>36332207</v>
-      </c>
-      <c r="N19">
-        <v>13334156</v>
-      </c>
-      <c r="O19">
-        <v>5075930</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>35599815</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B20">
-        <v>11786620</v>
+        <v>10942694</v>
       </c>
       <c r="C20">
-        <v>4805486</v>
+        <v>4426185</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4018,54 +4095,54 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>37417795</v>
+        <v>38641022</v>
       </c>
       <c r="H20">
+        <v>12581126</v>
+      </c>
+      <c r="I20">
+        <v>5096568</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>36332207</v>
+      </c>
+      <c r="N20">
         <v>13334156</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>5075930</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>35599815</v>
-      </c>
-      <c r="N20">
-        <v>14507530</v>
-      </c>
-      <c r="O20">
-        <v>5210293</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>34292078</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B21">
-        <v>12581126</v>
+        <v>11786620</v>
       </c>
       <c r="C21">
-        <v>5096568</v>
+        <v>4805486</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4077,54 +4154,54 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>36332207</v>
+        <v>37417795</v>
       </c>
       <c r="H21">
+        <v>13334156</v>
+      </c>
+      <c r="I21">
+        <v>5075930</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>35599815</v>
+      </c>
+      <c r="N21">
         <v>14507530</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>5210293</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>34292078</v>
-      </c>
-      <c r="N21">
-        <v>15656647</v>
-      </c>
-      <c r="O21">
-        <v>6065610</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>32287644</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B22">
-        <v>13334156</v>
+        <v>12581126</v>
       </c>
       <c r="C22">
-        <v>5075930</v>
+        <v>5096568</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4136,54 +4213,54 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>35599815</v>
+        <v>36332207</v>
       </c>
       <c r="H22">
+        <v>14507530</v>
+      </c>
+      <c r="I22">
+        <v>5210293</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>34292078</v>
+      </c>
+      <c r="N22">
         <v>15656647</v>
       </c>
-      <c r="I22">
+      <c r="O22">
         <v>6065610</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>32287644</v>
-      </c>
-      <c r="N22">
-        <v>16708830</v>
-      </c>
-      <c r="O22">
-        <v>7672393</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>29628678</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B23">
-        <v>14507530</v>
+        <v>13334156</v>
       </c>
       <c r="C23">
-        <v>5210293</v>
+        <v>5075930</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4195,54 +4272,54 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>34292078</v>
+        <v>35599815</v>
       </c>
       <c r="H23">
+        <v>15656647</v>
+      </c>
+      <c r="I23">
+        <v>6065610</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>32287644</v>
+      </c>
+      <c r="N23">
         <v>16708830</v>
       </c>
-      <c r="I23">
+      <c r="O23">
         <v>7672393</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>29628678</v>
-      </c>
-      <c r="N23">
-        <v>17568325</v>
-      </c>
-      <c r="O23">
-        <v>9940124</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>26501452</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B24">
-        <v>15656647</v>
+        <v>14507530</v>
       </c>
       <c r="C24">
-        <v>6065610</v>
+        <v>5210293</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4254,54 +4331,54 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>32287644</v>
+        <v>34292078</v>
       </c>
       <c r="H24">
+        <v>16708830</v>
+      </c>
+      <c r="I24">
+        <v>7672393</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>29628678</v>
+      </c>
+      <c r="N24">
         <v>17568325</v>
       </c>
-      <c r="I24">
+      <c r="O24">
         <v>9940124</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>26501452</v>
-      </c>
-      <c r="N24">
-        <v>20322806</v>
-      </c>
-      <c r="O24">
-        <v>11341436</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>22345659</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B25">
-        <v>16708830</v>
+        <v>15656647</v>
       </c>
       <c r="C25">
-        <v>7672393</v>
+        <v>6065610</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4313,54 +4390,54 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>29628678</v>
+        <v>32287644</v>
       </c>
       <c r="H25">
+        <v>17568325</v>
+      </c>
+      <c r="I25">
+        <v>9940124</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>26501452</v>
+      </c>
+      <c r="N25">
         <v>20322806</v>
       </c>
-      <c r="I25">
+      <c r="O25">
         <v>11341436</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>22345659</v>
-      </c>
-      <c r="N25">
-        <v>21289761</v>
-      </c>
-      <c r="O25">
-        <v>13149676</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>19570464</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B26">
-        <v>17568325</v>
+        <v>16708830</v>
       </c>
       <c r="C26">
-        <v>9940124</v>
+        <v>7672393</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4372,54 +4449,54 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>26501452</v>
+        <v>29628678</v>
       </c>
       <c r="H26">
+        <v>20322806</v>
+      </c>
+      <c r="I26">
+        <v>11341436</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>22345659</v>
+      </c>
+      <c r="N26">
         <v>21289761</v>
       </c>
-      <c r="I26">
+      <c r="O26">
         <v>13149676</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>19570464</v>
-      </c>
-      <c r="N26">
-        <v>22879167</v>
-      </c>
-      <c r="O26">
-        <v>13741130</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>17389604</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B27">
-        <v>20322806</v>
+        <v>17568325</v>
       </c>
       <c r="C27">
-        <v>11341436</v>
+        <v>9940124</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4431,54 +4508,54 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>22345659</v>
+        <v>26501452</v>
       </c>
       <c r="H27">
+        <v>21289761</v>
+      </c>
+      <c r="I27">
+        <v>13149676</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>19570464</v>
+      </c>
+      <c r="N27">
         <v>22879167</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>13741130</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>17389604</v>
-      </c>
-      <c r="N27">
-        <v>24745853</v>
-      </c>
-      <c r="O27">
-        <v>13879852</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>15384196</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B28">
-        <v>21289761</v>
+        <v>20322806</v>
       </c>
       <c r="C28">
-        <v>13149676</v>
+        <v>11341436</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4490,54 +4567,54 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>19570464</v>
+        <v>22345659</v>
       </c>
       <c r="H28">
+        <v>22879167</v>
+      </c>
+      <c r="I28">
+        <v>13741130</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>17389604</v>
+      </c>
+      <c r="N28">
         <v>24745853</v>
       </c>
-      <c r="I28">
+      <c r="O28">
         <v>13879852</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>15384196</v>
-      </c>
-      <c r="N28">
-        <v>27065063</v>
-      </c>
-      <c r="O28">
-        <v>13015437</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>13929401</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B29">
-        <v>22879167</v>
+        <v>21289761</v>
       </c>
       <c r="C29">
-        <v>13741130</v>
+        <v>13149676</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4549,54 +4626,54 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>17389604</v>
+        <v>19570464</v>
       </c>
       <c r="H29">
+        <v>24745853</v>
+      </c>
+      <c r="I29">
+        <v>13879852</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>15384196</v>
+      </c>
+      <c r="N29">
         <v>27065063</v>
       </c>
-      <c r="I29">
+      <c r="O29">
         <v>13015437</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>13929401</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B30">
-        <v>24745853</v>
+        <v>22879167</v>
       </c>
       <c r="C30">
-        <v>13879852</v>
+        <v>13741130</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4608,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>15384196</v>
+        <v>17389604</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>27065063</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>13015437</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -4626,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>13929401</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -4649,60 +4726,119 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B31">
+        <v>24745853</v>
+      </c>
+      <c r="C31">
+        <v>13879852</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>15384196</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="2">
         <v>44391</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>27065063</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>13015437</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>13929401</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,1168 +556,1168 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B2">
-        <v>777547</v>
+        <v>642419</v>
       </c>
       <c r="C2">
-        <v>127486</v>
+        <v>102315</v>
       </c>
       <c r="D2">
-        <v>1249396</v>
+        <v>848833</v>
       </c>
       <c r="E2">
-        <v>597335</v>
+        <v>439413</v>
       </c>
       <c r="F2">
-        <v>738378</v>
+        <v>717143</v>
       </c>
       <c r="G2">
-        <v>2585109</v>
+        <v>2005389</v>
       </c>
       <c r="H2">
-        <v>15695</v>
+        <v>15012</v>
       </c>
       <c r="I2">
-        <v>1437</v>
+        <v>1532</v>
       </c>
       <c r="J2">
-        <v>14598</v>
+        <v>13660</v>
       </c>
       <c r="K2">
-        <v>3426</v>
+        <v>3480</v>
       </c>
       <c r="L2">
-        <v>9017</v>
+        <v>11075</v>
       </c>
       <c r="M2">
-        <v>27041</v>
+        <v>28215</v>
       </c>
       <c r="N2">
-        <v>1716</v>
+        <v>1524</v>
       </c>
       <c r="O2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P2">
-        <v>803</v>
+        <v>736</v>
       </c>
       <c r="Q2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="R2">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="S2">
-        <v>1306</v>
+        <v>1350</v>
       </c>
       <c r="T2">
-        <v>3144</v>
+        <v>3357</v>
       </c>
       <c r="U2">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="V2">
-        <v>2508</v>
+        <v>2757</v>
       </c>
       <c r="W2">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="X2">
-        <v>1331</v>
+        <v>1918</v>
       </c>
       <c r="Y2">
-        <v>4071</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B3">
-        <v>809625</v>
+        <v>777547</v>
       </c>
       <c r="C3">
-        <v>137850</v>
+        <v>127486</v>
       </c>
       <c r="D3">
-        <v>1532777</v>
+        <v>1249396</v>
       </c>
       <c r="E3">
-        <v>687597</v>
+        <v>597335</v>
       </c>
       <c r="F3">
-        <v>672910</v>
+        <v>738378</v>
       </c>
       <c r="G3">
-        <v>2893284</v>
+        <v>2585109</v>
       </c>
       <c r="H3">
-        <v>15049</v>
+        <v>15695</v>
       </c>
       <c r="I3">
-        <v>1240</v>
+        <v>1437</v>
       </c>
       <c r="J3">
-        <v>13663</v>
+        <v>14598</v>
       </c>
       <c r="K3">
-        <v>2915</v>
+        <v>3426</v>
       </c>
       <c r="L3">
-        <v>6606</v>
+        <v>9017</v>
       </c>
       <c r="M3">
-        <v>23184</v>
+        <v>27041</v>
       </c>
       <c r="N3">
-        <v>1792</v>
+        <v>1716</v>
       </c>
       <c r="O3">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P3">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="Q3">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="R3">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="S3">
-        <v>1166</v>
+        <v>1306</v>
       </c>
       <c r="T3">
-        <v>2632</v>
+        <v>3144</v>
       </c>
       <c r="U3">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="V3">
-        <v>2172</v>
+        <v>2508</v>
       </c>
       <c r="W3">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="X3">
-        <v>814</v>
+        <v>1331</v>
       </c>
       <c r="Y3">
-        <v>3168</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B4">
-        <v>703732</v>
+        <v>809625</v>
       </c>
       <c r="C4">
-        <v>127478</v>
+        <v>137850</v>
       </c>
       <c r="D4">
-        <v>1544092</v>
+        <v>1532777</v>
       </c>
       <c r="E4">
-        <v>640805</v>
+        <v>687597</v>
       </c>
       <c r="F4">
-        <v>521657</v>
+        <v>672910</v>
       </c>
       <c r="G4">
-        <v>2706554</v>
+        <v>2893284</v>
       </c>
       <c r="H4">
-        <v>13946</v>
+        <v>15049</v>
       </c>
       <c r="I4">
-        <v>989</v>
+        <v>1240</v>
       </c>
       <c r="J4">
-        <v>11934</v>
+        <v>13663</v>
       </c>
       <c r="K4">
-        <v>2225</v>
+        <v>2915</v>
       </c>
       <c r="L4">
-        <v>4177</v>
+        <v>6606</v>
       </c>
       <c r="M4">
-        <v>18336</v>
+        <v>23184</v>
       </c>
       <c r="N4">
-        <v>1753</v>
+        <v>1792</v>
       </c>
       <c r="O4">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P4">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="Q4">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="R4">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="S4">
-        <v>1014</v>
+        <v>1166</v>
       </c>
       <c r="T4">
-        <v>2120</v>
+        <v>2632</v>
       </c>
       <c r="U4">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="V4">
-        <v>1805</v>
+        <v>2172</v>
       </c>
       <c r="W4">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="X4">
-        <v>432</v>
+        <v>814</v>
       </c>
       <c r="Y4">
-        <v>2375</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B5">
-        <v>555697</v>
+        <v>703732</v>
       </c>
       <c r="C5">
-        <v>102729</v>
+        <v>127478</v>
       </c>
       <c r="D5">
-        <v>1320086</v>
+        <v>1544092</v>
       </c>
       <c r="E5">
-        <v>527687</v>
+        <v>640805</v>
       </c>
       <c r="F5">
-        <v>358530</v>
+        <v>521657</v>
       </c>
       <c r="G5">
-        <v>2206303</v>
+        <v>2706554</v>
       </c>
       <c r="H5">
-        <v>11487</v>
+        <v>13946</v>
       </c>
       <c r="I5">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="J5">
-        <v>9435</v>
+        <v>11934</v>
       </c>
       <c r="K5">
-        <v>1499</v>
+        <v>2225</v>
       </c>
       <c r="L5">
-        <v>2066</v>
+        <v>4177</v>
       </c>
       <c r="M5">
-        <v>13000</v>
+        <v>18336</v>
       </c>
       <c r="N5">
-        <v>1557</v>
+        <v>1753</v>
       </c>
       <c r="O5">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P5">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="Q5">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R5">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="S5">
-        <v>809</v>
+        <v>1014</v>
       </c>
       <c r="T5">
-        <v>1774</v>
+        <v>2120</v>
       </c>
       <c r="U5">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="V5">
-        <v>1541</v>
+        <v>1805</v>
       </c>
       <c r="W5">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="X5">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="Y5">
-        <v>1863</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B6">
-        <v>395424</v>
+        <v>555697</v>
       </c>
       <c r="C6">
-        <v>68050</v>
+        <v>102729</v>
       </c>
       <c r="D6">
-        <v>955924</v>
+        <v>1320086</v>
       </c>
       <c r="E6">
-        <v>364078</v>
+        <v>527687</v>
       </c>
       <c r="F6">
-        <v>200146</v>
+        <v>358530</v>
       </c>
       <c r="G6">
-        <v>1520148</v>
+        <v>2206303</v>
       </c>
       <c r="H6">
-        <v>9564</v>
+        <v>11487</v>
       </c>
       <c r="I6">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="J6">
-        <v>7594</v>
+        <v>9435</v>
       </c>
       <c r="K6">
-        <v>1055</v>
+        <v>1499</v>
       </c>
       <c r="L6">
-        <v>955</v>
+        <v>2066</v>
       </c>
       <c r="M6">
-        <v>9604</v>
+        <v>13000</v>
       </c>
       <c r="N6">
-        <v>1368</v>
+        <v>1557</v>
       </c>
       <c r="O6">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P6">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="Q6">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R6">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="S6">
-        <v>663</v>
+        <v>809</v>
       </c>
       <c r="T6">
-        <v>1443</v>
+        <v>1774</v>
       </c>
       <c r="U6">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="V6">
-        <v>1370</v>
+        <v>1541</v>
       </c>
       <c r="W6">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X6">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="Y6">
-        <v>1606</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B7">
-        <v>251412</v>
+        <v>395424</v>
       </c>
       <c r="C7">
-        <v>34617</v>
+        <v>68050</v>
       </c>
       <c r="D7">
-        <v>547518</v>
+        <v>955924</v>
       </c>
       <c r="E7">
-        <v>195560</v>
+        <v>364078</v>
       </c>
       <c r="F7">
-        <v>79260</v>
+        <v>200146</v>
       </c>
       <c r="G7">
-        <v>822338</v>
+        <v>1520148</v>
       </c>
       <c r="H7">
-        <v>8278</v>
+        <v>9564</v>
       </c>
       <c r="I7">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="J7">
-        <v>6612</v>
+        <v>7594</v>
       </c>
       <c r="K7">
-        <v>905</v>
+        <v>1055</v>
       </c>
       <c r="L7">
-        <v>546</v>
+        <v>955</v>
       </c>
       <c r="M7">
-        <v>8063</v>
+        <v>9604</v>
       </c>
       <c r="N7">
-        <v>1202</v>
+        <v>1368</v>
       </c>
       <c r="O7">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P7">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="Q7">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R7">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S7">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="T7">
-        <v>1170</v>
+        <v>1443</v>
       </c>
       <c r="U7">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V7">
-        <v>1298</v>
+        <v>1370</v>
       </c>
       <c r="W7">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X7">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Y7">
-        <v>1489</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B8">
-        <v>170551</v>
+        <v>251412</v>
       </c>
       <c r="C8">
-        <v>14491</v>
+        <v>34617</v>
       </c>
       <c r="D8">
-        <v>265724</v>
+        <v>547518</v>
       </c>
       <c r="E8">
-        <v>99757</v>
+        <v>195560</v>
       </c>
       <c r="F8">
-        <v>20375</v>
+        <v>79260</v>
       </c>
       <c r="G8">
-        <v>385856</v>
+        <v>822338</v>
       </c>
       <c r="H8">
-        <v>7059</v>
+        <v>8278</v>
       </c>
       <c r="I8">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J8">
-        <v>5927</v>
+        <v>6612</v>
       </c>
       <c r="K8">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="L8">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="M8">
-        <v>7229</v>
+        <v>8063</v>
       </c>
       <c r="N8">
-        <v>1036</v>
+        <v>1202</v>
       </c>
       <c r="O8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="Q8">
+        <v>72</v>
+      </c>
+      <c r="R8">
+        <v>46</v>
+      </c>
+      <c r="S8">
+        <v>614</v>
+      </c>
+      <c r="T8">
+        <v>1170</v>
+      </c>
+      <c r="U8">
         <v>89</v>
       </c>
-      <c r="R8">
-        <v>33</v>
-      </c>
-      <c r="S8">
-        <v>555</v>
-      </c>
-      <c r="T8">
-        <v>994</v>
-      </c>
-      <c r="U8">
-        <v>75</v>
-      </c>
       <c r="V8">
-        <v>1108</v>
+        <v>1298</v>
       </c>
       <c r="W8">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="X8">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Y8">
-        <v>1262</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B9">
-        <v>140677</v>
+        <v>170551</v>
       </c>
       <c r="C9">
-        <v>9069</v>
+        <v>14491</v>
       </c>
       <c r="D9">
-        <v>91366</v>
+        <v>265724</v>
       </c>
       <c r="E9">
-        <v>155978</v>
+        <v>99757</v>
       </c>
       <c r="F9">
-        <v>7655</v>
+        <v>20375</v>
       </c>
       <c r="G9">
-        <v>254999</v>
+        <v>385856</v>
       </c>
       <c r="H9">
-        <v>5944</v>
+        <v>7059</v>
       </c>
       <c r="I9">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J9">
-        <v>4047</v>
+        <v>5927</v>
       </c>
       <c r="K9">
-        <v>2065</v>
+        <v>934</v>
       </c>
       <c r="L9">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="M9">
-        <v>6384</v>
+        <v>7229</v>
       </c>
       <c r="N9">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="O9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P9">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="Q9">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="R9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S9">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="T9">
-        <v>839</v>
+        <v>994</v>
       </c>
       <c r="U9">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="V9">
-        <v>838</v>
+        <v>1108</v>
       </c>
       <c r="W9">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="X9">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Y9">
-        <v>1105</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B10">
-        <v>114674</v>
+        <v>140677</v>
       </c>
       <c r="C10">
-        <v>7107</v>
+        <v>9069</v>
       </c>
       <c r="D10">
-        <v>71563</v>
+        <v>91366</v>
       </c>
       <c r="E10">
-        <v>122505</v>
+        <v>155978</v>
       </c>
       <c r="F10">
-        <v>4219</v>
+        <v>7655</v>
       </c>
       <c r="G10">
-        <v>198287</v>
+        <v>254999</v>
       </c>
       <c r="H10">
-        <v>5081</v>
+        <v>5944</v>
       </c>
       <c r="I10">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="J10">
-        <v>3432</v>
+        <v>4047</v>
       </c>
       <c r="K10">
-        <v>1843</v>
+        <v>2065</v>
       </c>
       <c r="L10">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="M10">
-        <v>5451</v>
+        <v>6384</v>
       </c>
       <c r="N10">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="O10">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P10">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q10">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="R10">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S10">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="T10">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="U10">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V10">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="W10">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="X10">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Y10">
-        <v>991</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B11">
-        <v>93220</v>
+        <v>114674</v>
       </c>
       <c r="C11">
-        <v>6181</v>
+        <v>7107</v>
       </c>
       <c r="D11">
-        <v>57054</v>
+        <v>71563</v>
       </c>
       <c r="E11">
-        <v>102245</v>
+        <v>122505</v>
       </c>
       <c r="F11">
-        <v>2652</v>
+        <v>4219</v>
       </c>
       <c r="G11">
-        <v>161951</v>
+        <v>198287</v>
       </c>
       <c r="H11">
-        <v>4402</v>
+        <v>5081</v>
       </c>
       <c r="I11">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="J11">
-        <v>2916</v>
+        <v>3432</v>
       </c>
       <c r="K11">
-        <v>1616</v>
+        <v>1843</v>
       </c>
       <c r="L11">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="M11">
-        <v>4653</v>
+        <v>5451</v>
       </c>
       <c r="N11">
-        <v>618</v>
+        <v>747</v>
       </c>
       <c r="O11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P11">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q11">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S11">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="T11">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="U11">
+        <v>42</v>
+      </c>
+      <c r="V11">
+        <v>745</v>
+      </c>
+      <c r="W11">
+        <v>257</v>
+      </c>
+      <c r="X11">
         <v>29</v>
       </c>
-      <c r="V11">
-        <v>604</v>
-      </c>
-      <c r="W11">
-        <v>186</v>
-      </c>
-      <c r="X11">
-        <v>17</v>
-      </c>
       <c r="Y11">
-        <v>807</v>
+        <v>991</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B12">
-        <v>75512</v>
+        <v>93220</v>
       </c>
       <c r="C12">
-        <v>5587</v>
+        <v>6181</v>
       </c>
       <c r="D12">
-        <v>44023</v>
+        <v>57054</v>
       </c>
       <c r="E12">
-        <v>82755</v>
+        <v>102245</v>
       </c>
       <c r="F12">
-        <v>1710</v>
+        <v>2652</v>
       </c>
       <c r="G12">
-        <v>128488</v>
+        <v>161951</v>
       </c>
       <c r="H12">
-        <v>3733</v>
+        <v>4402</v>
       </c>
       <c r="I12">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J12">
-        <v>2336</v>
+        <v>2916</v>
       </c>
       <c r="K12">
-        <v>1435</v>
+        <v>1616</v>
       </c>
       <c r="L12">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M12">
-        <v>3845</v>
+        <v>4653</v>
       </c>
       <c r="N12">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="O12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P12">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q12">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S12">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="T12">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="U12">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V12">
-        <v>482</v>
+        <v>604</v>
       </c>
       <c r="W12">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="X12">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y12">
-        <v>690</v>
+        <v>807</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B13">
-        <v>61908</v>
+        <v>75512</v>
       </c>
       <c r="C13">
-        <v>4260</v>
+        <v>5587</v>
       </c>
       <c r="D13">
-        <v>15519</v>
+        <v>44023</v>
       </c>
       <c r="E13">
-        <v>81740</v>
+        <v>82755</v>
       </c>
       <c r="F13">
-        <v>969</v>
+        <v>1710</v>
       </c>
       <c r="G13">
-        <v>98228</v>
+        <v>128488</v>
       </c>
       <c r="H13">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="I13">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J13">
-        <v>1187</v>
+        <v>2336</v>
       </c>
       <c r="K13">
-        <v>2437</v>
+        <v>1435</v>
       </c>
       <c r="L13">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M13">
-        <v>3693</v>
+        <v>3845</v>
       </c>
       <c r="N13">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="O13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P13">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="Q13">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="R13">
         <v>3</v>
       </c>
       <c r="S13">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="T13">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="U13">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="V13">
-        <v>191</v>
+        <v>482</v>
       </c>
       <c r="W13">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="X13">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Y13">
-        <v>555</v>
+        <v>690</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B14">
-        <v>50564</v>
+        <v>61908</v>
       </c>
       <c r="C14">
-        <v>3980</v>
+        <v>4260</v>
       </c>
       <c r="D14">
-        <v>11215</v>
+        <v>15519</v>
       </c>
       <c r="E14">
-        <v>60407</v>
+        <v>81740</v>
       </c>
       <c r="F14">
-        <v>537</v>
+        <v>969</v>
       </c>
       <c r="G14">
-        <v>72159</v>
+        <v>98228</v>
       </c>
       <c r="H14">
-        <v>3220</v>
+        <v>3737</v>
       </c>
       <c r="I14">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J14">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="K14">
-        <v>2075</v>
+        <v>2437</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M14">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="N14">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="O14">
         <v>14</v>
       </c>
       <c r="P14">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q14">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S14">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="T14">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="U14">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V14">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="W14">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y14">
-        <v>444</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B15">
-        <v>40182</v>
+        <v>50564</v>
       </c>
       <c r="C15">
-        <v>3466</v>
+        <v>3980</v>
       </c>
       <c r="D15">
-        <v>8088</v>
+        <v>11215</v>
       </c>
       <c r="E15">
-        <v>43928</v>
+        <v>60407</v>
       </c>
       <c r="F15">
-        <v>286</v>
+        <v>537</v>
       </c>
       <c r="G15">
-        <v>52302</v>
+        <v>72159</v>
       </c>
       <c r="H15">
-        <v>2890</v>
+        <v>3220</v>
       </c>
       <c r="I15">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J15">
-        <v>618</v>
+        <v>826</v>
       </c>
       <c r="K15">
-        <v>1774</v>
+        <v>2075</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>2409</v>
+        <v>2936</v>
       </c>
       <c r="N15">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="O15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P15">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q15">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="T15">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="U15">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V15">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="W15">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B16">
-        <v>35398</v>
+        <v>40182</v>
       </c>
       <c r="C16">
-        <v>3207</v>
+        <v>3466</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>43928</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G16">
-        <v>40991</v>
+        <v>52302</v>
       </c>
       <c r="H16">
-        <v>2696</v>
+        <v>2890</v>
       </c>
       <c r="I16">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>2037</v>
+        <v>2409</v>
       </c>
       <c r="N16">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="O16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="T16">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="U16">
         <v>27</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B17">
-        <v>34128</v>
+        <v>35398</v>
       </c>
       <c r="C17">
-        <v>3421</v>
+        <v>3207</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1729,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>34131</v>
+        <v>40991</v>
       </c>
       <c r="H17">
-        <v>2845</v>
+        <v>2696</v>
       </c>
       <c r="I17">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1747,13 +1747,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1815</v>
+        <v>2037</v>
       </c>
       <c r="N17">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="O17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="T17">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="U17">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -1783,18 +1783,18 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B18">
-        <v>36194</v>
+        <v>34128</v>
       </c>
       <c r="C18">
-        <v>4127</v>
+        <v>3421</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>31514</v>
+        <v>34131</v>
       </c>
       <c r="H18">
-        <v>3396</v>
+        <v>2845</v>
       </c>
       <c r="I18">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1954</v>
+        <v>1815</v>
       </c>
       <c r="N18">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="T18">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="U18">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -1860,18 +1860,18 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>511</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B19">
-        <v>45790</v>
+        <v>36194</v>
       </c>
       <c r="C19">
-        <v>5352</v>
+        <v>4127</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1883,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>33496</v>
+        <v>31514</v>
       </c>
       <c r="H19">
-        <v>4274</v>
+        <v>3396</v>
       </c>
       <c r="I19">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="N19">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="O19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1919,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T19">
-        <v>775</v>
+        <v>636</v>
       </c>
       <c r="U19">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -1937,18 +1937,18 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>578</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B20">
-        <v>56808</v>
+        <v>45790</v>
       </c>
       <c r="C20">
-        <v>6952</v>
+        <v>5352</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1960,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>36529</v>
+        <v>33496</v>
       </c>
       <c r="H20">
-        <v>5224</v>
+        <v>4274</v>
       </c>
       <c r="I20">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1978,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2268</v>
+        <v>2133</v>
       </c>
       <c r="N20">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="O20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="T20">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="U20">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2014,18 +2014,18 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B21">
-        <v>70900</v>
+        <v>56808</v>
       </c>
       <c r="C21">
-        <v>9284</v>
+        <v>6952</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>40060</v>
+        <v>36529</v>
       </c>
       <c r="H21">
-        <v>6160</v>
+        <v>5224</v>
       </c>
       <c r="I21">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2418</v>
+        <v>2268</v>
       </c>
       <c r="N21">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="O21">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T21">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="U21">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2091,18 +2091,18 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B22">
-        <v>86133</v>
+        <v>70900</v>
       </c>
       <c r="C22">
-        <v>11735</v>
+        <v>9284</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>44050</v>
+        <v>40060</v>
       </c>
       <c r="H22">
-        <v>6782</v>
+        <v>6160</v>
       </c>
       <c r="I22">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2456</v>
+        <v>2418</v>
       </c>
       <c r="N22">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="O22">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T22">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="U22">
         <v>57</v>
@@ -2168,18 +2168,18 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>509</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B23">
-        <v>96900</v>
+        <v>86133</v>
       </c>
       <c r="C23">
-        <v>13728</v>
+        <v>11735</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2191,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44990</v>
+        <v>44050</v>
       </c>
       <c r="H23">
-        <v>6841</v>
+        <v>6782</v>
       </c>
       <c r="I23">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2331</v>
+        <v>2456</v>
       </c>
       <c r="N23">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="O23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="T23">
-        <v>770</v>
+        <v>877</v>
       </c>
       <c r="U23">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2245,18 +2245,18 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>405</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B24">
-        <v>104890</v>
+        <v>96900</v>
       </c>
       <c r="C24">
-        <v>16129</v>
+        <v>13728</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>43775</v>
+        <v>44990</v>
       </c>
       <c r="H24">
-        <v>6579</v>
+        <v>6841</v>
       </c>
       <c r="I24">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2118</v>
+        <v>2331</v>
       </c>
       <c r="N24">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="O24">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2304,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T24">
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="U24">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2322,18 +2322,18 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>280</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B25">
-        <v>107937</v>
+        <v>104890</v>
       </c>
       <c r="C25">
-        <v>18925</v>
+        <v>16129</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>40380</v>
+        <v>43775</v>
       </c>
       <c r="H25">
-        <v>5988</v>
+        <v>6579</v>
       </c>
       <c r="I25">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1788</v>
+        <v>2118</v>
       </c>
       <c r="N25">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="O25">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="T25">
-        <v>383</v>
+        <v>571</v>
       </c>
       <c r="U25">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2399,18 +2399,18 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B26">
-        <v>104405</v>
+        <v>107937</v>
       </c>
       <c r="C26">
-        <v>21703</v>
+        <v>18925</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>33894</v>
+        <v>40380</v>
       </c>
       <c r="H26">
-        <v>5162</v>
+        <v>5988</v>
       </c>
       <c r="I26">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>1349</v>
+        <v>1788</v>
       </c>
       <c r="N26">
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="O26">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="T26">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="U26">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2476,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>92</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B27">
-        <v>95261</v>
+        <v>104405</v>
       </c>
       <c r="C27">
-        <v>22568</v>
+        <v>21703</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>24978</v>
+        <v>33894</v>
       </c>
       <c r="H27">
-        <v>4052</v>
+        <v>5162</v>
       </c>
       <c r="I27">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>959</v>
+        <v>1349</v>
       </c>
       <c r="N27">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="O27">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="T27">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="U27">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2553,18 +2553,18 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B28">
-        <v>80585</v>
+        <v>95261</v>
       </c>
       <c r="C28">
-        <v>21570</v>
+        <v>22568</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>18887</v>
+        <v>24978</v>
       </c>
       <c r="H28">
-        <v>3067</v>
+        <v>4052</v>
       </c>
       <c r="I28">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2594,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>627</v>
+        <v>959</v>
       </c>
       <c r="N28">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="O28">
         <v>22</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="T28">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="U28">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2630,18 +2630,18 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B29">
-        <v>60267</v>
+        <v>80585</v>
       </c>
       <c r="C29">
-        <v>17420</v>
+        <v>21570</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>12333</v>
+        <v>18887</v>
       </c>
       <c r="H29">
-        <v>2234</v>
+        <v>3067</v>
       </c>
       <c r="I29">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="N29">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="O29">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="T29">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="U29">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2712,13 +2712,13 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B30">
-        <v>40729</v>
+        <v>60267</v>
       </c>
       <c r="C30">
-        <v>12032</v>
+        <v>17420</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>7277</v>
+        <v>12333</v>
       </c>
       <c r="H30">
-        <v>1619</v>
+        <v>2234</v>
       </c>
       <c r="I30">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2748,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="N30">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="O30">
         <v>11</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T30">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="U30">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2784,18 +2784,18 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B31">
-        <v>26284</v>
+        <v>40729</v>
       </c>
       <c r="C31">
-        <v>6813</v>
+        <v>12032</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>3805</v>
+        <v>7277</v>
       </c>
       <c r="H31">
-        <v>1483</v>
+        <v>1619</v>
       </c>
       <c r="I31">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="N31">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O31">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T31">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="U31">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2861,83 +2861,160 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B32">
+        <v>26284</v>
+      </c>
+      <c r="C32">
+        <v>6813</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>3805</v>
+      </c>
+      <c r="H32">
+        <v>1483</v>
+      </c>
+      <c r="I32">
+        <v>199</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>224</v>
+      </c>
+      <c r="N32">
+        <v>117</v>
+      </c>
+      <c r="O32">
+        <v>14</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>8</v>
+      </c>
+      <c r="T32">
+        <v>250</v>
+      </c>
+      <c r="U32">
+        <v>47</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="2">
         <v>44391</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>21089</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>3954</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>2310</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>1880</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>240</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
         <v>240</v>
       </c>
-      <c r="N32">
+      <c r="N33">
         <v>147</v>
       </c>
-      <c r="O32">
+      <c r="O33">
         <v>20</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>7</v>
       </c>
-      <c r="T32">
+      <c r="T33">
         <v>357</v>
       </c>
-      <c r="U32">
+      <c r="U33">
         <v>72</v>
       </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
         <v>68</v>
       </c>
     </row>
@@ -2948,7 +3025,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3015,898 +3092,898 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B2">
-        <v>5610741</v>
+        <v>5467098</v>
       </c>
       <c r="C2">
-        <v>1575333</v>
+        <v>1596811</v>
       </c>
       <c r="D2">
-        <v>17279465</v>
+        <v>14575900</v>
       </c>
       <c r="E2">
-        <v>7025036</v>
+        <v>6164226</v>
       </c>
       <c r="F2">
-        <v>22519370</v>
+        <v>26205910</v>
       </c>
       <c r="G2">
-        <v>46823871</v>
+        <v>46946036</v>
       </c>
       <c r="H2">
-        <v>5893661</v>
+        <v>5926909</v>
       </c>
       <c r="I2">
-        <v>1663892</v>
+        <v>1597860</v>
       </c>
       <c r="J2">
-        <v>20257123</v>
+        <v>18796851</v>
       </c>
       <c r="K2">
-        <v>9057038</v>
+        <v>8012376</v>
       </c>
       <c r="L2">
-        <v>17138231</v>
+        <v>19675949</v>
       </c>
       <c r="M2">
-        <v>46452392</v>
+        <v>46485176</v>
       </c>
       <c r="N2">
-        <v>6038487</v>
+        <v>6040050</v>
       </c>
       <c r="O2">
-        <v>1684410</v>
+        <v>1652417</v>
       </c>
       <c r="P2">
-        <v>22158953</v>
+        <v>20133986</v>
       </c>
       <c r="Q2">
-        <v>9853675</v>
+        <v>9055320</v>
       </c>
       <c r="R2">
-        <v>14274420</v>
+        <v>17128172</v>
       </c>
       <c r="S2">
-        <v>46287048</v>
+        <v>46317478</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B3">
-        <v>5925943</v>
+        <v>5610741</v>
       </c>
       <c r="C3">
-        <v>1616298</v>
+        <v>1575333</v>
       </c>
       <c r="D3">
-        <v>18801609</v>
+        <v>17279465</v>
       </c>
       <c r="E3">
-        <v>7998741</v>
+        <v>7025036</v>
       </c>
       <c r="F3">
-        <v>19667354</v>
+        <v>22519370</v>
       </c>
       <c r="G3">
-        <v>46467704</v>
+        <v>46823871</v>
       </c>
       <c r="H3">
-        <v>6182863</v>
+        <v>5893661</v>
       </c>
       <c r="I3">
-        <v>1687002</v>
+        <v>1663892</v>
       </c>
       <c r="J3">
-        <v>22039408</v>
+        <v>20257123</v>
       </c>
       <c r="K3">
-        <v>9839532</v>
+        <v>9057038</v>
       </c>
       <c r="L3">
-        <v>14261140</v>
+        <v>17138231</v>
       </c>
       <c r="M3">
-        <v>46140080</v>
+        <v>46452392</v>
       </c>
       <c r="N3">
-        <v>6392072</v>
+        <v>6038487</v>
       </c>
       <c r="O3">
-        <v>1641693</v>
+        <v>1684410</v>
       </c>
       <c r="P3">
-        <v>24567729</v>
+        <v>22158953</v>
       </c>
       <c r="Q3">
-        <v>10413190</v>
+        <v>9853675</v>
       </c>
       <c r="R3">
-        <v>10995261</v>
+        <v>14274420</v>
       </c>
       <c r="S3">
-        <v>45976180</v>
+        <v>46287048</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B4">
-        <v>6113428</v>
+        <v>5925943</v>
       </c>
       <c r="C4">
-        <v>1676275</v>
+        <v>1616298</v>
       </c>
       <c r="D4">
-        <v>20106983</v>
+        <v>18801609</v>
       </c>
       <c r="E4">
-        <v>9023286</v>
+        <v>7998741</v>
       </c>
       <c r="F4">
-        <v>17089973</v>
+        <v>19667354</v>
       </c>
       <c r="G4">
-        <v>46220242</v>
+        <v>46467704</v>
       </c>
       <c r="H4">
-        <v>6466161</v>
+        <v>6182863</v>
       </c>
       <c r="I4">
-        <v>1644869</v>
+        <v>1687002</v>
       </c>
       <c r="J4">
-        <v>24530417</v>
+        <v>22039408</v>
       </c>
       <c r="K4">
-        <v>10394218</v>
+        <v>9839532</v>
       </c>
       <c r="L4">
-        <v>10974280</v>
+        <v>14261140</v>
       </c>
       <c r="M4">
-        <v>45898915</v>
+        <v>46140080</v>
       </c>
       <c r="N4">
-        <v>6710026</v>
+        <v>6392072</v>
       </c>
       <c r="O4">
-        <v>1549282</v>
+        <v>1641693</v>
       </c>
       <c r="P4">
-        <v>25990113</v>
+        <v>24567729</v>
       </c>
       <c r="Q4">
-        <v>11656265</v>
+        <v>10413190</v>
       </c>
       <c r="R4">
-        <v>8104259</v>
+        <v>10995261</v>
       </c>
       <c r="S4">
-        <v>45750637</v>
+        <v>45976180</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B5">
-        <v>6194434</v>
+        <v>6113428</v>
       </c>
       <c r="C5">
-        <v>1720841</v>
+        <v>1676275</v>
       </c>
       <c r="D5">
-        <v>22048677</v>
+        <v>20106983</v>
       </c>
       <c r="E5">
-        <v>9810639</v>
+        <v>9023286</v>
       </c>
       <c r="F5">
-        <v>14235354</v>
+        <v>17089973</v>
       </c>
       <c r="G5">
-        <v>46094670</v>
+        <v>46220242</v>
       </c>
       <c r="H5">
-        <v>6647970</v>
+        <v>6466161</v>
       </c>
       <c r="I5">
-        <v>1566179</v>
+        <v>1644869</v>
       </c>
       <c r="J5">
-        <v>26028307</v>
+        <v>24530417</v>
       </c>
       <c r="K5">
-        <v>11660101</v>
+        <v>10394218</v>
       </c>
       <c r="L5">
-        <v>8107388</v>
+        <v>10974280</v>
       </c>
       <c r="M5">
-        <v>45795796</v>
+        <v>45898915</v>
       </c>
       <c r="N5">
-        <v>6862315</v>
+        <v>6710026</v>
       </c>
       <c r="O5">
-        <v>1493790</v>
+        <v>1549282</v>
       </c>
       <c r="P5">
-        <v>26357835</v>
+        <v>25990113</v>
       </c>
       <c r="Q5">
-        <v>13596764</v>
+        <v>11656265</v>
       </c>
       <c r="R5">
-        <v>5699241</v>
+        <v>8104259</v>
       </c>
       <c r="S5">
-        <v>45653840</v>
+        <v>45750637</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B6">
-        <v>6414467</v>
+        <v>6194434</v>
       </c>
       <c r="C6">
-        <v>1678301</v>
+        <v>1720841</v>
       </c>
       <c r="D6">
-        <v>24562863</v>
+        <v>22048677</v>
       </c>
       <c r="E6">
-        <v>10381759</v>
+        <v>9810639</v>
       </c>
       <c r="F6">
-        <v>10972555</v>
+        <v>14235354</v>
       </c>
       <c r="G6">
-        <v>45917177</v>
+        <v>46094670</v>
       </c>
       <c r="H6">
-        <v>6876688</v>
+        <v>6647970</v>
       </c>
       <c r="I6">
-        <v>1504168</v>
+        <v>1566179</v>
       </c>
       <c r="J6">
-        <v>26348254</v>
+        <v>26028307</v>
       </c>
       <c r="K6">
-        <v>13585896</v>
+        <v>11660101</v>
       </c>
       <c r="L6">
-        <v>5694939</v>
+        <v>8107388</v>
       </c>
       <c r="M6">
-        <v>45629089</v>
+        <v>45795796</v>
       </c>
       <c r="N6">
-        <v>7031651</v>
+        <v>6862315</v>
       </c>
       <c r="O6">
-        <v>1502381</v>
+        <v>1493790</v>
       </c>
       <c r="P6">
-        <v>13119984</v>
+        <v>26357835</v>
       </c>
       <c r="Q6">
-        <v>28222661</v>
+        <v>13596764</v>
       </c>
       <c r="R6">
-        <v>4133267</v>
+        <v>5699241</v>
       </c>
       <c r="S6">
-        <v>45475912</v>
+        <v>45653840</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B7">
-        <v>6660263</v>
+        <v>6414467</v>
       </c>
       <c r="C7">
-        <v>1578764</v>
+        <v>1678301</v>
       </c>
       <c r="D7">
-        <v>26019483</v>
+        <v>24562863</v>
       </c>
       <c r="E7">
-        <v>11648617</v>
+        <v>10381759</v>
       </c>
       <c r="F7">
-        <v>8102818</v>
+        <v>10972555</v>
       </c>
       <c r="G7">
-        <v>45770918</v>
+        <v>45917177</v>
       </c>
       <c r="H7">
+        <v>6876688</v>
+      </c>
+      <c r="I7">
+        <v>1504168</v>
+      </c>
+      <c r="J7">
+        <v>26348254</v>
+      </c>
+      <c r="K7">
+        <v>13585896</v>
+      </c>
+      <c r="L7">
+        <v>5694939</v>
+      </c>
+      <c r="M7">
+        <v>45629089</v>
+      </c>
+      <c r="N7">
         <v>7031651</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>1502381</v>
       </c>
-      <c r="J7">
+      <c r="P7">
         <v>13119984</v>
       </c>
-      <c r="K7">
+      <c r="Q7">
         <v>28222661</v>
       </c>
-      <c r="L7">
+      <c r="R7">
         <v>4133267</v>
       </c>
-      <c r="M7">
+      <c r="S7">
         <v>45475912</v>
-      </c>
-      <c r="N7">
-        <v>7160934</v>
-      </c>
-      <c r="O7">
-        <v>1577260</v>
-      </c>
-      <c r="P7">
-        <v>12254673</v>
-      </c>
-      <c r="Q7">
-        <v>29956598</v>
-      </c>
-      <c r="R7">
-        <v>3060479</v>
-      </c>
-      <c r="S7">
-        <v>45271750</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B8">
-        <v>6876688</v>
+        <v>6660263</v>
       </c>
       <c r="C8">
-        <v>1504168</v>
+        <v>1578764</v>
       </c>
       <c r="D8">
-        <v>26348254</v>
+        <v>26019483</v>
       </c>
       <c r="E8">
-        <v>13585896</v>
+        <v>11648617</v>
       </c>
       <c r="F8">
-        <v>5694939</v>
+        <v>8102818</v>
       </c>
       <c r="G8">
-        <v>45629089</v>
+        <v>45770918</v>
       </c>
       <c r="H8">
+        <v>7031651</v>
+      </c>
+      <c r="I8">
+        <v>1502381</v>
+      </c>
+      <c r="J8">
+        <v>13119984</v>
+      </c>
+      <c r="K8">
+        <v>28222661</v>
+      </c>
+      <c r="L8">
+        <v>4133267</v>
+      </c>
+      <c r="M8">
+        <v>45475912</v>
+      </c>
+      <c r="N8">
         <v>7160934</v>
       </c>
-      <c r="I8">
+      <c r="O8">
         <v>1577260</v>
       </c>
-      <c r="J8">
+      <c r="P8">
         <v>12254673</v>
       </c>
-      <c r="K8">
+      <c r="Q8">
         <v>29956598</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <v>3060479</v>
       </c>
-      <c r="M8">
+      <c r="S8">
         <v>45271750</v>
-      </c>
-      <c r="N8">
-        <v>7291722</v>
-      </c>
-      <c r="O8">
-        <v>1749607</v>
-      </c>
-      <c r="P8">
-        <v>11949919</v>
-      </c>
-      <c r="Q8">
-        <v>30829431</v>
-      </c>
-      <c r="R8">
-        <v>2189265</v>
-      </c>
-      <c r="S8">
-        <v>44968615</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B9">
-        <v>7031651</v>
+        <v>6876688</v>
       </c>
       <c r="C9">
-        <v>1502381</v>
+        <v>1504168</v>
       </c>
       <c r="D9">
-        <v>13119984</v>
+        <v>26348254</v>
       </c>
       <c r="E9">
-        <v>28222661</v>
+        <v>13585896</v>
       </c>
       <c r="F9">
-        <v>4133267</v>
+        <v>5694939</v>
       </c>
       <c r="G9">
-        <v>45475912</v>
+        <v>45629089</v>
       </c>
       <c r="H9">
+        <v>7160934</v>
+      </c>
+      <c r="I9">
+        <v>1577260</v>
+      </c>
+      <c r="J9">
+        <v>12254673</v>
+      </c>
+      <c r="K9">
+        <v>29956598</v>
+      </c>
+      <c r="L9">
+        <v>3060479</v>
+      </c>
+      <c r="M9">
+        <v>45271750</v>
+      </c>
+      <c r="N9">
         <v>7291722</v>
       </c>
-      <c r="I9">
+      <c r="O9">
         <v>1749607</v>
       </c>
-      <c r="J9">
+      <c r="P9">
         <v>11949919</v>
       </c>
-      <c r="K9">
+      <c r="Q9">
         <v>30829431</v>
       </c>
-      <c r="L9">
+      <c r="R9">
         <v>2189265</v>
       </c>
-      <c r="M9">
+      <c r="S9">
         <v>44968615</v>
-      </c>
-      <c r="N9">
-        <v>7404599</v>
-      </c>
-      <c r="O9">
-        <v>1981131</v>
-      </c>
-      <c r="P9">
-        <v>11407859</v>
-      </c>
-      <c r="Q9">
-        <v>31622279</v>
-      </c>
-      <c r="R9">
-        <v>1594076</v>
-      </c>
-      <c r="S9">
-        <v>44624214</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B10">
-        <v>7160934</v>
+        <v>7031651</v>
       </c>
       <c r="C10">
-        <v>1577260</v>
+        <v>1502381</v>
       </c>
       <c r="D10">
-        <v>12254673</v>
+        <v>13119984</v>
       </c>
       <c r="E10">
-        <v>29956598</v>
+        <v>28222661</v>
       </c>
       <c r="F10">
-        <v>3060479</v>
+        <v>4133267</v>
       </c>
       <c r="G10">
-        <v>45271750</v>
+        <v>45475912</v>
       </c>
       <c r="H10">
+        <v>7291722</v>
+      </c>
+      <c r="I10">
+        <v>1749607</v>
+      </c>
+      <c r="J10">
+        <v>11949919</v>
+      </c>
+      <c r="K10">
+        <v>30829431</v>
+      </c>
+      <c r="L10">
+        <v>2189265</v>
+      </c>
+      <c r="M10">
+        <v>44968615</v>
+      </c>
+      <c r="N10">
         <v>7404599</v>
       </c>
-      <c r="I10">
+      <c r="O10">
         <v>1981131</v>
       </c>
-      <c r="J10">
+      <c r="P10">
         <v>11407859</v>
       </c>
-      <c r="K10">
+      <c r="Q10">
         <v>31622279</v>
       </c>
-      <c r="L10">
+      <c r="R10">
         <v>1594076</v>
       </c>
-      <c r="M10">
+      <c r="S10">
         <v>44624214</v>
-      </c>
-      <c r="N10">
-        <v>7586013</v>
-      </c>
-      <c r="O10">
-        <v>2222672</v>
-      </c>
-      <c r="P10">
-        <v>4526706</v>
-      </c>
-      <c r="Q10">
-        <v>38658546</v>
-      </c>
-      <c r="R10">
-        <v>1016007</v>
-      </c>
-      <c r="S10">
-        <v>44201259</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B11">
-        <v>7291722</v>
+        <v>7160934</v>
       </c>
       <c r="C11">
-        <v>1749607</v>
+        <v>1577260</v>
       </c>
       <c r="D11">
-        <v>11949919</v>
+        <v>12254673</v>
       </c>
       <c r="E11">
-        <v>30829431</v>
+        <v>29956598</v>
       </c>
       <c r="F11">
-        <v>2189265</v>
+        <v>3060479</v>
       </c>
       <c r="G11">
-        <v>44968615</v>
+        <v>45271750</v>
       </c>
       <c r="H11">
+        <v>7404599</v>
+      </c>
+      <c r="I11">
+        <v>1981131</v>
+      </c>
+      <c r="J11">
+        <v>11407859</v>
+      </c>
+      <c r="K11">
+        <v>31622279</v>
+      </c>
+      <c r="L11">
+        <v>1594076</v>
+      </c>
+      <c r="M11">
+        <v>44624214</v>
+      </c>
+      <c r="N11">
         <v>7586013</v>
       </c>
-      <c r="I11">
+      <c r="O11">
         <v>2222672</v>
       </c>
-      <c r="J11">
+      <c r="P11">
         <v>4526706</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <v>38658546</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <v>1016007</v>
       </c>
-      <c r="M11">
+      <c r="S11">
         <v>44201259</v>
-      </c>
-      <c r="N11">
-        <v>7862567</v>
-      </c>
-      <c r="O11">
-        <v>2422756</v>
-      </c>
-      <c r="P11">
-        <v>4186423</v>
-      </c>
-      <c r="Q11">
-        <v>38968164</v>
-      </c>
-      <c r="R11">
-        <v>570032</v>
-      </c>
-      <c r="S11">
-        <v>43724619</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B12">
-        <v>7404599</v>
+        <v>7291722</v>
       </c>
       <c r="C12">
-        <v>1981131</v>
+        <v>1749607</v>
       </c>
       <c r="D12">
-        <v>11407859</v>
+        <v>11949919</v>
       </c>
       <c r="E12">
-        <v>31622279</v>
+        <v>30829431</v>
       </c>
       <c r="F12">
-        <v>1594076</v>
+        <v>2189265</v>
       </c>
       <c r="G12">
-        <v>44624214</v>
+        <v>44968615</v>
       </c>
       <c r="H12">
+        <v>7586013</v>
+      </c>
+      <c r="I12">
+        <v>2222672</v>
+      </c>
+      <c r="J12">
+        <v>4526706</v>
+      </c>
+      <c r="K12">
+        <v>38658546</v>
+      </c>
+      <c r="L12">
+        <v>1016007</v>
+      </c>
+      <c r="M12">
+        <v>44201259</v>
+      </c>
+      <c r="N12">
         <v>7862567</v>
       </c>
-      <c r="I12">
+      <c r="O12">
         <v>2422756</v>
       </c>
-      <c r="J12">
+      <c r="P12">
         <v>4186423</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <v>38968164</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <v>570032</v>
       </c>
-      <c r="M12">
+      <c r="S12">
         <v>43724619</v>
-      </c>
-      <c r="N12">
-        <v>8302865</v>
-      </c>
-      <c r="O12">
-        <v>2538614</v>
-      </c>
-      <c r="P12">
-        <v>3884826</v>
-      </c>
-      <c r="Q12">
-        <v>38988918</v>
-      </c>
-      <c r="R12">
-        <v>294719</v>
-      </c>
-      <c r="S12">
-        <v>43168463</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B13">
-        <v>7586013</v>
+        <v>7404599</v>
       </c>
       <c r="C13">
-        <v>2222672</v>
+        <v>1981131</v>
       </c>
       <c r="D13">
-        <v>4526706</v>
+        <v>11407859</v>
       </c>
       <c r="E13">
-        <v>38658546</v>
+        <v>31622279</v>
       </c>
       <c r="F13">
-        <v>1016007</v>
+        <v>1594076</v>
       </c>
       <c r="G13">
-        <v>44201259</v>
+        <v>44624214</v>
       </c>
       <c r="H13">
+        <v>7862567</v>
+      </c>
+      <c r="I13">
+        <v>2422756</v>
+      </c>
+      <c r="J13">
+        <v>4186423</v>
+      </c>
+      <c r="K13">
+        <v>38968164</v>
+      </c>
+      <c r="L13">
+        <v>570032</v>
+      </c>
+      <c r="M13">
+        <v>43724619</v>
+      </c>
+      <c r="N13">
         <v>8302865</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>2538614</v>
       </c>
-      <c r="J13">
+      <c r="P13">
         <v>3884826</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <v>38988918</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <v>294719</v>
       </c>
-      <c r="M13">
+      <c r="S13">
         <v>43168463</v>
-      </c>
-      <c r="N13">
-        <v>8683749</v>
-      </c>
-      <c r="O13">
-        <v>2653423</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>42672767</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B14">
-        <v>7862567</v>
+        <v>7586013</v>
       </c>
       <c r="C14">
-        <v>2422756</v>
+        <v>2222672</v>
       </c>
       <c r="D14">
-        <v>4186423</v>
+        <v>4526706</v>
       </c>
       <c r="E14">
-        <v>38968164</v>
+        <v>38658546</v>
       </c>
       <c r="F14">
-        <v>570032</v>
+        <v>1016007</v>
       </c>
       <c r="G14">
-        <v>43724619</v>
+        <v>44201259</v>
       </c>
       <c r="H14">
+        <v>8302865</v>
+      </c>
+      <c r="I14">
+        <v>2538614</v>
+      </c>
+      <c r="J14">
+        <v>3884826</v>
+      </c>
+      <c r="K14">
+        <v>38988918</v>
+      </c>
+      <c r="L14">
+        <v>294719</v>
+      </c>
+      <c r="M14">
+        <v>43168463</v>
+      </c>
+      <c r="N14">
         <v>8683749</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>2653423</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>42672767</v>
-      </c>
-      <c r="N14">
-        <v>9231487</v>
-      </c>
-      <c r="O14">
-        <v>2863195</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>41915257</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B15">
-        <v>8302865</v>
+        <v>7862567</v>
       </c>
       <c r="C15">
-        <v>2538614</v>
+        <v>2422756</v>
       </c>
       <c r="D15">
-        <v>3884826</v>
+        <v>4186423</v>
       </c>
       <c r="E15">
-        <v>38988918</v>
+        <v>38968164</v>
       </c>
       <c r="F15">
-        <v>294719</v>
+        <v>570032</v>
       </c>
       <c r="G15">
-        <v>43168463</v>
+        <v>43724619</v>
       </c>
       <c r="H15">
+        <v>8683749</v>
+      </c>
+      <c r="I15">
+        <v>2653423</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>42672767</v>
+      </c>
+      <c r="N15">
         <v>9231487</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>2863195</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>41915257</v>
-      </c>
-      <c r="N15">
-        <v>9829232</v>
-      </c>
-      <c r="O15">
-        <v>3259454</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>40921215</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B16">
-        <v>8683749</v>
+        <v>8302865</v>
       </c>
       <c r="C16">
-        <v>2653423</v>
+        <v>2538614</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3884826</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>38988918</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>294719</v>
       </c>
       <c r="G16">
-        <v>42672767</v>
+        <v>43168463</v>
       </c>
       <c r="H16">
+        <v>9231487</v>
+      </c>
+      <c r="I16">
+        <v>2863195</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>41915257</v>
+      </c>
+      <c r="N16">
         <v>9829232</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>3259454</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>40921215</v>
-      </c>
-      <c r="N16">
-        <v>10307179</v>
-      </c>
-      <c r="O16">
-        <v>3862335</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>39840387</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B17">
-        <v>9231487</v>
+        <v>8683749</v>
       </c>
       <c r="C17">
-        <v>2863195</v>
+        <v>2653423</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3918,54 +3995,54 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41915257</v>
+        <v>42672767</v>
       </c>
       <c r="H17">
+        <v>9829232</v>
+      </c>
+      <c r="I17">
+        <v>3259454</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>40921215</v>
+      </c>
+      <c r="N17">
         <v>10307179</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>3862335</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>39840387</v>
-      </c>
-      <c r="N17">
-        <v>10942694</v>
-      </c>
-      <c r="O17">
-        <v>4426185</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>38641022</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B18">
-        <v>9829232</v>
+        <v>9231487</v>
       </c>
       <c r="C18">
-        <v>3259454</v>
+        <v>2863195</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3977,54 +4054,54 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>40921215</v>
+        <v>41915257</v>
       </c>
       <c r="H18">
+        <v>10307179</v>
+      </c>
+      <c r="I18">
+        <v>3862335</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>39840387</v>
+      </c>
+      <c r="N18">
         <v>10942694</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>4426185</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>38641022</v>
-      </c>
-      <c r="N18">
-        <v>11786620</v>
-      </c>
-      <c r="O18">
-        <v>4805486</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>37417795</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B19">
-        <v>10307179</v>
+        <v>9829232</v>
       </c>
       <c r="C19">
-        <v>3862335</v>
+        <v>3259454</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4036,54 +4113,54 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>39840387</v>
+        <v>40921215</v>
       </c>
       <c r="H19">
+        <v>10942694</v>
+      </c>
+      <c r="I19">
+        <v>4426185</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>38641022</v>
+      </c>
+      <c r="N19">
         <v>11786620</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>4805486</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>37417795</v>
-      </c>
-      <c r="N19">
-        <v>12581126</v>
-      </c>
-      <c r="O19">
-        <v>5096568</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>36332207</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B20">
-        <v>10942694</v>
+        <v>10307179</v>
       </c>
       <c r="C20">
-        <v>4426185</v>
+        <v>3862335</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4095,54 +4172,54 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>38641022</v>
+        <v>39840387</v>
       </c>
       <c r="H20">
+        <v>11786620</v>
+      </c>
+      <c r="I20">
+        <v>4805486</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>37417795</v>
+      </c>
+      <c r="N20">
         <v>12581126</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>5096568</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>36332207</v>
-      </c>
-      <c r="N20">
-        <v>13334156</v>
-      </c>
-      <c r="O20">
-        <v>5075930</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>35599815</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B21">
-        <v>11786620</v>
+        <v>10942694</v>
       </c>
       <c r="C21">
-        <v>4805486</v>
+        <v>4426185</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4154,54 +4231,54 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>37417795</v>
+        <v>38641022</v>
       </c>
       <c r="H21">
+        <v>12581126</v>
+      </c>
+      <c r="I21">
+        <v>5096568</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>36332207</v>
+      </c>
+      <c r="N21">
         <v>13334156</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>5075930</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>35599815</v>
-      </c>
-      <c r="N21">
-        <v>14507530</v>
-      </c>
-      <c r="O21">
-        <v>5210293</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>34292078</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B22">
-        <v>12581126</v>
+        <v>11786620</v>
       </c>
       <c r="C22">
-        <v>5096568</v>
+        <v>4805486</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4213,54 +4290,54 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>36332207</v>
+        <v>37417795</v>
       </c>
       <c r="H22">
+        <v>13334156</v>
+      </c>
+      <c r="I22">
+        <v>5075930</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>35599815</v>
+      </c>
+      <c r="N22">
         <v>14507530</v>
       </c>
-      <c r="I22">
+      <c r="O22">
         <v>5210293</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>34292078</v>
-      </c>
-      <c r="N22">
-        <v>15656647</v>
-      </c>
-      <c r="O22">
-        <v>6065610</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>32287644</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B23">
-        <v>13334156</v>
+        <v>12581126</v>
       </c>
       <c r="C23">
-        <v>5075930</v>
+        <v>5096568</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4272,54 +4349,54 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>35599815</v>
+        <v>36332207</v>
       </c>
       <c r="H23">
+        <v>14507530</v>
+      </c>
+      <c r="I23">
+        <v>5210293</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>34292078</v>
+      </c>
+      <c r="N23">
         <v>15656647</v>
       </c>
-      <c r="I23">
+      <c r="O23">
         <v>6065610</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>32287644</v>
-      </c>
-      <c r="N23">
-        <v>16708830</v>
-      </c>
-      <c r="O23">
-        <v>7672393</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>29628678</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B24">
-        <v>14507530</v>
+        <v>13334156</v>
       </c>
       <c r="C24">
-        <v>5210293</v>
+        <v>5075930</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4331,54 +4408,54 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>34292078</v>
+        <v>35599815</v>
       </c>
       <c r="H24">
+        <v>15656647</v>
+      </c>
+      <c r="I24">
+        <v>6065610</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>32287644</v>
+      </c>
+      <c r="N24">
         <v>16708830</v>
       </c>
-      <c r="I24">
+      <c r="O24">
         <v>7672393</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>29628678</v>
-      </c>
-      <c r="N24">
-        <v>17568325</v>
-      </c>
-      <c r="O24">
-        <v>9940124</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>26501452</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B25">
-        <v>15656647</v>
+        <v>14507530</v>
       </c>
       <c r="C25">
-        <v>6065610</v>
+        <v>5210293</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4390,54 +4467,54 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>32287644</v>
+        <v>34292078</v>
       </c>
       <c r="H25">
+        <v>16708830</v>
+      </c>
+      <c r="I25">
+        <v>7672393</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>29628678</v>
+      </c>
+      <c r="N25">
         <v>17568325</v>
       </c>
-      <c r="I25">
+      <c r="O25">
         <v>9940124</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>26501452</v>
-      </c>
-      <c r="N25">
-        <v>20322806</v>
-      </c>
-      <c r="O25">
-        <v>11341436</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>22345659</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B26">
-        <v>16708830</v>
+        <v>15656647</v>
       </c>
       <c r="C26">
-        <v>7672393</v>
+        <v>6065610</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4449,54 +4526,54 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>29628678</v>
+        <v>32287644</v>
       </c>
       <c r="H26">
+        <v>17568325</v>
+      </c>
+      <c r="I26">
+        <v>9940124</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>26501452</v>
+      </c>
+      <c r="N26">
         <v>20322806</v>
       </c>
-      <c r="I26">
+      <c r="O26">
         <v>11341436</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>22345659</v>
-      </c>
-      <c r="N26">
-        <v>21289761</v>
-      </c>
-      <c r="O26">
-        <v>13149676</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>19570464</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B27">
-        <v>17568325</v>
+        <v>16708830</v>
       </c>
       <c r="C27">
-        <v>9940124</v>
+        <v>7672393</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4508,54 +4585,54 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>26501452</v>
+        <v>29628678</v>
       </c>
       <c r="H27">
+        <v>20322806</v>
+      </c>
+      <c r="I27">
+        <v>11341436</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>22345659</v>
+      </c>
+      <c r="N27">
         <v>21289761</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>13149676</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>19570464</v>
-      </c>
-      <c r="N27">
-        <v>22879167</v>
-      </c>
-      <c r="O27">
-        <v>13741130</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>17389604</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B28">
-        <v>20322806</v>
+        <v>17568325</v>
       </c>
       <c r="C28">
-        <v>11341436</v>
+        <v>9940124</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4567,54 +4644,54 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>22345659</v>
+        <v>26501452</v>
       </c>
       <c r="H28">
+        <v>21289761</v>
+      </c>
+      <c r="I28">
+        <v>13149676</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>19570464</v>
+      </c>
+      <c r="N28">
         <v>22879167</v>
       </c>
-      <c r="I28">
+      <c r="O28">
         <v>13741130</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>17389604</v>
-      </c>
-      <c r="N28">
-        <v>24745853</v>
-      </c>
-      <c r="O28">
-        <v>13879852</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>15384196</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B29">
-        <v>21289761</v>
+        <v>20322806</v>
       </c>
       <c r="C29">
-        <v>13149676</v>
+        <v>11341436</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4626,54 +4703,54 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>19570464</v>
+        <v>22345659</v>
       </c>
       <c r="H29">
+        <v>22879167</v>
+      </c>
+      <c r="I29">
+        <v>13741130</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>17389604</v>
+      </c>
+      <c r="N29">
         <v>24745853</v>
       </c>
-      <c r="I29">
+      <c r="O29">
         <v>13879852</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>15384196</v>
-      </c>
-      <c r="N29">
-        <v>27065063</v>
-      </c>
-      <c r="O29">
-        <v>13015437</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>13929401</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B30">
-        <v>22879167</v>
+        <v>21289761</v>
       </c>
       <c r="C30">
-        <v>13741130</v>
+        <v>13149676</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4685,54 +4762,54 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>17389604</v>
+        <v>19570464</v>
       </c>
       <c r="H30">
+        <v>24745853</v>
+      </c>
+      <c r="I30">
+        <v>13879852</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>15384196</v>
+      </c>
+      <c r="N30">
         <v>27065063</v>
       </c>
-      <c r="I30">
+      <c r="O30">
         <v>13015437</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>13929401</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B31">
-        <v>24745853</v>
+        <v>22879167</v>
       </c>
       <c r="C31">
-        <v>13879852</v>
+        <v>13741130</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4744,13 +4821,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>15384196</v>
+        <v>17389604</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>27065063</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>13015437</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -4762,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>13929401</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -4785,60 +4862,119 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B32">
+        <v>24745853</v>
+      </c>
+      <c r="C32">
+        <v>13879852</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>15384196</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="2">
         <v>44391</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>27065063</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>13015437</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>13929401</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,1245 +556,1245 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B2">
-        <v>642419</v>
+        <v>503511</v>
       </c>
       <c r="C2">
-        <v>102315</v>
+        <v>81921</v>
       </c>
       <c r="D2">
-        <v>848833</v>
+        <v>543352</v>
       </c>
       <c r="E2">
-        <v>439413</v>
+        <v>313619</v>
       </c>
       <c r="F2">
-        <v>717143</v>
+        <v>682585</v>
       </c>
       <c r="G2">
-        <v>2005389</v>
+        <v>1539556</v>
       </c>
       <c r="H2">
-        <v>15012</v>
+        <v>13534</v>
       </c>
       <c r="I2">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="J2">
-        <v>13660</v>
+        <v>11607</v>
       </c>
       <c r="K2">
-        <v>3480</v>
+        <v>3210</v>
       </c>
       <c r="L2">
-        <v>11075</v>
+        <v>12271</v>
       </c>
       <c r="M2">
-        <v>28215</v>
+        <v>27088</v>
       </c>
       <c r="N2">
-        <v>1524</v>
+        <v>1261</v>
       </c>
       <c r="O2">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P2">
-        <v>736</v>
+        <v>617</v>
       </c>
       <c r="Q2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="R2">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="S2">
-        <v>1350</v>
+        <v>1304</v>
       </c>
       <c r="T2">
-        <v>3357</v>
+        <v>3470</v>
       </c>
       <c r="U2">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="V2">
-        <v>2757</v>
+        <v>2795</v>
       </c>
       <c r="W2">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="X2">
-        <v>1918</v>
+        <v>2403</v>
       </c>
       <c r="Y2">
-        <v>4952</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B3">
-        <v>777547</v>
+        <v>642419</v>
       </c>
       <c r="C3">
-        <v>127486</v>
+        <v>102315</v>
       </c>
       <c r="D3">
-        <v>1249396</v>
+        <v>848833</v>
       </c>
       <c r="E3">
-        <v>597335</v>
+        <v>439413</v>
       </c>
       <c r="F3">
-        <v>738378</v>
+        <v>717143</v>
       </c>
       <c r="G3">
-        <v>2585109</v>
+        <v>2005389</v>
       </c>
       <c r="H3">
-        <v>15695</v>
+        <v>15012</v>
       </c>
       <c r="I3">
-        <v>1437</v>
+        <v>1532</v>
       </c>
       <c r="J3">
-        <v>14598</v>
+        <v>13660</v>
       </c>
       <c r="K3">
-        <v>3426</v>
+        <v>3480</v>
       </c>
       <c r="L3">
-        <v>9017</v>
+        <v>11075</v>
       </c>
       <c r="M3">
-        <v>27041</v>
+        <v>28215</v>
       </c>
       <c r="N3">
-        <v>1716</v>
+        <v>1524</v>
       </c>
       <c r="O3">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P3">
-        <v>803</v>
+        <v>736</v>
       </c>
       <c r="Q3">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="R3">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="S3">
-        <v>1306</v>
+        <v>1350</v>
       </c>
       <c r="T3">
-        <v>3144</v>
+        <v>3357</v>
       </c>
       <c r="U3">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="V3">
-        <v>2508</v>
+        <v>2757</v>
       </c>
       <c r="W3">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="X3">
-        <v>1331</v>
+        <v>1918</v>
       </c>
       <c r="Y3">
-        <v>4071</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B4">
-        <v>809625</v>
+        <v>777547</v>
       </c>
       <c r="C4">
-        <v>137850</v>
+        <v>127486</v>
       </c>
       <c r="D4">
-        <v>1532777</v>
+        <v>1249396</v>
       </c>
       <c r="E4">
-        <v>687597</v>
+        <v>597335</v>
       </c>
       <c r="F4">
-        <v>672910</v>
+        <v>738378</v>
       </c>
       <c r="G4">
-        <v>2893284</v>
+        <v>2585109</v>
       </c>
       <c r="H4">
-        <v>15049</v>
+        <v>15695</v>
       </c>
       <c r="I4">
-        <v>1240</v>
+        <v>1437</v>
       </c>
       <c r="J4">
-        <v>13663</v>
+        <v>14598</v>
       </c>
       <c r="K4">
-        <v>2915</v>
+        <v>3426</v>
       </c>
       <c r="L4">
-        <v>6606</v>
+        <v>9017</v>
       </c>
       <c r="M4">
-        <v>23184</v>
+        <v>27041</v>
       </c>
       <c r="N4">
-        <v>1792</v>
+        <v>1716</v>
       </c>
       <c r="O4">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P4">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="Q4">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="R4">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="S4">
-        <v>1166</v>
+        <v>1306</v>
       </c>
       <c r="T4">
-        <v>2632</v>
+        <v>3144</v>
       </c>
       <c r="U4">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="V4">
-        <v>2172</v>
+        <v>2508</v>
       </c>
       <c r="W4">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="X4">
-        <v>814</v>
+        <v>1331</v>
       </c>
       <c r="Y4">
-        <v>3168</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B5">
-        <v>703732</v>
+        <v>809625</v>
       </c>
       <c r="C5">
-        <v>127478</v>
+        <v>137850</v>
       </c>
       <c r="D5">
-        <v>1544092</v>
+        <v>1532777</v>
       </c>
       <c r="E5">
-        <v>640805</v>
+        <v>687597</v>
       </c>
       <c r="F5">
-        <v>521657</v>
+        <v>672910</v>
       </c>
       <c r="G5">
-        <v>2706554</v>
+        <v>2893284</v>
       </c>
       <c r="H5">
-        <v>13946</v>
+        <v>15049</v>
       </c>
       <c r="I5">
-        <v>989</v>
+        <v>1240</v>
       </c>
       <c r="J5">
-        <v>11934</v>
+        <v>13663</v>
       </c>
       <c r="K5">
-        <v>2225</v>
+        <v>2915</v>
       </c>
       <c r="L5">
-        <v>4177</v>
+        <v>6606</v>
       </c>
       <c r="M5">
-        <v>18336</v>
+        <v>23184</v>
       </c>
       <c r="N5">
-        <v>1753</v>
+        <v>1792</v>
       </c>
       <c r="O5">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P5">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="Q5">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="R5">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="S5">
-        <v>1014</v>
+        <v>1166</v>
       </c>
       <c r="T5">
-        <v>2120</v>
+        <v>2632</v>
       </c>
       <c r="U5">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="V5">
-        <v>1805</v>
+        <v>2172</v>
       </c>
       <c r="W5">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="X5">
-        <v>432</v>
+        <v>814</v>
       </c>
       <c r="Y5">
-        <v>2375</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B6">
-        <v>555697</v>
+        <v>703732</v>
       </c>
       <c r="C6">
-        <v>102729</v>
+        <v>127478</v>
       </c>
       <c r="D6">
-        <v>1320086</v>
+        <v>1544092</v>
       </c>
       <c r="E6">
-        <v>527687</v>
+        <v>640805</v>
       </c>
       <c r="F6">
-        <v>358530</v>
+        <v>521657</v>
       </c>
       <c r="G6">
-        <v>2206303</v>
+        <v>2706554</v>
       </c>
       <c r="H6">
-        <v>11487</v>
+        <v>13946</v>
       </c>
       <c r="I6">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="J6">
-        <v>9435</v>
+        <v>11934</v>
       </c>
       <c r="K6">
-        <v>1499</v>
+        <v>2225</v>
       </c>
       <c r="L6">
-        <v>2066</v>
+        <v>4177</v>
       </c>
       <c r="M6">
-        <v>13000</v>
+        <v>18336</v>
       </c>
       <c r="N6">
-        <v>1557</v>
+        <v>1753</v>
       </c>
       <c r="O6">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P6">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="Q6">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R6">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="S6">
-        <v>809</v>
+        <v>1014</v>
       </c>
       <c r="T6">
-        <v>1774</v>
+        <v>2120</v>
       </c>
       <c r="U6">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="V6">
-        <v>1541</v>
+        <v>1805</v>
       </c>
       <c r="W6">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="X6">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="Y6">
-        <v>1863</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B7">
-        <v>395424</v>
+        <v>555697</v>
       </c>
       <c r="C7">
-        <v>68050</v>
+        <v>102729</v>
       </c>
       <c r="D7">
-        <v>955924</v>
+        <v>1320086</v>
       </c>
       <c r="E7">
-        <v>364078</v>
+        <v>527687</v>
       </c>
       <c r="F7">
-        <v>200146</v>
+        <v>358530</v>
       </c>
       <c r="G7">
-        <v>1520148</v>
+        <v>2206303</v>
       </c>
       <c r="H7">
-        <v>9564</v>
+        <v>11487</v>
       </c>
       <c r="I7">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="J7">
-        <v>7594</v>
+        <v>9435</v>
       </c>
       <c r="K7">
-        <v>1055</v>
+        <v>1499</v>
       </c>
       <c r="L7">
-        <v>955</v>
+        <v>2066</v>
       </c>
       <c r="M7">
-        <v>9604</v>
+        <v>13000</v>
       </c>
       <c r="N7">
-        <v>1368</v>
+        <v>1557</v>
       </c>
       <c r="O7">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P7">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="Q7">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R7">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="S7">
-        <v>663</v>
+        <v>809</v>
       </c>
       <c r="T7">
-        <v>1443</v>
+        <v>1774</v>
       </c>
       <c r="U7">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="V7">
-        <v>1370</v>
+        <v>1541</v>
       </c>
       <c r="W7">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X7">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="Y7">
-        <v>1606</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B8">
-        <v>251412</v>
+        <v>395424</v>
       </c>
       <c r="C8">
-        <v>34617</v>
+        <v>68050</v>
       </c>
       <c r="D8">
-        <v>547518</v>
+        <v>955924</v>
       </c>
       <c r="E8">
-        <v>195560</v>
+        <v>364078</v>
       </c>
       <c r="F8">
-        <v>79260</v>
+        <v>200146</v>
       </c>
       <c r="G8">
-        <v>822338</v>
+        <v>1520148</v>
       </c>
       <c r="H8">
-        <v>8278</v>
+        <v>9564</v>
       </c>
       <c r="I8">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="J8">
-        <v>6612</v>
+        <v>7594</v>
       </c>
       <c r="K8">
-        <v>905</v>
+        <v>1055</v>
       </c>
       <c r="L8">
-        <v>546</v>
+        <v>955</v>
       </c>
       <c r="M8">
-        <v>8063</v>
+        <v>9604</v>
       </c>
       <c r="N8">
-        <v>1202</v>
+        <v>1368</v>
       </c>
       <c r="O8">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P8">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="Q8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R8">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S8">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="T8">
-        <v>1170</v>
+        <v>1443</v>
       </c>
       <c r="U8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V8">
-        <v>1298</v>
+        <v>1370</v>
       </c>
       <c r="W8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X8">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Y8">
-        <v>1489</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B9">
-        <v>170551</v>
+        <v>251412</v>
       </c>
       <c r="C9">
-        <v>14491</v>
+        <v>34617</v>
       </c>
       <c r="D9">
-        <v>265724</v>
+        <v>547518</v>
       </c>
       <c r="E9">
-        <v>99757</v>
+        <v>195560</v>
       </c>
       <c r="F9">
-        <v>20375</v>
+        <v>79260</v>
       </c>
       <c r="G9">
-        <v>385856</v>
+        <v>822338</v>
       </c>
       <c r="H9">
-        <v>7059</v>
+        <v>8278</v>
       </c>
       <c r="I9">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J9">
-        <v>5927</v>
+        <v>6612</v>
       </c>
       <c r="K9">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="L9">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="M9">
-        <v>7229</v>
+        <v>8063</v>
       </c>
       <c r="N9">
-        <v>1036</v>
+        <v>1202</v>
       </c>
       <c r="O9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="Q9">
+        <v>72</v>
+      </c>
+      <c r="R9">
+        <v>46</v>
+      </c>
+      <c r="S9">
+        <v>614</v>
+      </c>
+      <c r="T9">
+        <v>1170</v>
+      </c>
+      <c r="U9">
         <v>89</v>
       </c>
-      <c r="R9">
-        <v>33</v>
-      </c>
-      <c r="S9">
-        <v>555</v>
-      </c>
-      <c r="T9">
-        <v>994</v>
-      </c>
-      <c r="U9">
-        <v>75</v>
-      </c>
       <c r="V9">
-        <v>1108</v>
+        <v>1298</v>
       </c>
       <c r="W9">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="X9">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Y9">
-        <v>1262</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B10">
-        <v>140677</v>
+        <v>170551</v>
       </c>
       <c r="C10">
-        <v>9069</v>
+        <v>14491</v>
       </c>
       <c r="D10">
-        <v>91366</v>
+        <v>265724</v>
       </c>
       <c r="E10">
-        <v>155978</v>
+        <v>99757</v>
       </c>
       <c r="F10">
-        <v>7655</v>
+        <v>20375</v>
       </c>
       <c r="G10">
-        <v>254999</v>
+        <v>385856</v>
       </c>
       <c r="H10">
-        <v>5944</v>
+        <v>7059</v>
       </c>
       <c r="I10">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J10">
-        <v>4047</v>
+        <v>5927</v>
       </c>
       <c r="K10">
-        <v>2065</v>
+        <v>934</v>
       </c>
       <c r="L10">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="M10">
-        <v>6384</v>
+        <v>7229</v>
       </c>
       <c r="N10">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="O10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P10">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="Q10">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="R10">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S10">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="T10">
-        <v>839</v>
+        <v>994</v>
       </c>
       <c r="U10">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="V10">
-        <v>838</v>
+        <v>1108</v>
       </c>
       <c r="W10">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="X10">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Y10">
-        <v>1105</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B11">
-        <v>114674</v>
+        <v>140677</v>
       </c>
       <c r="C11">
-        <v>7107</v>
+        <v>9069</v>
       </c>
       <c r="D11">
-        <v>71563</v>
+        <v>91366</v>
       </c>
       <c r="E11">
-        <v>122505</v>
+        <v>155978</v>
       </c>
       <c r="F11">
-        <v>4219</v>
+        <v>7655</v>
       </c>
       <c r="G11">
-        <v>198287</v>
+        <v>254999</v>
       </c>
       <c r="H11">
-        <v>5081</v>
+        <v>5944</v>
       </c>
       <c r="I11">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="J11">
-        <v>3432</v>
+        <v>4047</v>
       </c>
       <c r="K11">
-        <v>1843</v>
+        <v>2065</v>
       </c>
       <c r="L11">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="M11">
-        <v>5451</v>
+        <v>6384</v>
       </c>
       <c r="N11">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="O11">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P11">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q11">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="R11">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S11">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="T11">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="U11">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V11">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="W11">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="X11">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Y11">
-        <v>991</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B12">
-        <v>93220</v>
+        <v>114674</v>
       </c>
       <c r="C12">
-        <v>6181</v>
+        <v>7107</v>
       </c>
       <c r="D12">
-        <v>57054</v>
+        <v>71563</v>
       </c>
       <c r="E12">
-        <v>102245</v>
+        <v>122505</v>
       </c>
       <c r="F12">
-        <v>2652</v>
+        <v>4219</v>
       </c>
       <c r="G12">
-        <v>161951</v>
+        <v>198287</v>
       </c>
       <c r="H12">
-        <v>4402</v>
+        <v>5081</v>
       </c>
       <c r="I12">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="J12">
-        <v>2916</v>
+        <v>3432</v>
       </c>
       <c r="K12">
-        <v>1616</v>
+        <v>1843</v>
       </c>
       <c r="L12">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="M12">
-        <v>4653</v>
+        <v>5451</v>
       </c>
       <c r="N12">
-        <v>618</v>
+        <v>747</v>
       </c>
       <c r="O12">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P12">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q12">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S12">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="T12">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="U12">
+        <v>42</v>
+      </c>
+      <c r="V12">
+        <v>745</v>
+      </c>
+      <c r="W12">
+        <v>257</v>
+      </c>
+      <c r="X12">
         <v>29</v>
       </c>
-      <c r="V12">
-        <v>604</v>
-      </c>
-      <c r="W12">
-        <v>186</v>
-      </c>
-      <c r="X12">
-        <v>17</v>
-      </c>
       <c r="Y12">
-        <v>807</v>
+        <v>991</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B13">
-        <v>75512</v>
+        <v>93220</v>
       </c>
       <c r="C13">
-        <v>5587</v>
+        <v>6181</v>
       </c>
       <c r="D13">
-        <v>44023</v>
+        <v>57054</v>
       </c>
       <c r="E13">
-        <v>82755</v>
+        <v>102245</v>
       </c>
       <c r="F13">
-        <v>1710</v>
+        <v>2652</v>
       </c>
       <c r="G13">
-        <v>128488</v>
+        <v>161951</v>
       </c>
       <c r="H13">
-        <v>3733</v>
+        <v>4402</v>
       </c>
       <c r="I13">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J13">
-        <v>2336</v>
+        <v>2916</v>
       </c>
       <c r="K13">
-        <v>1435</v>
+        <v>1616</v>
       </c>
       <c r="L13">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M13">
-        <v>3845</v>
+        <v>4653</v>
       </c>
       <c r="N13">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="O13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P13">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q13">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S13">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="T13">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="U13">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V13">
-        <v>482</v>
+        <v>604</v>
       </c>
       <c r="W13">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="X13">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y13">
-        <v>690</v>
+        <v>807</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B14">
-        <v>61908</v>
+        <v>75512</v>
       </c>
       <c r="C14">
-        <v>4260</v>
+        <v>5587</v>
       </c>
       <c r="D14">
-        <v>15519</v>
+        <v>44023</v>
       </c>
       <c r="E14">
-        <v>81740</v>
+        <v>82755</v>
       </c>
       <c r="F14">
-        <v>969</v>
+        <v>1710</v>
       </c>
       <c r="G14">
-        <v>98228</v>
+        <v>128488</v>
       </c>
       <c r="H14">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="I14">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J14">
-        <v>1187</v>
+        <v>2336</v>
       </c>
       <c r="K14">
-        <v>2437</v>
+        <v>1435</v>
       </c>
       <c r="L14">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M14">
-        <v>3693</v>
+        <v>3845</v>
       </c>
       <c r="N14">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="O14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P14">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="Q14">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="R14">
         <v>3</v>
       </c>
       <c r="S14">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="T14">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="U14">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="V14">
-        <v>191</v>
+        <v>482</v>
       </c>
       <c r="W14">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="X14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Y14">
-        <v>555</v>
+        <v>690</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B15">
-        <v>50564</v>
+        <v>61908</v>
       </c>
       <c r="C15">
-        <v>3980</v>
+        <v>4260</v>
       </c>
       <c r="D15">
-        <v>11215</v>
+        <v>15519</v>
       </c>
       <c r="E15">
-        <v>60407</v>
+        <v>81740</v>
       </c>
       <c r="F15">
-        <v>537</v>
+        <v>969</v>
       </c>
       <c r="G15">
-        <v>72159</v>
+        <v>98228</v>
       </c>
       <c r="H15">
-        <v>3220</v>
+        <v>3737</v>
       </c>
       <c r="I15">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J15">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="K15">
-        <v>2075</v>
+        <v>2437</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M15">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="N15">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="O15">
         <v>14</v>
       </c>
       <c r="P15">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q15">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S15">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="T15">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="U15">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V15">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="W15">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y15">
-        <v>444</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B16">
-        <v>40182</v>
+        <v>50564</v>
       </c>
       <c r="C16">
-        <v>3466</v>
+        <v>3980</v>
       </c>
       <c r="D16">
-        <v>8088</v>
+        <v>11215</v>
       </c>
       <c r="E16">
-        <v>43928</v>
+        <v>60407</v>
       </c>
       <c r="F16">
-        <v>286</v>
+        <v>537</v>
       </c>
       <c r="G16">
-        <v>52302</v>
+        <v>72159</v>
       </c>
       <c r="H16">
-        <v>2890</v>
+        <v>3220</v>
       </c>
       <c r="I16">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J16">
-        <v>618</v>
+        <v>826</v>
       </c>
       <c r="K16">
-        <v>1774</v>
+        <v>2075</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>2409</v>
+        <v>2936</v>
       </c>
       <c r="N16">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="O16">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P16">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q16">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="T16">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="U16">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V16">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="W16">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B17">
-        <v>35398</v>
+        <v>40182</v>
       </c>
       <c r="C17">
-        <v>3207</v>
+        <v>3466</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>43928</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G17">
-        <v>40991</v>
+        <v>52302</v>
       </c>
       <c r="H17">
-        <v>2696</v>
+        <v>2890</v>
       </c>
       <c r="I17">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>2037</v>
+        <v>2409</v>
       </c>
       <c r="N17">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="O17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="T17">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="U17">
         <v>27</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B18">
-        <v>34128</v>
+        <v>35398</v>
       </c>
       <c r="C18">
-        <v>3421</v>
+        <v>3207</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>34131</v>
+        <v>40991</v>
       </c>
       <c r="H18">
-        <v>2845</v>
+        <v>2696</v>
       </c>
       <c r="I18">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1815</v>
+        <v>2037</v>
       </c>
       <c r="N18">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="O18">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="T18">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="U18">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -1860,18 +1860,18 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B19">
-        <v>36194</v>
+        <v>34128</v>
       </c>
       <c r="C19">
-        <v>4127</v>
+        <v>3421</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1883,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>31514</v>
+        <v>34131</v>
       </c>
       <c r="H19">
-        <v>3396</v>
+        <v>2845</v>
       </c>
       <c r="I19">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1954</v>
+        <v>1815</v>
       </c>
       <c r="N19">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="O19">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1919,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="T19">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="U19">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -1937,18 +1937,18 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>511</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B20">
-        <v>45790</v>
+        <v>36194</v>
       </c>
       <c r="C20">
-        <v>5352</v>
+        <v>4127</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1960,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>33496</v>
+        <v>31514</v>
       </c>
       <c r="H20">
-        <v>4274</v>
+        <v>3396</v>
       </c>
       <c r="I20">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1978,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="N20">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="O20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T20">
-        <v>775</v>
+        <v>636</v>
       </c>
       <c r="U20">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2014,18 +2014,18 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>578</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B21">
-        <v>56808</v>
+        <v>45790</v>
       </c>
       <c r="C21">
-        <v>6952</v>
+        <v>5352</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>36529</v>
+        <v>33496</v>
       </c>
       <c r="H21">
-        <v>5224</v>
+        <v>4274</v>
       </c>
       <c r="I21">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2268</v>
+        <v>2133</v>
       </c>
       <c r="N21">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="O21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="T21">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="U21">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2091,18 +2091,18 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B22">
-        <v>70900</v>
+        <v>56808</v>
       </c>
       <c r="C22">
-        <v>9284</v>
+        <v>6952</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>40060</v>
+        <v>36529</v>
       </c>
       <c r="H22">
-        <v>6160</v>
+        <v>5224</v>
       </c>
       <c r="I22">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2418</v>
+        <v>2268</v>
       </c>
       <c r="N22">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="O22">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2150,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T22">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="U22">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2168,18 +2168,18 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B23">
-        <v>86133</v>
+        <v>70900</v>
       </c>
       <c r="C23">
-        <v>11735</v>
+        <v>9284</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2191,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44050</v>
+        <v>40060</v>
       </c>
       <c r="H23">
-        <v>6782</v>
+        <v>6160</v>
       </c>
       <c r="I23">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2456</v>
+        <v>2418</v>
       </c>
       <c r="N23">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="O23">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2227,10 +2227,10 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T23">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="U23">
         <v>57</v>
@@ -2245,18 +2245,18 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>509</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B24">
-        <v>96900</v>
+        <v>86133</v>
       </c>
       <c r="C24">
-        <v>13728</v>
+        <v>11735</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>44990</v>
+        <v>44050</v>
       </c>
       <c r="H24">
-        <v>6841</v>
+        <v>6782</v>
       </c>
       <c r="I24">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2331</v>
+        <v>2456</v>
       </c>
       <c r="N24">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="O24">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2304,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="T24">
-        <v>770</v>
+        <v>877</v>
       </c>
       <c r="U24">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2322,18 +2322,18 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>405</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B25">
-        <v>104890</v>
+        <v>96900</v>
       </c>
       <c r="C25">
-        <v>16129</v>
+        <v>13728</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>43775</v>
+        <v>44990</v>
       </c>
       <c r="H25">
-        <v>6579</v>
+        <v>6841</v>
       </c>
       <c r="I25">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2118</v>
+        <v>2331</v>
       </c>
       <c r="N25">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="O25">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T25">
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="U25">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2399,18 +2399,18 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>280</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B26">
-        <v>107937</v>
+        <v>104890</v>
       </c>
       <c r="C26">
-        <v>18925</v>
+        <v>16129</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>40380</v>
+        <v>43775</v>
       </c>
       <c r="H26">
-        <v>5988</v>
+        <v>6579</v>
       </c>
       <c r="I26">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>1788</v>
+        <v>2118</v>
       </c>
       <c r="N26">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="O26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="T26">
-        <v>383</v>
+        <v>571</v>
       </c>
       <c r="U26">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2476,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B27">
-        <v>104405</v>
+        <v>107937</v>
       </c>
       <c r="C27">
-        <v>21703</v>
+        <v>18925</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>33894</v>
+        <v>40380</v>
       </c>
       <c r="H27">
-        <v>5162</v>
+        <v>5988</v>
       </c>
       <c r="I27">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1349</v>
+        <v>1788</v>
       </c>
       <c r="N27">
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="O27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="T27">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="U27">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2553,18 +2553,18 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>92</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B28">
-        <v>95261</v>
+        <v>104405</v>
       </c>
       <c r="C28">
-        <v>22568</v>
+        <v>21703</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>24978</v>
+        <v>33894</v>
       </c>
       <c r="H28">
-        <v>4052</v>
+        <v>5162</v>
       </c>
       <c r="I28">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>959</v>
+        <v>1349</v>
       </c>
       <c r="N28">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="O28">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="T28">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="U28">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2630,18 +2630,18 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B29">
-        <v>80585</v>
+        <v>95261</v>
       </c>
       <c r="C29">
-        <v>21570</v>
+        <v>22568</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>18887</v>
+        <v>24978</v>
       </c>
       <c r="H29">
-        <v>3067</v>
+        <v>4052</v>
       </c>
       <c r="I29">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2671,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>627</v>
+        <v>959</v>
       </c>
       <c r="N29">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="O29">
         <v>22</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="T29">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="U29">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2707,18 +2707,18 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B30">
-        <v>60267</v>
+        <v>80585</v>
       </c>
       <c r="C30">
-        <v>17420</v>
+        <v>21570</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>12333</v>
+        <v>18887</v>
       </c>
       <c r="H30">
-        <v>2234</v>
+        <v>3067</v>
       </c>
       <c r="I30">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="N30">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="O30">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="T30">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="U30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2789,13 +2789,13 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B31">
-        <v>40729</v>
+        <v>60267</v>
       </c>
       <c r="C31">
-        <v>12032</v>
+        <v>17420</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>7277</v>
+        <v>12333</v>
       </c>
       <c r="H31">
-        <v>1619</v>
+        <v>2234</v>
       </c>
       <c r="I31">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="N31">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="O31">
         <v>11</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T31">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="U31">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2861,18 +2861,18 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B32">
-        <v>26284</v>
+        <v>40729</v>
       </c>
       <c r="C32">
-        <v>6813</v>
+        <v>12032</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2884,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>3805</v>
+        <v>7277</v>
       </c>
       <c r="H32">
-        <v>1483</v>
+        <v>1619</v>
       </c>
       <c r="I32">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="N32">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O32">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T32">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="U32">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2938,83 +2938,160 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B33">
+        <v>26284</v>
+      </c>
+      <c r="C33">
+        <v>6813</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>3805</v>
+      </c>
+      <c r="H33">
+        <v>1483</v>
+      </c>
+      <c r="I33">
+        <v>199</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>224</v>
+      </c>
+      <c r="N33">
+        <v>117</v>
+      </c>
+      <c r="O33">
+        <v>14</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>8</v>
+      </c>
+      <c r="T33">
+        <v>250</v>
+      </c>
+      <c r="U33">
+        <v>47</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="2">
         <v>44391</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>21089</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>3954</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>2310</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>1880</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <v>240</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>240</v>
       </c>
-      <c r="N33">
+      <c r="N34">
         <v>147</v>
       </c>
-      <c r="O33">
+      <c r="O34">
         <v>20</v>
       </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>7</v>
       </c>
-      <c r="T33">
+      <c r="T34">
         <v>357</v>
       </c>
-      <c r="U33">
+      <c r="U34">
         <v>72</v>
       </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
         <v>68</v>
       </c>
     </row>
@@ -3025,7 +3102,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3092,957 +3169,957 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B2">
-        <v>5467098</v>
+        <v>5229604</v>
       </c>
       <c r="C2">
-        <v>1596811</v>
+        <v>1618481</v>
       </c>
       <c r="D2">
-        <v>14575900</v>
+        <v>12157100</v>
       </c>
       <c r="E2">
-        <v>6164226</v>
+        <v>5375529</v>
       </c>
       <c r="F2">
-        <v>26205910</v>
+        <v>29629231</v>
       </c>
       <c r="G2">
-        <v>46946036</v>
+        <v>47161860</v>
       </c>
       <c r="H2">
-        <v>5926909</v>
+        <v>5758356</v>
       </c>
       <c r="I2">
-        <v>1597860</v>
+        <v>1551283</v>
       </c>
       <c r="J2">
-        <v>18796851</v>
+        <v>17157160</v>
       </c>
       <c r="K2">
-        <v>8012376</v>
+        <v>7035796</v>
       </c>
       <c r="L2">
-        <v>19675949</v>
+        <v>22507350</v>
       </c>
       <c r="M2">
-        <v>46485176</v>
+        <v>46700306</v>
       </c>
       <c r="N2">
-        <v>6040050</v>
+        <v>5927007</v>
       </c>
       <c r="O2">
-        <v>1652417</v>
+        <v>1592113</v>
       </c>
       <c r="P2">
-        <v>20133986</v>
+        <v>18793468</v>
       </c>
       <c r="Q2">
-        <v>9055320</v>
+        <v>8015572</v>
       </c>
       <c r="R2">
-        <v>17128172</v>
+        <v>19681785</v>
       </c>
       <c r="S2">
-        <v>46317478</v>
+        <v>46490825</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B3">
-        <v>5610741</v>
+        <v>5467098</v>
       </c>
       <c r="C3">
-        <v>1575333</v>
+        <v>1596811</v>
       </c>
       <c r="D3">
-        <v>17279465</v>
+        <v>14575900</v>
       </c>
       <c r="E3">
-        <v>7025036</v>
+        <v>6164226</v>
       </c>
       <c r="F3">
-        <v>22519370</v>
+        <v>26205910</v>
       </c>
       <c r="G3">
-        <v>46823871</v>
+        <v>46946036</v>
       </c>
       <c r="H3">
-        <v>5893661</v>
+        <v>5926909</v>
       </c>
       <c r="I3">
-        <v>1663892</v>
+        <v>1597860</v>
       </c>
       <c r="J3">
-        <v>20257123</v>
+        <v>18796851</v>
       </c>
       <c r="K3">
-        <v>9057038</v>
+        <v>8012376</v>
       </c>
       <c r="L3">
-        <v>17138231</v>
+        <v>19675949</v>
       </c>
       <c r="M3">
-        <v>46452392</v>
+        <v>46485176</v>
       </c>
       <c r="N3">
-        <v>6038487</v>
+        <v>6040050</v>
       </c>
       <c r="O3">
-        <v>1684410</v>
+        <v>1652417</v>
       </c>
       <c r="P3">
-        <v>22158953</v>
+        <v>20133986</v>
       </c>
       <c r="Q3">
-        <v>9853675</v>
+        <v>9055320</v>
       </c>
       <c r="R3">
-        <v>14274420</v>
+        <v>17128172</v>
       </c>
       <c r="S3">
-        <v>46287048</v>
+        <v>46317478</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B4">
-        <v>5925943</v>
+        <v>5610741</v>
       </c>
       <c r="C4">
-        <v>1616298</v>
+        <v>1575333</v>
       </c>
       <c r="D4">
-        <v>18801609</v>
+        <v>17279465</v>
       </c>
       <c r="E4">
-        <v>7998741</v>
+        <v>7025036</v>
       </c>
       <c r="F4">
-        <v>19667354</v>
+        <v>22519370</v>
       </c>
       <c r="G4">
-        <v>46467704</v>
+        <v>46823871</v>
       </c>
       <c r="H4">
-        <v>6182863</v>
+        <v>5893661</v>
       </c>
       <c r="I4">
-        <v>1687002</v>
+        <v>1663892</v>
       </c>
       <c r="J4">
-        <v>22039408</v>
+        <v>20257123</v>
       </c>
       <c r="K4">
-        <v>9839532</v>
+        <v>9057038</v>
       </c>
       <c r="L4">
-        <v>14261140</v>
+        <v>17138231</v>
       </c>
       <c r="M4">
-        <v>46140080</v>
+        <v>46452392</v>
       </c>
       <c r="N4">
-        <v>6392072</v>
+        <v>6038487</v>
       </c>
       <c r="O4">
-        <v>1641693</v>
+        <v>1684410</v>
       </c>
       <c r="P4">
-        <v>24567729</v>
+        <v>22158953</v>
       </c>
       <c r="Q4">
-        <v>10413190</v>
+        <v>9853675</v>
       </c>
       <c r="R4">
-        <v>10995261</v>
+        <v>14274420</v>
       </c>
       <c r="S4">
-        <v>45976180</v>
+        <v>46287048</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B5">
-        <v>6113428</v>
+        <v>5925943</v>
       </c>
       <c r="C5">
-        <v>1676275</v>
+        <v>1616298</v>
       </c>
       <c r="D5">
-        <v>20106983</v>
+        <v>18801609</v>
       </c>
       <c r="E5">
-        <v>9023286</v>
+        <v>7998741</v>
       </c>
       <c r="F5">
-        <v>17089973</v>
+        <v>19667354</v>
       </c>
       <c r="G5">
-        <v>46220242</v>
+        <v>46467704</v>
       </c>
       <c r="H5">
-        <v>6466161</v>
+        <v>6182863</v>
       </c>
       <c r="I5">
-        <v>1644869</v>
+        <v>1687002</v>
       </c>
       <c r="J5">
-        <v>24530417</v>
+        <v>22039408</v>
       </c>
       <c r="K5">
-        <v>10394218</v>
+        <v>9839532</v>
       </c>
       <c r="L5">
-        <v>10974280</v>
+        <v>14261140</v>
       </c>
       <c r="M5">
-        <v>45898915</v>
+        <v>46140080</v>
       </c>
       <c r="N5">
-        <v>6710026</v>
+        <v>6392072</v>
       </c>
       <c r="O5">
-        <v>1549282</v>
+        <v>1641693</v>
       </c>
       <c r="P5">
-        <v>25990113</v>
+        <v>24567729</v>
       </c>
       <c r="Q5">
-        <v>11656265</v>
+        <v>10413190</v>
       </c>
       <c r="R5">
-        <v>8104259</v>
+        <v>10995261</v>
       </c>
       <c r="S5">
-        <v>45750637</v>
+        <v>45976180</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B6">
-        <v>6194434</v>
+        <v>6113428</v>
       </c>
       <c r="C6">
-        <v>1720841</v>
+        <v>1676275</v>
       </c>
       <c r="D6">
-        <v>22048677</v>
+        <v>20106983</v>
       </c>
       <c r="E6">
-        <v>9810639</v>
+        <v>9023286</v>
       </c>
       <c r="F6">
-        <v>14235354</v>
+        <v>17089973</v>
       </c>
       <c r="G6">
-        <v>46094670</v>
+        <v>46220242</v>
       </c>
       <c r="H6">
-        <v>6647970</v>
+        <v>6466161</v>
       </c>
       <c r="I6">
-        <v>1566179</v>
+        <v>1644869</v>
       </c>
       <c r="J6">
-        <v>26028307</v>
+        <v>24530417</v>
       </c>
       <c r="K6">
-        <v>11660101</v>
+        <v>10394218</v>
       </c>
       <c r="L6">
-        <v>8107388</v>
+        <v>10974280</v>
       </c>
       <c r="M6">
-        <v>45795796</v>
+        <v>45898915</v>
       </c>
       <c r="N6">
-        <v>6862315</v>
+        <v>6710026</v>
       </c>
       <c r="O6">
-        <v>1493790</v>
+        <v>1549282</v>
       </c>
       <c r="P6">
-        <v>26357835</v>
+        <v>25990113</v>
       </c>
       <c r="Q6">
-        <v>13596764</v>
+        <v>11656265</v>
       </c>
       <c r="R6">
-        <v>5699241</v>
+        <v>8104259</v>
       </c>
       <c r="S6">
-        <v>45653840</v>
+        <v>45750637</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B7">
-        <v>6414467</v>
+        <v>6194434</v>
       </c>
       <c r="C7">
-        <v>1678301</v>
+        <v>1720841</v>
       </c>
       <c r="D7">
-        <v>24562863</v>
+        <v>22048677</v>
       </c>
       <c r="E7">
-        <v>10381759</v>
+        <v>9810639</v>
       </c>
       <c r="F7">
-        <v>10972555</v>
+        <v>14235354</v>
       </c>
       <c r="G7">
-        <v>45917177</v>
+        <v>46094670</v>
       </c>
       <c r="H7">
-        <v>6876688</v>
+        <v>6647970</v>
       </c>
       <c r="I7">
-        <v>1504168</v>
+        <v>1566179</v>
       </c>
       <c r="J7">
-        <v>26348254</v>
+        <v>26028307</v>
       </c>
       <c r="K7">
-        <v>13585896</v>
+        <v>11660101</v>
       </c>
       <c r="L7">
-        <v>5694939</v>
+        <v>8107388</v>
       </c>
       <c r="M7">
-        <v>45629089</v>
+        <v>45795796</v>
       </c>
       <c r="N7">
-        <v>7031651</v>
+        <v>6862315</v>
       </c>
       <c r="O7">
-        <v>1502381</v>
+        <v>1493790</v>
       </c>
       <c r="P7">
-        <v>13119984</v>
+        <v>26357835</v>
       </c>
       <c r="Q7">
-        <v>28222661</v>
+        <v>13596764</v>
       </c>
       <c r="R7">
-        <v>4133267</v>
+        <v>5699241</v>
       </c>
       <c r="S7">
-        <v>45475912</v>
+        <v>45653840</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B8">
-        <v>6660263</v>
+        <v>6414467</v>
       </c>
       <c r="C8">
-        <v>1578764</v>
+        <v>1678301</v>
       </c>
       <c r="D8">
-        <v>26019483</v>
+        <v>24562863</v>
       </c>
       <c r="E8">
-        <v>11648617</v>
+        <v>10381759</v>
       </c>
       <c r="F8">
-        <v>8102818</v>
+        <v>10972555</v>
       </c>
       <c r="G8">
-        <v>45770918</v>
+        <v>45917177</v>
       </c>
       <c r="H8">
+        <v>6876688</v>
+      </c>
+      <c r="I8">
+        <v>1504168</v>
+      </c>
+      <c r="J8">
+        <v>26348254</v>
+      </c>
+      <c r="K8">
+        <v>13585896</v>
+      </c>
+      <c r="L8">
+        <v>5694939</v>
+      </c>
+      <c r="M8">
+        <v>45629089</v>
+      </c>
+      <c r="N8">
         <v>7031651</v>
       </c>
-      <c r="I8">
+      <c r="O8">
         <v>1502381</v>
       </c>
-      <c r="J8">
+      <c r="P8">
         <v>13119984</v>
       </c>
-      <c r="K8">
+      <c r="Q8">
         <v>28222661</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <v>4133267</v>
       </c>
-      <c r="M8">
+      <c r="S8">
         <v>45475912</v>
-      </c>
-      <c r="N8">
-        <v>7160934</v>
-      </c>
-      <c r="O8">
-        <v>1577260</v>
-      </c>
-      <c r="P8">
-        <v>12254673</v>
-      </c>
-      <c r="Q8">
-        <v>29956598</v>
-      </c>
-      <c r="R8">
-        <v>3060479</v>
-      </c>
-      <c r="S8">
-        <v>45271750</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B9">
-        <v>6876688</v>
+        <v>6660263</v>
       </c>
       <c r="C9">
-        <v>1504168</v>
+        <v>1578764</v>
       </c>
       <c r="D9">
-        <v>26348254</v>
+        <v>26019483</v>
       </c>
       <c r="E9">
-        <v>13585896</v>
+        <v>11648617</v>
       </c>
       <c r="F9">
-        <v>5694939</v>
+        <v>8102818</v>
       </c>
       <c r="G9">
-        <v>45629089</v>
+        <v>45770918</v>
       </c>
       <c r="H9">
+        <v>7031651</v>
+      </c>
+      <c r="I9">
+        <v>1502381</v>
+      </c>
+      <c r="J9">
+        <v>13119984</v>
+      </c>
+      <c r="K9">
+        <v>28222661</v>
+      </c>
+      <c r="L9">
+        <v>4133267</v>
+      </c>
+      <c r="M9">
+        <v>45475912</v>
+      </c>
+      <c r="N9">
         <v>7160934</v>
       </c>
-      <c r="I9">
+      <c r="O9">
         <v>1577260</v>
       </c>
-      <c r="J9">
+      <c r="P9">
         <v>12254673</v>
       </c>
-      <c r="K9">
+      <c r="Q9">
         <v>29956598</v>
       </c>
-      <c r="L9">
+      <c r="R9">
         <v>3060479</v>
       </c>
-      <c r="M9">
+      <c r="S9">
         <v>45271750</v>
-      </c>
-      <c r="N9">
-        <v>7291722</v>
-      </c>
-      <c r="O9">
-        <v>1749607</v>
-      </c>
-      <c r="P9">
-        <v>11949919</v>
-      </c>
-      <c r="Q9">
-        <v>30829431</v>
-      </c>
-      <c r="R9">
-        <v>2189265</v>
-      </c>
-      <c r="S9">
-        <v>44968615</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B10">
-        <v>7031651</v>
+        <v>6876688</v>
       </c>
       <c r="C10">
-        <v>1502381</v>
+        <v>1504168</v>
       </c>
       <c r="D10">
-        <v>13119984</v>
+        <v>26348254</v>
       </c>
       <c r="E10">
-        <v>28222661</v>
+        <v>13585896</v>
       </c>
       <c r="F10">
-        <v>4133267</v>
+        <v>5694939</v>
       </c>
       <c r="G10">
-        <v>45475912</v>
+        <v>45629089</v>
       </c>
       <c r="H10">
+        <v>7160934</v>
+      </c>
+      <c r="I10">
+        <v>1577260</v>
+      </c>
+      <c r="J10">
+        <v>12254673</v>
+      </c>
+      <c r="K10">
+        <v>29956598</v>
+      </c>
+      <c r="L10">
+        <v>3060479</v>
+      </c>
+      <c r="M10">
+        <v>45271750</v>
+      </c>
+      <c r="N10">
         <v>7291722</v>
       </c>
-      <c r="I10">
+      <c r="O10">
         <v>1749607</v>
       </c>
-      <c r="J10">
+      <c r="P10">
         <v>11949919</v>
       </c>
-      <c r="K10">
+      <c r="Q10">
         <v>30829431</v>
       </c>
-      <c r="L10">
+      <c r="R10">
         <v>2189265</v>
       </c>
-      <c r="M10">
+      <c r="S10">
         <v>44968615</v>
-      </c>
-      <c r="N10">
-        <v>7404599</v>
-      </c>
-      <c r="O10">
-        <v>1981131</v>
-      </c>
-      <c r="P10">
-        <v>11407859</v>
-      </c>
-      <c r="Q10">
-        <v>31622279</v>
-      </c>
-      <c r="R10">
-        <v>1594076</v>
-      </c>
-      <c r="S10">
-        <v>44624214</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B11">
-        <v>7160934</v>
+        <v>7031651</v>
       </c>
       <c r="C11">
-        <v>1577260</v>
+        <v>1502381</v>
       </c>
       <c r="D11">
-        <v>12254673</v>
+        <v>13119984</v>
       </c>
       <c r="E11">
-        <v>29956598</v>
+        <v>28222661</v>
       </c>
       <c r="F11">
-        <v>3060479</v>
+        <v>4133267</v>
       </c>
       <c r="G11">
-        <v>45271750</v>
+        <v>45475912</v>
       </c>
       <c r="H11">
+        <v>7291722</v>
+      </c>
+      <c r="I11">
+        <v>1749607</v>
+      </c>
+      <c r="J11">
+        <v>11949919</v>
+      </c>
+      <c r="K11">
+        <v>30829431</v>
+      </c>
+      <c r="L11">
+        <v>2189265</v>
+      </c>
+      <c r="M11">
+        <v>44968615</v>
+      </c>
+      <c r="N11">
         <v>7404599</v>
       </c>
-      <c r="I11">
+      <c r="O11">
         <v>1981131</v>
       </c>
-      <c r="J11">
+      <c r="P11">
         <v>11407859</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <v>31622279</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <v>1594076</v>
       </c>
-      <c r="M11">
+      <c r="S11">
         <v>44624214</v>
-      </c>
-      <c r="N11">
-        <v>7586013</v>
-      </c>
-      <c r="O11">
-        <v>2222672</v>
-      </c>
-      <c r="P11">
-        <v>4526706</v>
-      </c>
-      <c r="Q11">
-        <v>38658546</v>
-      </c>
-      <c r="R11">
-        <v>1016007</v>
-      </c>
-      <c r="S11">
-        <v>44201259</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B12">
-        <v>7291722</v>
+        <v>7160934</v>
       </c>
       <c r="C12">
-        <v>1749607</v>
+        <v>1577260</v>
       </c>
       <c r="D12">
-        <v>11949919</v>
+        <v>12254673</v>
       </c>
       <c r="E12">
-        <v>30829431</v>
+        <v>29956598</v>
       </c>
       <c r="F12">
-        <v>2189265</v>
+        <v>3060479</v>
       </c>
       <c r="G12">
-        <v>44968615</v>
+        <v>45271750</v>
       </c>
       <c r="H12">
+        <v>7404599</v>
+      </c>
+      <c r="I12">
+        <v>1981131</v>
+      </c>
+      <c r="J12">
+        <v>11407859</v>
+      </c>
+      <c r="K12">
+        <v>31622279</v>
+      </c>
+      <c r="L12">
+        <v>1594076</v>
+      </c>
+      <c r="M12">
+        <v>44624214</v>
+      </c>
+      <c r="N12">
         <v>7586013</v>
       </c>
-      <c r="I12">
+      <c r="O12">
         <v>2222672</v>
       </c>
-      <c r="J12">
+      <c r="P12">
         <v>4526706</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <v>38658546</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <v>1016007</v>
       </c>
-      <c r="M12">
+      <c r="S12">
         <v>44201259</v>
-      </c>
-      <c r="N12">
-        <v>7862567</v>
-      </c>
-      <c r="O12">
-        <v>2422756</v>
-      </c>
-      <c r="P12">
-        <v>4186423</v>
-      </c>
-      <c r="Q12">
-        <v>38968164</v>
-      </c>
-      <c r="R12">
-        <v>570032</v>
-      </c>
-      <c r="S12">
-        <v>43724619</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B13">
-        <v>7404599</v>
+        <v>7291722</v>
       </c>
       <c r="C13">
-        <v>1981131</v>
+        <v>1749607</v>
       </c>
       <c r="D13">
-        <v>11407859</v>
+        <v>11949919</v>
       </c>
       <c r="E13">
-        <v>31622279</v>
+        <v>30829431</v>
       </c>
       <c r="F13">
-        <v>1594076</v>
+        <v>2189265</v>
       </c>
       <c r="G13">
-        <v>44624214</v>
+        <v>44968615</v>
       </c>
       <c r="H13">
+        <v>7586013</v>
+      </c>
+      <c r="I13">
+        <v>2222672</v>
+      </c>
+      <c r="J13">
+        <v>4526706</v>
+      </c>
+      <c r="K13">
+        <v>38658546</v>
+      </c>
+      <c r="L13">
+        <v>1016007</v>
+      </c>
+      <c r="M13">
+        <v>44201259</v>
+      </c>
+      <c r="N13">
         <v>7862567</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>2422756</v>
       </c>
-      <c r="J13">
+      <c r="P13">
         <v>4186423</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <v>38968164</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <v>570032</v>
       </c>
-      <c r="M13">
+      <c r="S13">
         <v>43724619</v>
-      </c>
-      <c r="N13">
-        <v>8302865</v>
-      </c>
-      <c r="O13">
-        <v>2538614</v>
-      </c>
-      <c r="P13">
-        <v>3884826</v>
-      </c>
-      <c r="Q13">
-        <v>38988918</v>
-      </c>
-      <c r="R13">
-        <v>294719</v>
-      </c>
-      <c r="S13">
-        <v>43168463</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B14">
-        <v>7586013</v>
+        <v>7404599</v>
       </c>
       <c r="C14">
-        <v>2222672</v>
+        <v>1981131</v>
       </c>
       <c r="D14">
-        <v>4526706</v>
+        <v>11407859</v>
       </c>
       <c r="E14">
-        <v>38658546</v>
+        <v>31622279</v>
       </c>
       <c r="F14">
-        <v>1016007</v>
+        <v>1594076</v>
       </c>
       <c r="G14">
-        <v>44201259</v>
+        <v>44624214</v>
       </c>
       <c r="H14">
+        <v>7862567</v>
+      </c>
+      <c r="I14">
+        <v>2422756</v>
+      </c>
+      <c r="J14">
+        <v>4186423</v>
+      </c>
+      <c r="K14">
+        <v>38968164</v>
+      </c>
+      <c r="L14">
+        <v>570032</v>
+      </c>
+      <c r="M14">
+        <v>43724619</v>
+      </c>
+      <c r="N14">
         <v>8302865</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>2538614</v>
       </c>
-      <c r="J14">
+      <c r="P14">
         <v>3884826</v>
       </c>
-      <c r="K14">
+      <c r="Q14">
         <v>38988918</v>
       </c>
-      <c r="L14">
+      <c r="R14">
         <v>294719</v>
       </c>
-      <c r="M14">
+      <c r="S14">
         <v>43168463</v>
-      </c>
-      <c r="N14">
-        <v>8683749</v>
-      </c>
-      <c r="O14">
-        <v>2653423</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>42672767</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B15">
-        <v>7862567</v>
+        <v>7586013</v>
       </c>
       <c r="C15">
-        <v>2422756</v>
+        <v>2222672</v>
       </c>
       <c r="D15">
-        <v>4186423</v>
+        <v>4526706</v>
       </c>
       <c r="E15">
-        <v>38968164</v>
+        <v>38658546</v>
       </c>
       <c r="F15">
-        <v>570032</v>
+        <v>1016007</v>
       </c>
       <c r="G15">
-        <v>43724619</v>
+        <v>44201259</v>
       </c>
       <c r="H15">
+        <v>8302865</v>
+      </c>
+      <c r="I15">
+        <v>2538614</v>
+      </c>
+      <c r="J15">
+        <v>3884826</v>
+      </c>
+      <c r="K15">
+        <v>38988918</v>
+      </c>
+      <c r="L15">
+        <v>294719</v>
+      </c>
+      <c r="M15">
+        <v>43168463</v>
+      </c>
+      <c r="N15">
         <v>8683749</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>2653423</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>42672767</v>
-      </c>
-      <c r="N15">
-        <v>9231487</v>
-      </c>
-      <c r="O15">
-        <v>2863195</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>41915257</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B16">
-        <v>8302865</v>
+        <v>7862567</v>
       </c>
       <c r="C16">
-        <v>2538614</v>
+        <v>2422756</v>
       </c>
       <c r="D16">
-        <v>3884826</v>
+        <v>4186423</v>
       </c>
       <c r="E16">
-        <v>38988918</v>
+        <v>38968164</v>
       </c>
       <c r="F16">
-        <v>294719</v>
+        <v>570032</v>
       </c>
       <c r="G16">
-        <v>43168463</v>
+        <v>43724619</v>
       </c>
       <c r="H16">
+        <v>8683749</v>
+      </c>
+      <c r="I16">
+        <v>2653423</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>42672767</v>
+      </c>
+      <c r="N16">
         <v>9231487</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>2863195</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>41915257</v>
-      </c>
-      <c r="N16">
-        <v>9829232</v>
-      </c>
-      <c r="O16">
-        <v>3259454</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>40921215</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B17">
-        <v>8683749</v>
+        <v>8302865</v>
       </c>
       <c r="C17">
-        <v>2653423</v>
+        <v>2538614</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3884826</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>38988918</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>294719</v>
       </c>
       <c r="G17">
-        <v>42672767</v>
+        <v>43168463</v>
       </c>
       <c r="H17">
+        <v>9231487</v>
+      </c>
+      <c r="I17">
+        <v>2863195</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>41915257</v>
+      </c>
+      <c r="N17">
         <v>9829232</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>3259454</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>40921215</v>
-      </c>
-      <c r="N17">
-        <v>10307179</v>
-      </c>
-      <c r="O17">
-        <v>3862335</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>39840387</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B18">
-        <v>9231487</v>
+        <v>8683749</v>
       </c>
       <c r="C18">
-        <v>2863195</v>
+        <v>2653423</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4054,54 +4131,54 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41915257</v>
+        <v>42672767</v>
       </c>
       <c r="H18">
+        <v>9829232</v>
+      </c>
+      <c r="I18">
+        <v>3259454</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>40921215</v>
+      </c>
+      <c r="N18">
         <v>10307179</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>3862335</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>39840387</v>
-      </c>
-      <c r="N18">
-        <v>10942694</v>
-      </c>
-      <c r="O18">
-        <v>4426185</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>38641022</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B19">
-        <v>9829232</v>
+        <v>9231487</v>
       </c>
       <c r="C19">
-        <v>3259454</v>
+        <v>2863195</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4113,54 +4190,54 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40921215</v>
+        <v>41915257</v>
       </c>
       <c r="H19">
+        <v>10307179</v>
+      </c>
+      <c r="I19">
+        <v>3862335</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>39840387</v>
+      </c>
+      <c r="N19">
         <v>10942694</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>4426185</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>38641022</v>
-      </c>
-      <c r="N19">
-        <v>11786620</v>
-      </c>
-      <c r="O19">
-        <v>4805486</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>37417795</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B20">
-        <v>10307179</v>
+        <v>9829232</v>
       </c>
       <c r="C20">
-        <v>3862335</v>
+        <v>3259454</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4172,54 +4249,54 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>39840387</v>
+        <v>40921215</v>
       </c>
       <c r="H20">
+        <v>10942694</v>
+      </c>
+      <c r="I20">
+        <v>4426185</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>38641022</v>
+      </c>
+      <c r="N20">
         <v>11786620</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>4805486</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>37417795</v>
-      </c>
-      <c r="N20">
-        <v>12581126</v>
-      </c>
-      <c r="O20">
-        <v>5096568</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>36332207</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B21">
-        <v>10942694</v>
+        <v>10307179</v>
       </c>
       <c r="C21">
-        <v>4426185</v>
+        <v>3862335</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4231,54 +4308,54 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>38641022</v>
+        <v>39840387</v>
       </c>
       <c r="H21">
+        <v>11786620</v>
+      </c>
+      <c r="I21">
+        <v>4805486</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>37417795</v>
+      </c>
+      <c r="N21">
         <v>12581126</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>5096568</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>36332207</v>
-      </c>
-      <c r="N21">
-        <v>13334156</v>
-      </c>
-      <c r="O21">
-        <v>5075930</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>35599815</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B22">
-        <v>11786620</v>
+        <v>10942694</v>
       </c>
       <c r="C22">
-        <v>4805486</v>
+        <v>4426185</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4290,54 +4367,54 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>37417795</v>
+        <v>38641022</v>
       </c>
       <c r="H22">
+        <v>12581126</v>
+      </c>
+      <c r="I22">
+        <v>5096568</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>36332207</v>
+      </c>
+      <c r="N22">
         <v>13334156</v>
       </c>
-      <c r="I22">
+      <c r="O22">
         <v>5075930</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>35599815</v>
-      </c>
-      <c r="N22">
-        <v>14507530</v>
-      </c>
-      <c r="O22">
-        <v>5210293</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>34292078</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B23">
-        <v>12581126</v>
+        <v>11786620</v>
       </c>
       <c r="C23">
-        <v>5096568</v>
+        <v>4805486</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4349,54 +4426,54 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>36332207</v>
+        <v>37417795</v>
       </c>
       <c r="H23">
+        <v>13334156</v>
+      </c>
+      <c r="I23">
+        <v>5075930</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>35599815</v>
+      </c>
+      <c r="N23">
         <v>14507530</v>
       </c>
-      <c r="I23">
+      <c r="O23">
         <v>5210293</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>34292078</v>
-      </c>
-      <c r="N23">
-        <v>15656647</v>
-      </c>
-      <c r="O23">
-        <v>6065610</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>32287644</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B24">
-        <v>13334156</v>
+        <v>12581126</v>
       </c>
       <c r="C24">
-        <v>5075930</v>
+        <v>5096568</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4408,54 +4485,54 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>35599815</v>
+        <v>36332207</v>
       </c>
       <c r="H24">
+        <v>14507530</v>
+      </c>
+      <c r="I24">
+        <v>5210293</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>34292078</v>
+      </c>
+      <c r="N24">
         <v>15656647</v>
       </c>
-      <c r="I24">
+      <c r="O24">
         <v>6065610</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>32287644</v>
-      </c>
-      <c r="N24">
-        <v>16708830</v>
-      </c>
-      <c r="O24">
-        <v>7672393</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>29628678</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B25">
-        <v>14507530</v>
+        <v>13334156</v>
       </c>
       <c r="C25">
-        <v>5210293</v>
+        <v>5075930</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4467,54 +4544,54 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>34292078</v>
+        <v>35599815</v>
       </c>
       <c r="H25">
+        <v>15656647</v>
+      </c>
+      <c r="I25">
+        <v>6065610</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>32287644</v>
+      </c>
+      <c r="N25">
         <v>16708830</v>
       </c>
-      <c r="I25">
+      <c r="O25">
         <v>7672393</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>29628678</v>
-      </c>
-      <c r="N25">
-        <v>17568325</v>
-      </c>
-      <c r="O25">
-        <v>9940124</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>26501452</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B26">
-        <v>15656647</v>
+        <v>14507530</v>
       </c>
       <c r="C26">
-        <v>6065610</v>
+        <v>5210293</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4526,54 +4603,54 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>32287644</v>
+        <v>34292078</v>
       </c>
       <c r="H26">
+        <v>16708830</v>
+      </c>
+      <c r="I26">
+        <v>7672393</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>29628678</v>
+      </c>
+      <c r="N26">
         <v>17568325</v>
       </c>
-      <c r="I26">
+      <c r="O26">
         <v>9940124</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>26501452</v>
-      </c>
-      <c r="N26">
-        <v>20322806</v>
-      </c>
-      <c r="O26">
-        <v>11341436</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>22345659</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B27">
-        <v>16708830</v>
+        <v>15656647</v>
       </c>
       <c r="C27">
-        <v>7672393</v>
+        <v>6065610</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4585,54 +4662,54 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>29628678</v>
+        <v>32287644</v>
       </c>
       <c r="H27">
+        <v>17568325</v>
+      </c>
+      <c r="I27">
+        <v>9940124</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>26501452</v>
+      </c>
+      <c r="N27">
         <v>20322806</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>11341436</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>22345659</v>
-      </c>
-      <c r="N27">
-        <v>21289761</v>
-      </c>
-      <c r="O27">
-        <v>13149676</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>19570464</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B28">
-        <v>17568325</v>
+        <v>16708830</v>
       </c>
       <c r="C28">
-        <v>9940124</v>
+        <v>7672393</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4644,54 +4721,54 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>26501452</v>
+        <v>29628678</v>
       </c>
       <c r="H28">
+        <v>20322806</v>
+      </c>
+      <c r="I28">
+        <v>11341436</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>22345659</v>
+      </c>
+      <c r="N28">
         <v>21289761</v>
       </c>
-      <c r="I28">
+      <c r="O28">
         <v>13149676</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>19570464</v>
-      </c>
-      <c r="N28">
-        <v>22879167</v>
-      </c>
-      <c r="O28">
-        <v>13741130</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>17389604</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B29">
-        <v>20322806</v>
+        <v>17568325</v>
       </c>
       <c r="C29">
-        <v>11341436</v>
+        <v>9940124</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4703,54 +4780,54 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>22345659</v>
+        <v>26501452</v>
       </c>
       <c r="H29">
+        <v>21289761</v>
+      </c>
+      <c r="I29">
+        <v>13149676</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>19570464</v>
+      </c>
+      <c r="N29">
         <v>22879167</v>
       </c>
-      <c r="I29">
+      <c r="O29">
         <v>13741130</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>17389604</v>
-      </c>
-      <c r="N29">
-        <v>24745853</v>
-      </c>
-      <c r="O29">
-        <v>13879852</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>15384196</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B30">
-        <v>21289761</v>
+        <v>20322806</v>
       </c>
       <c r="C30">
-        <v>13149676</v>
+        <v>11341436</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4762,54 +4839,54 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>19570464</v>
+        <v>22345659</v>
       </c>
       <c r="H30">
+        <v>22879167</v>
+      </c>
+      <c r="I30">
+        <v>13741130</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>17389604</v>
+      </c>
+      <c r="N30">
         <v>24745853</v>
       </c>
-      <c r="I30">
+      <c r="O30">
         <v>13879852</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>15384196</v>
-      </c>
-      <c r="N30">
-        <v>27065063</v>
-      </c>
-      <c r="O30">
-        <v>13015437</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>13929401</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B31">
-        <v>22879167</v>
+        <v>21289761</v>
       </c>
       <c r="C31">
-        <v>13741130</v>
+        <v>13149676</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4821,54 +4898,54 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>17389604</v>
+        <v>19570464</v>
       </c>
       <c r="H31">
+        <v>24745853</v>
+      </c>
+      <c r="I31">
+        <v>13879852</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>15384196</v>
+      </c>
+      <c r="N31">
         <v>27065063</v>
       </c>
-      <c r="I31">
+      <c r="O31">
         <v>13015437</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <v>13929401</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B32">
-        <v>24745853</v>
+        <v>22879167</v>
       </c>
       <c r="C32">
-        <v>13879852</v>
+        <v>13741130</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4880,13 +4957,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>15384196</v>
+        <v>17389604</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>27065063</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>13015437</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -4898,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>13929401</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -4921,60 +4998,119 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B33">
+        <v>24745853</v>
+      </c>
+      <c r="C33">
+        <v>13879852</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>15384196</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="2">
         <v>44391</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>27065063</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>13015437</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>13929401</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,1322 +556,1322 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B2">
-        <v>503511</v>
+        <v>362240</v>
       </c>
       <c r="C2">
-        <v>81921</v>
+        <v>61074</v>
       </c>
       <c r="D2">
-        <v>543352</v>
+        <v>316885</v>
       </c>
       <c r="E2">
-        <v>313619</v>
+        <v>210897</v>
       </c>
       <c r="F2">
-        <v>682585</v>
+        <v>617287</v>
       </c>
       <c r="G2">
-        <v>1539556</v>
+        <v>1145069</v>
       </c>
       <c r="H2">
-        <v>13534</v>
+        <v>11144</v>
       </c>
       <c r="I2">
-        <v>1516</v>
+        <v>1422</v>
       </c>
       <c r="J2">
-        <v>11607</v>
+        <v>9008</v>
       </c>
       <c r="K2">
-        <v>3210</v>
+        <v>2676</v>
       </c>
       <c r="L2">
-        <v>12271</v>
+        <v>12272</v>
       </c>
       <c r="M2">
-        <v>27088</v>
+        <v>23956</v>
       </c>
       <c r="N2">
-        <v>1261</v>
+        <v>941</v>
       </c>
       <c r="O2">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P2">
-        <v>617</v>
+        <v>470</v>
       </c>
       <c r="Q2">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="R2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="S2">
-        <v>1304</v>
+        <v>1134</v>
       </c>
       <c r="T2">
-        <v>3470</v>
+        <v>3198</v>
       </c>
       <c r="U2">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="V2">
-        <v>2795</v>
+        <v>2507</v>
       </c>
       <c r="W2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="X2">
-        <v>2403</v>
+        <v>2677</v>
       </c>
       <c r="Y2">
-        <v>5527</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B3">
-        <v>642419</v>
+        <v>503511</v>
       </c>
       <c r="C3">
-        <v>102315</v>
+        <v>81921</v>
       </c>
       <c r="D3">
-        <v>848833</v>
+        <v>543352</v>
       </c>
       <c r="E3">
-        <v>439413</v>
+        <v>313619</v>
       </c>
       <c r="F3">
-        <v>717143</v>
+        <v>682585</v>
       </c>
       <c r="G3">
-        <v>2005389</v>
+        <v>1539556</v>
       </c>
       <c r="H3">
-        <v>15012</v>
+        <v>13534</v>
       </c>
       <c r="I3">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="J3">
-        <v>13660</v>
+        <v>11607</v>
       </c>
       <c r="K3">
-        <v>3480</v>
+        <v>3210</v>
       </c>
       <c r="L3">
-        <v>11075</v>
+        <v>12271</v>
       </c>
       <c r="M3">
-        <v>28215</v>
+        <v>27088</v>
       </c>
       <c r="N3">
-        <v>1524</v>
+        <v>1261</v>
       </c>
       <c r="O3">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P3">
-        <v>736</v>
+        <v>617</v>
       </c>
       <c r="Q3">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="R3">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="S3">
-        <v>1350</v>
+        <v>1304</v>
       </c>
       <c r="T3">
-        <v>3357</v>
+        <v>3470</v>
       </c>
       <c r="U3">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="V3">
-        <v>2757</v>
+        <v>2795</v>
       </c>
       <c r="W3">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="X3">
-        <v>1918</v>
+        <v>2403</v>
       </c>
       <c r="Y3">
-        <v>4952</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B4">
-        <v>777547</v>
+        <v>642419</v>
       </c>
       <c r="C4">
-        <v>127486</v>
+        <v>102315</v>
       </c>
       <c r="D4">
-        <v>1249396</v>
+        <v>848833</v>
       </c>
       <c r="E4">
-        <v>597335</v>
+        <v>439413</v>
       </c>
       <c r="F4">
-        <v>738378</v>
+        <v>717143</v>
       </c>
       <c r="G4">
-        <v>2585109</v>
+        <v>2005389</v>
       </c>
       <c r="H4">
-        <v>15695</v>
+        <v>15012</v>
       </c>
       <c r="I4">
-        <v>1437</v>
+        <v>1532</v>
       </c>
       <c r="J4">
-        <v>14598</v>
+        <v>13660</v>
       </c>
       <c r="K4">
-        <v>3426</v>
+        <v>3480</v>
       </c>
       <c r="L4">
-        <v>9017</v>
+        <v>11075</v>
       </c>
       <c r="M4">
-        <v>27041</v>
+        <v>28215</v>
       </c>
       <c r="N4">
-        <v>1716</v>
+        <v>1524</v>
       </c>
       <c r="O4">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P4">
-        <v>803</v>
+        <v>736</v>
       </c>
       <c r="Q4">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="R4">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="S4">
-        <v>1306</v>
+        <v>1350</v>
       </c>
       <c r="T4">
-        <v>3144</v>
+        <v>3357</v>
       </c>
       <c r="U4">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="V4">
-        <v>2508</v>
+        <v>2757</v>
       </c>
       <c r="W4">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="X4">
-        <v>1331</v>
+        <v>1918</v>
       </c>
       <c r="Y4">
-        <v>4071</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B5">
-        <v>809625</v>
+        <v>777547</v>
       </c>
       <c r="C5">
-        <v>137850</v>
+        <v>127486</v>
       </c>
       <c r="D5">
-        <v>1532777</v>
+        <v>1249396</v>
       </c>
       <c r="E5">
-        <v>687597</v>
+        <v>597335</v>
       </c>
       <c r="F5">
-        <v>672910</v>
+        <v>738378</v>
       </c>
       <c r="G5">
-        <v>2893284</v>
+        <v>2585109</v>
       </c>
       <c r="H5">
-        <v>15049</v>
+        <v>15695</v>
       </c>
       <c r="I5">
-        <v>1240</v>
+        <v>1437</v>
       </c>
       <c r="J5">
-        <v>13663</v>
+        <v>14598</v>
       </c>
       <c r="K5">
-        <v>2915</v>
+        <v>3426</v>
       </c>
       <c r="L5">
-        <v>6606</v>
+        <v>9017</v>
       </c>
       <c r="M5">
-        <v>23184</v>
+        <v>27041</v>
       </c>
       <c r="N5">
-        <v>1792</v>
+        <v>1716</v>
       </c>
       <c r="O5">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P5">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="Q5">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="R5">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="S5">
-        <v>1166</v>
+        <v>1306</v>
       </c>
       <c r="T5">
-        <v>2632</v>
+        <v>3144</v>
       </c>
       <c r="U5">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="V5">
-        <v>2172</v>
+        <v>2508</v>
       </c>
       <c r="W5">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="X5">
-        <v>814</v>
+        <v>1331</v>
       </c>
       <c r="Y5">
-        <v>3168</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B6">
-        <v>703732</v>
+        <v>809625</v>
       </c>
       <c r="C6">
-        <v>127478</v>
+        <v>137850</v>
       </c>
       <c r="D6">
-        <v>1544092</v>
+        <v>1532777</v>
       </c>
       <c r="E6">
-        <v>640805</v>
+        <v>687597</v>
       </c>
       <c r="F6">
-        <v>521657</v>
+        <v>672910</v>
       </c>
       <c r="G6">
-        <v>2706554</v>
+        <v>2893284</v>
       </c>
       <c r="H6">
-        <v>13946</v>
+        <v>15049</v>
       </c>
       <c r="I6">
-        <v>989</v>
+        <v>1240</v>
       </c>
       <c r="J6">
-        <v>11934</v>
+        <v>13663</v>
       </c>
       <c r="K6">
-        <v>2225</v>
+        <v>2915</v>
       </c>
       <c r="L6">
-        <v>4177</v>
+        <v>6606</v>
       </c>
       <c r="M6">
-        <v>18336</v>
+        <v>23184</v>
       </c>
       <c r="N6">
-        <v>1753</v>
+        <v>1792</v>
       </c>
       <c r="O6">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P6">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="Q6">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="R6">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="S6">
-        <v>1014</v>
+        <v>1166</v>
       </c>
       <c r="T6">
-        <v>2120</v>
+        <v>2632</v>
       </c>
       <c r="U6">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="V6">
-        <v>1805</v>
+        <v>2172</v>
       </c>
       <c r="W6">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="X6">
-        <v>432</v>
+        <v>814</v>
       </c>
       <c r="Y6">
-        <v>2375</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B7">
-        <v>555697</v>
+        <v>703732</v>
       </c>
       <c r="C7">
-        <v>102729</v>
+        <v>127478</v>
       </c>
       <c r="D7">
-        <v>1320086</v>
+        <v>1544092</v>
       </c>
       <c r="E7">
-        <v>527687</v>
+        <v>640805</v>
       </c>
       <c r="F7">
-        <v>358530</v>
+        <v>521657</v>
       </c>
       <c r="G7">
-        <v>2206303</v>
+        <v>2706554</v>
       </c>
       <c r="H7">
-        <v>11487</v>
+        <v>13946</v>
       </c>
       <c r="I7">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="J7">
-        <v>9435</v>
+        <v>11934</v>
       </c>
       <c r="K7">
-        <v>1499</v>
+        <v>2225</v>
       </c>
       <c r="L7">
-        <v>2066</v>
+        <v>4177</v>
       </c>
       <c r="M7">
-        <v>13000</v>
+        <v>18336</v>
       </c>
       <c r="N7">
-        <v>1557</v>
+        <v>1753</v>
       </c>
       <c r="O7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P7">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="Q7">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R7">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="S7">
-        <v>809</v>
+        <v>1014</v>
       </c>
       <c r="T7">
-        <v>1774</v>
+        <v>2120</v>
       </c>
       <c r="U7">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="V7">
-        <v>1541</v>
+        <v>1805</v>
       </c>
       <c r="W7">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="X7">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="Y7">
-        <v>1863</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B8">
-        <v>395424</v>
+        <v>555697</v>
       </c>
       <c r="C8">
-        <v>68050</v>
+        <v>102729</v>
       </c>
       <c r="D8">
-        <v>955924</v>
+        <v>1320086</v>
       </c>
       <c r="E8">
-        <v>364078</v>
+        <v>527687</v>
       </c>
       <c r="F8">
-        <v>200146</v>
+        <v>358530</v>
       </c>
       <c r="G8">
-        <v>1520148</v>
+        <v>2206303</v>
       </c>
       <c r="H8">
-        <v>9564</v>
+        <v>11487</v>
       </c>
       <c r="I8">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="J8">
-        <v>7594</v>
+        <v>9435</v>
       </c>
       <c r="K8">
-        <v>1055</v>
+        <v>1499</v>
       </c>
       <c r="L8">
-        <v>955</v>
+        <v>2066</v>
       </c>
       <c r="M8">
-        <v>9604</v>
+        <v>13000</v>
       </c>
       <c r="N8">
-        <v>1368</v>
+        <v>1557</v>
       </c>
       <c r="O8">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P8">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="Q8">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R8">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="S8">
-        <v>663</v>
+        <v>809</v>
       </c>
       <c r="T8">
-        <v>1443</v>
+        <v>1774</v>
       </c>
       <c r="U8">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="V8">
-        <v>1370</v>
+        <v>1541</v>
       </c>
       <c r="W8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X8">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="Y8">
-        <v>1606</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B9">
-        <v>251412</v>
+        <v>395424</v>
       </c>
       <c r="C9">
-        <v>34617</v>
+        <v>68050</v>
       </c>
       <c r="D9">
-        <v>547518</v>
+        <v>955924</v>
       </c>
       <c r="E9">
-        <v>195560</v>
+        <v>364078</v>
       </c>
       <c r="F9">
-        <v>79260</v>
+        <v>200146</v>
       </c>
       <c r="G9">
-        <v>822338</v>
+        <v>1520148</v>
       </c>
       <c r="H9">
-        <v>8278</v>
+        <v>9564</v>
       </c>
       <c r="I9">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="J9">
-        <v>6612</v>
+        <v>7594</v>
       </c>
       <c r="K9">
-        <v>905</v>
+        <v>1055</v>
       </c>
       <c r="L9">
-        <v>546</v>
+        <v>955</v>
       </c>
       <c r="M9">
-        <v>8063</v>
+        <v>9604</v>
       </c>
       <c r="N9">
-        <v>1202</v>
+        <v>1368</v>
       </c>
       <c r="O9">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P9">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="Q9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R9">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S9">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="T9">
-        <v>1170</v>
+        <v>1443</v>
       </c>
       <c r="U9">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V9">
-        <v>1298</v>
+        <v>1370</v>
       </c>
       <c r="W9">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X9">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Y9">
-        <v>1489</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B10">
-        <v>170551</v>
+        <v>251412</v>
       </c>
       <c r="C10">
-        <v>14491</v>
+        <v>34617</v>
       </c>
       <c r="D10">
-        <v>265724</v>
+        <v>547518</v>
       </c>
       <c r="E10">
-        <v>99757</v>
+        <v>195560</v>
       </c>
       <c r="F10">
-        <v>20375</v>
+        <v>79260</v>
       </c>
       <c r="G10">
-        <v>385856</v>
+        <v>822338</v>
       </c>
       <c r="H10">
-        <v>7059</v>
+        <v>8278</v>
       </c>
       <c r="I10">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J10">
-        <v>5927</v>
+        <v>6612</v>
       </c>
       <c r="K10">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="L10">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="M10">
-        <v>7229</v>
+        <v>8063</v>
       </c>
       <c r="N10">
-        <v>1036</v>
+        <v>1202</v>
       </c>
       <c r="O10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="Q10">
+        <v>72</v>
+      </c>
+      <c r="R10">
+        <v>46</v>
+      </c>
+      <c r="S10">
+        <v>614</v>
+      </c>
+      <c r="T10">
+        <v>1170</v>
+      </c>
+      <c r="U10">
         <v>89</v>
       </c>
-      <c r="R10">
-        <v>33</v>
-      </c>
-      <c r="S10">
-        <v>555</v>
-      </c>
-      <c r="T10">
-        <v>994</v>
-      </c>
-      <c r="U10">
-        <v>75</v>
-      </c>
       <c r="V10">
-        <v>1108</v>
+        <v>1298</v>
       </c>
       <c r="W10">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="X10">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Y10">
-        <v>1262</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B11">
-        <v>140677</v>
+        <v>170551</v>
       </c>
       <c r="C11">
-        <v>9069</v>
+        <v>14491</v>
       </c>
       <c r="D11">
-        <v>91366</v>
+        <v>265724</v>
       </c>
       <c r="E11">
-        <v>155978</v>
+        <v>99757</v>
       </c>
       <c r="F11">
-        <v>7655</v>
+        <v>20375</v>
       </c>
       <c r="G11">
-        <v>254999</v>
+        <v>385856</v>
       </c>
       <c r="H11">
-        <v>5944</v>
+        <v>7059</v>
       </c>
       <c r="I11">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J11">
-        <v>4047</v>
+        <v>5927</v>
       </c>
       <c r="K11">
-        <v>2065</v>
+        <v>934</v>
       </c>
       <c r="L11">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="M11">
-        <v>6384</v>
+        <v>7229</v>
       </c>
       <c r="N11">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="O11">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P11">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="Q11">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="R11">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S11">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="T11">
-        <v>839</v>
+        <v>994</v>
       </c>
       <c r="U11">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="V11">
-        <v>838</v>
+        <v>1108</v>
       </c>
       <c r="W11">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="X11">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Y11">
-        <v>1105</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B12">
-        <v>114674</v>
+        <v>140677</v>
       </c>
       <c r="C12">
-        <v>7107</v>
+        <v>9069</v>
       </c>
       <c r="D12">
-        <v>71563</v>
+        <v>91366</v>
       </c>
       <c r="E12">
-        <v>122505</v>
+        <v>155978</v>
       </c>
       <c r="F12">
-        <v>4219</v>
+        <v>7655</v>
       </c>
       <c r="G12">
-        <v>198287</v>
+        <v>254999</v>
       </c>
       <c r="H12">
-        <v>5081</v>
+        <v>5944</v>
       </c>
       <c r="I12">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="J12">
-        <v>3432</v>
+        <v>4047</v>
       </c>
       <c r="K12">
-        <v>1843</v>
+        <v>2065</v>
       </c>
       <c r="L12">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="M12">
-        <v>5451</v>
+        <v>6384</v>
       </c>
       <c r="N12">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="O12">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P12">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q12">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="R12">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S12">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="T12">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="U12">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V12">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="W12">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="X12">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Y12">
-        <v>991</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B13">
-        <v>93220</v>
+        <v>114674</v>
       </c>
       <c r="C13">
-        <v>6181</v>
+        <v>7107</v>
       </c>
       <c r="D13">
-        <v>57054</v>
+        <v>71563</v>
       </c>
       <c r="E13">
-        <v>102245</v>
+        <v>122505</v>
       </c>
       <c r="F13">
-        <v>2652</v>
+        <v>4219</v>
       </c>
       <c r="G13">
-        <v>161951</v>
+        <v>198287</v>
       </c>
       <c r="H13">
-        <v>4402</v>
+        <v>5081</v>
       </c>
       <c r="I13">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="J13">
-        <v>2916</v>
+        <v>3432</v>
       </c>
       <c r="K13">
-        <v>1616</v>
+        <v>1843</v>
       </c>
       <c r="L13">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="M13">
-        <v>4653</v>
+        <v>5451</v>
       </c>
       <c r="N13">
-        <v>618</v>
+        <v>747</v>
       </c>
       <c r="O13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P13">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q13">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S13">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="T13">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="U13">
+        <v>42</v>
+      </c>
+      <c r="V13">
+        <v>745</v>
+      </c>
+      <c r="W13">
+        <v>257</v>
+      </c>
+      <c r="X13">
         <v>29</v>
       </c>
-      <c r="V13">
-        <v>604</v>
-      </c>
-      <c r="W13">
-        <v>186</v>
-      </c>
-      <c r="X13">
-        <v>17</v>
-      </c>
       <c r="Y13">
-        <v>807</v>
+        <v>991</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B14">
-        <v>75512</v>
+        <v>93220</v>
       </c>
       <c r="C14">
-        <v>5587</v>
+        <v>6181</v>
       </c>
       <c r="D14">
-        <v>44023</v>
+        <v>57054</v>
       </c>
       <c r="E14">
-        <v>82755</v>
+        <v>102245</v>
       </c>
       <c r="F14">
-        <v>1710</v>
+        <v>2652</v>
       </c>
       <c r="G14">
-        <v>128488</v>
+        <v>161951</v>
       </c>
       <c r="H14">
-        <v>3733</v>
+        <v>4402</v>
       </c>
       <c r="I14">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J14">
-        <v>2336</v>
+        <v>2916</v>
       </c>
       <c r="K14">
-        <v>1435</v>
+        <v>1616</v>
       </c>
       <c r="L14">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M14">
-        <v>3845</v>
+        <v>4653</v>
       </c>
       <c r="N14">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="O14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P14">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q14">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="R14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S14">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="T14">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="U14">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V14">
-        <v>482</v>
+        <v>604</v>
       </c>
       <c r="W14">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="X14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y14">
-        <v>690</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B15">
-        <v>61908</v>
+        <v>75512</v>
       </c>
       <c r="C15">
-        <v>4260</v>
+        <v>5587</v>
       </c>
       <c r="D15">
-        <v>15519</v>
+        <v>44023</v>
       </c>
       <c r="E15">
-        <v>81740</v>
+        <v>82755</v>
       </c>
       <c r="F15">
-        <v>969</v>
+        <v>1710</v>
       </c>
       <c r="G15">
-        <v>98228</v>
+        <v>128488</v>
       </c>
       <c r="H15">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="I15">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J15">
-        <v>1187</v>
+        <v>2336</v>
       </c>
       <c r="K15">
-        <v>2437</v>
+        <v>1435</v>
       </c>
       <c r="L15">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M15">
-        <v>3693</v>
+        <v>3845</v>
       </c>
       <c r="N15">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="O15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P15">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="Q15">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="R15">
         <v>3</v>
       </c>
       <c r="S15">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="T15">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="U15">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="V15">
-        <v>191</v>
+        <v>482</v>
       </c>
       <c r="W15">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="X15">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Y15">
-        <v>555</v>
+        <v>690</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B16">
-        <v>50564</v>
+        <v>61908</v>
       </c>
       <c r="C16">
-        <v>3980</v>
+        <v>4260</v>
       </c>
       <c r="D16">
-        <v>11215</v>
+        <v>15519</v>
       </c>
       <c r="E16">
-        <v>60407</v>
+        <v>81740</v>
       </c>
       <c r="F16">
-        <v>537</v>
+        <v>969</v>
       </c>
       <c r="G16">
-        <v>72159</v>
+        <v>98228</v>
       </c>
       <c r="H16">
-        <v>3220</v>
+        <v>3737</v>
       </c>
       <c r="I16">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J16">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="K16">
-        <v>2075</v>
+        <v>2437</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M16">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="N16">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="O16">
         <v>14</v>
       </c>
       <c r="P16">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q16">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S16">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="T16">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="U16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V16">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="W16">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y16">
-        <v>444</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B17">
-        <v>40182</v>
+        <v>50564</v>
       </c>
       <c r="C17">
-        <v>3466</v>
+        <v>3980</v>
       </c>
       <c r="D17">
-        <v>8088</v>
+        <v>11215</v>
       </c>
       <c r="E17">
-        <v>43928</v>
+        <v>60407</v>
       </c>
       <c r="F17">
-        <v>286</v>
+        <v>537</v>
       </c>
       <c r="G17">
-        <v>52302</v>
+        <v>72159</v>
       </c>
       <c r="H17">
-        <v>2890</v>
+        <v>3220</v>
       </c>
       <c r="I17">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J17">
-        <v>618</v>
+        <v>826</v>
       </c>
       <c r="K17">
-        <v>1774</v>
+        <v>2075</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>2409</v>
+        <v>2936</v>
       </c>
       <c r="N17">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="O17">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P17">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q17">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="T17">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="U17">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V17">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="W17">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B18">
-        <v>35398</v>
+        <v>40182</v>
       </c>
       <c r="C18">
-        <v>3207</v>
+        <v>3466</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>43928</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G18">
-        <v>40991</v>
+        <v>52302</v>
       </c>
       <c r="H18">
-        <v>2696</v>
+        <v>2890</v>
       </c>
       <c r="I18">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>2037</v>
+        <v>2409</v>
       </c>
       <c r="N18">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="O18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="T18">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="U18">
         <v>27</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="X18">
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B19">
-        <v>34128</v>
+        <v>35398</v>
       </c>
       <c r="C19">
-        <v>3421</v>
+        <v>3207</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1883,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>34131</v>
+        <v>40991</v>
       </c>
       <c r="H19">
-        <v>2845</v>
+        <v>2696</v>
       </c>
       <c r="I19">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1815</v>
+        <v>2037</v>
       </c>
       <c r="N19">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="O19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1919,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="T19">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="U19">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -1937,18 +1937,18 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B20">
-        <v>36194</v>
+        <v>34128</v>
       </c>
       <c r="C20">
-        <v>4127</v>
+        <v>3421</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1960,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>31514</v>
+        <v>34131</v>
       </c>
       <c r="H20">
-        <v>3396</v>
+        <v>2845</v>
       </c>
       <c r="I20">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1978,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1954</v>
+        <v>1815</v>
       </c>
       <c r="N20">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="O20">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="T20">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="U20">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2014,18 +2014,18 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>511</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B21">
-        <v>45790</v>
+        <v>36194</v>
       </c>
       <c r="C21">
-        <v>5352</v>
+        <v>4127</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>33496</v>
+        <v>31514</v>
       </c>
       <c r="H21">
-        <v>4274</v>
+        <v>3396</v>
       </c>
       <c r="I21">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="N21">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="O21">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T21">
-        <v>775</v>
+        <v>636</v>
       </c>
       <c r="U21">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2091,18 +2091,18 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>578</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B22">
-        <v>56808</v>
+        <v>45790</v>
       </c>
       <c r="C22">
-        <v>6952</v>
+        <v>5352</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>36529</v>
+        <v>33496</v>
       </c>
       <c r="H22">
-        <v>5224</v>
+        <v>4274</v>
       </c>
       <c r="I22">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2268</v>
+        <v>2133</v>
       </c>
       <c r="N22">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="O22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2150,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="T22">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="U22">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2168,18 +2168,18 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B23">
-        <v>70900</v>
+        <v>56808</v>
       </c>
       <c r="C23">
-        <v>9284</v>
+        <v>6952</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2191,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>40060</v>
+        <v>36529</v>
       </c>
       <c r="H23">
-        <v>6160</v>
+        <v>5224</v>
       </c>
       <c r="I23">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2418</v>
+        <v>2268</v>
       </c>
       <c r="N23">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="O23">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T23">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="U23">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2245,18 +2245,18 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B24">
-        <v>86133</v>
+        <v>70900</v>
       </c>
       <c r="C24">
-        <v>11735</v>
+        <v>9284</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>44050</v>
+        <v>40060</v>
       </c>
       <c r="H24">
-        <v>6782</v>
+        <v>6160</v>
       </c>
       <c r="I24">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2456</v>
+        <v>2418</v>
       </c>
       <c r="N24">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="O24">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T24">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="U24">
         <v>57</v>
@@ -2322,18 +2322,18 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>509</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B25">
-        <v>96900</v>
+        <v>86133</v>
       </c>
       <c r="C25">
-        <v>13728</v>
+        <v>11735</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>44990</v>
+        <v>44050</v>
       </c>
       <c r="H25">
-        <v>6841</v>
+        <v>6782</v>
       </c>
       <c r="I25">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2331</v>
+        <v>2456</v>
       </c>
       <c r="N25">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="O25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="T25">
-        <v>770</v>
+        <v>877</v>
       </c>
       <c r="U25">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2399,18 +2399,18 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>405</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B26">
-        <v>104890</v>
+        <v>96900</v>
       </c>
       <c r="C26">
-        <v>16129</v>
+        <v>13728</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>43775</v>
+        <v>44990</v>
       </c>
       <c r="H26">
-        <v>6579</v>
+        <v>6841</v>
       </c>
       <c r="I26">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>2118</v>
+        <v>2331</v>
       </c>
       <c r="N26">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="O26">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T26">
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="U26">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2476,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>280</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B27">
-        <v>107937</v>
+        <v>104890</v>
       </c>
       <c r="C27">
-        <v>18925</v>
+        <v>16129</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>40380</v>
+        <v>43775</v>
       </c>
       <c r="H27">
-        <v>5988</v>
+        <v>6579</v>
       </c>
       <c r="I27">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1788</v>
+        <v>2118</v>
       </c>
       <c r="N27">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="O27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="T27">
-        <v>383</v>
+        <v>571</v>
       </c>
       <c r="U27">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2553,18 +2553,18 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B28">
-        <v>104405</v>
+        <v>107937</v>
       </c>
       <c r="C28">
-        <v>21703</v>
+        <v>18925</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>33894</v>
+        <v>40380</v>
       </c>
       <c r="H28">
-        <v>5162</v>
+        <v>5988</v>
       </c>
       <c r="I28">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>1349</v>
+        <v>1788</v>
       </c>
       <c r="N28">
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="O28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="T28">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="U28">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2630,18 +2630,18 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>92</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B29">
-        <v>95261</v>
+        <v>104405</v>
       </c>
       <c r="C29">
-        <v>22568</v>
+        <v>21703</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>24978</v>
+        <v>33894</v>
       </c>
       <c r="H29">
-        <v>4052</v>
+        <v>5162</v>
       </c>
       <c r="I29">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>959</v>
+        <v>1349</v>
       </c>
       <c r="N29">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="O29">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="T29">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="U29">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2707,18 +2707,18 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B30">
-        <v>80585</v>
+        <v>95261</v>
       </c>
       <c r="C30">
-        <v>21570</v>
+        <v>22568</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>18887</v>
+        <v>24978</v>
       </c>
       <c r="H30">
-        <v>3067</v>
+        <v>4052</v>
       </c>
       <c r="I30">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2748,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>627</v>
+        <v>959</v>
       </c>
       <c r="N30">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="O30">
         <v>22</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="T30">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="U30">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2784,18 +2784,18 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B31">
-        <v>60267</v>
+        <v>80585</v>
       </c>
       <c r="C31">
-        <v>17420</v>
+        <v>21570</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>12333</v>
+        <v>18887</v>
       </c>
       <c r="H31">
-        <v>2234</v>
+        <v>3067</v>
       </c>
       <c r="I31">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="N31">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="O31">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="T31">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="U31">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2866,13 +2866,13 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B32">
-        <v>40729</v>
+        <v>60267</v>
       </c>
       <c r="C32">
-        <v>12032</v>
+        <v>17420</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2884,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>7277</v>
+        <v>12333</v>
       </c>
       <c r="H32">
-        <v>1619</v>
+        <v>2234</v>
       </c>
       <c r="I32">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="N32">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="O32">
         <v>11</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T32">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="U32">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2938,18 +2938,18 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B33">
-        <v>26284</v>
+        <v>40729</v>
       </c>
       <c r="C33">
-        <v>6813</v>
+        <v>12032</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>3805</v>
+        <v>7277</v>
       </c>
       <c r="H33">
-        <v>1483</v>
+        <v>1619</v>
       </c>
       <c r="I33">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2979,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="N33">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O33">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T33">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="U33">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3015,83 +3015,160 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B34">
+        <v>26284</v>
+      </c>
+      <c r="C34">
+        <v>6813</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>3805</v>
+      </c>
+      <c r="H34">
+        <v>1483</v>
+      </c>
+      <c r="I34">
+        <v>199</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>224</v>
+      </c>
+      <c r="N34">
+        <v>117</v>
+      </c>
+      <c r="O34">
+        <v>14</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>8</v>
+      </c>
+      <c r="T34">
+        <v>250</v>
+      </c>
+      <c r="U34">
+        <v>47</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="2">
         <v>44391</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>21089</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>3954</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>2310</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>1880</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <v>240</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>240</v>
       </c>
-      <c r="N34">
+      <c r="N35">
         <v>147</v>
       </c>
-      <c r="O34">
+      <c r="O35">
         <v>20</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
         <v>7</v>
       </c>
-      <c r="T34">
+      <c r="T35">
         <v>357</v>
       </c>
-      <c r="U34">
+      <c r="U35">
         <v>72</v>
       </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
         <v>68</v>
       </c>
     </row>
@@ -3102,7 +3179,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3169,1016 +3246,1016 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B2">
-        <v>5229604</v>
+        <v>5053954</v>
       </c>
       <c r="C2">
-        <v>1618481</v>
+        <v>1597892</v>
       </c>
       <c r="D2">
-        <v>12157100</v>
+        <v>10021741</v>
       </c>
       <c r="E2">
-        <v>5375529</v>
+        <v>4762640</v>
       </c>
       <c r="F2">
-        <v>29629231</v>
+        <v>32573718</v>
       </c>
       <c r="G2">
-        <v>47161860</v>
+        <v>47358099</v>
       </c>
       <c r="H2">
-        <v>5758356</v>
+        <v>5465398</v>
       </c>
       <c r="I2">
-        <v>1551283</v>
+        <v>1580627</v>
       </c>
       <c r="J2">
-        <v>17157160</v>
+        <v>14572377</v>
       </c>
       <c r="K2">
-        <v>7035796</v>
+        <v>6176719</v>
       </c>
       <c r="L2">
-        <v>22507350</v>
+        <v>26214824</v>
       </c>
       <c r="M2">
-        <v>46700306</v>
+        <v>46963920</v>
       </c>
       <c r="N2">
-        <v>5927007</v>
+        <v>5755897</v>
       </c>
       <c r="O2">
-        <v>1592113</v>
+        <v>1547981</v>
       </c>
       <c r="P2">
-        <v>18793468</v>
+        <v>17157988</v>
       </c>
       <c r="Q2">
-        <v>8015572</v>
+        <v>7039120</v>
       </c>
       <c r="R2">
-        <v>19681785</v>
+        <v>22508959</v>
       </c>
       <c r="S2">
-        <v>46490825</v>
+        <v>46706067</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B3">
-        <v>5467098</v>
+        <v>5229604</v>
       </c>
       <c r="C3">
-        <v>1596811</v>
+        <v>1618481</v>
       </c>
       <c r="D3">
-        <v>14575900</v>
+        <v>12157100</v>
       </c>
       <c r="E3">
-        <v>6164226</v>
+        <v>5375529</v>
       </c>
       <c r="F3">
-        <v>26205910</v>
+        <v>29629231</v>
       </c>
       <c r="G3">
-        <v>46946036</v>
+        <v>47161860</v>
       </c>
       <c r="H3">
-        <v>5926909</v>
+        <v>5758356</v>
       </c>
       <c r="I3">
-        <v>1597860</v>
+        <v>1551283</v>
       </c>
       <c r="J3">
-        <v>18796851</v>
+        <v>17157160</v>
       </c>
       <c r="K3">
-        <v>8012376</v>
+        <v>7035796</v>
       </c>
       <c r="L3">
-        <v>19675949</v>
+        <v>22507350</v>
       </c>
       <c r="M3">
-        <v>46485176</v>
+        <v>46700306</v>
       </c>
       <c r="N3">
-        <v>6040050</v>
+        <v>5927007</v>
       </c>
       <c r="O3">
-        <v>1652417</v>
+        <v>1592113</v>
       </c>
       <c r="P3">
-        <v>20133986</v>
+        <v>18793468</v>
       </c>
       <c r="Q3">
-        <v>9055320</v>
+        <v>8015572</v>
       </c>
       <c r="R3">
-        <v>17128172</v>
+        <v>19681785</v>
       </c>
       <c r="S3">
-        <v>46317478</v>
+        <v>46490825</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B4">
-        <v>5610741</v>
+        <v>5467098</v>
       </c>
       <c r="C4">
-        <v>1575333</v>
+        <v>1596811</v>
       </c>
       <c r="D4">
-        <v>17279465</v>
+        <v>14575900</v>
       </c>
       <c r="E4">
-        <v>7025036</v>
+        <v>6164226</v>
       </c>
       <c r="F4">
-        <v>22519370</v>
+        <v>26205910</v>
       </c>
       <c r="G4">
-        <v>46823871</v>
+        <v>46946036</v>
       </c>
       <c r="H4">
-        <v>5893661</v>
+        <v>5926909</v>
       </c>
       <c r="I4">
-        <v>1663892</v>
+        <v>1597860</v>
       </c>
       <c r="J4">
-        <v>20257123</v>
+        <v>18796851</v>
       </c>
       <c r="K4">
-        <v>9057038</v>
+        <v>8012376</v>
       </c>
       <c r="L4">
-        <v>17138231</v>
+        <v>19675949</v>
       </c>
       <c r="M4">
-        <v>46452392</v>
+        <v>46485176</v>
       </c>
       <c r="N4">
-        <v>6038487</v>
+        <v>6040050</v>
       </c>
       <c r="O4">
-        <v>1684410</v>
+        <v>1652417</v>
       </c>
       <c r="P4">
-        <v>22158953</v>
+        <v>20133986</v>
       </c>
       <c r="Q4">
-        <v>9853675</v>
+        <v>9055320</v>
       </c>
       <c r="R4">
-        <v>14274420</v>
+        <v>17128172</v>
       </c>
       <c r="S4">
-        <v>46287048</v>
+        <v>46317478</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B5">
-        <v>5925943</v>
+        <v>5610741</v>
       </c>
       <c r="C5">
-        <v>1616298</v>
+        <v>1575333</v>
       </c>
       <c r="D5">
-        <v>18801609</v>
+        <v>17279465</v>
       </c>
       <c r="E5">
-        <v>7998741</v>
+        <v>7025036</v>
       </c>
       <c r="F5">
-        <v>19667354</v>
+        <v>22519370</v>
       </c>
       <c r="G5">
-        <v>46467704</v>
+        <v>46823871</v>
       </c>
       <c r="H5">
-        <v>6182863</v>
+        <v>5893661</v>
       </c>
       <c r="I5">
-        <v>1687002</v>
+        <v>1663892</v>
       </c>
       <c r="J5">
-        <v>22039408</v>
+        <v>20257123</v>
       </c>
       <c r="K5">
-        <v>9839532</v>
+        <v>9057038</v>
       </c>
       <c r="L5">
-        <v>14261140</v>
+        <v>17138231</v>
       </c>
       <c r="M5">
-        <v>46140080</v>
+        <v>46452392</v>
       </c>
       <c r="N5">
-        <v>6392072</v>
+        <v>6038487</v>
       </c>
       <c r="O5">
-        <v>1641693</v>
+        <v>1684410</v>
       </c>
       <c r="P5">
-        <v>24567729</v>
+        <v>22158953</v>
       </c>
       <c r="Q5">
-        <v>10413190</v>
+        <v>9853675</v>
       </c>
       <c r="R5">
-        <v>10995261</v>
+        <v>14274420</v>
       </c>
       <c r="S5">
-        <v>45976180</v>
+        <v>46287048</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B6">
-        <v>6113428</v>
+        <v>5925943</v>
       </c>
       <c r="C6">
-        <v>1676275</v>
+        <v>1616298</v>
       </c>
       <c r="D6">
-        <v>20106983</v>
+        <v>18801609</v>
       </c>
       <c r="E6">
-        <v>9023286</v>
+        <v>7998741</v>
       </c>
       <c r="F6">
-        <v>17089973</v>
+        <v>19667354</v>
       </c>
       <c r="G6">
-        <v>46220242</v>
+        <v>46467704</v>
       </c>
       <c r="H6">
-        <v>6466161</v>
+        <v>6182863</v>
       </c>
       <c r="I6">
-        <v>1644869</v>
+        <v>1687002</v>
       </c>
       <c r="J6">
-        <v>24530417</v>
+        <v>22039408</v>
       </c>
       <c r="K6">
-        <v>10394218</v>
+        <v>9839532</v>
       </c>
       <c r="L6">
-        <v>10974280</v>
+        <v>14261140</v>
       </c>
       <c r="M6">
-        <v>45898915</v>
+        <v>46140080</v>
       </c>
       <c r="N6">
-        <v>6710026</v>
+        <v>6392072</v>
       </c>
       <c r="O6">
-        <v>1549282</v>
+        <v>1641693</v>
       </c>
       <c r="P6">
-        <v>25990113</v>
+        <v>24567729</v>
       </c>
       <c r="Q6">
-        <v>11656265</v>
+        <v>10413190</v>
       </c>
       <c r="R6">
-        <v>8104259</v>
+        <v>10995261</v>
       </c>
       <c r="S6">
-        <v>45750637</v>
+        <v>45976180</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B7">
-        <v>6194434</v>
+        <v>6113428</v>
       </c>
       <c r="C7">
-        <v>1720841</v>
+        <v>1676275</v>
       </c>
       <c r="D7">
-        <v>22048677</v>
+        <v>20106983</v>
       </c>
       <c r="E7">
-        <v>9810639</v>
+        <v>9023286</v>
       </c>
       <c r="F7">
-        <v>14235354</v>
+        <v>17089973</v>
       </c>
       <c r="G7">
-        <v>46094670</v>
+        <v>46220242</v>
       </c>
       <c r="H7">
-        <v>6647970</v>
+        <v>6466161</v>
       </c>
       <c r="I7">
-        <v>1566179</v>
+        <v>1644869</v>
       </c>
       <c r="J7">
-        <v>26028307</v>
+        <v>24530417</v>
       </c>
       <c r="K7">
-        <v>11660101</v>
+        <v>10394218</v>
       </c>
       <c r="L7">
-        <v>8107388</v>
+        <v>10974280</v>
       </c>
       <c r="M7">
-        <v>45795796</v>
+        <v>45898915</v>
       </c>
       <c r="N7">
-        <v>6862315</v>
+        <v>6710026</v>
       </c>
       <c r="O7">
-        <v>1493790</v>
+        <v>1549282</v>
       </c>
       <c r="P7">
-        <v>26357835</v>
+        <v>25990113</v>
       </c>
       <c r="Q7">
-        <v>13596764</v>
+        <v>11656265</v>
       </c>
       <c r="R7">
-        <v>5699241</v>
+        <v>8104259</v>
       </c>
       <c r="S7">
-        <v>45653840</v>
+        <v>45750637</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B8">
-        <v>6414467</v>
+        <v>6194434</v>
       </c>
       <c r="C8">
-        <v>1678301</v>
+        <v>1720841</v>
       </c>
       <c r="D8">
-        <v>24562863</v>
+        <v>22048677</v>
       </c>
       <c r="E8">
-        <v>10381759</v>
+        <v>9810639</v>
       </c>
       <c r="F8">
-        <v>10972555</v>
+        <v>14235354</v>
       </c>
       <c r="G8">
-        <v>45917177</v>
+        <v>46094670</v>
       </c>
       <c r="H8">
-        <v>6876688</v>
+        <v>6647970</v>
       </c>
       <c r="I8">
-        <v>1504168</v>
+        <v>1566179</v>
       </c>
       <c r="J8">
-        <v>26348254</v>
+        <v>26028307</v>
       </c>
       <c r="K8">
-        <v>13585896</v>
+        <v>11660101</v>
       </c>
       <c r="L8">
-        <v>5694939</v>
+        <v>8107388</v>
       </c>
       <c r="M8">
-        <v>45629089</v>
+        <v>45795796</v>
       </c>
       <c r="N8">
-        <v>7031651</v>
+        <v>6862315</v>
       </c>
       <c r="O8">
-        <v>1502381</v>
+        <v>1493790</v>
       </c>
       <c r="P8">
-        <v>13119984</v>
+        <v>26357835</v>
       </c>
       <c r="Q8">
-        <v>28222661</v>
+        <v>13596764</v>
       </c>
       <c r="R8">
-        <v>4133267</v>
+        <v>5699241</v>
       </c>
       <c r="S8">
-        <v>45475912</v>
+        <v>45653840</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B9">
-        <v>6660263</v>
+        <v>6414467</v>
       </c>
       <c r="C9">
-        <v>1578764</v>
+        <v>1678301</v>
       </c>
       <c r="D9">
-        <v>26019483</v>
+        <v>24562863</v>
       </c>
       <c r="E9">
-        <v>11648617</v>
+        <v>10381759</v>
       </c>
       <c r="F9">
-        <v>8102818</v>
+        <v>10972555</v>
       </c>
       <c r="G9">
-        <v>45770918</v>
+        <v>45917177</v>
       </c>
       <c r="H9">
+        <v>6876688</v>
+      </c>
+      <c r="I9">
+        <v>1504168</v>
+      </c>
+      <c r="J9">
+        <v>26348254</v>
+      </c>
+      <c r="K9">
+        <v>13585896</v>
+      </c>
+      <c r="L9">
+        <v>5694939</v>
+      </c>
+      <c r="M9">
+        <v>45629089</v>
+      </c>
+      <c r="N9">
         <v>7031651</v>
       </c>
-      <c r="I9">
+      <c r="O9">
         <v>1502381</v>
       </c>
-      <c r="J9">
+      <c r="P9">
         <v>13119984</v>
       </c>
-      <c r="K9">
+      <c r="Q9">
         <v>28222661</v>
       </c>
-      <c r="L9">
+      <c r="R9">
         <v>4133267</v>
       </c>
-      <c r="M9">
+      <c r="S9">
         <v>45475912</v>
-      </c>
-      <c r="N9">
-        <v>7160934</v>
-      </c>
-      <c r="O9">
-        <v>1577260</v>
-      </c>
-      <c r="P9">
-        <v>12254673</v>
-      </c>
-      <c r="Q9">
-        <v>29956598</v>
-      </c>
-      <c r="R9">
-        <v>3060479</v>
-      </c>
-      <c r="S9">
-        <v>45271750</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B10">
-        <v>6876688</v>
+        <v>6660263</v>
       </c>
       <c r="C10">
-        <v>1504168</v>
+        <v>1578764</v>
       </c>
       <c r="D10">
-        <v>26348254</v>
+        <v>26019483</v>
       </c>
       <c r="E10">
-        <v>13585896</v>
+        <v>11648617</v>
       </c>
       <c r="F10">
-        <v>5694939</v>
+        <v>8102818</v>
       </c>
       <c r="G10">
-        <v>45629089</v>
+        <v>45770918</v>
       </c>
       <c r="H10">
+        <v>7031651</v>
+      </c>
+      <c r="I10">
+        <v>1502381</v>
+      </c>
+      <c r="J10">
+        <v>13119984</v>
+      </c>
+      <c r="K10">
+        <v>28222661</v>
+      </c>
+      <c r="L10">
+        <v>4133267</v>
+      </c>
+      <c r="M10">
+        <v>45475912</v>
+      </c>
+      <c r="N10">
         <v>7160934</v>
       </c>
-      <c r="I10">
+      <c r="O10">
         <v>1577260</v>
       </c>
-      <c r="J10">
+      <c r="P10">
         <v>12254673</v>
       </c>
-      <c r="K10">
+      <c r="Q10">
         <v>29956598</v>
       </c>
-      <c r="L10">
+      <c r="R10">
         <v>3060479</v>
       </c>
-      <c r="M10">
+      <c r="S10">
         <v>45271750</v>
-      </c>
-      <c r="N10">
-        <v>7291722</v>
-      </c>
-      <c r="O10">
-        <v>1749607</v>
-      </c>
-      <c r="P10">
-        <v>11949919</v>
-      </c>
-      <c r="Q10">
-        <v>30829431</v>
-      </c>
-      <c r="R10">
-        <v>2189265</v>
-      </c>
-      <c r="S10">
-        <v>44968615</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B11">
-        <v>7031651</v>
+        <v>6876688</v>
       </c>
       <c r="C11">
-        <v>1502381</v>
+        <v>1504168</v>
       </c>
       <c r="D11">
-        <v>13119984</v>
+        <v>26348254</v>
       </c>
       <c r="E11">
-        <v>28222661</v>
+        <v>13585896</v>
       </c>
       <c r="F11">
-        <v>4133267</v>
+        <v>5694939</v>
       </c>
       <c r="G11">
-        <v>45475912</v>
+        <v>45629089</v>
       </c>
       <c r="H11">
+        <v>7160934</v>
+      </c>
+      <c r="I11">
+        <v>1577260</v>
+      </c>
+      <c r="J11">
+        <v>12254673</v>
+      </c>
+      <c r="K11">
+        <v>29956598</v>
+      </c>
+      <c r="L11">
+        <v>3060479</v>
+      </c>
+      <c r="M11">
+        <v>45271750</v>
+      </c>
+      <c r="N11">
         <v>7291722</v>
       </c>
-      <c r="I11">
+      <c r="O11">
         <v>1749607</v>
       </c>
-      <c r="J11">
+      <c r="P11">
         <v>11949919</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <v>30829431</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <v>2189265</v>
       </c>
-      <c r="M11">
+      <c r="S11">
         <v>44968615</v>
-      </c>
-      <c r="N11">
-        <v>7404599</v>
-      </c>
-      <c r="O11">
-        <v>1981131</v>
-      </c>
-      <c r="P11">
-        <v>11407859</v>
-      </c>
-      <c r="Q11">
-        <v>31622279</v>
-      </c>
-      <c r="R11">
-        <v>1594076</v>
-      </c>
-      <c r="S11">
-        <v>44624214</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B12">
-        <v>7160934</v>
+        <v>7031651</v>
       </c>
       <c r="C12">
-        <v>1577260</v>
+        <v>1502381</v>
       </c>
       <c r="D12">
-        <v>12254673</v>
+        <v>13119984</v>
       </c>
       <c r="E12">
-        <v>29956598</v>
+        <v>28222661</v>
       </c>
       <c r="F12">
-        <v>3060479</v>
+        <v>4133267</v>
       </c>
       <c r="G12">
-        <v>45271750</v>
+        <v>45475912</v>
       </c>
       <c r="H12">
+        <v>7291722</v>
+      </c>
+      <c r="I12">
+        <v>1749607</v>
+      </c>
+      <c r="J12">
+        <v>11949919</v>
+      </c>
+      <c r="K12">
+        <v>30829431</v>
+      </c>
+      <c r="L12">
+        <v>2189265</v>
+      </c>
+      <c r="M12">
+        <v>44968615</v>
+      </c>
+      <c r="N12">
         <v>7404599</v>
       </c>
-      <c r="I12">
+      <c r="O12">
         <v>1981131</v>
       </c>
-      <c r="J12">
+      <c r="P12">
         <v>11407859</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <v>31622279</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <v>1594076</v>
       </c>
-      <c r="M12">
+      <c r="S12">
         <v>44624214</v>
-      </c>
-      <c r="N12">
-        <v>7586013</v>
-      </c>
-      <c r="O12">
-        <v>2222672</v>
-      </c>
-      <c r="P12">
-        <v>4526706</v>
-      </c>
-      <c r="Q12">
-        <v>38658546</v>
-      </c>
-      <c r="R12">
-        <v>1016007</v>
-      </c>
-      <c r="S12">
-        <v>44201259</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B13">
-        <v>7291722</v>
+        <v>7160934</v>
       </c>
       <c r="C13">
-        <v>1749607</v>
+        <v>1577260</v>
       </c>
       <c r="D13">
-        <v>11949919</v>
+        <v>12254673</v>
       </c>
       <c r="E13">
-        <v>30829431</v>
+        <v>29956598</v>
       </c>
       <c r="F13">
-        <v>2189265</v>
+        <v>3060479</v>
       </c>
       <c r="G13">
-        <v>44968615</v>
+        <v>45271750</v>
       </c>
       <c r="H13">
+        <v>7404599</v>
+      </c>
+      <c r="I13">
+        <v>1981131</v>
+      </c>
+      <c r="J13">
+        <v>11407859</v>
+      </c>
+      <c r="K13">
+        <v>31622279</v>
+      </c>
+      <c r="L13">
+        <v>1594076</v>
+      </c>
+      <c r="M13">
+        <v>44624214</v>
+      </c>
+      <c r="N13">
         <v>7586013</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>2222672</v>
       </c>
-      <c r="J13">
+      <c r="P13">
         <v>4526706</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <v>38658546</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <v>1016007</v>
       </c>
-      <c r="M13">
+      <c r="S13">
         <v>44201259</v>
-      </c>
-      <c r="N13">
-        <v>7862567</v>
-      </c>
-      <c r="O13">
-        <v>2422756</v>
-      </c>
-      <c r="P13">
-        <v>4186423</v>
-      </c>
-      <c r="Q13">
-        <v>38968164</v>
-      </c>
-      <c r="R13">
-        <v>570032</v>
-      </c>
-      <c r="S13">
-        <v>43724619</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B14">
-        <v>7404599</v>
+        <v>7291722</v>
       </c>
       <c r="C14">
-        <v>1981131</v>
+        <v>1749607</v>
       </c>
       <c r="D14">
-        <v>11407859</v>
+        <v>11949919</v>
       </c>
       <c r="E14">
-        <v>31622279</v>
+        <v>30829431</v>
       </c>
       <c r="F14">
-        <v>1594076</v>
+        <v>2189265</v>
       </c>
       <c r="G14">
-        <v>44624214</v>
+        <v>44968615</v>
       </c>
       <c r="H14">
+        <v>7586013</v>
+      </c>
+      <c r="I14">
+        <v>2222672</v>
+      </c>
+      <c r="J14">
+        <v>4526706</v>
+      </c>
+      <c r="K14">
+        <v>38658546</v>
+      </c>
+      <c r="L14">
+        <v>1016007</v>
+      </c>
+      <c r="M14">
+        <v>44201259</v>
+      </c>
+      <c r="N14">
         <v>7862567</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>2422756</v>
       </c>
-      <c r="J14">
+      <c r="P14">
         <v>4186423</v>
       </c>
-      <c r="K14">
+      <c r="Q14">
         <v>38968164</v>
       </c>
-      <c r="L14">
+      <c r="R14">
         <v>570032</v>
       </c>
-      <c r="M14">
+      <c r="S14">
         <v>43724619</v>
-      </c>
-      <c r="N14">
-        <v>8302865</v>
-      </c>
-      <c r="O14">
-        <v>2538614</v>
-      </c>
-      <c r="P14">
-        <v>3884826</v>
-      </c>
-      <c r="Q14">
-        <v>38988918</v>
-      </c>
-      <c r="R14">
-        <v>294719</v>
-      </c>
-      <c r="S14">
-        <v>43168463</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B15">
-        <v>7586013</v>
+        <v>7404599</v>
       </c>
       <c r="C15">
-        <v>2222672</v>
+        <v>1981131</v>
       </c>
       <c r="D15">
-        <v>4526706</v>
+        <v>11407859</v>
       </c>
       <c r="E15">
-        <v>38658546</v>
+        <v>31622279</v>
       </c>
       <c r="F15">
-        <v>1016007</v>
+        <v>1594076</v>
       </c>
       <c r="G15">
-        <v>44201259</v>
+        <v>44624214</v>
       </c>
       <c r="H15">
+        <v>7862567</v>
+      </c>
+      <c r="I15">
+        <v>2422756</v>
+      </c>
+      <c r="J15">
+        <v>4186423</v>
+      </c>
+      <c r="K15">
+        <v>38968164</v>
+      </c>
+      <c r="L15">
+        <v>570032</v>
+      </c>
+      <c r="M15">
+        <v>43724619</v>
+      </c>
+      <c r="N15">
         <v>8302865</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>2538614</v>
       </c>
-      <c r="J15">
+      <c r="P15">
         <v>3884826</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <v>38988918</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <v>294719</v>
       </c>
-      <c r="M15">
+      <c r="S15">
         <v>43168463</v>
-      </c>
-      <c r="N15">
-        <v>8683749</v>
-      </c>
-      <c r="O15">
-        <v>2653423</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>42672767</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B16">
-        <v>7862567</v>
+        <v>7586013</v>
       </c>
       <c r="C16">
-        <v>2422756</v>
+        <v>2222672</v>
       </c>
       <c r="D16">
-        <v>4186423</v>
+        <v>4526706</v>
       </c>
       <c r="E16">
-        <v>38968164</v>
+        <v>38658546</v>
       </c>
       <c r="F16">
-        <v>570032</v>
+        <v>1016007</v>
       </c>
       <c r="G16">
-        <v>43724619</v>
+        <v>44201259</v>
       </c>
       <c r="H16">
+        <v>8302865</v>
+      </c>
+      <c r="I16">
+        <v>2538614</v>
+      </c>
+      <c r="J16">
+        <v>3884826</v>
+      </c>
+      <c r="K16">
+        <v>38988918</v>
+      </c>
+      <c r="L16">
+        <v>294719</v>
+      </c>
+      <c r="M16">
+        <v>43168463</v>
+      </c>
+      <c r="N16">
         <v>8683749</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>2653423</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>42672767</v>
-      </c>
-      <c r="N16">
-        <v>9231487</v>
-      </c>
-      <c r="O16">
-        <v>2863195</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>41915257</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B17">
-        <v>8302865</v>
+        <v>7862567</v>
       </c>
       <c r="C17">
-        <v>2538614</v>
+        <v>2422756</v>
       </c>
       <c r="D17">
-        <v>3884826</v>
+        <v>4186423</v>
       </c>
       <c r="E17">
-        <v>38988918</v>
+        <v>38968164</v>
       </c>
       <c r="F17">
-        <v>294719</v>
+        <v>570032</v>
       </c>
       <c r="G17">
-        <v>43168463</v>
+        <v>43724619</v>
       </c>
       <c r="H17">
+        <v>8683749</v>
+      </c>
+      <c r="I17">
+        <v>2653423</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>42672767</v>
+      </c>
+      <c r="N17">
         <v>9231487</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>2863195</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>41915257</v>
-      </c>
-      <c r="N17">
-        <v>9829232</v>
-      </c>
-      <c r="O17">
-        <v>3259454</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>40921215</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B18">
-        <v>8683749</v>
+        <v>8302865</v>
       </c>
       <c r="C18">
-        <v>2653423</v>
+        <v>2538614</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3884826</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>38988918</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>294719</v>
       </c>
       <c r="G18">
-        <v>42672767</v>
+        <v>43168463</v>
       </c>
       <c r="H18">
+        <v>9231487</v>
+      </c>
+      <c r="I18">
+        <v>2863195</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>41915257</v>
+      </c>
+      <c r="N18">
         <v>9829232</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>3259454</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>40921215</v>
-      </c>
-      <c r="N18">
-        <v>10307179</v>
-      </c>
-      <c r="O18">
-        <v>3862335</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>39840387</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B19">
-        <v>9231487</v>
+        <v>8683749</v>
       </c>
       <c r="C19">
-        <v>2863195</v>
+        <v>2653423</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4190,54 +4267,54 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41915257</v>
+        <v>42672767</v>
       </c>
       <c r="H19">
+        <v>9829232</v>
+      </c>
+      <c r="I19">
+        <v>3259454</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>40921215</v>
+      </c>
+      <c r="N19">
         <v>10307179</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>3862335</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>39840387</v>
-      </c>
-      <c r="N19">
-        <v>10942694</v>
-      </c>
-      <c r="O19">
-        <v>4426185</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>38641022</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B20">
-        <v>9829232</v>
+        <v>9231487</v>
       </c>
       <c r="C20">
-        <v>3259454</v>
+        <v>2863195</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4249,54 +4326,54 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>40921215</v>
+        <v>41915257</v>
       </c>
       <c r="H20">
+        <v>10307179</v>
+      </c>
+      <c r="I20">
+        <v>3862335</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>39840387</v>
+      </c>
+      <c r="N20">
         <v>10942694</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>4426185</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>38641022</v>
-      </c>
-      <c r="N20">
-        <v>11786620</v>
-      </c>
-      <c r="O20">
-        <v>4805486</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>37417795</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B21">
-        <v>10307179</v>
+        <v>9829232</v>
       </c>
       <c r="C21">
-        <v>3862335</v>
+        <v>3259454</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4308,54 +4385,54 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>39840387</v>
+        <v>40921215</v>
       </c>
       <c r="H21">
+        <v>10942694</v>
+      </c>
+      <c r="I21">
+        <v>4426185</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>38641022</v>
+      </c>
+      <c r="N21">
         <v>11786620</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>4805486</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>37417795</v>
-      </c>
-      <c r="N21">
-        <v>12581126</v>
-      </c>
-      <c r="O21">
-        <v>5096568</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>36332207</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B22">
-        <v>10942694</v>
+        <v>10307179</v>
       </c>
       <c r="C22">
-        <v>4426185</v>
+        <v>3862335</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4367,54 +4444,54 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>38641022</v>
+        <v>39840387</v>
       </c>
       <c r="H22">
+        <v>11786620</v>
+      </c>
+      <c r="I22">
+        <v>4805486</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>37417795</v>
+      </c>
+      <c r="N22">
         <v>12581126</v>
       </c>
-      <c r="I22">
+      <c r="O22">
         <v>5096568</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>36332207</v>
-      </c>
-      <c r="N22">
-        <v>13334156</v>
-      </c>
-      <c r="O22">
-        <v>5075930</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>35599815</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B23">
-        <v>11786620</v>
+        <v>10942694</v>
       </c>
       <c r="C23">
-        <v>4805486</v>
+        <v>4426185</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4426,54 +4503,54 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>37417795</v>
+        <v>38641022</v>
       </c>
       <c r="H23">
+        <v>12581126</v>
+      </c>
+      <c r="I23">
+        <v>5096568</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>36332207</v>
+      </c>
+      <c r="N23">
         <v>13334156</v>
       </c>
-      <c r="I23">
+      <c r="O23">
         <v>5075930</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>35599815</v>
-      </c>
-      <c r="N23">
-        <v>14507530</v>
-      </c>
-      <c r="O23">
-        <v>5210293</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>34292078</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B24">
-        <v>12581126</v>
+        <v>11786620</v>
       </c>
       <c r="C24">
-        <v>5096568</v>
+        <v>4805486</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4485,54 +4562,54 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>36332207</v>
+        <v>37417795</v>
       </c>
       <c r="H24">
+        <v>13334156</v>
+      </c>
+      <c r="I24">
+        <v>5075930</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>35599815</v>
+      </c>
+      <c r="N24">
         <v>14507530</v>
       </c>
-      <c r="I24">
+      <c r="O24">
         <v>5210293</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>34292078</v>
-      </c>
-      <c r="N24">
-        <v>15656647</v>
-      </c>
-      <c r="O24">
-        <v>6065610</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>32287644</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B25">
-        <v>13334156</v>
+        <v>12581126</v>
       </c>
       <c r="C25">
-        <v>5075930</v>
+        <v>5096568</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4544,54 +4621,54 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>35599815</v>
+        <v>36332207</v>
       </c>
       <c r="H25">
+        <v>14507530</v>
+      </c>
+      <c r="I25">
+        <v>5210293</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>34292078</v>
+      </c>
+      <c r="N25">
         <v>15656647</v>
       </c>
-      <c r="I25">
+      <c r="O25">
         <v>6065610</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>32287644</v>
-      </c>
-      <c r="N25">
-        <v>16708830</v>
-      </c>
-      <c r="O25">
-        <v>7672393</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>29628678</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B26">
-        <v>14507530</v>
+        <v>13334156</v>
       </c>
       <c r="C26">
-        <v>5210293</v>
+        <v>5075930</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4603,54 +4680,54 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>34292078</v>
+        <v>35599815</v>
       </c>
       <c r="H26">
+        <v>15656647</v>
+      </c>
+      <c r="I26">
+        <v>6065610</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>32287644</v>
+      </c>
+      <c r="N26">
         <v>16708830</v>
       </c>
-      <c r="I26">
+      <c r="O26">
         <v>7672393</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>29628678</v>
-      </c>
-      <c r="N26">
-        <v>17568325</v>
-      </c>
-      <c r="O26">
-        <v>9940124</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>26501452</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B27">
-        <v>15656647</v>
+        <v>14507530</v>
       </c>
       <c r="C27">
-        <v>6065610</v>
+        <v>5210293</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4662,54 +4739,54 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>32287644</v>
+        <v>34292078</v>
       </c>
       <c r="H27">
+        <v>16708830</v>
+      </c>
+      <c r="I27">
+        <v>7672393</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>29628678</v>
+      </c>
+      <c r="N27">
         <v>17568325</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>9940124</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>26501452</v>
-      </c>
-      <c r="N27">
-        <v>20322806</v>
-      </c>
-      <c r="O27">
-        <v>11341436</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>22345659</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B28">
-        <v>16708830</v>
+        <v>15656647</v>
       </c>
       <c r="C28">
-        <v>7672393</v>
+        <v>6065610</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4721,54 +4798,54 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>29628678</v>
+        <v>32287644</v>
       </c>
       <c r="H28">
+        <v>17568325</v>
+      </c>
+      <c r="I28">
+        <v>9940124</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>26501452</v>
+      </c>
+      <c r="N28">
         <v>20322806</v>
       </c>
-      <c r="I28">
+      <c r="O28">
         <v>11341436</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>22345659</v>
-      </c>
-      <c r="N28">
-        <v>21289761</v>
-      </c>
-      <c r="O28">
-        <v>13149676</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>19570464</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B29">
-        <v>17568325</v>
+        <v>16708830</v>
       </c>
       <c r="C29">
-        <v>9940124</v>
+        <v>7672393</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4780,54 +4857,54 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>26501452</v>
+        <v>29628678</v>
       </c>
       <c r="H29">
+        <v>20322806</v>
+      </c>
+      <c r="I29">
+        <v>11341436</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>22345659</v>
+      </c>
+      <c r="N29">
         <v>21289761</v>
       </c>
-      <c r="I29">
+      <c r="O29">
         <v>13149676</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>19570464</v>
-      </c>
-      <c r="N29">
-        <v>22879167</v>
-      </c>
-      <c r="O29">
-        <v>13741130</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>17389604</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B30">
-        <v>20322806</v>
+        <v>17568325</v>
       </c>
       <c r="C30">
-        <v>11341436</v>
+        <v>9940124</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4839,54 +4916,54 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>22345659</v>
+        <v>26501452</v>
       </c>
       <c r="H30">
+        <v>21289761</v>
+      </c>
+      <c r="I30">
+        <v>13149676</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>19570464</v>
+      </c>
+      <c r="N30">
         <v>22879167</v>
       </c>
-      <c r="I30">
+      <c r="O30">
         <v>13741130</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>17389604</v>
-      </c>
-      <c r="N30">
-        <v>24745853</v>
-      </c>
-      <c r="O30">
-        <v>13879852</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>15384196</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B31">
-        <v>21289761</v>
+        <v>20322806</v>
       </c>
       <c r="C31">
-        <v>13149676</v>
+        <v>11341436</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4898,54 +4975,54 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>19570464</v>
+        <v>22345659</v>
       </c>
       <c r="H31">
+        <v>22879167</v>
+      </c>
+      <c r="I31">
+        <v>13741130</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>17389604</v>
+      </c>
+      <c r="N31">
         <v>24745853</v>
       </c>
-      <c r="I31">
+      <c r="O31">
         <v>13879852</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <v>15384196</v>
-      </c>
-      <c r="N31">
-        <v>27065063</v>
-      </c>
-      <c r="O31">
-        <v>13015437</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>13929401</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B32">
-        <v>22879167</v>
+        <v>21289761</v>
       </c>
       <c r="C32">
-        <v>13741130</v>
+        <v>13149676</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4957,54 +5034,54 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>17389604</v>
+        <v>19570464</v>
       </c>
       <c r="H32">
+        <v>24745853</v>
+      </c>
+      <c r="I32">
+        <v>13879852</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>15384196</v>
+      </c>
+      <c r="N32">
         <v>27065063</v>
       </c>
-      <c r="I32">
+      <c r="O32">
         <v>13015437</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>13929401</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B33">
-        <v>24745853</v>
+        <v>22879167</v>
       </c>
       <c r="C33">
-        <v>13879852</v>
+        <v>13741130</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5016,13 +5093,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>15384196</v>
+        <v>17389604</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>27065063</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>13015437</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -5034,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>13929401</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -5057,60 +5134,119 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B34">
+        <v>24745853</v>
+      </c>
+      <c r="C34">
+        <v>13879852</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>15384196</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="2">
         <v>44391</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>27065063</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>13015437</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>13929401</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,1399 +556,1399 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B2">
-        <v>362240</v>
+        <v>263373</v>
       </c>
       <c r="C2">
-        <v>61074</v>
+        <v>44050</v>
       </c>
       <c r="D2">
-        <v>316885</v>
+        <v>195682</v>
       </c>
       <c r="E2">
-        <v>210897</v>
+        <v>147602</v>
       </c>
       <c r="F2">
-        <v>617287</v>
+        <v>569292</v>
       </c>
       <c r="G2">
-        <v>1145069</v>
+        <v>912576</v>
       </c>
       <c r="H2">
-        <v>11144</v>
+        <v>8894</v>
       </c>
       <c r="I2">
-        <v>1422</v>
+        <v>1220</v>
       </c>
       <c r="J2">
-        <v>9008</v>
+        <v>6443</v>
       </c>
       <c r="K2">
-        <v>2676</v>
+        <v>2105</v>
       </c>
       <c r="L2">
-        <v>12272</v>
+        <v>11808</v>
       </c>
       <c r="M2">
-        <v>23956</v>
+        <v>20356</v>
       </c>
       <c r="N2">
-        <v>941</v>
+        <v>720</v>
       </c>
       <c r="O2">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P2">
-        <v>470</v>
+        <v>319</v>
       </c>
       <c r="Q2">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="R2">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="S2">
-        <v>1134</v>
+        <v>950</v>
       </c>
       <c r="T2">
-        <v>3198</v>
+        <v>2655</v>
       </c>
       <c r="U2">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="V2">
-        <v>2507</v>
+        <v>2075</v>
       </c>
       <c r="W2">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="X2">
-        <v>2677</v>
+        <v>2613</v>
       </c>
       <c r="Y2">
-        <v>5521</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B3">
-        <v>503511</v>
+        <v>362240</v>
       </c>
       <c r="C3">
-        <v>81921</v>
+        <v>61074</v>
       </c>
       <c r="D3">
-        <v>543352</v>
+        <v>316885</v>
       </c>
       <c r="E3">
-        <v>313619</v>
+        <v>210897</v>
       </c>
       <c r="F3">
-        <v>682585</v>
+        <v>617287</v>
       </c>
       <c r="G3">
-        <v>1539556</v>
+        <v>1145069</v>
       </c>
       <c r="H3">
-        <v>13534</v>
+        <v>11144</v>
       </c>
       <c r="I3">
-        <v>1516</v>
+        <v>1422</v>
       </c>
       <c r="J3">
-        <v>11607</v>
+        <v>9008</v>
       </c>
       <c r="K3">
-        <v>3210</v>
+        <v>2676</v>
       </c>
       <c r="L3">
-        <v>12271</v>
+        <v>12272</v>
       </c>
       <c r="M3">
-        <v>27088</v>
+        <v>23956</v>
       </c>
       <c r="N3">
-        <v>1261</v>
+        <v>941</v>
       </c>
       <c r="O3">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P3">
-        <v>617</v>
+        <v>470</v>
       </c>
       <c r="Q3">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="R3">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="S3">
-        <v>1304</v>
+        <v>1134</v>
       </c>
       <c r="T3">
-        <v>3470</v>
+        <v>3198</v>
       </c>
       <c r="U3">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="V3">
-        <v>2795</v>
+        <v>2507</v>
       </c>
       <c r="W3">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="X3">
-        <v>2403</v>
+        <v>2677</v>
       </c>
       <c r="Y3">
-        <v>5527</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B4">
-        <v>642419</v>
+        <v>503511</v>
       </c>
       <c r="C4">
-        <v>102315</v>
+        <v>81921</v>
       </c>
       <c r="D4">
-        <v>848833</v>
+        <v>543352</v>
       </c>
       <c r="E4">
-        <v>439413</v>
+        <v>313619</v>
       </c>
       <c r="F4">
-        <v>717143</v>
+        <v>682585</v>
       </c>
       <c r="G4">
-        <v>2005389</v>
+        <v>1539556</v>
       </c>
       <c r="H4">
-        <v>15012</v>
+        <v>13534</v>
       </c>
       <c r="I4">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="J4">
-        <v>13660</v>
+        <v>11607</v>
       </c>
       <c r="K4">
-        <v>3480</v>
+        <v>3210</v>
       </c>
       <c r="L4">
-        <v>11075</v>
+        <v>12271</v>
       </c>
       <c r="M4">
-        <v>28215</v>
+        <v>27088</v>
       </c>
       <c r="N4">
-        <v>1524</v>
+        <v>1261</v>
       </c>
       <c r="O4">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P4">
-        <v>736</v>
+        <v>617</v>
       </c>
       <c r="Q4">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="R4">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="S4">
-        <v>1350</v>
+        <v>1304</v>
       </c>
       <c r="T4">
-        <v>3357</v>
+        <v>3470</v>
       </c>
       <c r="U4">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="V4">
-        <v>2757</v>
+        <v>2795</v>
       </c>
       <c r="W4">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="X4">
-        <v>1918</v>
+        <v>2403</v>
       </c>
       <c r="Y4">
-        <v>4952</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B5">
-        <v>777547</v>
+        <v>642419</v>
       </c>
       <c r="C5">
-        <v>127486</v>
+        <v>102315</v>
       </c>
       <c r="D5">
-        <v>1249396</v>
+        <v>848833</v>
       </c>
       <c r="E5">
-        <v>597335</v>
+        <v>439413</v>
       </c>
       <c r="F5">
-        <v>738378</v>
+        <v>717143</v>
       </c>
       <c r="G5">
-        <v>2585109</v>
+        <v>2005389</v>
       </c>
       <c r="H5">
-        <v>15695</v>
+        <v>15012</v>
       </c>
       <c r="I5">
-        <v>1437</v>
+        <v>1532</v>
       </c>
       <c r="J5">
-        <v>14598</v>
+        <v>13660</v>
       </c>
       <c r="K5">
-        <v>3426</v>
+        <v>3480</v>
       </c>
       <c r="L5">
-        <v>9017</v>
+        <v>11075</v>
       </c>
       <c r="M5">
-        <v>27041</v>
+        <v>28215</v>
       </c>
       <c r="N5">
-        <v>1716</v>
+        <v>1524</v>
       </c>
       <c r="O5">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P5">
-        <v>803</v>
+        <v>736</v>
       </c>
       <c r="Q5">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="R5">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="S5">
-        <v>1306</v>
+        <v>1350</v>
       </c>
       <c r="T5">
-        <v>3144</v>
+        <v>3357</v>
       </c>
       <c r="U5">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="V5">
-        <v>2508</v>
+        <v>2757</v>
       </c>
       <c r="W5">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="X5">
-        <v>1331</v>
+        <v>1918</v>
       </c>
       <c r="Y5">
-        <v>4071</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B6">
-        <v>809625</v>
+        <v>777547</v>
       </c>
       <c r="C6">
-        <v>137850</v>
+        <v>127486</v>
       </c>
       <c r="D6">
-        <v>1532777</v>
+        <v>1249396</v>
       </c>
       <c r="E6">
-        <v>687597</v>
+        <v>597335</v>
       </c>
       <c r="F6">
-        <v>672910</v>
+        <v>738378</v>
       </c>
       <c r="G6">
-        <v>2893284</v>
+        <v>2585109</v>
       </c>
       <c r="H6">
-        <v>15049</v>
+        <v>15695</v>
       </c>
       <c r="I6">
-        <v>1240</v>
+        <v>1437</v>
       </c>
       <c r="J6">
-        <v>13663</v>
+        <v>14598</v>
       </c>
       <c r="K6">
-        <v>2915</v>
+        <v>3426</v>
       </c>
       <c r="L6">
-        <v>6606</v>
+        <v>9017</v>
       </c>
       <c r="M6">
-        <v>23184</v>
+        <v>27041</v>
       </c>
       <c r="N6">
-        <v>1792</v>
+        <v>1716</v>
       </c>
       <c r="O6">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P6">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="Q6">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="R6">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="S6">
-        <v>1166</v>
+        <v>1306</v>
       </c>
       <c r="T6">
-        <v>2632</v>
+        <v>3144</v>
       </c>
       <c r="U6">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="V6">
-        <v>2172</v>
+        <v>2508</v>
       </c>
       <c r="W6">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="X6">
-        <v>814</v>
+        <v>1331</v>
       </c>
       <c r="Y6">
-        <v>3168</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B7">
-        <v>703732</v>
+        <v>809625</v>
       </c>
       <c r="C7">
-        <v>127478</v>
+        <v>137850</v>
       </c>
       <c r="D7">
-        <v>1544092</v>
+        <v>1532777</v>
       </c>
       <c r="E7">
-        <v>640805</v>
+        <v>687597</v>
       </c>
       <c r="F7">
-        <v>521657</v>
+        <v>672910</v>
       </c>
       <c r="G7">
-        <v>2706554</v>
+        <v>2893284</v>
       </c>
       <c r="H7">
-        <v>13946</v>
+        <v>15049</v>
       </c>
       <c r="I7">
-        <v>989</v>
+        <v>1240</v>
       </c>
       <c r="J7">
-        <v>11934</v>
+        <v>13663</v>
       </c>
       <c r="K7">
-        <v>2225</v>
+        <v>2915</v>
       </c>
       <c r="L7">
-        <v>4177</v>
+        <v>6606</v>
       </c>
       <c r="M7">
-        <v>18336</v>
+        <v>23184</v>
       </c>
       <c r="N7">
-        <v>1753</v>
+        <v>1792</v>
       </c>
       <c r="O7">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P7">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="Q7">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="R7">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="S7">
-        <v>1014</v>
+        <v>1166</v>
       </c>
       <c r="T7">
-        <v>2120</v>
+        <v>2632</v>
       </c>
       <c r="U7">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="V7">
-        <v>1805</v>
+        <v>2172</v>
       </c>
       <c r="W7">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="X7">
-        <v>432</v>
+        <v>814</v>
       </c>
       <c r="Y7">
-        <v>2375</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B8">
-        <v>555697</v>
+        <v>703732</v>
       </c>
       <c r="C8">
-        <v>102729</v>
+        <v>127478</v>
       </c>
       <c r="D8">
-        <v>1320086</v>
+        <v>1544092</v>
       </c>
       <c r="E8">
-        <v>527687</v>
+        <v>640805</v>
       </c>
       <c r="F8">
-        <v>358530</v>
+        <v>521657</v>
       </c>
       <c r="G8">
-        <v>2206303</v>
+        <v>2706554</v>
       </c>
       <c r="H8">
-        <v>11487</v>
+        <v>13946</v>
       </c>
       <c r="I8">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="J8">
-        <v>9435</v>
+        <v>11934</v>
       </c>
       <c r="K8">
-        <v>1499</v>
+        <v>2225</v>
       </c>
       <c r="L8">
-        <v>2066</v>
+        <v>4177</v>
       </c>
       <c r="M8">
-        <v>13000</v>
+        <v>18336</v>
       </c>
       <c r="N8">
-        <v>1557</v>
+        <v>1753</v>
       </c>
       <c r="O8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P8">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="Q8">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R8">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="S8">
-        <v>809</v>
+        <v>1014</v>
       </c>
       <c r="T8">
-        <v>1774</v>
+        <v>2120</v>
       </c>
       <c r="U8">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="V8">
-        <v>1541</v>
+        <v>1805</v>
       </c>
       <c r="W8">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="X8">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="Y8">
-        <v>1863</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B9">
-        <v>395424</v>
+        <v>555697</v>
       </c>
       <c r="C9">
-        <v>68050</v>
+        <v>102729</v>
       </c>
       <c r="D9">
-        <v>955924</v>
+        <v>1320086</v>
       </c>
       <c r="E9">
-        <v>364078</v>
+        <v>527687</v>
       </c>
       <c r="F9">
-        <v>200146</v>
+        <v>358530</v>
       </c>
       <c r="G9">
-        <v>1520148</v>
+        <v>2206303</v>
       </c>
       <c r="H9">
-        <v>9564</v>
+        <v>11487</v>
       </c>
       <c r="I9">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="J9">
-        <v>7594</v>
+        <v>9435</v>
       </c>
       <c r="K9">
-        <v>1055</v>
+        <v>1499</v>
       </c>
       <c r="L9">
-        <v>955</v>
+        <v>2066</v>
       </c>
       <c r="M9">
-        <v>9604</v>
+        <v>13000</v>
       </c>
       <c r="N9">
-        <v>1368</v>
+        <v>1557</v>
       </c>
       <c r="O9">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P9">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="Q9">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R9">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="S9">
-        <v>663</v>
+        <v>809</v>
       </c>
       <c r="T9">
-        <v>1443</v>
+        <v>1774</v>
       </c>
       <c r="U9">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="V9">
-        <v>1370</v>
+        <v>1541</v>
       </c>
       <c r="W9">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X9">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="Y9">
-        <v>1606</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B10">
-        <v>251412</v>
+        <v>395424</v>
       </c>
       <c r="C10">
-        <v>34617</v>
+        <v>68050</v>
       </c>
       <c r="D10">
-        <v>547518</v>
+        <v>955924</v>
       </c>
       <c r="E10">
-        <v>195560</v>
+        <v>364078</v>
       </c>
       <c r="F10">
-        <v>79260</v>
+        <v>200146</v>
       </c>
       <c r="G10">
-        <v>822338</v>
+        <v>1520148</v>
       </c>
       <c r="H10">
-        <v>8278</v>
+        <v>9564</v>
       </c>
       <c r="I10">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="J10">
-        <v>6612</v>
+        <v>7594</v>
       </c>
       <c r="K10">
-        <v>905</v>
+        <v>1055</v>
       </c>
       <c r="L10">
-        <v>546</v>
+        <v>955</v>
       </c>
       <c r="M10">
-        <v>8063</v>
+        <v>9604</v>
       </c>
       <c r="N10">
-        <v>1202</v>
+        <v>1368</v>
       </c>
       <c r="O10">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P10">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="Q10">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R10">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S10">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="T10">
-        <v>1170</v>
+        <v>1443</v>
       </c>
       <c r="U10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V10">
-        <v>1298</v>
+        <v>1370</v>
       </c>
       <c r="W10">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X10">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Y10">
-        <v>1489</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B11">
-        <v>170551</v>
+        <v>251412</v>
       </c>
       <c r="C11">
-        <v>14491</v>
+        <v>34617</v>
       </c>
       <c r="D11">
-        <v>265724</v>
+        <v>547518</v>
       </c>
       <c r="E11">
-        <v>99757</v>
+        <v>195560</v>
       </c>
       <c r="F11">
-        <v>20375</v>
+        <v>79260</v>
       </c>
       <c r="G11">
-        <v>385856</v>
+        <v>822338</v>
       </c>
       <c r="H11">
-        <v>7059</v>
+        <v>8278</v>
       </c>
       <c r="I11">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J11">
-        <v>5927</v>
+        <v>6612</v>
       </c>
       <c r="K11">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="L11">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="M11">
-        <v>7229</v>
+        <v>8063</v>
       </c>
       <c r="N11">
-        <v>1036</v>
+        <v>1202</v>
       </c>
       <c r="O11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="Q11">
+        <v>72</v>
+      </c>
+      <c r="R11">
+        <v>46</v>
+      </c>
+      <c r="S11">
+        <v>614</v>
+      </c>
+      <c r="T11">
+        <v>1170</v>
+      </c>
+      <c r="U11">
         <v>89</v>
       </c>
-      <c r="R11">
-        <v>33</v>
-      </c>
-      <c r="S11">
-        <v>555</v>
-      </c>
-      <c r="T11">
-        <v>994</v>
-      </c>
-      <c r="U11">
-        <v>75</v>
-      </c>
       <c r="V11">
-        <v>1108</v>
+        <v>1298</v>
       </c>
       <c r="W11">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="X11">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Y11">
-        <v>1262</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B12">
-        <v>140677</v>
+        <v>170551</v>
       </c>
       <c r="C12">
-        <v>9069</v>
+        <v>14491</v>
       </c>
       <c r="D12">
-        <v>91366</v>
+        <v>265724</v>
       </c>
       <c r="E12">
-        <v>155978</v>
+        <v>99757</v>
       </c>
       <c r="F12">
-        <v>7655</v>
+        <v>20375</v>
       </c>
       <c r="G12">
-        <v>254999</v>
+        <v>385856</v>
       </c>
       <c r="H12">
-        <v>5944</v>
+        <v>7059</v>
       </c>
       <c r="I12">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J12">
-        <v>4047</v>
+        <v>5927</v>
       </c>
       <c r="K12">
-        <v>2065</v>
+        <v>934</v>
       </c>
       <c r="L12">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="M12">
-        <v>6384</v>
+        <v>7229</v>
       </c>
       <c r="N12">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="O12">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P12">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="Q12">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="R12">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S12">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="T12">
-        <v>839</v>
+        <v>994</v>
       </c>
       <c r="U12">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="V12">
-        <v>838</v>
+        <v>1108</v>
       </c>
       <c r="W12">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="X12">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Y12">
-        <v>1105</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B13">
-        <v>114674</v>
+        <v>140677</v>
       </c>
       <c r="C13">
-        <v>7107</v>
+        <v>9069</v>
       </c>
       <c r="D13">
-        <v>71563</v>
+        <v>91366</v>
       </c>
       <c r="E13">
-        <v>122505</v>
+        <v>155978</v>
       </c>
       <c r="F13">
-        <v>4219</v>
+        <v>7655</v>
       </c>
       <c r="G13">
-        <v>198287</v>
+        <v>254999</v>
       </c>
       <c r="H13">
-        <v>5081</v>
+        <v>5944</v>
       </c>
       <c r="I13">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="J13">
-        <v>3432</v>
+        <v>4047</v>
       </c>
       <c r="K13">
-        <v>1843</v>
+        <v>2065</v>
       </c>
       <c r="L13">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="M13">
-        <v>5451</v>
+        <v>6384</v>
       </c>
       <c r="N13">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="O13">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P13">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q13">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="R13">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S13">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="T13">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="U13">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V13">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="W13">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="X13">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Y13">
-        <v>991</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B14">
-        <v>93220</v>
+        <v>114674</v>
       </c>
       <c r="C14">
-        <v>6181</v>
+        <v>7107</v>
       </c>
       <c r="D14">
-        <v>57054</v>
+        <v>71563</v>
       </c>
       <c r="E14">
-        <v>102245</v>
+        <v>122505</v>
       </c>
       <c r="F14">
-        <v>2652</v>
+        <v>4219</v>
       </c>
       <c r="G14">
-        <v>161951</v>
+        <v>198287</v>
       </c>
       <c r="H14">
-        <v>4402</v>
+        <v>5081</v>
       </c>
       <c r="I14">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="J14">
-        <v>2916</v>
+        <v>3432</v>
       </c>
       <c r="K14">
-        <v>1616</v>
+        <v>1843</v>
       </c>
       <c r="L14">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="M14">
-        <v>4653</v>
+        <v>5451</v>
       </c>
       <c r="N14">
-        <v>618</v>
+        <v>747</v>
       </c>
       <c r="O14">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P14">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q14">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S14">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="T14">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="U14">
+        <v>42</v>
+      </c>
+      <c r="V14">
+        <v>745</v>
+      </c>
+      <c r="W14">
+        <v>257</v>
+      </c>
+      <c r="X14">
         <v>29</v>
       </c>
-      <c r="V14">
-        <v>604</v>
-      </c>
-      <c r="W14">
-        <v>186</v>
-      </c>
-      <c r="X14">
-        <v>17</v>
-      </c>
       <c r="Y14">
-        <v>807</v>
+        <v>991</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B15">
-        <v>75512</v>
+        <v>93220</v>
       </c>
       <c r="C15">
-        <v>5587</v>
+        <v>6181</v>
       </c>
       <c r="D15">
-        <v>44023</v>
+        <v>57054</v>
       </c>
       <c r="E15">
-        <v>82755</v>
+        <v>102245</v>
       </c>
       <c r="F15">
-        <v>1710</v>
+        <v>2652</v>
       </c>
       <c r="G15">
-        <v>128488</v>
+        <v>161951</v>
       </c>
       <c r="H15">
-        <v>3733</v>
+        <v>4402</v>
       </c>
       <c r="I15">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J15">
-        <v>2336</v>
+        <v>2916</v>
       </c>
       <c r="K15">
-        <v>1435</v>
+        <v>1616</v>
       </c>
       <c r="L15">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M15">
-        <v>3845</v>
+        <v>4653</v>
       </c>
       <c r="N15">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="O15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P15">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q15">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S15">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="T15">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="U15">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V15">
-        <v>482</v>
+        <v>604</v>
       </c>
       <c r="W15">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="X15">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y15">
-        <v>690</v>
+        <v>807</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B16">
-        <v>61908</v>
+        <v>75512</v>
       </c>
       <c r="C16">
-        <v>4260</v>
+        <v>5587</v>
       </c>
       <c r="D16">
-        <v>15519</v>
+        <v>44023</v>
       </c>
       <c r="E16">
-        <v>81740</v>
+        <v>82755</v>
       </c>
       <c r="F16">
-        <v>969</v>
+        <v>1710</v>
       </c>
       <c r="G16">
-        <v>98228</v>
+        <v>128488</v>
       </c>
       <c r="H16">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="I16">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J16">
-        <v>1187</v>
+        <v>2336</v>
       </c>
       <c r="K16">
-        <v>2437</v>
+        <v>1435</v>
       </c>
       <c r="L16">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M16">
-        <v>3693</v>
+        <v>3845</v>
       </c>
       <c r="N16">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="O16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P16">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="Q16">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="R16">
         <v>3</v>
       </c>
       <c r="S16">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="T16">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="U16">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="V16">
-        <v>191</v>
+        <v>482</v>
       </c>
       <c r="W16">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="X16">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Y16">
-        <v>555</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B17">
-        <v>50564</v>
+        <v>61908</v>
       </c>
       <c r="C17">
-        <v>3980</v>
+        <v>4260</v>
       </c>
       <c r="D17">
-        <v>11215</v>
+        <v>15519</v>
       </c>
       <c r="E17">
-        <v>60407</v>
+        <v>81740</v>
       </c>
       <c r="F17">
-        <v>537</v>
+        <v>969</v>
       </c>
       <c r="G17">
-        <v>72159</v>
+        <v>98228</v>
       </c>
       <c r="H17">
-        <v>3220</v>
+        <v>3737</v>
       </c>
       <c r="I17">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J17">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="K17">
-        <v>2075</v>
+        <v>2437</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M17">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="N17">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="O17">
         <v>14</v>
       </c>
       <c r="P17">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q17">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S17">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="T17">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="U17">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V17">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="W17">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y17">
-        <v>444</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B18">
-        <v>40182</v>
+        <v>50564</v>
       </c>
       <c r="C18">
-        <v>3466</v>
+        <v>3980</v>
       </c>
       <c r="D18">
-        <v>8088</v>
+        <v>11215</v>
       </c>
       <c r="E18">
-        <v>43928</v>
+        <v>60407</v>
       </c>
       <c r="F18">
-        <v>286</v>
+        <v>537</v>
       </c>
       <c r="G18">
-        <v>52302</v>
+        <v>72159</v>
       </c>
       <c r="H18">
-        <v>2890</v>
+        <v>3220</v>
       </c>
       <c r="I18">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J18">
-        <v>618</v>
+        <v>826</v>
       </c>
       <c r="K18">
-        <v>1774</v>
+        <v>2075</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>2409</v>
+        <v>2936</v>
       </c>
       <c r="N18">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="O18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P18">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q18">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="T18">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="U18">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V18">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="W18">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="X18">
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B19">
-        <v>35398</v>
+        <v>40182</v>
       </c>
       <c r="C19">
-        <v>3207</v>
+        <v>3466</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>43928</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G19">
-        <v>40991</v>
+        <v>52302</v>
       </c>
       <c r="H19">
-        <v>2696</v>
+        <v>2890</v>
       </c>
       <c r="I19">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>2037</v>
+        <v>2409</v>
       </c>
       <c r="N19">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="O19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="T19">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="U19">
         <v>27</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B20">
-        <v>34128</v>
+        <v>35398</v>
       </c>
       <c r="C20">
-        <v>3421</v>
+        <v>3207</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1960,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>34131</v>
+        <v>40991</v>
       </c>
       <c r="H20">
-        <v>2845</v>
+        <v>2696</v>
       </c>
       <c r="I20">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1978,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1815</v>
+        <v>2037</v>
       </c>
       <c r="N20">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="O20">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="T20">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="U20">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2014,18 +2014,18 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B21">
-        <v>36194</v>
+        <v>34128</v>
       </c>
       <c r="C21">
-        <v>4127</v>
+        <v>3421</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>31514</v>
+        <v>34131</v>
       </c>
       <c r="H21">
-        <v>3396</v>
+        <v>2845</v>
       </c>
       <c r="I21">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1954</v>
+        <v>1815</v>
       </c>
       <c r="N21">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="O21">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="T21">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="U21">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2091,18 +2091,18 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>511</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B22">
-        <v>45790</v>
+        <v>36194</v>
       </c>
       <c r="C22">
-        <v>5352</v>
+        <v>4127</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>33496</v>
+        <v>31514</v>
       </c>
       <c r="H22">
-        <v>4274</v>
+        <v>3396</v>
       </c>
       <c r="I22">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="N22">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="O22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2150,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T22">
-        <v>775</v>
+        <v>636</v>
       </c>
       <c r="U22">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2168,18 +2168,18 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>578</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B23">
-        <v>56808</v>
+        <v>45790</v>
       </c>
       <c r="C23">
-        <v>6952</v>
+        <v>5352</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2191,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>36529</v>
+        <v>33496</v>
       </c>
       <c r="H23">
-        <v>5224</v>
+        <v>4274</v>
       </c>
       <c r="I23">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2268</v>
+        <v>2133</v>
       </c>
       <c r="N23">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="O23">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="T23">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="U23">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2245,18 +2245,18 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B24">
-        <v>70900</v>
+        <v>56808</v>
       </c>
       <c r="C24">
-        <v>9284</v>
+        <v>6952</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>40060</v>
+        <v>36529</v>
       </c>
       <c r="H24">
-        <v>6160</v>
+        <v>5224</v>
       </c>
       <c r="I24">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2418</v>
+        <v>2268</v>
       </c>
       <c r="N24">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="O24">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2304,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T24">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="U24">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2322,18 +2322,18 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B25">
-        <v>86133</v>
+        <v>70900</v>
       </c>
       <c r="C25">
-        <v>11735</v>
+        <v>9284</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>44050</v>
+        <v>40060</v>
       </c>
       <c r="H25">
-        <v>6782</v>
+        <v>6160</v>
       </c>
       <c r="I25">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2456</v>
+        <v>2418</v>
       </c>
       <c r="N25">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="O25">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T25">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="U25">
         <v>57</v>
@@ -2399,18 +2399,18 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>509</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B26">
-        <v>96900</v>
+        <v>86133</v>
       </c>
       <c r="C26">
-        <v>13728</v>
+        <v>11735</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>44990</v>
+        <v>44050</v>
       </c>
       <c r="H26">
-        <v>6841</v>
+        <v>6782</v>
       </c>
       <c r="I26">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>2331</v>
+        <v>2456</v>
       </c>
       <c r="N26">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="O26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="T26">
-        <v>770</v>
+        <v>877</v>
       </c>
       <c r="U26">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2476,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>405</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B27">
-        <v>104890</v>
+        <v>96900</v>
       </c>
       <c r="C27">
-        <v>16129</v>
+        <v>13728</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>43775</v>
+        <v>44990</v>
       </c>
       <c r="H27">
-        <v>6579</v>
+        <v>6841</v>
       </c>
       <c r="I27">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>2118</v>
+        <v>2331</v>
       </c>
       <c r="N27">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="O27">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T27">
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="U27">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2553,18 +2553,18 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>280</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B28">
-        <v>107937</v>
+        <v>104890</v>
       </c>
       <c r="C28">
-        <v>18925</v>
+        <v>16129</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>40380</v>
+        <v>43775</v>
       </c>
       <c r="H28">
-        <v>5988</v>
+        <v>6579</v>
       </c>
       <c r="I28">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>1788</v>
+        <v>2118</v>
       </c>
       <c r="N28">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="O28">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="T28">
-        <v>383</v>
+        <v>571</v>
       </c>
       <c r="U28">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2630,18 +2630,18 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B29">
-        <v>104405</v>
+        <v>107937</v>
       </c>
       <c r="C29">
-        <v>21703</v>
+        <v>18925</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>33894</v>
+        <v>40380</v>
       </c>
       <c r="H29">
-        <v>5162</v>
+        <v>5988</v>
       </c>
       <c r="I29">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1349</v>
+        <v>1788</v>
       </c>
       <c r="N29">
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="O29">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="T29">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="U29">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2707,18 +2707,18 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>92</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B30">
-        <v>95261</v>
+        <v>104405</v>
       </c>
       <c r="C30">
-        <v>22568</v>
+        <v>21703</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>24978</v>
+        <v>33894</v>
       </c>
       <c r="H30">
-        <v>4052</v>
+        <v>5162</v>
       </c>
       <c r="I30">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>959</v>
+        <v>1349</v>
       </c>
       <c r="N30">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="O30">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="T30">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="U30">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2784,18 +2784,18 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B31">
-        <v>80585</v>
+        <v>95261</v>
       </c>
       <c r="C31">
-        <v>21570</v>
+        <v>22568</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>18887</v>
+        <v>24978</v>
       </c>
       <c r="H31">
-        <v>3067</v>
+        <v>4052</v>
       </c>
       <c r="I31">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>627</v>
+        <v>959</v>
       </c>
       <c r="N31">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="O31">
         <v>22</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="T31">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="U31">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2861,18 +2861,18 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B32">
-        <v>60267</v>
+        <v>80585</v>
       </c>
       <c r="C32">
-        <v>17420</v>
+        <v>21570</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2884,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>12333</v>
+        <v>18887</v>
       </c>
       <c r="H32">
-        <v>2234</v>
+        <v>3067</v>
       </c>
       <c r="I32">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="N32">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="O32">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="T32">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="U32">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2943,13 +2943,13 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B33">
-        <v>40729</v>
+        <v>60267</v>
       </c>
       <c r="C33">
-        <v>12032</v>
+        <v>17420</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>7277</v>
+        <v>12333</v>
       </c>
       <c r="H33">
-        <v>1619</v>
+        <v>2234</v>
       </c>
       <c r="I33">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2979,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="N33">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="O33">
         <v>11</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T33">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="U33">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3015,18 +3015,18 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B34">
-        <v>26284</v>
+        <v>40729</v>
       </c>
       <c r="C34">
-        <v>6813</v>
+        <v>12032</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>3805</v>
+        <v>7277</v>
       </c>
       <c r="H34">
-        <v>1483</v>
+        <v>1619</v>
       </c>
       <c r="I34">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3056,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="N34">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O34">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T34">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="U34">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3092,83 +3092,160 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B35">
+        <v>26284</v>
+      </c>
+      <c r="C35">
+        <v>6813</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>3805</v>
+      </c>
+      <c r="H35">
+        <v>1483</v>
+      </c>
+      <c r="I35">
+        <v>199</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>224</v>
+      </c>
+      <c r="N35">
+        <v>117</v>
+      </c>
+      <c r="O35">
+        <v>14</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>8</v>
+      </c>
+      <c r="T35">
+        <v>250</v>
+      </c>
+      <c r="U35">
+        <v>47</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="2">
         <v>44391</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>21089</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>3954</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>2310</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>1880</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <v>240</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
         <v>240</v>
       </c>
-      <c r="N35">
+      <c r="N36">
         <v>147</v>
       </c>
-      <c r="O35">
+      <c r="O36">
         <v>20</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
         <v>7</v>
       </c>
-      <c r="T35">
+      <c r="T36">
         <v>357</v>
       </c>
-      <c r="U35">
+      <c r="U36">
         <v>72</v>
       </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
         <v>68</v>
       </c>
     </row>
@@ -3179,7 +3256,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3246,1075 +3323,1075 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B2">
-        <v>5053954</v>
+        <v>4922246</v>
       </c>
       <c r="C2">
-        <v>1597892</v>
+        <v>1504174</v>
       </c>
       <c r="D2">
-        <v>10021741</v>
+        <v>8369206</v>
       </c>
       <c r="E2">
-        <v>4762640</v>
+        <v>4462914</v>
       </c>
       <c r="F2">
-        <v>32573718</v>
+        <v>34751405</v>
       </c>
       <c r="G2">
-        <v>47358099</v>
+        <v>47583525</v>
       </c>
       <c r="H2">
-        <v>5465398</v>
+        <v>5237693</v>
       </c>
       <c r="I2">
-        <v>1580627</v>
+        <v>1603693</v>
       </c>
       <c r="J2">
-        <v>14572377</v>
+        <v>12148624</v>
       </c>
       <c r="K2">
-        <v>6176719</v>
+        <v>5387344</v>
       </c>
       <c r="L2">
-        <v>26214824</v>
+        <v>29632591</v>
       </c>
       <c r="M2">
-        <v>46963920</v>
+        <v>47168559</v>
       </c>
       <c r="N2">
-        <v>5755897</v>
+        <v>5475882</v>
       </c>
       <c r="O2">
-        <v>1547981</v>
+        <v>1574138</v>
       </c>
       <c r="P2">
-        <v>17157988</v>
+        <v>14562981</v>
       </c>
       <c r="Q2">
-        <v>7039120</v>
+        <v>6180953</v>
       </c>
       <c r="R2">
-        <v>22508959</v>
+        <v>26215991</v>
       </c>
       <c r="S2">
-        <v>46706067</v>
+        <v>46959925</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B3">
-        <v>5229604</v>
+        <v>5053954</v>
       </c>
       <c r="C3">
-        <v>1618481</v>
+        <v>1597892</v>
       </c>
       <c r="D3">
-        <v>12157100</v>
+        <v>10021741</v>
       </c>
       <c r="E3">
-        <v>5375529</v>
+        <v>4762640</v>
       </c>
       <c r="F3">
-        <v>29629231</v>
+        <v>32573718</v>
       </c>
       <c r="G3">
-        <v>47161860</v>
+        <v>47358099</v>
       </c>
       <c r="H3">
-        <v>5758356</v>
+        <v>5465398</v>
       </c>
       <c r="I3">
-        <v>1551283</v>
+        <v>1580627</v>
       </c>
       <c r="J3">
-        <v>17157160</v>
+        <v>14572377</v>
       </c>
       <c r="K3">
-        <v>7035796</v>
+        <v>6176719</v>
       </c>
       <c r="L3">
-        <v>22507350</v>
+        <v>26214824</v>
       </c>
       <c r="M3">
-        <v>46700306</v>
+        <v>46963920</v>
       </c>
       <c r="N3">
-        <v>5927007</v>
+        <v>5755897</v>
       </c>
       <c r="O3">
-        <v>1592113</v>
+        <v>1547981</v>
       </c>
       <c r="P3">
-        <v>18793468</v>
+        <v>17157988</v>
       </c>
       <c r="Q3">
-        <v>8015572</v>
+        <v>7039120</v>
       </c>
       <c r="R3">
-        <v>19681785</v>
+        <v>22508959</v>
       </c>
       <c r="S3">
-        <v>46490825</v>
+        <v>46706067</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B4">
-        <v>5467098</v>
+        <v>5229604</v>
       </c>
       <c r="C4">
-        <v>1596811</v>
+        <v>1618481</v>
       </c>
       <c r="D4">
-        <v>14575900</v>
+        <v>12157100</v>
       </c>
       <c r="E4">
-        <v>6164226</v>
+        <v>5375529</v>
       </c>
       <c r="F4">
-        <v>26205910</v>
+        <v>29629231</v>
       </c>
       <c r="G4">
-        <v>46946036</v>
+        <v>47161860</v>
       </c>
       <c r="H4">
-        <v>5926909</v>
+        <v>5758356</v>
       </c>
       <c r="I4">
-        <v>1597860</v>
+        <v>1551283</v>
       </c>
       <c r="J4">
-        <v>18796851</v>
+        <v>17157160</v>
       </c>
       <c r="K4">
-        <v>8012376</v>
+        <v>7035796</v>
       </c>
       <c r="L4">
-        <v>19675949</v>
+        <v>22507350</v>
       </c>
       <c r="M4">
-        <v>46485176</v>
+        <v>46700306</v>
       </c>
       <c r="N4">
-        <v>6040050</v>
+        <v>5927007</v>
       </c>
       <c r="O4">
-        <v>1652417</v>
+        <v>1592113</v>
       </c>
       <c r="P4">
-        <v>20133986</v>
+        <v>18793468</v>
       </c>
       <c r="Q4">
-        <v>9055320</v>
+        <v>8015572</v>
       </c>
       <c r="R4">
-        <v>17128172</v>
+        <v>19681785</v>
       </c>
       <c r="S4">
-        <v>46317478</v>
+        <v>46490825</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B5">
-        <v>5610741</v>
+        <v>5467098</v>
       </c>
       <c r="C5">
-        <v>1575333</v>
+        <v>1596811</v>
       </c>
       <c r="D5">
-        <v>17279465</v>
+        <v>14575900</v>
       </c>
       <c r="E5">
-        <v>7025036</v>
+        <v>6164226</v>
       </c>
       <c r="F5">
-        <v>22519370</v>
+        <v>26205910</v>
       </c>
       <c r="G5">
-        <v>46823871</v>
+        <v>46946036</v>
       </c>
       <c r="H5">
-        <v>5893661</v>
+        <v>5926909</v>
       </c>
       <c r="I5">
-        <v>1663892</v>
+        <v>1597860</v>
       </c>
       <c r="J5">
-        <v>20257123</v>
+        <v>18796851</v>
       </c>
       <c r="K5">
-        <v>9057038</v>
+        <v>8012376</v>
       </c>
       <c r="L5">
-        <v>17138231</v>
+        <v>19675949</v>
       </c>
       <c r="M5">
-        <v>46452392</v>
+        <v>46485176</v>
       </c>
       <c r="N5">
-        <v>6038487</v>
+        <v>6040050</v>
       </c>
       <c r="O5">
-        <v>1684410</v>
+        <v>1652417</v>
       </c>
       <c r="P5">
-        <v>22158953</v>
+        <v>20133986</v>
       </c>
       <c r="Q5">
-        <v>9853675</v>
+        <v>9055320</v>
       </c>
       <c r="R5">
-        <v>14274420</v>
+        <v>17128172</v>
       </c>
       <c r="S5">
-        <v>46287048</v>
+        <v>46317478</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B6">
-        <v>5925943</v>
+        <v>5610741</v>
       </c>
       <c r="C6">
-        <v>1616298</v>
+        <v>1575333</v>
       </c>
       <c r="D6">
-        <v>18801609</v>
+        <v>17279465</v>
       </c>
       <c r="E6">
-        <v>7998741</v>
+        <v>7025036</v>
       </c>
       <c r="F6">
-        <v>19667354</v>
+        <v>22519370</v>
       </c>
       <c r="G6">
-        <v>46467704</v>
+        <v>46823871</v>
       </c>
       <c r="H6">
-        <v>6182863</v>
+        <v>5893661</v>
       </c>
       <c r="I6">
-        <v>1687002</v>
+        <v>1663892</v>
       </c>
       <c r="J6">
-        <v>22039408</v>
+        <v>20257123</v>
       </c>
       <c r="K6">
-        <v>9839532</v>
+        <v>9057038</v>
       </c>
       <c r="L6">
-        <v>14261140</v>
+        <v>17138231</v>
       </c>
       <c r="M6">
-        <v>46140080</v>
+        <v>46452392</v>
       </c>
       <c r="N6">
-        <v>6392072</v>
+        <v>6038487</v>
       </c>
       <c r="O6">
-        <v>1641693</v>
+        <v>1684410</v>
       </c>
       <c r="P6">
-        <v>24567729</v>
+        <v>22158953</v>
       </c>
       <c r="Q6">
-        <v>10413190</v>
+        <v>9853675</v>
       </c>
       <c r="R6">
-        <v>10995261</v>
+        <v>14274420</v>
       </c>
       <c r="S6">
-        <v>45976180</v>
+        <v>46287048</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B7">
-        <v>6113428</v>
+        <v>5925943</v>
       </c>
       <c r="C7">
-        <v>1676275</v>
+        <v>1616298</v>
       </c>
       <c r="D7">
-        <v>20106983</v>
+        <v>18801609</v>
       </c>
       <c r="E7">
-        <v>9023286</v>
+        <v>7998741</v>
       </c>
       <c r="F7">
-        <v>17089973</v>
+        <v>19667354</v>
       </c>
       <c r="G7">
-        <v>46220242</v>
+        <v>46467704</v>
       </c>
       <c r="H7">
-        <v>6466161</v>
+        <v>6182863</v>
       </c>
       <c r="I7">
-        <v>1644869</v>
+        <v>1687002</v>
       </c>
       <c r="J7">
-        <v>24530417</v>
+        <v>22039408</v>
       </c>
       <c r="K7">
-        <v>10394218</v>
+        <v>9839532</v>
       </c>
       <c r="L7">
-        <v>10974280</v>
+        <v>14261140</v>
       </c>
       <c r="M7">
-        <v>45898915</v>
+        <v>46140080</v>
       </c>
       <c r="N7">
-        <v>6710026</v>
+        <v>6392072</v>
       </c>
       <c r="O7">
-        <v>1549282</v>
+        <v>1641693</v>
       </c>
       <c r="P7">
-        <v>25990113</v>
+        <v>24567729</v>
       </c>
       <c r="Q7">
-        <v>11656265</v>
+        <v>10413190</v>
       </c>
       <c r="R7">
-        <v>8104259</v>
+        <v>10995261</v>
       </c>
       <c r="S7">
-        <v>45750637</v>
+        <v>45976180</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B8">
-        <v>6194434</v>
+        <v>6113428</v>
       </c>
       <c r="C8">
-        <v>1720841</v>
+        <v>1676275</v>
       </c>
       <c r="D8">
-        <v>22048677</v>
+        <v>20106983</v>
       </c>
       <c r="E8">
-        <v>9810639</v>
+        <v>9023286</v>
       </c>
       <c r="F8">
-        <v>14235354</v>
+        <v>17089973</v>
       </c>
       <c r="G8">
-        <v>46094670</v>
+        <v>46220242</v>
       </c>
       <c r="H8">
-        <v>6647970</v>
+        <v>6466161</v>
       </c>
       <c r="I8">
-        <v>1566179</v>
+        <v>1644869</v>
       </c>
       <c r="J8">
-        <v>26028307</v>
+        <v>24530417</v>
       </c>
       <c r="K8">
-        <v>11660101</v>
+        <v>10394218</v>
       </c>
       <c r="L8">
-        <v>8107388</v>
+        <v>10974280</v>
       </c>
       <c r="M8">
-        <v>45795796</v>
+        <v>45898915</v>
       </c>
       <c r="N8">
-        <v>6862315</v>
+        <v>6710026</v>
       </c>
       <c r="O8">
-        <v>1493790</v>
+        <v>1549282</v>
       </c>
       <c r="P8">
-        <v>26357835</v>
+        <v>25990113</v>
       </c>
       <c r="Q8">
-        <v>13596764</v>
+        <v>11656265</v>
       </c>
       <c r="R8">
-        <v>5699241</v>
+        <v>8104259</v>
       </c>
       <c r="S8">
-        <v>45653840</v>
+        <v>45750637</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B9">
-        <v>6414467</v>
+        <v>6194434</v>
       </c>
       <c r="C9">
-        <v>1678301</v>
+        <v>1720841</v>
       </c>
       <c r="D9">
-        <v>24562863</v>
+        <v>22048677</v>
       </c>
       <c r="E9">
-        <v>10381759</v>
+        <v>9810639</v>
       </c>
       <c r="F9">
-        <v>10972555</v>
+        <v>14235354</v>
       </c>
       <c r="G9">
-        <v>45917177</v>
+        <v>46094670</v>
       </c>
       <c r="H9">
-        <v>6876688</v>
+        <v>6647970</v>
       </c>
       <c r="I9">
-        <v>1504168</v>
+        <v>1566179</v>
       </c>
       <c r="J9">
-        <v>26348254</v>
+        <v>26028307</v>
       </c>
       <c r="K9">
-        <v>13585896</v>
+        <v>11660101</v>
       </c>
       <c r="L9">
-        <v>5694939</v>
+        <v>8107388</v>
       </c>
       <c r="M9">
-        <v>45629089</v>
+        <v>45795796</v>
       </c>
       <c r="N9">
-        <v>7031651</v>
+        <v>6862315</v>
       </c>
       <c r="O9">
-        <v>1502381</v>
+        <v>1493790</v>
       </c>
       <c r="P9">
-        <v>13119984</v>
+        <v>26357835</v>
       </c>
       <c r="Q9">
-        <v>28222661</v>
+        <v>13596764</v>
       </c>
       <c r="R9">
-        <v>4133267</v>
+        <v>5699241</v>
       </c>
       <c r="S9">
-        <v>45475912</v>
+        <v>45653840</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B10">
-        <v>6660263</v>
+        <v>6414467</v>
       </c>
       <c r="C10">
-        <v>1578764</v>
+        <v>1678301</v>
       </c>
       <c r="D10">
-        <v>26019483</v>
+        <v>24562863</v>
       </c>
       <c r="E10">
-        <v>11648617</v>
+        <v>10381759</v>
       </c>
       <c r="F10">
-        <v>8102818</v>
+        <v>10972555</v>
       </c>
       <c r="G10">
-        <v>45770918</v>
+        <v>45917177</v>
       </c>
       <c r="H10">
+        <v>6876688</v>
+      </c>
+      <c r="I10">
+        <v>1504168</v>
+      </c>
+      <c r="J10">
+        <v>26348254</v>
+      </c>
+      <c r="K10">
+        <v>13585896</v>
+      </c>
+      <c r="L10">
+        <v>5694939</v>
+      </c>
+      <c r="M10">
+        <v>45629089</v>
+      </c>
+      <c r="N10">
         <v>7031651</v>
       </c>
-      <c r="I10">
+      <c r="O10">
         <v>1502381</v>
       </c>
-      <c r="J10">
+      <c r="P10">
         <v>13119984</v>
       </c>
-      <c r="K10">
+      <c r="Q10">
         <v>28222661</v>
       </c>
-      <c r="L10">
+      <c r="R10">
         <v>4133267</v>
       </c>
-      <c r="M10">
+      <c r="S10">
         <v>45475912</v>
-      </c>
-      <c r="N10">
-        <v>7160934</v>
-      </c>
-      <c r="O10">
-        <v>1577260</v>
-      </c>
-      <c r="P10">
-        <v>12254673</v>
-      </c>
-      <c r="Q10">
-        <v>29956598</v>
-      </c>
-      <c r="R10">
-        <v>3060479</v>
-      </c>
-      <c r="S10">
-        <v>45271750</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B11">
-        <v>6876688</v>
+        <v>6660263</v>
       </c>
       <c r="C11">
-        <v>1504168</v>
+        <v>1578764</v>
       </c>
       <c r="D11">
-        <v>26348254</v>
+        <v>26019483</v>
       </c>
       <c r="E11">
-        <v>13585896</v>
+        <v>11648617</v>
       </c>
       <c r="F11">
-        <v>5694939</v>
+        <v>8102818</v>
       </c>
       <c r="G11">
-        <v>45629089</v>
+        <v>45770918</v>
       </c>
       <c r="H11">
+        <v>7031651</v>
+      </c>
+      <c r="I11">
+        <v>1502381</v>
+      </c>
+      <c r="J11">
+        <v>13119984</v>
+      </c>
+      <c r="K11">
+        <v>28222661</v>
+      </c>
+      <c r="L11">
+        <v>4133267</v>
+      </c>
+      <c r="M11">
+        <v>45475912</v>
+      </c>
+      <c r="N11">
         <v>7160934</v>
       </c>
-      <c r="I11">
+      <c r="O11">
         <v>1577260</v>
       </c>
-      <c r="J11">
+      <c r="P11">
         <v>12254673</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <v>29956598</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <v>3060479</v>
       </c>
-      <c r="M11">
+      <c r="S11">
         <v>45271750</v>
-      </c>
-      <c r="N11">
-        <v>7291722</v>
-      </c>
-      <c r="O11">
-        <v>1749607</v>
-      </c>
-      <c r="P11">
-        <v>11949919</v>
-      </c>
-      <c r="Q11">
-        <v>30829431</v>
-      </c>
-      <c r="R11">
-        <v>2189265</v>
-      </c>
-      <c r="S11">
-        <v>44968615</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B12">
-        <v>7031651</v>
+        <v>6876688</v>
       </c>
       <c r="C12">
-        <v>1502381</v>
+        <v>1504168</v>
       </c>
       <c r="D12">
-        <v>13119984</v>
+        <v>26348254</v>
       </c>
       <c r="E12">
-        <v>28222661</v>
+        <v>13585896</v>
       </c>
       <c r="F12">
-        <v>4133267</v>
+        <v>5694939</v>
       </c>
       <c r="G12">
-        <v>45475912</v>
+        <v>45629089</v>
       </c>
       <c r="H12">
+        <v>7160934</v>
+      </c>
+      <c r="I12">
+        <v>1577260</v>
+      </c>
+      <c r="J12">
+        <v>12254673</v>
+      </c>
+      <c r="K12">
+        <v>29956598</v>
+      </c>
+      <c r="L12">
+        <v>3060479</v>
+      </c>
+      <c r="M12">
+        <v>45271750</v>
+      </c>
+      <c r="N12">
         <v>7291722</v>
       </c>
-      <c r="I12">
+      <c r="O12">
         <v>1749607</v>
       </c>
-      <c r="J12">
+      <c r="P12">
         <v>11949919</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <v>30829431</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <v>2189265</v>
       </c>
-      <c r="M12">
+      <c r="S12">
         <v>44968615</v>
-      </c>
-      <c r="N12">
-        <v>7404599</v>
-      </c>
-      <c r="O12">
-        <v>1981131</v>
-      </c>
-      <c r="P12">
-        <v>11407859</v>
-      </c>
-      <c r="Q12">
-        <v>31622279</v>
-      </c>
-      <c r="R12">
-        <v>1594076</v>
-      </c>
-      <c r="S12">
-        <v>44624214</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B13">
-        <v>7160934</v>
+        <v>7031651</v>
       </c>
       <c r="C13">
-        <v>1577260</v>
+        <v>1502381</v>
       </c>
       <c r="D13">
-        <v>12254673</v>
+        <v>13119984</v>
       </c>
       <c r="E13">
-        <v>29956598</v>
+        <v>28222661</v>
       </c>
       <c r="F13">
-        <v>3060479</v>
+        <v>4133267</v>
       </c>
       <c r="G13">
-        <v>45271750</v>
+        <v>45475912</v>
       </c>
       <c r="H13">
+        <v>7291722</v>
+      </c>
+      <c r="I13">
+        <v>1749607</v>
+      </c>
+      <c r="J13">
+        <v>11949919</v>
+      </c>
+      <c r="K13">
+        <v>30829431</v>
+      </c>
+      <c r="L13">
+        <v>2189265</v>
+      </c>
+      <c r="M13">
+        <v>44968615</v>
+      </c>
+      <c r="N13">
         <v>7404599</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>1981131</v>
       </c>
-      <c r="J13">
+      <c r="P13">
         <v>11407859</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <v>31622279</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <v>1594076</v>
       </c>
-      <c r="M13">
+      <c r="S13">
         <v>44624214</v>
-      </c>
-      <c r="N13">
-        <v>7586013</v>
-      </c>
-      <c r="O13">
-        <v>2222672</v>
-      </c>
-      <c r="P13">
-        <v>4526706</v>
-      </c>
-      <c r="Q13">
-        <v>38658546</v>
-      </c>
-      <c r="R13">
-        <v>1016007</v>
-      </c>
-      <c r="S13">
-        <v>44201259</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B14">
-        <v>7291722</v>
+        <v>7160934</v>
       </c>
       <c r="C14">
-        <v>1749607</v>
+        <v>1577260</v>
       </c>
       <c r="D14">
-        <v>11949919</v>
+        <v>12254673</v>
       </c>
       <c r="E14">
-        <v>30829431</v>
+        <v>29956598</v>
       </c>
       <c r="F14">
-        <v>2189265</v>
+        <v>3060479</v>
       </c>
       <c r="G14">
-        <v>44968615</v>
+        <v>45271750</v>
       </c>
       <c r="H14">
+        <v>7404599</v>
+      </c>
+      <c r="I14">
+        <v>1981131</v>
+      </c>
+      <c r="J14">
+        <v>11407859</v>
+      </c>
+      <c r="K14">
+        <v>31622279</v>
+      </c>
+      <c r="L14">
+        <v>1594076</v>
+      </c>
+      <c r="M14">
+        <v>44624214</v>
+      </c>
+      <c r="N14">
         <v>7586013</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>2222672</v>
       </c>
-      <c r="J14">
+      <c r="P14">
         <v>4526706</v>
       </c>
-      <c r="K14">
+      <c r="Q14">
         <v>38658546</v>
       </c>
-      <c r="L14">
+      <c r="R14">
         <v>1016007</v>
       </c>
-      <c r="M14">
+      <c r="S14">
         <v>44201259</v>
-      </c>
-      <c r="N14">
-        <v>7862567</v>
-      </c>
-      <c r="O14">
-        <v>2422756</v>
-      </c>
-      <c r="P14">
-        <v>4186423</v>
-      </c>
-      <c r="Q14">
-        <v>38968164</v>
-      </c>
-      <c r="R14">
-        <v>570032</v>
-      </c>
-      <c r="S14">
-        <v>43724619</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B15">
-        <v>7404599</v>
+        <v>7291722</v>
       </c>
       <c r="C15">
-        <v>1981131</v>
+        <v>1749607</v>
       </c>
       <c r="D15">
-        <v>11407859</v>
+        <v>11949919</v>
       </c>
       <c r="E15">
-        <v>31622279</v>
+        <v>30829431</v>
       </c>
       <c r="F15">
-        <v>1594076</v>
+        <v>2189265</v>
       </c>
       <c r="G15">
-        <v>44624214</v>
+        <v>44968615</v>
       </c>
       <c r="H15">
+        <v>7586013</v>
+      </c>
+      <c r="I15">
+        <v>2222672</v>
+      </c>
+      <c r="J15">
+        <v>4526706</v>
+      </c>
+      <c r="K15">
+        <v>38658546</v>
+      </c>
+      <c r="L15">
+        <v>1016007</v>
+      </c>
+      <c r="M15">
+        <v>44201259</v>
+      </c>
+      <c r="N15">
         <v>7862567</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>2422756</v>
       </c>
-      <c r="J15">
+      <c r="P15">
         <v>4186423</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <v>38968164</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <v>570032</v>
       </c>
-      <c r="M15">
+      <c r="S15">
         <v>43724619</v>
-      </c>
-      <c r="N15">
-        <v>8302865</v>
-      </c>
-      <c r="O15">
-        <v>2538614</v>
-      </c>
-      <c r="P15">
-        <v>3884826</v>
-      </c>
-      <c r="Q15">
-        <v>38988918</v>
-      </c>
-      <c r="R15">
-        <v>294719</v>
-      </c>
-      <c r="S15">
-        <v>43168463</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B16">
-        <v>7586013</v>
+        <v>7404599</v>
       </c>
       <c r="C16">
-        <v>2222672</v>
+        <v>1981131</v>
       </c>
       <c r="D16">
-        <v>4526706</v>
+        <v>11407859</v>
       </c>
       <c r="E16">
-        <v>38658546</v>
+        <v>31622279</v>
       </c>
       <c r="F16">
-        <v>1016007</v>
+        <v>1594076</v>
       </c>
       <c r="G16">
-        <v>44201259</v>
+        <v>44624214</v>
       </c>
       <c r="H16">
+        <v>7862567</v>
+      </c>
+      <c r="I16">
+        <v>2422756</v>
+      </c>
+      <c r="J16">
+        <v>4186423</v>
+      </c>
+      <c r="K16">
+        <v>38968164</v>
+      </c>
+      <c r="L16">
+        <v>570032</v>
+      </c>
+      <c r="M16">
+        <v>43724619</v>
+      </c>
+      <c r="N16">
         <v>8302865</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>2538614</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <v>3884826</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <v>38988918</v>
       </c>
-      <c r="L16">
+      <c r="R16">
         <v>294719</v>
       </c>
-      <c r="M16">
+      <c r="S16">
         <v>43168463</v>
-      </c>
-      <c r="N16">
-        <v>8683749</v>
-      </c>
-      <c r="O16">
-        <v>2653423</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>42672767</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B17">
-        <v>7862567</v>
+        <v>7586013</v>
       </c>
       <c r="C17">
-        <v>2422756</v>
+        <v>2222672</v>
       </c>
       <c r="D17">
-        <v>4186423</v>
+        <v>4526706</v>
       </c>
       <c r="E17">
-        <v>38968164</v>
+        <v>38658546</v>
       </c>
       <c r="F17">
-        <v>570032</v>
+        <v>1016007</v>
       </c>
       <c r="G17">
-        <v>43724619</v>
+        <v>44201259</v>
       </c>
       <c r="H17">
+        <v>8302865</v>
+      </c>
+      <c r="I17">
+        <v>2538614</v>
+      </c>
+      <c r="J17">
+        <v>3884826</v>
+      </c>
+      <c r="K17">
+        <v>38988918</v>
+      </c>
+      <c r="L17">
+        <v>294719</v>
+      </c>
+      <c r="M17">
+        <v>43168463</v>
+      </c>
+      <c r="N17">
         <v>8683749</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>2653423</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>42672767</v>
-      </c>
-      <c r="N17">
-        <v>9231487</v>
-      </c>
-      <c r="O17">
-        <v>2863195</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>41915257</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B18">
-        <v>8302865</v>
+        <v>7862567</v>
       </c>
       <c r="C18">
-        <v>2538614</v>
+        <v>2422756</v>
       </c>
       <c r="D18">
-        <v>3884826</v>
+        <v>4186423</v>
       </c>
       <c r="E18">
-        <v>38988918</v>
+        <v>38968164</v>
       </c>
       <c r="F18">
-        <v>294719</v>
+        <v>570032</v>
       </c>
       <c r="G18">
-        <v>43168463</v>
+        <v>43724619</v>
       </c>
       <c r="H18">
+        <v>8683749</v>
+      </c>
+      <c r="I18">
+        <v>2653423</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>42672767</v>
+      </c>
+      <c r="N18">
         <v>9231487</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>2863195</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>41915257</v>
-      </c>
-      <c r="N18">
-        <v>9829232</v>
-      </c>
-      <c r="O18">
-        <v>3259454</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>40921215</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B19">
-        <v>8683749</v>
+        <v>8302865</v>
       </c>
       <c r="C19">
-        <v>2653423</v>
+        <v>2538614</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3884826</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>38988918</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>294719</v>
       </c>
       <c r="G19">
-        <v>42672767</v>
+        <v>43168463</v>
       </c>
       <c r="H19">
+        <v>9231487</v>
+      </c>
+      <c r="I19">
+        <v>2863195</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>41915257</v>
+      </c>
+      <c r="N19">
         <v>9829232</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>3259454</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>40921215</v>
-      </c>
-      <c r="N19">
-        <v>10307179</v>
-      </c>
-      <c r="O19">
-        <v>3862335</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>39840387</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B20">
-        <v>9231487</v>
+        <v>8683749</v>
       </c>
       <c r="C20">
-        <v>2863195</v>
+        <v>2653423</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4326,54 +4403,54 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41915257</v>
+        <v>42672767</v>
       </c>
       <c r="H20">
+        <v>9829232</v>
+      </c>
+      <c r="I20">
+        <v>3259454</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>40921215</v>
+      </c>
+      <c r="N20">
         <v>10307179</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>3862335</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>39840387</v>
-      </c>
-      <c r="N20">
-        <v>10942694</v>
-      </c>
-      <c r="O20">
-        <v>4426185</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>38641022</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B21">
-        <v>9829232</v>
+        <v>9231487</v>
       </c>
       <c r="C21">
-        <v>3259454</v>
+        <v>2863195</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4385,54 +4462,54 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>40921215</v>
+        <v>41915257</v>
       </c>
       <c r="H21">
+        <v>10307179</v>
+      </c>
+      <c r="I21">
+        <v>3862335</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>39840387</v>
+      </c>
+      <c r="N21">
         <v>10942694</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>4426185</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>38641022</v>
-      </c>
-      <c r="N21">
-        <v>11786620</v>
-      </c>
-      <c r="O21">
-        <v>4805486</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>37417795</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B22">
-        <v>10307179</v>
+        <v>9829232</v>
       </c>
       <c r="C22">
-        <v>3862335</v>
+        <v>3259454</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4444,54 +4521,54 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>39840387</v>
+        <v>40921215</v>
       </c>
       <c r="H22">
+        <v>10942694</v>
+      </c>
+      <c r="I22">
+        <v>4426185</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>38641022</v>
+      </c>
+      <c r="N22">
         <v>11786620</v>
       </c>
-      <c r="I22">
+      <c r="O22">
         <v>4805486</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>37417795</v>
-      </c>
-      <c r="N22">
-        <v>12581126</v>
-      </c>
-      <c r="O22">
-        <v>5096568</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>36332207</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B23">
-        <v>10942694</v>
+        <v>10307179</v>
       </c>
       <c r="C23">
-        <v>4426185</v>
+        <v>3862335</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4503,54 +4580,54 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>38641022</v>
+        <v>39840387</v>
       </c>
       <c r="H23">
+        <v>11786620</v>
+      </c>
+      <c r="I23">
+        <v>4805486</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>37417795</v>
+      </c>
+      <c r="N23">
         <v>12581126</v>
       </c>
-      <c r="I23">
+      <c r="O23">
         <v>5096568</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>36332207</v>
-      </c>
-      <c r="N23">
-        <v>13334156</v>
-      </c>
-      <c r="O23">
-        <v>5075930</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>35599815</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B24">
-        <v>11786620</v>
+        <v>10942694</v>
       </c>
       <c r="C24">
-        <v>4805486</v>
+        <v>4426185</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4562,54 +4639,54 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>37417795</v>
+        <v>38641022</v>
       </c>
       <c r="H24">
+        <v>12581126</v>
+      </c>
+      <c r="I24">
+        <v>5096568</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>36332207</v>
+      </c>
+      <c r="N24">
         <v>13334156</v>
       </c>
-      <c r="I24">
+      <c r="O24">
         <v>5075930</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>35599815</v>
-      </c>
-      <c r="N24">
-        <v>14507530</v>
-      </c>
-      <c r="O24">
-        <v>5210293</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>34292078</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B25">
-        <v>12581126</v>
+        <v>11786620</v>
       </c>
       <c r="C25">
-        <v>5096568</v>
+        <v>4805486</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4621,54 +4698,54 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>36332207</v>
+        <v>37417795</v>
       </c>
       <c r="H25">
+        <v>13334156</v>
+      </c>
+      <c r="I25">
+        <v>5075930</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>35599815</v>
+      </c>
+      <c r="N25">
         <v>14507530</v>
       </c>
-      <c r="I25">
+      <c r="O25">
         <v>5210293</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>34292078</v>
-      </c>
-      <c r="N25">
-        <v>15656647</v>
-      </c>
-      <c r="O25">
-        <v>6065610</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>32287644</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B26">
-        <v>13334156</v>
+        <v>12581126</v>
       </c>
       <c r="C26">
-        <v>5075930</v>
+        <v>5096568</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4680,54 +4757,54 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>35599815</v>
+        <v>36332207</v>
       </c>
       <c r="H26">
+        <v>14507530</v>
+      </c>
+      <c r="I26">
+        <v>5210293</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>34292078</v>
+      </c>
+      <c r="N26">
         <v>15656647</v>
       </c>
-      <c r="I26">
+      <c r="O26">
         <v>6065610</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>32287644</v>
-      </c>
-      <c r="N26">
-        <v>16708830</v>
-      </c>
-      <c r="O26">
-        <v>7672393</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>29628678</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B27">
-        <v>14507530</v>
+        <v>13334156</v>
       </c>
       <c r="C27">
-        <v>5210293</v>
+        <v>5075930</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4739,54 +4816,54 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>34292078</v>
+        <v>35599815</v>
       </c>
       <c r="H27">
+        <v>15656647</v>
+      </c>
+      <c r="I27">
+        <v>6065610</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>32287644</v>
+      </c>
+      <c r="N27">
         <v>16708830</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>7672393</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>29628678</v>
-      </c>
-      <c r="N27">
-        <v>17568325</v>
-      </c>
-      <c r="O27">
-        <v>9940124</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>26501452</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B28">
-        <v>15656647</v>
+        <v>14507530</v>
       </c>
       <c r="C28">
-        <v>6065610</v>
+        <v>5210293</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4798,54 +4875,54 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>32287644</v>
+        <v>34292078</v>
       </c>
       <c r="H28">
+        <v>16708830</v>
+      </c>
+      <c r="I28">
+        <v>7672393</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>29628678</v>
+      </c>
+      <c r="N28">
         <v>17568325</v>
       </c>
-      <c r="I28">
+      <c r="O28">
         <v>9940124</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>26501452</v>
-      </c>
-      <c r="N28">
-        <v>20322806</v>
-      </c>
-      <c r="O28">
-        <v>11341436</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>22345659</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B29">
-        <v>16708830</v>
+        <v>15656647</v>
       </c>
       <c r="C29">
-        <v>7672393</v>
+        <v>6065610</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4857,54 +4934,54 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>29628678</v>
+        <v>32287644</v>
       </c>
       <c r="H29">
+        <v>17568325</v>
+      </c>
+      <c r="I29">
+        <v>9940124</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>26501452</v>
+      </c>
+      <c r="N29">
         <v>20322806</v>
       </c>
-      <c r="I29">
+      <c r="O29">
         <v>11341436</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>22345659</v>
-      </c>
-      <c r="N29">
-        <v>21289761</v>
-      </c>
-      <c r="O29">
-        <v>13149676</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>19570464</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B30">
-        <v>17568325</v>
+        <v>16708830</v>
       </c>
       <c r="C30">
-        <v>9940124</v>
+        <v>7672393</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4916,54 +4993,54 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>26501452</v>
+        <v>29628678</v>
       </c>
       <c r="H30">
+        <v>20322806</v>
+      </c>
+      <c r="I30">
+        <v>11341436</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>22345659</v>
+      </c>
+      <c r="N30">
         <v>21289761</v>
       </c>
-      <c r="I30">
+      <c r="O30">
         <v>13149676</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>19570464</v>
-      </c>
-      <c r="N30">
-        <v>22879167</v>
-      </c>
-      <c r="O30">
-        <v>13741130</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>17389604</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B31">
-        <v>20322806</v>
+        <v>17568325</v>
       </c>
       <c r="C31">
-        <v>11341436</v>
+        <v>9940124</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4975,54 +5052,54 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>22345659</v>
+        <v>26501452</v>
       </c>
       <c r="H31">
+        <v>21289761</v>
+      </c>
+      <c r="I31">
+        <v>13149676</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>19570464</v>
+      </c>
+      <c r="N31">
         <v>22879167</v>
       </c>
-      <c r="I31">
+      <c r="O31">
         <v>13741130</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <v>17389604</v>
-      </c>
-      <c r="N31">
-        <v>24745853</v>
-      </c>
-      <c r="O31">
-        <v>13879852</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>15384196</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B32">
-        <v>21289761</v>
+        <v>20322806</v>
       </c>
       <c r="C32">
-        <v>13149676</v>
+        <v>11341436</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5034,54 +5111,54 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>19570464</v>
+        <v>22345659</v>
       </c>
       <c r="H32">
+        <v>22879167</v>
+      </c>
+      <c r="I32">
+        <v>13741130</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>17389604</v>
+      </c>
+      <c r="N32">
         <v>24745853</v>
       </c>
-      <c r="I32">
+      <c r="O32">
         <v>13879852</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>15384196</v>
-      </c>
-      <c r="N32">
-        <v>27065063</v>
-      </c>
-      <c r="O32">
-        <v>13015437</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>13929401</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B33">
-        <v>22879167</v>
+        <v>21289761</v>
       </c>
       <c r="C33">
-        <v>13741130</v>
+        <v>13149676</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5093,54 +5170,54 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>17389604</v>
+        <v>19570464</v>
       </c>
       <c r="H33">
+        <v>24745853</v>
+      </c>
+      <c r="I33">
+        <v>13879852</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>15384196</v>
+      </c>
+      <c r="N33">
         <v>27065063</v>
       </c>
-      <c r="I33">
+      <c r="O33">
         <v>13015437</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>13929401</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B34">
-        <v>24745853</v>
+        <v>22879167</v>
       </c>
       <c r="C34">
-        <v>13879852</v>
+        <v>13741130</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5152,13 +5229,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>15384196</v>
+        <v>17389604</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>27065063</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>13015437</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -5170,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>13929401</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -5193,60 +5270,119 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B35">
+        <v>24745853</v>
+      </c>
+      <c r="C35">
+        <v>13879852</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>15384196</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="2">
         <v>44391</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>27065063</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>13015437</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>13929401</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,1476 +556,1476 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="B2">
-        <v>263373</v>
+        <v>29508</v>
       </c>
       <c r="C2">
-        <v>44050</v>
+        <v>3894</v>
       </c>
       <c r="D2">
-        <v>195682</v>
+        <v>13098</v>
       </c>
       <c r="E2">
-        <v>147602</v>
+        <v>8150</v>
       </c>
       <c r="F2">
-        <v>569292</v>
+        <v>122764</v>
       </c>
       <c r="G2">
-        <v>912576</v>
+        <v>144012</v>
       </c>
       <c r="H2">
-        <v>8894</v>
+        <v>2356</v>
       </c>
       <c r="I2">
-        <v>1220</v>
+        <v>347</v>
       </c>
       <c r="J2">
-        <v>6443</v>
+        <v>1596</v>
       </c>
       <c r="K2">
-        <v>2105</v>
+        <v>412</v>
       </c>
       <c r="L2">
-        <v>11808</v>
+        <v>3646</v>
       </c>
       <c r="M2">
-        <v>20356</v>
+        <v>5654</v>
       </c>
       <c r="N2">
-        <v>720</v>
+        <v>86</v>
       </c>
       <c r="O2">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="P2">
-        <v>319</v>
+        <v>34</v>
       </c>
       <c r="Q2">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="R2">
-        <v>523</v>
+        <v>70</v>
       </c>
       <c r="S2">
-        <v>950</v>
+        <v>136</v>
       </c>
       <c r="T2">
-        <v>2655</v>
+        <v>686</v>
       </c>
       <c r="U2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="V2">
-        <v>2075</v>
+        <v>482</v>
       </c>
       <c r="W2">
-        <v>303</v>
+        <v>94</v>
       </c>
       <c r="X2">
-        <v>2613</v>
+        <v>532</v>
       </c>
       <c r="Y2">
-        <v>4991</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B3">
-        <v>362240</v>
+        <v>263373</v>
       </c>
       <c r="C3">
-        <v>61074</v>
+        <v>44050</v>
       </c>
       <c r="D3">
-        <v>316885</v>
+        <v>195682</v>
       </c>
       <c r="E3">
-        <v>210897</v>
+        <v>147602</v>
       </c>
       <c r="F3">
-        <v>617287</v>
+        <v>569292</v>
       </c>
       <c r="G3">
-        <v>1145069</v>
+        <v>912576</v>
       </c>
       <c r="H3">
-        <v>11144</v>
+        <v>8894</v>
       </c>
       <c r="I3">
-        <v>1422</v>
+        <v>1220</v>
       </c>
       <c r="J3">
-        <v>9008</v>
+        <v>6443</v>
       </c>
       <c r="K3">
-        <v>2676</v>
+        <v>2105</v>
       </c>
       <c r="L3">
-        <v>12272</v>
+        <v>11808</v>
       </c>
       <c r="M3">
-        <v>23956</v>
+        <v>20356</v>
       </c>
       <c r="N3">
-        <v>941</v>
+        <v>720</v>
       </c>
       <c r="O3">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P3">
-        <v>470</v>
+        <v>319</v>
       </c>
       <c r="Q3">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="R3">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="S3">
-        <v>1134</v>
+        <v>950</v>
       </c>
       <c r="T3">
-        <v>3198</v>
+        <v>2655</v>
       </c>
       <c r="U3">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="V3">
-        <v>2507</v>
+        <v>2075</v>
       </c>
       <c r="W3">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="X3">
-        <v>2677</v>
+        <v>2613</v>
       </c>
       <c r="Y3">
-        <v>5521</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B4">
-        <v>503511</v>
+        <v>362240</v>
       </c>
       <c r="C4">
-        <v>81921</v>
+        <v>61074</v>
       </c>
       <c r="D4">
-        <v>543352</v>
+        <v>316885</v>
       </c>
       <c r="E4">
-        <v>313619</v>
+        <v>210897</v>
       </c>
       <c r="F4">
-        <v>682585</v>
+        <v>617287</v>
       </c>
       <c r="G4">
-        <v>1539556</v>
+        <v>1145069</v>
       </c>
       <c r="H4">
-        <v>13534</v>
+        <v>11144</v>
       </c>
       <c r="I4">
-        <v>1516</v>
+        <v>1422</v>
       </c>
       <c r="J4">
-        <v>11607</v>
+        <v>9008</v>
       </c>
       <c r="K4">
-        <v>3210</v>
+        <v>2676</v>
       </c>
       <c r="L4">
-        <v>12271</v>
+        <v>12272</v>
       </c>
       <c r="M4">
-        <v>27088</v>
+        <v>23956</v>
       </c>
       <c r="N4">
-        <v>1261</v>
+        <v>941</v>
       </c>
       <c r="O4">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P4">
-        <v>617</v>
+        <v>470</v>
       </c>
       <c r="Q4">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="R4">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="S4">
-        <v>1304</v>
+        <v>1134</v>
       </c>
       <c r="T4">
-        <v>3470</v>
+        <v>3198</v>
       </c>
       <c r="U4">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="V4">
-        <v>2795</v>
+        <v>2507</v>
       </c>
       <c r="W4">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="X4">
-        <v>2403</v>
+        <v>2677</v>
       </c>
       <c r="Y4">
-        <v>5527</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B5">
-        <v>642419</v>
+        <v>503511</v>
       </c>
       <c r="C5">
-        <v>102315</v>
+        <v>81921</v>
       </c>
       <c r="D5">
-        <v>848833</v>
+        <v>543352</v>
       </c>
       <c r="E5">
-        <v>439413</v>
+        <v>313619</v>
       </c>
       <c r="F5">
-        <v>717143</v>
+        <v>682585</v>
       </c>
       <c r="G5">
-        <v>2005389</v>
+        <v>1539556</v>
       </c>
       <c r="H5">
-        <v>15012</v>
+        <v>13534</v>
       </c>
       <c r="I5">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="J5">
-        <v>13660</v>
+        <v>11607</v>
       </c>
       <c r="K5">
-        <v>3480</v>
+        <v>3210</v>
       </c>
       <c r="L5">
-        <v>11075</v>
+        <v>12271</v>
       </c>
       <c r="M5">
-        <v>28215</v>
+        <v>27088</v>
       </c>
       <c r="N5">
-        <v>1524</v>
+        <v>1261</v>
       </c>
       <c r="O5">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P5">
-        <v>736</v>
+        <v>617</v>
       </c>
       <c r="Q5">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="R5">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="S5">
-        <v>1350</v>
+        <v>1304</v>
       </c>
       <c r="T5">
-        <v>3357</v>
+        <v>3470</v>
       </c>
       <c r="U5">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="V5">
-        <v>2757</v>
+        <v>2795</v>
       </c>
       <c r="W5">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="X5">
-        <v>1918</v>
+        <v>2403</v>
       </c>
       <c r="Y5">
-        <v>4952</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B6">
-        <v>777547</v>
+        <v>642419</v>
       </c>
       <c r="C6">
-        <v>127486</v>
+        <v>102315</v>
       </c>
       <c r="D6">
-        <v>1249396</v>
+        <v>848833</v>
       </c>
       <c r="E6">
-        <v>597335</v>
+        <v>439413</v>
       </c>
       <c r="F6">
-        <v>738378</v>
+        <v>717143</v>
       </c>
       <c r="G6">
-        <v>2585109</v>
+        <v>2005389</v>
       </c>
       <c r="H6">
-        <v>15695</v>
+        <v>15012</v>
       </c>
       <c r="I6">
-        <v>1437</v>
+        <v>1532</v>
       </c>
       <c r="J6">
-        <v>14598</v>
+        <v>13660</v>
       </c>
       <c r="K6">
-        <v>3426</v>
+        <v>3480</v>
       </c>
       <c r="L6">
-        <v>9017</v>
+        <v>11075</v>
       </c>
       <c r="M6">
-        <v>27041</v>
+        <v>28215</v>
       </c>
       <c r="N6">
-        <v>1716</v>
+        <v>1524</v>
       </c>
       <c r="O6">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P6">
-        <v>803</v>
+        <v>736</v>
       </c>
       <c r="Q6">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="R6">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="S6">
-        <v>1306</v>
+        <v>1350</v>
       </c>
       <c r="T6">
-        <v>3144</v>
+        <v>3357</v>
       </c>
       <c r="U6">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="V6">
-        <v>2508</v>
+        <v>2757</v>
       </c>
       <c r="W6">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="X6">
-        <v>1331</v>
+        <v>1918</v>
       </c>
       <c r="Y6">
-        <v>4071</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B7">
-        <v>809625</v>
+        <v>777547</v>
       </c>
       <c r="C7">
-        <v>137850</v>
+        <v>127486</v>
       </c>
       <c r="D7">
-        <v>1532777</v>
+        <v>1249396</v>
       </c>
       <c r="E7">
-        <v>687597</v>
+        <v>597335</v>
       </c>
       <c r="F7">
-        <v>672910</v>
+        <v>738378</v>
       </c>
       <c r="G7">
-        <v>2893284</v>
+        <v>2585109</v>
       </c>
       <c r="H7">
-        <v>15049</v>
+        <v>15695</v>
       </c>
       <c r="I7">
-        <v>1240</v>
+        <v>1437</v>
       </c>
       <c r="J7">
-        <v>13663</v>
+        <v>14598</v>
       </c>
       <c r="K7">
-        <v>2915</v>
+        <v>3426</v>
       </c>
       <c r="L7">
-        <v>6606</v>
+        <v>9017</v>
       </c>
       <c r="M7">
-        <v>23184</v>
+        <v>27041</v>
       </c>
       <c r="N7">
-        <v>1792</v>
+        <v>1716</v>
       </c>
       <c r="O7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P7">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="Q7">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="R7">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="S7">
-        <v>1166</v>
+        <v>1306</v>
       </c>
       <c r="T7">
-        <v>2632</v>
+        <v>3144</v>
       </c>
       <c r="U7">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="V7">
-        <v>2172</v>
+        <v>2508</v>
       </c>
       <c r="W7">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="X7">
-        <v>814</v>
+        <v>1331</v>
       </c>
       <c r="Y7">
-        <v>3168</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B8">
-        <v>703732</v>
+        <v>809625</v>
       </c>
       <c r="C8">
-        <v>127478</v>
+        <v>137850</v>
       </c>
       <c r="D8">
-        <v>1544092</v>
+        <v>1532777</v>
       </c>
       <c r="E8">
-        <v>640805</v>
+        <v>687597</v>
       </c>
       <c r="F8">
-        <v>521657</v>
+        <v>672910</v>
       </c>
       <c r="G8">
-        <v>2706554</v>
+        <v>2893284</v>
       </c>
       <c r="H8">
-        <v>13946</v>
+        <v>15049</v>
       </c>
       <c r="I8">
-        <v>989</v>
+        <v>1240</v>
       </c>
       <c r="J8">
-        <v>11934</v>
+        <v>13663</v>
       </c>
       <c r="K8">
-        <v>2225</v>
+        <v>2915</v>
       </c>
       <c r="L8">
-        <v>4177</v>
+        <v>6606</v>
       </c>
       <c r="M8">
-        <v>18336</v>
+        <v>23184</v>
       </c>
       <c r="N8">
-        <v>1753</v>
+        <v>1792</v>
       </c>
       <c r="O8">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P8">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="Q8">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="R8">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="S8">
-        <v>1014</v>
+        <v>1166</v>
       </c>
       <c r="T8">
-        <v>2120</v>
+        <v>2632</v>
       </c>
       <c r="U8">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="V8">
-        <v>1805</v>
+        <v>2172</v>
       </c>
       <c r="W8">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="X8">
-        <v>432</v>
+        <v>814</v>
       </c>
       <c r="Y8">
-        <v>2375</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B9">
-        <v>555697</v>
+        <v>703732</v>
       </c>
       <c r="C9">
-        <v>102729</v>
+        <v>127478</v>
       </c>
       <c r="D9">
-        <v>1320086</v>
+        <v>1544092</v>
       </c>
       <c r="E9">
-        <v>527687</v>
+        <v>640805</v>
       </c>
       <c r="F9">
-        <v>358530</v>
+        <v>521657</v>
       </c>
       <c r="G9">
-        <v>2206303</v>
+        <v>2706554</v>
       </c>
       <c r="H9">
-        <v>11487</v>
+        <v>13946</v>
       </c>
       <c r="I9">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="J9">
-        <v>9435</v>
+        <v>11934</v>
       </c>
       <c r="K9">
-        <v>1499</v>
+        <v>2225</v>
       </c>
       <c r="L9">
-        <v>2066</v>
+        <v>4177</v>
       </c>
       <c r="M9">
-        <v>13000</v>
+        <v>18336</v>
       </c>
       <c r="N9">
-        <v>1557</v>
+        <v>1753</v>
       </c>
       <c r="O9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P9">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="Q9">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R9">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="S9">
-        <v>809</v>
+        <v>1014</v>
       </c>
       <c r="T9">
-        <v>1774</v>
+        <v>2120</v>
       </c>
       <c r="U9">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="V9">
-        <v>1541</v>
+        <v>1805</v>
       </c>
       <c r="W9">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="X9">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="Y9">
-        <v>1863</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B10">
-        <v>395424</v>
+        <v>555697</v>
       </c>
       <c r="C10">
-        <v>68050</v>
+        <v>102729</v>
       </c>
       <c r="D10">
-        <v>955924</v>
+        <v>1320086</v>
       </c>
       <c r="E10">
-        <v>364078</v>
+        <v>527687</v>
       </c>
       <c r="F10">
-        <v>200146</v>
+        <v>358530</v>
       </c>
       <c r="G10">
-        <v>1520148</v>
+        <v>2206303</v>
       </c>
       <c r="H10">
-        <v>9564</v>
+        <v>11487</v>
       </c>
       <c r="I10">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="J10">
-        <v>7594</v>
+        <v>9435</v>
       </c>
       <c r="K10">
-        <v>1055</v>
+        <v>1499</v>
       </c>
       <c r="L10">
-        <v>955</v>
+        <v>2066</v>
       </c>
       <c r="M10">
-        <v>9604</v>
+        <v>13000</v>
       </c>
       <c r="N10">
-        <v>1368</v>
+        <v>1557</v>
       </c>
       <c r="O10">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P10">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="Q10">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R10">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="S10">
-        <v>663</v>
+        <v>809</v>
       </c>
       <c r="T10">
-        <v>1443</v>
+        <v>1774</v>
       </c>
       <c r="U10">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="V10">
-        <v>1370</v>
+        <v>1541</v>
       </c>
       <c r="W10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X10">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="Y10">
-        <v>1606</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B11">
-        <v>251412</v>
+        <v>395424</v>
       </c>
       <c r="C11">
-        <v>34617</v>
+        <v>68050</v>
       </c>
       <c r="D11">
-        <v>547518</v>
+        <v>955924</v>
       </c>
       <c r="E11">
-        <v>195560</v>
+        <v>364078</v>
       </c>
       <c r="F11">
-        <v>79260</v>
+        <v>200146</v>
       </c>
       <c r="G11">
-        <v>822338</v>
+        <v>1520148</v>
       </c>
       <c r="H11">
-        <v>8278</v>
+        <v>9564</v>
       </c>
       <c r="I11">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="J11">
-        <v>6612</v>
+        <v>7594</v>
       </c>
       <c r="K11">
-        <v>905</v>
+        <v>1055</v>
       </c>
       <c r="L11">
-        <v>546</v>
+        <v>955</v>
       </c>
       <c r="M11">
-        <v>8063</v>
+        <v>9604</v>
       </c>
       <c r="N11">
-        <v>1202</v>
+        <v>1368</v>
       </c>
       <c r="O11">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P11">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="Q11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R11">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S11">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="T11">
-        <v>1170</v>
+        <v>1443</v>
       </c>
       <c r="U11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V11">
-        <v>1298</v>
+        <v>1370</v>
       </c>
       <c r="W11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X11">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Y11">
-        <v>1489</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B12">
-        <v>170551</v>
+        <v>251412</v>
       </c>
       <c r="C12">
-        <v>14491</v>
+        <v>34617</v>
       </c>
       <c r="D12">
-        <v>265724</v>
+        <v>547518</v>
       </c>
       <c r="E12">
-        <v>99757</v>
+        <v>195560</v>
       </c>
       <c r="F12">
-        <v>20375</v>
+        <v>79260</v>
       </c>
       <c r="G12">
-        <v>385856</v>
+        <v>822338</v>
       </c>
       <c r="H12">
-        <v>7059</v>
+        <v>8278</v>
       </c>
       <c r="I12">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J12">
-        <v>5927</v>
+        <v>6612</v>
       </c>
       <c r="K12">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="L12">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="M12">
-        <v>7229</v>
+        <v>8063</v>
       </c>
       <c r="N12">
-        <v>1036</v>
+        <v>1202</v>
       </c>
       <c r="O12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P12">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="Q12">
+        <v>72</v>
+      </c>
+      <c r="R12">
+        <v>46</v>
+      </c>
+      <c r="S12">
+        <v>614</v>
+      </c>
+      <c r="T12">
+        <v>1170</v>
+      </c>
+      <c r="U12">
         <v>89</v>
       </c>
-      <c r="R12">
-        <v>33</v>
-      </c>
-      <c r="S12">
-        <v>555</v>
-      </c>
-      <c r="T12">
-        <v>994</v>
-      </c>
-      <c r="U12">
-        <v>75</v>
-      </c>
       <c r="V12">
-        <v>1108</v>
+        <v>1298</v>
       </c>
       <c r="W12">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="X12">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Y12">
-        <v>1262</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B13">
-        <v>140677</v>
+        <v>170551</v>
       </c>
       <c r="C13">
-        <v>9069</v>
+        <v>14491</v>
       </c>
       <c r="D13">
-        <v>91366</v>
+        <v>265724</v>
       </c>
       <c r="E13">
-        <v>155978</v>
+        <v>99757</v>
       </c>
       <c r="F13">
-        <v>7655</v>
+        <v>20375</v>
       </c>
       <c r="G13">
-        <v>254999</v>
+        <v>385856</v>
       </c>
       <c r="H13">
-        <v>5944</v>
+        <v>7059</v>
       </c>
       <c r="I13">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J13">
-        <v>4047</v>
+        <v>5927</v>
       </c>
       <c r="K13">
-        <v>2065</v>
+        <v>934</v>
       </c>
       <c r="L13">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="M13">
-        <v>6384</v>
+        <v>7229</v>
       </c>
       <c r="N13">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="O13">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P13">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="Q13">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="R13">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S13">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="T13">
-        <v>839</v>
+        <v>994</v>
       </c>
       <c r="U13">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="V13">
-        <v>838</v>
+        <v>1108</v>
       </c>
       <c r="W13">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="X13">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Y13">
-        <v>1105</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B14">
-        <v>114674</v>
+        <v>140677</v>
       </c>
       <c r="C14">
-        <v>7107</v>
+        <v>9069</v>
       </c>
       <c r="D14">
-        <v>71563</v>
+        <v>91366</v>
       </c>
       <c r="E14">
-        <v>122505</v>
+        <v>155978</v>
       </c>
       <c r="F14">
-        <v>4219</v>
+        <v>7655</v>
       </c>
       <c r="G14">
-        <v>198287</v>
+        <v>254999</v>
       </c>
       <c r="H14">
-        <v>5081</v>
+        <v>5944</v>
       </c>
       <c r="I14">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="J14">
-        <v>3432</v>
+        <v>4047</v>
       </c>
       <c r="K14">
-        <v>1843</v>
+        <v>2065</v>
       </c>
       <c r="L14">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="M14">
-        <v>5451</v>
+        <v>6384</v>
       </c>
       <c r="N14">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="O14">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P14">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q14">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="R14">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S14">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="T14">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="U14">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V14">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="W14">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="X14">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Y14">
-        <v>991</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B15">
-        <v>93220</v>
+        <v>114674</v>
       </c>
       <c r="C15">
-        <v>6181</v>
+        <v>7107</v>
       </c>
       <c r="D15">
-        <v>57054</v>
+        <v>71563</v>
       </c>
       <c r="E15">
-        <v>102245</v>
+        <v>122505</v>
       </c>
       <c r="F15">
-        <v>2652</v>
+        <v>4219</v>
       </c>
       <c r="G15">
-        <v>161951</v>
+        <v>198287</v>
       </c>
       <c r="H15">
-        <v>4402</v>
+        <v>5081</v>
       </c>
       <c r="I15">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="J15">
-        <v>2916</v>
+        <v>3432</v>
       </c>
       <c r="K15">
-        <v>1616</v>
+        <v>1843</v>
       </c>
       <c r="L15">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="M15">
-        <v>4653</v>
+        <v>5451</v>
       </c>
       <c r="N15">
-        <v>618</v>
+        <v>747</v>
       </c>
       <c r="O15">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P15">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q15">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S15">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="T15">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="U15">
+        <v>42</v>
+      </c>
+      <c r="V15">
+        <v>745</v>
+      </c>
+      <c r="W15">
+        <v>257</v>
+      </c>
+      <c r="X15">
         <v>29</v>
       </c>
-      <c r="V15">
-        <v>604</v>
-      </c>
-      <c r="W15">
-        <v>186</v>
-      </c>
-      <c r="X15">
-        <v>17</v>
-      </c>
       <c r="Y15">
-        <v>807</v>
+        <v>991</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B16">
-        <v>75512</v>
+        <v>93220</v>
       </c>
       <c r="C16">
-        <v>5587</v>
+        <v>6181</v>
       </c>
       <c r="D16">
-        <v>44023</v>
+        <v>57054</v>
       </c>
       <c r="E16">
-        <v>82755</v>
+        <v>102245</v>
       </c>
       <c r="F16">
-        <v>1710</v>
+        <v>2652</v>
       </c>
       <c r="G16">
-        <v>128488</v>
+        <v>161951</v>
       </c>
       <c r="H16">
-        <v>3733</v>
+        <v>4402</v>
       </c>
       <c r="I16">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J16">
-        <v>2336</v>
+        <v>2916</v>
       </c>
       <c r="K16">
-        <v>1435</v>
+        <v>1616</v>
       </c>
       <c r="L16">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M16">
-        <v>3845</v>
+        <v>4653</v>
       </c>
       <c r="N16">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="O16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P16">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q16">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="R16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S16">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="T16">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="U16">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V16">
-        <v>482</v>
+        <v>604</v>
       </c>
       <c r="W16">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="X16">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y16">
-        <v>690</v>
+        <v>807</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B17">
-        <v>61908</v>
+        <v>75512</v>
       </c>
       <c r="C17">
-        <v>4260</v>
+        <v>5587</v>
       </c>
       <c r="D17">
-        <v>15519</v>
+        <v>44023</v>
       </c>
       <c r="E17">
-        <v>81740</v>
+        <v>82755</v>
       </c>
       <c r="F17">
-        <v>969</v>
+        <v>1710</v>
       </c>
       <c r="G17">
-        <v>98228</v>
+        <v>128488</v>
       </c>
       <c r="H17">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="I17">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J17">
-        <v>1187</v>
+        <v>2336</v>
       </c>
       <c r="K17">
-        <v>2437</v>
+        <v>1435</v>
       </c>
       <c r="L17">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>3693</v>
+        <v>3845</v>
       </c>
       <c r="N17">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="O17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P17">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="Q17">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="R17">
         <v>3</v>
       </c>
       <c r="S17">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="T17">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="U17">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="V17">
-        <v>191</v>
+        <v>482</v>
       </c>
       <c r="W17">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="X17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Y17">
-        <v>555</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B18">
-        <v>50564</v>
+        <v>61908</v>
       </c>
       <c r="C18">
-        <v>3980</v>
+        <v>4260</v>
       </c>
       <c r="D18">
-        <v>11215</v>
+        <v>15519</v>
       </c>
       <c r="E18">
-        <v>60407</v>
+        <v>81740</v>
       </c>
       <c r="F18">
-        <v>537</v>
+        <v>969</v>
       </c>
       <c r="G18">
-        <v>72159</v>
+        <v>98228</v>
       </c>
       <c r="H18">
-        <v>3220</v>
+        <v>3737</v>
       </c>
       <c r="I18">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J18">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="K18">
-        <v>2075</v>
+        <v>2437</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M18">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="N18">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="O18">
         <v>14</v>
       </c>
       <c r="P18">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q18">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="T18">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="U18">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V18">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="W18">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y18">
-        <v>444</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B19">
-        <v>40182</v>
+        <v>50564</v>
       </c>
       <c r="C19">
-        <v>3466</v>
+        <v>3980</v>
       </c>
       <c r="D19">
-        <v>8088</v>
+        <v>11215</v>
       </c>
       <c r="E19">
-        <v>43928</v>
+        <v>60407</v>
       </c>
       <c r="F19">
-        <v>286</v>
+        <v>537</v>
       </c>
       <c r="G19">
-        <v>52302</v>
+        <v>72159</v>
       </c>
       <c r="H19">
-        <v>2890</v>
+        <v>3220</v>
       </c>
       <c r="I19">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J19">
-        <v>618</v>
+        <v>826</v>
       </c>
       <c r="K19">
-        <v>1774</v>
+        <v>2075</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>2409</v>
+        <v>2936</v>
       </c>
       <c r="N19">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="O19">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P19">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q19">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="T19">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="U19">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V19">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="W19">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B20">
-        <v>35398</v>
+        <v>40182</v>
       </c>
       <c r="C20">
-        <v>3207</v>
+        <v>3466</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>43928</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G20">
-        <v>40991</v>
+        <v>52302</v>
       </c>
       <c r="H20">
-        <v>2696</v>
+        <v>2890</v>
       </c>
       <c r="I20">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>2037</v>
+        <v>2409</v>
       </c>
       <c r="N20">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="O20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="T20">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="U20">
         <v>27</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B21">
-        <v>34128</v>
+        <v>35398</v>
       </c>
       <c r="C21">
-        <v>3421</v>
+        <v>3207</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>34131</v>
+        <v>40991</v>
       </c>
       <c r="H21">
-        <v>2845</v>
+        <v>2696</v>
       </c>
       <c r="I21">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1815</v>
+        <v>2037</v>
       </c>
       <c r="N21">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="O21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="T21">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="U21">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2091,18 +2091,18 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B22">
-        <v>36194</v>
+        <v>34128</v>
       </c>
       <c r="C22">
-        <v>4127</v>
+        <v>3421</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>31514</v>
+        <v>34131</v>
       </c>
       <c r="H22">
-        <v>3396</v>
+        <v>2845</v>
       </c>
       <c r="I22">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1954</v>
+        <v>1815</v>
       </c>
       <c r="N22">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="O22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2150,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="T22">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="U22">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2168,18 +2168,18 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>511</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B23">
-        <v>45790</v>
+        <v>36194</v>
       </c>
       <c r="C23">
-        <v>5352</v>
+        <v>4127</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2191,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>33496</v>
+        <v>31514</v>
       </c>
       <c r="H23">
-        <v>4274</v>
+        <v>3396</v>
       </c>
       <c r="I23">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="N23">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="O23">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T23">
-        <v>775</v>
+        <v>636</v>
       </c>
       <c r="U23">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2245,18 +2245,18 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>578</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B24">
-        <v>56808</v>
+        <v>45790</v>
       </c>
       <c r="C24">
-        <v>6952</v>
+        <v>5352</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>36529</v>
+        <v>33496</v>
       </c>
       <c r="H24">
-        <v>5224</v>
+        <v>4274</v>
       </c>
       <c r="I24">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2268</v>
+        <v>2133</v>
       </c>
       <c r="N24">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="O24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2304,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="T24">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="U24">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2322,18 +2322,18 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B25">
-        <v>70900</v>
+        <v>56808</v>
       </c>
       <c r="C25">
-        <v>9284</v>
+        <v>6952</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>40060</v>
+        <v>36529</v>
       </c>
       <c r="H25">
-        <v>6160</v>
+        <v>5224</v>
       </c>
       <c r="I25">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2418</v>
+        <v>2268</v>
       </c>
       <c r="N25">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="O25">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T25">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="U25">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2399,18 +2399,18 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B26">
-        <v>86133</v>
+        <v>70900</v>
       </c>
       <c r="C26">
-        <v>11735</v>
+        <v>9284</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>44050</v>
+        <v>40060</v>
       </c>
       <c r="H26">
-        <v>6782</v>
+        <v>6160</v>
       </c>
       <c r="I26">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>2456</v>
+        <v>2418</v>
       </c>
       <c r="N26">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="O26">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2458,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T26">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="U26">
         <v>57</v>
@@ -2476,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>509</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B27">
-        <v>96900</v>
+        <v>86133</v>
       </c>
       <c r="C27">
-        <v>13728</v>
+        <v>11735</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>44990</v>
+        <v>44050</v>
       </c>
       <c r="H27">
-        <v>6841</v>
+        <v>6782</v>
       </c>
       <c r="I27">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>2331</v>
+        <v>2456</v>
       </c>
       <c r="N27">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="O27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="T27">
-        <v>770</v>
+        <v>877</v>
       </c>
       <c r="U27">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2553,18 +2553,18 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>405</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B28">
-        <v>104890</v>
+        <v>96900</v>
       </c>
       <c r="C28">
-        <v>16129</v>
+        <v>13728</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>43775</v>
+        <v>44990</v>
       </c>
       <c r="H28">
-        <v>6579</v>
+        <v>6841</v>
       </c>
       <c r="I28">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>2118</v>
+        <v>2331</v>
       </c>
       <c r="N28">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="O28">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T28">
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="U28">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2630,18 +2630,18 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>280</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B29">
-        <v>107937</v>
+        <v>104890</v>
       </c>
       <c r="C29">
-        <v>18925</v>
+        <v>16129</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>40380</v>
+        <v>43775</v>
       </c>
       <c r="H29">
-        <v>5988</v>
+        <v>6579</v>
       </c>
       <c r="I29">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1788</v>
+        <v>2118</v>
       </c>
       <c r="N29">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="O29">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="T29">
-        <v>383</v>
+        <v>571</v>
       </c>
       <c r="U29">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2707,18 +2707,18 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B30">
-        <v>104405</v>
+        <v>107937</v>
       </c>
       <c r="C30">
-        <v>21703</v>
+        <v>18925</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>33894</v>
+        <v>40380</v>
       </c>
       <c r="H30">
-        <v>5162</v>
+        <v>5988</v>
       </c>
       <c r="I30">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1349</v>
+        <v>1788</v>
       </c>
       <c r="N30">
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="O30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="T30">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="U30">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2784,18 +2784,18 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>92</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B31">
-        <v>95261</v>
+        <v>104405</v>
       </c>
       <c r="C31">
-        <v>22568</v>
+        <v>21703</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>24978</v>
+        <v>33894</v>
       </c>
       <c r="H31">
-        <v>4052</v>
+        <v>5162</v>
       </c>
       <c r="I31">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>959</v>
+        <v>1349</v>
       </c>
       <c r="N31">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="O31">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="T31">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="U31">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2861,18 +2861,18 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B32">
-        <v>80585</v>
+        <v>95261</v>
       </c>
       <c r="C32">
-        <v>21570</v>
+        <v>22568</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2884,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>18887</v>
+        <v>24978</v>
       </c>
       <c r="H32">
-        <v>3067</v>
+        <v>4052</v>
       </c>
       <c r="I32">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>627</v>
+        <v>959</v>
       </c>
       <c r="N32">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="O32">
         <v>22</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="T32">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="U32">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2938,18 +2938,18 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B33">
-        <v>60267</v>
+        <v>80585</v>
       </c>
       <c r="C33">
-        <v>17420</v>
+        <v>21570</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>12333</v>
+        <v>18887</v>
       </c>
       <c r="H33">
-        <v>2234</v>
+        <v>3067</v>
       </c>
       <c r="I33">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2979,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="N33">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="O33">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="T33">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="U33">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3020,13 +3020,13 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B34">
-        <v>40729</v>
+        <v>60267</v>
       </c>
       <c r="C34">
-        <v>12032</v>
+        <v>17420</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>7277</v>
+        <v>12333</v>
       </c>
       <c r="H34">
-        <v>1619</v>
+        <v>2234</v>
       </c>
       <c r="I34">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="N34">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="O34">
         <v>11</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T34">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="U34">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3092,18 +3092,18 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B35">
-        <v>26284</v>
+        <v>40729</v>
       </c>
       <c r="C35">
-        <v>6813</v>
+        <v>12032</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3115,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>3805</v>
+        <v>7277</v>
       </c>
       <c r="H35">
-        <v>1483</v>
+        <v>1619</v>
       </c>
       <c r="I35">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3133,13 +3133,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="N35">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O35">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3151,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T35">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="U35">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3169,83 +3169,160 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B36">
+        <v>26284</v>
+      </c>
+      <c r="C36">
+        <v>6813</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>3805</v>
+      </c>
+      <c r="H36">
+        <v>1483</v>
+      </c>
+      <c r="I36">
+        <v>199</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>224</v>
+      </c>
+      <c r="N36">
+        <v>117</v>
+      </c>
+      <c r="O36">
+        <v>14</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>8</v>
+      </c>
+      <c r="T36">
+        <v>250</v>
+      </c>
+      <c r="U36">
+        <v>47</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="2">
         <v>44391</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>21089</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>3954</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>2310</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>1880</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>240</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>240</v>
       </c>
-      <c r="N36">
+      <c r="N37">
         <v>147</v>
       </c>
-      <c r="O36">
+      <c r="O37">
         <v>20</v>
       </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>7</v>
       </c>
-      <c r="T36">
+      <c r="T37">
         <v>357</v>
       </c>
-      <c r="U36">
+      <c r="U37">
         <v>72</v>
       </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
         <v>68</v>
       </c>
     </row>
@@ -3256,7 +3333,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3323,1134 +3400,1134 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="B2">
-        <v>4922246</v>
+        <v>155563</v>
       </c>
       <c r="C2">
-        <v>1504174</v>
+        <v>96224</v>
       </c>
       <c r="D2">
-        <v>8369206</v>
+        <v>350165</v>
       </c>
       <c r="E2">
-        <v>4462914</v>
+        <v>92313</v>
       </c>
       <c r="F2">
-        <v>34751405</v>
+        <v>3904647</v>
       </c>
       <c r="G2">
-        <v>47583525</v>
+        <v>4347125</v>
       </c>
       <c r="H2">
-        <v>5237693</v>
+        <v>170095</v>
       </c>
       <c r="I2">
-        <v>1603693</v>
+        <v>102423</v>
       </c>
       <c r="J2">
-        <v>12148624</v>
+        <v>450376</v>
       </c>
       <c r="K2">
-        <v>5387344</v>
+        <v>85260</v>
       </c>
       <c r="L2">
-        <v>29632591</v>
+        <v>3790758</v>
       </c>
       <c r="M2">
-        <v>47168559</v>
+        <v>4326394</v>
       </c>
       <c r="N2">
-        <v>5475882</v>
+        <v>181063</v>
       </c>
       <c r="O2">
-        <v>1574138</v>
+        <v>97020</v>
       </c>
       <c r="P2">
-        <v>14562981</v>
+        <v>540230</v>
       </c>
       <c r="Q2">
-        <v>6180953</v>
+        <v>88216</v>
       </c>
       <c r="R2">
-        <v>26215991</v>
+        <v>3692383</v>
       </c>
       <c r="S2">
-        <v>46959925</v>
+        <v>4320829</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B3">
-        <v>5053954</v>
+        <v>4922246</v>
       </c>
       <c r="C3">
-        <v>1597892</v>
+        <v>1504174</v>
       </c>
       <c r="D3">
-        <v>10021741</v>
+        <v>8369206</v>
       </c>
       <c r="E3">
-        <v>4762640</v>
+        <v>4462914</v>
       </c>
       <c r="F3">
-        <v>32573718</v>
+        <v>34751405</v>
       </c>
       <c r="G3">
-        <v>47358099</v>
+        <v>47583525</v>
       </c>
       <c r="H3">
-        <v>5465398</v>
+        <v>5237693</v>
       </c>
       <c r="I3">
-        <v>1580627</v>
+        <v>1603693</v>
       </c>
       <c r="J3">
-        <v>14572377</v>
+        <v>12148624</v>
       </c>
       <c r="K3">
-        <v>6176719</v>
+        <v>5387344</v>
       </c>
       <c r="L3">
-        <v>26214824</v>
+        <v>29632591</v>
       </c>
       <c r="M3">
-        <v>46963920</v>
+        <v>47168559</v>
       </c>
       <c r="N3">
-        <v>5755897</v>
+        <v>5475882</v>
       </c>
       <c r="O3">
-        <v>1547981</v>
+        <v>1574138</v>
       </c>
       <c r="P3">
-        <v>17157988</v>
+        <v>14562981</v>
       </c>
       <c r="Q3">
-        <v>7039120</v>
+        <v>6180953</v>
       </c>
       <c r="R3">
-        <v>22508959</v>
+        <v>26215991</v>
       </c>
       <c r="S3">
-        <v>46706067</v>
+        <v>46959925</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B4">
-        <v>5229604</v>
+        <v>5053954</v>
       </c>
       <c r="C4">
-        <v>1618481</v>
+        <v>1597892</v>
       </c>
       <c r="D4">
-        <v>12157100</v>
+        <v>10021741</v>
       </c>
       <c r="E4">
-        <v>5375529</v>
+        <v>4762640</v>
       </c>
       <c r="F4">
-        <v>29629231</v>
+        <v>32573718</v>
       </c>
       <c r="G4">
-        <v>47161860</v>
+        <v>47358099</v>
       </c>
       <c r="H4">
-        <v>5758356</v>
+        <v>5465398</v>
       </c>
       <c r="I4">
-        <v>1551283</v>
+        <v>1580627</v>
       </c>
       <c r="J4">
-        <v>17157160</v>
+        <v>14572377</v>
       </c>
       <c r="K4">
-        <v>7035796</v>
+        <v>6176719</v>
       </c>
       <c r="L4">
-        <v>22507350</v>
+        <v>26214824</v>
       </c>
       <c r="M4">
-        <v>46700306</v>
+        <v>46963920</v>
       </c>
       <c r="N4">
-        <v>5927007</v>
+        <v>5755897</v>
       </c>
       <c r="O4">
-        <v>1592113</v>
+        <v>1547981</v>
       </c>
       <c r="P4">
-        <v>18793468</v>
+        <v>17157988</v>
       </c>
       <c r="Q4">
-        <v>8015572</v>
+        <v>7039120</v>
       </c>
       <c r="R4">
-        <v>19681785</v>
+        <v>22508959</v>
       </c>
       <c r="S4">
-        <v>46490825</v>
+        <v>46706067</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B5">
-        <v>5467098</v>
+        <v>5229604</v>
       </c>
       <c r="C5">
-        <v>1596811</v>
+        <v>1618481</v>
       </c>
       <c r="D5">
-        <v>14575900</v>
+        <v>12157100</v>
       </c>
       <c r="E5">
-        <v>6164226</v>
+        <v>5375529</v>
       </c>
       <c r="F5">
-        <v>26205910</v>
+        <v>29629231</v>
       </c>
       <c r="G5">
-        <v>46946036</v>
+        <v>47161860</v>
       </c>
       <c r="H5">
-        <v>5926909</v>
+        <v>5758356</v>
       </c>
       <c r="I5">
-        <v>1597860</v>
+        <v>1551283</v>
       </c>
       <c r="J5">
-        <v>18796851</v>
+        <v>17157160</v>
       </c>
       <c r="K5">
-        <v>8012376</v>
+        <v>7035796</v>
       </c>
       <c r="L5">
-        <v>19675949</v>
+        <v>22507350</v>
       </c>
       <c r="M5">
-        <v>46485176</v>
+        <v>46700306</v>
       </c>
       <c r="N5">
-        <v>6040050</v>
+        <v>5927007</v>
       </c>
       <c r="O5">
-        <v>1652417</v>
+        <v>1592113</v>
       </c>
       <c r="P5">
-        <v>20133986</v>
+        <v>18793468</v>
       </c>
       <c r="Q5">
-        <v>9055320</v>
+        <v>8015572</v>
       </c>
       <c r="R5">
-        <v>17128172</v>
+        <v>19681785</v>
       </c>
       <c r="S5">
-        <v>46317478</v>
+        <v>46490825</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B6">
-        <v>5610741</v>
+        <v>5467098</v>
       </c>
       <c r="C6">
-        <v>1575333</v>
+        <v>1596811</v>
       </c>
       <c r="D6">
-        <v>17279465</v>
+        <v>14575900</v>
       </c>
       <c r="E6">
-        <v>7025036</v>
+        <v>6164226</v>
       </c>
       <c r="F6">
-        <v>22519370</v>
+        <v>26205910</v>
       </c>
       <c r="G6">
-        <v>46823871</v>
+        <v>46946036</v>
       </c>
       <c r="H6">
-        <v>5893661</v>
+        <v>5926909</v>
       </c>
       <c r="I6">
-        <v>1663892</v>
+        <v>1597860</v>
       </c>
       <c r="J6">
-        <v>20257123</v>
+        <v>18796851</v>
       </c>
       <c r="K6">
-        <v>9057038</v>
+        <v>8012376</v>
       </c>
       <c r="L6">
-        <v>17138231</v>
+        <v>19675949</v>
       </c>
       <c r="M6">
-        <v>46452392</v>
+        <v>46485176</v>
       </c>
       <c r="N6">
-        <v>6038487</v>
+        <v>6040050</v>
       </c>
       <c r="O6">
-        <v>1684410</v>
+        <v>1652417</v>
       </c>
       <c r="P6">
-        <v>22158953</v>
+        <v>20133986</v>
       </c>
       <c r="Q6">
-        <v>9853675</v>
+        <v>9055320</v>
       </c>
       <c r="R6">
-        <v>14274420</v>
+        <v>17128172</v>
       </c>
       <c r="S6">
-        <v>46287048</v>
+        <v>46317478</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B7">
-        <v>5925943</v>
+        <v>5610741</v>
       </c>
       <c r="C7">
-        <v>1616298</v>
+        <v>1575333</v>
       </c>
       <c r="D7">
-        <v>18801609</v>
+        <v>17279465</v>
       </c>
       <c r="E7">
-        <v>7998741</v>
+        <v>7025036</v>
       </c>
       <c r="F7">
-        <v>19667354</v>
+        <v>22519370</v>
       </c>
       <c r="G7">
-        <v>46467704</v>
+        <v>46823871</v>
       </c>
       <c r="H7">
-        <v>6182863</v>
+        <v>5893661</v>
       </c>
       <c r="I7">
-        <v>1687002</v>
+        <v>1663892</v>
       </c>
       <c r="J7">
-        <v>22039408</v>
+        <v>20257123</v>
       </c>
       <c r="K7">
-        <v>9839532</v>
+        <v>9057038</v>
       </c>
       <c r="L7">
-        <v>14261140</v>
+        <v>17138231</v>
       </c>
       <c r="M7">
-        <v>46140080</v>
+        <v>46452392</v>
       </c>
       <c r="N7">
-        <v>6392072</v>
+        <v>6038487</v>
       </c>
       <c r="O7">
-        <v>1641693</v>
+        <v>1684410</v>
       </c>
       <c r="P7">
-        <v>24567729</v>
+        <v>22158953</v>
       </c>
       <c r="Q7">
-        <v>10413190</v>
+        <v>9853675</v>
       </c>
       <c r="R7">
-        <v>10995261</v>
+        <v>14274420</v>
       </c>
       <c r="S7">
-        <v>45976180</v>
+        <v>46287048</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B8">
-        <v>6113428</v>
+        <v>5925943</v>
       </c>
       <c r="C8">
-        <v>1676275</v>
+        <v>1616298</v>
       </c>
       <c r="D8">
-        <v>20106983</v>
+        <v>18801609</v>
       </c>
       <c r="E8">
-        <v>9023286</v>
+        <v>7998741</v>
       </c>
       <c r="F8">
-        <v>17089973</v>
+        <v>19667354</v>
       </c>
       <c r="G8">
-        <v>46220242</v>
+        <v>46467704</v>
       </c>
       <c r="H8">
-        <v>6466161</v>
+        <v>6182863</v>
       </c>
       <c r="I8">
-        <v>1644869</v>
+        <v>1687002</v>
       </c>
       <c r="J8">
-        <v>24530417</v>
+        <v>22039408</v>
       </c>
       <c r="K8">
-        <v>10394218</v>
+        <v>9839532</v>
       </c>
       <c r="L8">
-        <v>10974280</v>
+        <v>14261140</v>
       </c>
       <c r="M8">
-        <v>45898915</v>
+        <v>46140080</v>
       </c>
       <c r="N8">
-        <v>6710026</v>
+        <v>6392072</v>
       </c>
       <c r="O8">
-        <v>1549282</v>
+        <v>1641693</v>
       </c>
       <c r="P8">
-        <v>25990113</v>
+        <v>24567729</v>
       </c>
       <c r="Q8">
-        <v>11656265</v>
+        <v>10413190</v>
       </c>
       <c r="R8">
-        <v>8104259</v>
+        <v>10995261</v>
       </c>
       <c r="S8">
-        <v>45750637</v>
+        <v>45976180</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B9">
-        <v>6194434</v>
+        <v>6113428</v>
       </c>
       <c r="C9">
-        <v>1720841</v>
+        <v>1676275</v>
       </c>
       <c r="D9">
-        <v>22048677</v>
+        <v>20106983</v>
       </c>
       <c r="E9">
-        <v>9810639</v>
+        <v>9023286</v>
       </c>
       <c r="F9">
-        <v>14235354</v>
+        <v>17089973</v>
       </c>
       <c r="G9">
-        <v>46094670</v>
+        <v>46220242</v>
       </c>
       <c r="H9">
-        <v>6647970</v>
+        <v>6466161</v>
       </c>
       <c r="I9">
-        <v>1566179</v>
+        <v>1644869</v>
       </c>
       <c r="J9">
-        <v>26028307</v>
+        <v>24530417</v>
       </c>
       <c r="K9">
-        <v>11660101</v>
+        <v>10394218</v>
       </c>
       <c r="L9">
-        <v>8107388</v>
+        <v>10974280</v>
       </c>
       <c r="M9">
-        <v>45795796</v>
+        <v>45898915</v>
       </c>
       <c r="N9">
-        <v>6862315</v>
+        <v>6710026</v>
       </c>
       <c r="O9">
-        <v>1493790</v>
+        <v>1549282</v>
       </c>
       <c r="P9">
-        <v>26357835</v>
+        <v>25990113</v>
       </c>
       <c r="Q9">
-        <v>13596764</v>
+        <v>11656265</v>
       </c>
       <c r="R9">
-        <v>5699241</v>
+        <v>8104259</v>
       </c>
       <c r="S9">
-        <v>45653840</v>
+        <v>45750637</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B10">
-        <v>6414467</v>
+        <v>6194434</v>
       </c>
       <c r="C10">
-        <v>1678301</v>
+        <v>1720841</v>
       </c>
       <c r="D10">
-        <v>24562863</v>
+        <v>22048677</v>
       </c>
       <c r="E10">
-        <v>10381759</v>
+        <v>9810639</v>
       </c>
       <c r="F10">
-        <v>10972555</v>
+        <v>14235354</v>
       </c>
       <c r="G10">
-        <v>45917177</v>
+        <v>46094670</v>
       </c>
       <c r="H10">
-        <v>6876688</v>
+        <v>6647970</v>
       </c>
       <c r="I10">
-        <v>1504168</v>
+        <v>1566179</v>
       </c>
       <c r="J10">
-        <v>26348254</v>
+        <v>26028307</v>
       </c>
       <c r="K10">
-        <v>13585896</v>
+        <v>11660101</v>
       </c>
       <c r="L10">
-        <v>5694939</v>
+        <v>8107388</v>
       </c>
       <c r="M10">
-        <v>45629089</v>
+        <v>45795796</v>
       </c>
       <c r="N10">
-        <v>7031651</v>
+        <v>6862315</v>
       </c>
       <c r="O10">
-        <v>1502381</v>
+        <v>1493790</v>
       </c>
       <c r="P10">
-        <v>13119984</v>
+        <v>26357835</v>
       </c>
       <c r="Q10">
-        <v>28222661</v>
+        <v>13596764</v>
       </c>
       <c r="R10">
-        <v>4133267</v>
+        <v>5699241</v>
       </c>
       <c r="S10">
-        <v>45475912</v>
+        <v>45653840</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B11">
-        <v>6660263</v>
+        <v>6414467</v>
       </c>
       <c r="C11">
-        <v>1578764</v>
+        <v>1678301</v>
       </c>
       <c r="D11">
-        <v>26019483</v>
+        <v>24562863</v>
       </c>
       <c r="E11">
-        <v>11648617</v>
+        <v>10381759</v>
       </c>
       <c r="F11">
-        <v>8102818</v>
+        <v>10972555</v>
       </c>
       <c r="G11">
-        <v>45770918</v>
+        <v>45917177</v>
       </c>
       <c r="H11">
+        <v>6876688</v>
+      </c>
+      <c r="I11">
+        <v>1504168</v>
+      </c>
+      <c r="J11">
+        <v>26348254</v>
+      </c>
+      <c r="K11">
+        <v>13585896</v>
+      </c>
+      <c r="L11">
+        <v>5694939</v>
+      </c>
+      <c r="M11">
+        <v>45629089</v>
+      </c>
+      <c r="N11">
         <v>7031651</v>
       </c>
-      <c r="I11">
+      <c r="O11">
         <v>1502381</v>
       </c>
-      <c r="J11">
+      <c r="P11">
         <v>13119984</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <v>28222661</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <v>4133267</v>
       </c>
-      <c r="M11">
+      <c r="S11">
         <v>45475912</v>
-      </c>
-      <c r="N11">
-        <v>7160934</v>
-      </c>
-      <c r="O11">
-        <v>1577260</v>
-      </c>
-      <c r="P11">
-        <v>12254673</v>
-      </c>
-      <c r="Q11">
-        <v>29956598</v>
-      </c>
-      <c r="R11">
-        <v>3060479</v>
-      </c>
-      <c r="S11">
-        <v>45271750</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B12">
-        <v>6876688</v>
+        <v>6660263</v>
       </c>
       <c r="C12">
-        <v>1504168</v>
+        <v>1578764</v>
       </c>
       <c r="D12">
-        <v>26348254</v>
+        <v>26019483</v>
       </c>
       <c r="E12">
-        <v>13585896</v>
+        <v>11648617</v>
       </c>
       <c r="F12">
-        <v>5694939</v>
+        <v>8102818</v>
       </c>
       <c r="G12">
-        <v>45629089</v>
+        <v>45770918</v>
       </c>
       <c r="H12">
+        <v>7031651</v>
+      </c>
+      <c r="I12">
+        <v>1502381</v>
+      </c>
+      <c r="J12">
+        <v>13119984</v>
+      </c>
+      <c r="K12">
+        <v>28222661</v>
+      </c>
+      <c r="L12">
+        <v>4133267</v>
+      </c>
+      <c r="M12">
+        <v>45475912</v>
+      </c>
+      <c r="N12">
         <v>7160934</v>
       </c>
-      <c r="I12">
+      <c r="O12">
         <v>1577260</v>
       </c>
-      <c r="J12">
+      <c r="P12">
         <v>12254673</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <v>29956598</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <v>3060479</v>
       </c>
-      <c r="M12">
+      <c r="S12">
         <v>45271750</v>
-      </c>
-      <c r="N12">
-        <v>7291722</v>
-      </c>
-      <c r="O12">
-        <v>1749607</v>
-      </c>
-      <c r="P12">
-        <v>11949919</v>
-      </c>
-      <c r="Q12">
-        <v>30829431</v>
-      </c>
-      <c r="R12">
-        <v>2189265</v>
-      </c>
-      <c r="S12">
-        <v>44968615</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B13">
-        <v>7031651</v>
+        <v>6876688</v>
       </c>
       <c r="C13">
-        <v>1502381</v>
+        <v>1504168</v>
       </c>
       <c r="D13">
-        <v>13119984</v>
+        <v>26348254</v>
       </c>
       <c r="E13">
-        <v>28222661</v>
+        <v>13585896</v>
       </c>
       <c r="F13">
-        <v>4133267</v>
+        <v>5694939</v>
       </c>
       <c r="G13">
-        <v>45475912</v>
+        <v>45629089</v>
       </c>
       <c r="H13">
+        <v>7160934</v>
+      </c>
+      <c r="I13">
+        <v>1577260</v>
+      </c>
+      <c r="J13">
+        <v>12254673</v>
+      </c>
+      <c r="K13">
+        <v>29956598</v>
+      </c>
+      <c r="L13">
+        <v>3060479</v>
+      </c>
+      <c r="M13">
+        <v>45271750</v>
+      </c>
+      <c r="N13">
         <v>7291722</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>1749607</v>
       </c>
-      <c r="J13">
+      <c r="P13">
         <v>11949919</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <v>30829431</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <v>2189265</v>
       </c>
-      <c r="M13">
+      <c r="S13">
         <v>44968615</v>
-      </c>
-      <c r="N13">
-        <v>7404599</v>
-      </c>
-      <c r="O13">
-        <v>1981131</v>
-      </c>
-      <c r="P13">
-        <v>11407859</v>
-      </c>
-      <c r="Q13">
-        <v>31622279</v>
-      </c>
-      <c r="R13">
-        <v>1594076</v>
-      </c>
-      <c r="S13">
-        <v>44624214</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B14">
-        <v>7160934</v>
+        <v>7031651</v>
       </c>
       <c r="C14">
-        <v>1577260</v>
+        <v>1502381</v>
       </c>
       <c r="D14">
-        <v>12254673</v>
+        <v>13119984</v>
       </c>
       <c r="E14">
-        <v>29956598</v>
+        <v>28222661</v>
       </c>
       <c r="F14">
-        <v>3060479</v>
+        <v>4133267</v>
       </c>
       <c r="G14">
-        <v>45271750</v>
+        <v>45475912</v>
       </c>
       <c r="H14">
+        <v>7291722</v>
+      </c>
+      <c r="I14">
+        <v>1749607</v>
+      </c>
+      <c r="J14">
+        <v>11949919</v>
+      </c>
+      <c r="K14">
+        <v>30829431</v>
+      </c>
+      <c r="L14">
+        <v>2189265</v>
+      </c>
+      <c r="M14">
+        <v>44968615</v>
+      </c>
+      <c r="N14">
         <v>7404599</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>1981131</v>
       </c>
-      <c r="J14">
+      <c r="P14">
         <v>11407859</v>
       </c>
-      <c r="K14">
+      <c r="Q14">
         <v>31622279</v>
       </c>
-      <c r="L14">
+      <c r="R14">
         <v>1594076</v>
       </c>
-      <c r="M14">
+      <c r="S14">
         <v>44624214</v>
-      </c>
-      <c r="N14">
-        <v>7586013</v>
-      </c>
-      <c r="O14">
-        <v>2222672</v>
-      </c>
-      <c r="P14">
-        <v>4526706</v>
-      </c>
-      <c r="Q14">
-        <v>38658546</v>
-      </c>
-      <c r="R14">
-        <v>1016007</v>
-      </c>
-      <c r="S14">
-        <v>44201259</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B15">
-        <v>7291722</v>
+        <v>7160934</v>
       </c>
       <c r="C15">
-        <v>1749607</v>
+        <v>1577260</v>
       </c>
       <c r="D15">
-        <v>11949919</v>
+        <v>12254673</v>
       </c>
       <c r="E15">
-        <v>30829431</v>
+        <v>29956598</v>
       </c>
       <c r="F15">
-        <v>2189265</v>
+        <v>3060479</v>
       </c>
       <c r="G15">
-        <v>44968615</v>
+        <v>45271750</v>
       </c>
       <c r="H15">
+        <v>7404599</v>
+      </c>
+      <c r="I15">
+        <v>1981131</v>
+      </c>
+      <c r="J15">
+        <v>11407859</v>
+      </c>
+      <c r="K15">
+        <v>31622279</v>
+      </c>
+      <c r="L15">
+        <v>1594076</v>
+      </c>
+      <c r="M15">
+        <v>44624214</v>
+      </c>
+      <c r="N15">
         <v>7586013</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>2222672</v>
       </c>
-      <c r="J15">
+      <c r="P15">
         <v>4526706</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <v>38658546</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <v>1016007</v>
       </c>
-      <c r="M15">
+      <c r="S15">
         <v>44201259</v>
-      </c>
-      <c r="N15">
-        <v>7862567</v>
-      </c>
-      <c r="O15">
-        <v>2422756</v>
-      </c>
-      <c r="P15">
-        <v>4186423</v>
-      </c>
-      <c r="Q15">
-        <v>38968164</v>
-      </c>
-      <c r="R15">
-        <v>570032</v>
-      </c>
-      <c r="S15">
-        <v>43724619</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B16">
-        <v>7404599</v>
+        <v>7291722</v>
       </c>
       <c r="C16">
-        <v>1981131</v>
+        <v>1749607</v>
       </c>
       <c r="D16">
-        <v>11407859</v>
+        <v>11949919</v>
       </c>
       <c r="E16">
-        <v>31622279</v>
+        <v>30829431</v>
       </c>
       <c r="F16">
-        <v>1594076</v>
+        <v>2189265</v>
       </c>
       <c r="G16">
-        <v>44624214</v>
+        <v>44968615</v>
       </c>
       <c r="H16">
+        <v>7586013</v>
+      </c>
+      <c r="I16">
+        <v>2222672</v>
+      </c>
+      <c r="J16">
+        <v>4526706</v>
+      </c>
+      <c r="K16">
+        <v>38658546</v>
+      </c>
+      <c r="L16">
+        <v>1016007</v>
+      </c>
+      <c r="M16">
+        <v>44201259</v>
+      </c>
+      <c r="N16">
         <v>7862567</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>2422756</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <v>4186423</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <v>38968164</v>
       </c>
-      <c r="L16">
+      <c r="R16">
         <v>570032</v>
       </c>
-      <c r="M16">
+      <c r="S16">
         <v>43724619</v>
-      </c>
-      <c r="N16">
-        <v>8302865</v>
-      </c>
-      <c r="O16">
-        <v>2538614</v>
-      </c>
-      <c r="P16">
-        <v>3884826</v>
-      </c>
-      <c r="Q16">
-        <v>38988918</v>
-      </c>
-      <c r="R16">
-        <v>294719</v>
-      </c>
-      <c r="S16">
-        <v>43168463</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B17">
-        <v>7586013</v>
+        <v>7404599</v>
       </c>
       <c r="C17">
-        <v>2222672</v>
+        <v>1981131</v>
       </c>
       <c r="D17">
-        <v>4526706</v>
+        <v>11407859</v>
       </c>
       <c r="E17">
-        <v>38658546</v>
+        <v>31622279</v>
       </c>
       <c r="F17">
-        <v>1016007</v>
+        <v>1594076</v>
       </c>
       <c r="G17">
-        <v>44201259</v>
+        <v>44624214</v>
       </c>
       <c r="H17">
+        <v>7862567</v>
+      </c>
+      <c r="I17">
+        <v>2422756</v>
+      </c>
+      <c r="J17">
+        <v>4186423</v>
+      </c>
+      <c r="K17">
+        <v>38968164</v>
+      </c>
+      <c r="L17">
+        <v>570032</v>
+      </c>
+      <c r="M17">
+        <v>43724619</v>
+      </c>
+      <c r="N17">
         <v>8302865</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>2538614</v>
       </c>
-      <c r="J17">
+      <c r="P17">
         <v>3884826</v>
       </c>
-      <c r="K17">
+      <c r="Q17">
         <v>38988918</v>
       </c>
-      <c r="L17">
+      <c r="R17">
         <v>294719</v>
       </c>
-      <c r="M17">
+      <c r="S17">
         <v>43168463</v>
-      </c>
-      <c r="N17">
-        <v>8683749</v>
-      </c>
-      <c r="O17">
-        <v>2653423</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>42672767</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B18">
-        <v>7862567</v>
+        <v>7586013</v>
       </c>
       <c r="C18">
-        <v>2422756</v>
+        <v>2222672</v>
       </c>
       <c r="D18">
-        <v>4186423</v>
+        <v>4526706</v>
       </c>
       <c r="E18">
-        <v>38968164</v>
+        <v>38658546</v>
       </c>
       <c r="F18">
-        <v>570032</v>
+        <v>1016007</v>
       </c>
       <c r="G18">
-        <v>43724619</v>
+        <v>44201259</v>
       </c>
       <c r="H18">
+        <v>8302865</v>
+      </c>
+      <c r="I18">
+        <v>2538614</v>
+      </c>
+      <c r="J18">
+        <v>3884826</v>
+      </c>
+      <c r="K18">
+        <v>38988918</v>
+      </c>
+      <c r="L18">
+        <v>294719</v>
+      </c>
+      <c r="M18">
+        <v>43168463</v>
+      </c>
+      <c r="N18">
         <v>8683749</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>2653423</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>42672767</v>
-      </c>
-      <c r="N18">
-        <v>9231487</v>
-      </c>
-      <c r="O18">
-        <v>2863195</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>41915257</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B19">
-        <v>8302865</v>
+        <v>7862567</v>
       </c>
       <c r="C19">
-        <v>2538614</v>
+        <v>2422756</v>
       </c>
       <c r="D19">
-        <v>3884826</v>
+        <v>4186423</v>
       </c>
       <c r="E19">
-        <v>38988918</v>
+        <v>38968164</v>
       </c>
       <c r="F19">
-        <v>294719</v>
+        <v>570032</v>
       </c>
       <c r="G19">
-        <v>43168463</v>
+        <v>43724619</v>
       </c>
       <c r="H19">
+        <v>8683749</v>
+      </c>
+      <c r="I19">
+        <v>2653423</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>42672767</v>
+      </c>
+      <c r="N19">
         <v>9231487</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>2863195</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>41915257</v>
-      </c>
-      <c r="N19">
-        <v>9829232</v>
-      </c>
-      <c r="O19">
-        <v>3259454</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>40921215</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B20">
-        <v>8683749</v>
+        <v>8302865</v>
       </c>
       <c r="C20">
-        <v>2653423</v>
+        <v>2538614</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3884826</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>38988918</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>294719</v>
       </c>
       <c r="G20">
-        <v>42672767</v>
+        <v>43168463</v>
       </c>
       <c r="H20">
+        <v>9231487</v>
+      </c>
+      <c r="I20">
+        <v>2863195</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>41915257</v>
+      </c>
+      <c r="N20">
         <v>9829232</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>3259454</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>40921215</v>
-      </c>
-      <c r="N20">
-        <v>10307179</v>
-      </c>
-      <c r="O20">
-        <v>3862335</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>39840387</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B21">
-        <v>9231487</v>
+        <v>8683749</v>
       </c>
       <c r="C21">
-        <v>2863195</v>
+        <v>2653423</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4462,54 +4539,54 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>41915257</v>
+        <v>42672767</v>
       </c>
       <c r="H21">
+        <v>9829232</v>
+      </c>
+      <c r="I21">
+        <v>3259454</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>40921215</v>
+      </c>
+      <c r="N21">
         <v>10307179</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>3862335</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>39840387</v>
-      </c>
-      <c r="N21">
-        <v>10942694</v>
-      </c>
-      <c r="O21">
-        <v>4426185</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>38641022</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B22">
-        <v>9829232</v>
+        <v>9231487</v>
       </c>
       <c r="C22">
-        <v>3259454</v>
+        <v>2863195</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4521,54 +4598,54 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>40921215</v>
+        <v>41915257</v>
       </c>
       <c r="H22">
+        <v>10307179</v>
+      </c>
+      <c r="I22">
+        <v>3862335</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>39840387</v>
+      </c>
+      <c r="N22">
         <v>10942694</v>
       </c>
-      <c r="I22">
+      <c r="O22">
         <v>4426185</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>38641022</v>
-      </c>
-      <c r="N22">
-        <v>11786620</v>
-      </c>
-      <c r="O22">
-        <v>4805486</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>37417795</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B23">
-        <v>10307179</v>
+        <v>9829232</v>
       </c>
       <c r="C23">
-        <v>3862335</v>
+        <v>3259454</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4580,54 +4657,54 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>39840387</v>
+        <v>40921215</v>
       </c>
       <c r="H23">
+        <v>10942694</v>
+      </c>
+      <c r="I23">
+        <v>4426185</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>38641022</v>
+      </c>
+      <c r="N23">
         <v>11786620</v>
       </c>
-      <c r="I23">
+      <c r="O23">
         <v>4805486</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>37417795</v>
-      </c>
-      <c r="N23">
-        <v>12581126</v>
-      </c>
-      <c r="O23">
-        <v>5096568</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>36332207</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B24">
-        <v>10942694</v>
+        <v>10307179</v>
       </c>
       <c r="C24">
-        <v>4426185</v>
+        <v>3862335</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4639,54 +4716,54 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>38641022</v>
+        <v>39840387</v>
       </c>
       <c r="H24">
+        <v>11786620</v>
+      </c>
+      <c r="I24">
+        <v>4805486</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>37417795</v>
+      </c>
+      <c r="N24">
         <v>12581126</v>
       </c>
-      <c r="I24">
+      <c r="O24">
         <v>5096568</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>36332207</v>
-      </c>
-      <c r="N24">
-        <v>13334156</v>
-      </c>
-      <c r="O24">
-        <v>5075930</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>35599815</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B25">
-        <v>11786620</v>
+        <v>10942694</v>
       </c>
       <c r="C25">
-        <v>4805486</v>
+        <v>4426185</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4698,54 +4775,54 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>37417795</v>
+        <v>38641022</v>
       </c>
       <c r="H25">
+        <v>12581126</v>
+      </c>
+      <c r="I25">
+        <v>5096568</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>36332207</v>
+      </c>
+      <c r="N25">
         <v>13334156</v>
       </c>
-      <c r="I25">
+      <c r="O25">
         <v>5075930</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>35599815</v>
-      </c>
-      <c r="N25">
-        <v>14507530</v>
-      </c>
-      <c r="O25">
-        <v>5210293</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>34292078</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B26">
-        <v>12581126</v>
+        <v>11786620</v>
       </c>
       <c r="C26">
-        <v>5096568</v>
+        <v>4805486</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4757,54 +4834,54 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>36332207</v>
+        <v>37417795</v>
       </c>
       <c r="H26">
+        <v>13334156</v>
+      </c>
+      <c r="I26">
+        <v>5075930</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>35599815</v>
+      </c>
+      <c r="N26">
         <v>14507530</v>
       </c>
-      <c r="I26">
+      <c r="O26">
         <v>5210293</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>34292078</v>
-      </c>
-      <c r="N26">
-        <v>15656647</v>
-      </c>
-      <c r="O26">
-        <v>6065610</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>32287644</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B27">
-        <v>13334156</v>
+        <v>12581126</v>
       </c>
       <c r="C27">
-        <v>5075930</v>
+        <v>5096568</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4816,54 +4893,54 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>35599815</v>
+        <v>36332207</v>
       </c>
       <c r="H27">
+        <v>14507530</v>
+      </c>
+      <c r="I27">
+        <v>5210293</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>34292078</v>
+      </c>
+      <c r="N27">
         <v>15656647</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>6065610</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>32287644</v>
-      </c>
-      <c r="N27">
-        <v>16708830</v>
-      </c>
-      <c r="O27">
-        <v>7672393</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>29628678</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B28">
-        <v>14507530</v>
+        <v>13334156</v>
       </c>
       <c r="C28">
-        <v>5210293</v>
+        <v>5075930</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4875,54 +4952,54 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>34292078</v>
+        <v>35599815</v>
       </c>
       <c r="H28">
+        <v>15656647</v>
+      </c>
+      <c r="I28">
+        <v>6065610</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>32287644</v>
+      </c>
+      <c r="N28">
         <v>16708830</v>
       </c>
-      <c r="I28">
+      <c r="O28">
         <v>7672393</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>29628678</v>
-      </c>
-      <c r="N28">
-        <v>17568325</v>
-      </c>
-      <c r="O28">
-        <v>9940124</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>26501452</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B29">
-        <v>15656647</v>
+        <v>14507530</v>
       </c>
       <c r="C29">
-        <v>6065610</v>
+        <v>5210293</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4934,54 +5011,54 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>32287644</v>
+        <v>34292078</v>
       </c>
       <c r="H29">
+        <v>16708830</v>
+      </c>
+      <c r="I29">
+        <v>7672393</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>29628678</v>
+      </c>
+      <c r="N29">
         <v>17568325</v>
       </c>
-      <c r="I29">
+      <c r="O29">
         <v>9940124</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>26501452</v>
-      </c>
-      <c r="N29">
-        <v>20322806</v>
-      </c>
-      <c r="O29">
-        <v>11341436</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>22345659</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B30">
-        <v>16708830</v>
+        <v>15656647</v>
       </c>
       <c r="C30">
-        <v>7672393</v>
+        <v>6065610</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4993,54 +5070,54 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>29628678</v>
+        <v>32287644</v>
       </c>
       <c r="H30">
+        <v>17568325</v>
+      </c>
+      <c r="I30">
+        <v>9940124</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>26501452</v>
+      </c>
+      <c r="N30">
         <v>20322806</v>
       </c>
-      <c r="I30">
+      <c r="O30">
         <v>11341436</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>22345659</v>
-      </c>
-      <c r="N30">
-        <v>21289761</v>
-      </c>
-      <c r="O30">
-        <v>13149676</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>19570464</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B31">
-        <v>17568325</v>
+        <v>16708830</v>
       </c>
       <c r="C31">
-        <v>9940124</v>
+        <v>7672393</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5052,54 +5129,54 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>26501452</v>
+        <v>29628678</v>
       </c>
       <c r="H31">
+        <v>20322806</v>
+      </c>
+      <c r="I31">
+        <v>11341436</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>22345659</v>
+      </c>
+      <c r="N31">
         <v>21289761</v>
       </c>
-      <c r="I31">
+      <c r="O31">
         <v>13149676</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <v>19570464</v>
-      </c>
-      <c r="N31">
-        <v>22879167</v>
-      </c>
-      <c r="O31">
-        <v>13741130</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>17389604</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B32">
-        <v>20322806</v>
+        <v>17568325</v>
       </c>
       <c r="C32">
-        <v>11341436</v>
+        <v>9940124</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5111,54 +5188,54 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>22345659</v>
+        <v>26501452</v>
       </c>
       <c r="H32">
+        <v>21289761</v>
+      </c>
+      <c r="I32">
+        <v>13149676</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>19570464</v>
+      </c>
+      <c r="N32">
         <v>22879167</v>
       </c>
-      <c r="I32">
+      <c r="O32">
         <v>13741130</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>17389604</v>
-      </c>
-      <c r="N32">
-        <v>24745853</v>
-      </c>
-      <c r="O32">
-        <v>13879852</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>15384196</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B33">
-        <v>21289761</v>
+        <v>20322806</v>
       </c>
       <c r="C33">
-        <v>13149676</v>
+        <v>11341436</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5170,54 +5247,54 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>19570464</v>
+        <v>22345659</v>
       </c>
       <c r="H33">
+        <v>22879167</v>
+      </c>
+      <c r="I33">
+        <v>13741130</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>17389604</v>
+      </c>
+      <c r="N33">
         <v>24745853</v>
       </c>
-      <c r="I33">
+      <c r="O33">
         <v>13879852</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>15384196</v>
-      </c>
-      <c r="N33">
-        <v>27065063</v>
-      </c>
-      <c r="O33">
-        <v>13015437</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>13929401</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B34">
-        <v>22879167</v>
+        <v>21289761</v>
       </c>
       <c r="C34">
-        <v>13741130</v>
+        <v>13149676</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5229,54 +5306,54 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>17389604</v>
+        <v>19570464</v>
       </c>
       <c r="H34">
+        <v>24745853</v>
+      </c>
+      <c r="I34">
+        <v>13879852</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>15384196</v>
+      </c>
+      <c r="N34">
         <v>27065063</v>
       </c>
-      <c r="I34">
+      <c r="O34">
         <v>13015437</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>13929401</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B35">
-        <v>24745853</v>
+        <v>22879167</v>
       </c>
       <c r="C35">
-        <v>13879852</v>
+        <v>13741130</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5288,13 +5365,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>15384196</v>
+        <v>17389604</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>27065063</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>13015437</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -5306,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>13929401</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -5329,60 +5406,119 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B36">
+        <v>24745853</v>
+      </c>
+      <c r="C36">
+        <v>13879852</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>15384196</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="2">
         <v>44391</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>27065063</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>13015437</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>13929401</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,1476 +556,1476 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2">
-        <v>44636</v>
+        <v>44629</v>
       </c>
       <c r="B2">
-        <v>29508</v>
+        <v>263373</v>
       </c>
       <c r="C2">
-        <v>3894</v>
+        <v>44050</v>
       </c>
       <c r="D2">
-        <v>13098</v>
+        <v>195682</v>
       </c>
       <c r="E2">
-        <v>8150</v>
+        <v>147602</v>
       </c>
       <c r="F2">
-        <v>122764</v>
+        <v>569292</v>
       </c>
       <c r="G2">
-        <v>144012</v>
+        <v>912576</v>
       </c>
       <c r="H2">
-        <v>2356</v>
+        <v>8894</v>
       </c>
       <c r="I2">
-        <v>347</v>
+        <v>1220</v>
       </c>
       <c r="J2">
-        <v>1596</v>
+        <v>6443</v>
       </c>
       <c r="K2">
-        <v>412</v>
+        <v>2105</v>
       </c>
       <c r="L2">
-        <v>3646</v>
+        <v>11808</v>
       </c>
       <c r="M2">
-        <v>5654</v>
+        <v>20356</v>
       </c>
       <c r="N2">
-        <v>86</v>
+        <v>720</v>
       </c>
       <c r="O2">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="P2">
-        <v>34</v>
+        <v>319</v>
       </c>
       <c r="Q2">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="R2">
-        <v>70</v>
+        <v>523</v>
       </c>
       <c r="S2">
-        <v>136</v>
+        <v>950</v>
       </c>
       <c r="T2">
-        <v>686</v>
+        <v>2655</v>
       </c>
       <c r="U2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="V2">
-        <v>482</v>
+        <v>2075</v>
       </c>
       <c r="W2">
-        <v>94</v>
+        <v>303</v>
       </c>
       <c r="X2">
-        <v>532</v>
+        <v>2613</v>
       </c>
       <c r="Y2">
-        <v>1108</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2">
-        <v>44629</v>
+        <v>44622</v>
       </c>
       <c r="B3">
-        <v>263373</v>
+        <v>362240</v>
       </c>
       <c r="C3">
-        <v>44050</v>
+        <v>61074</v>
       </c>
       <c r="D3">
-        <v>195682</v>
+        <v>316885</v>
       </c>
       <c r="E3">
-        <v>147602</v>
+        <v>210897</v>
       </c>
       <c r="F3">
-        <v>569292</v>
+        <v>617287</v>
       </c>
       <c r="G3">
-        <v>912576</v>
+        <v>1145069</v>
       </c>
       <c r="H3">
-        <v>8894</v>
+        <v>11144</v>
       </c>
       <c r="I3">
-        <v>1220</v>
+        <v>1422</v>
       </c>
       <c r="J3">
-        <v>6443</v>
+        <v>9008</v>
       </c>
       <c r="K3">
-        <v>2105</v>
+        <v>2676</v>
       </c>
       <c r="L3">
-        <v>11808</v>
+        <v>12272</v>
       </c>
       <c r="M3">
-        <v>20356</v>
+        <v>23956</v>
       </c>
       <c r="N3">
-        <v>720</v>
+        <v>941</v>
       </c>
       <c r="O3">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P3">
-        <v>319</v>
+        <v>470</v>
       </c>
       <c r="Q3">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="R3">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="S3">
-        <v>950</v>
+        <v>1134</v>
       </c>
       <c r="T3">
-        <v>2655</v>
+        <v>3198</v>
       </c>
       <c r="U3">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="V3">
-        <v>2075</v>
+        <v>2507</v>
       </c>
       <c r="W3">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="X3">
-        <v>2613</v>
+        <v>2677</v>
       </c>
       <c r="Y3">
-        <v>4991</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2">
-        <v>44622</v>
+        <v>44615</v>
       </c>
       <c r="B4">
-        <v>362240</v>
+        <v>503511</v>
       </c>
       <c r="C4">
-        <v>61074</v>
+        <v>81921</v>
       </c>
       <c r="D4">
-        <v>316885</v>
+        <v>543352</v>
       </c>
       <c r="E4">
-        <v>210897</v>
+        <v>313619</v>
       </c>
       <c r="F4">
-        <v>617287</v>
+        <v>682585</v>
       </c>
       <c r="G4">
-        <v>1145069</v>
+        <v>1539556</v>
       </c>
       <c r="H4">
-        <v>11144</v>
+        <v>13534</v>
       </c>
       <c r="I4">
-        <v>1422</v>
+        <v>1516</v>
       </c>
       <c r="J4">
-        <v>9008</v>
+        <v>11607</v>
       </c>
       <c r="K4">
-        <v>2676</v>
+        <v>3210</v>
       </c>
       <c r="L4">
-        <v>12272</v>
+        <v>12271</v>
       </c>
       <c r="M4">
-        <v>23956</v>
+        <v>27088</v>
       </c>
       <c r="N4">
-        <v>941</v>
+        <v>1261</v>
       </c>
       <c r="O4">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P4">
-        <v>470</v>
+        <v>617</v>
       </c>
       <c r="Q4">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="R4">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="S4">
-        <v>1134</v>
+        <v>1304</v>
       </c>
       <c r="T4">
-        <v>3198</v>
+        <v>3470</v>
       </c>
       <c r="U4">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="V4">
-        <v>2507</v>
+        <v>2795</v>
       </c>
       <c r="W4">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="X4">
-        <v>2677</v>
+        <v>2403</v>
       </c>
       <c r="Y4">
-        <v>5521</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="B5">
-        <v>503511</v>
+        <v>642419</v>
       </c>
       <c r="C5">
-        <v>81921</v>
+        <v>102315</v>
       </c>
       <c r="D5">
-        <v>543352</v>
+        <v>848833</v>
       </c>
       <c r="E5">
-        <v>313619</v>
+        <v>439413</v>
       </c>
       <c r="F5">
-        <v>682585</v>
+        <v>717143</v>
       </c>
       <c r="G5">
-        <v>1539556</v>
+        <v>2005389</v>
       </c>
       <c r="H5">
-        <v>13534</v>
+        <v>15012</v>
       </c>
       <c r="I5">
-        <v>1516</v>
+        <v>1532</v>
       </c>
       <c r="J5">
-        <v>11607</v>
+        <v>13660</v>
       </c>
       <c r="K5">
-        <v>3210</v>
+        <v>3480</v>
       </c>
       <c r="L5">
-        <v>12271</v>
+        <v>11075</v>
       </c>
       <c r="M5">
-        <v>27088</v>
+        <v>28215</v>
       </c>
       <c r="N5">
-        <v>1261</v>
+        <v>1524</v>
       </c>
       <c r="O5">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P5">
-        <v>617</v>
+        <v>736</v>
       </c>
       <c r="Q5">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R5">
-        <v>540</v>
+        <v>474</v>
       </c>
       <c r="S5">
-        <v>1304</v>
+        <v>1350</v>
       </c>
       <c r="T5">
-        <v>3470</v>
+        <v>3357</v>
       </c>
       <c r="U5">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="V5">
-        <v>2795</v>
+        <v>2757</v>
       </c>
       <c r="W5">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="X5">
-        <v>2403</v>
+        <v>1918</v>
       </c>
       <c r="Y5">
-        <v>5527</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2">
-        <v>44608</v>
+        <v>44601</v>
       </c>
       <c r="B6">
-        <v>642419</v>
+        <v>777547</v>
       </c>
       <c r="C6">
-        <v>102315</v>
+        <v>127486</v>
       </c>
       <c r="D6">
-        <v>848833</v>
+        <v>1249396</v>
       </c>
       <c r="E6">
-        <v>439413</v>
+        <v>597335</v>
       </c>
       <c r="F6">
-        <v>717143</v>
+        <v>738378</v>
       </c>
       <c r="G6">
-        <v>2005389</v>
+        <v>2585109</v>
       </c>
       <c r="H6">
-        <v>15012</v>
+        <v>15695</v>
       </c>
       <c r="I6">
-        <v>1532</v>
+        <v>1437</v>
       </c>
       <c r="J6">
-        <v>13660</v>
+        <v>14598</v>
       </c>
       <c r="K6">
-        <v>3480</v>
+        <v>3426</v>
       </c>
       <c r="L6">
-        <v>11075</v>
+        <v>9017</v>
       </c>
       <c r="M6">
-        <v>28215</v>
+        <v>27041</v>
       </c>
       <c r="N6">
-        <v>1524</v>
+        <v>1716</v>
       </c>
       <c r="O6">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P6">
-        <v>736</v>
+        <v>803</v>
       </c>
       <c r="Q6">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="R6">
-        <v>474</v>
+        <v>378</v>
       </c>
       <c r="S6">
-        <v>1350</v>
+        <v>1306</v>
       </c>
       <c r="T6">
-        <v>3357</v>
+        <v>3144</v>
       </c>
       <c r="U6">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="V6">
-        <v>2757</v>
+        <v>2508</v>
       </c>
       <c r="W6">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="X6">
-        <v>1918</v>
+        <v>1331</v>
       </c>
       <c r="Y6">
-        <v>4952</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2">
-        <v>44601</v>
+        <v>44594</v>
       </c>
       <c r="B7">
-        <v>777547</v>
+        <v>809625</v>
       </c>
       <c r="C7">
-        <v>127486</v>
+        <v>137850</v>
       </c>
       <c r="D7">
-        <v>1249396</v>
+        <v>1532777</v>
       </c>
       <c r="E7">
-        <v>597335</v>
+        <v>687597</v>
       </c>
       <c r="F7">
-        <v>738378</v>
+        <v>672910</v>
       </c>
       <c r="G7">
-        <v>2585109</v>
+        <v>2893284</v>
       </c>
       <c r="H7">
-        <v>15695</v>
+        <v>15049</v>
       </c>
       <c r="I7">
-        <v>1437</v>
+        <v>1240</v>
       </c>
       <c r="J7">
-        <v>14598</v>
+        <v>13663</v>
       </c>
       <c r="K7">
-        <v>3426</v>
+        <v>2915</v>
       </c>
       <c r="L7">
-        <v>9017</v>
+        <v>6606</v>
       </c>
       <c r="M7">
-        <v>27041</v>
+        <v>23184</v>
       </c>
       <c r="N7">
-        <v>1716</v>
+        <v>1792</v>
       </c>
       <c r="O7">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P7">
-        <v>803</v>
+        <v>775</v>
       </c>
       <c r="Q7">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="R7">
-        <v>378</v>
+        <v>280</v>
       </c>
       <c r="S7">
-        <v>1306</v>
+        <v>1166</v>
       </c>
       <c r="T7">
-        <v>3144</v>
+        <v>2632</v>
       </c>
       <c r="U7">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="V7">
-        <v>2508</v>
+        <v>2172</v>
       </c>
       <c r="W7">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="X7">
-        <v>1331</v>
+        <v>814</v>
       </c>
       <c r="Y7">
-        <v>4071</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2">
-        <v>44594</v>
+        <v>44587</v>
       </c>
       <c r="B8">
-        <v>809625</v>
+        <v>703732</v>
       </c>
       <c r="C8">
-        <v>137850</v>
+        <v>127478</v>
       </c>
       <c r="D8">
-        <v>1532777</v>
+        <v>1544092</v>
       </c>
       <c r="E8">
-        <v>687597</v>
+        <v>640805</v>
       </c>
       <c r="F8">
-        <v>672910</v>
+        <v>521657</v>
       </c>
       <c r="G8">
-        <v>2893284</v>
+        <v>2706554</v>
       </c>
       <c r="H8">
-        <v>15049</v>
+        <v>13946</v>
       </c>
       <c r="I8">
-        <v>1240</v>
+        <v>989</v>
       </c>
       <c r="J8">
-        <v>13663</v>
+        <v>11934</v>
       </c>
       <c r="K8">
-        <v>2915</v>
+        <v>2225</v>
       </c>
       <c r="L8">
-        <v>6606</v>
+        <v>4177</v>
       </c>
       <c r="M8">
-        <v>23184</v>
+        <v>18336</v>
       </c>
       <c r="N8">
-        <v>1792</v>
+        <v>1753</v>
       </c>
       <c r="O8">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P8">
-        <v>775</v>
+        <v>736</v>
       </c>
       <c r="Q8">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="R8">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="S8">
-        <v>1166</v>
+        <v>1014</v>
       </c>
       <c r="T8">
-        <v>2632</v>
+        <v>2120</v>
       </c>
       <c r="U8">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="V8">
-        <v>2172</v>
+        <v>1805</v>
       </c>
       <c r="W8">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="X8">
-        <v>814</v>
+        <v>432</v>
       </c>
       <c r="Y8">
-        <v>3168</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2">
-        <v>44587</v>
+        <v>44580</v>
       </c>
       <c r="B9">
-        <v>703732</v>
+        <v>555697</v>
       </c>
       <c r="C9">
-        <v>127478</v>
+        <v>102729</v>
       </c>
       <c r="D9">
-        <v>1544092</v>
+        <v>1320086</v>
       </c>
       <c r="E9">
-        <v>640805</v>
+        <v>527687</v>
       </c>
       <c r="F9">
-        <v>521657</v>
+        <v>358530</v>
       </c>
       <c r="G9">
-        <v>2706554</v>
+        <v>2206303</v>
       </c>
       <c r="H9">
-        <v>13946</v>
+        <v>11487</v>
       </c>
       <c r="I9">
-        <v>989</v>
+        <v>681</v>
       </c>
       <c r="J9">
-        <v>11934</v>
+        <v>9435</v>
       </c>
       <c r="K9">
-        <v>2225</v>
+        <v>1499</v>
       </c>
       <c r="L9">
-        <v>4177</v>
+        <v>2066</v>
       </c>
       <c r="M9">
-        <v>18336</v>
+        <v>13000</v>
       </c>
       <c r="N9">
-        <v>1753</v>
+        <v>1557</v>
       </c>
       <c r="O9">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P9">
-        <v>736</v>
+        <v>634</v>
       </c>
       <c r="Q9">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="R9">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="S9">
-        <v>1014</v>
+        <v>809</v>
       </c>
       <c r="T9">
-        <v>2120</v>
+        <v>1774</v>
       </c>
       <c r="U9">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="V9">
-        <v>1805</v>
+        <v>1541</v>
       </c>
       <c r="W9">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="X9">
-        <v>432</v>
+        <v>215</v>
       </c>
       <c r="Y9">
-        <v>2375</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2">
-        <v>44580</v>
+        <v>44573</v>
       </c>
       <c r="B10">
-        <v>555697</v>
+        <v>395424</v>
       </c>
       <c r="C10">
-        <v>102729</v>
+        <v>68050</v>
       </c>
       <c r="D10">
-        <v>1320086</v>
+        <v>955924</v>
       </c>
       <c r="E10">
-        <v>527687</v>
+        <v>364078</v>
       </c>
       <c r="F10">
-        <v>358530</v>
+        <v>200146</v>
       </c>
       <c r="G10">
-        <v>2206303</v>
+        <v>1520148</v>
       </c>
       <c r="H10">
-        <v>11487</v>
+        <v>9564</v>
       </c>
       <c r="I10">
-        <v>681</v>
+        <v>479</v>
       </c>
       <c r="J10">
-        <v>9435</v>
+        <v>7594</v>
       </c>
       <c r="K10">
-        <v>1499</v>
+        <v>1055</v>
       </c>
       <c r="L10">
-        <v>2066</v>
+        <v>955</v>
       </c>
       <c r="M10">
-        <v>13000</v>
+        <v>9604</v>
       </c>
       <c r="N10">
-        <v>1557</v>
+        <v>1368</v>
       </c>
       <c r="O10">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="P10">
-        <v>634</v>
+        <v>534</v>
       </c>
       <c r="Q10">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="R10">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="S10">
-        <v>809</v>
+        <v>663</v>
       </c>
       <c r="T10">
-        <v>1774</v>
+        <v>1443</v>
       </c>
       <c r="U10">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="V10">
-        <v>1541</v>
+        <v>1370</v>
       </c>
       <c r="W10">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X10">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="Y10">
-        <v>1863</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2">
-        <v>44573</v>
+        <v>44566</v>
       </c>
       <c r="B11">
-        <v>395424</v>
+        <v>251412</v>
       </c>
       <c r="C11">
-        <v>68050</v>
+        <v>34617</v>
       </c>
       <c r="D11">
-        <v>955924</v>
+        <v>547518</v>
       </c>
       <c r="E11">
-        <v>364078</v>
+        <v>195560</v>
       </c>
       <c r="F11">
-        <v>200146</v>
+        <v>79260</v>
       </c>
       <c r="G11">
-        <v>1520148</v>
+        <v>822338</v>
       </c>
       <c r="H11">
-        <v>9564</v>
+        <v>8278</v>
       </c>
       <c r="I11">
-        <v>479</v>
+        <v>410</v>
       </c>
       <c r="J11">
-        <v>7594</v>
+        <v>6612</v>
       </c>
       <c r="K11">
-        <v>1055</v>
+        <v>905</v>
       </c>
       <c r="L11">
-        <v>955</v>
+        <v>546</v>
       </c>
       <c r="M11">
-        <v>9604</v>
+        <v>8063</v>
       </c>
       <c r="N11">
-        <v>1368</v>
+        <v>1202</v>
       </c>
       <c r="O11">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P11">
-        <v>534</v>
+        <v>496</v>
       </c>
       <c r="Q11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R11">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="S11">
-        <v>663</v>
+        <v>614</v>
       </c>
       <c r="T11">
-        <v>1443</v>
+        <v>1170</v>
       </c>
       <c r="U11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V11">
-        <v>1370</v>
+        <v>1298</v>
       </c>
       <c r="W11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X11">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="Y11">
-        <v>1606</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2">
-        <v>44566</v>
+        <v>44558</v>
       </c>
       <c r="B12">
-        <v>251412</v>
+        <v>170551</v>
       </c>
       <c r="C12">
-        <v>34617</v>
+        <v>14491</v>
       </c>
       <c r="D12">
-        <v>547518</v>
+        <v>265724</v>
       </c>
       <c r="E12">
-        <v>195560</v>
+        <v>99757</v>
       </c>
       <c r="F12">
-        <v>79260</v>
+        <v>20375</v>
       </c>
       <c r="G12">
-        <v>822338</v>
+        <v>385856</v>
       </c>
       <c r="H12">
-        <v>8278</v>
+        <v>7059</v>
       </c>
       <c r="I12">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="J12">
-        <v>6612</v>
+        <v>5927</v>
       </c>
       <c r="K12">
-        <v>905</v>
+        <v>934</v>
       </c>
       <c r="L12">
-        <v>546</v>
+        <v>368</v>
       </c>
       <c r="M12">
-        <v>8063</v>
+        <v>7229</v>
       </c>
       <c r="N12">
-        <v>1202</v>
+        <v>1036</v>
       </c>
       <c r="O12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P12">
-        <v>496</v>
+        <v>433</v>
       </c>
       <c r="Q12">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="R12">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="S12">
-        <v>614</v>
+        <v>555</v>
       </c>
       <c r="T12">
-        <v>1170</v>
+        <v>994</v>
       </c>
       <c r="U12">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="V12">
-        <v>1298</v>
+        <v>1108</v>
       </c>
       <c r="W12">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="X12">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="Y12">
-        <v>1489</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2">
-        <v>44558</v>
+        <v>44551</v>
       </c>
       <c r="B13">
-        <v>170551</v>
+        <v>140677</v>
       </c>
       <c r="C13">
-        <v>14491</v>
+        <v>9069</v>
       </c>
       <c r="D13">
-        <v>265724</v>
+        <v>91366</v>
       </c>
       <c r="E13">
-        <v>99757</v>
+        <v>155978</v>
       </c>
       <c r="F13">
-        <v>20375</v>
+        <v>7655</v>
       </c>
       <c r="G13">
-        <v>385856</v>
+        <v>254999</v>
       </c>
       <c r="H13">
-        <v>7059</v>
+        <v>5944</v>
       </c>
       <c r="I13">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="J13">
-        <v>5927</v>
+        <v>4047</v>
       </c>
       <c r="K13">
-        <v>934</v>
+        <v>2065</v>
       </c>
       <c r="L13">
-        <v>368</v>
+        <v>272</v>
       </c>
       <c r="M13">
-        <v>7229</v>
+        <v>6384</v>
       </c>
       <c r="N13">
-        <v>1036</v>
+        <v>887</v>
       </c>
       <c r="O13">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="P13">
-        <v>433</v>
+        <v>254</v>
       </c>
       <c r="Q13">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="R13">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S13">
-        <v>555</v>
+        <v>466</v>
       </c>
       <c r="T13">
-        <v>994</v>
+        <v>839</v>
       </c>
       <c r="U13">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="V13">
-        <v>1108</v>
+        <v>838</v>
       </c>
       <c r="W13">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="X13">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="Y13">
-        <v>1262</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2">
-        <v>44551</v>
+        <v>44545</v>
       </c>
       <c r="B14">
-        <v>140677</v>
+        <v>114674</v>
       </c>
       <c r="C14">
-        <v>9069</v>
+        <v>7107</v>
       </c>
       <c r="D14">
-        <v>91366</v>
+        <v>71563</v>
       </c>
       <c r="E14">
-        <v>155978</v>
+        <v>122505</v>
       </c>
       <c r="F14">
-        <v>7655</v>
+        <v>4219</v>
       </c>
       <c r="G14">
-        <v>254999</v>
+        <v>198287</v>
       </c>
       <c r="H14">
-        <v>5944</v>
+        <v>5081</v>
       </c>
       <c r="I14">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="J14">
-        <v>4047</v>
+        <v>3432</v>
       </c>
       <c r="K14">
-        <v>2065</v>
+        <v>1843</v>
       </c>
       <c r="L14">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="M14">
-        <v>6384</v>
+        <v>5451</v>
       </c>
       <c r="N14">
-        <v>887</v>
+        <v>747</v>
       </c>
       <c r="O14">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P14">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="Q14">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="R14">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="S14">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="T14">
-        <v>839</v>
+        <v>722</v>
       </c>
       <c r="U14">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="V14">
-        <v>838</v>
+        <v>745</v>
       </c>
       <c r="W14">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="X14">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="Y14">
-        <v>1105</v>
+        <v>991</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2">
-        <v>44545</v>
+        <v>44537</v>
       </c>
       <c r="B15">
-        <v>114674</v>
+        <v>93220</v>
       </c>
       <c r="C15">
-        <v>7107</v>
+        <v>6181</v>
       </c>
       <c r="D15">
-        <v>71563</v>
+        <v>57054</v>
       </c>
       <c r="E15">
-        <v>122505</v>
+        <v>102245</v>
       </c>
       <c r="F15">
-        <v>4219</v>
+        <v>2652</v>
       </c>
       <c r="G15">
-        <v>198287</v>
+        <v>161951</v>
       </c>
       <c r="H15">
-        <v>5081</v>
+        <v>4402</v>
       </c>
       <c r="I15">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="J15">
-        <v>3432</v>
+        <v>2916</v>
       </c>
       <c r="K15">
-        <v>1843</v>
+        <v>1616</v>
       </c>
       <c r="L15">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="M15">
-        <v>5451</v>
+        <v>4653</v>
       </c>
       <c r="N15">
-        <v>747</v>
+        <v>618</v>
       </c>
       <c r="O15">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P15">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="Q15">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="R15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S15">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="T15">
-        <v>722</v>
+        <v>620</v>
       </c>
       <c r="U15">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="V15">
-        <v>745</v>
+        <v>604</v>
       </c>
       <c r="W15">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="X15">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="Y15">
-        <v>991</v>
+        <v>807</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2">
-        <v>44537</v>
+        <v>44531</v>
       </c>
       <c r="B16">
-        <v>93220</v>
+        <v>75512</v>
       </c>
       <c r="C16">
-        <v>6181</v>
+        <v>5587</v>
       </c>
       <c r="D16">
-        <v>57054</v>
+        <v>44023</v>
       </c>
       <c r="E16">
-        <v>102245</v>
+        <v>82755</v>
       </c>
       <c r="F16">
-        <v>2652</v>
+        <v>1710</v>
       </c>
       <c r="G16">
-        <v>161951</v>
+        <v>128488</v>
       </c>
       <c r="H16">
-        <v>4402</v>
+        <v>3733</v>
       </c>
       <c r="I16">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="J16">
-        <v>2916</v>
+        <v>2336</v>
       </c>
       <c r="K16">
-        <v>1616</v>
+        <v>1435</v>
       </c>
       <c r="L16">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="M16">
-        <v>4653</v>
+        <v>3845</v>
       </c>
       <c r="N16">
-        <v>618</v>
+        <v>546</v>
       </c>
       <c r="O16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="Q16">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="R16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S16">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="T16">
-        <v>620</v>
+        <v>515</v>
       </c>
       <c r="U16">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="V16">
-        <v>604</v>
+        <v>482</v>
       </c>
       <c r="W16">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="X16">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y16">
-        <v>807</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2">
-        <v>44531</v>
+        <v>44524</v>
       </c>
       <c r="B17">
-        <v>75512</v>
+        <v>61908</v>
       </c>
       <c r="C17">
-        <v>5587</v>
+        <v>4260</v>
       </c>
       <c r="D17">
-        <v>44023</v>
+        <v>15519</v>
       </c>
       <c r="E17">
-        <v>82755</v>
+        <v>81740</v>
       </c>
       <c r="F17">
-        <v>1710</v>
+        <v>969</v>
       </c>
       <c r="G17">
-        <v>128488</v>
+        <v>98228</v>
       </c>
       <c r="H17">
-        <v>3733</v>
+        <v>3737</v>
       </c>
       <c r="I17">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="J17">
-        <v>2336</v>
+        <v>1187</v>
       </c>
       <c r="K17">
-        <v>1435</v>
+        <v>2437</v>
       </c>
       <c r="L17">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M17">
-        <v>3845</v>
+        <v>3693</v>
       </c>
       <c r="N17">
-        <v>546</v>
+        <v>509</v>
       </c>
       <c r="O17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P17">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="Q17">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="R17">
         <v>3</v>
       </c>
       <c r="S17">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T17">
-        <v>515</v>
+        <v>449</v>
       </c>
       <c r="U17">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="V17">
-        <v>482</v>
+        <v>191</v>
       </c>
       <c r="W17">
-        <v>197</v>
+        <v>359</v>
       </c>
       <c r="X17">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Y17">
-        <v>690</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2">
-        <v>44524</v>
+        <v>44517</v>
       </c>
       <c r="B18">
-        <v>61908</v>
+        <v>50564</v>
       </c>
       <c r="C18">
-        <v>4260</v>
+        <v>3980</v>
       </c>
       <c r="D18">
-        <v>15519</v>
+        <v>11215</v>
       </c>
       <c r="E18">
-        <v>81740</v>
+        <v>60407</v>
       </c>
       <c r="F18">
-        <v>969</v>
+        <v>537</v>
       </c>
       <c r="G18">
-        <v>98228</v>
+        <v>72159</v>
       </c>
       <c r="H18">
-        <v>3737</v>
+        <v>3220</v>
       </c>
       <c r="I18">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="J18">
-        <v>1187</v>
+        <v>826</v>
       </c>
       <c r="K18">
-        <v>2437</v>
+        <v>2075</v>
       </c>
       <c r="L18">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>3693</v>
+        <v>2936</v>
       </c>
       <c r="N18">
-        <v>509</v>
+        <v>424</v>
       </c>
       <c r="O18">
         <v>14</v>
       </c>
       <c r="P18">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="Q18">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="R18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="T18">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="U18">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="V18">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="W18">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="X18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>555</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2">
-        <v>44517</v>
+        <v>44510</v>
       </c>
       <c r="B19">
-        <v>50564</v>
+        <v>40182</v>
       </c>
       <c r="C19">
-        <v>3980</v>
+        <v>3466</v>
       </c>
       <c r="D19">
-        <v>11215</v>
+        <v>8088</v>
       </c>
       <c r="E19">
-        <v>60407</v>
+        <v>43928</v>
       </c>
       <c r="F19">
-        <v>537</v>
+        <v>286</v>
       </c>
       <c r="G19">
-        <v>72159</v>
+        <v>52302</v>
       </c>
       <c r="H19">
-        <v>3220</v>
+        <v>2890</v>
       </c>
       <c r="I19">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="J19">
-        <v>826</v>
+        <v>618</v>
       </c>
       <c r="K19">
-        <v>2075</v>
+        <v>1774</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>2936</v>
+        <v>2409</v>
       </c>
       <c r="N19">
-        <v>424</v>
+        <v>370</v>
       </c>
       <c r="O19">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P19">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="Q19">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="T19">
+        <v>361</v>
+      </c>
+      <c r="U19">
+        <v>27</v>
+      </c>
+      <c r="V19">
+        <v>85</v>
+      </c>
+      <c r="W19">
+        <v>299</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>384</v>
-      </c>
-      <c r="U19">
-        <v>19</v>
-      </c>
-      <c r="V19">
-        <v>135</v>
-      </c>
-      <c r="W19">
-        <v>309</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2">
-        <v>44510</v>
+        <v>44503</v>
       </c>
       <c r="B20">
-        <v>40182</v>
+        <v>35398</v>
       </c>
       <c r="C20">
-        <v>3466</v>
+        <v>3207</v>
       </c>
       <c r="D20">
-        <v>8088</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>43928</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>52302</v>
+        <v>40991</v>
       </c>
       <c r="H20">
-        <v>2890</v>
+        <v>2696</v>
       </c>
       <c r="I20">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J20">
-        <v>618</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1774</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>2409</v>
+        <v>2037</v>
       </c>
       <c r="N20">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="O20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P20">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="T20">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="U20">
         <v>27</v>
       </c>
       <c r="V20">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>384</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>44503</v>
+        <v>44496</v>
       </c>
       <c r="B21">
-        <v>35398</v>
+        <v>34128</v>
       </c>
       <c r="C21">
-        <v>3207</v>
+        <v>3421</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>40991</v>
+        <v>34131</v>
       </c>
       <c r="H21">
-        <v>2696</v>
+        <v>2845</v>
       </c>
       <c r="I21">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2037</v>
+        <v>1815</v>
       </c>
       <c r="N21">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="O21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="T21">
-        <v>416</v>
+        <v>511</v>
       </c>
       <c r="U21">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2091,18 +2091,18 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>423</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2">
-        <v>44496</v>
+        <v>44489</v>
       </c>
       <c r="B22">
-        <v>34128</v>
+        <v>36194</v>
       </c>
       <c r="C22">
-        <v>3421</v>
+        <v>4127</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>34131</v>
+        <v>31514</v>
       </c>
       <c r="H22">
-        <v>2845</v>
+        <v>3396</v>
       </c>
       <c r="I22">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1815</v>
+        <v>1954</v>
       </c>
       <c r="N22">
-        <v>332</v>
+        <v>414</v>
       </c>
       <c r="O22">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2150,36 +2150,36 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="T22">
+        <v>636</v>
+      </c>
+      <c r="U22">
+        <v>42</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>511</v>
-      </c>
-      <c r="U22">
-        <v>40</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2">
-        <v>44489</v>
+        <v>44482</v>
       </c>
       <c r="B23">
-        <v>36194</v>
+        <v>45790</v>
       </c>
       <c r="C23">
-        <v>4127</v>
+        <v>5352</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2191,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>31514</v>
+        <v>33496</v>
       </c>
       <c r="H23">
-        <v>3396</v>
+        <v>4274</v>
       </c>
       <c r="I23">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1954</v>
+        <v>2133</v>
       </c>
       <c r="N23">
-        <v>414</v>
+        <v>515</v>
       </c>
       <c r="O23">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="T23">
-        <v>636</v>
+        <v>775</v>
       </c>
       <c r="U23">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2245,18 +2245,18 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>511</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2">
-        <v>44482</v>
+        <v>44475</v>
       </c>
       <c r="B24">
-        <v>45790</v>
+        <v>56808</v>
       </c>
       <c r="C24">
-        <v>5352</v>
+        <v>6952</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>33496</v>
+        <v>36529</v>
       </c>
       <c r="H24">
-        <v>4274</v>
+        <v>5224</v>
       </c>
       <c r="I24">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2133</v>
+        <v>2268</v>
       </c>
       <c r="N24">
-        <v>515</v>
+        <v>604</v>
       </c>
       <c r="O24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2304,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="T24">
-        <v>775</v>
+        <v>888</v>
       </c>
       <c r="U24">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2322,18 +2322,18 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2">
-        <v>44475</v>
+        <v>44468</v>
       </c>
       <c r="B25">
-        <v>56808</v>
+        <v>70900</v>
       </c>
       <c r="C25">
-        <v>6952</v>
+        <v>9284</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>36529</v>
+        <v>40060</v>
       </c>
       <c r="H25">
-        <v>5224</v>
+        <v>6160</v>
       </c>
       <c r="I25">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2268</v>
+        <v>2418</v>
       </c>
       <c r="N25">
-        <v>604</v>
+        <v>717</v>
       </c>
       <c r="O25">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T25">
-        <v>888</v>
+        <v>927</v>
       </c>
       <c r="U25">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2399,18 +2399,18 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>580</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2">
-        <v>44468</v>
+        <v>44461</v>
       </c>
       <c r="B26">
-        <v>70900</v>
+        <v>86133</v>
       </c>
       <c r="C26">
-        <v>9284</v>
+        <v>11735</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>40060</v>
+        <v>44050</v>
       </c>
       <c r="H26">
-        <v>6160</v>
+        <v>6782</v>
       </c>
       <c r="I26">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>2418</v>
+        <v>2456</v>
       </c>
       <c r="N26">
-        <v>717</v>
+        <v>775</v>
       </c>
       <c r="O26">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2458,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T26">
-        <v>927</v>
+        <v>877</v>
       </c>
       <c r="U26">
         <v>57</v>
@@ -2476,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>565</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2">
-        <v>44461</v>
+        <v>44454</v>
       </c>
       <c r="B27">
-        <v>86133</v>
+        <v>96900</v>
       </c>
       <c r="C27">
-        <v>11735</v>
+        <v>13728</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>44050</v>
+        <v>44990</v>
       </c>
       <c r="H27">
-        <v>6782</v>
+        <v>6841</v>
       </c>
       <c r="I27">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>2456</v>
+        <v>2331</v>
       </c>
       <c r="N27">
-        <v>775</v>
+        <v>786</v>
       </c>
       <c r="O27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T27">
-        <v>877</v>
+        <v>770</v>
       </c>
       <c r="U27">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2553,18 +2553,18 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>509</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2">
-        <v>44454</v>
+        <v>44447</v>
       </c>
       <c r="B28">
-        <v>96900</v>
+        <v>104890</v>
       </c>
       <c r="C28">
-        <v>13728</v>
+        <v>16129</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>44990</v>
+        <v>43775</v>
       </c>
       <c r="H28">
-        <v>6841</v>
+        <v>6579</v>
       </c>
       <c r="I28">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>2331</v>
+        <v>2118</v>
       </c>
       <c r="N28">
-        <v>786</v>
+        <v>712</v>
       </c>
       <c r="O28">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="T28">
-        <v>770</v>
+        <v>571</v>
       </c>
       <c r="U28">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2630,18 +2630,18 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>405</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2">
-        <v>44447</v>
+        <v>44440</v>
       </c>
       <c r="B29">
-        <v>104890</v>
+        <v>107937</v>
       </c>
       <c r="C29">
-        <v>16129</v>
+        <v>18925</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>43775</v>
+        <v>40380</v>
       </c>
       <c r="H29">
-        <v>6579</v>
+        <v>5988</v>
       </c>
       <c r="I29">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>2118</v>
+        <v>1788</v>
       </c>
       <c r="N29">
-        <v>712</v>
+        <v>641</v>
       </c>
       <c r="O29">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="T29">
-        <v>571</v>
+        <v>383</v>
       </c>
       <c r="U29">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2707,18 +2707,18 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>280</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2">
-        <v>44440</v>
+        <v>44433</v>
       </c>
       <c r="B30">
-        <v>107937</v>
+        <v>104405</v>
       </c>
       <c r="C30">
-        <v>18925</v>
+        <v>21703</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>40380</v>
+        <v>33894</v>
       </c>
       <c r="H30">
-        <v>5988</v>
+        <v>5162</v>
       </c>
       <c r="I30">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1788</v>
+        <v>1349</v>
       </c>
       <c r="N30">
-        <v>641</v>
+        <v>500</v>
       </c>
       <c r="O30">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="T30">
-        <v>383</v>
+        <v>246</v>
       </c>
       <c r="U30">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2784,18 +2784,18 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>187</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2">
-        <v>44433</v>
+        <v>44426</v>
       </c>
       <c r="B31">
-        <v>104405</v>
+        <v>95261</v>
       </c>
       <c r="C31">
-        <v>21703</v>
+        <v>22568</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>33894</v>
+        <v>24978</v>
       </c>
       <c r="H31">
-        <v>5162</v>
+        <v>4052</v>
       </c>
       <c r="I31">
-        <v>509</v>
+        <v>444</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>1349</v>
+        <v>959</v>
       </c>
       <c r="N31">
-        <v>500</v>
+        <v>334</v>
       </c>
       <c r="O31">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="T31">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="U31">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2861,18 +2861,18 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2">
-        <v>44426</v>
+        <v>44419</v>
       </c>
       <c r="B32">
-        <v>95261</v>
+        <v>80585</v>
       </c>
       <c r="C32">
-        <v>22568</v>
+        <v>21570</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2884,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>24978</v>
+        <v>18887</v>
       </c>
       <c r="H32">
-        <v>4052</v>
+        <v>3067</v>
       </c>
       <c r="I32">
-        <v>444</v>
+        <v>380</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>959</v>
+        <v>627</v>
       </c>
       <c r="N32">
-        <v>334</v>
+        <v>247</v>
       </c>
       <c r="O32">
         <v>22</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="T32">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="U32">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2938,18 +2938,18 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2">
-        <v>44419</v>
+        <v>44412</v>
       </c>
       <c r="B33">
-        <v>80585</v>
+        <v>60267</v>
       </c>
       <c r="C33">
-        <v>21570</v>
+        <v>17420</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>18887</v>
+        <v>12333</v>
       </c>
       <c r="H33">
-        <v>3067</v>
+        <v>2234</v>
       </c>
       <c r="I33">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2979,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>627</v>
+        <v>404</v>
       </c>
       <c r="N33">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="O33">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="T33">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="U33">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3020,13 +3020,13 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2">
-        <v>44412</v>
+        <v>44405</v>
       </c>
       <c r="B34">
-        <v>60267</v>
+        <v>40729</v>
       </c>
       <c r="C34">
-        <v>17420</v>
+        <v>12032</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>12333</v>
+        <v>7277</v>
       </c>
       <c r="H34">
-        <v>2234</v>
+        <v>1619</v>
       </c>
       <c r="I34">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>404</v>
+        <v>280</v>
       </c>
       <c r="N34">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="O34">
         <v>11</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="T34">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="U34">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3092,18 +3092,18 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="2">
-        <v>44405</v>
+        <v>44398</v>
       </c>
       <c r="B35">
-        <v>40729</v>
+        <v>26284</v>
       </c>
       <c r="C35">
-        <v>12032</v>
+        <v>6813</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3115,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>7277</v>
+        <v>3805</v>
       </c>
       <c r="H35">
-        <v>1619</v>
+        <v>1483</v>
       </c>
       <c r="I35">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3133,13 +3133,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="N35">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O35">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3151,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="T35">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="U35">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3169,18 +3169,18 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="2">
-        <v>44398</v>
+        <v>44391</v>
       </c>
       <c r="B36">
-        <v>26284</v>
+        <v>21089</v>
       </c>
       <c r="C36">
-        <v>6813</v>
+        <v>3954</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>3805</v>
+        <v>2310</v>
       </c>
       <c r="H36">
-        <v>1483</v>
+        <v>1880</v>
       </c>
       <c r="I36">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3210,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="N36">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="O36">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T36">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="U36">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3246,83 +3246,6 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25">
-      <c r="A37" s="2">
-        <v>44391</v>
-      </c>
-      <c r="B37">
-        <v>21089</v>
-      </c>
-      <c r="C37">
-        <v>3954</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>2310</v>
-      </c>
-      <c r="H37">
-        <v>1880</v>
-      </c>
-      <c r="I37">
-        <v>240</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>240</v>
-      </c>
-      <c r="N37">
-        <v>147</v>
-      </c>
-      <c r="O37">
-        <v>20</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>7</v>
-      </c>
-      <c r="T37">
-        <v>357</v>
-      </c>
-      <c r="U37">
-        <v>72</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
         <v>68</v>
       </c>
     </row>
@@ -3333,7 +3256,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3400,993 +3323,993 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>44636</v>
+        <v>44629</v>
       </c>
       <c r="B2">
-        <v>155563</v>
+        <v>4922246</v>
       </c>
       <c r="C2">
-        <v>96224</v>
+        <v>1504174</v>
       </c>
       <c r="D2">
-        <v>350165</v>
+        <v>8369206</v>
       </c>
       <c r="E2">
-        <v>92313</v>
+        <v>4462914</v>
       </c>
       <c r="F2">
-        <v>3904647</v>
+        <v>34751405</v>
       </c>
       <c r="G2">
-        <v>4347125</v>
+        <v>47583525</v>
       </c>
       <c r="H2">
-        <v>170095</v>
+        <v>5237693</v>
       </c>
       <c r="I2">
-        <v>102423</v>
+        <v>1603693</v>
       </c>
       <c r="J2">
-        <v>450376</v>
+        <v>12148624</v>
       </c>
       <c r="K2">
-        <v>85260</v>
+        <v>5387344</v>
       </c>
       <c r="L2">
-        <v>3790758</v>
+        <v>29632591</v>
       </c>
       <c r="M2">
-        <v>4326394</v>
+        <v>47168559</v>
       </c>
       <c r="N2">
-        <v>181063</v>
+        <v>5475882</v>
       </c>
       <c r="O2">
-        <v>97020</v>
+        <v>1574138</v>
       </c>
       <c r="P2">
-        <v>540230</v>
+        <v>14562981</v>
       </c>
       <c r="Q2">
-        <v>88216</v>
+        <v>6180953</v>
       </c>
       <c r="R2">
-        <v>3692383</v>
+        <v>26215991</v>
       </c>
       <c r="S2">
-        <v>4320829</v>
+        <v>46959925</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>44629</v>
+        <v>44622</v>
       </c>
       <c r="B3">
-        <v>4922246</v>
+        <v>5053954</v>
       </c>
       <c r="C3">
-        <v>1504174</v>
+        <v>1597892</v>
       </c>
       <c r="D3">
-        <v>8369206</v>
+        <v>10021741</v>
       </c>
       <c r="E3">
-        <v>4462914</v>
+        <v>4762640</v>
       </c>
       <c r="F3">
-        <v>34751405</v>
+        <v>32573718</v>
       </c>
       <c r="G3">
-        <v>47583525</v>
+        <v>47358099</v>
       </c>
       <c r="H3">
-        <v>5237693</v>
+        <v>5465398</v>
       </c>
       <c r="I3">
-        <v>1603693</v>
+        <v>1580627</v>
       </c>
       <c r="J3">
-        <v>12148624</v>
+        <v>14572377</v>
       </c>
       <c r="K3">
-        <v>5387344</v>
+        <v>6176719</v>
       </c>
       <c r="L3">
-        <v>29632591</v>
+        <v>26214824</v>
       </c>
       <c r="M3">
-        <v>47168559</v>
+        <v>46963920</v>
       </c>
       <c r="N3">
-        <v>5475882</v>
+        <v>5755897</v>
       </c>
       <c r="O3">
-        <v>1574138</v>
+        <v>1547981</v>
       </c>
       <c r="P3">
-        <v>14562981</v>
+        <v>17157988</v>
       </c>
       <c r="Q3">
-        <v>6180953</v>
+        <v>7039120</v>
       </c>
       <c r="R3">
-        <v>26215991</v>
+        <v>22508959</v>
       </c>
       <c r="S3">
-        <v>46959925</v>
+        <v>46706067</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>44622</v>
+        <v>44615</v>
       </c>
       <c r="B4">
-        <v>5053954</v>
+        <v>5229604</v>
       </c>
       <c r="C4">
-        <v>1597892</v>
+        <v>1618481</v>
       </c>
       <c r="D4">
-        <v>10021741</v>
+        <v>12157100</v>
       </c>
       <c r="E4">
-        <v>4762640</v>
+        <v>5375529</v>
       </c>
       <c r="F4">
-        <v>32573718</v>
+        <v>29629231</v>
       </c>
       <c r="G4">
-        <v>47358099</v>
+        <v>47161860</v>
       </c>
       <c r="H4">
-        <v>5465398</v>
+        <v>5758356</v>
       </c>
       <c r="I4">
-        <v>1580627</v>
+        <v>1551283</v>
       </c>
       <c r="J4">
-        <v>14572377</v>
+        <v>17157160</v>
       </c>
       <c r="K4">
-        <v>6176719</v>
+        <v>7035796</v>
       </c>
       <c r="L4">
-        <v>26214824</v>
+        <v>22507350</v>
       </c>
       <c r="M4">
-        <v>46963920</v>
+        <v>46700306</v>
       </c>
       <c r="N4">
-        <v>5755897</v>
+        <v>5927007</v>
       </c>
       <c r="O4">
-        <v>1547981</v>
+        <v>1592113</v>
       </c>
       <c r="P4">
-        <v>17157988</v>
+        <v>18793468</v>
       </c>
       <c r="Q4">
-        <v>7039120</v>
+        <v>8015572</v>
       </c>
       <c r="R4">
-        <v>22508959</v>
+        <v>19681785</v>
       </c>
       <c r="S4">
-        <v>46706067</v>
+        <v>46490825</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="B5">
-        <v>5229604</v>
+        <v>5467098</v>
       </c>
       <c r="C5">
-        <v>1618481</v>
+        <v>1596811</v>
       </c>
       <c r="D5">
-        <v>12157100</v>
+        <v>14575900</v>
       </c>
       <c r="E5">
-        <v>5375529</v>
+        <v>6164226</v>
       </c>
       <c r="F5">
-        <v>29629231</v>
+        <v>26205910</v>
       </c>
       <c r="G5">
-        <v>47161860</v>
+        <v>46946036</v>
       </c>
       <c r="H5">
-        <v>5758356</v>
+        <v>5926909</v>
       </c>
       <c r="I5">
-        <v>1551283</v>
+        <v>1597860</v>
       </c>
       <c r="J5">
-        <v>17157160</v>
+        <v>18796851</v>
       </c>
       <c r="K5">
-        <v>7035796</v>
+        <v>8012376</v>
       </c>
       <c r="L5">
-        <v>22507350</v>
+        <v>19675949</v>
       </c>
       <c r="M5">
-        <v>46700306</v>
+        <v>46485176</v>
       </c>
       <c r="N5">
-        <v>5927007</v>
+        <v>6040050</v>
       </c>
       <c r="O5">
-        <v>1592113</v>
+        <v>1652417</v>
       </c>
       <c r="P5">
-        <v>18793468</v>
+        <v>20133986</v>
       </c>
       <c r="Q5">
-        <v>8015572</v>
+        <v>9055320</v>
       </c>
       <c r="R5">
-        <v>19681785</v>
+        <v>17128172</v>
       </c>
       <c r="S5">
-        <v>46490825</v>
+        <v>46317478</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>44608</v>
+        <v>44601</v>
       </c>
       <c r="B6">
-        <v>5467098</v>
+        <v>5610741</v>
       </c>
       <c r="C6">
-        <v>1596811</v>
+        <v>1575333</v>
       </c>
       <c r="D6">
-        <v>14575900</v>
+        <v>17279465</v>
       </c>
       <c r="E6">
-        <v>6164226</v>
+        <v>7025036</v>
       </c>
       <c r="F6">
-        <v>26205910</v>
+        <v>22519370</v>
       </c>
       <c r="G6">
-        <v>46946036</v>
+        <v>46823871</v>
       </c>
       <c r="H6">
-        <v>5926909</v>
+        <v>5893661</v>
       </c>
       <c r="I6">
-        <v>1597860</v>
+        <v>1663892</v>
       </c>
       <c r="J6">
-        <v>18796851</v>
+        <v>20257123</v>
       </c>
       <c r="K6">
-        <v>8012376</v>
+        <v>9057038</v>
       </c>
       <c r="L6">
-        <v>19675949</v>
+        <v>17138231</v>
       </c>
       <c r="M6">
-        <v>46485176</v>
+        <v>46452392</v>
       </c>
       <c r="N6">
-        <v>6040050</v>
+        <v>6038487</v>
       </c>
       <c r="O6">
-        <v>1652417</v>
+        <v>1684410</v>
       </c>
       <c r="P6">
-        <v>20133986</v>
+        <v>22158953</v>
       </c>
       <c r="Q6">
-        <v>9055320</v>
+        <v>9853675</v>
       </c>
       <c r="R6">
-        <v>17128172</v>
+        <v>14274420</v>
       </c>
       <c r="S6">
-        <v>46317478</v>
+        <v>46287048</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>44601</v>
+        <v>44594</v>
       </c>
       <c r="B7">
-        <v>5610741</v>
+        <v>5925943</v>
       </c>
       <c r="C7">
-        <v>1575333</v>
+        <v>1616298</v>
       </c>
       <c r="D7">
-        <v>17279465</v>
+        <v>18801609</v>
       </c>
       <c r="E7">
-        <v>7025036</v>
+        <v>7998741</v>
       </c>
       <c r="F7">
-        <v>22519370</v>
+        <v>19667354</v>
       </c>
       <c r="G7">
-        <v>46823871</v>
+        <v>46467704</v>
       </c>
       <c r="H7">
-        <v>5893661</v>
+        <v>6182863</v>
       </c>
       <c r="I7">
-        <v>1663892</v>
+        <v>1687002</v>
       </c>
       <c r="J7">
-        <v>20257123</v>
+        <v>22039408</v>
       </c>
       <c r="K7">
-        <v>9057038</v>
+        <v>9839532</v>
       </c>
       <c r="L7">
-        <v>17138231</v>
+        <v>14261140</v>
       </c>
       <c r="M7">
-        <v>46452392</v>
+        <v>46140080</v>
       </c>
       <c r="N7">
-        <v>6038487</v>
+        <v>6392072</v>
       </c>
       <c r="O7">
-        <v>1684410</v>
+        <v>1641693</v>
       </c>
       <c r="P7">
-        <v>22158953</v>
+        <v>24567729</v>
       </c>
       <c r="Q7">
-        <v>9853675</v>
+        <v>10413190</v>
       </c>
       <c r="R7">
-        <v>14274420</v>
+        <v>10995261</v>
       </c>
       <c r="S7">
-        <v>46287048</v>
+        <v>45976180</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>44594</v>
+        <v>44587</v>
       </c>
       <c r="B8">
-        <v>5925943</v>
+        <v>6113428</v>
       </c>
       <c r="C8">
-        <v>1616298</v>
+        <v>1676275</v>
       </c>
       <c r="D8">
-        <v>18801609</v>
+        <v>20106983</v>
       </c>
       <c r="E8">
-        <v>7998741</v>
+        <v>9023286</v>
       </c>
       <c r="F8">
-        <v>19667354</v>
+        <v>17089973</v>
       </c>
       <c r="G8">
-        <v>46467704</v>
+        <v>46220242</v>
       </c>
       <c r="H8">
-        <v>6182863</v>
+        <v>6466161</v>
       </c>
       <c r="I8">
-        <v>1687002</v>
+        <v>1644869</v>
       </c>
       <c r="J8">
-        <v>22039408</v>
+        <v>24530417</v>
       </c>
       <c r="K8">
-        <v>9839532</v>
+        <v>10394218</v>
       </c>
       <c r="L8">
-        <v>14261140</v>
+        <v>10974280</v>
       </c>
       <c r="M8">
-        <v>46140080</v>
+        <v>45898915</v>
       </c>
       <c r="N8">
-        <v>6392072</v>
+        <v>6710026</v>
       </c>
       <c r="O8">
-        <v>1641693</v>
+        <v>1549282</v>
       </c>
       <c r="P8">
-        <v>24567729</v>
+        <v>25990113</v>
       </c>
       <c r="Q8">
-        <v>10413190</v>
+        <v>11656265</v>
       </c>
       <c r="R8">
-        <v>10995261</v>
+        <v>8104259</v>
       </c>
       <c r="S8">
-        <v>45976180</v>
+        <v>45750637</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>44587</v>
+        <v>44580</v>
       </c>
       <c r="B9">
-        <v>6113428</v>
+        <v>6194434</v>
       </c>
       <c r="C9">
-        <v>1676275</v>
+        <v>1720841</v>
       </c>
       <c r="D9">
-        <v>20106983</v>
+        <v>22048677</v>
       </c>
       <c r="E9">
-        <v>9023286</v>
+        <v>9810639</v>
       </c>
       <c r="F9">
-        <v>17089973</v>
+        <v>14235354</v>
       </c>
       <c r="G9">
-        <v>46220242</v>
+        <v>46094670</v>
       </c>
       <c r="H9">
-        <v>6466161</v>
+        <v>6647970</v>
       </c>
       <c r="I9">
-        <v>1644869</v>
+        <v>1566179</v>
       </c>
       <c r="J9">
-        <v>24530417</v>
+        <v>26028307</v>
       </c>
       <c r="K9">
-        <v>10394218</v>
+        <v>11660101</v>
       </c>
       <c r="L9">
-        <v>10974280</v>
+        <v>8107388</v>
       </c>
       <c r="M9">
-        <v>45898915</v>
+        <v>45795796</v>
       </c>
       <c r="N9">
-        <v>6710026</v>
+        <v>6862315</v>
       </c>
       <c r="O9">
-        <v>1549282</v>
+        <v>1493790</v>
       </c>
       <c r="P9">
-        <v>25990113</v>
+        <v>26357835</v>
       </c>
       <c r="Q9">
-        <v>11656265</v>
+        <v>13596764</v>
       </c>
       <c r="R9">
-        <v>8104259</v>
+        <v>5699241</v>
       </c>
       <c r="S9">
-        <v>45750637</v>
+        <v>45653840</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>44580</v>
+        <v>44573</v>
       </c>
       <c r="B10">
-        <v>6194434</v>
+        <v>6414467</v>
       </c>
       <c r="C10">
-        <v>1720841</v>
+        <v>1678301</v>
       </c>
       <c r="D10">
-        <v>22048677</v>
+        <v>24562863</v>
       </c>
       <c r="E10">
-        <v>9810639</v>
+        <v>10381759</v>
       </c>
       <c r="F10">
-        <v>14235354</v>
+        <v>10972555</v>
       </c>
       <c r="G10">
-        <v>46094670</v>
+        <v>45917177</v>
       </c>
       <c r="H10">
-        <v>6647970</v>
+        <v>6876688</v>
       </c>
       <c r="I10">
-        <v>1566179</v>
+        <v>1504168</v>
       </c>
       <c r="J10">
-        <v>26028307</v>
+        <v>26348254</v>
       </c>
       <c r="K10">
-        <v>11660101</v>
+        <v>13585896</v>
       </c>
       <c r="L10">
-        <v>8107388</v>
+        <v>5694939</v>
       </c>
       <c r="M10">
-        <v>45795796</v>
+        <v>45629089</v>
       </c>
       <c r="N10">
-        <v>6862315</v>
+        <v>7031651</v>
       </c>
       <c r="O10">
-        <v>1493790</v>
+        <v>1502381</v>
       </c>
       <c r="P10">
-        <v>26357835</v>
+        <v>13119984</v>
       </c>
       <c r="Q10">
-        <v>13596764</v>
+        <v>28222661</v>
       </c>
       <c r="R10">
-        <v>5699241</v>
+        <v>4133267</v>
       </c>
       <c r="S10">
-        <v>45653840</v>
+        <v>45475912</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>44573</v>
+        <v>44566</v>
       </c>
       <c r="B11">
-        <v>6414467</v>
+        <v>6660263</v>
       </c>
       <c r="C11">
-        <v>1678301</v>
+        <v>1578764</v>
       </c>
       <c r="D11">
-        <v>24562863</v>
+        <v>26019483</v>
       </c>
       <c r="E11">
-        <v>10381759</v>
+        <v>11648617</v>
       </c>
       <c r="F11">
-        <v>10972555</v>
+        <v>8102818</v>
       </c>
       <c r="G11">
-        <v>45917177</v>
+        <v>45770918</v>
       </c>
       <c r="H11">
-        <v>6876688</v>
+        <v>7031651</v>
       </c>
       <c r="I11">
-        <v>1504168</v>
+        <v>1502381</v>
       </c>
       <c r="J11">
-        <v>26348254</v>
+        <v>13119984</v>
       </c>
       <c r="K11">
-        <v>13585896</v>
+        <v>28222661</v>
       </c>
       <c r="L11">
-        <v>5694939</v>
+        <v>4133267</v>
       </c>
       <c r="M11">
-        <v>45629089</v>
+        <v>45475912</v>
       </c>
       <c r="N11">
-        <v>7031651</v>
+        <v>7160934</v>
       </c>
       <c r="O11">
-        <v>1502381</v>
+        <v>1577260</v>
       </c>
       <c r="P11">
-        <v>13119984</v>
+        <v>12254673</v>
       </c>
       <c r="Q11">
-        <v>28222661</v>
+        <v>29956598</v>
       </c>
       <c r="R11">
-        <v>4133267</v>
+        <v>3060479</v>
       </c>
       <c r="S11">
-        <v>45475912</v>
+        <v>45271750</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>44566</v>
+        <v>44558</v>
       </c>
       <c r="B12">
-        <v>6660263</v>
+        <v>6876688</v>
       </c>
       <c r="C12">
-        <v>1578764</v>
+        <v>1504168</v>
       </c>
       <c r="D12">
-        <v>26019483</v>
+        <v>26348254</v>
       </c>
       <c r="E12">
-        <v>11648617</v>
+        <v>13585896</v>
       </c>
       <c r="F12">
-        <v>8102818</v>
+        <v>5694939</v>
       </c>
       <c r="G12">
-        <v>45770918</v>
+        <v>45629089</v>
       </c>
       <c r="H12">
-        <v>7031651</v>
+        <v>7160934</v>
       </c>
       <c r="I12">
-        <v>1502381</v>
+        <v>1577260</v>
       </c>
       <c r="J12">
-        <v>13119984</v>
+        <v>12254673</v>
       </c>
       <c r="K12">
-        <v>28222661</v>
+        <v>29956598</v>
       </c>
       <c r="L12">
-        <v>4133267</v>
+        <v>3060479</v>
       </c>
       <c r="M12">
-        <v>45475912</v>
+        <v>45271750</v>
       </c>
       <c r="N12">
-        <v>7160934</v>
+        <v>7291722</v>
       </c>
       <c r="O12">
-        <v>1577260</v>
+        <v>1749607</v>
       </c>
       <c r="P12">
-        <v>12254673</v>
+        <v>11949919</v>
       </c>
       <c r="Q12">
-        <v>29956598</v>
+        <v>30829431</v>
       </c>
       <c r="R12">
-        <v>3060479</v>
+        <v>2189265</v>
       </c>
       <c r="S12">
-        <v>45271750</v>
+        <v>44968615</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>44558</v>
+        <v>44551</v>
       </c>
       <c r="B13">
-        <v>6876688</v>
+        <v>7031651</v>
       </c>
       <c r="C13">
-        <v>1504168</v>
+        <v>1502381</v>
       </c>
       <c r="D13">
-        <v>26348254</v>
+        <v>13119984</v>
       </c>
       <c r="E13">
-        <v>13585896</v>
+        <v>28222661</v>
       </c>
       <c r="F13">
-        <v>5694939</v>
+        <v>4133267</v>
       </c>
       <c r="G13">
-        <v>45629089</v>
+        <v>45475912</v>
       </c>
       <c r="H13">
-        <v>7160934</v>
+        <v>7291722</v>
       </c>
       <c r="I13">
-        <v>1577260</v>
+        <v>1749607</v>
       </c>
       <c r="J13">
-        <v>12254673</v>
+        <v>11949919</v>
       </c>
       <c r="K13">
-        <v>29956598</v>
+        <v>30829431</v>
       </c>
       <c r="L13">
-        <v>3060479</v>
+        <v>2189265</v>
       </c>
       <c r="M13">
-        <v>45271750</v>
+        <v>44968615</v>
       </c>
       <c r="N13">
-        <v>7291722</v>
+        <v>7404599</v>
       </c>
       <c r="O13">
-        <v>1749607</v>
+        <v>1981131</v>
       </c>
       <c r="P13">
-        <v>11949919</v>
+        <v>11407859</v>
       </c>
       <c r="Q13">
-        <v>30829431</v>
+        <v>31622279</v>
       </c>
       <c r="R13">
-        <v>2189265</v>
+        <v>1594076</v>
       </c>
       <c r="S13">
-        <v>44968615</v>
+        <v>44624214</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>44551</v>
+        <v>44545</v>
       </c>
       <c r="B14">
-        <v>7031651</v>
+        <v>7160934</v>
       </c>
       <c r="C14">
-        <v>1502381</v>
+        <v>1577260</v>
       </c>
       <c r="D14">
-        <v>13119984</v>
+        <v>12254673</v>
       </c>
       <c r="E14">
-        <v>28222661</v>
+        <v>29956598</v>
       </c>
       <c r="F14">
-        <v>4133267</v>
+        <v>3060479</v>
       </c>
       <c r="G14">
-        <v>45475912</v>
+        <v>45271750</v>
       </c>
       <c r="H14">
-        <v>7291722</v>
+        <v>7404599</v>
       </c>
       <c r="I14">
-        <v>1749607</v>
+        <v>1981131</v>
       </c>
       <c r="J14">
-        <v>11949919</v>
+        <v>11407859</v>
       </c>
       <c r="K14">
-        <v>30829431</v>
+        <v>31622279</v>
       </c>
       <c r="L14">
-        <v>2189265</v>
+        <v>1594076</v>
       </c>
       <c r="M14">
-        <v>44968615</v>
+        <v>44624214</v>
       </c>
       <c r="N14">
-        <v>7404599</v>
+        <v>7586013</v>
       </c>
       <c r="O14">
-        <v>1981131</v>
+        <v>2222672</v>
       </c>
       <c r="P14">
-        <v>11407859</v>
+        <v>4526706</v>
       </c>
       <c r="Q14">
-        <v>31622279</v>
+        <v>38658546</v>
       </c>
       <c r="R14">
-        <v>1594076</v>
+        <v>1016007</v>
       </c>
       <c r="S14">
-        <v>44624214</v>
+        <v>44201259</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>44545</v>
+        <v>44537</v>
       </c>
       <c r="B15">
-        <v>7160934</v>
+        <v>7291722</v>
       </c>
       <c r="C15">
-        <v>1577260</v>
+        <v>1749607</v>
       </c>
       <c r="D15">
-        <v>12254673</v>
+        <v>11949919</v>
       </c>
       <c r="E15">
-        <v>29956598</v>
+        <v>30829431</v>
       </c>
       <c r="F15">
-        <v>3060479</v>
+        <v>2189265</v>
       </c>
       <c r="G15">
-        <v>45271750</v>
+        <v>44968615</v>
       </c>
       <c r="H15">
-        <v>7404599</v>
+        <v>7586013</v>
       </c>
       <c r="I15">
-        <v>1981131</v>
+        <v>2222672</v>
       </c>
       <c r="J15">
-        <v>11407859</v>
+        <v>4526706</v>
       </c>
       <c r="K15">
-        <v>31622279</v>
+        <v>38658546</v>
       </c>
       <c r="L15">
-        <v>1594076</v>
+        <v>1016007</v>
       </c>
       <c r="M15">
-        <v>44624214</v>
+        <v>44201259</v>
       </c>
       <c r="N15">
-        <v>7586013</v>
+        <v>7862567</v>
       </c>
       <c r="O15">
-        <v>2222672</v>
+        <v>2422756</v>
       </c>
       <c r="P15">
-        <v>4526706</v>
+        <v>4186423</v>
       </c>
       <c r="Q15">
-        <v>38658546</v>
+        <v>38968164</v>
       </c>
       <c r="R15">
-        <v>1016007</v>
+        <v>570032</v>
       </c>
       <c r="S15">
-        <v>44201259</v>
+        <v>43724619</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>44537</v>
+        <v>44531</v>
       </c>
       <c r="B16">
-        <v>7291722</v>
+        <v>7404599</v>
       </c>
       <c r="C16">
-        <v>1749607</v>
+        <v>1981131</v>
       </c>
       <c r="D16">
-        <v>11949919</v>
+        <v>11407859</v>
       </c>
       <c r="E16">
-        <v>30829431</v>
+        <v>31622279</v>
       </c>
       <c r="F16">
-        <v>2189265</v>
+        <v>1594076</v>
       </c>
       <c r="G16">
-        <v>44968615</v>
+        <v>44624214</v>
       </c>
       <c r="H16">
-        <v>7586013</v>
+        <v>7862567</v>
       </c>
       <c r="I16">
-        <v>2222672</v>
+        <v>2422756</v>
       </c>
       <c r="J16">
-        <v>4526706</v>
+        <v>4186423</v>
       </c>
       <c r="K16">
-        <v>38658546</v>
+        <v>38968164</v>
       </c>
       <c r="L16">
-        <v>1016007</v>
+        <v>570032</v>
       </c>
       <c r="M16">
-        <v>44201259</v>
+        <v>43724619</v>
       </c>
       <c r="N16">
-        <v>7862567</v>
+        <v>8302865</v>
       </c>
       <c r="O16">
-        <v>2422756</v>
+        <v>2538614</v>
       </c>
       <c r="P16">
-        <v>4186423</v>
+        <v>3884826</v>
       </c>
       <c r="Q16">
-        <v>38968164</v>
+        <v>38988918</v>
       </c>
       <c r="R16">
-        <v>570032</v>
+        <v>294719</v>
       </c>
       <c r="S16">
-        <v>43724619</v>
+        <v>43168463</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2">
-        <v>44531</v>
+        <v>44524</v>
       </c>
       <c r="B17">
-        <v>7404599</v>
+        <v>7586013</v>
       </c>
       <c r="C17">
-        <v>1981131</v>
+        <v>2222672</v>
       </c>
       <c r="D17">
-        <v>11407859</v>
+        <v>4526706</v>
       </c>
       <c r="E17">
-        <v>31622279</v>
+        <v>38658546</v>
       </c>
       <c r="F17">
-        <v>1594076</v>
+        <v>1016007</v>
       </c>
       <c r="G17">
-        <v>44624214</v>
+        <v>44201259</v>
       </c>
       <c r="H17">
-        <v>7862567</v>
+        <v>8302865</v>
       </c>
       <c r="I17">
-        <v>2422756</v>
+        <v>2538614</v>
       </c>
       <c r="J17">
-        <v>4186423</v>
+        <v>3884826</v>
       </c>
       <c r="K17">
-        <v>38968164</v>
+        <v>38988918</v>
       </c>
       <c r="L17">
-        <v>570032</v>
+        <v>294719</v>
       </c>
       <c r="M17">
-        <v>43724619</v>
+        <v>43168463</v>
       </c>
       <c r="N17">
-        <v>8302865</v>
+        <v>8683749</v>
       </c>
       <c r="O17">
-        <v>2538614</v>
+        <v>2653423</v>
       </c>
       <c r="P17">
-        <v>3884826</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>38988918</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>294719</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>43168463</v>
+        <v>42672767</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
-        <v>44524</v>
+        <v>44517</v>
       </c>
       <c r="B18">
-        <v>7586013</v>
+        <v>7862567</v>
       </c>
       <c r="C18">
-        <v>2222672</v>
+        <v>2422756</v>
       </c>
       <c r="D18">
-        <v>4526706</v>
+        <v>4186423</v>
       </c>
       <c r="E18">
-        <v>38658546</v>
+        <v>38968164</v>
       </c>
       <c r="F18">
-        <v>1016007</v>
+        <v>570032</v>
       </c>
       <c r="G18">
-        <v>44201259</v>
+        <v>43724619</v>
       </c>
       <c r="H18">
-        <v>8302865</v>
+        <v>8683749</v>
       </c>
       <c r="I18">
-        <v>2538614</v>
+        <v>2653423</v>
       </c>
       <c r="J18">
-        <v>3884826</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>38988918</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>294719</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>43168463</v>
+        <v>42672767</v>
       </c>
       <c r="N18">
-        <v>8683749</v>
+        <v>9231487</v>
       </c>
       <c r="O18">
-        <v>2653423</v>
+        <v>2863195</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -4398,36 +4321,36 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>42672767</v>
+        <v>41915257</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
-        <v>44517</v>
+        <v>44510</v>
       </c>
       <c r="B19">
-        <v>7862567</v>
+        <v>8302865</v>
       </c>
       <c r="C19">
-        <v>2422756</v>
+        <v>2538614</v>
       </c>
       <c r="D19">
-        <v>4186423</v>
+        <v>3884826</v>
       </c>
       <c r="E19">
-        <v>38968164</v>
+        <v>38988918</v>
       </c>
       <c r="F19">
-        <v>570032</v>
+        <v>294719</v>
       </c>
       <c r="G19">
-        <v>43724619</v>
+        <v>43168463</v>
       </c>
       <c r="H19">
-        <v>8683749</v>
+        <v>9231487</v>
       </c>
       <c r="I19">
-        <v>2653423</v>
+        <v>2863195</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -4439,13 +4362,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>42672767</v>
+        <v>41915257</v>
       </c>
       <c r="N19">
-        <v>9231487</v>
+        <v>9829232</v>
       </c>
       <c r="O19">
-        <v>2863195</v>
+        <v>3259454</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -4457,36 +4380,36 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>41915257</v>
+        <v>40921215</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
-        <v>44510</v>
+        <v>44503</v>
       </c>
       <c r="B20">
-        <v>8302865</v>
+        <v>8683749</v>
       </c>
       <c r="C20">
-        <v>2538614</v>
+        <v>2653423</v>
       </c>
       <c r="D20">
-        <v>3884826</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>38988918</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>294719</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>43168463</v>
+        <v>42672767</v>
       </c>
       <c r="H20">
-        <v>9231487</v>
+        <v>9829232</v>
       </c>
       <c r="I20">
-        <v>2863195</v>
+        <v>3259454</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -4498,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>41915257</v>
+        <v>40921215</v>
       </c>
       <c r="N20">
-        <v>9829232</v>
+        <v>10307179</v>
       </c>
       <c r="O20">
-        <v>3259454</v>
+        <v>3862335</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -4516,18 +4439,18 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>40921215</v>
+        <v>39840387</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2">
-        <v>44503</v>
+        <v>44496</v>
       </c>
       <c r="B21">
-        <v>8683749</v>
+        <v>9231487</v>
       </c>
       <c r="C21">
-        <v>2653423</v>
+        <v>2863195</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4539,13 +4462,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>42672767</v>
+        <v>41915257</v>
       </c>
       <c r="H21">
-        <v>9829232</v>
+        <v>10307179</v>
       </c>
       <c r="I21">
-        <v>3259454</v>
+        <v>3862335</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -4557,13 +4480,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40921215</v>
+        <v>39840387</v>
       </c>
       <c r="N21">
-        <v>10307179</v>
+        <v>10942694</v>
       </c>
       <c r="O21">
-        <v>3862335</v>
+        <v>4426185</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -4575,18 +4498,18 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>39840387</v>
+        <v>38641022</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2">
-        <v>44496</v>
+        <v>44489</v>
       </c>
       <c r="B22">
-        <v>9231487</v>
+        <v>9829232</v>
       </c>
       <c r="C22">
-        <v>2863195</v>
+        <v>3259454</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4598,13 +4521,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>41915257</v>
+        <v>40921215</v>
       </c>
       <c r="H22">
-        <v>10307179</v>
+        <v>10942694</v>
       </c>
       <c r="I22">
-        <v>3862335</v>
+        <v>4426185</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -4616,13 +4539,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>39840387</v>
+        <v>38641022</v>
       </c>
       <c r="N22">
-        <v>10942694</v>
+        <v>11786620</v>
       </c>
       <c r="O22">
-        <v>4426185</v>
+        <v>4805486</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -4634,18 +4557,18 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>38641022</v>
+        <v>37417795</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2">
-        <v>44489</v>
+        <v>44482</v>
       </c>
       <c r="B23">
-        <v>9829232</v>
+        <v>10307179</v>
       </c>
       <c r="C23">
-        <v>3259454</v>
+        <v>3862335</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4657,13 +4580,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>40921215</v>
+        <v>39840387</v>
       </c>
       <c r="H23">
-        <v>10942694</v>
+        <v>11786620</v>
       </c>
       <c r="I23">
-        <v>4426185</v>
+        <v>4805486</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -4675,13 +4598,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>38641022</v>
+        <v>37417795</v>
       </c>
       <c r="N23">
-        <v>11786620</v>
+        <v>12581126</v>
       </c>
       <c r="O23">
-        <v>4805486</v>
+        <v>5096568</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -4693,18 +4616,18 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>37417795</v>
+        <v>36332207</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
-        <v>44482</v>
+        <v>44475</v>
       </c>
       <c r="B24">
-        <v>10307179</v>
+        <v>10942694</v>
       </c>
       <c r="C24">
-        <v>3862335</v>
+        <v>4426185</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4716,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>39840387</v>
+        <v>38641022</v>
       </c>
       <c r="H24">
-        <v>11786620</v>
+        <v>12581126</v>
       </c>
       <c r="I24">
-        <v>4805486</v>
+        <v>5096568</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -4734,13 +4657,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37417795</v>
+        <v>36332207</v>
       </c>
       <c r="N24">
-        <v>12581126</v>
+        <v>13334156</v>
       </c>
       <c r="O24">
-        <v>5096568</v>
+        <v>5075930</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -4752,18 +4675,18 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>36332207</v>
+        <v>35599815</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
-        <v>44475</v>
+        <v>44468</v>
       </c>
       <c r="B25">
-        <v>10942694</v>
+        <v>11786620</v>
       </c>
       <c r="C25">
-        <v>4426185</v>
+        <v>4805486</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4775,13 +4698,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38641022</v>
+        <v>37417795</v>
       </c>
       <c r="H25">
-        <v>12581126</v>
+        <v>13334156</v>
       </c>
       <c r="I25">
-        <v>5096568</v>
+        <v>5075930</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -4793,13 +4716,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>36332207</v>
+        <v>35599815</v>
       </c>
       <c r="N25">
-        <v>13334156</v>
+        <v>14507530</v>
       </c>
       <c r="O25">
-        <v>5075930</v>
+        <v>5210293</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -4811,18 +4734,18 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>35599815</v>
+        <v>34292078</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2">
-        <v>44468</v>
+        <v>44461</v>
       </c>
       <c r="B26">
-        <v>11786620</v>
+        <v>12581126</v>
       </c>
       <c r="C26">
-        <v>4805486</v>
+        <v>5096568</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4834,13 +4757,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>37417795</v>
+        <v>36332207</v>
       </c>
       <c r="H26">
-        <v>13334156</v>
+        <v>14507530</v>
       </c>
       <c r="I26">
-        <v>5075930</v>
+        <v>5210293</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -4852,13 +4775,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>35599815</v>
+        <v>34292078</v>
       </c>
       <c r="N26">
-        <v>14507530</v>
+        <v>15656647</v>
       </c>
       <c r="O26">
-        <v>5210293</v>
+        <v>6065610</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -4870,18 +4793,18 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>34292078</v>
+        <v>32287644</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2">
-        <v>44461</v>
+        <v>44454</v>
       </c>
       <c r="B27">
-        <v>12581126</v>
+        <v>13334156</v>
       </c>
       <c r="C27">
-        <v>5096568</v>
+        <v>5075930</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4893,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>36332207</v>
+        <v>35599815</v>
       </c>
       <c r="H27">
-        <v>14507530</v>
+        <v>15656647</v>
       </c>
       <c r="I27">
-        <v>5210293</v>
+        <v>6065610</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -4911,13 +4834,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>34292078</v>
+        <v>32287644</v>
       </c>
       <c r="N27">
-        <v>15656647</v>
+        <v>16708830</v>
       </c>
       <c r="O27">
-        <v>6065610</v>
+        <v>7672393</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -4929,18 +4852,18 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>32287644</v>
+        <v>29628678</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2">
-        <v>44454</v>
+        <v>44447</v>
       </c>
       <c r="B28">
-        <v>13334156</v>
+        <v>14507530</v>
       </c>
       <c r="C28">
-        <v>5075930</v>
+        <v>5210293</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4952,13 +4875,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>35599815</v>
+        <v>34292078</v>
       </c>
       <c r="H28">
-        <v>15656647</v>
+        <v>16708830</v>
       </c>
       <c r="I28">
-        <v>6065610</v>
+        <v>7672393</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -4970,13 +4893,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>32287644</v>
+        <v>29628678</v>
       </c>
       <c r="N28">
-        <v>16708830</v>
+        <v>17568325</v>
       </c>
       <c r="O28">
-        <v>7672393</v>
+        <v>9940124</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -4988,18 +4911,18 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>29628678</v>
+        <v>26501452</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2">
-        <v>44447</v>
+        <v>44440</v>
       </c>
       <c r="B29">
-        <v>14507530</v>
+        <v>15656647</v>
       </c>
       <c r="C29">
-        <v>5210293</v>
+        <v>6065610</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5011,13 +4934,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>34292078</v>
+        <v>32287644</v>
       </c>
       <c r="H29">
-        <v>16708830</v>
+        <v>17568325</v>
       </c>
       <c r="I29">
-        <v>7672393</v>
+        <v>9940124</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -5029,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>29628678</v>
+        <v>26501452</v>
       </c>
       <c r="N29">
-        <v>17568325</v>
+        <v>20322806</v>
       </c>
       <c r="O29">
-        <v>9940124</v>
+        <v>11341436</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -5047,18 +4970,18 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>26501452</v>
+        <v>22345659</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
-        <v>44440</v>
+        <v>44433</v>
       </c>
       <c r="B30">
-        <v>15656647</v>
+        <v>16708830</v>
       </c>
       <c r="C30">
-        <v>6065610</v>
+        <v>7672393</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5070,13 +4993,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>32287644</v>
+        <v>29628678</v>
       </c>
       <c r="H30">
-        <v>17568325</v>
+        <v>20322806</v>
       </c>
       <c r="I30">
-        <v>9940124</v>
+        <v>11341436</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -5088,13 +5011,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>26501452</v>
+        <v>22345659</v>
       </c>
       <c r="N30">
-        <v>20322806</v>
+        <v>21289761</v>
       </c>
       <c r="O30">
-        <v>11341436</v>
+        <v>13149676</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -5106,18 +5029,18 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>22345659</v>
+        <v>19570464</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
-        <v>44433</v>
+        <v>44426</v>
       </c>
       <c r="B31">
-        <v>16708830</v>
+        <v>17568325</v>
       </c>
       <c r="C31">
-        <v>7672393</v>
+        <v>9940124</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5129,13 +5052,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>29628678</v>
+        <v>26501452</v>
       </c>
       <c r="H31">
-        <v>20322806</v>
+        <v>21289761</v>
       </c>
       <c r="I31">
-        <v>11341436</v>
+        <v>13149676</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -5147,13 +5070,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>22345659</v>
+        <v>19570464</v>
       </c>
       <c r="N31">
-        <v>21289761</v>
+        <v>22879167</v>
       </c>
       <c r="O31">
-        <v>13149676</v>
+        <v>13741130</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -5165,18 +5088,18 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>19570464</v>
+        <v>17389604</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2">
-        <v>44426</v>
+        <v>44419</v>
       </c>
       <c r="B32">
-        <v>17568325</v>
+        <v>20322806</v>
       </c>
       <c r="C32">
-        <v>9940124</v>
+        <v>11341436</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5188,13 +5111,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>26501452</v>
+        <v>22345659</v>
       </c>
       <c r="H32">
-        <v>21289761</v>
+        <v>22879167</v>
       </c>
       <c r="I32">
-        <v>13149676</v>
+        <v>13741130</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -5206,13 +5129,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>19570464</v>
+        <v>17389604</v>
       </c>
       <c r="N32">
-        <v>22879167</v>
+        <v>24745853</v>
       </c>
       <c r="O32">
-        <v>13741130</v>
+        <v>13879852</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -5224,18 +5147,18 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>17389604</v>
+        <v>15384196</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2">
-        <v>44419</v>
+        <v>44412</v>
       </c>
       <c r="B33">
-        <v>20322806</v>
+        <v>21289761</v>
       </c>
       <c r="C33">
-        <v>11341436</v>
+        <v>13149676</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5247,13 +5170,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>22345659</v>
+        <v>19570464</v>
       </c>
       <c r="H33">
-        <v>22879167</v>
+        <v>24745853</v>
       </c>
       <c r="I33">
-        <v>13741130</v>
+        <v>13879852</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -5265,13 +5188,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>17389604</v>
+        <v>15384196</v>
       </c>
       <c r="N33">
-        <v>24745853</v>
+        <v>27065063</v>
       </c>
       <c r="O33">
-        <v>13879852</v>
+        <v>13015437</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -5283,18 +5206,18 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>15384196</v>
+        <v>13929401</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2">
-        <v>44412</v>
+        <v>44405</v>
       </c>
       <c r="B34">
-        <v>21289761</v>
+        <v>22879167</v>
       </c>
       <c r="C34">
-        <v>13149676</v>
+        <v>13741130</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5306,13 +5229,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>19570464</v>
+        <v>17389604</v>
       </c>
       <c r="H34">
-        <v>24745853</v>
+        <v>27065063</v>
       </c>
       <c r="I34">
-        <v>13879852</v>
+        <v>13015437</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -5324,13 +5247,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>15384196</v>
+        <v>13929401</v>
       </c>
       <c r="N34">
-        <v>27065063</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>13015437</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -5342,18 +5265,18 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>13929401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2">
-        <v>44405</v>
+        <v>44398</v>
       </c>
       <c r="B35">
-        <v>22879167</v>
+        <v>24745853</v>
       </c>
       <c r="C35">
-        <v>13741130</v>
+        <v>13879852</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5365,13 +5288,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>17389604</v>
+        <v>15384196</v>
       </c>
       <c r="H35">
-        <v>27065063</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>13015437</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -5383,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>13929401</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -5406,13 +5329,13 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2">
-        <v>44398</v>
+        <v>44391</v>
       </c>
       <c r="B36">
-        <v>24745853</v>
+        <v>27065063</v>
       </c>
       <c r="C36">
-        <v>13879852</v>
+        <v>13015437</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5424,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>15384196</v>
+        <v>13929401</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -5460,65 +5383,6 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="2">
-        <v>44391</v>
-      </c>
-      <c r="B37">
-        <v>27065063</v>
-      </c>
-      <c r="C37">
-        <v>13015437</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>13929401</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,1476 +556,1476 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="B2">
-        <v>263373</v>
+        <v>320381</v>
       </c>
       <c r="C2">
-        <v>44050</v>
+        <v>52934</v>
       </c>
       <c r="D2">
-        <v>195682</v>
+        <v>146615</v>
       </c>
       <c r="E2">
-        <v>147602</v>
+        <v>154589</v>
       </c>
       <c r="F2">
-        <v>569292</v>
+        <v>602042</v>
       </c>
       <c r="G2">
-        <v>912576</v>
+        <v>903246</v>
       </c>
       <c r="H2">
-        <v>8894</v>
+        <v>7093</v>
       </c>
       <c r="I2">
-        <v>1220</v>
+        <v>1082</v>
       </c>
       <c r="J2">
-        <v>6443</v>
+        <v>4424</v>
       </c>
       <c r="K2">
-        <v>2105</v>
+        <v>1654</v>
       </c>
       <c r="L2">
-        <v>11808</v>
+        <v>10840</v>
       </c>
       <c r="M2">
-        <v>20356</v>
+        <v>16918</v>
       </c>
       <c r="N2">
-        <v>720</v>
+        <v>549</v>
       </c>
       <c r="O2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P2">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="Q2">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="R2">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="S2">
-        <v>950</v>
+        <v>808</v>
       </c>
       <c r="T2">
-        <v>2655</v>
+        <v>2117</v>
       </c>
       <c r="U2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="V2">
-        <v>2075</v>
+        <v>1489</v>
       </c>
       <c r="W2">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="X2">
-        <v>2613</v>
+        <v>2356</v>
       </c>
       <c r="Y2">
-        <v>4991</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B3">
-        <v>362240</v>
+        <v>263373</v>
       </c>
       <c r="C3">
-        <v>61074</v>
+        <v>44050</v>
       </c>
       <c r="D3">
-        <v>316885</v>
+        <v>195682</v>
       </c>
       <c r="E3">
-        <v>210897</v>
+        <v>147602</v>
       </c>
       <c r="F3">
-        <v>617287</v>
+        <v>569292</v>
       </c>
       <c r="G3">
-        <v>1145069</v>
+        <v>912576</v>
       </c>
       <c r="H3">
-        <v>11144</v>
+        <v>8894</v>
       </c>
       <c r="I3">
-        <v>1422</v>
+        <v>1220</v>
       </c>
       <c r="J3">
-        <v>9008</v>
+        <v>6443</v>
       </c>
       <c r="K3">
-        <v>2676</v>
+        <v>2105</v>
       </c>
       <c r="L3">
-        <v>12272</v>
+        <v>11808</v>
       </c>
       <c r="M3">
-        <v>23956</v>
+        <v>20356</v>
       </c>
       <c r="N3">
-        <v>941</v>
+        <v>720</v>
       </c>
       <c r="O3">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P3">
-        <v>470</v>
+        <v>319</v>
       </c>
       <c r="Q3">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="R3">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="S3">
-        <v>1134</v>
+        <v>950</v>
       </c>
       <c r="T3">
-        <v>3198</v>
+        <v>2655</v>
       </c>
       <c r="U3">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="V3">
-        <v>2507</v>
+        <v>2075</v>
       </c>
       <c r="W3">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="X3">
-        <v>2677</v>
+        <v>2613</v>
       </c>
       <c r="Y3">
-        <v>5521</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B4">
-        <v>503511</v>
+        <v>362240</v>
       </c>
       <c r="C4">
-        <v>81921</v>
+        <v>61074</v>
       </c>
       <c r="D4">
-        <v>543352</v>
+        <v>316885</v>
       </c>
       <c r="E4">
-        <v>313619</v>
+        <v>210897</v>
       </c>
       <c r="F4">
-        <v>682585</v>
+        <v>617287</v>
       </c>
       <c r="G4">
-        <v>1539556</v>
+        <v>1145069</v>
       </c>
       <c r="H4">
-        <v>13534</v>
+        <v>11144</v>
       </c>
       <c r="I4">
-        <v>1516</v>
+        <v>1422</v>
       </c>
       <c r="J4">
-        <v>11607</v>
+        <v>9008</v>
       </c>
       <c r="K4">
-        <v>3210</v>
+        <v>2676</v>
       </c>
       <c r="L4">
-        <v>12271</v>
+        <v>12272</v>
       </c>
       <c r="M4">
-        <v>27088</v>
+        <v>23956</v>
       </c>
       <c r="N4">
-        <v>1261</v>
+        <v>941</v>
       </c>
       <c r="O4">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P4">
-        <v>617</v>
+        <v>470</v>
       </c>
       <c r="Q4">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="R4">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="S4">
-        <v>1304</v>
+        <v>1134</v>
       </c>
       <c r="T4">
-        <v>3470</v>
+        <v>3198</v>
       </c>
       <c r="U4">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="V4">
-        <v>2795</v>
+        <v>2507</v>
       </c>
       <c r="W4">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="X4">
-        <v>2403</v>
+        <v>2677</v>
       </c>
       <c r="Y4">
-        <v>5527</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B5">
-        <v>642419</v>
+        <v>503511</v>
       </c>
       <c r="C5">
-        <v>102315</v>
+        <v>81921</v>
       </c>
       <c r="D5">
-        <v>848833</v>
+        <v>543352</v>
       </c>
       <c r="E5">
-        <v>439413</v>
+        <v>313619</v>
       </c>
       <c r="F5">
-        <v>717143</v>
+        <v>682585</v>
       </c>
       <c r="G5">
-        <v>2005389</v>
+        <v>1539556</v>
       </c>
       <c r="H5">
-        <v>15012</v>
+        <v>13534</v>
       </c>
       <c r="I5">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="J5">
-        <v>13660</v>
+        <v>11607</v>
       </c>
       <c r="K5">
-        <v>3480</v>
+        <v>3210</v>
       </c>
       <c r="L5">
-        <v>11075</v>
+        <v>12271</v>
       </c>
       <c r="M5">
-        <v>28215</v>
+        <v>27088</v>
       </c>
       <c r="N5">
-        <v>1524</v>
+        <v>1261</v>
       </c>
       <c r="O5">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P5">
-        <v>736</v>
+        <v>617</v>
       </c>
       <c r="Q5">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="R5">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="S5">
-        <v>1350</v>
+        <v>1304</v>
       </c>
       <c r="T5">
-        <v>3357</v>
+        <v>3470</v>
       </c>
       <c r="U5">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="V5">
-        <v>2757</v>
+        <v>2795</v>
       </c>
       <c r="W5">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="X5">
-        <v>1918</v>
+        <v>2403</v>
       </c>
       <c r="Y5">
-        <v>4952</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B6">
-        <v>777547</v>
+        <v>642419</v>
       </c>
       <c r="C6">
-        <v>127486</v>
+        <v>102315</v>
       </c>
       <c r="D6">
-        <v>1249396</v>
+        <v>848833</v>
       </c>
       <c r="E6">
-        <v>597335</v>
+        <v>439413</v>
       </c>
       <c r="F6">
-        <v>738378</v>
+        <v>717143</v>
       </c>
       <c r="G6">
-        <v>2585109</v>
+        <v>2005389</v>
       </c>
       <c r="H6">
-        <v>15695</v>
+        <v>15012</v>
       </c>
       <c r="I6">
-        <v>1437</v>
+        <v>1532</v>
       </c>
       <c r="J6">
-        <v>14598</v>
+        <v>13660</v>
       </c>
       <c r="K6">
-        <v>3426</v>
+        <v>3480</v>
       </c>
       <c r="L6">
-        <v>9017</v>
+        <v>11075</v>
       </c>
       <c r="M6">
-        <v>27041</v>
+        <v>28215</v>
       </c>
       <c r="N6">
-        <v>1716</v>
+        <v>1524</v>
       </c>
       <c r="O6">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P6">
-        <v>803</v>
+        <v>736</v>
       </c>
       <c r="Q6">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="R6">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="S6">
-        <v>1306</v>
+        <v>1350</v>
       </c>
       <c r="T6">
-        <v>3144</v>
+        <v>3357</v>
       </c>
       <c r="U6">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="V6">
-        <v>2508</v>
+        <v>2757</v>
       </c>
       <c r="W6">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="X6">
-        <v>1331</v>
+        <v>1918</v>
       </c>
       <c r="Y6">
-        <v>4071</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B7">
-        <v>809625</v>
+        <v>777547</v>
       </c>
       <c r="C7">
-        <v>137850</v>
+        <v>127486</v>
       </c>
       <c r="D7">
-        <v>1532777</v>
+        <v>1249396</v>
       </c>
       <c r="E7">
-        <v>687597</v>
+        <v>597335</v>
       </c>
       <c r="F7">
-        <v>672910</v>
+        <v>738378</v>
       </c>
       <c r="G7">
-        <v>2893284</v>
+        <v>2585109</v>
       </c>
       <c r="H7">
-        <v>15049</v>
+        <v>15695</v>
       </c>
       <c r="I7">
-        <v>1240</v>
+        <v>1437</v>
       </c>
       <c r="J7">
-        <v>13663</v>
+        <v>14598</v>
       </c>
       <c r="K7">
-        <v>2915</v>
+        <v>3426</v>
       </c>
       <c r="L7">
-        <v>6606</v>
+        <v>9017</v>
       </c>
       <c r="M7">
-        <v>23184</v>
+        <v>27041</v>
       </c>
       <c r="N7">
-        <v>1792</v>
+        <v>1716</v>
       </c>
       <c r="O7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P7">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="Q7">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="R7">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="S7">
-        <v>1166</v>
+        <v>1306</v>
       </c>
       <c r="T7">
-        <v>2632</v>
+        <v>3144</v>
       </c>
       <c r="U7">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="V7">
-        <v>2172</v>
+        <v>2508</v>
       </c>
       <c r="W7">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="X7">
-        <v>814</v>
+        <v>1331</v>
       </c>
       <c r="Y7">
-        <v>3168</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B8">
-        <v>703732</v>
+        <v>809625</v>
       </c>
       <c r="C8">
-        <v>127478</v>
+        <v>137850</v>
       </c>
       <c r="D8">
-        <v>1544092</v>
+        <v>1532777</v>
       </c>
       <c r="E8">
-        <v>640805</v>
+        <v>687597</v>
       </c>
       <c r="F8">
-        <v>521657</v>
+        <v>672910</v>
       </c>
       <c r="G8">
-        <v>2706554</v>
+        <v>2893284</v>
       </c>
       <c r="H8">
-        <v>13946</v>
+        <v>15049</v>
       </c>
       <c r="I8">
-        <v>989</v>
+        <v>1240</v>
       </c>
       <c r="J8">
-        <v>11934</v>
+        <v>13663</v>
       </c>
       <c r="K8">
-        <v>2225</v>
+        <v>2915</v>
       </c>
       <c r="L8">
-        <v>4177</v>
+        <v>6606</v>
       </c>
       <c r="M8">
-        <v>18336</v>
+        <v>23184</v>
       </c>
       <c r="N8">
-        <v>1753</v>
+        <v>1792</v>
       </c>
       <c r="O8">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P8">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="Q8">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="R8">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="S8">
-        <v>1014</v>
+        <v>1166</v>
       </c>
       <c r="T8">
-        <v>2120</v>
+        <v>2632</v>
       </c>
       <c r="U8">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="V8">
-        <v>1805</v>
+        <v>2172</v>
       </c>
       <c r="W8">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="X8">
-        <v>432</v>
+        <v>814</v>
       </c>
       <c r="Y8">
-        <v>2375</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B9">
-        <v>555697</v>
+        <v>703732</v>
       </c>
       <c r="C9">
-        <v>102729</v>
+        <v>127478</v>
       </c>
       <c r="D9">
-        <v>1320086</v>
+        <v>1544092</v>
       </c>
       <c r="E9">
-        <v>527687</v>
+        <v>640805</v>
       </c>
       <c r="F9">
-        <v>358530</v>
+        <v>521657</v>
       </c>
       <c r="G9">
-        <v>2206303</v>
+        <v>2706554</v>
       </c>
       <c r="H9">
-        <v>11487</v>
+        <v>13946</v>
       </c>
       <c r="I9">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="J9">
-        <v>9435</v>
+        <v>11934</v>
       </c>
       <c r="K9">
-        <v>1499</v>
+        <v>2225</v>
       </c>
       <c r="L9">
-        <v>2066</v>
+        <v>4177</v>
       </c>
       <c r="M9">
-        <v>13000</v>
+        <v>18336</v>
       </c>
       <c r="N9">
-        <v>1557</v>
+        <v>1753</v>
       </c>
       <c r="O9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P9">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="Q9">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R9">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="S9">
-        <v>809</v>
+        <v>1014</v>
       </c>
       <c r="T9">
-        <v>1774</v>
+        <v>2120</v>
       </c>
       <c r="U9">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="V9">
-        <v>1541</v>
+        <v>1805</v>
       </c>
       <c r="W9">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="X9">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="Y9">
-        <v>1863</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B10">
-        <v>395424</v>
+        <v>555697</v>
       </c>
       <c r="C10">
-        <v>68050</v>
+        <v>102729</v>
       </c>
       <c r="D10">
-        <v>955924</v>
+        <v>1320086</v>
       </c>
       <c r="E10">
-        <v>364078</v>
+        <v>527687</v>
       </c>
       <c r="F10">
-        <v>200146</v>
+        <v>358530</v>
       </c>
       <c r="G10">
-        <v>1520148</v>
+        <v>2206303</v>
       </c>
       <c r="H10">
-        <v>9564</v>
+        <v>11487</v>
       </c>
       <c r="I10">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="J10">
-        <v>7594</v>
+        <v>9435</v>
       </c>
       <c r="K10">
-        <v>1055</v>
+        <v>1499</v>
       </c>
       <c r="L10">
-        <v>955</v>
+        <v>2066</v>
       </c>
       <c r="M10">
-        <v>9604</v>
+        <v>13000</v>
       </c>
       <c r="N10">
-        <v>1368</v>
+        <v>1557</v>
       </c>
       <c r="O10">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P10">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="Q10">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R10">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="S10">
-        <v>663</v>
+        <v>809</v>
       </c>
       <c r="T10">
-        <v>1443</v>
+        <v>1774</v>
       </c>
       <c r="U10">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="V10">
-        <v>1370</v>
+        <v>1541</v>
       </c>
       <c r="W10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X10">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="Y10">
-        <v>1606</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B11">
-        <v>251412</v>
+        <v>395424</v>
       </c>
       <c r="C11">
-        <v>34617</v>
+        <v>68050</v>
       </c>
       <c r="D11">
-        <v>547518</v>
+        <v>955924</v>
       </c>
       <c r="E11">
-        <v>195560</v>
+        <v>364078</v>
       </c>
       <c r="F11">
-        <v>79260</v>
+        <v>200146</v>
       </c>
       <c r="G11">
-        <v>822338</v>
+        <v>1520148</v>
       </c>
       <c r="H11">
-        <v>8278</v>
+        <v>9564</v>
       </c>
       <c r="I11">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="J11">
-        <v>6612</v>
+        <v>7594</v>
       </c>
       <c r="K11">
-        <v>905</v>
+        <v>1055</v>
       </c>
       <c r="L11">
-        <v>546</v>
+        <v>955</v>
       </c>
       <c r="M11">
-        <v>8063</v>
+        <v>9604</v>
       </c>
       <c r="N11">
-        <v>1202</v>
+        <v>1368</v>
       </c>
       <c r="O11">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P11">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="Q11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R11">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S11">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="T11">
-        <v>1170</v>
+        <v>1443</v>
       </c>
       <c r="U11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V11">
-        <v>1298</v>
+        <v>1370</v>
       </c>
       <c r="W11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X11">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Y11">
-        <v>1489</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B12">
-        <v>170551</v>
+        <v>251412</v>
       </c>
       <c r="C12">
-        <v>14491</v>
+        <v>34617</v>
       </c>
       <c r="D12">
-        <v>265724</v>
+        <v>547518</v>
       </c>
       <c r="E12">
-        <v>99757</v>
+        <v>195560</v>
       </c>
       <c r="F12">
-        <v>20375</v>
+        <v>79260</v>
       </c>
       <c r="G12">
-        <v>385856</v>
+        <v>822338</v>
       </c>
       <c r="H12">
-        <v>7059</v>
+        <v>8278</v>
       </c>
       <c r="I12">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J12">
-        <v>5927</v>
+        <v>6612</v>
       </c>
       <c r="K12">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="L12">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="M12">
-        <v>7229</v>
+        <v>8063</v>
       </c>
       <c r="N12">
-        <v>1036</v>
+        <v>1202</v>
       </c>
       <c r="O12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P12">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="Q12">
+        <v>72</v>
+      </c>
+      <c r="R12">
+        <v>46</v>
+      </c>
+      <c r="S12">
+        <v>614</v>
+      </c>
+      <c r="T12">
+        <v>1170</v>
+      </c>
+      <c r="U12">
         <v>89</v>
       </c>
-      <c r="R12">
-        <v>33</v>
-      </c>
-      <c r="S12">
-        <v>555</v>
-      </c>
-      <c r="T12">
-        <v>994</v>
-      </c>
-      <c r="U12">
-        <v>75</v>
-      </c>
       <c r="V12">
-        <v>1108</v>
+        <v>1298</v>
       </c>
       <c r="W12">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="X12">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Y12">
-        <v>1262</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B13">
-        <v>140677</v>
+        <v>170551</v>
       </c>
       <c r="C13">
-        <v>9069</v>
+        <v>14491</v>
       </c>
       <c r="D13">
-        <v>91366</v>
+        <v>265724</v>
       </c>
       <c r="E13">
-        <v>155978</v>
+        <v>99757</v>
       </c>
       <c r="F13">
-        <v>7655</v>
+        <v>20375</v>
       </c>
       <c r="G13">
-        <v>254999</v>
+        <v>385856</v>
       </c>
       <c r="H13">
-        <v>5944</v>
+        <v>7059</v>
       </c>
       <c r="I13">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J13">
-        <v>4047</v>
+        <v>5927</v>
       </c>
       <c r="K13">
-        <v>2065</v>
+        <v>934</v>
       </c>
       <c r="L13">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="M13">
-        <v>6384</v>
+        <v>7229</v>
       </c>
       <c r="N13">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="O13">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P13">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="Q13">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="R13">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S13">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="T13">
-        <v>839</v>
+        <v>994</v>
       </c>
       <c r="U13">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="V13">
-        <v>838</v>
+        <v>1108</v>
       </c>
       <c r="W13">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="X13">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Y13">
-        <v>1105</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B14">
-        <v>114674</v>
+        <v>140677</v>
       </c>
       <c r="C14">
-        <v>7107</v>
+        <v>9069</v>
       </c>
       <c r="D14">
-        <v>71563</v>
+        <v>91366</v>
       </c>
       <c r="E14">
-        <v>122505</v>
+        <v>155978</v>
       </c>
       <c r="F14">
-        <v>4219</v>
+        <v>7655</v>
       </c>
       <c r="G14">
-        <v>198287</v>
+        <v>254999</v>
       </c>
       <c r="H14">
-        <v>5081</v>
+        <v>5944</v>
       </c>
       <c r="I14">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="J14">
-        <v>3432</v>
+        <v>4047</v>
       </c>
       <c r="K14">
-        <v>1843</v>
+        <v>2065</v>
       </c>
       <c r="L14">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="M14">
-        <v>5451</v>
+        <v>6384</v>
       </c>
       <c r="N14">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="O14">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P14">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q14">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="R14">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S14">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="T14">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="U14">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V14">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="W14">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="X14">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Y14">
-        <v>991</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B15">
-        <v>93220</v>
+        <v>114674</v>
       </c>
       <c r="C15">
-        <v>6181</v>
+        <v>7107</v>
       </c>
       <c r="D15">
-        <v>57054</v>
+        <v>71563</v>
       </c>
       <c r="E15">
-        <v>102245</v>
+        <v>122505</v>
       </c>
       <c r="F15">
-        <v>2652</v>
+        <v>4219</v>
       </c>
       <c r="G15">
-        <v>161951</v>
+        <v>198287</v>
       </c>
       <c r="H15">
-        <v>4402</v>
+        <v>5081</v>
       </c>
       <c r="I15">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="J15">
-        <v>2916</v>
+        <v>3432</v>
       </c>
       <c r="K15">
-        <v>1616</v>
+        <v>1843</v>
       </c>
       <c r="L15">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="M15">
-        <v>4653</v>
+        <v>5451</v>
       </c>
       <c r="N15">
-        <v>618</v>
+        <v>747</v>
       </c>
       <c r="O15">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P15">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q15">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S15">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="T15">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="U15">
+        <v>42</v>
+      </c>
+      <c r="V15">
+        <v>745</v>
+      </c>
+      <c r="W15">
+        <v>257</v>
+      </c>
+      <c r="X15">
         <v>29</v>
       </c>
-      <c r="V15">
-        <v>604</v>
-      </c>
-      <c r="W15">
-        <v>186</v>
-      </c>
-      <c r="X15">
-        <v>17</v>
-      </c>
       <c r="Y15">
-        <v>807</v>
+        <v>991</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B16">
-        <v>75512</v>
+        <v>93220</v>
       </c>
       <c r="C16">
-        <v>5587</v>
+        <v>6181</v>
       </c>
       <c r="D16">
-        <v>44023</v>
+        <v>57054</v>
       </c>
       <c r="E16">
-        <v>82755</v>
+        <v>102245</v>
       </c>
       <c r="F16">
-        <v>1710</v>
+        <v>2652</v>
       </c>
       <c r="G16">
-        <v>128488</v>
+        <v>161951</v>
       </c>
       <c r="H16">
-        <v>3733</v>
+        <v>4402</v>
       </c>
       <c r="I16">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J16">
-        <v>2336</v>
+        <v>2916</v>
       </c>
       <c r="K16">
-        <v>1435</v>
+        <v>1616</v>
       </c>
       <c r="L16">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M16">
-        <v>3845</v>
+        <v>4653</v>
       </c>
       <c r="N16">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="O16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P16">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q16">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="R16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S16">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="T16">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="U16">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V16">
-        <v>482</v>
+        <v>604</v>
       </c>
       <c r="W16">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="X16">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y16">
-        <v>690</v>
+        <v>807</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B17">
-        <v>61908</v>
+        <v>75512</v>
       </c>
       <c r="C17">
-        <v>4260</v>
+        <v>5587</v>
       </c>
       <c r="D17">
-        <v>15519</v>
+        <v>44023</v>
       </c>
       <c r="E17">
-        <v>81740</v>
+        <v>82755</v>
       </c>
       <c r="F17">
-        <v>969</v>
+        <v>1710</v>
       </c>
       <c r="G17">
-        <v>98228</v>
+        <v>128488</v>
       </c>
       <c r="H17">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="I17">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J17">
-        <v>1187</v>
+        <v>2336</v>
       </c>
       <c r="K17">
-        <v>2437</v>
+        <v>1435</v>
       </c>
       <c r="L17">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>3693</v>
+        <v>3845</v>
       </c>
       <c r="N17">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="O17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P17">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="Q17">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="R17">
         <v>3</v>
       </c>
       <c r="S17">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="T17">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="U17">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="V17">
-        <v>191</v>
+        <v>482</v>
       </c>
       <c r="W17">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="X17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Y17">
-        <v>555</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B18">
-        <v>50564</v>
+        <v>61908</v>
       </c>
       <c r="C18">
-        <v>3980</v>
+        <v>4260</v>
       </c>
       <c r="D18">
-        <v>11215</v>
+        <v>15519</v>
       </c>
       <c r="E18">
-        <v>60407</v>
+        <v>81740</v>
       </c>
       <c r="F18">
-        <v>537</v>
+        <v>969</v>
       </c>
       <c r="G18">
-        <v>72159</v>
+        <v>98228</v>
       </c>
       <c r="H18">
-        <v>3220</v>
+        <v>3737</v>
       </c>
       <c r="I18">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J18">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="K18">
-        <v>2075</v>
+        <v>2437</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M18">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="N18">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="O18">
         <v>14</v>
       </c>
       <c r="P18">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q18">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="T18">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="U18">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V18">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="W18">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y18">
-        <v>444</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B19">
-        <v>40182</v>
+        <v>50564</v>
       </c>
       <c r="C19">
-        <v>3466</v>
+        <v>3980</v>
       </c>
       <c r="D19">
-        <v>8088</v>
+        <v>11215</v>
       </c>
       <c r="E19">
-        <v>43928</v>
+        <v>60407</v>
       </c>
       <c r="F19">
-        <v>286</v>
+        <v>537</v>
       </c>
       <c r="G19">
-        <v>52302</v>
+        <v>72159</v>
       </c>
       <c r="H19">
-        <v>2890</v>
+        <v>3220</v>
       </c>
       <c r="I19">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J19">
-        <v>618</v>
+        <v>826</v>
       </c>
       <c r="K19">
-        <v>1774</v>
+        <v>2075</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>2409</v>
+        <v>2936</v>
       </c>
       <c r="N19">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="O19">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P19">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q19">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="T19">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="U19">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V19">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="W19">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B20">
-        <v>35398</v>
+        <v>40182</v>
       </c>
       <c r="C20">
-        <v>3207</v>
+        <v>3466</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>43928</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G20">
-        <v>40991</v>
+        <v>52302</v>
       </c>
       <c r="H20">
-        <v>2696</v>
+        <v>2890</v>
       </c>
       <c r="I20">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>2037</v>
+        <v>2409</v>
       </c>
       <c r="N20">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="O20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="T20">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="U20">
         <v>27</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B21">
-        <v>34128</v>
+        <v>35398</v>
       </c>
       <c r="C21">
-        <v>3421</v>
+        <v>3207</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>34131</v>
+        <v>40991</v>
       </c>
       <c r="H21">
-        <v>2845</v>
+        <v>2696</v>
       </c>
       <c r="I21">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1815</v>
+        <v>2037</v>
       </c>
       <c r="N21">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="O21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="T21">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="U21">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2091,18 +2091,18 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B22">
-        <v>36194</v>
+        <v>34128</v>
       </c>
       <c r="C22">
-        <v>4127</v>
+        <v>3421</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>31514</v>
+        <v>34131</v>
       </c>
       <c r="H22">
-        <v>3396</v>
+        <v>2845</v>
       </c>
       <c r="I22">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1954</v>
+        <v>1815</v>
       </c>
       <c r="N22">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="O22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2150,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="T22">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="U22">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2168,18 +2168,18 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>511</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B23">
-        <v>45790</v>
+        <v>36194</v>
       </c>
       <c r="C23">
-        <v>5352</v>
+        <v>4127</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2191,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>33496</v>
+        <v>31514</v>
       </c>
       <c r="H23">
-        <v>4274</v>
+        <v>3396</v>
       </c>
       <c r="I23">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="N23">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="O23">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T23">
-        <v>775</v>
+        <v>636</v>
       </c>
       <c r="U23">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2245,18 +2245,18 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>578</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B24">
-        <v>56808</v>
+        <v>45790</v>
       </c>
       <c r="C24">
-        <v>6952</v>
+        <v>5352</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>36529</v>
+        <v>33496</v>
       </c>
       <c r="H24">
-        <v>5224</v>
+        <v>4274</v>
       </c>
       <c r="I24">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2268</v>
+        <v>2133</v>
       </c>
       <c r="N24">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="O24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2304,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="T24">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="U24">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2322,18 +2322,18 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B25">
-        <v>70900</v>
+        <v>56808</v>
       </c>
       <c r="C25">
-        <v>9284</v>
+        <v>6952</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>40060</v>
+        <v>36529</v>
       </c>
       <c r="H25">
-        <v>6160</v>
+        <v>5224</v>
       </c>
       <c r="I25">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2418</v>
+        <v>2268</v>
       </c>
       <c r="N25">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="O25">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T25">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="U25">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2399,18 +2399,18 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B26">
-        <v>86133</v>
+        <v>70900</v>
       </c>
       <c r="C26">
-        <v>11735</v>
+        <v>9284</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>44050</v>
+        <v>40060</v>
       </c>
       <c r="H26">
-        <v>6782</v>
+        <v>6160</v>
       </c>
       <c r="I26">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>2456</v>
+        <v>2418</v>
       </c>
       <c r="N26">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="O26">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2458,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T26">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="U26">
         <v>57</v>
@@ -2476,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>509</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B27">
-        <v>96900</v>
+        <v>86133</v>
       </c>
       <c r="C27">
-        <v>13728</v>
+        <v>11735</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>44990</v>
+        <v>44050</v>
       </c>
       <c r="H27">
-        <v>6841</v>
+        <v>6782</v>
       </c>
       <c r="I27">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>2331</v>
+        <v>2456</v>
       </c>
       <c r="N27">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="O27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="T27">
-        <v>770</v>
+        <v>877</v>
       </c>
       <c r="U27">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2553,18 +2553,18 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>405</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B28">
-        <v>104890</v>
+        <v>96900</v>
       </c>
       <c r="C28">
-        <v>16129</v>
+        <v>13728</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>43775</v>
+        <v>44990</v>
       </c>
       <c r="H28">
-        <v>6579</v>
+        <v>6841</v>
       </c>
       <c r="I28">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>2118</v>
+        <v>2331</v>
       </c>
       <c r="N28">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="O28">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T28">
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="U28">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2630,18 +2630,18 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>280</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B29">
-        <v>107937</v>
+        <v>104890</v>
       </c>
       <c r="C29">
-        <v>18925</v>
+        <v>16129</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>40380</v>
+        <v>43775</v>
       </c>
       <c r="H29">
-        <v>5988</v>
+        <v>6579</v>
       </c>
       <c r="I29">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1788</v>
+        <v>2118</v>
       </c>
       <c r="N29">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="O29">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="T29">
-        <v>383</v>
+        <v>571</v>
       </c>
       <c r="U29">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2707,18 +2707,18 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B30">
-        <v>104405</v>
+        <v>107937</v>
       </c>
       <c r="C30">
-        <v>21703</v>
+        <v>18925</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>33894</v>
+        <v>40380</v>
       </c>
       <c r="H30">
-        <v>5162</v>
+        <v>5988</v>
       </c>
       <c r="I30">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1349</v>
+        <v>1788</v>
       </c>
       <c r="N30">
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="O30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="T30">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="U30">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2784,18 +2784,18 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>92</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B31">
-        <v>95261</v>
+        <v>104405</v>
       </c>
       <c r="C31">
-        <v>22568</v>
+        <v>21703</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>24978</v>
+        <v>33894</v>
       </c>
       <c r="H31">
-        <v>4052</v>
+        <v>5162</v>
       </c>
       <c r="I31">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>959</v>
+        <v>1349</v>
       </c>
       <c r="N31">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="O31">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="T31">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="U31">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2861,18 +2861,18 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B32">
-        <v>80585</v>
+        <v>95261</v>
       </c>
       <c r="C32">
-        <v>21570</v>
+        <v>22568</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2884,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>18887</v>
+        <v>24978</v>
       </c>
       <c r="H32">
-        <v>3067</v>
+        <v>4052</v>
       </c>
       <c r="I32">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>627</v>
+        <v>959</v>
       </c>
       <c r="N32">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="O32">
         <v>22</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="T32">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="U32">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2938,18 +2938,18 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B33">
-        <v>60267</v>
+        <v>80585</v>
       </c>
       <c r="C33">
-        <v>17420</v>
+        <v>21570</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>12333</v>
+        <v>18887</v>
       </c>
       <c r="H33">
-        <v>2234</v>
+        <v>3067</v>
       </c>
       <c r="I33">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2979,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="N33">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="O33">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="T33">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="U33">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3020,13 +3020,13 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B34">
-        <v>40729</v>
+        <v>60267</v>
       </c>
       <c r="C34">
-        <v>12032</v>
+        <v>17420</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>7277</v>
+        <v>12333</v>
       </c>
       <c r="H34">
-        <v>1619</v>
+        <v>2234</v>
       </c>
       <c r="I34">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="N34">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="O34">
         <v>11</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T34">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="U34">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3092,18 +3092,18 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B35">
-        <v>26284</v>
+        <v>40729</v>
       </c>
       <c r="C35">
-        <v>6813</v>
+        <v>12032</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3115,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>3805</v>
+        <v>7277</v>
       </c>
       <c r="H35">
-        <v>1483</v>
+        <v>1619</v>
       </c>
       <c r="I35">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3133,13 +3133,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="N35">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O35">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3151,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T35">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="U35">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3169,83 +3169,160 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B36">
+        <v>26284</v>
+      </c>
+      <c r="C36">
+        <v>6813</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>3805</v>
+      </c>
+      <c r="H36">
+        <v>1483</v>
+      </c>
+      <c r="I36">
+        <v>199</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>224</v>
+      </c>
+      <c r="N36">
+        <v>117</v>
+      </c>
+      <c r="O36">
+        <v>14</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>8</v>
+      </c>
+      <c r="T36">
+        <v>250</v>
+      </c>
+      <c r="U36">
+        <v>47</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="2">
         <v>44391</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>21089</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>3954</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>2310</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>1880</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>240</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>240</v>
       </c>
-      <c r="N36">
+      <c r="N37">
         <v>147</v>
       </c>
-      <c r="O36">
+      <c r="O37">
         <v>20</v>
       </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>7</v>
       </c>
-      <c r="T36">
+      <c r="T37">
         <v>357</v>
       </c>
-      <c r="U36">
+      <c r="U37">
         <v>72</v>
       </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
         <v>68</v>
       </c>
     </row>
@@ -3256,7 +3333,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3323,1134 +3400,1134 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="B2">
-        <v>4922246</v>
+        <v>7188123</v>
       </c>
       <c r="C2">
-        <v>1504174</v>
+        <v>1774721</v>
       </c>
       <c r="D2">
-        <v>8369206</v>
+        <v>7675977</v>
       </c>
       <c r="E2">
-        <v>4462914</v>
+        <v>5027431</v>
       </c>
       <c r="F2">
-        <v>34751405</v>
+        <v>35999762</v>
       </c>
       <c r="G2">
-        <v>47583525</v>
+        <v>48703170</v>
       </c>
       <c r="H2">
-        <v>5237693</v>
+        <v>7589638</v>
       </c>
       <c r="I2">
-        <v>1603693</v>
+        <v>2256742</v>
       </c>
       <c r="J2">
-        <v>12148624</v>
+        <v>10012637</v>
       </c>
       <c r="K2">
-        <v>5387344</v>
+        <v>5229922</v>
       </c>
       <c r="L2">
-        <v>29632591</v>
+        <v>32577075</v>
       </c>
       <c r="M2">
-        <v>47168559</v>
+        <v>47819634</v>
       </c>
       <c r="N2">
-        <v>5475882</v>
+        <v>7902839</v>
       </c>
       <c r="O2">
-        <v>1574138</v>
+        <v>2289689</v>
       </c>
       <c r="P2">
-        <v>14562981</v>
+        <v>12148491</v>
       </c>
       <c r="Q2">
-        <v>6180953</v>
+        <v>5690505</v>
       </c>
       <c r="R2">
-        <v>26215991</v>
+        <v>29634490</v>
       </c>
       <c r="S2">
-        <v>46959925</v>
+        <v>47473486</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B3">
-        <v>5053954</v>
+        <v>4922246</v>
       </c>
       <c r="C3">
-        <v>1597892</v>
+        <v>1504174</v>
       </c>
       <c r="D3">
-        <v>10021741</v>
+        <v>8369206</v>
       </c>
       <c r="E3">
-        <v>4762640</v>
+        <v>4462914</v>
       </c>
       <c r="F3">
-        <v>32573718</v>
+        <v>34751405</v>
       </c>
       <c r="G3">
-        <v>47358099</v>
+        <v>47583525</v>
       </c>
       <c r="H3">
-        <v>5465398</v>
+        <v>5237693</v>
       </c>
       <c r="I3">
-        <v>1580627</v>
+        <v>1603693</v>
       </c>
       <c r="J3">
-        <v>14572377</v>
+        <v>12148624</v>
       </c>
       <c r="K3">
-        <v>6176719</v>
+        <v>5387344</v>
       </c>
       <c r="L3">
-        <v>26214824</v>
+        <v>29632591</v>
       </c>
       <c r="M3">
-        <v>46963920</v>
+        <v>47168559</v>
       </c>
       <c r="N3">
-        <v>5755897</v>
+        <v>5475882</v>
       </c>
       <c r="O3">
-        <v>1547981</v>
+        <v>1574138</v>
       </c>
       <c r="P3">
-        <v>17157988</v>
+        <v>14562981</v>
       </c>
       <c r="Q3">
-        <v>7039120</v>
+        <v>6180953</v>
       </c>
       <c r="R3">
-        <v>22508959</v>
+        <v>26215991</v>
       </c>
       <c r="S3">
-        <v>46706067</v>
+        <v>46959925</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B4">
-        <v>5229604</v>
+        <v>5053954</v>
       </c>
       <c r="C4">
-        <v>1618481</v>
+        <v>1597892</v>
       </c>
       <c r="D4">
-        <v>12157100</v>
+        <v>10021741</v>
       </c>
       <c r="E4">
-        <v>5375529</v>
+        <v>4762640</v>
       </c>
       <c r="F4">
-        <v>29629231</v>
+        <v>32573718</v>
       </c>
       <c r="G4">
-        <v>47161860</v>
+        <v>47358099</v>
       </c>
       <c r="H4">
-        <v>5758356</v>
+        <v>5465398</v>
       </c>
       <c r="I4">
-        <v>1551283</v>
+        <v>1580627</v>
       </c>
       <c r="J4">
-        <v>17157160</v>
+        <v>14572377</v>
       </c>
       <c r="K4">
-        <v>7035796</v>
+        <v>6176719</v>
       </c>
       <c r="L4">
-        <v>22507350</v>
+        <v>26214824</v>
       </c>
       <c r="M4">
-        <v>46700306</v>
+        <v>46963920</v>
       </c>
       <c r="N4">
-        <v>5927007</v>
+        <v>5755897</v>
       </c>
       <c r="O4">
-        <v>1592113</v>
+        <v>1547981</v>
       </c>
       <c r="P4">
-        <v>18793468</v>
+        <v>17157988</v>
       </c>
       <c r="Q4">
-        <v>8015572</v>
+        <v>7039120</v>
       </c>
       <c r="R4">
-        <v>19681785</v>
+        <v>22508959</v>
       </c>
       <c r="S4">
-        <v>46490825</v>
+        <v>46706067</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B5">
-        <v>5467098</v>
+        <v>5229604</v>
       </c>
       <c r="C5">
-        <v>1596811</v>
+        <v>1618481</v>
       </c>
       <c r="D5">
-        <v>14575900</v>
+        <v>12157100</v>
       </c>
       <c r="E5">
-        <v>6164226</v>
+        <v>5375529</v>
       </c>
       <c r="F5">
-        <v>26205910</v>
+        <v>29629231</v>
       </c>
       <c r="G5">
-        <v>46946036</v>
+        <v>47161860</v>
       </c>
       <c r="H5">
-        <v>5926909</v>
+        <v>5758356</v>
       </c>
       <c r="I5">
-        <v>1597860</v>
+        <v>1551283</v>
       </c>
       <c r="J5">
-        <v>18796851</v>
+        <v>17157160</v>
       </c>
       <c r="K5">
-        <v>8012376</v>
+        <v>7035796</v>
       </c>
       <c r="L5">
-        <v>19675949</v>
+        <v>22507350</v>
       </c>
       <c r="M5">
-        <v>46485176</v>
+        <v>46700306</v>
       </c>
       <c r="N5">
-        <v>6040050</v>
+        <v>5927007</v>
       </c>
       <c r="O5">
-        <v>1652417</v>
+        <v>1592113</v>
       </c>
       <c r="P5">
-        <v>20133986</v>
+        <v>18793468</v>
       </c>
       <c r="Q5">
-        <v>9055320</v>
+        <v>8015572</v>
       </c>
       <c r="R5">
-        <v>17128172</v>
+        <v>19681785</v>
       </c>
       <c r="S5">
-        <v>46317478</v>
+        <v>46490825</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B6">
-        <v>5610741</v>
+        <v>5467098</v>
       </c>
       <c r="C6">
-        <v>1575333</v>
+        <v>1596811</v>
       </c>
       <c r="D6">
-        <v>17279465</v>
+        <v>14575900</v>
       </c>
       <c r="E6">
-        <v>7025036</v>
+        <v>6164226</v>
       </c>
       <c r="F6">
-        <v>22519370</v>
+        <v>26205910</v>
       </c>
       <c r="G6">
-        <v>46823871</v>
+        <v>46946036</v>
       </c>
       <c r="H6">
-        <v>5893661</v>
+        <v>5926909</v>
       </c>
       <c r="I6">
-        <v>1663892</v>
+        <v>1597860</v>
       </c>
       <c r="J6">
-        <v>20257123</v>
+        <v>18796851</v>
       </c>
       <c r="K6">
-        <v>9057038</v>
+        <v>8012376</v>
       </c>
       <c r="L6">
-        <v>17138231</v>
+        <v>19675949</v>
       </c>
       <c r="M6">
-        <v>46452392</v>
+        <v>46485176</v>
       </c>
       <c r="N6">
-        <v>6038487</v>
+        <v>6040050</v>
       </c>
       <c r="O6">
-        <v>1684410</v>
+        <v>1652417</v>
       </c>
       <c r="P6">
-        <v>22158953</v>
+        <v>20133986</v>
       </c>
       <c r="Q6">
-        <v>9853675</v>
+        <v>9055320</v>
       </c>
       <c r="R6">
-        <v>14274420</v>
+        <v>17128172</v>
       </c>
       <c r="S6">
-        <v>46287048</v>
+        <v>46317478</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B7">
-        <v>5925943</v>
+        <v>5610741</v>
       </c>
       <c r="C7">
-        <v>1616298</v>
+        <v>1575333</v>
       </c>
       <c r="D7">
-        <v>18801609</v>
+        <v>17279465</v>
       </c>
       <c r="E7">
-        <v>7998741</v>
+        <v>7025036</v>
       </c>
       <c r="F7">
-        <v>19667354</v>
+        <v>22519370</v>
       </c>
       <c r="G7">
-        <v>46467704</v>
+        <v>46823871</v>
       </c>
       <c r="H7">
-        <v>6182863</v>
+        <v>5893661</v>
       </c>
       <c r="I7">
-        <v>1687002</v>
+        <v>1663892</v>
       </c>
       <c r="J7">
-        <v>22039408</v>
+        <v>20257123</v>
       </c>
       <c r="K7">
-        <v>9839532</v>
+        <v>9057038</v>
       </c>
       <c r="L7">
-        <v>14261140</v>
+        <v>17138231</v>
       </c>
       <c r="M7">
-        <v>46140080</v>
+        <v>46452392</v>
       </c>
       <c r="N7">
-        <v>6392072</v>
+        <v>6038487</v>
       </c>
       <c r="O7">
-        <v>1641693</v>
+        <v>1684410</v>
       </c>
       <c r="P7">
-        <v>24567729</v>
+        <v>22158953</v>
       </c>
       <c r="Q7">
-        <v>10413190</v>
+        <v>9853675</v>
       </c>
       <c r="R7">
-        <v>10995261</v>
+        <v>14274420</v>
       </c>
       <c r="S7">
-        <v>45976180</v>
+        <v>46287048</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B8">
-        <v>6113428</v>
+        <v>5925943</v>
       </c>
       <c r="C8">
-        <v>1676275</v>
+        <v>1616298</v>
       </c>
       <c r="D8">
-        <v>20106983</v>
+        <v>18801609</v>
       </c>
       <c r="E8">
-        <v>9023286</v>
+        <v>7998741</v>
       </c>
       <c r="F8">
-        <v>17089973</v>
+        <v>19667354</v>
       </c>
       <c r="G8">
-        <v>46220242</v>
+        <v>46467704</v>
       </c>
       <c r="H8">
-        <v>6466161</v>
+        <v>6182863</v>
       </c>
       <c r="I8">
-        <v>1644869</v>
+        <v>1687002</v>
       </c>
       <c r="J8">
-        <v>24530417</v>
+        <v>22039408</v>
       </c>
       <c r="K8">
-        <v>10394218</v>
+        <v>9839532</v>
       </c>
       <c r="L8">
-        <v>10974280</v>
+        <v>14261140</v>
       </c>
       <c r="M8">
-        <v>45898915</v>
+        <v>46140080</v>
       </c>
       <c r="N8">
-        <v>6710026</v>
+        <v>6392072</v>
       </c>
       <c r="O8">
-        <v>1549282</v>
+        <v>1641693</v>
       </c>
       <c r="P8">
-        <v>25990113</v>
+        <v>24567729</v>
       </c>
       <c r="Q8">
-        <v>11656265</v>
+        <v>10413190</v>
       </c>
       <c r="R8">
-        <v>8104259</v>
+        <v>10995261</v>
       </c>
       <c r="S8">
-        <v>45750637</v>
+        <v>45976180</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B9">
-        <v>6194434</v>
+        <v>6113428</v>
       </c>
       <c r="C9">
-        <v>1720841</v>
+        <v>1676275</v>
       </c>
       <c r="D9">
-        <v>22048677</v>
+        <v>20106983</v>
       </c>
       <c r="E9">
-        <v>9810639</v>
+        <v>9023286</v>
       </c>
       <c r="F9">
-        <v>14235354</v>
+        <v>17089973</v>
       </c>
       <c r="G9">
-        <v>46094670</v>
+        <v>46220242</v>
       </c>
       <c r="H9">
-        <v>6647970</v>
+        <v>6466161</v>
       </c>
       <c r="I9">
-        <v>1566179</v>
+        <v>1644869</v>
       </c>
       <c r="J9">
-        <v>26028307</v>
+        <v>24530417</v>
       </c>
       <c r="K9">
-        <v>11660101</v>
+        <v>10394218</v>
       </c>
       <c r="L9">
-        <v>8107388</v>
+        <v>10974280</v>
       </c>
       <c r="M9">
-        <v>45795796</v>
+        <v>45898915</v>
       </c>
       <c r="N9">
-        <v>6862315</v>
+        <v>6710026</v>
       </c>
       <c r="O9">
-        <v>1493790</v>
+        <v>1549282</v>
       </c>
       <c r="P9">
-        <v>26357835</v>
+        <v>25990113</v>
       </c>
       <c r="Q9">
-        <v>13596764</v>
+        <v>11656265</v>
       </c>
       <c r="R9">
-        <v>5699241</v>
+        <v>8104259</v>
       </c>
       <c r="S9">
-        <v>45653840</v>
+        <v>45750637</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B10">
-        <v>6414467</v>
+        <v>6194434</v>
       </c>
       <c r="C10">
-        <v>1678301</v>
+        <v>1720841</v>
       </c>
       <c r="D10">
-        <v>24562863</v>
+        <v>22048677</v>
       </c>
       <c r="E10">
-        <v>10381759</v>
+        <v>9810639</v>
       </c>
       <c r="F10">
-        <v>10972555</v>
+        <v>14235354</v>
       </c>
       <c r="G10">
-        <v>45917177</v>
+        <v>46094670</v>
       </c>
       <c r="H10">
-        <v>6876688</v>
+        <v>6647970</v>
       </c>
       <c r="I10">
-        <v>1504168</v>
+        <v>1566179</v>
       </c>
       <c r="J10">
-        <v>26348254</v>
+        <v>26028307</v>
       </c>
       <c r="K10">
-        <v>13585896</v>
+        <v>11660101</v>
       </c>
       <c r="L10">
-        <v>5694939</v>
+        <v>8107388</v>
       </c>
       <c r="M10">
-        <v>45629089</v>
+        <v>45795796</v>
       </c>
       <c r="N10">
-        <v>7031651</v>
+        <v>6862315</v>
       </c>
       <c r="O10">
-        <v>1502381</v>
+        <v>1493790</v>
       </c>
       <c r="P10">
-        <v>13119984</v>
+        <v>26357835</v>
       </c>
       <c r="Q10">
-        <v>28222661</v>
+        <v>13596764</v>
       </c>
       <c r="R10">
-        <v>4133267</v>
+        <v>5699241</v>
       </c>
       <c r="S10">
-        <v>45475912</v>
+        <v>45653840</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B11">
-        <v>6660263</v>
+        <v>6414467</v>
       </c>
       <c r="C11">
-        <v>1578764</v>
+        <v>1678301</v>
       </c>
       <c r="D11">
-        <v>26019483</v>
+        <v>24562863</v>
       </c>
       <c r="E11">
-        <v>11648617</v>
+        <v>10381759</v>
       </c>
       <c r="F11">
-        <v>8102818</v>
+        <v>10972555</v>
       </c>
       <c r="G11">
-        <v>45770918</v>
+        <v>45917177</v>
       </c>
       <c r="H11">
+        <v>6876688</v>
+      </c>
+      <c r="I11">
+        <v>1504168</v>
+      </c>
+      <c r="J11">
+        <v>26348254</v>
+      </c>
+      <c r="K11">
+        <v>13585896</v>
+      </c>
+      <c r="L11">
+        <v>5694939</v>
+      </c>
+      <c r="M11">
+        <v>45629089</v>
+      </c>
+      <c r="N11">
         <v>7031651</v>
       </c>
-      <c r="I11">
+      <c r="O11">
         <v>1502381</v>
       </c>
-      <c r="J11">
+      <c r="P11">
         <v>13119984</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <v>28222661</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <v>4133267</v>
       </c>
-      <c r="M11">
+      <c r="S11">
         <v>45475912</v>
-      </c>
-      <c r="N11">
-        <v>7160934</v>
-      </c>
-      <c r="O11">
-        <v>1577260</v>
-      </c>
-      <c r="P11">
-        <v>12254673</v>
-      </c>
-      <c r="Q11">
-        <v>29956598</v>
-      </c>
-      <c r="R11">
-        <v>3060479</v>
-      </c>
-      <c r="S11">
-        <v>45271750</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B12">
-        <v>6876688</v>
+        <v>6660263</v>
       </c>
       <c r="C12">
-        <v>1504168</v>
+        <v>1578764</v>
       </c>
       <c r="D12">
-        <v>26348254</v>
+        <v>26019483</v>
       </c>
       <c r="E12">
-        <v>13585896</v>
+        <v>11648617</v>
       </c>
       <c r="F12">
-        <v>5694939</v>
+        <v>8102818</v>
       </c>
       <c r="G12">
-        <v>45629089</v>
+        <v>45770918</v>
       </c>
       <c r="H12">
+        <v>7031651</v>
+      </c>
+      <c r="I12">
+        <v>1502381</v>
+      </c>
+      <c r="J12">
+        <v>13119984</v>
+      </c>
+      <c r="K12">
+        <v>28222661</v>
+      </c>
+      <c r="L12">
+        <v>4133267</v>
+      </c>
+      <c r="M12">
+        <v>45475912</v>
+      </c>
+      <c r="N12">
         <v>7160934</v>
       </c>
-      <c r="I12">
+      <c r="O12">
         <v>1577260</v>
       </c>
-      <c r="J12">
+      <c r="P12">
         <v>12254673</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <v>29956598</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <v>3060479</v>
       </c>
-      <c r="M12">
+      <c r="S12">
         <v>45271750</v>
-      </c>
-      <c r="N12">
-        <v>7291722</v>
-      </c>
-      <c r="O12">
-        <v>1749607</v>
-      </c>
-      <c r="P12">
-        <v>11949919</v>
-      </c>
-      <c r="Q12">
-        <v>30829431</v>
-      </c>
-      <c r="R12">
-        <v>2189265</v>
-      </c>
-      <c r="S12">
-        <v>44968615</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B13">
-        <v>7031651</v>
+        <v>6876688</v>
       </c>
       <c r="C13">
-        <v>1502381</v>
+        <v>1504168</v>
       </c>
       <c r="D13">
-        <v>13119984</v>
+        <v>26348254</v>
       </c>
       <c r="E13">
-        <v>28222661</v>
+        <v>13585896</v>
       </c>
       <c r="F13">
-        <v>4133267</v>
+        <v>5694939</v>
       </c>
       <c r="G13">
-        <v>45475912</v>
+        <v>45629089</v>
       </c>
       <c r="H13">
+        <v>7160934</v>
+      </c>
+      <c r="I13">
+        <v>1577260</v>
+      </c>
+      <c r="J13">
+        <v>12254673</v>
+      </c>
+      <c r="K13">
+        <v>29956598</v>
+      </c>
+      <c r="L13">
+        <v>3060479</v>
+      </c>
+      <c r="M13">
+        <v>45271750</v>
+      </c>
+      <c r="N13">
         <v>7291722</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>1749607</v>
       </c>
-      <c r="J13">
+      <c r="P13">
         <v>11949919</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <v>30829431</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <v>2189265</v>
       </c>
-      <c r="M13">
+      <c r="S13">
         <v>44968615</v>
-      </c>
-      <c r="N13">
-        <v>7404599</v>
-      </c>
-      <c r="O13">
-        <v>1981131</v>
-      </c>
-      <c r="P13">
-        <v>11407859</v>
-      </c>
-      <c r="Q13">
-        <v>31622279</v>
-      </c>
-      <c r="R13">
-        <v>1594076</v>
-      </c>
-      <c r="S13">
-        <v>44624214</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B14">
-        <v>7160934</v>
+        <v>7031651</v>
       </c>
       <c r="C14">
-        <v>1577260</v>
+        <v>1502381</v>
       </c>
       <c r="D14">
-        <v>12254673</v>
+        <v>13119984</v>
       </c>
       <c r="E14">
-        <v>29956598</v>
+        <v>28222661</v>
       </c>
       <c r="F14">
-        <v>3060479</v>
+        <v>4133267</v>
       </c>
       <c r="G14">
-        <v>45271750</v>
+        <v>45475912</v>
       </c>
       <c r="H14">
+        <v>7291722</v>
+      </c>
+      <c r="I14">
+        <v>1749607</v>
+      </c>
+      <c r="J14">
+        <v>11949919</v>
+      </c>
+      <c r="K14">
+        <v>30829431</v>
+      </c>
+      <c r="L14">
+        <v>2189265</v>
+      </c>
+      <c r="M14">
+        <v>44968615</v>
+      </c>
+      <c r="N14">
         <v>7404599</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>1981131</v>
       </c>
-      <c r="J14">
+      <c r="P14">
         <v>11407859</v>
       </c>
-      <c r="K14">
+      <c r="Q14">
         <v>31622279</v>
       </c>
-      <c r="L14">
+      <c r="R14">
         <v>1594076</v>
       </c>
-      <c r="M14">
+      <c r="S14">
         <v>44624214</v>
-      </c>
-      <c r="N14">
-        <v>7586013</v>
-      </c>
-      <c r="O14">
-        <v>2222672</v>
-      </c>
-      <c r="P14">
-        <v>4526706</v>
-      </c>
-      <c r="Q14">
-        <v>38658546</v>
-      </c>
-      <c r="R14">
-        <v>1016007</v>
-      </c>
-      <c r="S14">
-        <v>44201259</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B15">
-        <v>7291722</v>
+        <v>7160934</v>
       </c>
       <c r="C15">
-        <v>1749607</v>
+        <v>1577260</v>
       </c>
       <c r="D15">
-        <v>11949919</v>
+        <v>12254673</v>
       </c>
       <c r="E15">
-        <v>30829431</v>
+        <v>29956598</v>
       </c>
       <c r="F15">
-        <v>2189265</v>
+        <v>3060479</v>
       </c>
       <c r="G15">
-        <v>44968615</v>
+        <v>45271750</v>
       </c>
       <c r="H15">
+        <v>7404599</v>
+      </c>
+      <c r="I15">
+        <v>1981131</v>
+      </c>
+      <c r="J15">
+        <v>11407859</v>
+      </c>
+      <c r="K15">
+        <v>31622279</v>
+      </c>
+      <c r="L15">
+        <v>1594076</v>
+      </c>
+      <c r="M15">
+        <v>44624214</v>
+      </c>
+      <c r="N15">
         <v>7586013</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>2222672</v>
       </c>
-      <c r="J15">
+      <c r="P15">
         <v>4526706</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <v>38658546</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <v>1016007</v>
       </c>
-      <c r="M15">
+      <c r="S15">
         <v>44201259</v>
-      </c>
-      <c r="N15">
-        <v>7862567</v>
-      </c>
-      <c r="O15">
-        <v>2422756</v>
-      </c>
-      <c r="P15">
-        <v>4186423</v>
-      </c>
-      <c r="Q15">
-        <v>38968164</v>
-      </c>
-      <c r="R15">
-        <v>570032</v>
-      </c>
-      <c r="S15">
-        <v>43724619</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B16">
-        <v>7404599</v>
+        <v>7291722</v>
       </c>
       <c r="C16">
-        <v>1981131</v>
+        <v>1749607</v>
       </c>
       <c r="D16">
-        <v>11407859</v>
+        <v>11949919</v>
       </c>
       <c r="E16">
-        <v>31622279</v>
+        <v>30829431</v>
       </c>
       <c r="F16">
-        <v>1594076</v>
+        <v>2189265</v>
       </c>
       <c r="G16">
-        <v>44624214</v>
+        <v>44968615</v>
       </c>
       <c r="H16">
+        <v>7586013</v>
+      </c>
+      <c r="I16">
+        <v>2222672</v>
+      </c>
+      <c r="J16">
+        <v>4526706</v>
+      </c>
+      <c r="K16">
+        <v>38658546</v>
+      </c>
+      <c r="L16">
+        <v>1016007</v>
+      </c>
+      <c r="M16">
+        <v>44201259</v>
+      </c>
+      <c r="N16">
         <v>7862567</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>2422756</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <v>4186423</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <v>38968164</v>
       </c>
-      <c r="L16">
+      <c r="R16">
         <v>570032</v>
       </c>
-      <c r="M16">
+      <c r="S16">
         <v>43724619</v>
-      </c>
-      <c r="N16">
-        <v>8302865</v>
-      </c>
-      <c r="O16">
-        <v>2538614</v>
-      </c>
-      <c r="P16">
-        <v>3884826</v>
-      </c>
-      <c r="Q16">
-        <v>38988918</v>
-      </c>
-      <c r="R16">
-        <v>294719</v>
-      </c>
-      <c r="S16">
-        <v>43168463</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B17">
-        <v>7586013</v>
+        <v>7404599</v>
       </c>
       <c r="C17">
-        <v>2222672</v>
+        <v>1981131</v>
       </c>
       <c r="D17">
-        <v>4526706</v>
+        <v>11407859</v>
       </c>
       <c r="E17">
-        <v>38658546</v>
+        <v>31622279</v>
       </c>
       <c r="F17">
-        <v>1016007</v>
+        <v>1594076</v>
       </c>
       <c r="G17">
-        <v>44201259</v>
+        <v>44624214</v>
       </c>
       <c r="H17">
+        <v>7862567</v>
+      </c>
+      <c r="I17">
+        <v>2422756</v>
+      </c>
+      <c r="J17">
+        <v>4186423</v>
+      </c>
+      <c r="K17">
+        <v>38968164</v>
+      </c>
+      <c r="L17">
+        <v>570032</v>
+      </c>
+      <c r="M17">
+        <v>43724619</v>
+      </c>
+      <c r="N17">
         <v>8302865</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>2538614</v>
       </c>
-      <c r="J17">
+      <c r="P17">
         <v>3884826</v>
       </c>
-      <c r="K17">
+      <c r="Q17">
         <v>38988918</v>
       </c>
-      <c r="L17">
+      <c r="R17">
         <v>294719</v>
       </c>
-      <c r="M17">
+      <c r="S17">
         <v>43168463</v>
-      </c>
-      <c r="N17">
-        <v>8683749</v>
-      </c>
-      <c r="O17">
-        <v>2653423</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>42672767</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B18">
-        <v>7862567</v>
+        <v>7586013</v>
       </c>
       <c r="C18">
-        <v>2422756</v>
+        <v>2222672</v>
       </c>
       <c r="D18">
-        <v>4186423</v>
+        <v>4526706</v>
       </c>
       <c r="E18">
-        <v>38968164</v>
+        <v>38658546</v>
       </c>
       <c r="F18">
-        <v>570032</v>
+        <v>1016007</v>
       </c>
       <c r="G18">
-        <v>43724619</v>
+        <v>44201259</v>
       </c>
       <c r="H18">
+        <v>8302865</v>
+      </c>
+      <c r="I18">
+        <v>2538614</v>
+      </c>
+      <c r="J18">
+        <v>3884826</v>
+      </c>
+      <c r="K18">
+        <v>38988918</v>
+      </c>
+      <c r="L18">
+        <v>294719</v>
+      </c>
+      <c r="M18">
+        <v>43168463</v>
+      </c>
+      <c r="N18">
         <v>8683749</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>2653423</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>42672767</v>
-      </c>
-      <c r="N18">
-        <v>9231487</v>
-      </c>
-      <c r="O18">
-        <v>2863195</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>41915257</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B19">
-        <v>8302865</v>
+        <v>7862567</v>
       </c>
       <c r="C19">
-        <v>2538614</v>
+        <v>2422756</v>
       </c>
       <c r="D19">
-        <v>3884826</v>
+        <v>4186423</v>
       </c>
       <c r="E19">
-        <v>38988918</v>
+        <v>38968164</v>
       </c>
       <c r="F19">
-        <v>294719</v>
+        <v>570032</v>
       </c>
       <c r="G19">
-        <v>43168463</v>
+        <v>43724619</v>
       </c>
       <c r="H19">
+        <v>8683749</v>
+      </c>
+      <c r="I19">
+        <v>2653423</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>42672767</v>
+      </c>
+      <c r="N19">
         <v>9231487</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>2863195</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>41915257</v>
-      </c>
-      <c r="N19">
-        <v>9829232</v>
-      </c>
-      <c r="O19">
-        <v>3259454</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>40921215</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B20">
-        <v>8683749</v>
+        <v>8302865</v>
       </c>
       <c r="C20">
-        <v>2653423</v>
+        <v>2538614</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3884826</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>38988918</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>294719</v>
       </c>
       <c r="G20">
-        <v>42672767</v>
+        <v>43168463</v>
       </c>
       <c r="H20">
+        <v>9231487</v>
+      </c>
+      <c r="I20">
+        <v>2863195</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>41915257</v>
+      </c>
+      <c r="N20">
         <v>9829232</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>3259454</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>40921215</v>
-      </c>
-      <c r="N20">
-        <v>10307179</v>
-      </c>
-      <c r="O20">
-        <v>3862335</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>39840387</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B21">
-        <v>9231487</v>
+        <v>8683749</v>
       </c>
       <c r="C21">
-        <v>2863195</v>
+        <v>2653423</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4462,54 +4539,54 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>41915257</v>
+        <v>42672767</v>
       </c>
       <c r="H21">
+        <v>9829232</v>
+      </c>
+      <c r="I21">
+        <v>3259454</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>40921215</v>
+      </c>
+      <c r="N21">
         <v>10307179</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>3862335</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>39840387</v>
-      </c>
-      <c r="N21">
-        <v>10942694</v>
-      </c>
-      <c r="O21">
-        <v>4426185</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>38641022</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B22">
-        <v>9829232</v>
+        <v>9231487</v>
       </c>
       <c r="C22">
-        <v>3259454</v>
+        <v>2863195</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4521,54 +4598,54 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>40921215</v>
+        <v>41915257</v>
       </c>
       <c r="H22">
+        <v>10307179</v>
+      </c>
+      <c r="I22">
+        <v>3862335</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>39840387</v>
+      </c>
+      <c r="N22">
         <v>10942694</v>
       </c>
-      <c r="I22">
+      <c r="O22">
         <v>4426185</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>38641022</v>
-      </c>
-      <c r="N22">
-        <v>11786620</v>
-      </c>
-      <c r="O22">
-        <v>4805486</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>37417795</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B23">
-        <v>10307179</v>
+        <v>9829232</v>
       </c>
       <c r="C23">
-        <v>3862335</v>
+        <v>3259454</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4580,54 +4657,54 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>39840387</v>
+        <v>40921215</v>
       </c>
       <c r="H23">
+        <v>10942694</v>
+      </c>
+      <c r="I23">
+        <v>4426185</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>38641022</v>
+      </c>
+      <c r="N23">
         <v>11786620</v>
       </c>
-      <c r="I23">
+      <c r="O23">
         <v>4805486</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>37417795</v>
-      </c>
-      <c r="N23">
-        <v>12581126</v>
-      </c>
-      <c r="O23">
-        <v>5096568</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>36332207</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B24">
-        <v>10942694</v>
+        <v>10307179</v>
       </c>
       <c r="C24">
-        <v>4426185</v>
+        <v>3862335</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4639,54 +4716,54 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>38641022</v>
+        <v>39840387</v>
       </c>
       <c r="H24">
+        <v>11786620</v>
+      </c>
+      <c r="I24">
+        <v>4805486</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>37417795</v>
+      </c>
+      <c r="N24">
         <v>12581126</v>
       </c>
-      <c r="I24">
+      <c r="O24">
         <v>5096568</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>36332207</v>
-      </c>
-      <c r="N24">
-        <v>13334156</v>
-      </c>
-      <c r="O24">
-        <v>5075930</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>35599815</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B25">
-        <v>11786620</v>
+        <v>10942694</v>
       </c>
       <c r="C25">
-        <v>4805486</v>
+        <v>4426185</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4698,54 +4775,54 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>37417795</v>
+        <v>38641022</v>
       </c>
       <c r="H25">
+        <v>12581126</v>
+      </c>
+      <c r="I25">
+        <v>5096568</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>36332207</v>
+      </c>
+      <c r="N25">
         <v>13334156</v>
       </c>
-      <c r="I25">
+      <c r="O25">
         <v>5075930</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>35599815</v>
-      </c>
-      <c r="N25">
-        <v>14507530</v>
-      </c>
-      <c r="O25">
-        <v>5210293</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>34292078</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B26">
-        <v>12581126</v>
+        <v>11786620</v>
       </c>
       <c r="C26">
-        <v>5096568</v>
+        <v>4805486</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4757,54 +4834,54 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>36332207</v>
+        <v>37417795</v>
       </c>
       <c r="H26">
+        <v>13334156</v>
+      </c>
+      <c r="I26">
+        <v>5075930</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>35599815</v>
+      </c>
+      <c r="N26">
         <v>14507530</v>
       </c>
-      <c r="I26">
+      <c r="O26">
         <v>5210293</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>34292078</v>
-      </c>
-      <c r="N26">
-        <v>15656647</v>
-      </c>
-      <c r="O26">
-        <v>6065610</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>32287644</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B27">
-        <v>13334156</v>
+        <v>12581126</v>
       </c>
       <c r="C27">
-        <v>5075930</v>
+        <v>5096568</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4816,54 +4893,54 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>35599815</v>
+        <v>36332207</v>
       </c>
       <c r="H27">
+        <v>14507530</v>
+      </c>
+      <c r="I27">
+        <v>5210293</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>34292078</v>
+      </c>
+      <c r="N27">
         <v>15656647</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>6065610</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>32287644</v>
-      </c>
-      <c r="N27">
-        <v>16708830</v>
-      </c>
-      <c r="O27">
-        <v>7672393</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>29628678</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B28">
-        <v>14507530</v>
+        <v>13334156</v>
       </c>
       <c r="C28">
-        <v>5210293</v>
+        <v>5075930</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4875,54 +4952,54 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>34292078</v>
+        <v>35599815</v>
       </c>
       <c r="H28">
+        <v>15656647</v>
+      </c>
+      <c r="I28">
+        <v>6065610</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>32287644</v>
+      </c>
+      <c r="N28">
         <v>16708830</v>
       </c>
-      <c r="I28">
+      <c r="O28">
         <v>7672393</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>29628678</v>
-      </c>
-      <c r="N28">
-        <v>17568325</v>
-      </c>
-      <c r="O28">
-        <v>9940124</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>26501452</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B29">
-        <v>15656647</v>
+        <v>14507530</v>
       </c>
       <c r="C29">
-        <v>6065610</v>
+        <v>5210293</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4934,54 +5011,54 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>32287644</v>
+        <v>34292078</v>
       </c>
       <c r="H29">
+        <v>16708830</v>
+      </c>
+      <c r="I29">
+        <v>7672393</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>29628678</v>
+      </c>
+      <c r="N29">
         <v>17568325</v>
       </c>
-      <c r="I29">
+      <c r="O29">
         <v>9940124</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>26501452</v>
-      </c>
-      <c r="N29">
-        <v>20322806</v>
-      </c>
-      <c r="O29">
-        <v>11341436</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>22345659</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B30">
-        <v>16708830</v>
+        <v>15656647</v>
       </c>
       <c r="C30">
-        <v>7672393</v>
+        <v>6065610</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4993,54 +5070,54 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>29628678</v>
+        <v>32287644</v>
       </c>
       <c r="H30">
+        <v>17568325</v>
+      </c>
+      <c r="I30">
+        <v>9940124</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>26501452</v>
+      </c>
+      <c r="N30">
         <v>20322806</v>
       </c>
-      <c r="I30">
+      <c r="O30">
         <v>11341436</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>22345659</v>
-      </c>
-      <c r="N30">
-        <v>21289761</v>
-      </c>
-      <c r="O30">
-        <v>13149676</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>19570464</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B31">
-        <v>17568325</v>
+        <v>16708830</v>
       </c>
       <c r="C31">
-        <v>9940124</v>
+        <v>7672393</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5052,54 +5129,54 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>26501452</v>
+        <v>29628678</v>
       </c>
       <c r="H31">
+        <v>20322806</v>
+      </c>
+      <c r="I31">
+        <v>11341436</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>22345659</v>
+      </c>
+      <c r="N31">
         <v>21289761</v>
       </c>
-      <c r="I31">
+      <c r="O31">
         <v>13149676</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <v>19570464</v>
-      </c>
-      <c r="N31">
-        <v>22879167</v>
-      </c>
-      <c r="O31">
-        <v>13741130</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>17389604</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B32">
-        <v>20322806</v>
+        <v>17568325</v>
       </c>
       <c r="C32">
-        <v>11341436</v>
+        <v>9940124</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5111,54 +5188,54 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>22345659</v>
+        <v>26501452</v>
       </c>
       <c r="H32">
+        <v>21289761</v>
+      </c>
+      <c r="I32">
+        <v>13149676</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>19570464</v>
+      </c>
+      <c r="N32">
         <v>22879167</v>
       </c>
-      <c r="I32">
+      <c r="O32">
         <v>13741130</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>17389604</v>
-      </c>
-      <c r="N32">
-        <v>24745853</v>
-      </c>
-      <c r="O32">
-        <v>13879852</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>15384196</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B33">
-        <v>21289761</v>
+        <v>20322806</v>
       </c>
       <c r="C33">
-        <v>13149676</v>
+        <v>11341436</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5170,54 +5247,54 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>19570464</v>
+        <v>22345659</v>
       </c>
       <c r="H33">
+        <v>22879167</v>
+      </c>
+      <c r="I33">
+        <v>13741130</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>17389604</v>
+      </c>
+      <c r="N33">
         <v>24745853</v>
       </c>
-      <c r="I33">
+      <c r="O33">
         <v>13879852</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>15384196</v>
-      </c>
-      <c r="N33">
-        <v>27065063</v>
-      </c>
-      <c r="O33">
-        <v>13015437</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>13929401</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B34">
-        <v>22879167</v>
+        <v>21289761</v>
       </c>
       <c r="C34">
-        <v>13741130</v>
+        <v>13149676</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5229,54 +5306,54 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>17389604</v>
+        <v>19570464</v>
       </c>
       <c r="H34">
+        <v>24745853</v>
+      </c>
+      <c r="I34">
+        <v>13879852</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>15384196</v>
+      </c>
+      <c r="N34">
         <v>27065063</v>
       </c>
-      <c r="I34">
+      <c r="O34">
         <v>13015437</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>13929401</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B35">
-        <v>24745853</v>
+        <v>22879167</v>
       </c>
       <c r="C35">
-        <v>13879852</v>
+        <v>13741130</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5288,13 +5365,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>15384196</v>
+        <v>17389604</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>27065063</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>13015437</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -5306,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>13929401</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -5329,60 +5406,119 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B36">
+        <v>24745853</v>
+      </c>
+      <c r="C36">
+        <v>13879852</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>15384196</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="2">
         <v>44391</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>27065063</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>13015437</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>13929401</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,1553 +556,1553 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="B2">
-        <v>320381</v>
+        <v>301078</v>
       </c>
       <c r="C2">
-        <v>52934</v>
+        <v>41780</v>
       </c>
       <c r="D2">
-        <v>146615</v>
+        <v>141855</v>
       </c>
       <c r="E2">
-        <v>154589</v>
+        <v>162770</v>
       </c>
       <c r="F2">
-        <v>602042</v>
+        <v>747670</v>
       </c>
       <c r="G2">
-        <v>903246</v>
+        <v>1052295</v>
       </c>
       <c r="H2">
-        <v>7093</v>
+        <v>5247</v>
       </c>
       <c r="I2">
-        <v>1082</v>
+        <v>856</v>
       </c>
       <c r="J2">
-        <v>4424</v>
+        <v>2990</v>
       </c>
       <c r="K2">
-        <v>1654</v>
+        <v>1293</v>
       </c>
       <c r="L2">
-        <v>10840</v>
+        <v>9812</v>
       </c>
       <c r="M2">
-        <v>16918</v>
+        <v>14095</v>
       </c>
       <c r="N2">
-        <v>549</v>
+        <v>381</v>
       </c>
       <c r="O2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P2">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="Q2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="R2">
-        <v>506</v>
+        <v>452</v>
       </c>
       <c r="S2">
-        <v>808</v>
+        <v>657</v>
       </c>
       <c r="T2">
-        <v>2117</v>
+        <v>1552</v>
       </c>
       <c r="U2">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="V2">
-        <v>1489</v>
+        <v>1004</v>
       </c>
       <c r="W2">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="X2">
-        <v>2356</v>
+        <v>2022</v>
       </c>
       <c r="Y2">
-        <v>4109</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="B3">
-        <v>263373</v>
+        <v>320381</v>
       </c>
       <c r="C3">
-        <v>44050</v>
+        <v>52934</v>
       </c>
       <c r="D3">
-        <v>195682</v>
+        <v>146615</v>
       </c>
       <c r="E3">
-        <v>147602</v>
+        <v>154589</v>
       </c>
       <c r="F3">
-        <v>569292</v>
+        <v>602042</v>
       </c>
       <c r="G3">
-        <v>912576</v>
+        <v>903246</v>
       </c>
       <c r="H3">
-        <v>8894</v>
+        <v>7093</v>
       </c>
       <c r="I3">
-        <v>1220</v>
+        <v>1082</v>
       </c>
       <c r="J3">
-        <v>6443</v>
+        <v>4424</v>
       </c>
       <c r="K3">
-        <v>2105</v>
+        <v>1654</v>
       </c>
       <c r="L3">
-        <v>11808</v>
+        <v>10840</v>
       </c>
       <c r="M3">
-        <v>20356</v>
+        <v>16918</v>
       </c>
       <c r="N3">
-        <v>720</v>
+        <v>549</v>
       </c>
       <c r="O3">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P3">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="Q3">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="R3">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="S3">
-        <v>950</v>
+        <v>808</v>
       </c>
       <c r="T3">
-        <v>2655</v>
+        <v>2117</v>
       </c>
       <c r="U3">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="V3">
-        <v>2075</v>
+        <v>1489</v>
       </c>
       <c r="W3">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="X3">
-        <v>2613</v>
+        <v>2356</v>
       </c>
       <c r="Y3">
-        <v>4991</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B4">
-        <v>362240</v>
+        <v>263373</v>
       </c>
       <c r="C4">
-        <v>61074</v>
+        <v>44050</v>
       </c>
       <c r="D4">
-        <v>316885</v>
+        <v>195682</v>
       </c>
       <c r="E4">
-        <v>210897</v>
+        <v>147602</v>
       </c>
       <c r="F4">
-        <v>617287</v>
+        <v>569292</v>
       </c>
       <c r="G4">
-        <v>1145069</v>
+        <v>912576</v>
       </c>
       <c r="H4">
-        <v>11144</v>
+        <v>8894</v>
       </c>
       <c r="I4">
-        <v>1422</v>
+        <v>1220</v>
       </c>
       <c r="J4">
-        <v>9008</v>
+        <v>6443</v>
       </c>
       <c r="K4">
-        <v>2676</v>
+        <v>2105</v>
       </c>
       <c r="L4">
-        <v>12272</v>
+        <v>11808</v>
       </c>
       <c r="M4">
-        <v>23956</v>
+        <v>20356</v>
       </c>
       <c r="N4">
-        <v>941</v>
+        <v>720</v>
       </c>
       <c r="O4">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P4">
-        <v>470</v>
+        <v>319</v>
       </c>
       <c r="Q4">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="R4">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="S4">
-        <v>1134</v>
+        <v>950</v>
       </c>
       <c r="T4">
-        <v>3198</v>
+        <v>2655</v>
       </c>
       <c r="U4">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="V4">
-        <v>2507</v>
+        <v>2075</v>
       </c>
       <c r="W4">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="X4">
-        <v>2677</v>
+        <v>2613</v>
       </c>
       <c r="Y4">
-        <v>5521</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B5">
-        <v>503511</v>
+        <v>362240</v>
       </c>
       <c r="C5">
-        <v>81921</v>
+        <v>61074</v>
       </c>
       <c r="D5">
-        <v>543352</v>
+        <v>316885</v>
       </c>
       <c r="E5">
-        <v>313619</v>
+        <v>210897</v>
       </c>
       <c r="F5">
-        <v>682585</v>
+        <v>617287</v>
       </c>
       <c r="G5">
-        <v>1539556</v>
+        <v>1145069</v>
       </c>
       <c r="H5">
-        <v>13534</v>
+        <v>11144</v>
       </c>
       <c r="I5">
-        <v>1516</v>
+        <v>1422</v>
       </c>
       <c r="J5">
-        <v>11607</v>
+        <v>9008</v>
       </c>
       <c r="K5">
-        <v>3210</v>
+        <v>2676</v>
       </c>
       <c r="L5">
-        <v>12271</v>
+        <v>12272</v>
       </c>
       <c r="M5">
-        <v>27088</v>
+        <v>23956</v>
       </c>
       <c r="N5">
-        <v>1261</v>
+        <v>941</v>
       </c>
       <c r="O5">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P5">
-        <v>617</v>
+        <v>470</v>
       </c>
       <c r="Q5">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="R5">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="S5">
-        <v>1304</v>
+        <v>1134</v>
       </c>
       <c r="T5">
-        <v>3470</v>
+        <v>3198</v>
       </c>
       <c r="U5">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="V5">
-        <v>2795</v>
+        <v>2507</v>
       </c>
       <c r="W5">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="X5">
-        <v>2403</v>
+        <v>2677</v>
       </c>
       <c r="Y5">
-        <v>5527</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B6">
-        <v>642419</v>
+        <v>503511</v>
       </c>
       <c r="C6">
-        <v>102315</v>
+        <v>81921</v>
       </c>
       <c r="D6">
-        <v>848833</v>
+        <v>543352</v>
       </c>
       <c r="E6">
-        <v>439413</v>
+        <v>313619</v>
       </c>
       <c r="F6">
-        <v>717143</v>
+        <v>682585</v>
       </c>
       <c r="G6">
-        <v>2005389</v>
+        <v>1539556</v>
       </c>
       <c r="H6">
-        <v>15012</v>
+        <v>13534</v>
       </c>
       <c r="I6">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="J6">
-        <v>13660</v>
+        <v>11607</v>
       </c>
       <c r="K6">
-        <v>3480</v>
+        <v>3210</v>
       </c>
       <c r="L6">
-        <v>11075</v>
+        <v>12271</v>
       </c>
       <c r="M6">
-        <v>28215</v>
+        <v>27088</v>
       </c>
       <c r="N6">
-        <v>1524</v>
+        <v>1261</v>
       </c>
       <c r="O6">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P6">
-        <v>736</v>
+        <v>617</v>
       </c>
       <c r="Q6">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="R6">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="S6">
-        <v>1350</v>
+        <v>1304</v>
       </c>
       <c r="T6">
-        <v>3357</v>
+        <v>3470</v>
       </c>
       <c r="U6">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="V6">
-        <v>2757</v>
+        <v>2795</v>
       </c>
       <c r="W6">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="X6">
-        <v>1918</v>
+        <v>2403</v>
       </c>
       <c r="Y6">
-        <v>4952</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B7">
-        <v>777547</v>
+        <v>642419</v>
       </c>
       <c r="C7">
-        <v>127486</v>
+        <v>102315</v>
       </c>
       <c r="D7">
-        <v>1249396</v>
+        <v>848833</v>
       </c>
       <c r="E7">
-        <v>597335</v>
+        <v>439413</v>
       </c>
       <c r="F7">
-        <v>738378</v>
+        <v>717143</v>
       </c>
       <c r="G7">
-        <v>2585109</v>
+        <v>2005389</v>
       </c>
       <c r="H7">
-        <v>15695</v>
+        <v>15012</v>
       </c>
       <c r="I7">
-        <v>1437</v>
+        <v>1532</v>
       </c>
       <c r="J7">
-        <v>14598</v>
+        <v>13660</v>
       </c>
       <c r="K7">
-        <v>3426</v>
+        <v>3480</v>
       </c>
       <c r="L7">
-        <v>9017</v>
+        <v>11075</v>
       </c>
       <c r="M7">
-        <v>27041</v>
+        <v>28215</v>
       </c>
       <c r="N7">
-        <v>1716</v>
+        <v>1524</v>
       </c>
       <c r="O7">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P7">
-        <v>803</v>
+        <v>736</v>
       </c>
       <c r="Q7">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="R7">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="S7">
-        <v>1306</v>
+        <v>1350</v>
       </c>
       <c r="T7">
-        <v>3144</v>
+        <v>3357</v>
       </c>
       <c r="U7">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="V7">
-        <v>2508</v>
+        <v>2757</v>
       </c>
       <c r="W7">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="X7">
-        <v>1331</v>
+        <v>1918</v>
       </c>
       <c r="Y7">
-        <v>4071</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B8">
-        <v>809625</v>
+        <v>777547</v>
       </c>
       <c r="C8">
-        <v>137850</v>
+        <v>127486</v>
       </c>
       <c r="D8">
-        <v>1532777</v>
+        <v>1249396</v>
       </c>
       <c r="E8">
-        <v>687597</v>
+        <v>597335</v>
       </c>
       <c r="F8">
-        <v>672910</v>
+        <v>738378</v>
       </c>
       <c r="G8">
-        <v>2893284</v>
+        <v>2585109</v>
       </c>
       <c r="H8">
-        <v>15049</v>
+        <v>15695</v>
       </c>
       <c r="I8">
-        <v>1240</v>
+        <v>1437</v>
       </c>
       <c r="J8">
-        <v>13663</v>
+        <v>14598</v>
       </c>
       <c r="K8">
-        <v>2915</v>
+        <v>3426</v>
       </c>
       <c r="L8">
-        <v>6606</v>
+        <v>9017</v>
       </c>
       <c r="M8">
-        <v>23184</v>
+        <v>27041</v>
       </c>
       <c r="N8">
-        <v>1792</v>
+        <v>1716</v>
       </c>
       <c r="O8">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P8">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="Q8">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="R8">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="S8">
-        <v>1166</v>
+        <v>1306</v>
       </c>
       <c r="T8">
-        <v>2632</v>
+        <v>3144</v>
       </c>
       <c r="U8">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="V8">
-        <v>2172</v>
+        <v>2508</v>
       </c>
       <c r="W8">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="X8">
-        <v>814</v>
+        <v>1331</v>
       </c>
       <c r="Y8">
-        <v>3168</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B9">
-        <v>703732</v>
+        <v>809625</v>
       </c>
       <c r="C9">
-        <v>127478</v>
+        <v>137850</v>
       </c>
       <c r="D9">
-        <v>1544092</v>
+        <v>1532777</v>
       </c>
       <c r="E9">
-        <v>640805</v>
+        <v>687597</v>
       </c>
       <c r="F9">
-        <v>521657</v>
+        <v>672910</v>
       </c>
       <c r="G9">
-        <v>2706554</v>
+        <v>2893284</v>
       </c>
       <c r="H9">
-        <v>13946</v>
+        <v>15049</v>
       </c>
       <c r="I9">
-        <v>989</v>
+        <v>1240</v>
       </c>
       <c r="J9">
-        <v>11934</v>
+        <v>13663</v>
       </c>
       <c r="K9">
-        <v>2225</v>
+        <v>2915</v>
       </c>
       <c r="L9">
-        <v>4177</v>
+        <v>6606</v>
       </c>
       <c r="M9">
-        <v>18336</v>
+        <v>23184</v>
       </c>
       <c r="N9">
-        <v>1753</v>
+        <v>1792</v>
       </c>
       <c r="O9">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P9">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="Q9">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="R9">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="S9">
-        <v>1014</v>
+        <v>1166</v>
       </c>
       <c r="T9">
-        <v>2120</v>
+        <v>2632</v>
       </c>
       <c r="U9">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="V9">
-        <v>1805</v>
+        <v>2172</v>
       </c>
       <c r="W9">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="X9">
-        <v>432</v>
+        <v>814</v>
       </c>
       <c r="Y9">
-        <v>2375</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B10">
-        <v>555697</v>
+        <v>703732</v>
       </c>
       <c r="C10">
-        <v>102729</v>
+        <v>127478</v>
       </c>
       <c r="D10">
-        <v>1320086</v>
+        <v>1544092</v>
       </c>
       <c r="E10">
-        <v>527687</v>
+        <v>640805</v>
       </c>
       <c r="F10">
-        <v>358530</v>
+        <v>521657</v>
       </c>
       <c r="G10">
-        <v>2206303</v>
+        <v>2706554</v>
       </c>
       <c r="H10">
-        <v>11487</v>
+        <v>13946</v>
       </c>
       <c r="I10">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="J10">
-        <v>9435</v>
+        <v>11934</v>
       </c>
       <c r="K10">
-        <v>1499</v>
+        <v>2225</v>
       </c>
       <c r="L10">
-        <v>2066</v>
+        <v>4177</v>
       </c>
       <c r="M10">
-        <v>13000</v>
+        <v>18336</v>
       </c>
       <c r="N10">
-        <v>1557</v>
+        <v>1753</v>
       </c>
       <c r="O10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P10">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="Q10">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R10">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="S10">
-        <v>809</v>
+        <v>1014</v>
       </c>
       <c r="T10">
-        <v>1774</v>
+        <v>2120</v>
       </c>
       <c r="U10">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="V10">
-        <v>1541</v>
+        <v>1805</v>
       </c>
       <c r="W10">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="X10">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="Y10">
-        <v>1863</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B11">
-        <v>395424</v>
+        <v>555697</v>
       </c>
       <c r="C11">
-        <v>68050</v>
+        <v>102729</v>
       </c>
       <c r="D11">
-        <v>955924</v>
+        <v>1320086</v>
       </c>
       <c r="E11">
-        <v>364078</v>
+        <v>527687</v>
       </c>
       <c r="F11">
-        <v>200146</v>
+        <v>358530</v>
       </c>
       <c r="G11">
-        <v>1520148</v>
+        <v>2206303</v>
       </c>
       <c r="H11">
-        <v>9564</v>
+        <v>11487</v>
       </c>
       <c r="I11">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="J11">
-        <v>7594</v>
+        <v>9435</v>
       </c>
       <c r="K11">
-        <v>1055</v>
+        <v>1499</v>
       </c>
       <c r="L11">
-        <v>955</v>
+        <v>2066</v>
       </c>
       <c r="M11">
-        <v>9604</v>
+        <v>13000</v>
       </c>
       <c r="N11">
-        <v>1368</v>
+        <v>1557</v>
       </c>
       <c r="O11">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P11">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="Q11">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R11">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="S11">
-        <v>663</v>
+        <v>809</v>
       </c>
       <c r="T11">
-        <v>1443</v>
+        <v>1774</v>
       </c>
       <c r="U11">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="V11">
-        <v>1370</v>
+        <v>1541</v>
       </c>
       <c r="W11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X11">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="Y11">
-        <v>1606</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B12">
-        <v>251412</v>
+        <v>395424</v>
       </c>
       <c r="C12">
-        <v>34617</v>
+        <v>68050</v>
       </c>
       <c r="D12">
-        <v>547518</v>
+        <v>955924</v>
       </c>
       <c r="E12">
-        <v>195560</v>
+        <v>364078</v>
       </c>
       <c r="F12">
-        <v>79260</v>
+        <v>200146</v>
       </c>
       <c r="G12">
-        <v>822338</v>
+        <v>1520148</v>
       </c>
       <c r="H12">
-        <v>8278</v>
+        <v>9564</v>
       </c>
       <c r="I12">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="J12">
-        <v>6612</v>
+        <v>7594</v>
       </c>
       <c r="K12">
-        <v>905</v>
+        <v>1055</v>
       </c>
       <c r="L12">
-        <v>546</v>
+        <v>955</v>
       </c>
       <c r="M12">
-        <v>8063</v>
+        <v>9604</v>
       </c>
       <c r="N12">
-        <v>1202</v>
+        <v>1368</v>
       </c>
       <c r="O12">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P12">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="Q12">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R12">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S12">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="T12">
-        <v>1170</v>
+        <v>1443</v>
       </c>
       <c r="U12">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V12">
-        <v>1298</v>
+        <v>1370</v>
       </c>
       <c r="W12">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X12">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Y12">
-        <v>1489</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B13">
-        <v>170551</v>
+        <v>251412</v>
       </c>
       <c r="C13">
-        <v>14491</v>
+        <v>34617</v>
       </c>
       <c r="D13">
-        <v>265724</v>
+        <v>547518</v>
       </c>
       <c r="E13">
-        <v>99757</v>
+        <v>195560</v>
       </c>
       <c r="F13">
-        <v>20375</v>
+        <v>79260</v>
       </c>
       <c r="G13">
-        <v>385856</v>
+        <v>822338</v>
       </c>
       <c r="H13">
-        <v>7059</v>
+        <v>8278</v>
       </c>
       <c r="I13">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J13">
-        <v>5927</v>
+        <v>6612</v>
       </c>
       <c r="K13">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="L13">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="M13">
-        <v>7229</v>
+        <v>8063</v>
       </c>
       <c r="N13">
-        <v>1036</v>
+        <v>1202</v>
       </c>
       <c r="O13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="Q13">
+        <v>72</v>
+      </c>
+      <c r="R13">
+        <v>46</v>
+      </c>
+      <c r="S13">
+        <v>614</v>
+      </c>
+      <c r="T13">
+        <v>1170</v>
+      </c>
+      <c r="U13">
         <v>89</v>
       </c>
-      <c r="R13">
-        <v>33</v>
-      </c>
-      <c r="S13">
-        <v>555</v>
-      </c>
-      <c r="T13">
-        <v>994</v>
-      </c>
-      <c r="U13">
-        <v>75</v>
-      </c>
       <c r="V13">
-        <v>1108</v>
+        <v>1298</v>
       </c>
       <c r="W13">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="X13">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Y13">
-        <v>1262</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B14">
-        <v>140677</v>
+        <v>170551</v>
       </c>
       <c r="C14">
-        <v>9069</v>
+        <v>14491</v>
       </c>
       <c r="D14">
-        <v>91366</v>
+        <v>265724</v>
       </c>
       <c r="E14">
-        <v>155978</v>
+        <v>99757</v>
       </c>
       <c r="F14">
-        <v>7655</v>
+        <v>20375</v>
       </c>
       <c r="G14">
-        <v>254999</v>
+        <v>385856</v>
       </c>
       <c r="H14">
-        <v>5944</v>
+        <v>7059</v>
       </c>
       <c r="I14">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J14">
-        <v>4047</v>
+        <v>5927</v>
       </c>
       <c r="K14">
-        <v>2065</v>
+        <v>934</v>
       </c>
       <c r="L14">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="M14">
-        <v>6384</v>
+        <v>7229</v>
       </c>
       <c r="N14">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="O14">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P14">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="Q14">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="R14">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S14">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="T14">
-        <v>839</v>
+        <v>994</v>
       </c>
       <c r="U14">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="V14">
-        <v>838</v>
+        <v>1108</v>
       </c>
       <c r="W14">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="X14">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Y14">
-        <v>1105</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B15">
-        <v>114674</v>
+        <v>140677</v>
       </c>
       <c r="C15">
-        <v>7107</v>
+        <v>9069</v>
       </c>
       <c r="D15">
-        <v>71563</v>
+        <v>91366</v>
       </c>
       <c r="E15">
-        <v>122505</v>
+        <v>155978</v>
       </c>
       <c r="F15">
-        <v>4219</v>
+        <v>7655</v>
       </c>
       <c r="G15">
-        <v>198287</v>
+        <v>254999</v>
       </c>
       <c r="H15">
-        <v>5081</v>
+        <v>5944</v>
       </c>
       <c r="I15">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="J15">
-        <v>3432</v>
+        <v>4047</v>
       </c>
       <c r="K15">
-        <v>1843</v>
+        <v>2065</v>
       </c>
       <c r="L15">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="M15">
-        <v>5451</v>
+        <v>6384</v>
       </c>
       <c r="N15">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="O15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P15">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q15">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="R15">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S15">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="T15">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="U15">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V15">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="W15">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="X15">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Y15">
-        <v>991</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B16">
-        <v>93220</v>
+        <v>114674</v>
       </c>
       <c r="C16">
-        <v>6181</v>
+        <v>7107</v>
       </c>
       <c r="D16">
-        <v>57054</v>
+        <v>71563</v>
       </c>
       <c r="E16">
-        <v>102245</v>
+        <v>122505</v>
       </c>
       <c r="F16">
-        <v>2652</v>
+        <v>4219</v>
       </c>
       <c r="G16">
-        <v>161951</v>
+        <v>198287</v>
       </c>
       <c r="H16">
-        <v>4402</v>
+        <v>5081</v>
       </c>
       <c r="I16">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="J16">
-        <v>2916</v>
+        <v>3432</v>
       </c>
       <c r="K16">
-        <v>1616</v>
+        <v>1843</v>
       </c>
       <c r="L16">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="M16">
-        <v>4653</v>
+        <v>5451</v>
       </c>
       <c r="N16">
-        <v>618</v>
+        <v>747</v>
       </c>
       <c r="O16">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P16">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q16">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S16">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="T16">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="U16">
+        <v>42</v>
+      </c>
+      <c r="V16">
+        <v>745</v>
+      </c>
+      <c r="W16">
+        <v>257</v>
+      </c>
+      <c r="X16">
         <v>29</v>
       </c>
-      <c r="V16">
-        <v>604</v>
-      </c>
-      <c r="W16">
-        <v>186</v>
-      </c>
-      <c r="X16">
-        <v>17</v>
-      </c>
       <c r="Y16">
-        <v>807</v>
+        <v>991</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B17">
-        <v>75512</v>
+        <v>93220</v>
       </c>
       <c r="C17">
-        <v>5587</v>
+        <v>6181</v>
       </c>
       <c r="D17">
-        <v>44023</v>
+        <v>57054</v>
       </c>
       <c r="E17">
-        <v>82755</v>
+        <v>102245</v>
       </c>
       <c r="F17">
-        <v>1710</v>
+        <v>2652</v>
       </c>
       <c r="G17">
-        <v>128488</v>
+        <v>161951</v>
       </c>
       <c r="H17">
-        <v>3733</v>
+        <v>4402</v>
       </c>
       <c r="I17">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J17">
-        <v>2336</v>
+        <v>2916</v>
       </c>
       <c r="K17">
-        <v>1435</v>
+        <v>1616</v>
       </c>
       <c r="L17">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M17">
-        <v>3845</v>
+        <v>4653</v>
       </c>
       <c r="N17">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="O17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P17">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q17">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S17">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="T17">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="U17">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V17">
-        <v>482</v>
+        <v>604</v>
       </c>
       <c r="W17">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="X17">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y17">
-        <v>690</v>
+        <v>807</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B18">
-        <v>61908</v>
+        <v>75512</v>
       </c>
       <c r="C18">
-        <v>4260</v>
+        <v>5587</v>
       </c>
       <c r="D18">
-        <v>15519</v>
+        <v>44023</v>
       </c>
       <c r="E18">
-        <v>81740</v>
+        <v>82755</v>
       </c>
       <c r="F18">
-        <v>969</v>
+        <v>1710</v>
       </c>
       <c r="G18">
-        <v>98228</v>
+        <v>128488</v>
       </c>
       <c r="H18">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="I18">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J18">
-        <v>1187</v>
+        <v>2336</v>
       </c>
       <c r="K18">
-        <v>2437</v>
+        <v>1435</v>
       </c>
       <c r="L18">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M18">
-        <v>3693</v>
+        <v>3845</v>
       </c>
       <c r="N18">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="O18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P18">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="Q18">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="R18">
         <v>3</v>
       </c>
       <c r="S18">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="T18">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="U18">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="V18">
-        <v>191</v>
+        <v>482</v>
       </c>
       <c r="W18">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="X18">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Y18">
-        <v>555</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B19">
-        <v>50564</v>
+        <v>61908</v>
       </c>
       <c r="C19">
-        <v>3980</v>
+        <v>4260</v>
       </c>
       <c r="D19">
-        <v>11215</v>
+        <v>15519</v>
       </c>
       <c r="E19">
-        <v>60407</v>
+        <v>81740</v>
       </c>
       <c r="F19">
-        <v>537</v>
+        <v>969</v>
       </c>
       <c r="G19">
-        <v>72159</v>
+        <v>98228</v>
       </c>
       <c r="H19">
-        <v>3220</v>
+        <v>3737</v>
       </c>
       <c r="I19">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J19">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="K19">
-        <v>2075</v>
+        <v>2437</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M19">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="N19">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="O19">
         <v>14</v>
       </c>
       <c r="P19">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q19">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S19">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="T19">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="U19">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V19">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="W19">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y19">
-        <v>444</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B20">
-        <v>40182</v>
+        <v>50564</v>
       </c>
       <c r="C20">
-        <v>3466</v>
+        <v>3980</v>
       </c>
       <c r="D20">
-        <v>8088</v>
+        <v>11215</v>
       </c>
       <c r="E20">
-        <v>43928</v>
+        <v>60407</v>
       </c>
       <c r="F20">
-        <v>286</v>
+        <v>537</v>
       </c>
       <c r="G20">
-        <v>52302</v>
+        <v>72159</v>
       </c>
       <c r="H20">
-        <v>2890</v>
+        <v>3220</v>
       </c>
       <c r="I20">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J20">
-        <v>618</v>
+        <v>826</v>
       </c>
       <c r="K20">
-        <v>1774</v>
+        <v>2075</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>2409</v>
+        <v>2936</v>
       </c>
       <c r="N20">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="O20">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P20">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q20">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="T20">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="U20">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V20">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="W20">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B21">
-        <v>35398</v>
+        <v>40182</v>
       </c>
       <c r="C21">
-        <v>3207</v>
+        <v>3466</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>43928</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G21">
-        <v>40991</v>
+        <v>52302</v>
       </c>
       <c r="H21">
-        <v>2696</v>
+        <v>2890</v>
       </c>
       <c r="I21">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>2037</v>
+        <v>2409</v>
       </c>
       <c r="N21">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="O21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="T21">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="U21">
         <v>27</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B22">
-        <v>34128</v>
+        <v>35398</v>
       </c>
       <c r="C22">
-        <v>3421</v>
+        <v>3207</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>34131</v>
+        <v>40991</v>
       </c>
       <c r="H22">
-        <v>2845</v>
+        <v>2696</v>
       </c>
       <c r="I22">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1815</v>
+        <v>2037</v>
       </c>
       <c r="N22">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="O22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2150,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="T22">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="U22">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2168,18 +2168,18 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B23">
-        <v>36194</v>
+        <v>34128</v>
       </c>
       <c r="C23">
-        <v>4127</v>
+        <v>3421</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2191,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>31514</v>
+        <v>34131</v>
       </c>
       <c r="H23">
-        <v>3396</v>
+        <v>2845</v>
       </c>
       <c r="I23">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1954</v>
+        <v>1815</v>
       </c>
       <c r="N23">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="O23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="T23">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="U23">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2245,18 +2245,18 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>511</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B24">
-        <v>45790</v>
+        <v>36194</v>
       </c>
       <c r="C24">
-        <v>5352</v>
+        <v>4127</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>33496</v>
+        <v>31514</v>
       </c>
       <c r="H24">
-        <v>4274</v>
+        <v>3396</v>
       </c>
       <c r="I24">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="N24">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="O24">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2304,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T24">
-        <v>775</v>
+        <v>636</v>
       </c>
       <c r="U24">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2322,18 +2322,18 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>578</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B25">
-        <v>56808</v>
+        <v>45790</v>
       </c>
       <c r="C25">
-        <v>6952</v>
+        <v>5352</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>36529</v>
+        <v>33496</v>
       </c>
       <c r="H25">
-        <v>5224</v>
+        <v>4274</v>
       </c>
       <c r="I25">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2268</v>
+        <v>2133</v>
       </c>
       <c r="N25">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="O25">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="T25">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="U25">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2399,18 +2399,18 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B26">
-        <v>70900</v>
+        <v>56808</v>
       </c>
       <c r="C26">
-        <v>9284</v>
+        <v>6952</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>40060</v>
+        <v>36529</v>
       </c>
       <c r="H26">
-        <v>6160</v>
+        <v>5224</v>
       </c>
       <c r="I26">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>2418</v>
+        <v>2268</v>
       </c>
       <c r="N26">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="O26">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T26">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="U26">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2476,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B27">
-        <v>86133</v>
+        <v>70900</v>
       </c>
       <c r="C27">
-        <v>11735</v>
+        <v>9284</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>44050</v>
+        <v>40060</v>
       </c>
       <c r="H27">
-        <v>6782</v>
+        <v>6160</v>
       </c>
       <c r="I27">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>2456</v>
+        <v>2418</v>
       </c>
       <c r="N27">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="O27">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T27">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="U27">
         <v>57</v>
@@ -2553,18 +2553,18 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>509</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B28">
-        <v>96900</v>
+        <v>86133</v>
       </c>
       <c r="C28">
-        <v>13728</v>
+        <v>11735</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>44990</v>
+        <v>44050</v>
       </c>
       <c r="H28">
-        <v>6841</v>
+        <v>6782</v>
       </c>
       <c r="I28">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>2331</v>
+        <v>2456</v>
       </c>
       <c r="N28">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="O28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="T28">
-        <v>770</v>
+        <v>877</v>
       </c>
       <c r="U28">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2630,18 +2630,18 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>405</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B29">
-        <v>104890</v>
+        <v>96900</v>
       </c>
       <c r="C29">
-        <v>16129</v>
+        <v>13728</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>43775</v>
+        <v>44990</v>
       </c>
       <c r="H29">
-        <v>6579</v>
+        <v>6841</v>
       </c>
       <c r="I29">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>2118</v>
+        <v>2331</v>
       </c>
       <c r="N29">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="O29">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T29">
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="U29">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2707,18 +2707,18 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>280</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B30">
-        <v>107937</v>
+        <v>104890</v>
       </c>
       <c r="C30">
-        <v>18925</v>
+        <v>16129</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>40380</v>
+        <v>43775</v>
       </c>
       <c r="H30">
-        <v>5988</v>
+        <v>6579</v>
       </c>
       <c r="I30">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1788</v>
+        <v>2118</v>
       </c>
       <c r="N30">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="O30">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="T30">
-        <v>383</v>
+        <v>571</v>
       </c>
       <c r="U30">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2784,18 +2784,18 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B31">
-        <v>104405</v>
+        <v>107937</v>
       </c>
       <c r="C31">
-        <v>21703</v>
+        <v>18925</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>33894</v>
+        <v>40380</v>
       </c>
       <c r="H31">
-        <v>5162</v>
+        <v>5988</v>
       </c>
       <c r="I31">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>1349</v>
+        <v>1788</v>
       </c>
       <c r="N31">
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="O31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="T31">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="U31">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2861,18 +2861,18 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>92</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B32">
-        <v>95261</v>
+        <v>104405</v>
       </c>
       <c r="C32">
-        <v>22568</v>
+        <v>21703</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2884,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>24978</v>
+        <v>33894</v>
       </c>
       <c r="H32">
-        <v>4052</v>
+        <v>5162</v>
       </c>
       <c r="I32">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>959</v>
+        <v>1349</v>
       </c>
       <c r="N32">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="O32">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="T32">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="U32">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2938,18 +2938,18 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B33">
-        <v>80585</v>
+        <v>95261</v>
       </c>
       <c r="C33">
-        <v>21570</v>
+        <v>22568</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>18887</v>
+        <v>24978</v>
       </c>
       <c r="H33">
-        <v>3067</v>
+        <v>4052</v>
       </c>
       <c r="I33">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2979,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>627</v>
+        <v>959</v>
       </c>
       <c r="N33">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="O33">
         <v>22</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="T33">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="U33">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3015,18 +3015,18 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B34">
-        <v>60267</v>
+        <v>80585</v>
       </c>
       <c r="C34">
-        <v>17420</v>
+        <v>21570</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>12333</v>
+        <v>18887</v>
       </c>
       <c r="H34">
-        <v>2234</v>
+        <v>3067</v>
       </c>
       <c r="I34">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3056,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="N34">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="O34">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="T34">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="U34">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3097,13 +3097,13 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B35">
-        <v>40729</v>
+        <v>60267</v>
       </c>
       <c r="C35">
-        <v>12032</v>
+        <v>17420</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3115,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>7277</v>
+        <v>12333</v>
       </c>
       <c r="H35">
-        <v>1619</v>
+        <v>2234</v>
       </c>
       <c r="I35">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="N35">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="O35">
         <v>11</v>
@@ -3151,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T35">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="U35">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3169,18 +3169,18 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B36">
-        <v>26284</v>
+        <v>40729</v>
       </c>
       <c r="C36">
-        <v>6813</v>
+        <v>12032</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>3805</v>
+        <v>7277</v>
       </c>
       <c r="H36">
-        <v>1483</v>
+        <v>1619</v>
       </c>
       <c r="I36">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3210,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="N36">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O36">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T36">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="U36">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3246,83 +3246,160 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B37">
+        <v>26284</v>
+      </c>
+      <c r="C37">
+        <v>6813</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>3805</v>
+      </c>
+      <c r="H37">
+        <v>1483</v>
+      </c>
+      <c r="I37">
+        <v>199</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>224</v>
+      </c>
+      <c r="N37">
+        <v>117</v>
+      </c>
+      <c r="O37">
+        <v>14</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>8</v>
+      </c>
+      <c r="T37">
+        <v>250</v>
+      </c>
+      <c r="U37">
+        <v>47</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="2">
         <v>44391</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>21089</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>3954</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>2310</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <v>1880</v>
       </c>
-      <c r="I37">
+      <c r="I38">
         <v>240</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
         <v>240</v>
       </c>
-      <c r="N37">
+      <c r="N38">
         <v>147</v>
       </c>
-      <c r="O37">
+      <c r="O38">
         <v>20</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>7</v>
       </c>
-      <c r="T37">
+      <c r="T38">
         <v>357</v>
       </c>
-      <c r="U37">
+      <c r="U38">
         <v>72</v>
       </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
         <v>68</v>
       </c>
     </row>
@@ -3333,7 +3410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3400,1193 +3477,1193 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="B2">
-        <v>7188123</v>
+        <v>7102203</v>
       </c>
       <c r="C2">
-        <v>1774721</v>
+        <v>1513671</v>
       </c>
       <c r="D2">
-        <v>7675977</v>
+        <v>7446133</v>
       </c>
       <c r="E2">
-        <v>5027431</v>
+        <v>4823786</v>
       </c>
       <c r="F2">
-        <v>35999762</v>
+        <v>36780251</v>
       </c>
       <c r="G2">
-        <v>48703170</v>
+        <v>49050170</v>
       </c>
       <c r="H2">
-        <v>7589638</v>
+        <v>7343079</v>
       </c>
       <c r="I2">
-        <v>2256742</v>
+        <v>2062622</v>
       </c>
       <c r="J2">
-        <v>10012637</v>
+        <v>8368761</v>
       </c>
       <c r="K2">
-        <v>5229922</v>
+        <v>5136508</v>
       </c>
       <c r="L2">
-        <v>32577075</v>
+        <v>34755074</v>
       </c>
       <c r="M2">
-        <v>47819634</v>
+        <v>48260343</v>
       </c>
       <c r="N2">
-        <v>7902839</v>
+        <v>7588956</v>
       </c>
       <c r="O2">
-        <v>2289689</v>
+        <v>2253718</v>
       </c>
       <c r="P2">
-        <v>12148491</v>
+        <v>10013108</v>
       </c>
       <c r="Q2">
-        <v>5690505</v>
+        <v>5232435</v>
       </c>
       <c r="R2">
-        <v>29634490</v>
+        <v>32577827</v>
       </c>
       <c r="S2">
-        <v>47473486</v>
+        <v>47823370</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="B3">
-        <v>4922246</v>
+        <v>7188123</v>
       </c>
       <c r="C3">
-        <v>1504174</v>
+        <v>1774721</v>
       </c>
       <c r="D3">
-        <v>8369206</v>
+        <v>7675977</v>
       </c>
       <c r="E3">
-        <v>4462914</v>
+        <v>5027431</v>
       </c>
       <c r="F3">
-        <v>34751405</v>
+        <v>35999762</v>
       </c>
       <c r="G3">
-        <v>47583525</v>
+        <v>48703170</v>
       </c>
       <c r="H3">
-        <v>5237693</v>
+        <v>7589638</v>
       </c>
       <c r="I3">
-        <v>1603693</v>
+        <v>2256742</v>
       </c>
       <c r="J3">
-        <v>12148624</v>
+        <v>10012637</v>
       </c>
       <c r="K3">
-        <v>5387344</v>
+        <v>5229922</v>
       </c>
       <c r="L3">
-        <v>29632591</v>
+        <v>32577075</v>
       </c>
       <c r="M3">
-        <v>47168559</v>
+        <v>47819634</v>
       </c>
       <c r="N3">
-        <v>5475882</v>
+        <v>7902839</v>
       </c>
       <c r="O3">
-        <v>1574138</v>
+        <v>2289689</v>
       </c>
       <c r="P3">
-        <v>14562981</v>
+        <v>12148491</v>
       </c>
       <c r="Q3">
-        <v>6180953</v>
+        <v>5690505</v>
       </c>
       <c r="R3">
-        <v>26215991</v>
+        <v>29634490</v>
       </c>
       <c r="S3">
-        <v>46959925</v>
+        <v>47473486</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B4">
-        <v>5053954</v>
+        <v>4922246</v>
       </c>
       <c r="C4">
-        <v>1597892</v>
+        <v>1504174</v>
       </c>
       <c r="D4">
-        <v>10021741</v>
+        <v>8369206</v>
       </c>
       <c r="E4">
-        <v>4762640</v>
+        <v>4462914</v>
       </c>
       <c r="F4">
-        <v>32573718</v>
+        <v>34751405</v>
       </c>
       <c r="G4">
-        <v>47358099</v>
+        <v>47583525</v>
       </c>
       <c r="H4">
-        <v>5465398</v>
+        <v>5237693</v>
       </c>
       <c r="I4">
-        <v>1580627</v>
+        <v>1603693</v>
       </c>
       <c r="J4">
-        <v>14572377</v>
+        <v>12148624</v>
       </c>
       <c r="K4">
-        <v>6176719</v>
+        <v>5387344</v>
       </c>
       <c r="L4">
-        <v>26214824</v>
+        <v>29632591</v>
       </c>
       <c r="M4">
-        <v>46963920</v>
+        <v>47168559</v>
       </c>
       <c r="N4">
-        <v>5755897</v>
+        <v>5475882</v>
       </c>
       <c r="O4">
-        <v>1547981</v>
+        <v>1574138</v>
       </c>
       <c r="P4">
-        <v>17157988</v>
+        <v>14562981</v>
       </c>
       <c r="Q4">
-        <v>7039120</v>
+        <v>6180953</v>
       </c>
       <c r="R4">
-        <v>22508959</v>
+        <v>26215991</v>
       </c>
       <c r="S4">
-        <v>46706067</v>
+        <v>46959925</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B5">
-        <v>5229604</v>
+        <v>5053954</v>
       </c>
       <c r="C5">
-        <v>1618481</v>
+        <v>1597892</v>
       </c>
       <c r="D5">
-        <v>12157100</v>
+        <v>10021741</v>
       </c>
       <c r="E5">
-        <v>5375529</v>
+        <v>4762640</v>
       </c>
       <c r="F5">
-        <v>29629231</v>
+        <v>32573718</v>
       </c>
       <c r="G5">
-        <v>47161860</v>
+        <v>47358099</v>
       </c>
       <c r="H5">
-        <v>5758356</v>
+        <v>5465398</v>
       </c>
       <c r="I5">
-        <v>1551283</v>
+        <v>1580627</v>
       </c>
       <c r="J5">
-        <v>17157160</v>
+        <v>14572377</v>
       </c>
       <c r="K5">
-        <v>7035796</v>
+        <v>6176719</v>
       </c>
       <c r="L5">
-        <v>22507350</v>
+        <v>26214824</v>
       </c>
       <c r="M5">
-        <v>46700306</v>
+        <v>46963920</v>
       </c>
       <c r="N5">
-        <v>5927007</v>
+        <v>5755897</v>
       </c>
       <c r="O5">
-        <v>1592113</v>
+        <v>1547981</v>
       </c>
       <c r="P5">
-        <v>18793468</v>
+        <v>17157988</v>
       </c>
       <c r="Q5">
-        <v>8015572</v>
+        <v>7039120</v>
       </c>
       <c r="R5">
-        <v>19681785</v>
+        <v>22508959</v>
       </c>
       <c r="S5">
-        <v>46490825</v>
+        <v>46706067</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B6">
-        <v>5467098</v>
+        <v>5229604</v>
       </c>
       <c r="C6">
-        <v>1596811</v>
+        <v>1618481</v>
       </c>
       <c r="D6">
-        <v>14575900</v>
+        <v>12157100</v>
       </c>
       <c r="E6">
-        <v>6164226</v>
+        <v>5375529</v>
       </c>
       <c r="F6">
-        <v>26205910</v>
+        <v>29629231</v>
       </c>
       <c r="G6">
-        <v>46946036</v>
+        <v>47161860</v>
       </c>
       <c r="H6">
-        <v>5926909</v>
+        <v>5758356</v>
       </c>
       <c r="I6">
-        <v>1597860</v>
+        <v>1551283</v>
       </c>
       <c r="J6">
-        <v>18796851</v>
+        <v>17157160</v>
       </c>
       <c r="K6">
-        <v>8012376</v>
+        <v>7035796</v>
       </c>
       <c r="L6">
-        <v>19675949</v>
+        <v>22507350</v>
       </c>
       <c r="M6">
-        <v>46485176</v>
+        <v>46700306</v>
       </c>
       <c r="N6">
-        <v>6040050</v>
+        <v>5927007</v>
       </c>
       <c r="O6">
-        <v>1652417</v>
+        <v>1592113</v>
       </c>
       <c r="P6">
-        <v>20133986</v>
+        <v>18793468</v>
       </c>
       <c r="Q6">
-        <v>9055320</v>
+        <v>8015572</v>
       </c>
       <c r="R6">
-        <v>17128172</v>
+        <v>19681785</v>
       </c>
       <c r="S6">
-        <v>46317478</v>
+        <v>46490825</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B7">
-        <v>5610741</v>
+        <v>5467098</v>
       </c>
       <c r="C7">
-        <v>1575333</v>
+        <v>1596811</v>
       </c>
       <c r="D7">
-        <v>17279465</v>
+        <v>14575900</v>
       </c>
       <c r="E7">
-        <v>7025036</v>
+        <v>6164226</v>
       </c>
       <c r="F7">
-        <v>22519370</v>
+        <v>26205910</v>
       </c>
       <c r="G7">
-        <v>46823871</v>
+        <v>46946036</v>
       </c>
       <c r="H7">
-        <v>5893661</v>
+        <v>5926909</v>
       </c>
       <c r="I7">
-        <v>1663892</v>
+        <v>1597860</v>
       </c>
       <c r="J7">
-        <v>20257123</v>
+        <v>18796851</v>
       </c>
       <c r="K7">
-        <v>9057038</v>
+        <v>8012376</v>
       </c>
       <c r="L7">
-        <v>17138231</v>
+        <v>19675949</v>
       </c>
       <c r="M7">
-        <v>46452392</v>
+        <v>46485176</v>
       </c>
       <c r="N7">
-        <v>6038487</v>
+        <v>6040050</v>
       </c>
       <c r="O7">
-        <v>1684410</v>
+        <v>1652417</v>
       </c>
       <c r="P7">
-        <v>22158953</v>
+        <v>20133986</v>
       </c>
       <c r="Q7">
-        <v>9853675</v>
+        <v>9055320</v>
       </c>
       <c r="R7">
-        <v>14274420</v>
+        <v>17128172</v>
       </c>
       <c r="S7">
-        <v>46287048</v>
+        <v>46317478</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B8">
-        <v>5925943</v>
+        <v>5610741</v>
       </c>
       <c r="C8">
-        <v>1616298</v>
+        <v>1575333</v>
       </c>
       <c r="D8">
-        <v>18801609</v>
+        <v>17279465</v>
       </c>
       <c r="E8">
-        <v>7998741</v>
+        <v>7025036</v>
       </c>
       <c r="F8">
-        <v>19667354</v>
+        <v>22519370</v>
       </c>
       <c r="G8">
-        <v>46467704</v>
+        <v>46823871</v>
       </c>
       <c r="H8">
-        <v>6182863</v>
+        <v>5893661</v>
       </c>
       <c r="I8">
-        <v>1687002</v>
+        <v>1663892</v>
       </c>
       <c r="J8">
-        <v>22039408</v>
+        <v>20257123</v>
       </c>
       <c r="K8">
-        <v>9839532</v>
+        <v>9057038</v>
       </c>
       <c r="L8">
-        <v>14261140</v>
+        <v>17138231</v>
       </c>
       <c r="M8">
-        <v>46140080</v>
+        <v>46452392</v>
       </c>
       <c r="N8">
-        <v>6392072</v>
+        <v>6038487</v>
       </c>
       <c r="O8">
-        <v>1641693</v>
+        <v>1684410</v>
       </c>
       <c r="P8">
-        <v>24567729</v>
+        <v>22158953</v>
       </c>
       <c r="Q8">
-        <v>10413190</v>
+        <v>9853675</v>
       </c>
       <c r="R8">
-        <v>10995261</v>
+        <v>14274420</v>
       </c>
       <c r="S8">
-        <v>45976180</v>
+        <v>46287048</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B9">
-        <v>6113428</v>
+        <v>5925943</v>
       </c>
       <c r="C9">
-        <v>1676275</v>
+        <v>1616298</v>
       </c>
       <c r="D9">
-        <v>20106983</v>
+        <v>18801609</v>
       </c>
       <c r="E9">
-        <v>9023286</v>
+        <v>7998741</v>
       </c>
       <c r="F9">
-        <v>17089973</v>
+        <v>19667354</v>
       </c>
       <c r="G9">
-        <v>46220242</v>
+        <v>46467704</v>
       </c>
       <c r="H9">
-        <v>6466161</v>
+        <v>6182863</v>
       </c>
       <c r="I9">
-        <v>1644869</v>
+        <v>1687002</v>
       </c>
       <c r="J9">
-        <v>24530417</v>
+        <v>22039408</v>
       </c>
       <c r="K9">
-        <v>10394218</v>
+        <v>9839532</v>
       </c>
       <c r="L9">
-        <v>10974280</v>
+        <v>14261140</v>
       </c>
       <c r="M9">
-        <v>45898915</v>
+        <v>46140080</v>
       </c>
       <c r="N9">
-        <v>6710026</v>
+        <v>6392072</v>
       </c>
       <c r="O9">
-        <v>1549282</v>
+        <v>1641693</v>
       </c>
       <c r="P9">
-        <v>25990113</v>
+        <v>24567729</v>
       </c>
       <c r="Q9">
-        <v>11656265</v>
+        <v>10413190</v>
       </c>
       <c r="R9">
-        <v>8104259</v>
+        <v>10995261</v>
       </c>
       <c r="S9">
-        <v>45750637</v>
+        <v>45976180</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B10">
-        <v>6194434</v>
+        <v>6113428</v>
       </c>
       <c r="C10">
-        <v>1720841</v>
+        <v>1676275</v>
       </c>
       <c r="D10">
-        <v>22048677</v>
+        <v>20106983</v>
       </c>
       <c r="E10">
-        <v>9810639</v>
+        <v>9023286</v>
       </c>
       <c r="F10">
-        <v>14235354</v>
+        <v>17089973</v>
       </c>
       <c r="G10">
-        <v>46094670</v>
+        <v>46220242</v>
       </c>
       <c r="H10">
-        <v>6647970</v>
+        <v>6466161</v>
       </c>
       <c r="I10">
-        <v>1566179</v>
+        <v>1644869</v>
       </c>
       <c r="J10">
-        <v>26028307</v>
+        <v>24530417</v>
       </c>
       <c r="K10">
-        <v>11660101</v>
+        <v>10394218</v>
       </c>
       <c r="L10">
-        <v>8107388</v>
+        <v>10974280</v>
       </c>
       <c r="M10">
-        <v>45795796</v>
+        <v>45898915</v>
       </c>
       <c r="N10">
-        <v>6862315</v>
+        <v>6710026</v>
       </c>
       <c r="O10">
-        <v>1493790</v>
+        <v>1549282</v>
       </c>
       <c r="P10">
-        <v>26357835</v>
+        <v>25990113</v>
       </c>
       <c r="Q10">
-        <v>13596764</v>
+        <v>11656265</v>
       </c>
       <c r="R10">
-        <v>5699241</v>
+        <v>8104259</v>
       </c>
       <c r="S10">
-        <v>45653840</v>
+        <v>45750637</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B11">
-        <v>6414467</v>
+        <v>6194434</v>
       </c>
       <c r="C11">
-        <v>1678301</v>
+        <v>1720841</v>
       </c>
       <c r="D11">
-        <v>24562863</v>
+        <v>22048677</v>
       </c>
       <c r="E11">
-        <v>10381759</v>
+        <v>9810639</v>
       </c>
       <c r="F11">
-        <v>10972555</v>
+        <v>14235354</v>
       </c>
       <c r="G11">
-        <v>45917177</v>
+        <v>46094670</v>
       </c>
       <c r="H11">
-        <v>6876688</v>
+        <v>6647970</v>
       </c>
       <c r="I11">
-        <v>1504168</v>
+        <v>1566179</v>
       </c>
       <c r="J11">
-        <v>26348254</v>
+        <v>26028307</v>
       </c>
       <c r="K11">
-        <v>13585896</v>
+        <v>11660101</v>
       </c>
       <c r="L11">
-        <v>5694939</v>
+        <v>8107388</v>
       </c>
       <c r="M11">
-        <v>45629089</v>
+        <v>45795796</v>
       </c>
       <c r="N11">
-        <v>7031651</v>
+        <v>6862315</v>
       </c>
       <c r="O11">
-        <v>1502381</v>
+        <v>1493790</v>
       </c>
       <c r="P11">
-        <v>13119984</v>
+        <v>26357835</v>
       </c>
       <c r="Q11">
-        <v>28222661</v>
+        <v>13596764</v>
       </c>
       <c r="R11">
-        <v>4133267</v>
+        <v>5699241</v>
       </c>
       <c r="S11">
-        <v>45475912</v>
+        <v>45653840</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B12">
-        <v>6660263</v>
+        <v>6414467</v>
       </c>
       <c r="C12">
-        <v>1578764</v>
+        <v>1678301</v>
       </c>
       <c r="D12">
-        <v>26019483</v>
+        <v>24562863</v>
       </c>
       <c r="E12">
-        <v>11648617</v>
+        <v>10381759</v>
       </c>
       <c r="F12">
-        <v>8102818</v>
+        <v>10972555</v>
       </c>
       <c r="G12">
-        <v>45770918</v>
+        <v>45917177</v>
       </c>
       <c r="H12">
+        <v>6876688</v>
+      </c>
+      <c r="I12">
+        <v>1504168</v>
+      </c>
+      <c r="J12">
+        <v>26348254</v>
+      </c>
+      <c r="K12">
+        <v>13585896</v>
+      </c>
+      <c r="L12">
+        <v>5694939</v>
+      </c>
+      <c r="M12">
+        <v>45629089</v>
+      </c>
+      <c r="N12">
         <v>7031651</v>
       </c>
-      <c r="I12">
+      <c r="O12">
         <v>1502381</v>
       </c>
-      <c r="J12">
+      <c r="P12">
         <v>13119984</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <v>28222661</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <v>4133267</v>
       </c>
-      <c r="M12">
+      <c r="S12">
         <v>45475912</v>
-      </c>
-      <c r="N12">
-        <v>7160934</v>
-      </c>
-      <c r="O12">
-        <v>1577260</v>
-      </c>
-      <c r="P12">
-        <v>12254673</v>
-      </c>
-      <c r="Q12">
-        <v>29956598</v>
-      </c>
-      <c r="R12">
-        <v>3060479</v>
-      </c>
-      <c r="S12">
-        <v>45271750</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B13">
-        <v>6876688</v>
+        <v>6660263</v>
       </c>
       <c r="C13">
-        <v>1504168</v>
+        <v>1578764</v>
       </c>
       <c r="D13">
-        <v>26348254</v>
+        <v>26019483</v>
       </c>
       <c r="E13">
-        <v>13585896</v>
+        <v>11648617</v>
       </c>
       <c r="F13">
-        <v>5694939</v>
+        <v>8102818</v>
       </c>
       <c r="G13">
-        <v>45629089</v>
+        <v>45770918</v>
       </c>
       <c r="H13">
+        <v>7031651</v>
+      </c>
+      <c r="I13">
+        <v>1502381</v>
+      </c>
+      <c r="J13">
+        <v>13119984</v>
+      </c>
+      <c r="K13">
+        <v>28222661</v>
+      </c>
+      <c r="L13">
+        <v>4133267</v>
+      </c>
+      <c r="M13">
+        <v>45475912</v>
+      </c>
+      <c r="N13">
         <v>7160934</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>1577260</v>
       </c>
-      <c r="J13">
+      <c r="P13">
         <v>12254673</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <v>29956598</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <v>3060479</v>
       </c>
-      <c r="M13">
+      <c r="S13">
         <v>45271750</v>
-      </c>
-      <c r="N13">
-        <v>7291722</v>
-      </c>
-      <c r="O13">
-        <v>1749607</v>
-      </c>
-      <c r="P13">
-        <v>11949919</v>
-      </c>
-      <c r="Q13">
-        <v>30829431</v>
-      </c>
-      <c r="R13">
-        <v>2189265</v>
-      </c>
-      <c r="S13">
-        <v>44968615</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B14">
-        <v>7031651</v>
+        <v>6876688</v>
       </c>
       <c r="C14">
-        <v>1502381</v>
+        <v>1504168</v>
       </c>
       <c r="D14">
-        <v>13119984</v>
+        <v>26348254</v>
       </c>
       <c r="E14">
-        <v>28222661</v>
+        <v>13585896</v>
       </c>
       <c r="F14">
-        <v>4133267</v>
+        <v>5694939</v>
       </c>
       <c r="G14">
-        <v>45475912</v>
+        <v>45629089</v>
       </c>
       <c r="H14">
+        <v>7160934</v>
+      </c>
+      <c r="I14">
+        <v>1577260</v>
+      </c>
+      <c r="J14">
+        <v>12254673</v>
+      </c>
+      <c r="K14">
+        <v>29956598</v>
+      </c>
+      <c r="L14">
+        <v>3060479</v>
+      </c>
+      <c r="M14">
+        <v>45271750</v>
+      </c>
+      <c r="N14">
         <v>7291722</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>1749607</v>
       </c>
-      <c r="J14">
+      <c r="P14">
         <v>11949919</v>
       </c>
-      <c r="K14">
+      <c r="Q14">
         <v>30829431</v>
       </c>
-      <c r="L14">
+      <c r="R14">
         <v>2189265</v>
       </c>
-      <c r="M14">
+      <c r="S14">
         <v>44968615</v>
-      </c>
-      <c r="N14">
-        <v>7404599</v>
-      </c>
-      <c r="O14">
-        <v>1981131</v>
-      </c>
-      <c r="P14">
-        <v>11407859</v>
-      </c>
-      <c r="Q14">
-        <v>31622279</v>
-      </c>
-      <c r="R14">
-        <v>1594076</v>
-      </c>
-      <c r="S14">
-        <v>44624214</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B15">
-        <v>7160934</v>
+        <v>7031651</v>
       </c>
       <c r="C15">
-        <v>1577260</v>
+        <v>1502381</v>
       </c>
       <c r="D15">
-        <v>12254673</v>
+        <v>13119984</v>
       </c>
       <c r="E15">
-        <v>29956598</v>
+        <v>28222661</v>
       </c>
       <c r="F15">
-        <v>3060479</v>
+        <v>4133267</v>
       </c>
       <c r="G15">
-        <v>45271750</v>
+        <v>45475912</v>
       </c>
       <c r="H15">
+        <v>7291722</v>
+      </c>
+      <c r="I15">
+        <v>1749607</v>
+      </c>
+      <c r="J15">
+        <v>11949919</v>
+      </c>
+      <c r="K15">
+        <v>30829431</v>
+      </c>
+      <c r="L15">
+        <v>2189265</v>
+      </c>
+      <c r="M15">
+        <v>44968615</v>
+      </c>
+      <c r="N15">
         <v>7404599</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>1981131</v>
       </c>
-      <c r="J15">
+      <c r="P15">
         <v>11407859</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <v>31622279</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <v>1594076</v>
       </c>
-      <c r="M15">
+      <c r="S15">
         <v>44624214</v>
-      </c>
-      <c r="N15">
-        <v>7586013</v>
-      </c>
-      <c r="O15">
-        <v>2222672</v>
-      </c>
-      <c r="P15">
-        <v>4526706</v>
-      </c>
-      <c r="Q15">
-        <v>38658546</v>
-      </c>
-      <c r="R15">
-        <v>1016007</v>
-      </c>
-      <c r="S15">
-        <v>44201259</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B16">
-        <v>7291722</v>
+        <v>7160934</v>
       </c>
       <c r="C16">
-        <v>1749607</v>
+        <v>1577260</v>
       </c>
       <c r="D16">
-        <v>11949919</v>
+        <v>12254673</v>
       </c>
       <c r="E16">
-        <v>30829431</v>
+        <v>29956598</v>
       </c>
       <c r="F16">
-        <v>2189265</v>
+        <v>3060479</v>
       </c>
       <c r="G16">
-        <v>44968615</v>
+        <v>45271750</v>
       </c>
       <c r="H16">
+        <v>7404599</v>
+      </c>
+      <c r="I16">
+        <v>1981131</v>
+      </c>
+      <c r="J16">
+        <v>11407859</v>
+      </c>
+      <c r="K16">
+        <v>31622279</v>
+      </c>
+      <c r="L16">
+        <v>1594076</v>
+      </c>
+      <c r="M16">
+        <v>44624214</v>
+      </c>
+      <c r="N16">
         <v>7586013</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>2222672</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <v>4526706</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <v>38658546</v>
       </c>
-      <c r="L16">
+      <c r="R16">
         <v>1016007</v>
       </c>
-      <c r="M16">
+      <c r="S16">
         <v>44201259</v>
-      </c>
-      <c r="N16">
-        <v>7862567</v>
-      </c>
-      <c r="O16">
-        <v>2422756</v>
-      </c>
-      <c r="P16">
-        <v>4186423</v>
-      </c>
-      <c r="Q16">
-        <v>38968164</v>
-      </c>
-      <c r="R16">
-        <v>570032</v>
-      </c>
-      <c r="S16">
-        <v>43724619</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B17">
-        <v>7404599</v>
+        <v>7291722</v>
       </c>
       <c r="C17">
-        <v>1981131</v>
+        <v>1749607</v>
       </c>
       <c r="D17">
-        <v>11407859</v>
+        <v>11949919</v>
       </c>
       <c r="E17">
-        <v>31622279</v>
+        <v>30829431</v>
       </c>
       <c r="F17">
-        <v>1594076</v>
+        <v>2189265</v>
       </c>
       <c r="G17">
-        <v>44624214</v>
+        <v>44968615</v>
       </c>
       <c r="H17">
+        <v>7586013</v>
+      </c>
+      <c r="I17">
+        <v>2222672</v>
+      </c>
+      <c r="J17">
+        <v>4526706</v>
+      </c>
+      <c r="K17">
+        <v>38658546</v>
+      </c>
+      <c r="L17">
+        <v>1016007</v>
+      </c>
+      <c r="M17">
+        <v>44201259</v>
+      </c>
+      <c r="N17">
         <v>7862567</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>2422756</v>
       </c>
-      <c r="J17">
+      <c r="P17">
         <v>4186423</v>
       </c>
-      <c r="K17">
+      <c r="Q17">
         <v>38968164</v>
       </c>
-      <c r="L17">
+      <c r="R17">
         <v>570032</v>
       </c>
-      <c r="M17">
+      <c r="S17">
         <v>43724619</v>
-      </c>
-      <c r="N17">
-        <v>8302865</v>
-      </c>
-      <c r="O17">
-        <v>2538614</v>
-      </c>
-      <c r="P17">
-        <v>3884826</v>
-      </c>
-      <c r="Q17">
-        <v>38988918</v>
-      </c>
-      <c r="R17">
-        <v>294719</v>
-      </c>
-      <c r="S17">
-        <v>43168463</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B18">
-        <v>7586013</v>
+        <v>7404599</v>
       </c>
       <c r="C18">
-        <v>2222672</v>
+        <v>1981131</v>
       </c>
       <c r="D18">
-        <v>4526706</v>
+        <v>11407859</v>
       </c>
       <c r="E18">
-        <v>38658546</v>
+        <v>31622279</v>
       </c>
       <c r="F18">
-        <v>1016007</v>
+        <v>1594076</v>
       </c>
       <c r="G18">
-        <v>44201259</v>
+        <v>44624214</v>
       </c>
       <c r="H18">
+        <v>7862567</v>
+      </c>
+      <c r="I18">
+        <v>2422756</v>
+      </c>
+      <c r="J18">
+        <v>4186423</v>
+      </c>
+      <c r="K18">
+        <v>38968164</v>
+      </c>
+      <c r="L18">
+        <v>570032</v>
+      </c>
+      <c r="M18">
+        <v>43724619</v>
+      </c>
+      <c r="N18">
         <v>8302865</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>2538614</v>
       </c>
-      <c r="J18">
+      <c r="P18">
         <v>3884826</v>
       </c>
-      <c r="K18">
+      <c r="Q18">
         <v>38988918</v>
       </c>
-      <c r="L18">
+      <c r="R18">
         <v>294719</v>
       </c>
-      <c r="M18">
+      <c r="S18">
         <v>43168463</v>
-      </c>
-      <c r="N18">
-        <v>8683749</v>
-      </c>
-      <c r="O18">
-        <v>2653423</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>42672767</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B19">
-        <v>7862567</v>
+        <v>7586013</v>
       </c>
       <c r="C19">
-        <v>2422756</v>
+        <v>2222672</v>
       </c>
       <c r="D19">
-        <v>4186423</v>
+        <v>4526706</v>
       </c>
       <c r="E19">
-        <v>38968164</v>
+        <v>38658546</v>
       </c>
       <c r="F19">
-        <v>570032</v>
+        <v>1016007</v>
       </c>
       <c r="G19">
-        <v>43724619</v>
+        <v>44201259</v>
       </c>
       <c r="H19">
+        <v>8302865</v>
+      </c>
+      <c r="I19">
+        <v>2538614</v>
+      </c>
+      <c r="J19">
+        <v>3884826</v>
+      </c>
+      <c r="K19">
+        <v>38988918</v>
+      </c>
+      <c r="L19">
+        <v>294719</v>
+      </c>
+      <c r="M19">
+        <v>43168463</v>
+      </c>
+      <c r="N19">
         <v>8683749</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>2653423</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>42672767</v>
-      </c>
-      <c r="N19">
-        <v>9231487</v>
-      </c>
-      <c r="O19">
-        <v>2863195</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>41915257</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B20">
-        <v>8302865</v>
+        <v>7862567</v>
       </c>
       <c r="C20">
-        <v>2538614</v>
+        <v>2422756</v>
       </c>
       <c r="D20">
-        <v>3884826</v>
+        <v>4186423</v>
       </c>
       <c r="E20">
-        <v>38988918</v>
+        <v>38968164</v>
       </c>
       <c r="F20">
-        <v>294719</v>
+        <v>570032</v>
       </c>
       <c r="G20">
-        <v>43168463</v>
+        <v>43724619</v>
       </c>
       <c r="H20">
+        <v>8683749</v>
+      </c>
+      <c r="I20">
+        <v>2653423</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>42672767</v>
+      </c>
+      <c r="N20">
         <v>9231487</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>2863195</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>41915257</v>
-      </c>
-      <c r="N20">
-        <v>9829232</v>
-      </c>
-      <c r="O20">
-        <v>3259454</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>40921215</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B21">
-        <v>8683749</v>
+        <v>8302865</v>
       </c>
       <c r="C21">
-        <v>2653423</v>
+        <v>2538614</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3884826</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>38988918</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>294719</v>
       </c>
       <c r="G21">
-        <v>42672767</v>
+        <v>43168463</v>
       </c>
       <c r="H21">
+        <v>9231487</v>
+      </c>
+      <c r="I21">
+        <v>2863195</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>41915257</v>
+      </c>
+      <c r="N21">
         <v>9829232</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>3259454</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>40921215</v>
-      </c>
-      <c r="N21">
-        <v>10307179</v>
-      </c>
-      <c r="O21">
-        <v>3862335</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>39840387</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B22">
-        <v>9231487</v>
+        <v>8683749</v>
       </c>
       <c r="C22">
-        <v>2863195</v>
+        <v>2653423</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4598,54 +4675,54 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>41915257</v>
+        <v>42672767</v>
       </c>
       <c r="H22">
+        <v>9829232</v>
+      </c>
+      <c r="I22">
+        <v>3259454</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>40921215</v>
+      </c>
+      <c r="N22">
         <v>10307179</v>
       </c>
-      <c r="I22">
+      <c r="O22">
         <v>3862335</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>39840387</v>
-      </c>
-      <c r="N22">
-        <v>10942694</v>
-      </c>
-      <c r="O22">
-        <v>4426185</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>38641022</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B23">
-        <v>9829232</v>
+        <v>9231487</v>
       </c>
       <c r="C23">
-        <v>3259454</v>
+        <v>2863195</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4657,54 +4734,54 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>40921215</v>
+        <v>41915257</v>
       </c>
       <c r="H23">
+        <v>10307179</v>
+      </c>
+      <c r="I23">
+        <v>3862335</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>39840387</v>
+      </c>
+      <c r="N23">
         <v>10942694</v>
       </c>
-      <c r="I23">
+      <c r="O23">
         <v>4426185</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>38641022</v>
-      </c>
-      <c r="N23">
-        <v>11786620</v>
-      </c>
-      <c r="O23">
-        <v>4805486</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>37417795</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B24">
-        <v>10307179</v>
+        <v>9829232</v>
       </c>
       <c r="C24">
-        <v>3862335</v>
+        <v>3259454</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4716,54 +4793,54 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>39840387</v>
+        <v>40921215</v>
       </c>
       <c r="H24">
+        <v>10942694</v>
+      </c>
+      <c r="I24">
+        <v>4426185</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>38641022</v>
+      </c>
+      <c r="N24">
         <v>11786620</v>
       </c>
-      <c r="I24">
+      <c r="O24">
         <v>4805486</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>37417795</v>
-      </c>
-      <c r="N24">
-        <v>12581126</v>
-      </c>
-      <c r="O24">
-        <v>5096568</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>36332207</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B25">
-        <v>10942694</v>
+        <v>10307179</v>
       </c>
       <c r="C25">
-        <v>4426185</v>
+        <v>3862335</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4775,54 +4852,54 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38641022</v>
+        <v>39840387</v>
       </c>
       <c r="H25">
+        <v>11786620</v>
+      </c>
+      <c r="I25">
+        <v>4805486</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>37417795</v>
+      </c>
+      <c r="N25">
         <v>12581126</v>
       </c>
-      <c r="I25">
+      <c r="O25">
         <v>5096568</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>36332207</v>
-      </c>
-      <c r="N25">
-        <v>13334156</v>
-      </c>
-      <c r="O25">
-        <v>5075930</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>35599815</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B26">
-        <v>11786620</v>
+        <v>10942694</v>
       </c>
       <c r="C26">
-        <v>4805486</v>
+        <v>4426185</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4834,54 +4911,54 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>37417795</v>
+        <v>38641022</v>
       </c>
       <c r="H26">
+        <v>12581126</v>
+      </c>
+      <c r="I26">
+        <v>5096568</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>36332207</v>
+      </c>
+      <c r="N26">
         <v>13334156</v>
       </c>
-      <c r="I26">
+      <c r="O26">
         <v>5075930</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>35599815</v>
-      </c>
-      <c r="N26">
-        <v>14507530</v>
-      </c>
-      <c r="O26">
-        <v>5210293</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>34292078</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B27">
-        <v>12581126</v>
+        <v>11786620</v>
       </c>
       <c r="C27">
-        <v>5096568</v>
+        <v>4805486</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4893,54 +4970,54 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>36332207</v>
+        <v>37417795</v>
       </c>
       <c r="H27">
+        <v>13334156</v>
+      </c>
+      <c r="I27">
+        <v>5075930</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>35599815</v>
+      </c>
+      <c r="N27">
         <v>14507530</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>5210293</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>34292078</v>
-      </c>
-      <c r="N27">
-        <v>15656647</v>
-      </c>
-      <c r="O27">
-        <v>6065610</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>32287644</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B28">
-        <v>13334156</v>
+        <v>12581126</v>
       </c>
       <c r="C28">
-        <v>5075930</v>
+        <v>5096568</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4952,54 +5029,54 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>35599815</v>
+        <v>36332207</v>
       </c>
       <c r="H28">
+        <v>14507530</v>
+      </c>
+      <c r="I28">
+        <v>5210293</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>34292078</v>
+      </c>
+      <c r="N28">
         <v>15656647</v>
       </c>
-      <c r="I28">
+      <c r="O28">
         <v>6065610</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>32287644</v>
-      </c>
-      <c r="N28">
-        <v>16708830</v>
-      </c>
-      <c r="O28">
-        <v>7672393</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>29628678</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B29">
-        <v>14507530</v>
+        <v>13334156</v>
       </c>
       <c r="C29">
-        <v>5210293</v>
+        <v>5075930</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5011,54 +5088,54 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>34292078</v>
+        <v>35599815</v>
       </c>
       <c r="H29">
+        <v>15656647</v>
+      </c>
+      <c r="I29">
+        <v>6065610</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>32287644</v>
+      </c>
+      <c r="N29">
         <v>16708830</v>
       </c>
-      <c r="I29">
+      <c r="O29">
         <v>7672393</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>29628678</v>
-      </c>
-      <c r="N29">
-        <v>17568325</v>
-      </c>
-      <c r="O29">
-        <v>9940124</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>26501452</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B30">
-        <v>15656647</v>
+        <v>14507530</v>
       </c>
       <c r="C30">
-        <v>6065610</v>
+        <v>5210293</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5070,54 +5147,54 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>32287644</v>
+        <v>34292078</v>
       </c>
       <c r="H30">
+        <v>16708830</v>
+      </c>
+      <c r="I30">
+        <v>7672393</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>29628678</v>
+      </c>
+      <c r="N30">
         <v>17568325</v>
       </c>
-      <c r="I30">
+      <c r="O30">
         <v>9940124</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>26501452</v>
-      </c>
-      <c r="N30">
-        <v>20322806</v>
-      </c>
-      <c r="O30">
-        <v>11341436</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>22345659</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B31">
-        <v>16708830</v>
+        <v>15656647</v>
       </c>
       <c r="C31">
-        <v>7672393</v>
+        <v>6065610</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5129,54 +5206,54 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>29628678</v>
+        <v>32287644</v>
       </c>
       <c r="H31">
+        <v>17568325</v>
+      </c>
+      <c r="I31">
+        <v>9940124</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>26501452</v>
+      </c>
+      <c r="N31">
         <v>20322806</v>
       </c>
-      <c r="I31">
+      <c r="O31">
         <v>11341436</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <v>22345659</v>
-      </c>
-      <c r="N31">
-        <v>21289761</v>
-      </c>
-      <c r="O31">
-        <v>13149676</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>19570464</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B32">
-        <v>17568325</v>
+        <v>16708830</v>
       </c>
       <c r="C32">
-        <v>9940124</v>
+        <v>7672393</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5188,54 +5265,54 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>26501452</v>
+        <v>29628678</v>
       </c>
       <c r="H32">
+        <v>20322806</v>
+      </c>
+      <c r="I32">
+        <v>11341436</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>22345659</v>
+      </c>
+      <c r="N32">
         <v>21289761</v>
       </c>
-      <c r="I32">
+      <c r="O32">
         <v>13149676</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>19570464</v>
-      </c>
-      <c r="N32">
-        <v>22879167</v>
-      </c>
-      <c r="O32">
-        <v>13741130</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>17389604</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B33">
-        <v>20322806</v>
+        <v>17568325</v>
       </c>
       <c r="C33">
-        <v>11341436</v>
+        <v>9940124</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5247,54 +5324,54 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>22345659</v>
+        <v>26501452</v>
       </c>
       <c r="H33">
+        <v>21289761</v>
+      </c>
+      <c r="I33">
+        <v>13149676</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>19570464</v>
+      </c>
+      <c r="N33">
         <v>22879167</v>
       </c>
-      <c r="I33">
+      <c r="O33">
         <v>13741130</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>17389604</v>
-      </c>
-      <c r="N33">
-        <v>24745853</v>
-      </c>
-      <c r="O33">
-        <v>13879852</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>15384196</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B34">
-        <v>21289761</v>
+        <v>20322806</v>
       </c>
       <c r="C34">
-        <v>13149676</v>
+        <v>11341436</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5306,54 +5383,54 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>19570464</v>
+        <v>22345659</v>
       </c>
       <c r="H34">
+        <v>22879167</v>
+      </c>
+      <c r="I34">
+        <v>13741130</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>17389604</v>
+      </c>
+      <c r="N34">
         <v>24745853</v>
       </c>
-      <c r="I34">
+      <c r="O34">
         <v>13879852</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>15384196</v>
-      </c>
-      <c r="N34">
-        <v>27065063</v>
-      </c>
-      <c r="O34">
-        <v>13015437</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>13929401</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B35">
-        <v>22879167</v>
+        <v>21289761</v>
       </c>
       <c r="C35">
-        <v>13741130</v>
+        <v>13149676</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5365,54 +5442,54 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>17389604</v>
+        <v>19570464</v>
       </c>
       <c r="H35">
+        <v>24745853</v>
+      </c>
+      <c r="I35">
+        <v>13879852</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>15384196</v>
+      </c>
+      <c r="N35">
         <v>27065063</v>
       </c>
-      <c r="I35">
+      <c r="O35">
         <v>13015437</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
         <v>13929401</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B36">
-        <v>24745853</v>
+        <v>22879167</v>
       </c>
       <c r="C36">
-        <v>13879852</v>
+        <v>13741130</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5424,13 +5501,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>15384196</v>
+        <v>17389604</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>27065063</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>13015437</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -5442,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>13929401</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -5465,60 +5542,119 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B37">
+        <v>24745853</v>
+      </c>
+      <c r="C37">
+        <v>13879852</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>15384196</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="2">
         <v>44391</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>27065063</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>13015437</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>13929401</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,1630 +556,1630 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="B2">
-        <v>301078</v>
+        <v>310234</v>
       </c>
       <c r="C2">
-        <v>41780</v>
+        <v>36199</v>
       </c>
       <c r="D2">
-        <v>141855</v>
+        <v>151285</v>
       </c>
       <c r="E2">
-        <v>162770</v>
+        <v>177731</v>
       </c>
       <c r="F2">
-        <v>747670</v>
+        <v>919400</v>
       </c>
       <c r="G2">
-        <v>1052295</v>
+        <v>1248416</v>
       </c>
       <c r="H2">
-        <v>5247</v>
+        <v>4164</v>
       </c>
       <c r="I2">
-        <v>856</v>
+        <v>672</v>
       </c>
       <c r="J2">
-        <v>2990</v>
+        <v>2153</v>
       </c>
       <c r="K2">
-        <v>1293</v>
+        <v>1109</v>
       </c>
       <c r="L2">
-        <v>9812</v>
+        <v>9438</v>
       </c>
       <c r="M2">
-        <v>14095</v>
+        <v>12700</v>
       </c>
       <c r="N2">
-        <v>381</v>
+        <v>272</v>
       </c>
       <c r="O2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P2">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="Q2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="R2">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="S2">
-        <v>657</v>
+        <v>595</v>
       </c>
       <c r="T2">
-        <v>1552</v>
+        <v>1149</v>
       </c>
       <c r="U2">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="V2">
-        <v>1004</v>
+        <v>654</v>
       </c>
       <c r="W2">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="X2">
-        <v>2022</v>
+        <v>1688</v>
       </c>
       <c r="Y2">
-        <v>3228</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="B3">
-        <v>320381</v>
+        <v>301078</v>
       </c>
       <c r="C3">
-        <v>52934</v>
+        <v>41780</v>
       </c>
       <c r="D3">
-        <v>146615</v>
+        <v>141855</v>
       </c>
       <c r="E3">
-        <v>154589</v>
+        <v>162770</v>
       </c>
       <c r="F3">
-        <v>602042</v>
+        <v>747670</v>
       </c>
       <c r="G3">
-        <v>903246</v>
+        <v>1052295</v>
       </c>
       <c r="H3">
-        <v>7093</v>
+        <v>5247</v>
       </c>
       <c r="I3">
-        <v>1082</v>
+        <v>856</v>
       </c>
       <c r="J3">
-        <v>4424</v>
+        <v>2990</v>
       </c>
       <c r="K3">
-        <v>1654</v>
+        <v>1293</v>
       </c>
       <c r="L3">
-        <v>10840</v>
+        <v>9812</v>
       </c>
       <c r="M3">
-        <v>16918</v>
+        <v>14095</v>
       </c>
       <c r="N3">
-        <v>549</v>
+        <v>381</v>
       </c>
       <c r="O3">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P3">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="Q3">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="R3">
-        <v>506</v>
+        <v>452</v>
       </c>
       <c r="S3">
-        <v>808</v>
+        <v>657</v>
       </c>
       <c r="T3">
-        <v>2117</v>
+        <v>1552</v>
       </c>
       <c r="U3">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="V3">
-        <v>1489</v>
+        <v>1004</v>
       </c>
       <c r="W3">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="X3">
-        <v>2356</v>
+        <v>2022</v>
       </c>
       <c r="Y3">
-        <v>4109</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="B4">
-        <v>263373</v>
+        <v>320381</v>
       </c>
       <c r="C4">
-        <v>44050</v>
+        <v>52934</v>
       </c>
       <c r="D4">
-        <v>195682</v>
+        <v>146615</v>
       </c>
       <c r="E4">
-        <v>147602</v>
+        <v>154589</v>
       </c>
       <c r="F4">
-        <v>569292</v>
+        <v>602042</v>
       </c>
       <c r="G4">
-        <v>912576</v>
+        <v>903246</v>
       </c>
       <c r="H4">
-        <v>8894</v>
+        <v>7093</v>
       </c>
       <c r="I4">
-        <v>1220</v>
+        <v>1082</v>
       </c>
       <c r="J4">
-        <v>6443</v>
+        <v>4424</v>
       </c>
       <c r="K4">
-        <v>2105</v>
+        <v>1654</v>
       </c>
       <c r="L4">
-        <v>11808</v>
+        <v>10840</v>
       </c>
       <c r="M4">
-        <v>20356</v>
+        <v>16918</v>
       </c>
       <c r="N4">
-        <v>720</v>
+        <v>549</v>
       </c>
       <c r="O4">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P4">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="Q4">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="R4">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="S4">
-        <v>950</v>
+        <v>808</v>
       </c>
       <c r="T4">
-        <v>2655</v>
+        <v>2117</v>
       </c>
       <c r="U4">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="V4">
-        <v>2075</v>
+        <v>1489</v>
       </c>
       <c r="W4">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="X4">
-        <v>2613</v>
+        <v>2356</v>
       </c>
       <c r="Y4">
-        <v>4991</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B5">
-        <v>362240</v>
+        <v>263373</v>
       </c>
       <c r="C5">
-        <v>61074</v>
+        <v>44050</v>
       </c>
       <c r="D5">
-        <v>316885</v>
+        <v>195682</v>
       </c>
       <c r="E5">
-        <v>210897</v>
+        <v>147602</v>
       </c>
       <c r="F5">
-        <v>617287</v>
+        <v>569292</v>
       </c>
       <c r="G5">
-        <v>1145069</v>
+        <v>912576</v>
       </c>
       <c r="H5">
-        <v>11144</v>
+        <v>8894</v>
       </c>
       <c r="I5">
-        <v>1422</v>
+        <v>1220</v>
       </c>
       <c r="J5">
-        <v>9008</v>
+        <v>6443</v>
       </c>
       <c r="K5">
-        <v>2676</v>
+        <v>2105</v>
       </c>
       <c r="L5">
-        <v>12272</v>
+        <v>11808</v>
       </c>
       <c r="M5">
-        <v>23956</v>
+        <v>20356</v>
       </c>
       <c r="N5">
-        <v>941</v>
+        <v>720</v>
       </c>
       <c r="O5">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P5">
-        <v>470</v>
+        <v>319</v>
       </c>
       <c r="Q5">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="R5">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="S5">
-        <v>1134</v>
+        <v>950</v>
       </c>
       <c r="T5">
-        <v>3198</v>
+        <v>2655</v>
       </c>
       <c r="U5">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="V5">
-        <v>2507</v>
+        <v>2075</v>
       </c>
       <c r="W5">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="X5">
-        <v>2677</v>
+        <v>2613</v>
       </c>
       <c r="Y5">
-        <v>5521</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B6">
-        <v>503511</v>
+        <v>362240</v>
       </c>
       <c r="C6">
-        <v>81921</v>
+        <v>61074</v>
       </c>
       <c r="D6">
-        <v>543352</v>
+        <v>316885</v>
       </c>
       <c r="E6">
-        <v>313619</v>
+        <v>210897</v>
       </c>
       <c r="F6">
-        <v>682585</v>
+        <v>617287</v>
       </c>
       <c r="G6">
-        <v>1539556</v>
+        <v>1145069</v>
       </c>
       <c r="H6">
-        <v>13534</v>
+        <v>11144</v>
       </c>
       <c r="I6">
-        <v>1516</v>
+        <v>1422</v>
       </c>
       <c r="J6">
-        <v>11607</v>
+        <v>9008</v>
       </c>
       <c r="K6">
-        <v>3210</v>
+        <v>2676</v>
       </c>
       <c r="L6">
-        <v>12271</v>
+        <v>12272</v>
       </c>
       <c r="M6">
-        <v>27088</v>
+        <v>23956</v>
       </c>
       <c r="N6">
-        <v>1261</v>
+        <v>941</v>
       </c>
       <c r="O6">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P6">
-        <v>617</v>
+        <v>470</v>
       </c>
       <c r="Q6">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="R6">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="S6">
-        <v>1304</v>
+        <v>1134</v>
       </c>
       <c r="T6">
-        <v>3470</v>
+        <v>3198</v>
       </c>
       <c r="U6">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="V6">
-        <v>2795</v>
+        <v>2507</v>
       </c>
       <c r="W6">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="X6">
-        <v>2403</v>
+        <v>2677</v>
       </c>
       <c r="Y6">
-        <v>5527</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B7">
-        <v>642419</v>
+        <v>503511</v>
       </c>
       <c r="C7">
-        <v>102315</v>
+        <v>81921</v>
       </c>
       <c r="D7">
-        <v>848833</v>
+        <v>543352</v>
       </c>
       <c r="E7">
-        <v>439413</v>
+        <v>313619</v>
       </c>
       <c r="F7">
-        <v>717143</v>
+        <v>682585</v>
       </c>
       <c r="G7">
-        <v>2005389</v>
+        <v>1539556</v>
       </c>
       <c r="H7">
-        <v>15012</v>
+        <v>13534</v>
       </c>
       <c r="I7">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="J7">
-        <v>13660</v>
+        <v>11607</v>
       </c>
       <c r="K7">
-        <v>3480</v>
+        <v>3210</v>
       </c>
       <c r="L7">
-        <v>11075</v>
+        <v>12271</v>
       </c>
       <c r="M7">
-        <v>28215</v>
+        <v>27088</v>
       </c>
       <c r="N7">
-        <v>1524</v>
+        <v>1261</v>
       </c>
       <c r="O7">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P7">
-        <v>736</v>
+        <v>617</v>
       </c>
       <c r="Q7">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="R7">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="S7">
-        <v>1350</v>
+        <v>1304</v>
       </c>
       <c r="T7">
-        <v>3357</v>
+        <v>3470</v>
       </c>
       <c r="U7">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="V7">
-        <v>2757</v>
+        <v>2795</v>
       </c>
       <c r="W7">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="X7">
-        <v>1918</v>
+        <v>2403</v>
       </c>
       <c r="Y7">
-        <v>4952</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B8">
-        <v>777547</v>
+        <v>642419</v>
       </c>
       <c r="C8">
-        <v>127486</v>
+        <v>102315</v>
       </c>
       <c r="D8">
-        <v>1249396</v>
+        <v>848833</v>
       </c>
       <c r="E8">
-        <v>597335</v>
+        <v>439413</v>
       </c>
       <c r="F8">
-        <v>738378</v>
+        <v>717143</v>
       </c>
       <c r="G8">
-        <v>2585109</v>
+        <v>2005389</v>
       </c>
       <c r="H8">
-        <v>15695</v>
+        <v>15012</v>
       </c>
       <c r="I8">
-        <v>1437</v>
+        <v>1532</v>
       </c>
       <c r="J8">
-        <v>14598</v>
+        <v>13660</v>
       </c>
       <c r="K8">
-        <v>3426</v>
+        <v>3480</v>
       </c>
       <c r="L8">
-        <v>9017</v>
+        <v>11075</v>
       </c>
       <c r="M8">
-        <v>27041</v>
+        <v>28215</v>
       </c>
       <c r="N8">
-        <v>1716</v>
+        <v>1524</v>
       </c>
       <c r="O8">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P8">
-        <v>803</v>
+        <v>736</v>
       </c>
       <c r="Q8">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="R8">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="S8">
-        <v>1306</v>
+        <v>1350</v>
       </c>
       <c r="T8">
-        <v>3144</v>
+        <v>3357</v>
       </c>
       <c r="U8">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="V8">
-        <v>2508</v>
+        <v>2757</v>
       </c>
       <c r="W8">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="X8">
-        <v>1331</v>
+        <v>1918</v>
       </c>
       <c r="Y8">
-        <v>4071</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B9">
-        <v>809625</v>
+        <v>777547</v>
       </c>
       <c r="C9">
-        <v>137850</v>
+        <v>127486</v>
       </c>
       <c r="D9">
-        <v>1532777</v>
+        <v>1249396</v>
       </c>
       <c r="E9">
-        <v>687597</v>
+        <v>597335</v>
       </c>
       <c r="F9">
-        <v>672910</v>
+        <v>738378</v>
       </c>
       <c r="G9">
-        <v>2893284</v>
+        <v>2585109</v>
       </c>
       <c r="H9">
-        <v>15049</v>
+        <v>15695</v>
       </c>
       <c r="I9">
-        <v>1240</v>
+        <v>1437</v>
       </c>
       <c r="J9">
-        <v>13663</v>
+        <v>14598</v>
       </c>
       <c r="K9">
-        <v>2915</v>
+        <v>3426</v>
       </c>
       <c r="L9">
-        <v>6606</v>
+        <v>9017</v>
       </c>
       <c r="M9">
-        <v>23184</v>
+        <v>27041</v>
       </c>
       <c r="N9">
-        <v>1792</v>
+        <v>1716</v>
       </c>
       <c r="O9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P9">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="Q9">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="R9">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="S9">
-        <v>1166</v>
+        <v>1306</v>
       </c>
       <c r="T9">
-        <v>2632</v>
+        <v>3144</v>
       </c>
       <c r="U9">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="V9">
-        <v>2172</v>
+        <v>2508</v>
       </c>
       <c r="W9">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="X9">
-        <v>814</v>
+        <v>1331</v>
       </c>
       <c r="Y9">
-        <v>3168</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B10">
-        <v>703732</v>
+        <v>809625</v>
       </c>
       <c r="C10">
-        <v>127478</v>
+        <v>137850</v>
       </c>
       <c r="D10">
-        <v>1544092</v>
+        <v>1532777</v>
       </c>
       <c r="E10">
-        <v>640805</v>
+        <v>687597</v>
       </c>
       <c r="F10">
-        <v>521657</v>
+        <v>672910</v>
       </c>
       <c r="G10">
-        <v>2706554</v>
+        <v>2893284</v>
       </c>
       <c r="H10">
-        <v>13946</v>
+        <v>15049</v>
       </c>
       <c r="I10">
-        <v>989</v>
+        <v>1240</v>
       </c>
       <c r="J10">
-        <v>11934</v>
+        <v>13663</v>
       </c>
       <c r="K10">
-        <v>2225</v>
+        <v>2915</v>
       </c>
       <c r="L10">
-        <v>4177</v>
+        <v>6606</v>
       </c>
       <c r="M10">
-        <v>18336</v>
+        <v>23184</v>
       </c>
       <c r="N10">
-        <v>1753</v>
+        <v>1792</v>
       </c>
       <c r="O10">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P10">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="Q10">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="R10">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="S10">
-        <v>1014</v>
+        <v>1166</v>
       </c>
       <c r="T10">
-        <v>2120</v>
+        <v>2632</v>
       </c>
       <c r="U10">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="V10">
-        <v>1805</v>
+        <v>2172</v>
       </c>
       <c r="W10">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="X10">
-        <v>432</v>
+        <v>814</v>
       </c>
       <c r="Y10">
-        <v>2375</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B11">
-        <v>555697</v>
+        <v>703732</v>
       </c>
       <c r="C11">
-        <v>102729</v>
+        <v>127478</v>
       </c>
       <c r="D11">
-        <v>1320086</v>
+        <v>1544092</v>
       </c>
       <c r="E11">
-        <v>527687</v>
+        <v>640805</v>
       </c>
       <c r="F11">
-        <v>358530</v>
+        <v>521657</v>
       </c>
       <c r="G11">
-        <v>2206303</v>
+        <v>2706554</v>
       </c>
       <c r="H11">
-        <v>11487</v>
+        <v>13946</v>
       </c>
       <c r="I11">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="J11">
-        <v>9435</v>
+        <v>11934</v>
       </c>
       <c r="K11">
-        <v>1499</v>
+        <v>2225</v>
       </c>
       <c r="L11">
-        <v>2066</v>
+        <v>4177</v>
       </c>
       <c r="M11">
-        <v>13000</v>
+        <v>18336</v>
       </c>
       <c r="N11">
-        <v>1557</v>
+        <v>1753</v>
       </c>
       <c r="O11">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P11">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="Q11">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R11">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="S11">
-        <v>809</v>
+        <v>1014</v>
       </c>
       <c r="T11">
-        <v>1774</v>
+        <v>2120</v>
       </c>
       <c r="U11">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="V11">
-        <v>1541</v>
+        <v>1805</v>
       </c>
       <c r="W11">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="X11">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="Y11">
-        <v>1863</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B12">
-        <v>395424</v>
+        <v>555697</v>
       </c>
       <c r="C12">
-        <v>68050</v>
+        <v>102729</v>
       </c>
       <c r="D12">
-        <v>955924</v>
+        <v>1320086</v>
       </c>
       <c r="E12">
-        <v>364078</v>
+        <v>527687</v>
       </c>
       <c r="F12">
-        <v>200146</v>
+        <v>358530</v>
       </c>
       <c r="G12">
-        <v>1520148</v>
+        <v>2206303</v>
       </c>
       <c r="H12">
-        <v>9564</v>
+        <v>11487</v>
       </c>
       <c r="I12">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="J12">
-        <v>7594</v>
+        <v>9435</v>
       </c>
       <c r="K12">
-        <v>1055</v>
+        <v>1499</v>
       </c>
       <c r="L12">
-        <v>955</v>
+        <v>2066</v>
       </c>
       <c r="M12">
-        <v>9604</v>
+        <v>13000</v>
       </c>
       <c r="N12">
-        <v>1368</v>
+        <v>1557</v>
       </c>
       <c r="O12">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P12">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="Q12">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R12">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="S12">
-        <v>663</v>
+        <v>809</v>
       </c>
       <c r="T12">
-        <v>1443</v>
+        <v>1774</v>
       </c>
       <c r="U12">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="V12">
-        <v>1370</v>
+        <v>1541</v>
       </c>
       <c r="W12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X12">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="Y12">
-        <v>1606</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B13">
-        <v>251412</v>
+        <v>395424</v>
       </c>
       <c r="C13">
-        <v>34617</v>
+        <v>68050</v>
       </c>
       <c r="D13">
-        <v>547518</v>
+        <v>955924</v>
       </c>
       <c r="E13">
-        <v>195560</v>
+        <v>364078</v>
       </c>
       <c r="F13">
-        <v>79260</v>
+        <v>200146</v>
       </c>
       <c r="G13">
-        <v>822338</v>
+        <v>1520148</v>
       </c>
       <c r="H13">
-        <v>8278</v>
+        <v>9564</v>
       </c>
       <c r="I13">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="J13">
-        <v>6612</v>
+        <v>7594</v>
       </c>
       <c r="K13">
-        <v>905</v>
+        <v>1055</v>
       </c>
       <c r="L13">
-        <v>546</v>
+        <v>955</v>
       </c>
       <c r="M13">
-        <v>8063</v>
+        <v>9604</v>
       </c>
       <c r="N13">
-        <v>1202</v>
+        <v>1368</v>
       </c>
       <c r="O13">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P13">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="Q13">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R13">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S13">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="T13">
-        <v>1170</v>
+        <v>1443</v>
       </c>
       <c r="U13">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V13">
-        <v>1298</v>
+        <v>1370</v>
       </c>
       <c r="W13">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X13">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Y13">
-        <v>1489</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B14">
-        <v>170551</v>
+        <v>251412</v>
       </c>
       <c r="C14">
-        <v>14491</v>
+        <v>34617</v>
       </c>
       <c r="D14">
-        <v>265724</v>
+        <v>547518</v>
       </c>
       <c r="E14">
-        <v>99757</v>
+        <v>195560</v>
       </c>
       <c r="F14">
-        <v>20375</v>
+        <v>79260</v>
       </c>
       <c r="G14">
-        <v>385856</v>
+        <v>822338</v>
       </c>
       <c r="H14">
-        <v>7059</v>
+        <v>8278</v>
       </c>
       <c r="I14">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J14">
-        <v>5927</v>
+        <v>6612</v>
       </c>
       <c r="K14">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="L14">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="M14">
-        <v>7229</v>
+        <v>8063</v>
       </c>
       <c r="N14">
-        <v>1036</v>
+        <v>1202</v>
       </c>
       <c r="O14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="Q14">
+        <v>72</v>
+      </c>
+      <c r="R14">
+        <v>46</v>
+      </c>
+      <c r="S14">
+        <v>614</v>
+      </c>
+      <c r="T14">
+        <v>1170</v>
+      </c>
+      <c r="U14">
         <v>89</v>
       </c>
-      <c r="R14">
-        <v>33</v>
-      </c>
-      <c r="S14">
-        <v>555</v>
-      </c>
-      <c r="T14">
-        <v>994</v>
-      </c>
-      <c r="U14">
-        <v>75</v>
-      </c>
       <c r="V14">
-        <v>1108</v>
+        <v>1298</v>
       </c>
       <c r="W14">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="X14">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Y14">
-        <v>1262</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B15">
-        <v>140677</v>
+        <v>170551</v>
       </c>
       <c r="C15">
-        <v>9069</v>
+        <v>14491</v>
       </c>
       <c r="D15">
-        <v>91366</v>
+        <v>265724</v>
       </c>
       <c r="E15">
-        <v>155978</v>
+        <v>99757</v>
       </c>
       <c r="F15">
-        <v>7655</v>
+        <v>20375</v>
       </c>
       <c r="G15">
-        <v>254999</v>
+        <v>385856</v>
       </c>
       <c r="H15">
-        <v>5944</v>
+        <v>7059</v>
       </c>
       <c r="I15">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J15">
-        <v>4047</v>
+        <v>5927</v>
       </c>
       <c r="K15">
-        <v>2065</v>
+        <v>934</v>
       </c>
       <c r="L15">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="M15">
-        <v>6384</v>
+        <v>7229</v>
       </c>
       <c r="N15">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="O15">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P15">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="Q15">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="R15">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S15">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="T15">
-        <v>839</v>
+        <v>994</v>
       </c>
       <c r="U15">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="V15">
-        <v>838</v>
+        <v>1108</v>
       </c>
       <c r="W15">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="X15">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Y15">
-        <v>1105</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B16">
-        <v>114674</v>
+        <v>140677</v>
       </c>
       <c r="C16">
-        <v>7107</v>
+        <v>9069</v>
       </c>
       <c r="D16">
-        <v>71563</v>
+        <v>91366</v>
       </c>
       <c r="E16">
-        <v>122505</v>
+        <v>155978</v>
       </c>
       <c r="F16">
-        <v>4219</v>
+        <v>7655</v>
       </c>
       <c r="G16">
-        <v>198287</v>
+        <v>254999</v>
       </c>
       <c r="H16">
-        <v>5081</v>
+        <v>5944</v>
       </c>
       <c r="I16">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="J16">
-        <v>3432</v>
+        <v>4047</v>
       </c>
       <c r="K16">
-        <v>1843</v>
+        <v>2065</v>
       </c>
       <c r="L16">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="M16">
-        <v>5451</v>
+        <v>6384</v>
       </c>
       <c r="N16">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="O16">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P16">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q16">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="R16">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S16">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="T16">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="U16">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V16">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="W16">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="X16">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Y16">
-        <v>991</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B17">
-        <v>93220</v>
+        <v>114674</v>
       </c>
       <c r="C17">
-        <v>6181</v>
+        <v>7107</v>
       </c>
       <c r="D17">
-        <v>57054</v>
+        <v>71563</v>
       </c>
       <c r="E17">
-        <v>102245</v>
+        <v>122505</v>
       </c>
       <c r="F17">
-        <v>2652</v>
+        <v>4219</v>
       </c>
       <c r="G17">
-        <v>161951</v>
+        <v>198287</v>
       </c>
       <c r="H17">
-        <v>4402</v>
+        <v>5081</v>
       </c>
       <c r="I17">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="J17">
-        <v>2916</v>
+        <v>3432</v>
       </c>
       <c r="K17">
-        <v>1616</v>
+        <v>1843</v>
       </c>
       <c r="L17">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="M17">
-        <v>4653</v>
+        <v>5451</v>
       </c>
       <c r="N17">
-        <v>618</v>
+        <v>747</v>
       </c>
       <c r="O17">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P17">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q17">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S17">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="T17">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="U17">
+        <v>42</v>
+      </c>
+      <c r="V17">
+        <v>745</v>
+      </c>
+      <c r="W17">
+        <v>257</v>
+      </c>
+      <c r="X17">
         <v>29</v>
       </c>
-      <c r="V17">
-        <v>604</v>
-      </c>
-      <c r="W17">
-        <v>186</v>
-      </c>
-      <c r="X17">
-        <v>17</v>
-      </c>
       <c r="Y17">
-        <v>807</v>
+        <v>991</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B18">
-        <v>75512</v>
+        <v>93220</v>
       </c>
       <c r="C18">
-        <v>5587</v>
+        <v>6181</v>
       </c>
       <c r="D18">
-        <v>44023</v>
+        <v>57054</v>
       </c>
       <c r="E18">
-        <v>82755</v>
+        <v>102245</v>
       </c>
       <c r="F18">
-        <v>1710</v>
+        <v>2652</v>
       </c>
       <c r="G18">
-        <v>128488</v>
+        <v>161951</v>
       </c>
       <c r="H18">
-        <v>3733</v>
+        <v>4402</v>
       </c>
       <c r="I18">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J18">
-        <v>2336</v>
+        <v>2916</v>
       </c>
       <c r="K18">
-        <v>1435</v>
+        <v>1616</v>
       </c>
       <c r="L18">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M18">
-        <v>3845</v>
+        <v>4653</v>
       </c>
       <c r="N18">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="O18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P18">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q18">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="R18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S18">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="T18">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="U18">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V18">
-        <v>482</v>
+        <v>604</v>
       </c>
       <c r="W18">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="X18">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y18">
-        <v>690</v>
+        <v>807</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B19">
-        <v>61908</v>
+        <v>75512</v>
       </c>
       <c r="C19">
-        <v>4260</v>
+        <v>5587</v>
       </c>
       <c r="D19">
-        <v>15519</v>
+        <v>44023</v>
       </c>
       <c r="E19">
-        <v>81740</v>
+        <v>82755</v>
       </c>
       <c r="F19">
-        <v>969</v>
+        <v>1710</v>
       </c>
       <c r="G19">
-        <v>98228</v>
+        <v>128488</v>
       </c>
       <c r="H19">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="I19">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J19">
-        <v>1187</v>
+        <v>2336</v>
       </c>
       <c r="K19">
-        <v>2437</v>
+        <v>1435</v>
       </c>
       <c r="L19">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M19">
-        <v>3693</v>
+        <v>3845</v>
       </c>
       <c r="N19">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="O19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P19">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="Q19">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="R19">
         <v>3</v>
       </c>
       <c r="S19">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="T19">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="U19">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="V19">
-        <v>191</v>
+        <v>482</v>
       </c>
       <c r="W19">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="X19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Y19">
-        <v>555</v>
+        <v>690</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B20">
-        <v>50564</v>
+        <v>61908</v>
       </c>
       <c r="C20">
-        <v>3980</v>
+        <v>4260</v>
       </c>
       <c r="D20">
-        <v>11215</v>
+        <v>15519</v>
       </c>
       <c r="E20">
-        <v>60407</v>
+        <v>81740</v>
       </c>
       <c r="F20">
-        <v>537</v>
+        <v>969</v>
       </c>
       <c r="G20">
-        <v>72159</v>
+        <v>98228</v>
       </c>
       <c r="H20">
-        <v>3220</v>
+        <v>3737</v>
       </c>
       <c r="I20">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J20">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="K20">
-        <v>2075</v>
+        <v>2437</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M20">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="N20">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="O20">
         <v>14</v>
       </c>
       <c r="P20">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q20">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S20">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="T20">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="U20">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V20">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="W20">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y20">
-        <v>444</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B21">
-        <v>40182</v>
+        <v>50564</v>
       </c>
       <c r="C21">
-        <v>3466</v>
+        <v>3980</v>
       </c>
       <c r="D21">
-        <v>8088</v>
+        <v>11215</v>
       </c>
       <c r="E21">
-        <v>43928</v>
+        <v>60407</v>
       </c>
       <c r="F21">
-        <v>286</v>
+        <v>537</v>
       </c>
       <c r="G21">
-        <v>52302</v>
+        <v>72159</v>
       </c>
       <c r="H21">
-        <v>2890</v>
+        <v>3220</v>
       </c>
       <c r="I21">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J21">
-        <v>618</v>
+        <v>826</v>
       </c>
       <c r="K21">
-        <v>1774</v>
+        <v>2075</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>2409</v>
+        <v>2936</v>
       </c>
       <c r="N21">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="O21">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P21">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q21">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="T21">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="U21">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V21">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="W21">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B22">
-        <v>35398</v>
+        <v>40182</v>
       </c>
       <c r="C22">
-        <v>3207</v>
+        <v>3466</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>43928</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G22">
-        <v>40991</v>
+        <v>52302</v>
       </c>
       <c r="H22">
-        <v>2696</v>
+        <v>2890</v>
       </c>
       <c r="I22">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>2037</v>
+        <v>2409</v>
       </c>
       <c r="N22">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="O22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="T22">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="U22">
         <v>27</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B23">
-        <v>34128</v>
+        <v>35398</v>
       </c>
       <c r="C23">
-        <v>3421</v>
+        <v>3207</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2191,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>34131</v>
+        <v>40991</v>
       </c>
       <c r="H23">
-        <v>2845</v>
+        <v>2696</v>
       </c>
       <c r="I23">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1815</v>
+        <v>2037</v>
       </c>
       <c r="N23">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="O23">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="T23">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="U23">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2245,18 +2245,18 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B24">
-        <v>36194</v>
+        <v>34128</v>
       </c>
       <c r="C24">
-        <v>4127</v>
+        <v>3421</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>31514</v>
+        <v>34131</v>
       </c>
       <c r="H24">
-        <v>3396</v>
+        <v>2845</v>
       </c>
       <c r="I24">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1954</v>
+        <v>1815</v>
       </c>
       <c r="N24">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="O24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2304,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="T24">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="U24">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2322,18 +2322,18 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>511</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B25">
-        <v>45790</v>
+        <v>36194</v>
       </c>
       <c r="C25">
-        <v>5352</v>
+        <v>4127</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>33496</v>
+        <v>31514</v>
       </c>
       <c r="H25">
-        <v>4274</v>
+        <v>3396</v>
       </c>
       <c r="I25">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="N25">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="O25">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T25">
-        <v>775</v>
+        <v>636</v>
       </c>
       <c r="U25">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2399,18 +2399,18 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>578</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B26">
-        <v>56808</v>
+        <v>45790</v>
       </c>
       <c r="C26">
-        <v>6952</v>
+        <v>5352</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>36529</v>
+        <v>33496</v>
       </c>
       <c r="H26">
-        <v>5224</v>
+        <v>4274</v>
       </c>
       <c r="I26">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>2268</v>
+        <v>2133</v>
       </c>
       <c r="N26">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="O26">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="T26">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="U26">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2476,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B27">
-        <v>70900</v>
+        <v>56808</v>
       </c>
       <c r="C27">
-        <v>9284</v>
+        <v>6952</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>40060</v>
+        <v>36529</v>
       </c>
       <c r="H27">
-        <v>6160</v>
+        <v>5224</v>
       </c>
       <c r="I27">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>2418</v>
+        <v>2268</v>
       </c>
       <c r="N27">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="O27">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T27">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="U27">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2553,18 +2553,18 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B28">
-        <v>86133</v>
+        <v>70900</v>
       </c>
       <c r="C28">
-        <v>11735</v>
+        <v>9284</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>44050</v>
+        <v>40060</v>
       </c>
       <c r="H28">
-        <v>6782</v>
+        <v>6160</v>
       </c>
       <c r="I28">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>2456</v>
+        <v>2418</v>
       </c>
       <c r="N28">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="O28">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2612,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T28">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="U28">
         <v>57</v>
@@ -2630,18 +2630,18 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>509</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B29">
-        <v>96900</v>
+        <v>86133</v>
       </c>
       <c r="C29">
-        <v>13728</v>
+        <v>11735</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>44990</v>
+        <v>44050</v>
       </c>
       <c r="H29">
-        <v>6841</v>
+        <v>6782</v>
       </c>
       <c r="I29">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>2331</v>
+        <v>2456</v>
       </c>
       <c r="N29">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="O29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="T29">
-        <v>770</v>
+        <v>877</v>
       </c>
       <c r="U29">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2707,18 +2707,18 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>405</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B30">
-        <v>104890</v>
+        <v>96900</v>
       </c>
       <c r="C30">
-        <v>16129</v>
+        <v>13728</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>43775</v>
+        <v>44990</v>
       </c>
       <c r="H30">
-        <v>6579</v>
+        <v>6841</v>
       </c>
       <c r="I30">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>2118</v>
+        <v>2331</v>
       </c>
       <c r="N30">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="O30">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T30">
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="U30">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2784,18 +2784,18 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>280</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B31">
-        <v>107937</v>
+        <v>104890</v>
       </c>
       <c r="C31">
-        <v>18925</v>
+        <v>16129</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>40380</v>
+        <v>43775</v>
       </c>
       <c r="H31">
-        <v>5988</v>
+        <v>6579</v>
       </c>
       <c r="I31">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>1788</v>
+        <v>2118</v>
       </c>
       <c r="N31">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="O31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="T31">
-        <v>383</v>
+        <v>571</v>
       </c>
       <c r="U31">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2861,18 +2861,18 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B32">
-        <v>104405</v>
+        <v>107937</v>
       </c>
       <c r="C32">
-        <v>21703</v>
+        <v>18925</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2884,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>33894</v>
+        <v>40380</v>
       </c>
       <c r="H32">
-        <v>5162</v>
+        <v>5988</v>
       </c>
       <c r="I32">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>1349</v>
+        <v>1788</v>
       </c>
       <c r="N32">
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="O32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="T32">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="U32">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2938,18 +2938,18 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>92</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B33">
-        <v>95261</v>
+        <v>104405</v>
       </c>
       <c r="C33">
-        <v>22568</v>
+        <v>21703</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>24978</v>
+        <v>33894</v>
       </c>
       <c r="H33">
-        <v>4052</v>
+        <v>5162</v>
       </c>
       <c r="I33">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2979,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>959</v>
+        <v>1349</v>
       </c>
       <c r="N33">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="O33">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="T33">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="U33">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3015,18 +3015,18 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B34">
-        <v>80585</v>
+        <v>95261</v>
       </c>
       <c r="C34">
-        <v>21570</v>
+        <v>22568</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>18887</v>
+        <v>24978</v>
       </c>
       <c r="H34">
-        <v>3067</v>
+        <v>4052</v>
       </c>
       <c r="I34">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>627</v>
+        <v>959</v>
       </c>
       <c r="N34">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="O34">
         <v>22</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="T34">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="U34">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3092,18 +3092,18 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B35">
-        <v>60267</v>
+        <v>80585</v>
       </c>
       <c r="C35">
-        <v>17420</v>
+        <v>21570</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3115,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>12333</v>
+        <v>18887</v>
       </c>
       <c r="H35">
-        <v>2234</v>
+        <v>3067</v>
       </c>
       <c r="I35">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3133,13 +3133,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="N35">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="O35">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3151,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="T35">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="U35">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3174,13 +3174,13 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B36">
-        <v>40729</v>
+        <v>60267</v>
       </c>
       <c r="C36">
-        <v>12032</v>
+        <v>17420</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>7277</v>
+        <v>12333</v>
       </c>
       <c r="H36">
-        <v>1619</v>
+        <v>2234</v>
       </c>
       <c r="I36">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="N36">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="O36">
         <v>11</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T36">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="U36">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3246,18 +3246,18 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B37">
-        <v>26284</v>
+        <v>40729</v>
       </c>
       <c r="C37">
-        <v>6813</v>
+        <v>12032</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>3805</v>
+        <v>7277</v>
       </c>
       <c r="H37">
-        <v>1483</v>
+        <v>1619</v>
       </c>
       <c r="I37">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3287,13 +3287,13 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="N37">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O37">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -3305,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T37">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="U37">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3323,83 +3323,160 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B38">
+        <v>26284</v>
+      </c>
+      <c r="C38">
+        <v>6813</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>3805</v>
+      </c>
+      <c r="H38">
+        <v>1483</v>
+      </c>
+      <c r="I38">
+        <v>199</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>224</v>
+      </c>
+      <c r="N38">
+        <v>117</v>
+      </c>
+      <c r="O38">
+        <v>14</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>8</v>
+      </c>
+      <c r="T38">
+        <v>250</v>
+      </c>
+      <c r="U38">
+        <v>47</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="2">
         <v>44391</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>21089</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>3954</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>2310</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>1880</v>
       </c>
-      <c r="I38">
+      <c r="I39">
         <v>240</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
         <v>240</v>
       </c>
-      <c r="N38">
+      <c r="N39">
         <v>147</v>
       </c>
-      <c r="O38">
+      <c r="O39">
         <v>20</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
         <v>7</v>
       </c>
-      <c r="T38">
+      <c r="T39">
         <v>357</v>
       </c>
-      <c r="U38">
+      <c r="U39">
         <v>72</v>
       </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
         <v>68</v>
       </c>
     </row>
@@ -3410,7 +3487,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3477,1252 +3554,1252 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="B2">
-        <v>7102203</v>
+        <v>7051466</v>
       </c>
       <c r="C2">
-        <v>1513671</v>
+        <v>1299786</v>
       </c>
       <c r="D2">
-        <v>7446133</v>
+        <v>7294305</v>
       </c>
       <c r="E2">
-        <v>4823786</v>
+        <v>4675369</v>
       </c>
       <c r="F2">
-        <v>36780251</v>
+        <v>37345088</v>
       </c>
       <c r="G2">
-        <v>49050170</v>
+        <v>49314762</v>
       </c>
       <c r="H2">
-        <v>7343079</v>
+        <v>7184617</v>
       </c>
       <c r="I2">
-        <v>2062622</v>
+        <v>1767691</v>
       </c>
       <c r="J2">
-        <v>8368761</v>
+        <v>7676655</v>
       </c>
       <c r="K2">
-        <v>5136508</v>
+        <v>5034482</v>
       </c>
       <c r="L2">
-        <v>34755074</v>
+        <v>36002569</v>
       </c>
       <c r="M2">
-        <v>48260343</v>
+        <v>48713706</v>
       </c>
       <c r="N2">
-        <v>7588956</v>
+        <v>7340265</v>
       </c>
       <c r="O2">
-        <v>2253718</v>
+        <v>2060560</v>
       </c>
       <c r="P2">
-        <v>10013108</v>
+        <v>8369146</v>
       </c>
       <c r="Q2">
-        <v>5232435</v>
+        <v>5139369</v>
       </c>
       <c r="R2">
-        <v>32577827</v>
+        <v>34756674</v>
       </c>
       <c r="S2">
-        <v>47823370</v>
+        <v>48265189</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="B3">
-        <v>7188123</v>
+        <v>7102203</v>
       </c>
       <c r="C3">
-        <v>1774721</v>
+        <v>1513671</v>
       </c>
       <c r="D3">
-        <v>7675977</v>
+        <v>7446133</v>
       </c>
       <c r="E3">
-        <v>5027431</v>
+        <v>4823786</v>
       </c>
       <c r="F3">
-        <v>35999762</v>
+        <v>36780251</v>
       </c>
       <c r="G3">
-        <v>48703170</v>
+        <v>49050170</v>
       </c>
       <c r="H3">
-        <v>7589638</v>
+        <v>7343079</v>
       </c>
       <c r="I3">
-        <v>2256742</v>
+        <v>2062622</v>
       </c>
       <c r="J3">
-        <v>10012637</v>
+        <v>8368761</v>
       </c>
       <c r="K3">
-        <v>5229922</v>
+        <v>5136508</v>
       </c>
       <c r="L3">
-        <v>32577075</v>
+        <v>34755074</v>
       </c>
       <c r="M3">
-        <v>47819634</v>
+        <v>48260343</v>
       </c>
       <c r="N3">
-        <v>7902839</v>
+        <v>7588956</v>
       </c>
       <c r="O3">
-        <v>2289689</v>
+        <v>2253718</v>
       </c>
       <c r="P3">
-        <v>12148491</v>
+        <v>10013108</v>
       </c>
       <c r="Q3">
-        <v>5690505</v>
+        <v>5232435</v>
       </c>
       <c r="R3">
-        <v>29634490</v>
+        <v>32577827</v>
       </c>
       <c r="S3">
-        <v>47473486</v>
+        <v>47823370</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="B4">
-        <v>4922246</v>
+        <v>7188123</v>
       </c>
       <c r="C4">
-        <v>1504174</v>
+        <v>1774721</v>
       </c>
       <c r="D4">
-        <v>8369206</v>
+        <v>7675977</v>
       </c>
       <c r="E4">
-        <v>4462914</v>
+        <v>5027431</v>
       </c>
       <c r="F4">
-        <v>34751405</v>
+        <v>35999762</v>
       </c>
       <c r="G4">
-        <v>47583525</v>
+        <v>48703170</v>
       </c>
       <c r="H4">
-        <v>5237693</v>
+        <v>7589638</v>
       </c>
       <c r="I4">
-        <v>1603693</v>
+        <v>2256742</v>
       </c>
       <c r="J4">
-        <v>12148624</v>
+        <v>10012637</v>
       </c>
       <c r="K4">
-        <v>5387344</v>
+        <v>5229922</v>
       </c>
       <c r="L4">
-        <v>29632591</v>
+        <v>32577075</v>
       </c>
       <c r="M4">
-        <v>47168559</v>
+        <v>47819634</v>
       </c>
       <c r="N4">
-        <v>5475882</v>
+        <v>7902839</v>
       </c>
       <c r="O4">
-        <v>1574138</v>
+        <v>2289689</v>
       </c>
       <c r="P4">
-        <v>14562981</v>
+        <v>12148491</v>
       </c>
       <c r="Q4">
-        <v>6180953</v>
+        <v>5690505</v>
       </c>
       <c r="R4">
-        <v>26215991</v>
+        <v>29634490</v>
       </c>
       <c r="S4">
-        <v>46959925</v>
+        <v>47473486</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B5">
-        <v>5053954</v>
+        <v>4922246</v>
       </c>
       <c r="C5">
-        <v>1597892</v>
+        <v>1504174</v>
       </c>
       <c r="D5">
-        <v>10021741</v>
+        <v>8369206</v>
       </c>
       <c r="E5">
-        <v>4762640</v>
+        <v>4462914</v>
       </c>
       <c r="F5">
-        <v>32573718</v>
+        <v>34751405</v>
       </c>
       <c r="G5">
-        <v>47358099</v>
+        <v>47583525</v>
       </c>
       <c r="H5">
-        <v>5465398</v>
+        <v>5237693</v>
       </c>
       <c r="I5">
-        <v>1580627</v>
+        <v>1603693</v>
       </c>
       <c r="J5">
-        <v>14572377</v>
+        <v>12148624</v>
       </c>
       <c r="K5">
-        <v>6176719</v>
+        <v>5387344</v>
       </c>
       <c r="L5">
-        <v>26214824</v>
+        <v>29632591</v>
       </c>
       <c r="M5">
-        <v>46963920</v>
+        <v>47168559</v>
       </c>
       <c r="N5">
-        <v>5755897</v>
+        <v>5475882</v>
       </c>
       <c r="O5">
-        <v>1547981</v>
+        <v>1574138</v>
       </c>
       <c r="P5">
-        <v>17157988</v>
+        <v>14562981</v>
       </c>
       <c r="Q5">
-        <v>7039120</v>
+        <v>6180953</v>
       </c>
       <c r="R5">
-        <v>22508959</v>
+        <v>26215991</v>
       </c>
       <c r="S5">
-        <v>46706067</v>
+        <v>46959925</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B6">
-        <v>5229604</v>
+        <v>5053954</v>
       </c>
       <c r="C6">
-        <v>1618481</v>
+        <v>1597892</v>
       </c>
       <c r="D6">
-        <v>12157100</v>
+        <v>10021741</v>
       </c>
       <c r="E6">
-        <v>5375529</v>
+        <v>4762640</v>
       </c>
       <c r="F6">
-        <v>29629231</v>
+        <v>32573718</v>
       </c>
       <c r="G6">
-        <v>47161860</v>
+        <v>47358099</v>
       </c>
       <c r="H6">
-        <v>5758356</v>
+        <v>5465398</v>
       </c>
       <c r="I6">
-        <v>1551283</v>
+        <v>1580627</v>
       </c>
       <c r="J6">
-        <v>17157160</v>
+        <v>14572377</v>
       </c>
       <c r="K6">
-        <v>7035796</v>
+        <v>6176719</v>
       </c>
       <c r="L6">
-        <v>22507350</v>
+        <v>26214824</v>
       </c>
       <c r="M6">
-        <v>46700306</v>
+        <v>46963920</v>
       </c>
       <c r="N6">
-        <v>5927007</v>
+        <v>5755897</v>
       </c>
       <c r="O6">
-        <v>1592113</v>
+        <v>1547981</v>
       </c>
       <c r="P6">
-        <v>18793468</v>
+        <v>17157988</v>
       </c>
       <c r="Q6">
-        <v>8015572</v>
+        <v>7039120</v>
       </c>
       <c r="R6">
-        <v>19681785</v>
+        <v>22508959</v>
       </c>
       <c r="S6">
-        <v>46490825</v>
+        <v>46706067</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B7">
-        <v>5467098</v>
+        <v>5229604</v>
       </c>
       <c r="C7">
-        <v>1596811</v>
+        <v>1618481</v>
       </c>
       <c r="D7">
-        <v>14575900</v>
+        <v>12157100</v>
       </c>
       <c r="E7">
-        <v>6164226</v>
+        <v>5375529</v>
       </c>
       <c r="F7">
-        <v>26205910</v>
+        <v>29629231</v>
       </c>
       <c r="G7">
-        <v>46946036</v>
+        <v>47161860</v>
       </c>
       <c r="H7">
-        <v>5926909</v>
+        <v>5758356</v>
       </c>
       <c r="I7">
-        <v>1597860</v>
+        <v>1551283</v>
       </c>
       <c r="J7">
-        <v>18796851</v>
+        <v>17157160</v>
       </c>
       <c r="K7">
-        <v>8012376</v>
+        <v>7035796</v>
       </c>
       <c r="L7">
-        <v>19675949</v>
+        <v>22507350</v>
       </c>
       <c r="M7">
-        <v>46485176</v>
+        <v>46700306</v>
       </c>
       <c r="N7">
-        <v>6040050</v>
+        <v>5927007</v>
       </c>
       <c r="O7">
-        <v>1652417</v>
+        <v>1592113</v>
       </c>
       <c r="P7">
-        <v>20133986</v>
+        <v>18793468</v>
       </c>
       <c r="Q7">
-        <v>9055320</v>
+        <v>8015572</v>
       </c>
       <c r="R7">
-        <v>17128172</v>
+        <v>19681785</v>
       </c>
       <c r="S7">
-        <v>46317478</v>
+        <v>46490825</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B8">
-        <v>5610741</v>
+        <v>5467098</v>
       </c>
       <c r="C8">
-        <v>1575333</v>
+        <v>1596811</v>
       </c>
       <c r="D8">
-        <v>17279465</v>
+        <v>14575900</v>
       </c>
       <c r="E8">
-        <v>7025036</v>
+        <v>6164226</v>
       </c>
       <c r="F8">
-        <v>22519370</v>
+        <v>26205910</v>
       </c>
       <c r="G8">
-        <v>46823871</v>
+        <v>46946036</v>
       </c>
       <c r="H8">
-        <v>5893661</v>
+        <v>5926909</v>
       </c>
       <c r="I8">
-        <v>1663892</v>
+        <v>1597860</v>
       </c>
       <c r="J8">
-        <v>20257123</v>
+        <v>18796851</v>
       </c>
       <c r="K8">
-        <v>9057038</v>
+        <v>8012376</v>
       </c>
       <c r="L8">
-        <v>17138231</v>
+        <v>19675949</v>
       </c>
       <c r="M8">
-        <v>46452392</v>
+        <v>46485176</v>
       </c>
       <c r="N8">
-        <v>6038487</v>
+        <v>6040050</v>
       </c>
       <c r="O8">
-        <v>1684410</v>
+        <v>1652417</v>
       </c>
       <c r="P8">
-        <v>22158953</v>
+        <v>20133986</v>
       </c>
       <c r="Q8">
-        <v>9853675</v>
+        <v>9055320</v>
       </c>
       <c r="R8">
-        <v>14274420</v>
+        <v>17128172</v>
       </c>
       <c r="S8">
-        <v>46287048</v>
+        <v>46317478</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B9">
-        <v>5925943</v>
+        <v>5610741</v>
       </c>
       <c r="C9">
-        <v>1616298</v>
+        <v>1575333</v>
       </c>
       <c r="D9">
-        <v>18801609</v>
+        <v>17279465</v>
       </c>
       <c r="E9">
-        <v>7998741</v>
+        <v>7025036</v>
       </c>
       <c r="F9">
-        <v>19667354</v>
+        <v>22519370</v>
       </c>
       <c r="G9">
-        <v>46467704</v>
+        <v>46823871</v>
       </c>
       <c r="H9">
-        <v>6182863</v>
+        <v>5893661</v>
       </c>
       <c r="I9">
-        <v>1687002</v>
+        <v>1663892</v>
       </c>
       <c r="J9">
-        <v>22039408</v>
+        <v>20257123</v>
       </c>
       <c r="K9">
-        <v>9839532</v>
+        <v>9057038</v>
       </c>
       <c r="L9">
-        <v>14261140</v>
+        <v>17138231</v>
       </c>
       <c r="M9">
-        <v>46140080</v>
+        <v>46452392</v>
       </c>
       <c r="N9">
-        <v>6392072</v>
+        <v>6038487</v>
       </c>
       <c r="O9">
-        <v>1641693</v>
+        <v>1684410</v>
       </c>
       <c r="P9">
-        <v>24567729</v>
+        <v>22158953</v>
       </c>
       <c r="Q9">
-        <v>10413190</v>
+        <v>9853675</v>
       </c>
       <c r="R9">
-        <v>10995261</v>
+        <v>14274420</v>
       </c>
       <c r="S9">
-        <v>45976180</v>
+        <v>46287048</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B10">
-        <v>6113428</v>
+        <v>5925943</v>
       </c>
       <c r="C10">
-        <v>1676275</v>
+        <v>1616298</v>
       </c>
       <c r="D10">
-        <v>20106983</v>
+        <v>18801609</v>
       </c>
       <c r="E10">
-        <v>9023286</v>
+        <v>7998741</v>
       </c>
       <c r="F10">
-        <v>17089973</v>
+        <v>19667354</v>
       </c>
       <c r="G10">
-        <v>46220242</v>
+        <v>46467704</v>
       </c>
       <c r="H10">
-        <v>6466161</v>
+        <v>6182863</v>
       </c>
       <c r="I10">
-        <v>1644869</v>
+        <v>1687002</v>
       </c>
       <c r="J10">
-        <v>24530417</v>
+        <v>22039408</v>
       </c>
       <c r="K10">
-        <v>10394218</v>
+        <v>9839532</v>
       </c>
       <c r="L10">
-        <v>10974280</v>
+        <v>14261140</v>
       </c>
       <c r="M10">
-        <v>45898915</v>
+        <v>46140080</v>
       </c>
       <c r="N10">
-        <v>6710026</v>
+        <v>6392072</v>
       </c>
       <c r="O10">
-        <v>1549282</v>
+        <v>1641693</v>
       </c>
       <c r="P10">
-        <v>25990113</v>
+        <v>24567729</v>
       </c>
       <c r="Q10">
-        <v>11656265</v>
+        <v>10413190</v>
       </c>
       <c r="R10">
-        <v>8104259</v>
+        <v>10995261</v>
       </c>
       <c r="S10">
-        <v>45750637</v>
+        <v>45976180</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B11">
-        <v>6194434</v>
+        <v>6113428</v>
       </c>
       <c r="C11">
-        <v>1720841</v>
+        <v>1676275</v>
       </c>
       <c r="D11">
-        <v>22048677</v>
+        <v>20106983</v>
       </c>
       <c r="E11">
-        <v>9810639</v>
+        <v>9023286</v>
       </c>
       <c r="F11">
-        <v>14235354</v>
+        <v>17089973</v>
       </c>
       <c r="G11">
-        <v>46094670</v>
+        <v>46220242</v>
       </c>
       <c r="H11">
-        <v>6647970</v>
+        <v>6466161</v>
       </c>
       <c r="I11">
-        <v>1566179</v>
+        <v>1644869</v>
       </c>
       <c r="J11">
-        <v>26028307</v>
+        <v>24530417</v>
       </c>
       <c r="K11">
-        <v>11660101</v>
+        <v>10394218</v>
       </c>
       <c r="L11">
-        <v>8107388</v>
+        <v>10974280</v>
       </c>
       <c r="M11">
-        <v>45795796</v>
+        <v>45898915</v>
       </c>
       <c r="N11">
-        <v>6862315</v>
+        <v>6710026</v>
       </c>
       <c r="O11">
-        <v>1493790</v>
+        <v>1549282</v>
       </c>
       <c r="P11">
-        <v>26357835</v>
+        <v>25990113</v>
       </c>
       <c r="Q11">
-        <v>13596764</v>
+        <v>11656265</v>
       </c>
       <c r="R11">
-        <v>5699241</v>
+        <v>8104259</v>
       </c>
       <c r="S11">
-        <v>45653840</v>
+        <v>45750637</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B12">
-        <v>6414467</v>
+        <v>6194434</v>
       </c>
       <c r="C12">
-        <v>1678301</v>
+        <v>1720841</v>
       </c>
       <c r="D12">
-        <v>24562863</v>
+        <v>22048677</v>
       </c>
       <c r="E12">
-        <v>10381759</v>
+        <v>9810639</v>
       </c>
       <c r="F12">
-        <v>10972555</v>
+        <v>14235354</v>
       </c>
       <c r="G12">
-        <v>45917177</v>
+        <v>46094670</v>
       </c>
       <c r="H12">
-        <v>6876688</v>
+        <v>6647970</v>
       </c>
       <c r="I12">
-        <v>1504168</v>
+        <v>1566179</v>
       </c>
       <c r="J12">
-        <v>26348254</v>
+        <v>26028307</v>
       </c>
       <c r="K12">
-        <v>13585896</v>
+        <v>11660101</v>
       </c>
       <c r="L12">
-        <v>5694939</v>
+        <v>8107388</v>
       </c>
       <c r="M12">
-        <v>45629089</v>
+        <v>45795796</v>
       </c>
       <c r="N12">
-        <v>7031651</v>
+        <v>6862315</v>
       </c>
       <c r="O12">
-        <v>1502381</v>
+        <v>1493790</v>
       </c>
       <c r="P12">
-        <v>13119984</v>
+        <v>26357835</v>
       </c>
       <c r="Q12">
-        <v>28222661</v>
+        <v>13596764</v>
       </c>
       <c r="R12">
-        <v>4133267</v>
+        <v>5699241</v>
       </c>
       <c r="S12">
-        <v>45475912</v>
+        <v>45653840</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B13">
-        <v>6660263</v>
+        <v>6414467</v>
       </c>
       <c r="C13">
-        <v>1578764</v>
+        <v>1678301</v>
       </c>
       <c r="D13">
-        <v>26019483</v>
+        <v>24562863</v>
       </c>
       <c r="E13">
-        <v>11648617</v>
+        <v>10381759</v>
       </c>
       <c r="F13">
-        <v>8102818</v>
+        <v>10972555</v>
       </c>
       <c r="G13">
-        <v>45770918</v>
+        <v>45917177</v>
       </c>
       <c r="H13">
+        <v>6876688</v>
+      </c>
+      <c r="I13">
+        <v>1504168</v>
+      </c>
+      <c r="J13">
+        <v>26348254</v>
+      </c>
+      <c r="K13">
+        <v>13585896</v>
+      </c>
+      <c r="L13">
+        <v>5694939</v>
+      </c>
+      <c r="M13">
+        <v>45629089</v>
+      </c>
+      <c r="N13">
         <v>7031651</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>1502381</v>
       </c>
-      <c r="J13">
+      <c r="P13">
         <v>13119984</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <v>28222661</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <v>4133267</v>
       </c>
-      <c r="M13">
+      <c r="S13">
         <v>45475912</v>
-      </c>
-      <c r="N13">
-        <v>7160934</v>
-      </c>
-      <c r="O13">
-        <v>1577260</v>
-      </c>
-      <c r="P13">
-        <v>12254673</v>
-      </c>
-      <c r="Q13">
-        <v>29956598</v>
-      </c>
-      <c r="R13">
-        <v>3060479</v>
-      </c>
-      <c r="S13">
-        <v>45271750</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B14">
-        <v>6876688</v>
+        <v>6660263</v>
       </c>
       <c r="C14">
-        <v>1504168</v>
+        <v>1578764</v>
       </c>
       <c r="D14">
-        <v>26348254</v>
+        <v>26019483</v>
       </c>
       <c r="E14">
-        <v>13585896</v>
+        <v>11648617</v>
       </c>
       <c r="F14">
-        <v>5694939</v>
+        <v>8102818</v>
       </c>
       <c r="G14">
-        <v>45629089</v>
+        <v>45770918</v>
       </c>
       <c r="H14">
+        <v>7031651</v>
+      </c>
+      <c r="I14">
+        <v>1502381</v>
+      </c>
+      <c r="J14">
+        <v>13119984</v>
+      </c>
+      <c r="K14">
+        <v>28222661</v>
+      </c>
+      <c r="L14">
+        <v>4133267</v>
+      </c>
+      <c r="M14">
+        <v>45475912</v>
+      </c>
+      <c r="N14">
         <v>7160934</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>1577260</v>
       </c>
-      <c r="J14">
+      <c r="P14">
         <v>12254673</v>
       </c>
-      <c r="K14">
+      <c r="Q14">
         <v>29956598</v>
       </c>
-      <c r="L14">
+      <c r="R14">
         <v>3060479</v>
       </c>
-      <c r="M14">
+      <c r="S14">
         <v>45271750</v>
-      </c>
-      <c r="N14">
-        <v>7291722</v>
-      </c>
-      <c r="O14">
-        <v>1749607</v>
-      </c>
-      <c r="P14">
-        <v>11949919</v>
-      </c>
-      <c r="Q14">
-        <v>30829431</v>
-      </c>
-      <c r="R14">
-        <v>2189265</v>
-      </c>
-      <c r="S14">
-        <v>44968615</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B15">
-        <v>7031651</v>
+        <v>6876688</v>
       </c>
       <c r="C15">
-        <v>1502381</v>
+        <v>1504168</v>
       </c>
       <c r="D15">
-        <v>13119984</v>
+        <v>26348254</v>
       </c>
       <c r="E15">
-        <v>28222661</v>
+        <v>13585896</v>
       </c>
       <c r="F15">
-        <v>4133267</v>
+        <v>5694939</v>
       </c>
       <c r="G15">
-        <v>45475912</v>
+        <v>45629089</v>
       </c>
       <c r="H15">
+        <v>7160934</v>
+      </c>
+      <c r="I15">
+        <v>1577260</v>
+      </c>
+      <c r="J15">
+        <v>12254673</v>
+      </c>
+      <c r="K15">
+        <v>29956598</v>
+      </c>
+      <c r="L15">
+        <v>3060479</v>
+      </c>
+      <c r="M15">
+        <v>45271750</v>
+      </c>
+      <c r="N15">
         <v>7291722</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>1749607</v>
       </c>
-      <c r="J15">
+      <c r="P15">
         <v>11949919</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <v>30829431</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <v>2189265</v>
       </c>
-      <c r="M15">
+      <c r="S15">
         <v>44968615</v>
-      </c>
-      <c r="N15">
-        <v>7404599</v>
-      </c>
-      <c r="O15">
-        <v>1981131</v>
-      </c>
-      <c r="P15">
-        <v>11407859</v>
-      </c>
-      <c r="Q15">
-        <v>31622279</v>
-      </c>
-      <c r="R15">
-        <v>1594076</v>
-      </c>
-      <c r="S15">
-        <v>44624214</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B16">
-        <v>7160934</v>
+        <v>7031651</v>
       </c>
       <c r="C16">
-        <v>1577260</v>
+        <v>1502381</v>
       </c>
       <c r="D16">
-        <v>12254673</v>
+        <v>13119984</v>
       </c>
       <c r="E16">
-        <v>29956598</v>
+        <v>28222661</v>
       </c>
       <c r="F16">
-        <v>3060479</v>
+        <v>4133267</v>
       </c>
       <c r="G16">
-        <v>45271750</v>
+        <v>45475912</v>
       </c>
       <c r="H16">
+        <v>7291722</v>
+      </c>
+      <c r="I16">
+        <v>1749607</v>
+      </c>
+      <c r="J16">
+        <v>11949919</v>
+      </c>
+      <c r="K16">
+        <v>30829431</v>
+      </c>
+      <c r="L16">
+        <v>2189265</v>
+      </c>
+      <c r="M16">
+        <v>44968615</v>
+      </c>
+      <c r="N16">
         <v>7404599</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>1981131</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <v>11407859</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <v>31622279</v>
       </c>
-      <c r="L16">
+      <c r="R16">
         <v>1594076</v>
       </c>
-      <c r="M16">
+      <c r="S16">
         <v>44624214</v>
-      </c>
-      <c r="N16">
-        <v>7586013</v>
-      </c>
-      <c r="O16">
-        <v>2222672</v>
-      </c>
-      <c r="P16">
-        <v>4526706</v>
-      </c>
-      <c r="Q16">
-        <v>38658546</v>
-      </c>
-      <c r="R16">
-        <v>1016007</v>
-      </c>
-      <c r="S16">
-        <v>44201259</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B17">
-        <v>7291722</v>
+        <v>7160934</v>
       </c>
       <c r="C17">
-        <v>1749607</v>
+        <v>1577260</v>
       </c>
       <c r="D17">
-        <v>11949919</v>
+        <v>12254673</v>
       </c>
       <c r="E17">
-        <v>30829431</v>
+        <v>29956598</v>
       </c>
       <c r="F17">
-        <v>2189265</v>
+        <v>3060479</v>
       </c>
       <c r="G17">
-        <v>44968615</v>
+        <v>45271750</v>
       </c>
       <c r="H17">
+        <v>7404599</v>
+      </c>
+      <c r="I17">
+        <v>1981131</v>
+      </c>
+      <c r="J17">
+        <v>11407859</v>
+      </c>
+      <c r="K17">
+        <v>31622279</v>
+      </c>
+      <c r="L17">
+        <v>1594076</v>
+      </c>
+      <c r="M17">
+        <v>44624214</v>
+      </c>
+      <c r="N17">
         <v>7586013</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>2222672</v>
       </c>
-      <c r="J17">
+      <c r="P17">
         <v>4526706</v>
       </c>
-      <c r="K17">
+      <c r="Q17">
         <v>38658546</v>
       </c>
-      <c r="L17">
+      <c r="R17">
         <v>1016007</v>
       </c>
-      <c r="M17">
+      <c r="S17">
         <v>44201259</v>
-      </c>
-      <c r="N17">
-        <v>7862567</v>
-      </c>
-      <c r="O17">
-        <v>2422756</v>
-      </c>
-      <c r="P17">
-        <v>4186423</v>
-      </c>
-      <c r="Q17">
-        <v>38968164</v>
-      </c>
-      <c r="R17">
-        <v>570032</v>
-      </c>
-      <c r="S17">
-        <v>43724619</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B18">
-        <v>7404599</v>
+        <v>7291722</v>
       </c>
       <c r="C18">
-        <v>1981131</v>
+        <v>1749607</v>
       </c>
       <c r="D18">
-        <v>11407859</v>
+        <v>11949919</v>
       </c>
       <c r="E18">
-        <v>31622279</v>
+        <v>30829431</v>
       </c>
       <c r="F18">
-        <v>1594076</v>
+        <v>2189265</v>
       </c>
       <c r="G18">
-        <v>44624214</v>
+        <v>44968615</v>
       </c>
       <c r="H18">
+        <v>7586013</v>
+      </c>
+      <c r="I18">
+        <v>2222672</v>
+      </c>
+      <c r="J18">
+        <v>4526706</v>
+      </c>
+      <c r="K18">
+        <v>38658546</v>
+      </c>
+      <c r="L18">
+        <v>1016007</v>
+      </c>
+      <c r="M18">
+        <v>44201259</v>
+      </c>
+      <c r="N18">
         <v>7862567</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>2422756</v>
       </c>
-      <c r="J18">
+      <c r="P18">
         <v>4186423</v>
       </c>
-      <c r="K18">
+      <c r="Q18">
         <v>38968164</v>
       </c>
-      <c r="L18">
+      <c r="R18">
         <v>570032</v>
       </c>
-      <c r="M18">
+      <c r="S18">
         <v>43724619</v>
-      </c>
-      <c r="N18">
-        <v>8302865</v>
-      </c>
-      <c r="O18">
-        <v>2538614</v>
-      </c>
-      <c r="P18">
-        <v>3884826</v>
-      </c>
-      <c r="Q18">
-        <v>38988918</v>
-      </c>
-      <c r="R18">
-        <v>294719</v>
-      </c>
-      <c r="S18">
-        <v>43168463</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B19">
-        <v>7586013</v>
+        <v>7404599</v>
       </c>
       <c r="C19">
-        <v>2222672</v>
+        <v>1981131</v>
       </c>
       <c r="D19">
-        <v>4526706</v>
+        <v>11407859</v>
       </c>
       <c r="E19">
-        <v>38658546</v>
+        <v>31622279</v>
       </c>
       <c r="F19">
-        <v>1016007</v>
+        <v>1594076</v>
       </c>
       <c r="G19">
-        <v>44201259</v>
+        <v>44624214</v>
       </c>
       <c r="H19">
+        <v>7862567</v>
+      </c>
+      <c r="I19">
+        <v>2422756</v>
+      </c>
+      <c r="J19">
+        <v>4186423</v>
+      </c>
+      <c r="K19">
+        <v>38968164</v>
+      </c>
+      <c r="L19">
+        <v>570032</v>
+      </c>
+      <c r="M19">
+        <v>43724619</v>
+      </c>
+      <c r="N19">
         <v>8302865</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>2538614</v>
       </c>
-      <c r="J19">
+      <c r="P19">
         <v>3884826</v>
       </c>
-      <c r="K19">
+      <c r="Q19">
         <v>38988918</v>
       </c>
-      <c r="L19">
+      <c r="R19">
         <v>294719</v>
       </c>
-      <c r="M19">
+      <c r="S19">
         <v>43168463</v>
-      </c>
-      <c r="N19">
-        <v>8683749</v>
-      </c>
-      <c r="O19">
-        <v>2653423</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>42672767</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B20">
-        <v>7862567</v>
+        <v>7586013</v>
       </c>
       <c r="C20">
-        <v>2422756</v>
+        <v>2222672</v>
       </c>
       <c r="D20">
-        <v>4186423</v>
+        <v>4526706</v>
       </c>
       <c r="E20">
-        <v>38968164</v>
+        <v>38658546</v>
       </c>
       <c r="F20">
-        <v>570032</v>
+        <v>1016007</v>
       </c>
       <c r="G20">
-        <v>43724619</v>
+        <v>44201259</v>
       </c>
       <c r="H20">
+        <v>8302865</v>
+      </c>
+      <c r="I20">
+        <v>2538614</v>
+      </c>
+      <c r="J20">
+        <v>3884826</v>
+      </c>
+      <c r="K20">
+        <v>38988918</v>
+      </c>
+      <c r="L20">
+        <v>294719</v>
+      </c>
+      <c r="M20">
+        <v>43168463</v>
+      </c>
+      <c r="N20">
         <v>8683749</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>2653423</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>42672767</v>
-      </c>
-      <c r="N20">
-        <v>9231487</v>
-      </c>
-      <c r="O20">
-        <v>2863195</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>41915257</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B21">
-        <v>8302865</v>
+        <v>7862567</v>
       </c>
       <c r="C21">
-        <v>2538614</v>
+        <v>2422756</v>
       </c>
       <c r="D21">
-        <v>3884826</v>
+        <v>4186423</v>
       </c>
       <c r="E21">
-        <v>38988918</v>
+        <v>38968164</v>
       </c>
       <c r="F21">
-        <v>294719</v>
+        <v>570032</v>
       </c>
       <c r="G21">
-        <v>43168463</v>
+        <v>43724619</v>
       </c>
       <c r="H21">
+        <v>8683749</v>
+      </c>
+      <c r="I21">
+        <v>2653423</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>42672767</v>
+      </c>
+      <c r="N21">
         <v>9231487</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>2863195</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>41915257</v>
-      </c>
-      <c r="N21">
-        <v>9829232</v>
-      </c>
-      <c r="O21">
-        <v>3259454</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>40921215</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B22">
-        <v>8683749</v>
+        <v>8302865</v>
       </c>
       <c r="C22">
-        <v>2653423</v>
+        <v>2538614</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3884826</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>38988918</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>294719</v>
       </c>
       <c r="G22">
-        <v>42672767</v>
+        <v>43168463</v>
       </c>
       <c r="H22">
+        <v>9231487</v>
+      </c>
+      <c r="I22">
+        <v>2863195</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>41915257</v>
+      </c>
+      <c r="N22">
         <v>9829232</v>
       </c>
-      <c r="I22">
+      <c r="O22">
         <v>3259454</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>40921215</v>
-      </c>
-      <c r="N22">
-        <v>10307179</v>
-      </c>
-      <c r="O22">
-        <v>3862335</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>39840387</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B23">
-        <v>9231487</v>
+        <v>8683749</v>
       </c>
       <c r="C23">
-        <v>2863195</v>
+        <v>2653423</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4734,54 +4811,54 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>41915257</v>
+        <v>42672767</v>
       </c>
       <c r="H23">
+        <v>9829232</v>
+      </c>
+      <c r="I23">
+        <v>3259454</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>40921215</v>
+      </c>
+      <c r="N23">
         <v>10307179</v>
       </c>
-      <c r="I23">
+      <c r="O23">
         <v>3862335</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>39840387</v>
-      </c>
-      <c r="N23">
-        <v>10942694</v>
-      </c>
-      <c r="O23">
-        <v>4426185</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>38641022</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B24">
-        <v>9829232</v>
+        <v>9231487</v>
       </c>
       <c r="C24">
-        <v>3259454</v>
+        <v>2863195</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4793,54 +4870,54 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>40921215</v>
+        <v>41915257</v>
       </c>
       <c r="H24">
+        <v>10307179</v>
+      </c>
+      <c r="I24">
+        <v>3862335</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>39840387</v>
+      </c>
+      <c r="N24">
         <v>10942694</v>
       </c>
-      <c r="I24">
+      <c r="O24">
         <v>4426185</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>38641022</v>
-      </c>
-      <c r="N24">
-        <v>11786620</v>
-      </c>
-      <c r="O24">
-        <v>4805486</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>37417795</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B25">
-        <v>10307179</v>
+        <v>9829232</v>
       </c>
       <c r="C25">
-        <v>3862335</v>
+        <v>3259454</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4852,54 +4929,54 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>39840387</v>
+        <v>40921215</v>
       </c>
       <c r="H25">
+        <v>10942694</v>
+      </c>
+      <c r="I25">
+        <v>4426185</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>38641022</v>
+      </c>
+      <c r="N25">
         <v>11786620</v>
       </c>
-      <c r="I25">
+      <c r="O25">
         <v>4805486</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>37417795</v>
-      </c>
-      <c r="N25">
-        <v>12581126</v>
-      </c>
-      <c r="O25">
-        <v>5096568</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>36332207</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B26">
-        <v>10942694</v>
+        <v>10307179</v>
       </c>
       <c r="C26">
-        <v>4426185</v>
+        <v>3862335</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4911,54 +4988,54 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>38641022</v>
+        <v>39840387</v>
       </c>
       <c r="H26">
+        <v>11786620</v>
+      </c>
+      <c r="I26">
+        <v>4805486</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>37417795</v>
+      </c>
+      <c r="N26">
         <v>12581126</v>
       </c>
-      <c r="I26">
+      <c r="O26">
         <v>5096568</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>36332207</v>
-      </c>
-      <c r="N26">
-        <v>13334156</v>
-      </c>
-      <c r="O26">
-        <v>5075930</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>35599815</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B27">
-        <v>11786620</v>
+        <v>10942694</v>
       </c>
       <c r="C27">
-        <v>4805486</v>
+        <v>4426185</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4970,54 +5047,54 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>37417795</v>
+        <v>38641022</v>
       </c>
       <c r="H27">
+        <v>12581126</v>
+      </c>
+      <c r="I27">
+        <v>5096568</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>36332207</v>
+      </c>
+      <c r="N27">
         <v>13334156</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>5075930</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>35599815</v>
-      </c>
-      <c r="N27">
-        <v>14507530</v>
-      </c>
-      <c r="O27">
-        <v>5210293</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>34292078</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B28">
-        <v>12581126</v>
+        <v>11786620</v>
       </c>
       <c r="C28">
-        <v>5096568</v>
+        <v>4805486</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5029,54 +5106,54 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>36332207</v>
+        <v>37417795</v>
       </c>
       <c r="H28">
+        <v>13334156</v>
+      </c>
+      <c r="I28">
+        <v>5075930</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>35599815</v>
+      </c>
+      <c r="N28">
         <v>14507530</v>
       </c>
-      <c r="I28">
+      <c r="O28">
         <v>5210293</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>34292078</v>
-      </c>
-      <c r="N28">
-        <v>15656647</v>
-      </c>
-      <c r="O28">
-        <v>6065610</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>32287644</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B29">
-        <v>13334156</v>
+        <v>12581126</v>
       </c>
       <c r="C29">
-        <v>5075930</v>
+        <v>5096568</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5088,54 +5165,54 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>35599815</v>
+        <v>36332207</v>
       </c>
       <c r="H29">
+        <v>14507530</v>
+      </c>
+      <c r="I29">
+        <v>5210293</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>34292078</v>
+      </c>
+      <c r="N29">
         <v>15656647</v>
       </c>
-      <c r="I29">
+      <c r="O29">
         <v>6065610</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>32287644</v>
-      </c>
-      <c r="N29">
-        <v>16708830</v>
-      </c>
-      <c r="O29">
-        <v>7672393</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>29628678</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B30">
-        <v>14507530</v>
+        <v>13334156</v>
       </c>
       <c r="C30">
-        <v>5210293</v>
+        <v>5075930</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5147,54 +5224,54 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>34292078</v>
+        <v>35599815</v>
       </c>
       <c r="H30">
+        <v>15656647</v>
+      </c>
+      <c r="I30">
+        <v>6065610</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>32287644</v>
+      </c>
+      <c r="N30">
         <v>16708830</v>
       </c>
-      <c r="I30">
+      <c r="O30">
         <v>7672393</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>29628678</v>
-      </c>
-      <c r="N30">
-        <v>17568325</v>
-      </c>
-      <c r="O30">
-        <v>9940124</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>26501452</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B31">
-        <v>15656647</v>
+        <v>14507530</v>
       </c>
       <c r="C31">
-        <v>6065610</v>
+        <v>5210293</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5206,54 +5283,54 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>32287644</v>
+        <v>34292078</v>
       </c>
       <c r="H31">
+        <v>16708830</v>
+      </c>
+      <c r="I31">
+        <v>7672393</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>29628678</v>
+      </c>
+      <c r="N31">
         <v>17568325</v>
       </c>
-      <c r="I31">
+      <c r="O31">
         <v>9940124</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <v>26501452</v>
-      </c>
-      <c r="N31">
-        <v>20322806</v>
-      </c>
-      <c r="O31">
-        <v>11341436</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>22345659</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B32">
-        <v>16708830</v>
+        <v>15656647</v>
       </c>
       <c r="C32">
-        <v>7672393</v>
+        <v>6065610</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5265,54 +5342,54 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>29628678</v>
+        <v>32287644</v>
       </c>
       <c r="H32">
+        <v>17568325</v>
+      </c>
+      <c r="I32">
+        <v>9940124</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>26501452</v>
+      </c>
+      <c r="N32">
         <v>20322806</v>
       </c>
-      <c r="I32">
+      <c r="O32">
         <v>11341436</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>22345659</v>
-      </c>
-      <c r="N32">
-        <v>21289761</v>
-      </c>
-      <c r="O32">
-        <v>13149676</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>19570464</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B33">
-        <v>17568325</v>
+        <v>16708830</v>
       </c>
       <c r="C33">
-        <v>9940124</v>
+        <v>7672393</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5324,54 +5401,54 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>26501452</v>
+        <v>29628678</v>
       </c>
       <c r="H33">
+        <v>20322806</v>
+      </c>
+      <c r="I33">
+        <v>11341436</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>22345659</v>
+      </c>
+      <c r="N33">
         <v>21289761</v>
       </c>
-      <c r="I33">
+      <c r="O33">
         <v>13149676</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>19570464</v>
-      </c>
-      <c r="N33">
-        <v>22879167</v>
-      </c>
-      <c r="O33">
-        <v>13741130</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>17389604</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B34">
-        <v>20322806</v>
+        <v>17568325</v>
       </c>
       <c r="C34">
-        <v>11341436</v>
+        <v>9940124</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5383,54 +5460,54 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>22345659</v>
+        <v>26501452</v>
       </c>
       <c r="H34">
+        <v>21289761</v>
+      </c>
+      <c r="I34">
+        <v>13149676</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>19570464</v>
+      </c>
+      <c r="N34">
         <v>22879167</v>
       </c>
-      <c r="I34">
+      <c r="O34">
         <v>13741130</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>17389604</v>
-      </c>
-      <c r="N34">
-        <v>24745853</v>
-      </c>
-      <c r="O34">
-        <v>13879852</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>15384196</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B35">
-        <v>21289761</v>
+        <v>20322806</v>
       </c>
       <c r="C35">
-        <v>13149676</v>
+        <v>11341436</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5442,54 +5519,54 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>19570464</v>
+        <v>22345659</v>
       </c>
       <c r="H35">
+        <v>22879167</v>
+      </c>
+      <c r="I35">
+        <v>13741130</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>17389604</v>
+      </c>
+      <c r="N35">
         <v>24745853</v>
       </c>
-      <c r="I35">
+      <c r="O35">
         <v>13879852</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
         <v>15384196</v>
-      </c>
-      <c r="N35">
-        <v>27065063</v>
-      </c>
-      <c r="O35">
-        <v>13015437</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>13929401</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B36">
-        <v>22879167</v>
+        <v>21289761</v>
       </c>
       <c r="C36">
-        <v>13741130</v>
+        <v>13149676</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5501,54 +5578,54 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>17389604</v>
+        <v>19570464</v>
       </c>
       <c r="H36">
+        <v>24745853</v>
+      </c>
+      <c r="I36">
+        <v>13879852</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>15384196</v>
+      </c>
+      <c r="N36">
         <v>27065063</v>
       </c>
-      <c r="I36">
+      <c r="O36">
         <v>13015437</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
         <v>13929401</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B37">
-        <v>24745853</v>
+        <v>22879167</v>
       </c>
       <c r="C37">
-        <v>13879852</v>
+        <v>13741130</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5560,13 +5637,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>15384196</v>
+        <v>17389604</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>27065063</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>13015437</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -5578,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>13929401</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -5601,60 +5678,119 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B38">
+        <v>24745853</v>
+      </c>
+      <c r="C38">
+        <v>13879852</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>15384196</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="2">
         <v>44391</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>27065063</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>13015437</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>13929401</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,1707 +556,1707 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2">
-        <v>44650</v>
+        <v>44657</v>
       </c>
       <c r="B2">
-        <v>310234</v>
+        <v>328614</v>
       </c>
       <c r="C2">
-        <v>36199</v>
+        <v>34073</v>
       </c>
       <c r="D2">
-        <v>151285</v>
+        <v>161287</v>
       </c>
       <c r="E2">
-        <v>177731</v>
+        <v>193193</v>
       </c>
       <c r="F2">
-        <v>919400</v>
+        <v>1097617</v>
       </c>
       <c r="G2">
-        <v>1248416</v>
+        <v>1452097</v>
       </c>
       <c r="H2">
-        <v>4164</v>
+        <v>3729</v>
       </c>
       <c r="I2">
-        <v>672</v>
+        <v>574</v>
       </c>
       <c r="J2">
-        <v>2153</v>
+        <v>1846</v>
       </c>
       <c r="K2">
-        <v>1109</v>
+        <v>1021</v>
       </c>
       <c r="L2">
-        <v>9438</v>
+        <v>10150</v>
       </c>
       <c r="M2">
-        <v>12700</v>
+        <v>13017</v>
       </c>
       <c r="N2">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="O2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P2">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="Q2">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R2">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="S2">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="T2">
-        <v>1149</v>
+        <v>850</v>
       </c>
       <c r="U2">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="V2">
-        <v>654</v>
+        <v>473</v>
       </c>
       <c r="W2">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="X2">
-        <v>1688</v>
+        <v>1561</v>
       </c>
       <c r="Y2">
-        <v>2489</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="B3">
-        <v>301078</v>
+        <v>310234</v>
       </c>
       <c r="C3">
-        <v>41780</v>
+        <v>36199</v>
       </c>
       <c r="D3">
-        <v>141855</v>
+        <v>151285</v>
       </c>
       <c r="E3">
-        <v>162770</v>
+        <v>177731</v>
       </c>
       <c r="F3">
-        <v>747670</v>
+        <v>919400</v>
       </c>
       <c r="G3">
-        <v>1052295</v>
+        <v>1248416</v>
       </c>
       <c r="H3">
-        <v>5247</v>
+        <v>4164</v>
       </c>
       <c r="I3">
-        <v>856</v>
+        <v>672</v>
       </c>
       <c r="J3">
-        <v>2990</v>
+        <v>2153</v>
       </c>
       <c r="K3">
-        <v>1293</v>
+        <v>1109</v>
       </c>
       <c r="L3">
-        <v>9812</v>
+        <v>9438</v>
       </c>
       <c r="M3">
-        <v>14095</v>
+        <v>12700</v>
       </c>
       <c r="N3">
-        <v>381</v>
+        <v>272</v>
       </c>
       <c r="O3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P3">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="Q3">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="R3">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="S3">
-        <v>657</v>
+        <v>595</v>
       </c>
       <c r="T3">
-        <v>1552</v>
+        <v>1149</v>
       </c>
       <c r="U3">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="V3">
-        <v>1004</v>
+        <v>654</v>
       </c>
       <c r="W3">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="X3">
-        <v>2022</v>
+        <v>1688</v>
       </c>
       <c r="Y3">
-        <v>3228</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="B4">
-        <v>320381</v>
+        <v>301078</v>
       </c>
       <c r="C4">
-        <v>52934</v>
+        <v>41780</v>
       </c>
       <c r="D4">
-        <v>146615</v>
+        <v>141855</v>
       </c>
       <c r="E4">
-        <v>154589</v>
+        <v>162770</v>
       </c>
       <c r="F4">
-        <v>602042</v>
+        <v>747670</v>
       </c>
       <c r="G4">
-        <v>903246</v>
+        <v>1052295</v>
       </c>
       <c r="H4">
-        <v>7093</v>
+        <v>5247</v>
       </c>
       <c r="I4">
-        <v>1082</v>
+        <v>856</v>
       </c>
       <c r="J4">
-        <v>4424</v>
+        <v>2990</v>
       </c>
       <c r="K4">
-        <v>1654</v>
+        <v>1293</v>
       </c>
       <c r="L4">
-        <v>10840</v>
+        <v>9812</v>
       </c>
       <c r="M4">
-        <v>16918</v>
+        <v>14095</v>
       </c>
       <c r="N4">
-        <v>549</v>
+        <v>381</v>
       </c>
       <c r="O4">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P4">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="Q4">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="R4">
-        <v>506</v>
+        <v>452</v>
       </c>
       <c r="S4">
-        <v>808</v>
+        <v>657</v>
       </c>
       <c r="T4">
-        <v>2117</v>
+        <v>1552</v>
       </c>
       <c r="U4">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="V4">
-        <v>1489</v>
+        <v>1004</v>
       </c>
       <c r="W4">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="X4">
-        <v>2356</v>
+        <v>2022</v>
       </c>
       <c r="Y4">
-        <v>4109</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="B5">
-        <v>263373</v>
+        <v>320381</v>
       </c>
       <c r="C5">
-        <v>44050</v>
+        <v>52934</v>
       </c>
       <c r="D5">
-        <v>195682</v>
+        <v>146615</v>
       </c>
       <c r="E5">
-        <v>147602</v>
+        <v>154589</v>
       </c>
       <c r="F5">
-        <v>569292</v>
+        <v>602042</v>
       </c>
       <c r="G5">
-        <v>912576</v>
+        <v>903246</v>
       </c>
       <c r="H5">
-        <v>8894</v>
+        <v>7093</v>
       </c>
       <c r="I5">
-        <v>1220</v>
+        <v>1082</v>
       </c>
       <c r="J5">
-        <v>6443</v>
+        <v>4424</v>
       </c>
       <c r="K5">
-        <v>2105</v>
+        <v>1654</v>
       </c>
       <c r="L5">
-        <v>11808</v>
+        <v>10840</v>
       </c>
       <c r="M5">
-        <v>20356</v>
+        <v>16918</v>
       </c>
       <c r="N5">
-        <v>720</v>
+        <v>549</v>
       </c>
       <c r="O5">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P5">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="Q5">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="R5">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="S5">
-        <v>950</v>
+        <v>808</v>
       </c>
       <c r="T5">
-        <v>2655</v>
+        <v>2117</v>
       </c>
       <c r="U5">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="V5">
-        <v>2075</v>
+        <v>1489</v>
       </c>
       <c r="W5">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="X5">
-        <v>2613</v>
+        <v>2356</v>
       </c>
       <c r="Y5">
-        <v>4991</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B6">
-        <v>362240</v>
+        <v>263373</v>
       </c>
       <c r="C6">
-        <v>61074</v>
+        <v>44050</v>
       </c>
       <c r="D6">
-        <v>316885</v>
+        <v>195682</v>
       </c>
       <c r="E6">
-        <v>210897</v>
+        <v>147602</v>
       </c>
       <c r="F6">
-        <v>617287</v>
+        <v>569292</v>
       </c>
       <c r="G6">
-        <v>1145069</v>
+        <v>912576</v>
       </c>
       <c r="H6">
-        <v>11144</v>
+        <v>8894</v>
       </c>
       <c r="I6">
-        <v>1422</v>
+        <v>1220</v>
       </c>
       <c r="J6">
-        <v>9008</v>
+        <v>6443</v>
       </c>
       <c r="K6">
-        <v>2676</v>
+        <v>2105</v>
       </c>
       <c r="L6">
-        <v>12272</v>
+        <v>11808</v>
       </c>
       <c r="M6">
-        <v>23956</v>
+        <v>20356</v>
       </c>
       <c r="N6">
-        <v>941</v>
+        <v>720</v>
       </c>
       <c r="O6">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P6">
-        <v>470</v>
+        <v>319</v>
       </c>
       <c r="Q6">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="R6">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="S6">
-        <v>1134</v>
+        <v>950</v>
       </c>
       <c r="T6">
-        <v>3198</v>
+        <v>2655</v>
       </c>
       <c r="U6">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="V6">
-        <v>2507</v>
+        <v>2075</v>
       </c>
       <c r="W6">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="X6">
-        <v>2677</v>
+        <v>2613</v>
       </c>
       <c r="Y6">
-        <v>5521</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B7">
-        <v>503511</v>
+        <v>362240</v>
       </c>
       <c r="C7">
-        <v>81921</v>
+        <v>61074</v>
       </c>
       <c r="D7">
-        <v>543352</v>
+        <v>316885</v>
       </c>
       <c r="E7">
-        <v>313619</v>
+        <v>210897</v>
       </c>
       <c r="F7">
-        <v>682585</v>
+        <v>617287</v>
       </c>
       <c r="G7">
-        <v>1539556</v>
+        <v>1145069</v>
       </c>
       <c r="H7">
-        <v>13534</v>
+        <v>11144</v>
       </c>
       <c r="I7">
-        <v>1516</v>
+        <v>1422</v>
       </c>
       <c r="J7">
-        <v>11607</v>
+        <v>9008</v>
       </c>
       <c r="K7">
-        <v>3210</v>
+        <v>2676</v>
       </c>
       <c r="L7">
-        <v>12271</v>
+        <v>12272</v>
       </c>
       <c r="M7">
-        <v>27088</v>
+        <v>23956</v>
       </c>
       <c r="N7">
-        <v>1261</v>
+        <v>941</v>
       </c>
       <c r="O7">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P7">
-        <v>617</v>
+        <v>470</v>
       </c>
       <c r="Q7">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="R7">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="S7">
-        <v>1304</v>
+        <v>1134</v>
       </c>
       <c r="T7">
-        <v>3470</v>
+        <v>3198</v>
       </c>
       <c r="U7">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="V7">
-        <v>2795</v>
+        <v>2507</v>
       </c>
       <c r="W7">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="X7">
-        <v>2403</v>
+        <v>2677</v>
       </c>
       <c r="Y7">
-        <v>5527</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B8">
-        <v>642419</v>
+        <v>503511</v>
       </c>
       <c r="C8">
-        <v>102315</v>
+        <v>81921</v>
       </c>
       <c r="D8">
-        <v>848833</v>
+        <v>543352</v>
       </c>
       <c r="E8">
-        <v>439413</v>
+        <v>313619</v>
       </c>
       <c r="F8">
-        <v>717143</v>
+        <v>682585</v>
       </c>
       <c r="G8">
-        <v>2005389</v>
+        <v>1539556</v>
       </c>
       <c r="H8">
-        <v>15012</v>
+        <v>13534</v>
       </c>
       <c r="I8">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="J8">
-        <v>13660</v>
+        <v>11607</v>
       </c>
       <c r="K8">
-        <v>3480</v>
+        <v>3210</v>
       </c>
       <c r="L8">
-        <v>11075</v>
+        <v>12271</v>
       </c>
       <c r="M8">
-        <v>28215</v>
+        <v>27088</v>
       </c>
       <c r="N8">
-        <v>1524</v>
+        <v>1261</v>
       </c>
       <c r="O8">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P8">
-        <v>736</v>
+        <v>617</v>
       </c>
       <c r="Q8">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="R8">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="S8">
-        <v>1350</v>
+        <v>1304</v>
       </c>
       <c r="T8">
-        <v>3357</v>
+        <v>3470</v>
       </c>
       <c r="U8">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="V8">
-        <v>2757</v>
+        <v>2795</v>
       </c>
       <c r="W8">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="X8">
-        <v>1918</v>
+        <v>2403</v>
       </c>
       <c r="Y8">
-        <v>4952</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B9">
-        <v>777547</v>
+        <v>642419</v>
       </c>
       <c r="C9">
-        <v>127486</v>
+        <v>102315</v>
       </c>
       <c r="D9">
-        <v>1249396</v>
+        <v>848833</v>
       </c>
       <c r="E9">
-        <v>597335</v>
+        <v>439413</v>
       </c>
       <c r="F9">
-        <v>738378</v>
+        <v>717143</v>
       </c>
       <c r="G9">
-        <v>2585109</v>
+        <v>2005389</v>
       </c>
       <c r="H9">
-        <v>15695</v>
+        <v>15012</v>
       </c>
       <c r="I9">
-        <v>1437</v>
+        <v>1532</v>
       </c>
       <c r="J9">
-        <v>14598</v>
+        <v>13660</v>
       </c>
       <c r="K9">
-        <v>3426</v>
+        <v>3480</v>
       </c>
       <c r="L9">
-        <v>9017</v>
+        <v>11075</v>
       </c>
       <c r="M9">
-        <v>27041</v>
+        <v>28215</v>
       </c>
       <c r="N9">
-        <v>1716</v>
+        <v>1524</v>
       </c>
       <c r="O9">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P9">
-        <v>803</v>
+        <v>736</v>
       </c>
       <c r="Q9">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="R9">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="S9">
-        <v>1306</v>
+        <v>1350</v>
       </c>
       <c r="T9">
-        <v>3144</v>
+        <v>3357</v>
       </c>
       <c r="U9">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="V9">
-        <v>2508</v>
+        <v>2757</v>
       </c>
       <c r="W9">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="X9">
-        <v>1331</v>
+        <v>1918</v>
       </c>
       <c r="Y9">
-        <v>4071</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B10">
-        <v>809625</v>
+        <v>777547</v>
       </c>
       <c r="C10">
-        <v>137850</v>
+        <v>127486</v>
       </c>
       <c r="D10">
-        <v>1532777</v>
+        <v>1249396</v>
       </c>
       <c r="E10">
-        <v>687597</v>
+        <v>597335</v>
       </c>
       <c r="F10">
-        <v>672910</v>
+        <v>738378</v>
       </c>
       <c r="G10">
-        <v>2893284</v>
+        <v>2585109</v>
       </c>
       <c r="H10">
-        <v>15049</v>
+        <v>15695</v>
       </c>
       <c r="I10">
-        <v>1240</v>
+        <v>1437</v>
       </c>
       <c r="J10">
-        <v>13663</v>
+        <v>14598</v>
       </c>
       <c r="K10">
-        <v>2915</v>
+        <v>3426</v>
       </c>
       <c r="L10">
-        <v>6606</v>
+        <v>9017</v>
       </c>
       <c r="M10">
-        <v>23184</v>
+        <v>27041</v>
       </c>
       <c r="N10">
-        <v>1792</v>
+        <v>1716</v>
       </c>
       <c r="O10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P10">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="Q10">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="R10">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="S10">
-        <v>1166</v>
+        <v>1306</v>
       </c>
       <c r="T10">
-        <v>2632</v>
+        <v>3144</v>
       </c>
       <c r="U10">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="V10">
-        <v>2172</v>
+        <v>2508</v>
       </c>
       <c r="W10">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="X10">
-        <v>814</v>
+        <v>1331</v>
       </c>
       <c r="Y10">
-        <v>3168</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B11">
-        <v>703732</v>
+        <v>809625</v>
       </c>
       <c r="C11">
-        <v>127478</v>
+        <v>137850</v>
       </c>
       <c r="D11">
-        <v>1544092</v>
+        <v>1532777</v>
       </c>
       <c r="E11">
-        <v>640805</v>
+        <v>687597</v>
       </c>
       <c r="F11">
-        <v>521657</v>
+        <v>672910</v>
       </c>
       <c r="G11">
-        <v>2706554</v>
+        <v>2893284</v>
       </c>
       <c r="H11">
-        <v>13946</v>
+        <v>15049</v>
       </c>
       <c r="I11">
-        <v>989</v>
+        <v>1240</v>
       </c>
       <c r="J11">
-        <v>11934</v>
+        <v>13663</v>
       </c>
       <c r="K11">
-        <v>2225</v>
+        <v>2915</v>
       </c>
       <c r="L11">
-        <v>4177</v>
+        <v>6606</v>
       </c>
       <c r="M11">
-        <v>18336</v>
+        <v>23184</v>
       </c>
       <c r="N11">
-        <v>1753</v>
+        <v>1792</v>
       </c>
       <c r="O11">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P11">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="Q11">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="R11">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="S11">
-        <v>1014</v>
+        <v>1166</v>
       </c>
       <c r="T11">
-        <v>2120</v>
+        <v>2632</v>
       </c>
       <c r="U11">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="V11">
-        <v>1805</v>
+        <v>2172</v>
       </c>
       <c r="W11">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="X11">
-        <v>432</v>
+        <v>814</v>
       </c>
       <c r="Y11">
-        <v>2375</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B12">
-        <v>555697</v>
+        <v>703732</v>
       </c>
       <c r="C12">
-        <v>102729</v>
+        <v>127478</v>
       </c>
       <c r="D12">
-        <v>1320086</v>
+        <v>1544092</v>
       </c>
       <c r="E12">
-        <v>527687</v>
+        <v>640805</v>
       </c>
       <c r="F12">
-        <v>358530</v>
+        <v>521657</v>
       </c>
       <c r="G12">
-        <v>2206303</v>
+        <v>2706554</v>
       </c>
       <c r="H12">
-        <v>11487</v>
+        <v>13946</v>
       </c>
       <c r="I12">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="J12">
-        <v>9435</v>
+        <v>11934</v>
       </c>
       <c r="K12">
-        <v>1499</v>
+        <v>2225</v>
       </c>
       <c r="L12">
-        <v>2066</v>
+        <v>4177</v>
       </c>
       <c r="M12">
-        <v>13000</v>
+        <v>18336</v>
       </c>
       <c r="N12">
-        <v>1557</v>
+        <v>1753</v>
       </c>
       <c r="O12">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P12">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="Q12">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R12">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="S12">
-        <v>809</v>
+        <v>1014</v>
       </c>
       <c r="T12">
-        <v>1774</v>
+        <v>2120</v>
       </c>
       <c r="U12">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="V12">
-        <v>1541</v>
+        <v>1805</v>
       </c>
       <c r="W12">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="X12">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="Y12">
-        <v>1863</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B13">
-        <v>395424</v>
+        <v>555697</v>
       </c>
       <c r="C13">
-        <v>68050</v>
+        <v>102729</v>
       </c>
       <c r="D13">
-        <v>955924</v>
+        <v>1320086</v>
       </c>
       <c r="E13">
-        <v>364078</v>
+        <v>527687</v>
       </c>
       <c r="F13">
-        <v>200146</v>
+        <v>358530</v>
       </c>
       <c r="G13">
-        <v>1520148</v>
+        <v>2206303</v>
       </c>
       <c r="H13">
-        <v>9564</v>
+        <v>11487</v>
       </c>
       <c r="I13">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="J13">
-        <v>7594</v>
+        <v>9435</v>
       </c>
       <c r="K13">
-        <v>1055</v>
+        <v>1499</v>
       </c>
       <c r="L13">
-        <v>955</v>
+        <v>2066</v>
       </c>
       <c r="M13">
-        <v>9604</v>
+        <v>13000</v>
       </c>
       <c r="N13">
-        <v>1368</v>
+        <v>1557</v>
       </c>
       <c r="O13">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P13">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="Q13">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R13">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="S13">
-        <v>663</v>
+        <v>809</v>
       </c>
       <c r="T13">
-        <v>1443</v>
+        <v>1774</v>
       </c>
       <c r="U13">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="V13">
-        <v>1370</v>
+        <v>1541</v>
       </c>
       <c r="W13">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X13">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="Y13">
-        <v>1606</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B14">
-        <v>251412</v>
+        <v>395424</v>
       </c>
       <c r="C14">
-        <v>34617</v>
+        <v>68050</v>
       </c>
       <c r="D14">
-        <v>547518</v>
+        <v>955924</v>
       </c>
       <c r="E14">
-        <v>195560</v>
+        <v>364078</v>
       </c>
       <c r="F14">
-        <v>79260</v>
+        <v>200146</v>
       </c>
       <c r="G14">
-        <v>822338</v>
+        <v>1520148</v>
       </c>
       <c r="H14">
-        <v>8278</v>
+        <v>9564</v>
       </c>
       <c r="I14">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="J14">
-        <v>6612</v>
+        <v>7594</v>
       </c>
       <c r="K14">
-        <v>905</v>
+        <v>1055</v>
       </c>
       <c r="L14">
-        <v>546</v>
+        <v>955</v>
       </c>
       <c r="M14">
-        <v>8063</v>
+        <v>9604</v>
       </c>
       <c r="N14">
-        <v>1202</v>
+        <v>1368</v>
       </c>
       <c r="O14">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P14">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="Q14">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R14">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S14">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="T14">
-        <v>1170</v>
+        <v>1443</v>
       </c>
       <c r="U14">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V14">
-        <v>1298</v>
+        <v>1370</v>
       </c>
       <c r="W14">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X14">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Y14">
-        <v>1489</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B15">
-        <v>170551</v>
+        <v>251412</v>
       </c>
       <c r="C15">
-        <v>14491</v>
+        <v>34617</v>
       </c>
       <c r="D15">
-        <v>265724</v>
+        <v>547518</v>
       </c>
       <c r="E15">
-        <v>99757</v>
+        <v>195560</v>
       </c>
       <c r="F15">
-        <v>20375</v>
+        <v>79260</v>
       </c>
       <c r="G15">
-        <v>385856</v>
+        <v>822338</v>
       </c>
       <c r="H15">
-        <v>7059</v>
+        <v>8278</v>
       </c>
       <c r="I15">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J15">
-        <v>5927</v>
+        <v>6612</v>
       </c>
       <c r="K15">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="L15">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="M15">
-        <v>7229</v>
+        <v>8063</v>
       </c>
       <c r="N15">
-        <v>1036</v>
+        <v>1202</v>
       </c>
       <c r="O15">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P15">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="Q15">
+        <v>72</v>
+      </c>
+      <c r="R15">
+        <v>46</v>
+      </c>
+      <c r="S15">
+        <v>614</v>
+      </c>
+      <c r="T15">
+        <v>1170</v>
+      </c>
+      <c r="U15">
         <v>89</v>
       </c>
-      <c r="R15">
-        <v>33</v>
-      </c>
-      <c r="S15">
-        <v>555</v>
-      </c>
-      <c r="T15">
-        <v>994</v>
-      </c>
-      <c r="U15">
-        <v>75</v>
-      </c>
       <c r="V15">
-        <v>1108</v>
+        <v>1298</v>
       </c>
       <c r="W15">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="X15">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Y15">
-        <v>1262</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B16">
-        <v>140677</v>
+        <v>170551</v>
       </c>
       <c r="C16">
-        <v>9069</v>
+        <v>14491</v>
       </c>
       <c r="D16">
-        <v>91366</v>
+        <v>265724</v>
       </c>
       <c r="E16">
-        <v>155978</v>
+        <v>99757</v>
       </c>
       <c r="F16">
-        <v>7655</v>
+        <v>20375</v>
       </c>
       <c r="G16">
-        <v>254999</v>
+        <v>385856</v>
       </c>
       <c r="H16">
-        <v>5944</v>
+        <v>7059</v>
       </c>
       <c r="I16">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J16">
-        <v>4047</v>
+        <v>5927</v>
       </c>
       <c r="K16">
-        <v>2065</v>
+        <v>934</v>
       </c>
       <c r="L16">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="M16">
-        <v>6384</v>
+        <v>7229</v>
       </c>
       <c r="N16">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="O16">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P16">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="Q16">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="R16">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S16">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="T16">
-        <v>839</v>
+        <v>994</v>
       </c>
       <c r="U16">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="V16">
-        <v>838</v>
+        <v>1108</v>
       </c>
       <c r="W16">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="X16">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Y16">
-        <v>1105</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B17">
-        <v>114674</v>
+        <v>140677</v>
       </c>
       <c r="C17">
-        <v>7107</v>
+        <v>9069</v>
       </c>
       <c r="D17">
-        <v>71563</v>
+        <v>91366</v>
       </c>
       <c r="E17">
-        <v>122505</v>
+        <v>155978</v>
       </c>
       <c r="F17">
-        <v>4219</v>
+        <v>7655</v>
       </c>
       <c r="G17">
-        <v>198287</v>
+        <v>254999</v>
       </c>
       <c r="H17">
-        <v>5081</v>
+        <v>5944</v>
       </c>
       <c r="I17">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="J17">
-        <v>3432</v>
+        <v>4047</v>
       </c>
       <c r="K17">
-        <v>1843</v>
+        <v>2065</v>
       </c>
       <c r="L17">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="M17">
-        <v>5451</v>
+        <v>6384</v>
       </c>
       <c r="N17">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="O17">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P17">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q17">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="R17">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S17">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="T17">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="U17">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V17">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="W17">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="X17">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Y17">
-        <v>991</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B18">
-        <v>93220</v>
+        <v>114674</v>
       </c>
       <c r="C18">
-        <v>6181</v>
+        <v>7107</v>
       </c>
       <c r="D18">
-        <v>57054</v>
+        <v>71563</v>
       </c>
       <c r="E18">
-        <v>102245</v>
+        <v>122505</v>
       </c>
       <c r="F18">
-        <v>2652</v>
+        <v>4219</v>
       </c>
       <c r="G18">
-        <v>161951</v>
+        <v>198287</v>
       </c>
       <c r="H18">
-        <v>4402</v>
+        <v>5081</v>
       </c>
       <c r="I18">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="J18">
-        <v>2916</v>
+        <v>3432</v>
       </c>
       <c r="K18">
-        <v>1616</v>
+        <v>1843</v>
       </c>
       <c r="L18">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="M18">
-        <v>4653</v>
+        <v>5451</v>
       </c>
       <c r="N18">
-        <v>618</v>
+        <v>747</v>
       </c>
       <c r="O18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P18">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q18">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S18">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="T18">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="U18">
+        <v>42</v>
+      </c>
+      <c r="V18">
+        <v>745</v>
+      </c>
+      <c r="W18">
+        <v>257</v>
+      </c>
+      <c r="X18">
         <v>29</v>
       </c>
-      <c r="V18">
-        <v>604</v>
-      </c>
-      <c r="W18">
-        <v>186</v>
-      </c>
-      <c r="X18">
-        <v>17</v>
-      </c>
       <c r="Y18">
-        <v>807</v>
+        <v>991</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B19">
-        <v>75512</v>
+        <v>93220</v>
       </c>
       <c r="C19">
-        <v>5587</v>
+        <v>6181</v>
       </c>
       <c r="D19">
-        <v>44023</v>
+        <v>57054</v>
       </c>
       <c r="E19">
-        <v>82755</v>
+        <v>102245</v>
       </c>
       <c r="F19">
-        <v>1710</v>
+        <v>2652</v>
       </c>
       <c r="G19">
-        <v>128488</v>
+        <v>161951</v>
       </c>
       <c r="H19">
-        <v>3733</v>
+        <v>4402</v>
       </c>
       <c r="I19">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J19">
-        <v>2336</v>
+        <v>2916</v>
       </c>
       <c r="K19">
-        <v>1435</v>
+        <v>1616</v>
       </c>
       <c r="L19">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M19">
-        <v>3845</v>
+        <v>4653</v>
       </c>
       <c r="N19">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="O19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P19">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q19">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S19">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="T19">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="U19">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V19">
-        <v>482</v>
+        <v>604</v>
       </c>
       <c r="W19">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="X19">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y19">
-        <v>690</v>
+        <v>807</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B20">
-        <v>61908</v>
+        <v>75512</v>
       </c>
       <c r="C20">
-        <v>4260</v>
+        <v>5587</v>
       </c>
       <c r="D20">
-        <v>15519</v>
+        <v>44023</v>
       </c>
       <c r="E20">
-        <v>81740</v>
+        <v>82755</v>
       </c>
       <c r="F20">
-        <v>969</v>
+        <v>1710</v>
       </c>
       <c r="G20">
-        <v>98228</v>
+        <v>128488</v>
       </c>
       <c r="H20">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="I20">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J20">
-        <v>1187</v>
+        <v>2336</v>
       </c>
       <c r="K20">
-        <v>2437</v>
+        <v>1435</v>
       </c>
       <c r="L20">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M20">
-        <v>3693</v>
+        <v>3845</v>
       </c>
       <c r="N20">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="O20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P20">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="Q20">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="R20">
         <v>3</v>
       </c>
       <c r="S20">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="T20">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="U20">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="V20">
-        <v>191</v>
+        <v>482</v>
       </c>
       <c r="W20">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="X20">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Y20">
-        <v>555</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B21">
-        <v>50564</v>
+        <v>61908</v>
       </c>
       <c r="C21">
-        <v>3980</v>
+        <v>4260</v>
       </c>
       <c r="D21">
-        <v>11215</v>
+        <v>15519</v>
       </c>
       <c r="E21">
-        <v>60407</v>
+        <v>81740</v>
       </c>
       <c r="F21">
-        <v>537</v>
+        <v>969</v>
       </c>
       <c r="G21">
-        <v>72159</v>
+        <v>98228</v>
       </c>
       <c r="H21">
-        <v>3220</v>
+        <v>3737</v>
       </c>
       <c r="I21">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J21">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="K21">
-        <v>2075</v>
+        <v>2437</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M21">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="N21">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="O21">
         <v>14</v>
       </c>
       <c r="P21">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q21">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="T21">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="U21">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V21">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="W21">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y21">
-        <v>444</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B22">
-        <v>40182</v>
+        <v>50564</v>
       </c>
       <c r="C22">
-        <v>3466</v>
+        <v>3980</v>
       </c>
       <c r="D22">
-        <v>8088</v>
+        <v>11215</v>
       </c>
       <c r="E22">
-        <v>43928</v>
+        <v>60407</v>
       </c>
       <c r="F22">
-        <v>286</v>
+        <v>537</v>
       </c>
       <c r="G22">
-        <v>52302</v>
+        <v>72159</v>
       </c>
       <c r="H22">
-        <v>2890</v>
+        <v>3220</v>
       </c>
       <c r="I22">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J22">
-        <v>618</v>
+        <v>826</v>
       </c>
       <c r="K22">
-        <v>1774</v>
+        <v>2075</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>2409</v>
+        <v>2936</v>
       </c>
       <c r="N22">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="O22">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P22">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q22">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="T22">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="U22">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V22">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="W22">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B23">
-        <v>35398</v>
+        <v>40182</v>
       </c>
       <c r="C23">
-        <v>3207</v>
+        <v>3466</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>43928</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G23">
-        <v>40991</v>
+        <v>52302</v>
       </c>
       <c r="H23">
-        <v>2696</v>
+        <v>2890</v>
       </c>
       <c r="I23">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>2037</v>
+        <v>2409</v>
       </c>
       <c r="N23">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="O23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="T23">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="U23">
         <v>27</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B24">
-        <v>34128</v>
+        <v>35398</v>
       </c>
       <c r="C24">
-        <v>3421</v>
+        <v>3207</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>34131</v>
+        <v>40991</v>
       </c>
       <c r="H24">
-        <v>2845</v>
+        <v>2696</v>
       </c>
       <c r="I24">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1815</v>
+        <v>2037</v>
       </c>
       <c r="N24">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="O24">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2304,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="T24">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="U24">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2322,18 +2322,18 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B25">
-        <v>36194</v>
+        <v>34128</v>
       </c>
       <c r="C25">
-        <v>4127</v>
+        <v>3421</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>31514</v>
+        <v>34131</v>
       </c>
       <c r="H25">
-        <v>3396</v>
+        <v>2845</v>
       </c>
       <c r="I25">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1954</v>
+        <v>1815</v>
       </c>
       <c r="N25">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="O25">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="T25">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="U25">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2399,18 +2399,18 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>511</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B26">
-        <v>45790</v>
+        <v>36194</v>
       </c>
       <c r="C26">
-        <v>5352</v>
+        <v>4127</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>33496</v>
+        <v>31514</v>
       </c>
       <c r="H26">
-        <v>4274</v>
+        <v>3396</v>
       </c>
       <c r="I26">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="N26">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="O26">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T26">
-        <v>775</v>
+        <v>636</v>
       </c>
       <c r="U26">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2476,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>578</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B27">
-        <v>56808</v>
+        <v>45790</v>
       </c>
       <c r="C27">
-        <v>6952</v>
+        <v>5352</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>36529</v>
+        <v>33496</v>
       </c>
       <c r="H27">
-        <v>5224</v>
+        <v>4274</v>
       </c>
       <c r="I27">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>2268</v>
+        <v>2133</v>
       </c>
       <c r="N27">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="O27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="T27">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="U27">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2553,18 +2553,18 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B28">
-        <v>70900</v>
+        <v>56808</v>
       </c>
       <c r="C28">
-        <v>9284</v>
+        <v>6952</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>40060</v>
+        <v>36529</v>
       </c>
       <c r="H28">
-        <v>6160</v>
+        <v>5224</v>
       </c>
       <c r="I28">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>2418</v>
+        <v>2268</v>
       </c>
       <c r="N28">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="O28">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T28">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="U28">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2630,18 +2630,18 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B29">
-        <v>86133</v>
+        <v>70900</v>
       </c>
       <c r="C29">
-        <v>11735</v>
+        <v>9284</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>44050</v>
+        <v>40060</v>
       </c>
       <c r="H29">
-        <v>6782</v>
+        <v>6160</v>
       </c>
       <c r="I29">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>2456</v>
+        <v>2418</v>
       </c>
       <c r="N29">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="O29">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2689,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T29">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="U29">
         <v>57</v>
@@ -2707,18 +2707,18 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>509</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B30">
-        <v>96900</v>
+        <v>86133</v>
       </c>
       <c r="C30">
-        <v>13728</v>
+        <v>11735</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>44990</v>
+        <v>44050</v>
       </c>
       <c r="H30">
-        <v>6841</v>
+        <v>6782</v>
       </c>
       <c r="I30">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>2331</v>
+        <v>2456</v>
       </c>
       <c r="N30">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="O30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="T30">
-        <v>770</v>
+        <v>877</v>
       </c>
       <c r="U30">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2784,18 +2784,18 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>405</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B31">
-        <v>104890</v>
+        <v>96900</v>
       </c>
       <c r="C31">
-        <v>16129</v>
+        <v>13728</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>43775</v>
+        <v>44990</v>
       </c>
       <c r="H31">
-        <v>6579</v>
+        <v>6841</v>
       </c>
       <c r="I31">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>2118</v>
+        <v>2331</v>
       </c>
       <c r="N31">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="O31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T31">
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="U31">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2861,18 +2861,18 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>280</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B32">
-        <v>107937</v>
+        <v>104890</v>
       </c>
       <c r="C32">
-        <v>18925</v>
+        <v>16129</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2884,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>40380</v>
+        <v>43775</v>
       </c>
       <c r="H32">
-        <v>5988</v>
+        <v>6579</v>
       </c>
       <c r="I32">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>1788</v>
+        <v>2118</v>
       </c>
       <c r="N32">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="O32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="T32">
-        <v>383</v>
+        <v>571</v>
       </c>
       <c r="U32">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2938,18 +2938,18 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B33">
-        <v>104405</v>
+        <v>107937</v>
       </c>
       <c r="C33">
-        <v>21703</v>
+        <v>18925</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>33894</v>
+        <v>40380</v>
       </c>
       <c r="H33">
-        <v>5162</v>
+        <v>5988</v>
       </c>
       <c r="I33">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2979,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1349</v>
+        <v>1788</v>
       </c>
       <c r="N33">
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="O33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="T33">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="U33">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3015,18 +3015,18 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>92</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B34">
-        <v>95261</v>
+        <v>104405</v>
       </c>
       <c r="C34">
-        <v>22568</v>
+        <v>21703</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>24978</v>
+        <v>33894</v>
       </c>
       <c r="H34">
-        <v>4052</v>
+        <v>5162</v>
       </c>
       <c r="I34">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3056,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>959</v>
+        <v>1349</v>
       </c>
       <c r="N34">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="O34">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="T34">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="U34">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3092,18 +3092,18 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B35">
-        <v>80585</v>
+        <v>95261</v>
       </c>
       <c r="C35">
-        <v>21570</v>
+        <v>22568</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3115,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>18887</v>
+        <v>24978</v>
       </c>
       <c r="H35">
-        <v>3067</v>
+        <v>4052</v>
       </c>
       <c r="I35">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>627</v>
+        <v>959</v>
       </c>
       <c r="N35">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="O35">
         <v>22</v>
@@ -3151,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="T35">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="U35">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3169,18 +3169,18 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B36">
-        <v>60267</v>
+        <v>80585</v>
       </c>
       <c r="C36">
-        <v>17420</v>
+        <v>21570</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>12333</v>
+        <v>18887</v>
       </c>
       <c r="H36">
-        <v>2234</v>
+        <v>3067</v>
       </c>
       <c r="I36">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3210,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="N36">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="O36">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="T36">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="U36">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3251,13 +3251,13 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B37">
-        <v>40729</v>
+        <v>60267</v>
       </c>
       <c r="C37">
-        <v>12032</v>
+        <v>17420</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>7277</v>
+        <v>12333</v>
       </c>
       <c r="H37">
-        <v>1619</v>
+        <v>2234</v>
       </c>
       <c r="I37">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3287,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="N37">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="O37">
         <v>11</v>
@@ -3305,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T37">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="U37">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3323,18 +3323,18 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B38">
-        <v>26284</v>
+        <v>40729</v>
       </c>
       <c r="C38">
-        <v>6813</v>
+        <v>12032</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3346,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>3805</v>
+        <v>7277</v>
       </c>
       <c r="H38">
-        <v>1483</v>
+        <v>1619</v>
       </c>
       <c r="I38">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3364,13 +3364,13 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="N38">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O38">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -3382,13 +3382,13 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T38">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="U38">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -3400,83 +3400,160 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B39">
+        <v>26284</v>
+      </c>
+      <c r="C39">
+        <v>6813</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>3805</v>
+      </c>
+      <c r="H39">
+        <v>1483</v>
+      </c>
+      <c r="I39">
+        <v>199</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>224</v>
+      </c>
+      <c r="N39">
+        <v>117</v>
+      </c>
+      <c r="O39">
+        <v>14</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>8</v>
+      </c>
+      <c r="T39">
+        <v>250</v>
+      </c>
+      <c r="U39">
+        <v>47</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" s="2">
         <v>44391</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>21089</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>3954</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>2310</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>1880</v>
       </c>
-      <c r="I39">
+      <c r="I40">
         <v>240</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
         <v>240</v>
       </c>
-      <c r="N39">
+      <c r="N40">
         <v>147</v>
       </c>
-      <c r="O39">
+      <c r="O40">
         <v>20</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
         <v>7</v>
       </c>
-      <c r="T39">
+      <c r="T40">
         <v>357</v>
       </c>
-      <c r="U39">
+      <c r="U40">
         <v>72</v>
       </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
         <v>68</v>
       </c>
     </row>
@@ -3487,7 +3564,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3554,1311 +3631,1311 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>44650</v>
+        <v>44657</v>
       </c>
       <c r="B2">
-        <v>7051466</v>
+        <v>7013675</v>
       </c>
       <c r="C2">
-        <v>1299786</v>
+        <v>1152276</v>
       </c>
       <c r="D2">
-        <v>7294305</v>
+        <v>7204908</v>
       </c>
       <c r="E2">
-        <v>4675369</v>
+        <v>4519726</v>
       </c>
       <c r="F2">
-        <v>37345088</v>
+        <v>37775399</v>
       </c>
       <c r="G2">
-        <v>49314762</v>
+        <v>49500033</v>
       </c>
       <c r="H2">
-        <v>7184617</v>
+        <v>7098195</v>
       </c>
       <c r="I2">
-        <v>1767691</v>
+        <v>1506872</v>
       </c>
       <c r="J2">
-        <v>7676655</v>
+        <v>7447233</v>
       </c>
       <c r="K2">
-        <v>5034482</v>
+        <v>4830603</v>
       </c>
       <c r="L2">
-        <v>36002569</v>
+        <v>36783081</v>
       </c>
       <c r="M2">
-        <v>48713706</v>
+        <v>49060917</v>
       </c>
       <c r="N2">
-        <v>7340265</v>
+        <v>7183469</v>
       </c>
       <c r="O2">
-        <v>2060560</v>
+        <v>1764309</v>
       </c>
       <c r="P2">
-        <v>8369146</v>
+        <v>7677503</v>
       </c>
       <c r="Q2">
-        <v>5139369</v>
+        <v>5037350</v>
       </c>
       <c r="R2">
-        <v>34756674</v>
+        <v>36003353</v>
       </c>
       <c r="S2">
-        <v>48265189</v>
+        <v>48718206</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="B3">
-        <v>7102203</v>
+        <v>7051466</v>
       </c>
       <c r="C3">
-        <v>1513671</v>
+        <v>1299786</v>
       </c>
       <c r="D3">
-        <v>7446133</v>
+        <v>7294305</v>
       </c>
       <c r="E3">
-        <v>4823786</v>
+        <v>4675369</v>
       </c>
       <c r="F3">
-        <v>36780251</v>
+        <v>37345088</v>
       </c>
       <c r="G3">
-        <v>49050170</v>
+        <v>49314762</v>
       </c>
       <c r="H3">
-        <v>7343079</v>
+        <v>7184617</v>
       </c>
       <c r="I3">
-        <v>2062622</v>
+        <v>1767691</v>
       </c>
       <c r="J3">
-        <v>8368761</v>
+        <v>7676655</v>
       </c>
       <c r="K3">
-        <v>5136508</v>
+        <v>5034482</v>
       </c>
       <c r="L3">
-        <v>34755074</v>
+        <v>36002569</v>
       </c>
       <c r="M3">
-        <v>48260343</v>
+        <v>48713706</v>
       </c>
       <c r="N3">
-        <v>7588956</v>
+        <v>7340265</v>
       </c>
       <c r="O3">
-        <v>2253718</v>
+        <v>2060560</v>
       </c>
       <c r="P3">
-        <v>10013108</v>
+        <v>8369146</v>
       </c>
       <c r="Q3">
-        <v>5232435</v>
+        <v>5139369</v>
       </c>
       <c r="R3">
-        <v>32577827</v>
+        <v>34756674</v>
       </c>
       <c r="S3">
-        <v>47823370</v>
+        <v>48265189</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="B4">
-        <v>7188123</v>
+        <v>7102203</v>
       </c>
       <c r="C4">
-        <v>1774721</v>
+        <v>1513671</v>
       </c>
       <c r="D4">
-        <v>7675977</v>
+        <v>7446133</v>
       </c>
       <c r="E4">
-        <v>5027431</v>
+        <v>4823786</v>
       </c>
       <c r="F4">
-        <v>35999762</v>
+        <v>36780251</v>
       </c>
       <c r="G4">
-        <v>48703170</v>
+        <v>49050170</v>
       </c>
       <c r="H4">
-        <v>7589638</v>
+        <v>7343079</v>
       </c>
       <c r="I4">
-        <v>2256742</v>
+        <v>2062622</v>
       </c>
       <c r="J4">
-        <v>10012637</v>
+        <v>8368761</v>
       </c>
       <c r="K4">
-        <v>5229922</v>
+        <v>5136508</v>
       </c>
       <c r="L4">
-        <v>32577075</v>
+        <v>34755074</v>
       </c>
       <c r="M4">
-        <v>47819634</v>
+        <v>48260343</v>
       </c>
       <c r="N4">
-        <v>7902839</v>
+        <v>7588956</v>
       </c>
       <c r="O4">
-        <v>2289689</v>
+        <v>2253718</v>
       </c>
       <c r="P4">
-        <v>12148491</v>
+        <v>10013108</v>
       </c>
       <c r="Q4">
-        <v>5690505</v>
+        <v>5232435</v>
       </c>
       <c r="R4">
-        <v>29634490</v>
+        <v>32577827</v>
       </c>
       <c r="S4">
-        <v>47473486</v>
+        <v>47823370</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="B5">
-        <v>4922246</v>
+        <v>7188123</v>
       </c>
       <c r="C5">
-        <v>1504174</v>
+        <v>1774721</v>
       </c>
       <c r="D5">
-        <v>8369206</v>
+        <v>7675977</v>
       </c>
       <c r="E5">
-        <v>4462914</v>
+        <v>5027431</v>
       </c>
       <c r="F5">
-        <v>34751405</v>
+        <v>35999762</v>
       </c>
       <c r="G5">
-        <v>47583525</v>
+        <v>48703170</v>
       </c>
       <c r="H5">
-        <v>5237693</v>
+        <v>7589638</v>
       </c>
       <c r="I5">
-        <v>1603693</v>
+        <v>2256742</v>
       </c>
       <c r="J5">
-        <v>12148624</v>
+        <v>10012637</v>
       </c>
       <c r="K5">
-        <v>5387344</v>
+        <v>5229922</v>
       </c>
       <c r="L5">
-        <v>29632591</v>
+        <v>32577075</v>
       </c>
       <c r="M5">
-        <v>47168559</v>
+        <v>47819634</v>
       </c>
       <c r="N5">
-        <v>5475882</v>
+        <v>7902839</v>
       </c>
       <c r="O5">
-        <v>1574138</v>
+        <v>2289689</v>
       </c>
       <c r="P5">
-        <v>14562981</v>
+        <v>12148491</v>
       </c>
       <c r="Q5">
-        <v>6180953</v>
+        <v>5690505</v>
       </c>
       <c r="R5">
-        <v>26215991</v>
+        <v>29634490</v>
       </c>
       <c r="S5">
-        <v>46959925</v>
+        <v>47473486</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B6">
-        <v>5053954</v>
+        <v>4922246</v>
       </c>
       <c r="C6">
-        <v>1597892</v>
+        <v>1504174</v>
       </c>
       <c r="D6">
-        <v>10021741</v>
+        <v>8369206</v>
       </c>
       <c r="E6">
-        <v>4762640</v>
+        <v>4462914</v>
       </c>
       <c r="F6">
-        <v>32573718</v>
+        <v>34751405</v>
       </c>
       <c r="G6">
-        <v>47358099</v>
+        <v>47583525</v>
       </c>
       <c r="H6">
-        <v>5465398</v>
+        <v>5237693</v>
       </c>
       <c r="I6">
-        <v>1580627</v>
+        <v>1603693</v>
       </c>
       <c r="J6">
-        <v>14572377</v>
+        <v>12148624</v>
       </c>
       <c r="K6">
-        <v>6176719</v>
+        <v>5387344</v>
       </c>
       <c r="L6">
-        <v>26214824</v>
+        <v>29632591</v>
       </c>
       <c r="M6">
-        <v>46963920</v>
+        <v>47168559</v>
       </c>
       <c r="N6">
-        <v>5755897</v>
+        <v>5475882</v>
       </c>
       <c r="O6">
-        <v>1547981</v>
+        <v>1574138</v>
       </c>
       <c r="P6">
-        <v>17157988</v>
+        <v>14562981</v>
       </c>
       <c r="Q6">
-        <v>7039120</v>
+        <v>6180953</v>
       </c>
       <c r="R6">
-        <v>22508959</v>
+        <v>26215991</v>
       </c>
       <c r="S6">
-        <v>46706067</v>
+        <v>46959925</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B7">
-        <v>5229604</v>
+        <v>5053954</v>
       </c>
       <c r="C7">
-        <v>1618481</v>
+        <v>1597892</v>
       </c>
       <c r="D7">
-        <v>12157100</v>
+        <v>10021741</v>
       </c>
       <c r="E7">
-        <v>5375529</v>
+        <v>4762640</v>
       </c>
       <c r="F7">
-        <v>29629231</v>
+        <v>32573718</v>
       </c>
       <c r="G7">
-        <v>47161860</v>
+        <v>47358099</v>
       </c>
       <c r="H7">
-        <v>5758356</v>
+        <v>5465398</v>
       </c>
       <c r="I7">
-        <v>1551283</v>
+        <v>1580627</v>
       </c>
       <c r="J7">
-        <v>17157160</v>
+        <v>14572377</v>
       </c>
       <c r="K7">
-        <v>7035796</v>
+        <v>6176719</v>
       </c>
       <c r="L7">
-        <v>22507350</v>
+        <v>26214824</v>
       </c>
       <c r="M7">
-        <v>46700306</v>
+        <v>46963920</v>
       </c>
       <c r="N7">
-        <v>5927007</v>
+        <v>5755897</v>
       </c>
       <c r="O7">
-        <v>1592113</v>
+        <v>1547981</v>
       </c>
       <c r="P7">
-        <v>18793468</v>
+        <v>17157988</v>
       </c>
       <c r="Q7">
-        <v>8015572</v>
+        <v>7039120</v>
       </c>
       <c r="R7">
-        <v>19681785</v>
+        <v>22508959</v>
       </c>
       <c r="S7">
-        <v>46490825</v>
+        <v>46706067</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B8">
-        <v>5467098</v>
+        <v>5229604</v>
       </c>
       <c r="C8">
-        <v>1596811</v>
+        <v>1618481</v>
       </c>
       <c r="D8">
-        <v>14575900</v>
+        <v>12157100</v>
       </c>
       <c r="E8">
-        <v>6164226</v>
+        <v>5375529</v>
       </c>
       <c r="F8">
-        <v>26205910</v>
+        <v>29629231</v>
       </c>
       <c r="G8">
-        <v>46946036</v>
+        <v>47161860</v>
       </c>
       <c r="H8">
-        <v>5926909</v>
+        <v>5758356</v>
       </c>
       <c r="I8">
-        <v>1597860</v>
+        <v>1551283</v>
       </c>
       <c r="J8">
-        <v>18796851</v>
+        <v>17157160</v>
       </c>
       <c r="K8">
-        <v>8012376</v>
+        <v>7035796</v>
       </c>
       <c r="L8">
-        <v>19675949</v>
+        <v>22507350</v>
       </c>
       <c r="M8">
-        <v>46485176</v>
+        <v>46700306</v>
       </c>
       <c r="N8">
-        <v>6040050</v>
+        <v>5927007</v>
       </c>
       <c r="O8">
-        <v>1652417</v>
+        <v>1592113</v>
       </c>
       <c r="P8">
-        <v>20133986</v>
+        <v>18793468</v>
       </c>
       <c r="Q8">
-        <v>9055320</v>
+        <v>8015572</v>
       </c>
       <c r="R8">
-        <v>17128172</v>
+        <v>19681785</v>
       </c>
       <c r="S8">
-        <v>46317478</v>
+        <v>46490825</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B9">
-        <v>5610741</v>
+        <v>5467098</v>
       </c>
       <c r="C9">
-        <v>1575333</v>
+        <v>1596811</v>
       </c>
       <c r="D9">
-        <v>17279465</v>
+        <v>14575900</v>
       </c>
       <c r="E9">
-        <v>7025036</v>
+        <v>6164226</v>
       </c>
       <c r="F9">
-        <v>22519370</v>
+        <v>26205910</v>
       </c>
       <c r="G9">
-        <v>46823871</v>
+        <v>46946036</v>
       </c>
       <c r="H9">
-        <v>5893661</v>
+        <v>5926909</v>
       </c>
       <c r="I9">
-        <v>1663892</v>
+        <v>1597860</v>
       </c>
       <c r="J9">
-        <v>20257123</v>
+        <v>18796851</v>
       </c>
       <c r="K9">
-        <v>9057038</v>
+        <v>8012376</v>
       </c>
       <c r="L9">
-        <v>17138231</v>
+        <v>19675949</v>
       </c>
       <c r="M9">
-        <v>46452392</v>
+        <v>46485176</v>
       </c>
       <c r="N9">
-        <v>6038487</v>
+        <v>6040050</v>
       </c>
       <c r="O9">
-        <v>1684410</v>
+        <v>1652417</v>
       </c>
       <c r="P9">
-        <v>22158953</v>
+        <v>20133986</v>
       </c>
       <c r="Q9">
-        <v>9853675</v>
+        <v>9055320</v>
       </c>
       <c r="R9">
-        <v>14274420</v>
+        <v>17128172</v>
       </c>
       <c r="S9">
-        <v>46287048</v>
+        <v>46317478</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B10">
-        <v>5925943</v>
+        <v>5610741</v>
       </c>
       <c r="C10">
-        <v>1616298</v>
+        <v>1575333</v>
       </c>
       <c r="D10">
-        <v>18801609</v>
+        <v>17279465</v>
       </c>
       <c r="E10">
-        <v>7998741</v>
+        <v>7025036</v>
       </c>
       <c r="F10">
-        <v>19667354</v>
+        <v>22519370</v>
       </c>
       <c r="G10">
-        <v>46467704</v>
+        <v>46823871</v>
       </c>
       <c r="H10">
-        <v>6182863</v>
+        <v>5893661</v>
       </c>
       <c r="I10">
-        <v>1687002</v>
+        <v>1663892</v>
       </c>
       <c r="J10">
-        <v>22039408</v>
+        <v>20257123</v>
       </c>
       <c r="K10">
-        <v>9839532</v>
+        <v>9057038</v>
       </c>
       <c r="L10">
-        <v>14261140</v>
+        <v>17138231</v>
       </c>
       <c r="M10">
-        <v>46140080</v>
+        <v>46452392</v>
       </c>
       <c r="N10">
-        <v>6392072</v>
+        <v>6038487</v>
       </c>
       <c r="O10">
-        <v>1641693</v>
+        <v>1684410</v>
       </c>
       <c r="P10">
-        <v>24567729</v>
+        <v>22158953</v>
       </c>
       <c r="Q10">
-        <v>10413190</v>
+        <v>9853675</v>
       </c>
       <c r="R10">
-        <v>10995261</v>
+        <v>14274420</v>
       </c>
       <c r="S10">
-        <v>45976180</v>
+        <v>46287048</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B11">
-        <v>6113428</v>
+        <v>5925943</v>
       </c>
       <c r="C11">
-        <v>1676275</v>
+        <v>1616298</v>
       </c>
       <c r="D11">
-        <v>20106983</v>
+        <v>18801609</v>
       </c>
       <c r="E11">
-        <v>9023286</v>
+        <v>7998741</v>
       </c>
       <c r="F11">
-        <v>17089973</v>
+        <v>19667354</v>
       </c>
       <c r="G11">
-        <v>46220242</v>
+        <v>46467704</v>
       </c>
       <c r="H11">
-        <v>6466161</v>
+        <v>6182863</v>
       </c>
       <c r="I11">
-        <v>1644869</v>
+        <v>1687002</v>
       </c>
       <c r="J11">
-        <v>24530417</v>
+        <v>22039408</v>
       </c>
       <c r="K11">
-        <v>10394218</v>
+        <v>9839532</v>
       </c>
       <c r="L11">
-        <v>10974280</v>
+        <v>14261140</v>
       </c>
       <c r="M11">
-        <v>45898915</v>
+        <v>46140080</v>
       </c>
       <c r="N11">
-        <v>6710026</v>
+        <v>6392072</v>
       </c>
       <c r="O11">
-        <v>1549282</v>
+        <v>1641693</v>
       </c>
       <c r="P11">
-        <v>25990113</v>
+        <v>24567729</v>
       </c>
       <c r="Q11">
-        <v>11656265</v>
+        <v>10413190</v>
       </c>
       <c r="R11">
-        <v>8104259</v>
+        <v>10995261</v>
       </c>
       <c r="S11">
-        <v>45750637</v>
+        <v>45976180</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B12">
-        <v>6194434</v>
+        <v>6113428</v>
       </c>
       <c r="C12">
-        <v>1720841</v>
+        <v>1676275</v>
       </c>
       <c r="D12">
-        <v>22048677</v>
+        <v>20106983</v>
       </c>
       <c r="E12">
-        <v>9810639</v>
+        <v>9023286</v>
       </c>
       <c r="F12">
-        <v>14235354</v>
+        <v>17089973</v>
       </c>
       <c r="G12">
-        <v>46094670</v>
+        <v>46220242</v>
       </c>
       <c r="H12">
-        <v>6647970</v>
+        <v>6466161</v>
       </c>
       <c r="I12">
-        <v>1566179</v>
+        <v>1644869</v>
       </c>
       <c r="J12">
-        <v>26028307</v>
+        <v>24530417</v>
       </c>
       <c r="K12">
-        <v>11660101</v>
+        <v>10394218</v>
       </c>
       <c r="L12">
-        <v>8107388</v>
+        <v>10974280</v>
       </c>
       <c r="M12">
-        <v>45795796</v>
+        <v>45898915</v>
       </c>
       <c r="N12">
-        <v>6862315</v>
+        <v>6710026</v>
       </c>
       <c r="O12">
-        <v>1493790</v>
+        <v>1549282</v>
       </c>
       <c r="P12">
-        <v>26357835</v>
+        <v>25990113</v>
       </c>
       <c r="Q12">
-        <v>13596764</v>
+        <v>11656265</v>
       </c>
       <c r="R12">
-        <v>5699241</v>
+        <v>8104259</v>
       </c>
       <c r="S12">
-        <v>45653840</v>
+        <v>45750637</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B13">
-        <v>6414467</v>
+        <v>6194434</v>
       </c>
       <c r="C13">
-        <v>1678301</v>
+        <v>1720841</v>
       </c>
       <c r="D13">
-        <v>24562863</v>
+        <v>22048677</v>
       </c>
       <c r="E13">
-        <v>10381759</v>
+        <v>9810639</v>
       </c>
       <c r="F13">
-        <v>10972555</v>
+        <v>14235354</v>
       </c>
       <c r="G13">
-        <v>45917177</v>
+        <v>46094670</v>
       </c>
       <c r="H13">
-        <v>6876688</v>
+        <v>6647970</v>
       </c>
       <c r="I13">
-        <v>1504168</v>
+        <v>1566179</v>
       </c>
       <c r="J13">
-        <v>26348254</v>
+        <v>26028307</v>
       </c>
       <c r="K13">
-        <v>13585896</v>
+        <v>11660101</v>
       </c>
       <c r="L13">
-        <v>5694939</v>
+        <v>8107388</v>
       </c>
       <c r="M13">
-        <v>45629089</v>
+        <v>45795796</v>
       </c>
       <c r="N13">
-        <v>7031651</v>
+        <v>6862315</v>
       </c>
       <c r="O13">
-        <v>1502381</v>
+        <v>1493790</v>
       </c>
       <c r="P13">
-        <v>13119984</v>
+        <v>26357835</v>
       </c>
       <c r="Q13">
-        <v>28222661</v>
+        <v>13596764</v>
       </c>
       <c r="R13">
-        <v>4133267</v>
+        <v>5699241</v>
       </c>
       <c r="S13">
-        <v>45475912</v>
+        <v>45653840</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B14">
-        <v>6660263</v>
+        <v>6414467</v>
       </c>
       <c r="C14">
-        <v>1578764</v>
+        <v>1678301</v>
       </c>
       <c r="D14">
-        <v>26019483</v>
+        <v>24562863</v>
       </c>
       <c r="E14">
-        <v>11648617</v>
+        <v>10381759</v>
       </c>
       <c r="F14">
-        <v>8102818</v>
+        <v>10972555</v>
       </c>
       <c r="G14">
-        <v>45770918</v>
+        <v>45917177</v>
       </c>
       <c r="H14">
+        <v>6876688</v>
+      </c>
+      <c r="I14">
+        <v>1504168</v>
+      </c>
+      <c r="J14">
+        <v>26348254</v>
+      </c>
+      <c r="K14">
+        <v>13585896</v>
+      </c>
+      <c r="L14">
+        <v>5694939</v>
+      </c>
+      <c r="M14">
+        <v>45629089</v>
+      </c>
+      <c r="N14">
         <v>7031651</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>1502381</v>
       </c>
-      <c r="J14">
+      <c r="P14">
         <v>13119984</v>
       </c>
-      <c r="K14">
+      <c r="Q14">
         <v>28222661</v>
       </c>
-      <c r="L14">
+      <c r="R14">
         <v>4133267</v>
       </c>
-      <c r="M14">
+      <c r="S14">
         <v>45475912</v>
-      </c>
-      <c r="N14">
-        <v>7160934</v>
-      </c>
-      <c r="O14">
-        <v>1577260</v>
-      </c>
-      <c r="P14">
-        <v>12254673</v>
-      </c>
-      <c r="Q14">
-        <v>29956598</v>
-      </c>
-      <c r="R14">
-        <v>3060479</v>
-      </c>
-      <c r="S14">
-        <v>45271750</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B15">
-        <v>6876688</v>
+        <v>6660263</v>
       </c>
       <c r="C15">
-        <v>1504168</v>
+        <v>1578764</v>
       </c>
       <c r="D15">
-        <v>26348254</v>
+        <v>26019483</v>
       </c>
       <c r="E15">
-        <v>13585896</v>
+        <v>11648617</v>
       </c>
       <c r="F15">
-        <v>5694939</v>
+        <v>8102818</v>
       </c>
       <c r="G15">
-        <v>45629089</v>
+        <v>45770918</v>
       </c>
       <c r="H15">
+        <v>7031651</v>
+      </c>
+      <c r="I15">
+        <v>1502381</v>
+      </c>
+      <c r="J15">
+        <v>13119984</v>
+      </c>
+      <c r="K15">
+        <v>28222661</v>
+      </c>
+      <c r="L15">
+        <v>4133267</v>
+      </c>
+      <c r="M15">
+        <v>45475912</v>
+      </c>
+      <c r="N15">
         <v>7160934</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>1577260</v>
       </c>
-      <c r="J15">
+      <c r="P15">
         <v>12254673</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <v>29956598</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <v>3060479</v>
       </c>
-      <c r="M15">
+      <c r="S15">
         <v>45271750</v>
-      </c>
-      <c r="N15">
-        <v>7291722</v>
-      </c>
-      <c r="O15">
-        <v>1749607</v>
-      </c>
-      <c r="P15">
-        <v>11949919</v>
-      </c>
-      <c r="Q15">
-        <v>30829431</v>
-      </c>
-      <c r="R15">
-        <v>2189265</v>
-      </c>
-      <c r="S15">
-        <v>44968615</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B16">
-        <v>7031651</v>
+        <v>6876688</v>
       </c>
       <c r="C16">
-        <v>1502381</v>
+        <v>1504168</v>
       </c>
       <c r="D16">
-        <v>13119984</v>
+        <v>26348254</v>
       </c>
       <c r="E16">
-        <v>28222661</v>
+        <v>13585896</v>
       </c>
       <c r="F16">
-        <v>4133267</v>
+        <v>5694939</v>
       </c>
       <c r="G16">
-        <v>45475912</v>
+        <v>45629089</v>
       </c>
       <c r="H16">
+        <v>7160934</v>
+      </c>
+      <c r="I16">
+        <v>1577260</v>
+      </c>
+      <c r="J16">
+        <v>12254673</v>
+      </c>
+      <c r="K16">
+        <v>29956598</v>
+      </c>
+      <c r="L16">
+        <v>3060479</v>
+      </c>
+      <c r="M16">
+        <v>45271750</v>
+      </c>
+      <c r="N16">
         <v>7291722</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>1749607</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <v>11949919</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <v>30829431</v>
       </c>
-      <c r="L16">
+      <c r="R16">
         <v>2189265</v>
       </c>
-      <c r="M16">
+      <c r="S16">
         <v>44968615</v>
-      </c>
-      <c r="N16">
-        <v>7404599</v>
-      </c>
-      <c r="O16">
-        <v>1981131</v>
-      </c>
-      <c r="P16">
-        <v>11407859</v>
-      </c>
-      <c r="Q16">
-        <v>31622279</v>
-      </c>
-      <c r="R16">
-        <v>1594076</v>
-      </c>
-      <c r="S16">
-        <v>44624214</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B17">
-        <v>7160934</v>
+        <v>7031651</v>
       </c>
       <c r="C17">
-        <v>1577260</v>
+        <v>1502381</v>
       </c>
       <c r="D17">
-        <v>12254673</v>
+        <v>13119984</v>
       </c>
       <c r="E17">
-        <v>29956598</v>
+        <v>28222661</v>
       </c>
       <c r="F17">
-        <v>3060479</v>
+        <v>4133267</v>
       </c>
       <c r="G17">
-        <v>45271750</v>
+        <v>45475912</v>
       </c>
       <c r="H17">
+        <v>7291722</v>
+      </c>
+      <c r="I17">
+        <v>1749607</v>
+      </c>
+      <c r="J17">
+        <v>11949919</v>
+      </c>
+      <c r="K17">
+        <v>30829431</v>
+      </c>
+      <c r="L17">
+        <v>2189265</v>
+      </c>
+      <c r="M17">
+        <v>44968615</v>
+      </c>
+      <c r="N17">
         <v>7404599</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>1981131</v>
       </c>
-      <c r="J17">
+      <c r="P17">
         <v>11407859</v>
       </c>
-      <c r="K17">
+      <c r="Q17">
         <v>31622279</v>
       </c>
-      <c r="L17">
+      <c r="R17">
         <v>1594076</v>
       </c>
-      <c r="M17">
+      <c r="S17">
         <v>44624214</v>
-      </c>
-      <c r="N17">
-        <v>7586013</v>
-      </c>
-      <c r="O17">
-        <v>2222672</v>
-      </c>
-      <c r="P17">
-        <v>4526706</v>
-      </c>
-      <c r="Q17">
-        <v>38658546</v>
-      </c>
-      <c r="R17">
-        <v>1016007</v>
-      </c>
-      <c r="S17">
-        <v>44201259</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B18">
-        <v>7291722</v>
+        <v>7160934</v>
       </c>
       <c r="C18">
-        <v>1749607</v>
+        <v>1577260</v>
       </c>
       <c r="D18">
-        <v>11949919</v>
+        <v>12254673</v>
       </c>
       <c r="E18">
-        <v>30829431</v>
+        <v>29956598</v>
       </c>
       <c r="F18">
-        <v>2189265</v>
+        <v>3060479</v>
       </c>
       <c r="G18">
-        <v>44968615</v>
+        <v>45271750</v>
       </c>
       <c r="H18">
+        <v>7404599</v>
+      </c>
+      <c r="I18">
+        <v>1981131</v>
+      </c>
+      <c r="J18">
+        <v>11407859</v>
+      </c>
+      <c r="K18">
+        <v>31622279</v>
+      </c>
+      <c r="L18">
+        <v>1594076</v>
+      </c>
+      <c r="M18">
+        <v>44624214</v>
+      </c>
+      <c r="N18">
         <v>7586013</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>2222672</v>
       </c>
-      <c r="J18">
+      <c r="P18">
         <v>4526706</v>
       </c>
-      <c r="K18">
+      <c r="Q18">
         <v>38658546</v>
       </c>
-      <c r="L18">
+      <c r="R18">
         <v>1016007</v>
       </c>
-      <c r="M18">
+      <c r="S18">
         <v>44201259</v>
-      </c>
-      <c r="N18">
-        <v>7862567</v>
-      </c>
-      <c r="O18">
-        <v>2422756</v>
-      </c>
-      <c r="P18">
-        <v>4186423</v>
-      </c>
-      <c r="Q18">
-        <v>38968164</v>
-      </c>
-      <c r="R18">
-        <v>570032</v>
-      </c>
-      <c r="S18">
-        <v>43724619</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B19">
-        <v>7404599</v>
+        <v>7291722</v>
       </c>
       <c r="C19">
-        <v>1981131</v>
+        <v>1749607</v>
       </c>
       <c r="D19">
-        <v>11407859</v>
+        <v>11949919</v>
       </c>
       <c r="E19">
-        <v>31622279</v>
+        <v>30829431</v>
       </c>
       <c r="F19">
-        <v>1594076</v>
+        <v>2189265</v>
       </c>
       <c r="G19">
-        <v>44624214</v>
+        <v>44968615</v>
       </c>
       <c r="H19">
+        <v>7586013</v>
+      </c>
+      <c r="I19">
+        <v>2222672</v>
+      </c>
+      <c r="J19">
+        <v>4526706</v>
+      </c>
+      <c r="K19">
+        <v>38658546</v>
+      </c>
+      <c r="L19">
+        <v>1016007</v>
+      </c>
+      <c r="M19">
+        <v>44201259</v>
+      </c>
+      <c r="N19">
         <v>7862567</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>2422756</v>
       </c>
-      <c r="J19">
+      <c r="P19">
         <v>4186423</v>
       </c>
-      <c r="K19">
+      <c r="Q19">
         <v>38968164</v>
       </c>
-      <c r="L19">
+      <c r="R19">
         <v>570032</v>
       </c>
-      <c r="M19">
+      <c r="S19">
         <v>43724619</v>
-      </c>
-      <c r="N19">
-        <v>8302865</v>
-      </c>
-      <c r="O19">
-        <v>2538614</v>
-      </c>
-      <c r="P19">
-        <v>3884826</v>
-      </c>
-      <c r="Q19">
-        <v>38988918</v>
-      </c>
-      <c r="R19">
-        <v>294719</v>
-      </c>
-      <c r="S19">
-        <v>43168463</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B20">
-        <v>7586013</v>
+        <v>7404599</v>
       </c>
       <c r="C20">
-        <v>2222672</v>
+        <v>1981131</v>
       </c>
       <c r="D20">
-        <v>4526706</v>
+        <v>11407859</v>
       </c>
       <c r="E20">
-        <v>38658546</v>
+        <v>31622279</v>
       </c>
       <c r="F20">
-        <v>1016007</v>
+        <v>1594076</v>
       </c>
       <c r="G20">
-        <v>44201259</v>
+        <v>44624214</v>
       </c>
       <c r="H20">
+        <v>7862567</v>
+      </c>
+      <c r="I20">
+        <v>2422756</v>
+      </c>
+      <c r="J20">
+        <v>4186423</v>
+      </c>
+      <c r="K20">
+        <v>38968164</v>
+      </c>
+      <c r="L20">
+        <v>570032</v>
+      </c>
+      <c r="M20">
+        <v>43724619</v>
+      </c>
+      <c r="N20">
         <v>8302865</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>2538614</v>
       </c>
-      <c r="J20">
+      <c r="P20">
         <v>3884826</v>
       </c>
-      <c r="K20">
+      <c r="Q20">
         <v>38988918</v>
       </c>
-      <c r="L20">
+      <c r="R20">
         <v>294719</v>
       </c>
-      <c r="M20">
+      <c r="S20">
         <v>43168463</v>
-      </c>
-      <c r="N20">
-        <v>8683749</v>
-      </c>
-      <c r="O20">
-        <v>2653423</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>42672767</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B21">
-        <v>7862567</v>
+        <v>7586013</v>
       </c>
       <c r="C21">
-        <v>2422756</v>
+        <v>2222672</v>
       </c>
       <c r="D21">
-        <v>4186423</v>
+        <v>4526706</v>
       </c>
       <c r="E21">
-        <v>38968164</v>
+        <v>38658546</v>
       </c>
       <c r="F21">
-        <v>570032</v>
+        <v>1016007</v>
       </c>
       <c r="G21">
-        <v>43724619</v>
+        <v>44201259</v>
       </c>
       <c r="H21">
+        <v>8302865</v>
+      </c>
+      <c r="I21">
+        <v>2538614</v>
+      </c>
+      <c r="J21">
+        <v>3884826</v>
+      </c>
+      <c r="K21">
+        <v>38988918</v>
+      </c>
+      <c r="L21">
+        <v>294719</v>
+      </c>
+      <c r="M21">
+        <v>43168463</v>
+      </c>
+      <c r="N21">
         <v>8683749</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>2653423</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>42672767</v>
-      </c>
-      <c r="N21">
-        <v>9231487</v>
-      </c>
-      <c r="O21">
-        <v>2863195</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>41915257</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B22">
-        <v>8302865</v>
+        <v>7862567</v>
       </c>
       <c r="C22">
-        <v>2538614</v>
+        <v>2422756</v>
       </c>
       <c r="D22">
-        <v>3884826</v>
+        <v>4186423</v>
       </c>
       <c r="E22">
-        <v>38988918</v>
+        <v>38968164</v>
       </c>
       <c r="F22">
-        <v>294719</v>
+        <v>570032</v>
       </c>
       <c r="G22">
-        <v>43168463</v>
+        <v>43724619</v>
       </c>
       <c r="H22">
+        <v>8683749</v>
+      </c>
+      <c r="I22">
+        <v>2653423</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>42672767</v>
+      </c>
+      <c r="N22">
         <v>9231487</v>
       </c>
-      <c r="I22">
+      <c r="O22">
         <v>2863195</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>41915257</v>
-      </c>
-      <c r="N22">
-        <v>9829232</v>
-      </c>
-      <c r="O22">
-        <v>3259454</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>40921215</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B23">
-        <v>8683749</v>
+        <v>8302865</v>
       </c>
       <c r="C23">
-        <v>2653423</v>
+        <v>2538614</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3884826</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>38988918</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>294719</v>
       </c>
       <c r="G23">
-        <v>42672767</v>
+        <v>43168463</v>
       </c>
       <c r="H23">
+        <v>9231487</v>
+      </c>
+      <c r="I23">
+        <v>2863195</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>41915257</v>
+      </c>
+      <c r="N23">
         <v>9829232</v>
       </c>
-      <c r="I23">
+      <c r="O23">
         <v>3259454</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>40921215</v>
-      </c>
-      <c r="N23">
-        <v>10307179</v>
-      </c>
-      <c r="O23">
-        <v>3862335</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>39840387</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B24">
-        <v>9231487</v>
+        <v>8683749</v>
       </c>
       <c r="C24">
-        <v>2863195</v>
+        <v>2653423</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4870,54 +4947,54 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41915257</v>
+        <v>42672767</v>
       </c>
       <c r="H24">
+        <v>9829232</v>
+      </c>
+      <c r="I24">
+        <v>3259454</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>40921215</v>
+      </c>
+      <c r="N24">
         <v>10307179</v>
       </c>
-      <c r="I24">
+      <c r="O24">
         <v>3862335</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>39840387</v>
-      </c>
-      <c r="N24">
-        <v>10942694</v>
-      </c>
-      <c r="O24">
-        <v>4426185</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>38641022</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B25">
-        <v>9829232</v>
+        <v>9231487</v>
       </c>
       <c r="C25">
-        <v>3259454</v>
+        <v>2863195</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4929,54 +5006,54 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>40921215</v>
+        <v>41915257</v>
       </c>
       <c r="H25">
+        <v>10307179</v>
+      </c>
+      <c r="I25">
+        <v>3862335</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>39840387</v>
+      </c>
+      <c r="N25">
         <v>10942694</v>
       </c>
-      <c r="I25">
+      <c r="O25">
         <v>4426185</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>38641022</v>
-      </c>
-      <c r="N25">
-        <v>11786620</v>
-      </c>
-      <c r="O25">
-        <v>4805486</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>37417795</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B26">
-        <v>10307179</v>
+        <v>9829232</v>
       </c>
       <c r="C26">
-        <v>3862335</v>
+        <v>3259454</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4988,54 +5065,54 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>39840387</v>
+        <v>40921215</v>
       </c>
       <c r="H26">
+        <v>10942694</v>
+      </c>
+      <c r="I26">
+        <v>4426185</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>38641022</v>
+      </c>
+      <c r="N26">
         <v>11786620</v>
       </c>
-      <c r="I26">
+      <c r="O26">
         <v>4805486</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>37417795</v>
-      </c>
-      <c r="N26">
-        <v>12581126</v>
-      </c>
-      <c r="O26">
-        <v>5096568</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>36332207</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B27">
-        <v>10942694</v>
+        <v>10307179</v>
       </c>
       <c r="C27">
-        <v>4426185</v>
+        <v>3862335</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5047,54 +5124,54 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>38641022</v>
+        <v>39840387</v>
       </c>
       <c r="H27">
+        <v>11786620</v>
+      </c>
+      <c r="I27">
+        <v>4805486</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>37417795</v>
+      </c>
+      <c r="N27">
         <v>12581126</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>5096568</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>36332207</v>
-      </c>
-      <c r="N27">
-        <v>13334156</v>
-      </c>
-      <c r="O27">
-        <v>5075930</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>35599815</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B28">
-        <v>11786620</v>
+        <v>10942694</v>
       </c>
       <c r="C28">
-        <v>4805486</v>
+        <v>4426185</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5106,54 +5183,54 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>37417795</v>
+        <v>38641022</v>
       </c>
       <c r="H28">
+        <v>12581126</v>
+      </c>
+      <c r="I28">
+        <v>5096568</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>36332207</v>
+      </c>
+      <c r="N28">
         <v>13334156</v>
       </c>
-      <c r="I28">
+      <c r="O28">
         <v>5075930</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>35599815</v>
-      </c>
-      <c r="N28">
-        <v>14507530</v>
-      </c>
-      <c r="O28">
-        <v>5210293</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>34292078</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B29">
-        <v>12581126</v>
+        <v>11786620</v>
       </c>
       <c r="C29">
-        <v>5096568</v>
+        <v>4805486</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5165,54 +5242,54 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>36332207</v>
+        <v>37417795</v>
       </c>
       <c r="H29">
+        <v>13334156</v>
+      </c>
+      <c r="I29">
+        <v>5075930</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>35599815</v>
+      </c>
+      <c r="N29">
         <v>14507530</v>
       </c>
-      <c r="I29">
+      <c r="O29">
         <v>5210293</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>34292078</v>
-      </c>
-      <c r="N29">
-        <v>15656647</v>
-      </c>
-      <c r="O29">
-        <v>6065610</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>32287644</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B30">
-        <v>13334156</v>
+        <v>12581126</v>
       </c>
       <c r="C30">
-        <v>5075930</v>
+        <v>5096568</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5224,54 +5301,54 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>35599815</v>
+        <v>36332207</v>
       </c>
       <c r="H30">
+        <v>14507530</v>
+      </c>
+      <c r="I30">
+        <v>5210293</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>34292078</v>
+      </c>
+      <c r="N30">
         <v>15656647</v>
       </c>
-      <c r="I30">
+      <c r="O30">
         <v>6065610</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>32287644</v>
-      </c>
-      <c r="N30">
-        <v>16708830</v>
-      </c>
-      <c r="O30">
-        <v>7672393</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>29628678</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B31">
-        <v>14507530</v>
+        <v>13334156</v>
       </c>
       <c r="C31">
-        <v>5210293</v>
+        <v>5075930</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5283,54 +5360,54 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>34292078</v>
+        <v>35599815</v>
       </c>
       <c r="H31">
+        <v>15656647</v>
+      </c>
+      <c r="I31">
+        <v>6065610</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>32287644</v>
+      </c>
+      <c r="N31">
         <v>16708830</v>
       </c>
-      <c r="I31">
+      <c r="O31">
         <v>7672393</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <v>29628678</v>
-      </c>
-      <c r="N31">
-        <v>17568325</v>
-      </c>
-      <c r="O31">
-        <v>9940124</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>26501452</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B32">
-        <v>15656647</v>
+        <v>14507530</v>
       </c>
       <c r="C32">
-        <v>6065610</v>
+        <v>5210293</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5342,54 +5419,54 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>32287644</v>
+        <v>34292078</v>
       </c>
       <c r="H32">
+        <v>16708830</v>
+      </c>
+      <c r="I32">
+        <v>7672393</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>29628678</v>
+      </c>
+      <c r="N32">
         <v>17568325</v>
       </c>
-      <c r="I32">
+      <c r="O32">
         <v>9940124</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>26501452</v>
-      </c>
-      <c r="N32">
-        <v>20322806</v>
-      </c>
-      <c r="O32">
-        <v>11341436</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>22345659</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B33">
-        <v>16708830</v>
+        <v>15656647</v>
       </c>
       <c r="C33">
-        <v>7672393</v>
+        <v>6065610</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5401,54 +5478,54 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>29628678</v>
+        <v>32287644</v>
       </c>
       <c r="H33">
+        <v>17568325</v>
+      </c>
+      <c r="I33">
+        <v>9940124</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>26501452</v>
+      </c>
+      <c r="N33">
         <v>20322806</v>
       </c>
-      <c r="I33">
+      <c r="O33">
         <v>11341436</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>22345659</v>
-      </c>
-      <c r="N33">
-        <v>21289761</v>
-      </c>
-      <c r="O33">
-        <v>13149676</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>19570464</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B34">
-        <v>17568325</v>
+        <v>16708830</v>
       </c>
       <c r="C34">
-        <v>9940124</v>
+        <v>7672393</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5460,54 +5537,54 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>26501452</v>
+        <v>29628678</v>
       </c>
       <c r="H34">
+        <v>20322806</v>
+      </c>
+      <c r="I34">
+        <v>11341436</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>22345659</v>
+      </c>
+      <c r="N34">
         <v>21289761</v>
       </c>
-      <c r="I34">
+      <c r="O34">
         <v>13149676</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>19570464</v>
-      </c>
-      <c r="N34">
-        <v>22879167</v>
-      </c>
-      <c r="O34">
-        <v>13741130</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>17389604</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B35">
-        <v>20322806</v>
+        <v>17568325</v>
       </c>
       <c r="C35">
-        <v>11341436</v>
+        <v>9940124</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5519,54 +5596,54 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>22345659</v>
+        <v>26501452</v>
       </c>
       <c r="H35">
+        <v>21289761</v>
+      </c>
+      <c r="I35">
+        <v>13149676</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>19570464</v>
+      </c>
+      <c r="N35">
         <v>22879167</v>
       </c>
-      <c r="I35">
+      <c r="O35">
         <v>13741130</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
         <v>17389604</v>
-      </c>
-      <c r="N35">
-        <v>24745853</v>
-      </c>
-      <c r="O35">
-        <v>13879852</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>15384196</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B36">
-        <v>21289761</v>
+        <v>20322806</v>
       </c>
       <c r="C36">
-        <v>13149676</v>
+        <v>11341436</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5578,54 +5655,54 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>19570464</v>
+        <v>22345659</v>
       </c>
       <c r="H36">
+        <v>22879167</v>
+      </c>
+      <c r="I36">
+        <v>13741130</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>17389604</v>
+      </c>
+      <c r="N36">
         <v>24745853</v>
       </c>
-      <c r="I36">
+      <c r="O36">
         <v>13879852</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
         <v>15384196</v>
-      </c>
-      <c r="N36">
-        <v>27065063</v>
-      </c>
-      <c r="O36">
-        <v>13015437</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>13929401</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B37">
-        <v>22879167</v>
+        <v>21289761</v>
       </c>
       <c r="C37">
-        <v>13741130</v>
+        <v>13149676</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5637,54 +5714,54 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>17389604</v>
+        <v>19570464</v>
       </c>
       <c r="H37">
+        <v>24745853</v>
+      </c>
+      <c r="I37">
+        <v>13879852</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>15384196</v>
+      </c>
+      <c r="N37">
         <v>27065063</v>
       </c>
-      <c r="I37">
+      <c r="O37">
         <v>13015437</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>13929401</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B38">
-        <v>24745853</v>
+        <v>22879167</v>
       </c>
       <c r="C38">
-        <v>13879852</v>
+        <v>13741130</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5696,13 +5773,13 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>15384196</v>
+        <v>17389604</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>27065063</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>13015437</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -5714,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>13929401</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -5737,60 +5814,119 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B39">
+        <v>24745853</v>
+      </c>
+      <c r="C39">
+        <v>13879852</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>15384196</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="2">
         <v>44391</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>27065063</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>13015437</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>13929401</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,1784 +556,1784 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2">
-        <v>44657</v>
+        <v>44664</v>
       </c>
       <c r="B2">
-        <v>328614</v>
+        <v>337060</v>
       </c>
       <c r="C2">
-        <v>34073</v>
+        <v>31557</v>
       </c>
       <c r="D2">
-        <v>161287</v>
+        <v>162436</v>
       </c>
       <c r="E2">
-        <v>193193</v>
+        <v>199002</v>
       </c>
       <c r="F2">
-        <v>1097617</v>
+        <v>1219494</v>
       </c>
       <c r="G2">
-        <v>1452097</v>
+        <v>1580932</v>
       </c>
       <c r="H2">
-        <v>3729</v>
+        <v>3658</v>
       </c>
       <c r="I2">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="J2">
-        <v>1846</v>
+        <v>1825</v>
       </c>
       <c r="K2">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="L2">
-        <v>10150</v>
+        <v>11309</v>
       </c>
       <c r="M2">
-        <v>13017</v>
+        <v>14164</v>
       </c>
       <c r="N2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="O2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R2">
-        <v>478</v>
+        <v>519</v>
       </c>
       <c r="S2">
-        <v>611</v>
+        <v>657</v>
       </c>
       <c r="T2">
-        <v>850</v>
+        <v>735</v>
       </c>
       <c r="U2">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="V2">
-        <v>473</v>
+        <v>369</v>
       </c>
       <c r="W2">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="X2">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="Y2">
-        <v>2152</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2">
-        <v>44650</v>
+        <v>44657</v>
       </c>
       <c r="B3">
-        <v>310234</v>
+        <v>328614</v>
       </c>
       <c r="C3">
-        <v>36199</v>
+        <v>34073</v>
       </c>
       <c r="D3">
-        <v>151285</v>
+        <v>161287</v>
       </c>
       <c r="E3">
-        <v>177731</v>
+        <v>193193</v>
       </c>
       <c r="F3">
-        <v>919400</v>
+        <v>1097617</v>
       </c>
       <c r="G3">
-        <v>1248416</v>
+        <v>1452097</v>
       </c>
       <c r="H3">
-        <v>4164</v>
+        <v>3729</v>
       </c>
       <c r="I3">
-        <v>672</v>
+        <v>574</v>
       </c>
       <c r="J3">
-        <v>2153</v>
+        <v>1846</v>
       </c>
       <c r="K3">
-        <v>1109</v>
+        <v>1021</v>
       </c>
       <c r="L3">
-        <v>9438</v>
+        <v>10150</v>
       </c>
       <c r="M3">
-        <v>12700</v>
+        <v>13017</v>
       </c>
       <c r="N3">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="O3">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P3">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="Q3">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R3">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="S3">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="T3">
-        <v>1149</v>
+        <v>850</v>
       </c>
       <c r="U3">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="V3">
-        <v>654</v>
+        <v>473</v>
       </c>
       <c r="W3">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="X3">
-        <v>1688</v>
+        <v>1561</v>
       </c>
       <c r="Y3">
-        <v>2489</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="B4">
-        <v>301078</v>
+        <v>310234</v>
       </c>
       <c r="C4">
-        <v>41780</v>
+        <v>36199</v>
       </c>
       <c r="D4">
-        <v>141855</v>
+        <v>151285</v>
       </c>
       <c r="E4">
-        <v>162770</v>
+        <v>177731</v>
       </c>
       <c r="F4">
-        <v>747670</v>
+        <v>919400</v>
       </c>
       <c r="G4">
-        <v>1052295</v>
+        <v>1248416</v>
       </c>
       <c r="H4">
-        <v>5247</v>
+        <v>4164</v>
       </c>
       <c r="I4">
-        <v>856</v>
+        <v>672</v>
       </c>
       <c r="J4">
-        <v>2990</v>
+        <v>2153</v>
       </c>
       <c r="K4">
-        <v>1293</v>
+        <v>1109</v>
       </c>
       <c r="L4">
-        <v>9812</v>
+        <v>9438</v>
       </c>
       <c r="M4">
-        <v>14095</v>
+        <v>12700</v>
       </c>
       <c r="N4">
-        <v>381</v>
+        <v>272</v>
       </c>
       <c r="O4">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P4">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="Q4">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="R4">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="S4">
-        <v>657</v>
+        <v>595</v>
       </c>
       <c r="T4">
-        <v>1552</v>
+        <v>1149</v>
       </c>
       <c r="U4">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="V4">
-        <v>1004</v>
+        <v>654</v>
       </c>
       <c r="W4">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="X4">
-        <v>2022</v>
+        <v>1688</v>
       </c>
       <c r="Y4">
-        <v>3228</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="B5">
-        <v>320381</v>
+        <v>301078</v>
       </c>
       <c r="C5">
-        <v>52934</v>
+        <v>41780</v>
       </c>
       <c r="D5">
-        <v>146615</v>
+        <v>141855</v>
       </c>
       <c r="E5">
-        <v>154589</v>
+        <v>162770</v>
       </c>
       <c r="F5">
-        <v>602042</v>
+        <v>747670</v>
       </c>
       <c r="G5">
-        <v>903246</v>
+        <v>1052295</v>
       </c>
       <c r="H5">
-        <v>7093</v>
+        <v>5247</v>
       </c>
       <c r="I5">
-        <v>1082</v>
+        <v>856</v>
       </c>
       <c r="J5">
-        <v>4424</v>
+        <v>2990</v>
       </c>
       <c r="K5">
-        <v>1654</v>
+        <v>1293</v>
       </c>
       <c r="L5">
-        <v>10840</v>
+        <v>9812</v>
       </c>
       <c r="M5">
-        <v>16918</v>
+        <v>14095</v>
       </c>
       <c r="N5">
-        <v>549</v>
+        <v>381</v>
       </c>
       <c r="O5">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P5">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="Q5">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="R5">
-        <v>506</v>
+        <v>452</v>
       </c>
       <c r="S5">
-        <v>808</v>
+        <v>657</v>
       </c>
       <c r="T5">
-        <v>2117</v>
+        <v>1552</v>
       </c>
       <c r="U5">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="V5">
-        <v>1489</v>
+        <v>1004</v>
       </c>
       <c r="W5">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="X5">
-        <v>2356</v>
+        <v>2022</v>
       </c>
       <c r="Y5">
-        <v>4109</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="B6">
-        <v>263373</v>
+        <v>320381</v>
       </c>
       <c r="C6">
-        <v>44050</v>
+        <v>52934</v>
       </c>
       <c r="D6">
-        <v>195682</v>
+        <v>146615</v>
       </c>
       <c r="E6">
-        <v>147602</v>
+        <v>154589</v>
       </c>
       <c r="F6">
-        <v>569292</v>
+        <v>602042</v>
       </c>
       <c r="G6">
-        <v>912576</v>
+        <v>903246</v>
       </c>
       <c r="H6">
-        <v>8894</v>
+        <v>7093</v>
       </c>
       <c r="I6">
-        <v>1220</v>
+        <v>1082</v>
       </c>
       <c r="J6">
-        <v>6443</v>
+        <v>4424</v>
       </c>
       <c r="K6">
-        <v>2105</v>
+        <v>1654</v>
       </c>
       <c r="L6">
-        <v>11808</v>
+        <v>10840</v>
       </c>
       <c r="M6">
-        <v>20356</v>
+        <v>16918</v>
       </c>
       <c r="N6">
-        <v>720</v>
+        <v>549</v>
       </c>
       <c r="O6">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P6">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="Q6">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="R6">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="S6">
-        <v>950</v>
+        <v>808</v>
       </c>
       <c r="T6">
-        <v>2655</v>
+        <v>2117</v>
       </c>
       <c r="U6">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="V6">
-        <v>2075</v>
+        <v>1489</v>
       </c>
       <c r="W6">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="X6">
-        <v>2613</v>
+        <v>2356</v>
       </c>
       <c r="Y6">
-        <v>4991</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B7">
-        <v>362240</v>
+        <v>263373</v>
       </c>
       <c r="C7">
-        <v>61074</v>
+        <v>44050</v>
       </c>
       <c r="D7">
-        <v>316885</v>
+        <v>195682</v>
       </c>
       <c r="E7">
-        <v>210897</v>
+        <v>147602</v>
       </c>
       <c r="F7">
-        <v>617287</v>
+        <v>569292</v>
       </c>
       <c r="G7">
-        <v>1145069</v>
+        <v>912576</v>
       </c>
       <c r="H7">
-        <v>11144</v>
+        <v>8894</v>
       </c>
       <c r="I7">
-        <v>1422</v>
+        <v>1220</v>
       </c>
       <c r="J7">
-        <v>9008</v>
+        <v>6443</v>
       </c>
       <c r="K7">
-        <v>2676</v>
+        <v>2105</v>
       </c>
       <c r="L7">
-        <v>12272</v>
+        <v>11808</v>
       </c>
       <c r="M7">
-        <v>23956</v>
+        <v>20356</v>
       </c>
       <c r="N7">
-        <v>941</v>
+        <v>720</v>
       </c>
       <c r="O7">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P7">
-        <v>470</v>
+        <v>319</v>
       </c>
       <c r="Q7">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="R7">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="S7">
-        <v>1134</v>
+        <v>950</v>
       </c>
       <c r="T7">
-        <v>3198</v>
+        <v>2655</v>
       </c>
       <c r="U7">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="V7">
-        <v>2507</v>
+        <v>2075</v>
       </c>
       <c r="W7">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="X7">
-        <v>2677</v>
+        <v>2613</v>
       </c>
       <c r="Y7">
-        <v>5521</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B8">
-        <v>503511</v>
+        <v>362240</v>
       </c>
       <c r="C8">
-        <v>81921</v>
+        <v>61074</v>
       </c>
       <c r="D8">
-        <v>543352</v>
+        <v>316885</v>
       </c>
       <c r="E8">
-        <v>313619</v>
+        <v>210897</v>
       </c>
       <c r="F8">
-        <v>682585</v>
+        <v>617287</v>
       </c>
       <c r="G8">
-        <v>1539556</v>
+        <v>1145069</v>
       </c>
       <c r="H8">
-        <v>13534</v>
+        <v>11144</v>
       </c>
       <c r="I8">
-        <v>1516</v>
+        <v>1422</v>
       </c>
       <c r="J8">
-        <v>11607</v>
+        <v>9008</v>
       </c>
       <c r="K8">
-        <v>3210</v>
+        <v>2676</v>
       </c>
       <c r="L8">
-        <v>12271</v>
+        <v>12272</v>
       </c>
       <c r="M8">
-        <v>27088</v>
+        <v>23956</v>
       </c>
       <c r="N8">
-        <v>1261</v>
+        <v>941</v>
       </c>
       <c r="O8">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P8">
-        <v>617</v>
+        <v>470</v>
       </c>
       <c r="Q8">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="R8">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="S8">
-        <v>1304</v>
+        <v>1134</v>
       </c>
       <c r="T8">
-        <v>3470</v>
+        <v>3198</v>
       </c>
       <c r="U8">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="V8">
-        <v>2795</v>
+        <v>2507</v>
       </c>
       <c r="W8">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="X8">
-        <v>2403</v>
+        <v>2677</v>
       </c>
       <c r="Y8">
-        <v>5527</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B9">
-        <v>642419</v>
+        <v>503511</v>
       </c>
       <c r="C9">
-        <v>102315</v>
+        <v>81921</v>
       </c>
       <c r="D9">
-        <v>848833</v>
+        <v>543352</v>
       </c>
       <c r="E9">
-        <v>439413</v>
+        <v>313619</v>
       </c>
       <c r="F9">
-        <v>717143</v>
+        <v>682585</v>
       </c>
       <c r="G9">
-        <v>2005389</v>
+        <v>1539556</v>
       </c>
       <c r="H9">
-        <v>15012</v>
+        <v>13534</v>
       </c>
       <c r="I9">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="J9">
-        <v>13660</v>
+        <v>11607</v>
       </c>
       <c r="K9">
-        <v>3480</v>
+        <v>3210</v>
       </c>
       <c r="L9">
-        <v>11075</v>
+        <v>12271</v>
       </c>
       <c r="M9">
-        <v>28215</v>
+        <v>27088</v>
       </c>
       <c r="N9">
-        <v>1524</v>
+        <v>1261</v>
       </c>
       <c r="O9">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P9">
-        <v>736</v>
+        <v>617</v>
       </c>
       <c r="Q9">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="R9">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="S9">
-        <v>1350</v>
+        <v>1304</v>
       </c>
       <c r="T9">
-        <v>3357</v>
+        <v>3470</v>
       </c>
       <c r="U9">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="V9">
-        <v>2757</v>
+        <v>2795</v>
       </c>
       <c r="W9">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="X9">
-        <v>1918</v>
+        <v>2403</v>
       </c>
       <c r="Y9">
-        <v>4952</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B10">
-        <v>777547</v>
+        <v>642419</v>
       </c>
       <c r="C10">
-        <v>127486</v>
+        <v>102315</v>
       </c>
       <c r="D10">
-        <v>1249396</v>
+        <v>848833</v>
       </c>
       <c r="E10">
-        <v>597335</v>
+        <v>439413</v>
       </c>
       <c r="F10">
-        <v>738378</v>
+        <v>717143</v>
       </c>
       <c r="G10">
-        <v>2585109</v>
+        <v>2005389</v>
       </c>
       <c r="H10">
-        <v>15695</v>
+        <v>15012</v>
       </c>
       <c r="I10">
-        <v>1437</v>
+        <v>1532</v>
       </c>
       <c r="J10">
-        <v>14598</v>
+        <v>13660</v>
       </c>
       <c r="K10">
-        <v>3426</v>
+        <v>3480</v>
       </c>
       <c r="L10">
-        <v>9017</v>
+        <v>11075</v>
       </c>
       <c r="M10">
-        <v>27041</v>
+        <v>28215</v>
       </c>
       <c r="N10">
-        <v>1716</v>
+        <v>1524</v>
       </c>
       <c r="O10">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P10">
-        <v>803</v>
+        <v>736</v>
       </c>
       <c r="Q10">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="R10">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="S10">
-        <v>1306</v>
+        <v>1350</v>
       </c>
       <c r="T10">
-        <v>3144</v>
+        <v>3357</v>
       </c>
       <c r="U10">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="V10">
-        <v>2508</v>
+        <v>2757</v>
       </c>
       <c r="W10">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="X10">
-        <v>1331</v>
+        <v>1918</v>
       </c>
       <c r="Y10">
-        <v>4071</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B11">
-        <v>809625</v>
+        <v>777547</v>
       </c>
       <c r="C11">
-        <v>137850</v>
+        <v>127486</v>
       </c>
       <c r="D11">
-        <v>1532777</v>
+        <v>1249396</v>
       </c>
       <c r="E11">
-        <v>687597</v>
+        <v>597335</v>
       </c>
       <c r="F11">
-        <v>672910</v>
+        <v>738378</v>
       </c>
       <c r="G11">
-        <v>2893284</v>
+        <v>2585109</v>
       </c>
       <c r="H11">
-        <v>15049</v>
+        <v>15695</v>
       </c>
       <c r="I11">
-        <v>1240</v>
+        <v>1437</v>
       </c>
       <c r="J11">
-        <v>13663</v>
+        <v>14598</v>
       </c>
       <c r="K11">
-        <v>2915</v>
+        <v>3426</v>
       </c>
       <c r="L11">
-        <v>6606</v>
+        <v>9017</v>
       </c>
       <c r="M11">
-        <v>23184</v>
+        <v>27041</v>
       </c>
       <c r="N11">
-        <v>1792</v>
+        <v>1716</v>
       </c>
       <c r="O11">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="Q11">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="R11">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="S11">
-        <v>1166</v>
+        <v>1306</v>
       </c>
       <c r="T11">
-        <v>2632</v>
+        <v>3144</v>
       </c>
       <c r="U11">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="V11">
-        <v>2172</v>
+        <v>2508</v>
       </c>
       <c r="W11">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="X11">
-        <v>814</v>
+        <v>1331</v>
       </c>
       <c r="Y11">
-        <v>3168</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B12">
-        <v>703732</v>
+        <v>809625</v>
       </c>
       <c r="C12">
-        <v>127478</v>
+        <v>137850</v>
       </c>
       <c r="D12">
-        <v>1544092</v>
+        <v>1532777</v>
       </c>
       <c r="E12">
-        <v>640805</v>
+        <v>687597</v>
       </c>
       <c r="F12">
-        <v>521657</v>
+        <v>672910</v>
       </c>
       <c r="G12">
-        <v>2706554</v>
+        <v>2893284</v>
       </c>
       <c r="H12">
-        <v>13946</v>
+        <v>15049</v>
       </c>
       <c r="I12">
-        <v>989</v>
+        <v>1240</v>
       </c>
       <c r="J12">
-        <v>11934</v>
+        <v>13663</v>
       </c>
       <c r="K12">
-        <v>2225</v>
+        <v>2915</v>
       </c>
       <c r="L12">
-        <v>4177</v>
+        <v>6606</v>
       </c>
       <c r="M12">
-        <v>18336</v>
+        <v>23184</v>
       </c>
       <c r="N12">
-        <v>1753</v>
+        <v>1792</v>
       </c>
       <c r="O12">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P12">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="Q12">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="R12">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="S12">
-        <v>1014</v>
+        <v>1166</v>
       </c>
       <c r="T12">
-        <v>2120</v>
+        <v>2632</v>
       </c>
       <c r="U12">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="V12">
-        <v>1805</v>
+        <v>2172</v>
       </c>
       <c r="W12">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="X12">
-        <v>432</v>
+        <v>814</v>
       </c>
       <c r="Y12">
-        <v>2375</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B13">
-        <v>555697</v>
+        <v>703732</v>
       </c>
       <c r="C13">
-        <v>102729</v>
+        <v>127478</v>
       </c>
       <c r="D13">
-        <v>1320086</v>
+        <v>1544092</v>
       </c>
       <c r="E13">
-        <v>527687</v>
+        <v>640805</v>
       </c>
       <c r="F13">
-        <v>358530</v>
+        <v>521657</v>
       </c>
       <c r="G13">
-        <v>2206303</v>
+        <v>2706554</v>
       </c>
       <c r="H13">
-        <v>11487</v>
+        <v>13946</v>
       </c>
       <c r="I13">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="J13">
-        <v>9435</v>
+        <v>11934</v>
       </c>
       <c r="K13">
-        <v>1499</v>
+        <v>2225</v>
       </c>
       <c r="L13">
-        <v>2066</v>
+        <v>4177</v>
       </c>
       <c r="M13">
-        <v>13000</v>
+        <v>18336</v>
       </c>
       <c r="N13">
-        <v>1557</v>
+        <v>1753</v>
       </c>
       <c r="O13">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P13">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="Q13">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R13">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="S13">
-        <v>809</v>
+        <v>1014</v>
       </c>
       <c r="T13">
-        <v>1774</v>
+        <v>2120</v>
       </c>
       <c r="U13">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="V13">
-        <v>1541</v>
+        <v>1805</v>
       </c>
       <c r="W13">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="X13">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="Y13">
-        <v>1863</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B14">
-        <v>395424</v>
+        <v>555697</v>
       </c>
       <c r="C14">
-        <v>68050</v>
+        <v>102729</v>
       </c>
       <c r="D14">
-        <v>955924</v>
+        <v>1320086</v>
       </c>
       <c r="E14">
-        <v>364078</v>
+        <v>527687</v>
       </c>
       <c r="F14">
-        <v>200146</v>
+        <v>358530</v>
       </c>
       <c r="G14">
-        <v>1520148</v>
+        <v>2206303</v>
       </c>
       <c r="H14">
-        <v>9564</v>
+        <v>11487</v>
       </c>
       <c r="I14">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="J14">
-        <v>7594</v>
+        <v>9435</v>
       </c>
       <c r="K14">
-        <v>1055</v>
+        <v>1499</v>
       </c>
       <c r="L14">
-        <v>955</v>
+        <v>2066</v>
       </c>
       <c r="M14">
-        <v>9604</v>
+        <v>13000</v>
       </c>
       <c r="N14">
-        <v>1368</v>
+        <v>1557</v>
       </c>
       <c r="O14">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P14">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="Q14">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R14">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="S14">
-        <v>663</v>
+        <v>809</v>
       </c>
       <c r="T14">
-        <v>1443</v>
+        <v>1774</v>
       </c>
       <c r="U14">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="V14">
-        <v>1370</v>
+        <v>1541</v>
       </c>
       <c r="W14">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X14">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="Y14">
-        <v>1606</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B15">
-        <v>251412</v>
+        <v>395424</v>
       </c>
       <c r="C15">
-        <v>34617</v>
+        <v>68050</v>
       </c>
       <c r="D15">
-        <v>547518</v>
+        <v>955924</v>
       </c>
       <c r="E15">
-        <v>195560</v>
+        <v>364078</v>
       </c>
       <c r="F15">
-        <v>79260</v>
+        <v>200146</v>
       </c>
       <c r="G15">
-        <v>822338</v>
+        <v>1520148</v>
       </c>
       <c r="H15">
-        <v>8278</v>
+        <v>9564</v>
       </c>
       <c r="I15">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="J15">
-        <v>6612</v>
+        <v>7594</v>
       </c>
       <c r="K15">
-        <v>905</v>
+        <v>1055</v>
       </c>
       <c r="L15">
-        <v>546</v>
+        <v>955</v>
       </c>
       <c r="M15">
-        <v>8063</v>
+        <v>9604</v>
       </c>
       <c r="N15">
-        <v>1202</v>
+        <v>1368</v>
       </c>
       <c r="O15">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P15">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="Q15">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R15">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S15">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="T15">
-        <v>1170</v>
+        <v>1443</v>
       </c>
       <c r="U15">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V15">
-        <v>1298</v>
+        <v>1370</v>
       </c>
       <c r="W15">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X15">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Y15">
-        <v>1489</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B16">
-        <v>170551</v>
+        <v>251412</v>
       </c>
       <c r="C16">
-        <v>14491</v>
+        <v>34617</v>
       </c>
       <c r="D16">
-        <v>265724</v>
+        <v>547518</v>
       </c>
       <c r="E16">
-        <v>99757</v>
+        <v>195560</v>
       </c>
       <c r="F16">
-        <v>20375</v>
+        <v>79260</v>
       </c>
       <c r="G16">
-        <v>385856</v>
+        <v>822338</v>
       </c>
       <c r="H16">
-        <v>7059</v>
+        <v>8278</v>
       </c>
       <c r="I16">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J16">
-        <v>5927</v>
+        <v>6612</v>
       </c>
       <c r="K16">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="L16">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="M16">
-        <v>7229</v>
+        <v>8063</v>
       </c>
       <c r="N16">
-        <v>1036</v>
+        <v>1202</v>
       </c>
       <c r="O16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P16">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="Q16">
+        <v>72</v>
+      </c>
+      <c r="R16">
+        <v>46</v>
+      </c>
+      <c r="S16">
+        <v>614</v>
+      </c>
+      <c r="T16">
+        <v>1170</v>
+      </c>
+      <c r="U16">
         <v>89</v>
       </c>
-      <c r="R16">
-        <v>33</v>
-      </c>
-      <c r="S16">
-        <v>555</v>
-      </c>
-      <c r="T16">
-        <v>994</v>
-      </c>
-      <c r="U16">
-        <v>75</v>
-      </c>
       <c r="V16">
-        <v>1108</v>
+        <v>1298</v>
       </c>
       <c r="W16">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="X16">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Y16">
-        <v>1262</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B17">
-        <v>140677</v>
+        <v>170551</v>
       </c>
       <c r="C17">
-        <v>9069</v>
+        <v>14491</v>
       </c>
       <c r="D17">
-        <v>91366</v>
+        <v>265724</v>
       </c>
       <c r="E17">
-        <v>155978</v>
+        <v>99757</v>
       </c>
       <c r="F17">
-        <v>7655</v>
+        <v>20375</v>
       </c>
       <c r="G17">
-        <v>254999</v>
+        <v>385856</v>
       </c>
       <c r="H17">
-        <v>5944</v>
+        <v>7059</v>
       </c>
       <c r="I17">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J17">
-        <v>4047</v>
+        <v>5927</v>
       </c>
       <c r="K17">
-        <v>2065</v>
+        <v>934</v>
       </c>
       <c r="L17">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="M17">
-        <v>6384</v>
+        <v>7229</v>
       </c>
       <c r="N17">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="O17">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P17">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="Q17">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="R17">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S17">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="T17">
-        <v>839</v>
+        <v>994</v>
       </c>
       <c r="U17">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="V17">
-        <v>838</v>
+        <v>1108</v>
       </c>
       <c r="W17">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="X17">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Y17">
-        <v>1105</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B18">
-        <v>114674</v>
+        <v>140677</v>
       </c>
       <c r="C18">
-        <v>7107</v>
+        <v>9069</v>
       </c>
       <c r="D18">
-        <v>71563</v>
+        <v>91366</v>
       </c>
       <c r="E18">
-        <v>122505</v>
+        <v>155978</v>
       </c>
       <c r="F18">
-        <v>4219</v>
+        <v>7655</v>
       </c>
       <c r="G18">
-        <v>198287</v>
+        <v>254999</v>
       </c>
       <c r="H18">
-        <v>5081</v>
+        <v>5944</v>
       </c>
       <c r="I18">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="J18">
-        <v>3432</v>
+        <v>4047</v>
       </c>
       <c r="K18">
-        <v>1843</v>
+        <v>2065</v>
       </c>
       <c r="L18">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="M18">
-        <v>5451</v>
+        <v>6384</v>
       </c>
       <c r="N18">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="O18">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P18">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q18">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="R18">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S18">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="T18">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="U18">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V18">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="W18">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="X18">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Y18">
-        <v>991</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B19">
-        <v>93220</v>
+        <v>114674</v>
       </c>
       <c r="C19">
-        <v>6181</v>
+        <v>7107</v>
       </c>
       <c r="D19">
-        <v>57054</v>
+        <v>71563</v>
       </c>
       <c r="E19">
-        <v>102245</v>
+        <v>122505</v>
       </c>
       <c r="F19">
-        <v>2652</v>
+        <v>4219</v>
       </c>
       <c r="G19">
-        <v>161951</v>
+        <v>198287</v>
       </c>
       <c r="H19">
-        <v>4402</v>
+        <v>5081</v>
       </c>
       <c r="I19">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="J19">
-        <v>2916</v>
+        <v>3432</v>
       </c>
       <c r="K19">
-        <v>1616</v>
+        <v>1843</v>
       </c>
       <c r="L19">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="M19">
-        <v>4653</v>
+        <v>5451</v>
       </c>
       <c r="N19">
-        <v>618</v>
+        <v>747</v>
       </c>
       <c r="O19">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P19">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q19">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R19">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S19">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="T19">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="U19">
+        <v>42</v>
+      </c>
+      <c r="V19">
+        <v>745</v>
+      </c>
+      <c r="W19">
+        <v>257</v>
+      </c>
+      <c r="X19">
         <v>29</v>
       </c>
-      <c r="V19">
-        <v>604</v>
-      </c>
-      <c r="W19">
-        <v>186</v>
-      </c>
-      <c r="X19">
-        <v>17</v>
-      </c>
       <c r="Y19">
-        <v>807</v>
+        <v>991</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B20">
-        <v>75512</v>
+        <v>93220</v>
       </c>
       <c r="C20">
-        <v>5587</v>
+        <v>6181</v>
       </c>
       <c r="D20">
-        <v>44023</v>
+        <v>57054</v>
       </c>
       <c r="E20">
-        <v>82755</v>
+        <v>102245</v>
       </c>
       <c r="F20">
-        <v>1710</v>
+        <v>2652</v>
       </c>
       <c r="G20">
-        <v>128488</v>
+        <v>161951</v>
       </c>
       <c r="H20">
-        <v>3733</v>
+        <v>4402</v>
       </c>
       <c r="I20">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J20">
-        <v>2336</v>
+        <v>2916</v>
       </c>
       <c r="K20">
-        <v>1435</v>
+        <v>1616</v>
       </c>
       <c r="L20">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M20">
-        <v>3845</v>
+        <v>4653</v>
       </c>
       <c r="N20">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="O20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P20">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q20">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S20">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="T20">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="U20">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V20">
-        <v>482</v>
+        <v>604</v>
       </c>
       <c r="W20">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="X20">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y20">
-        <v>690</v>
+        <v>807</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B21">
-        <v>61908</v>
+        <v>75512</v>
       </c>
       <c r="C21">
-        <v>4260</v>
+        <v>5587</v>
       </c>
       <c r="D21">
-        <v>15519</v>
+        <v>44023</v>
       </c>
       <c r="E21">
-        <v>81740</v>
+        <v>82755</v>
       </c>
       <c r="F21">
-        <v>969</v>
+        <v>1710</v>
       </c>
       <c r="G21">
-        <v>98228</v>
+        <v>128488</v>
       </c>
       <c r="H21">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="I21">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J21">
-        <v>1187</v>
+        <v>2336</v>
       </c>
       <c r="K21">
-        <v>2437</v>
+        <v>1435</v>
       </c>
       <c r="L21">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M21">
-        <v>3693</v>
+        <v>3845</v>
       </c>
       <c r="N21">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="O21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P21">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="Q21">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="R21">
         <v>3</v>
       </c>
       <c r="S21">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="T21">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="U21">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="V21">
-        <v>191</v>
+        <v>482</v>
       </c>
       <c r="W21">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="X21">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Y21">
-        <v>555</v>
+        <v>690</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B22">
-        <v>50564</v>
+        <v>61908</v>
       </c>
       <c r="C22">
-        <v>3980</v>
+        <v>4260</v>
       </c>
       <c r="D22">
-        <v>11215</v>
+        <v>15519</v>
       </c>
       <c r="E22">
-        <v>60407</v>
+        <v>81740</v>
       </c>
       <c r="F22">
-        <v>537</v>
+        <v>969</v>
       </c>
       <c r="G22">
-        <v>72159</v>
+        <v>98228</v>
       </c>
       <c r="H22">
-        <v>3220</v>
+        <v>3737</v>
       </c>
       <c r="I22">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J22">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="K22">
-        <v>2075</v>
+        <v>2437</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M22">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="N22">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="O22">
         <v>14</v>
       </c>
       <c r="P22">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q22">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S22">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="T22">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="U22">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V22">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="W22">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y22">
-        <v>444</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B23">
-        <v>40182</v>
+        <v>50564</v>
       </c>
       <c r="C23">
-        <v>3466</v>
+        <v>3980</v>
       </c>
       <c r="D23">
-        <v>8088</v>
+        <v>11215</v>
       </c>
       <c r="E23">
-        <v>43928</v>
+        <v>60407</v>
       </c>
       <c r="F23">
-        <v>286</v>
+        <v>537</v>
       </c>
       <c r="G23">
-        <v>52302</v>
+        <v>72159</v>
       </c>
       <c r="H23">
-        <v>2890</v>
+        <v>3220</v>
       </c>
       <c r="I23">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J23">
-        <v>618</v>
+        <v>826</v>
       </c>
       <c r="K23">
-        <v>1774</v>
+        <v>2075</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>2409</v>
+        <v>2936</v>
       </c>
       <c r="N23">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="O23">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P23">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q23">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="T23">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="U23">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V23">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="W23">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B24">
-        <v>35398</v>
+        <v>40182</v>
       </c>
       <c r="C24">
-        <v>3207</v>
+        <v>3466</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>43928</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G24">
-        <v>40991</v>
+        <v>52302</v>
       </c>
       <c r="H24">
-        <v>2696</v>
+        <v>2890</v>
       </c>
       <c r="I24">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>2037</v>
+        <v>2409</v>
       </c>
       <c r="N24">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="O24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="T24">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="U24">
         <v>27</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B25">
-        <v>34128</v>
+        <v>35398</v>
       </c>
       <c r="C25">
-        <v>3421</v>
+        <v>3207</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>34131</v>
+        <v>40991</v>
       </c>
       <c r="H25">
-        <v>2845</v>
+        <v>2696</v>
       </c>
       <c r="I25">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1815</v>
+        <v>2037</v>
       </c>
       <c r="N25">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="O25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="T25">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="U25">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2399,18 +2399,18 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B26">
-        <v>36194</v>
+        <v>34128</v>
       </c>
       <c r="C26">
-        <v>4127</v>
+        <v>3421</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>31514</v>
+        <v>34131</v>
       </c>
       <c r="H26">
-        <v>3396</v>
+        <v>2845</v>
       </c>
       <c r="I26">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>1954</v>
+        <v>1815</v>
       </c>
       <c r="N26">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="O26">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="T26">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="U26">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2476,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>511</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B27">
-        <v>45790</v>
+        <v>36194</v>
       </c>
       <c r="C27">
-        <v>5352</v>
+        <v>4127</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>33496</v>
+        <v>31514</v>
       </c>
       <c r="H27">
-        <v>4274</v>
+        <v>3396</v>
       </c>
       <c r="I27">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="N27">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="O27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T27">
-        <v>775</v>
+        <v>636</v>
       </c>
       <c r="U27">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2553,18 +2553,18 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>578</v>
+        <v>511</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B28">
-        <v>56808</v>
+        <v>45790</v>
       </c>
       <c r="C28">
-        <v>6952</v>
+        <v>5352</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>36529</v>
+        <v>33496</v>
       </c>
       <c r="H28">
-        <v>5224</v>
+        <v>4274</v>
       </c>
       <c r="I28">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>2268</v>
+        <v>2133</v>
       </c>
       <c r="N28">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="O28">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="T28">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="U28">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2630,18 +2630,18 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B29">
-        <v>70900</v>
+        <v>56808</v>
       </c>
       <c r="C29">
-        <v>9284</v>
+        <v>6952</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>40060</v>
+        <v>36529</v>
       </c>
       <c r="H29">
-        <v>6160</v>
+        <v>5224</v>
       </c>
       <c r="I29">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>2418</v>
+        <v>2268</v>
       </c>
       <c r="N29">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="O29">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T29">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="U29">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2707,18 +2707,18 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B30">
-        <v>86133</v>
+        <v>70900</v>
       </c>
       <c r="C30">
-        <v>11735</v>
+        <v>9284</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>44050</v>
+        <v>40060</v>
       </c>
       <c r="H30">
-        <v>6782</v>
+        <v>6160</v>
       </c>
       <c r="I30">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>2456</v>
+        <v>2418</v>
       </c>
       <c r="N30">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="O30">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T30">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="U30">
         <v>57</v>
@@ -2784,18 +2784,18 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>509</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B31">
-        <v>96900</v>
+        <v>86133</v>
       </c>
       <c r="C31">
-        <v>13728</v>
+        <v>11735</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>44990</v>
+        <v>44050</v>
       </c>
       <c r="H31">
-        <v>6841</v>
+        <v>6782</v>
       </c>
       <c r="I31">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>2331</v>
+        <v>2456</v>
       </c>
       <c r="N31">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="O31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="T31">
-        <v>770</v>
+        <v>877</v>
       </c>
       <c r="U31">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2861,18 +2861,18 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>405</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B32">
-        <v>104890</v>
+        <v>96900</v>
       </c>
       <c r="C32">
-        <v>16129</v>
+        <v>13728</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2884,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>43775</v>
+        <v>44990</v>
       </c>
       <c r="H32">
-        <v>6579</v>
+        <v>6841</v>
       </c>
       <c r="I32">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>2118</v>
+        <v>2331</v>
       </c>
       <c r="N32">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="O32">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T32">
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="U32">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2938,18 +2938,18 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>280</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B33">
-        <v>107937</v>
+        <v>104890</v>
       </c>
       <c r="C33">
-        <v>18925</v>
+        <v>16129</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>40380</v>
+        <v>43775</v>
       </c>
       <c r="H33">
-        <v>5988</v>
+        <v>6579</v>
       </c>
       <c r="I33">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2979,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1788</v>
+        <v>2118</v>
       </c>
       <c r="N33">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="O33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="T33">
-        <v>383</v>
+        <v>571</v>
       </c>
       <c r="U33">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3015,18 +3015,18 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B34">
-        <v>104405</v>
+        <v>107937</v>
       </c>
       <c r="C34">
-        <v>21703</v>
+        <v>18925</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>33894</v>
+        <v>40380</v>
       </c>
       <c r="H34">
-        <v>5162</v>
+        <v>5988</v>
       </c>
       <c r="I34">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3056,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>1349</v>
+        <v>1788</v>
       </c>
       <c r="N34">
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="O34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="T34">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="U34">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3092,18 +3092,18 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>92</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B35">
-        <v>95261</v>
+        <v>104405</v>
       </c>
       <c r="C35">
-        <v>22568</v>
+        <v>21703</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3115,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>24978</v>
+        <v>33894</v>
       </c>
       <c r="H35">
-        <v>4052</v>
+        <v>5162</v>
       </c>
       <c r="I35">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3133,13 +3133,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>959</v>
+        <v>1349</v>
       </c>
       <c r="N35">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="O35">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3151,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="T35">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="U35">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3169,18 +3169,18 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B36">
-        <v>80585</v>
+        <v>95261</v>
       </c>
       <c r="C36">
-        <v>21570</v>
+        <v>22568</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>18887</v>
+        <v>24978</v>
       </c>
       <c r="H36">
-        <v>3067</v>
+        <v>4052</v>
       </c>
       <c r="I36">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>627</v>
+        <v>959</v>
       </c>
       <c r="N36">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="O36">
         <v>22</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="T36">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="U36">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3246,18 +3246,18 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B37">
-        <v>60267</v>
+        <v>80585</v>
       </c>
       <c r="C37">
-        <v>17420</v>
+        <v>21570</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>12333</v>
+        <v>18887</v>
       </c>
       <c r="H37">
-        <v>2234</v>
+        <v>3067</v>
       </c>
       <c r="I37">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3287,13 +3287,13 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="N37">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="O37">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -3305,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="T37">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="U37">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3328,13 +3328,13 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B38">
-        <v>40729</v>
+        <v>60267</v>
       </c>
       <c r="C38">
-        <v>12032</v>
+        <v>17420</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3346,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>7277</v>
+        <v>12333</v>
       </c>
       <c r="H38">
-        <v>1619</v>
+        <v>2234</v>
       </c>
       <c r="I38">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3364,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="N38">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="O38">
         <v>11</v>
@@ -3382,13 +3382,13 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T38">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="U38">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B39">
-        <v>26284</v>
+        <v>40729</v>
       </c>
       <c r="C39">
-        <v>6813</v>
+        <v>12032</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>3805</v>
+        <v>7277</v>
       </c>
       <c r="H39">
-        <v>1483</v>
+        <v>1619</v>
       </c>
       <c r="I39">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="N39">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O39">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -3459,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T39">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="U39">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -3477,83 +3477,160 @@
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B40">
+        <v>26284</v>
+      </c>
+      <c r="C40">
+        <v>6813</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>3805</v>
+      </c>
+      <c r="H40">
+        <v>1483</v>
+      </c>
+      <c r="I40">
+        <v>199</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>224</v>
+      </c>
+      <c r="N40">
+        <v>117</v>
+      </c>
+      <c r="O40">
+        <v>14</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>8</v>
+      </c>
+      <c r="T40">
+        <v>250</v>
+      </c>
+      <c r="U40">
+        <v>47</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="2">
         <v>44391</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>21089</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>3954</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>2310</v>
       </c>
-      <c r="H40">
+      <c r="H41">
         <v>1880</v>
       </c>
-      <c r="I40">
+      <c r="I41">
         <v>240</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
         <v>240</v>
       </c>
-      <c r="N40">
+      <c r="N41">
         <v>147</v>
       </c>
-      <c r="O40">
+      <c r="O41">
         <v>20</v>
       </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
         <v>7</v>
       </c>
-      <c r="T40">
+      <c r="T41">
         <v>357</v>
       </c>
-      <c r="U40">
+      <c r="U41">
         <v>72</v>
       </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
         <v>68</v>
       </c>
     </row>
@@ -3564,7 +3641,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3631,1370 +3708,1370 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>44657</v>
+        <v>44664</v>
       </c>
       <c r="B2">
-        <v>7013675</v>
+        <v>6964911</v>
       </c>
       <c r="C2">
-        <v>1152276</v>
+        <v>1066526</v>
       </c>
       <c r="D2">
-        <v>7204908</v>
+        <v>7190108</v>
       </c>
       <c r="E2">
-        <v>4519726</v>
+        <v>4314109</v>
       </c>
       <c r="F2">
-        <v>37775399</v>
+        <v>38107861</v>
       </c>
       <c r="G2">
-        <v>49500033</v>
+        <v>49612078</v>
       </c>
       <c r="H2">
-        <v>7098195</v>
+        <v>7028326</v>
       </c>
       <c r="I2">
-        <v>1506872</v>
+        <v>1290903</v>
       </c>
       <c r="J2">
-        <v>7447233</v>
+        <v>7296048</v>
       </c>
       <c r="K2">
-        <v>4830603</v>
+        <v>4681656</v>
       </c>
       <c r="L2">
-        <v>36783081</v>
+        <v>37346582</v>
       </c>
       <c r="M2">
-        <v>49060917</v>
+        <v>49324286</v>
       </c>
       <c r="N2">
-        <v>7183469</v>
+        <v>7076214</v>
       </c>
       <c r="O2">
-        <v>1764309</v>
+        <v>1502333</v>
       </c>
       <c r="P2">
-        <v>7677503</v>
+        <v>7448135</v>
       </c>
       <c r="Q2">
-        <v>5037350</v>
+        <v>4833172</v>
       </c>
       <c r="R2">
-        <v>36003353</v>
+        <v>36783661</v>
       </c>
       <c r="S2">
-        <v>48718206</v>
+        <v>49064968</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>44650</v>
+        <v>44657</v>
       </c>
       <c r="B3">
-        <v>7051466</v>
+        <v>7013675</v>
       </c>
       <c r="C3">
-        <v>1299786</v>
+        <v>1152276</v>
       </c>
       <c r="D3">
-        <v>7294305</v>
+        <v>7204908</v>
       </c>
       <c r="E3">
-        <v>4675369</v>
+        <v>4519726</v>
       </c>
       <c r="F3">
-        <v>37345088</v>
+        <v>37775399</v>
       </c>
       <c r="G3">
-        <v>49314762</v>
+        <v>49500033</v>
       </c>
       <c r="H3">
-        <v>7184617</v>
+        <v>7098195</v>
       </c>
       <c r="I3">
-        <v>1767691</v>
+        <v>1506872</v>
       </c>
       <c r="J3">
-        <v>7676655</v>
+        <v>7447233</v>
       </c>
       <c r="K3">
-        <v>5034482</v>
+        <v>4830603</v>
       </c>
       <c r="L3">
-        <v>36002569</v>
+        <v>36783081</v>
       </c>
       <c r="M3">
-        <v>48713706</v>
+        <v>49060917</v>
       </c>
       <c r="N3">
-        <v>7340265</v>
+        <v>7183469</v>
       </c>
       <c r="O3">
-        <v>2060560</v>
+        <v>1764309</v>
       </c>
       <c r="P3">
-        <v>8369146</v>
+        <v>7677503</v>
       </c>
       <c r="Q3">
-        <v>5139369</v>
+        <v>5037350</v>
       </c>
       <c r="R3">
-        <v>34756674</v>
+        <v>36003353</v>
       </c>
       <c r="S3">
-        <v>48265189</v>
+        <v>48718206</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="B4">
-        <v>7102203</v>
+        <v>7051466</v>
       </c>
       <c r="C4">
-        <v>1513671</v>
+        <v>1299786</v>
       </c>
       <c r="D4">
-        <v>7446133</v>
+        <v>7294305</v>
       </c>
       <c r="E4">
-        <v>4823786</v>
+        <v>4675369</v>
       </c>
       <c r="F4">
-        <v>36780251</v>
+        <v>37345088</v>
       </c>
       <c r="G4">
-        <v>49050170</v>
+        <v>49314762</v>
       </c>
       <c r="H4">
-        <v>7343079</v>
+        <v>7184617</v>
       </c>
       <c r="I4">
-        <v>2062622</v>
+        <v>1767691</v>
       </c>
       <c r="J4">
-        <v>8368761</v>
+        <v>7676655</v>
       </c>
       <c r="K4">
-        <v>5136508</v>
+        <v>5034482</v>
       </c>
       <c r="L4">
-        <v>34755074</v>
+        <v>36002569</v>
       </c>
       <c r="M4">
-        <v>48260343</v>
+        <v>48713706</v>
       </c>
       <c r="N4">
-        <v>7588956</v>
+        <v>7340265</v>
       </c>
       <c r="O4">
-        <v>2253718</v>
+        <v>2060560</v>
       </c>
       <c r="P4">
-        <v>10013108</v>
+        <v>8369146</v>
       </c>
       <c r="Q4">
-        <v>5232435</v>
+        <v>5139369</v>
       </c>
       <c r="R4">
-        <v>32577827</v>
+        <v>34756674</v>
       </c>
       <c r="S4">
-        <v>47823370</v>
+        <v>48265189</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="B5">
-        <v>7188123</v>
+        <v>7102203</v>
       </c>
       <c r="C5">
-        <v>1774721</v>
+        <v>1513671</v>
       </c>
       <c r="D5">
-        <v>7675977</v>
+        <v>7446133</v>
       </c>
       <c r="E5">
-        <v>5027431</v>
+        <v>4823786</v>
       </c>
       <c r="F5">
-        <v>35999762</v>
+        <v>36780251</v>
       </c>
       <c r="G5">
-        <v>48703170</v>
+        <v>49050170</v>
       </c>
       <c r="H5">
-        <v>7589638</v>
+        <v>7343079</v>
       </c>
       <c r="I5">
-        <v>2256742</v>
+        <v>2062622</v>
       </c>
       <c r="J5">
-        <v>10012637</v>
+        <v>8368761</v>
       </c>
       <c r="K5">
-        <v>5229922</v>
+        <v>5136508</v>
       </c>
       <c r="L5">
-        <v>32577075</v>
+        <v>34755074</v>
       </c>
       <c r="M5">
-        <v>47819634</v>
+        <v>48260343</v>
       </c>
       <c r="N5">
-        <v>7902839</v>
+        <v>7588956</v>
       </c>
       <c r="O5">
-        <v>2289689</v>
+        <v>2253718</v>
       </c>
       <c r="P5">
-        <v>12148491</v>
+        <v>10013108</v>
       </c>
       <c r="Q5">
-        <v>5690505</v>
+        <v>5232435</v>
       </c>
       <c r="R5">
-        <v>29634490</v>
+        <v>32577827</v>
       </c>
       <c r="S5">
-        <v>47473486</v>
+        <v>47823370</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="B6">
-        <v>4922246</v>
+        <v>7188123</v>
       </c>
       <c r="C6">
-        <v>1504174</v>
+        <v>1774721</v>
       </c>
       <c r="D6">
-        <v>8369206</v>
+        <v>7675977</v>
       </c>
       <c r="E6">
-        <v>4462914</v>
+        <v>5027431</v>
       </c>
       <c r="F6">
-        <v>34751405</v>
+        <v>35999762</v>
       </c>
       <c r="G6">
-        <v>47583525</v>
+        <v>48703170</v>
       </c>
       <c r="H6">
-        <v>5237693</v>
+        <v>7589638</v>
       </c>
       <c r="I6">
-        <v>1603693</v>
+        <v>2256742</v>
       </c>
       <c r="J6">
-        <v>12148624</v>
+        <v>10012637</v>
       </c>
       <c r="K6">
-        <v>5387344</v>
+        <v>5229922</v>
       </c>
       <c r="L6">
-        <v>29632591</v>
+        <v>32577075</v>
       </c>
       <c r="M6">
-        <v>47168559</v>
+        <v>47819634</v>
       </c>
       <c r="N6">
-        <v>5475882</v>
+        <v>7902839</v>
       </c>
       <c r="O6">
-        <v>1574138</v>
+        <v>2289689</v>
       </c>
       <c r="P6">
-        <v>14562981</v>
+        <v>12148491</v>
       </c>
       <c r="Q6">
-        <v>6180953</v>
+        <v>5690505</v>
       </c>
       <c r="R6">
-        <v>26215991</v>
+        <v>29634490</v>
       </c>
       <c r="S6">
-        <v>46959925</v>
+        <v>47473486</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B7">
-        <v>5053954</v>
+        <v>4922246</v>
       </c>
       <c r="C7">
-        <v>1597892</v>
+        <v>1504174</v>
       </c>
       <c r="D7">
-        <v>10021741</v>
+        <v>8369206</v>
       </c>
       <c r="E7">
-        <v>4762640</v>
+        <v>4462914</v>
       </c>
       <c r="F7">
-        <v>32573718</v>
+        <v>34751405</v>
       </c>
       <c r="G7">
-        <v>47358099</v>
+        <v>47583525</v>
       </c>
       <c r="H7">
-        <v>5465398</v>
+        <v>5237693</v>
       </c>
       <c r="I7">
-        <v>1580627</v>
+        <v>1603693</v>
       </c>
       <c r="J7">
-        <v>14572377</v>
+        <v>12148624</v>
       </c>
       <c r="K7">
-        <v>6176719</v>
+        <v>5387344</v>
       </c>
       <c r="L7">
-        <v>26214824</v>
+        <v>29632591</v>
       </c>
       <c r="M7">
-        <v>46963920</v>
+        <v>47168559</v>
       </c>
       <c r="N7">
-        <v>5755897</v>
+        <v>5475882</v>
       </c>
       <c r="O7">
-        <v>1547981</v>
+        <v>1574138</v>
       </c>
       <c r="P7">
-        <v>17157988</v>
+        <v>14562981</v>
       </c>
       <c r="Q7">
-        <v>7039120</v>
+        <v>6180953</v>
       </c>
       <c r="R7">
-        <v>22508959</v>
+        <v>26215991</v>
       </c>
       <c r="S7">
-        <v>46706067</v>
+        <v>46959925</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B8">
-        <v>5229604</v>
+        <v>5053954</v>
       </c>
       <c r="C8">
-        <v>1618481</v>
+        <v>1597892</v>
       </c>
       <c r="D8">
-        <v>12157100</v>
+        <v>10021741</v>
       </c>
       <c r="E8">
-        <v>5375529</v>
+        <v>4762640</v>
       </c>
       <c r="F8">
-        <v>29629231</v>
+        <v>32573718</v>
       </c>
       <c r="G8">
-        <v>47161860</v>
+        <v>47358099</v>
       </c>
       <c r="H8">
-        <v>5758356</v>
+        <v>5465398</v>
       </c>
       <c r="I8">
-        <v>1551283</v>
+        <v>1580627</v>
       </c>
       <c r="J8">
-        <v>17157160</v>
+        <v>14572377</v>
       </c>
       <c r="K8">
-        <v>7035796</v>
+        <v>6176719</v>
       </c>
       <c r="L8">
-        <v>22507350</v>
+        <v>26214824</v>
       </c>
       <c r="M8">
-        <v>46700306</v>
+        <v>46963920</v>
       </c>
       <c r="N8">
-        <v>5927007</v>
+        <v>5755897</v>
       </c>
       <c r="O8">
-        <v>1592113</v>
+        <v>1547981</v>
       </c>
       <c r="P8">
-        <v>18793468</v>
+        <v>17157988</v>
       </c>
       <c r="Q8">
-        <v>8015572</v>
+        <v>7039120</v>
       </c>
       <c r="R8">
-        <v>19681785</v>
+        <v>22508959</v>
       </c>
       <c r="S8">
-        <v>46490825</v>
+        <v>46706067</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B9">
-        <v>5467098</v>
+        <v>5229604</v>
       </c>
       <c r="C9">
-        <v>1596811</v>
+        <v>1618481</v>
       </c>
       <c r="D9">
-        <v>14575900</v>
+        <v>12157100</v>
       </c>
       <c r="E9">
-        <v>6164226</v>
+        <v>5375529</v>
       </c>
       <c r="F9">
-        <v>26205910</v>
+        <v>29629231</v>
       </c>
       <c r="G9">
-        <v>46946036</v>
+        <v>47161860</v>
       </c>
       <c r="H9">
-        <v>5926909</v>
+        <v>5758356</v>
       </c>
       <c r="I9">
-        <v>1597860</v>
+        <v>1551283</v>
       </c>
       <c r="J9">
-        <v>18796851</v>
+        <v>17157160</v>
       </c>
       <c r="K9">
-        <v>8012376</v>
+        <v>7035796</v>
       </c>
       <c r="L9">
-        <v>19675949</v>
+        <v>22507350</v>
       </c>
       <c r="M9">
-        <v>46485176</v>
+        <v>46700306</v>
       </c>
       <c r="N9">
-        <v>6040050</v>
+        <v>5927007</v>
       </c>
       <c r="O9">
-        <v>1652417</v>
+        <v>1592113</v>
       </c>
       <c r="P9">
-        <v>20133986</v>
+        <v>18793468</v>
       </c>
       <c r="Q9">
-        <v>9055320</v>
+        <v>8015572</v>
       </c>
       <c r="R9">
-        <v>17128172</v>
+        <v>19681785</v>
       </c>
       <c r="S9">
-        <v>46317478</v>
+        <v>46490825</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B10">
-        <v>5610741</v>
+        <v>5467098</v>
       </c>
       <c r="C10">
-        <v>1575333</v>
+        <v>1596811</v>
       </c>
       <c r="D10">
-        <v>17279465</v>
+        <v>14575900</v>
       </c>
       <c r="E10">
-        <v>7025036</v>
+        <v>6164226</v>
       </c>
       <c r="F10">
-        <v>22519370</v>
+        <v>26205910</v>
       </c>
       <c r="G10">
-        <v>46823871</v>
+        <v>46946036</v>
       </c>
       <c r="H10">
-        <v>5893661</v>
+        <v>5926909</v>
       </c>
       <c r="I10">
-        <v>1663892</v>
+        <v>1597860</v>
       </c>
       <c r="J10">
-        <v>20257123</v>
+        <v>18796851</v>
       </c>
       <c r="K10">
-        <v>9057038</v>
+        <v>8012376</v>
       </c>
       <c r="L10">
-        <v>17138231</v>
+        <v>19675949</v>
       </c>
       <c r="M10">
-        <v>46452392</v>
+        <v>46485176</v>
       </c>
       <c r="N10">
-        <v>6038487</v>
+        <v>6040050</v>
       </c>
       <c r="O10">
-        <v>1684410</v>
+        <v>1652417</v>
       </c>
       <c r="P10">
-        <v>22158953</v>
+        <v>20133986</v>
       </c>
       <c r="Q10">
-        <v>9853675</v>
+        <v>9055320</v>
       </c>
       <c r="R10">
-        <v>14274420</v>
+        <v>17128172</v>
       </c>
       <c r="S10">
-        <v>46287048</v>
+        <v>46317478</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B11">
-        <v>5925943</v>
+        <v>5610741</v>
       </c>
       <c r="C11">
-        <v>1616298</v>
+        <v>1575333</v>
       </c>
       <c r="D11">
-        <v>18801609</v>
+        <v>17279465</v>
       </c>
       <c r="E11">
-        <v>7998741</v>
+        <v>7025036</v>
       </c>
       <c r="F11">
-        <v>19667354</v>
+        <v>22519370</v>
       </c>
       <c r="G11">
-        <v>46467704</v>
+        <v>46823871</v>
       </c>
       <c r="H11">
-        <v>6182863</v>
+        <v>5893661</v>
       </c>
       <c r="I11">
-        <v>1687002</v>
+        <v>1663892</v>
       </c>
       <c r="J11">
-        <v>22039408</v>
+        <v>20257123</v>
       </c>
       <c r="K11">
-        <v>9839532</v>
+        <v>9057038</v>
       </c>
       <c r="L11">
-        <v>14261140</v>
+        <v>17138231</v>
       </c>
       <c r="M11">
-        <v>46140080</v>
+        <v>46452392</v>
       </c>
       <c r="N11">
-        <v>6392072</v>
+        <v>6038487</v>
       </c>
       <c r="O11">
-        <v>1641693</v>
+        <v>1684410</v>
       </c>
       <c r="P11">
-        <v>24567729</v>
+        <v>22158953</v>
       </c>
       <c r="Q11">
-        <v>10413190</v>
+        <v>9853675</v>
       </c>
       <c r="R11">
-        <v>10995261</v>
+        <v>14274420</v>
       </c>
       <c r="S11">
-        <v>45976180</v>
+        <v>46287048</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B12">
-        <v>6113428</v>
+        <v>5925943</v>
       </c>
       <c r="C12">
-        <v>1676275</v>
+        <v>1616298</v>
       </c>
       <c r="D12">
-        <v>20106983</v>
+        <v>18801609</v>
       </c>
       <c r="E12">
-        <v>9023286</v>
+        <v>7998741</v>
       </c>
       <c r="F12">
-        <v>17089973</v>
+        <v>19667354</v>
       </c>
       <c r="G12">
-        <v>46220242</v>
+        <v>46467704</v>
       </c>
       <c r="H12">
-        <v>6466161</v>
+        <v>6182863</v>
       </c>
       <c r="I12">
-        <v>1644869</v>
+        <v>1687002</v>
       </c>
       <c r="J12">
-        <v>24530417</v>
+        <v>22039408</v>
       </c>
       <c r="K12">
-        <v>10394218</v>
+        <v>9839532</v>
       </c>
       <c r="L12">
-        <v>10974280</v>
+        <v>14261140</v>
       </c>
       <c r="M12">
-        <v>45898915</v>
+        <v>46140080</v>
       </c>
       <c r="N12">
-        <v>6710026</v>
+        <v>6392072</v>
       </c>
       <c r="O12">
-        <v>1549282</v>
+        <v>1641693</v>
       </c>
       <c r="P12">
-        <v>25990113</v>
+        <v>24567729</v>
       </c>
       <c r="Q12">
-        <v>11656265</v>
+        <v>10413190</v>
       </c>
       <c r="R12">
-        <v>8104259</v>
+        <v>10995261</v>
       </c>
       <c r="S12">
-        <v>45750637</v>
+        <v>45976180</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B13">
-        <v>6194434</v>
+        <v>6113428</v>
       </c>
       <c r="C13">
-        <v>1720841</v>
+        <v>1676275</v>
       </c>
       <c r="D13">
-        <v>22048677</v>
+        <v>20106983</v>
       </c>
       <c r="E13">
-        <v>9810639</v>
+        <v>9023286</v>
       </c>
       <c r="F13">
-        <v>14235354</v>
+        <v>17089973</v>
       </c>
       <c r="G13">
-        <v>46094670</v>
+        <v>46220242</v>
       </c>
       <c r="H13">
-        <v>6647970</v>
+        <v>6466161</v>
       </c>
       <c r="I13">
-        <v>1566179</v>
+        <v>1644869</v>
       </c>
       <c r="J13">
-        <v>26028307</v>
+        <v>24530417</v>
       </c>
       <c r="K13">
-        <v>11660101</v>
+        <v>10394218</v>
       </c>
       <c r="L13">
-        <v>8107388</v>
+        <v>10974280</v>
       </c>
       <c r="M13">
-        <v>45795796</v>
+        <v>45898915</v>
       </c>
       <c r="N13">
-        <v>6862315</v>
+        <v>6710026</v>
       </c>
       <c r="O13">
-        <v>1493790</v>
+        <v>1549282</v>
       </c>
       <c r="P13">
-        <v>26357835</v>
+        <v>25990113</v>
       </c>
       <c r="Q13">
-        <v>13596764</v>
+        <v>11656265</v>
       </c>
       <c r="R13">
-        <v>5699241</v>
+        <v>8104259</v>
       </c>
       <c r="S13">
-        <v>45653840</v>
+        <v>45750637</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B14">
-        <v>6414467</v>
+        <v>6194434</v>
       </c>
       <c r="C14">
-        <v>1678301</v>
+        <v>1720841</v>
       </c>
       <c r="D14">
-        <v>24562863</v>
+        <v>22048677</v>
       </c>
       <c r="E14">
-        <v>10381759</v>
+        <v>9810639</v>
       </c>
       <c r="F14">
-        <v>10972555</v>
+        <v>14235354</v>
       </c>
       <c r="G14">
-        <v>45917177</v>
+        <v>46094670</v>
       </c>
       <c r="H14">
-        <v>6876688</v>
+        <v>6647970</v>
       </c>
       <c r="I14">
-        <v>1504168</v>
+        <v>1566179</v>
       </c>
       <c r="J14">
-        <v>26348254</v>
+        <v>26028307</v>
       </c>
       <c r="K14">
-        <v>13585896</v>
+        <v>11660101</v>
       </c>
       <c r="L14">
-        <v>5694939</v>
+        <v>8107388</v>
       </c>
       <c r="M14">
-        <v>45629089</v>
+        <v>45795796</v>
       </c>
       <c r="N14">
-        <v>7031651</v>
+        <v>6862315</v>
       </c>
       <c r="O14">
-        <v>1502381</v>
+        <v>1493790</v>
       </c>
       <c r="P14">
-        <v>13119984</v>
+        <v>26357835</v>
       </c>
       <c r="Q14">
-        <v>28222661</v>
+        <v>13596764</v>
       </c>
       <c r="R14">
-        <v>4133267</v>
+        <v>5699241</v>
       </c>
       <c r="S14">
-        <v>45475912</v>
+        <v>45653840</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B15">
-        <v>6660263</v>
+        <v>6414467</v>
       </c>
       <c r="C15">
-        <v>1578764</v>
+        <v>1678301</v>
       </c>
       <c r="D15">
-        <v>26019483</v>
+        <v>24562863</v>
       </c>
       <c r="E15">
-        <v>11648617</v>
+        <v>10381759</v>
       </c>
       <c r="F15">
-        <v>8102818</v>
+        <v>10972555</v>
       </c>
       <c r="G15">
-        <v>45770918</v>
+        <v>45917177</v>
       </c>
       <c r="H15">
+        <v>6876688</v>
+      </c>
+      <c r="I15">
+        <v>1504168</v>
+      </c>
+      <c r="J15">
+        <v>26348254</v>
+      </c>
+      <c r="K15">
+        <v>13585896</v>
+      </c>
+      <c r="L15">
+        <v>5694939</v>
+      </c>
+      <c r="M15">
+        <v>45629089</v>
+      </c>
+      <c r="N15">
         <v>7031651</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>1502381</v>
       </c>
-      <c r="J15">
+      <c r="P15">
         <v>13119984</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <v>28222661</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <v>4133267</v>
       </c>
-      <c r="M15">
+      <c r="S15">
         <v>45475912</v>
-      </c>
-      <c r="N15">
-        <v>7160934</v>
-      </c>
-      <c r="O15">
-        <v>1577260</v>
-      </c>
-      <c r="P15">
-        <v>12254673</v>
-      </c>
-      <c r="Q15">
-        <v>29956598</v>
-      </c>
-      <c r="R15">
-        <v>3060479</v>
-      </c>
-      <c r="S15">
-        <v>45271750</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B16">
-        <v>6876688</v>
+        <v>6660263</v>
       </c>
       <c r="C16">
-        <v>1504168</v>
+        <v>1578764</v>
       </c>
       <c r="D16">
-        <v>26348254</v>
+        <v>26019483</v>
       </c>
       <c r="E16">
-        <v>13585896</v>
+        <v>11648617</v>
       </c>
       <c r="F16">
-        <v>5694939</v>
+        <v>8102818</v>
       </c>
       <c r="G16">
-        <v>45629089</v>
+        <v>45770918</v>
       </c>
       <c r="H16">
+        <v>7031651</v>
+      </c>
+      <c r="I16">
+        <v>1502381</v>
+      </c>
+      <c r="J16">
+        <v>13119984</v>
+      </c>
+      <c r="K16">
+        <v>28222661</v>
+      </c>
+      <c r="L16">
+        <v>4133267</v>
+      </c>
+      <c r="M16">
+        <v>45475912</v>
+      </c>
+      <c r="N16">
         <v>7160934</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>1577260</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <v>12254673</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <v>29956598</v>
       </c>
-      <c r="L16">
+      <c r="R16">
         <v>3060479</v>
       </c>
-      <c r="M16">
+      <c r="S16">
         <v>45271750</v>
-      </c>
-      <c r="N16">
-        <v>7291722</v>
-      </c>
-      <c r="O16">
-        <v>1749607</v>
-      </c>
-      <c r="P16">
-        <v>11949919</v>
-      </c>
-      <c r="Q16">
-        <v>30829431</v>
-      </c>
-      <c r="R16">
-        <v>2189265</v>
-      </c>
-      <c r="S16">
-        <v>44968615</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B17">
-        <v>7031651</v>
+        <v>6876688</v>
       </c>
       <c r="C17">
-        <v>1502381</v>
+        <v>1504168</v>
       </c>
       <c r="D17">
-        <v>13119984</v>
+        <v>26348254</v>
       </c>
       <c r="E17">
-        <v>28222661</v>
+        <v>13585896</v>
       </c>
       <c r="F17">
-        <v>4133267</v>
+        <v>5694939</v>
       </c>
       <c r="G17">
-        <v>45475912</v>
+        <v>45629089</v>
       </c>
       <c r="H17">
+        <v>7160934</v>
+      </c>
+      <c r="I17">
+        <v>1577260</v>
+      </c>
+      <c r="J17">
+        <v>12254673</v>
+      </c>
+      <c r="K17">
+        <v>29956598</v>
+      </c>
+      <c r="L17">
+        <v>3060479</v>
+      </c>
+      <c r="M17">
+        <v>45271750</v>
+      </c>
+      <c r="N17">
         <v>7291722</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>1749607</v>
       </c>
-      <c r="J17">
+      <c r="P17">
         <v>11949919</v>
       </c>
-      <c r="K17">
+      <c r="Q17">
         <v>30829431</v>
       </c>
-      <c r="L17">
+      <c r="R17">
         <v>2189265</v>
       </c>
-      <c r="M17">
+      <c r="S17">
         <v>44968615</v>
-      </c>
-      <c r="N17">
-        <v>7404599</v>
-      </c>
-      <c r="O17">
-        <v>1981131</v>
-      </c>
-      <c r="P17">
-        <v>11407859</v>
-      </c>
-      <c r="Q17">
-        <v>31622279</v>
-      </c>
-      <c r="R17">
-        <v>1594076</v>
-      </c>
-      <c r="S17">
-        <v>44624214</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B18">
-        <v>7160934</v>
+        <v>7031651</v>
       </c>
       <c r="C18">
-        <v>1577260</v>
+        <v>1502381</v>
       </c>
       <c r="D18">
-        <v>12254673</v>
+        <v>13119984</v>
       </c>
       <c r="E18">
-        <v>29956598</v>
+        <v>28222661</v>
       </c>
       <c r="F18">
-        <v>3060479</v>
+        <v>4133267</v>
       </c>
       <c r="G18">
-        <v>45271750</v>
+        <v>45475912</v>
       </c>
       <c r="H18">
+        <v>7291722</v>
+      </c>
+      <c r="I18">
+        <v>1749607</v>
+      </c>
+      <c r="J18">
+        <v>11949919</v>
+      </c>
+      <c r="K18">
+        <v>30829431</v>
+      </c>
+      <c r="L18">
+        <v>2189265</v>
+      </c>
+      <c r="M18">
+        <v>44968615</v>
+      </c>
+      <c r="N18">
         <v>7404599</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>1981131</v>
       </c>
-      <c r="J18">
+      <c r="P18">
         <v>11407859</v>
       </c>
-      <c r="K18">
+      <c r="Q18">
         <v>31622279</v>
       </c>
-      <c r="L18">
+      <c r="R18">
         <v>1594076</v>
       </c>
-      <c r="M18">
+      <c r="S18">
         <v>44624214</v>
-      </c>
-      <c r="N18">
-        <v>7586013</v>
-      </c>
-      <c r="O18">
-        <v>2222672</v>
-      </c>
-      <c r="P18">
-        <v>4526706</v>
-      </c>
-      <c r="Q18">
-        <v>38658546</v>
-      </c>
-      <c r="R18">
-        <v>1016007</v>
-      </c>
-      <c r="S18">
-        <v>44201259</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B19">
-        <v>7291722</v>
+        <v>7160934</v>
       </c>
       <c r="C19">
-        <v>1749607</v>
+        <v>1577260</v>
       </c>
       <c r="D19">
-        <v>11949919</v>
+        <v>12254673</v>
       </c>
       <c r="E19">
-        <v>30829431</v>
+        <v>29956598</v>
       </c>
       <c r="F19">
-        <v>2189265</v>
+        <v>3060479</v>
       </c>
       <c r="G19">
-        <v>44968615</v>
+        <v>45271750</v>
       </c>
       <c r="H19">
+        <v>7404599</v>
+      </c>
+      <c r="I19">
+        <v>1981131</v>
+      </c>
+      <c r="J19">
+        <v>11407859</v>
+      </c>
+      <c r="K19">
+        <v>31622279</v>
+      </c>
+      <c r="L19">
+        <v>1594076</v>
+      </c>
+      <c r="M19">
+        <v>44624214</v>
+      </c>
+      <c r="N19">
         <v>7586013</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>2222672</v>
       </c>
-      <c r="J19">
+      <c r="P19">
         <v>4526706</v>
       </c>
-      <c r="K19">
+      <c r="Q19">
         <v>38658546</v>
       </c>
-      <c r="L19">
+      <c r="R19">
         <v>1016007</v>
       </c>
-      <c r="M19">
+      <c r="S19">
         <v>44201259</v>
-      </c>
-      <c r="N19">
-        <v>7862567</v>
-      </c>
-      <c r="O19">
-        <v>2422756</v>
-      </c>
-      <c r="P19">
-        <v>4186423</v>
-      </c>
-      <c r="Q19">
-        <v>38968164</v>
-      </c>
-      <c r="R19">
-        <v>570032</v>
-      </c>
-      <c r="S19">
-        <v>43724619</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B20">
-        <v>7404599</v>
+        <v>7291722</v>
       </c>
       <c r="C20">
-        <v>1981131</v>
+        <v>1749607</v>
       </c>
       <c r="D20">
-        <v>11407859</v>
+        <v>11949919</v>
       </c>
       <c r="E20">
-        <v>31622279</v>
+        <v>30829431</v>
       </c>
       <c r="F20">
-        <v>1594076</v>
+        <v>2189265</v>
       </c>
       <c r="G20">
-        <v>44624214</v>
+        <v>44968615</v>
       </c>
       <c r="H20">
+        <v>7586013</v>
+      </c>
+      <c r="I20">
+        <v>2222672</v>
+      </c>
+      <c r="J20">
+        <v>4526706</v>
+      </c>
+      <c r="K20">
+        <v>38658546</v>
+      </c>
+      <c r="L20">
+        <v>1016007</v>
+      </c>
+      <c r="M20">
+        <v>44201259</v>
+      </c>
+      <c r="N20">
         <v>7862567</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>2422756</v>
       </c>
-      <c r="J20">
+      <c r="P20">
         <v>4186423</v>
       </c>
-      <c r="K20">
+      <c r="Q20">
         <v>38968164</v>
       </c>
-      <c r="L20">
+      <c r="R20">
         <v>570032</v>
       </c>
-      <c r="M20">
+      <c r="S20">
         <v>43724619</v>
-      </c>
-      <c r="N20">
-        <v>8302865</v>
-      </c>
-      <c r="O20">
-        <v>2538614</v>
-      </c>
-      <c r="P20">
-        <v>3884826</v>
-      </c>
-      <c r="Q20">
-        <v>38988918</v>
-      </c>
-      <c r="R20">
-        <v>294719</v>
-      </c>
-      <c r="S20">
-        <v>43168463</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B21">
-        <v>7586013</v>
+        <v>7404599</v>
       </c>
       <c r="C21">
-        <v>2222672</v>
+        <v>1981131</v>
       </c>
       <c r="D21">
-        <v>4526706</v>
+        <v>11407859</v>
       </c>
       <c r="E21">
-        <v>38658546</v>
+        <v>31622279</v>
       </c>
       <c r="F21">
-        <v>1016007</v>
+        <v>1594076</v>
       </c>
       <c r="G21">
-        <v>44201259</v>
+        <v>44624214</v>
       </c>
       <c r="H21">
+        <v>7862567</v>
+      </c>
+      <c r="I21">
+        <v>2422756</v>
+      </c>
+      <c r="J21">
+        <v>4186423</v>
+      </c>
+      <c r="K21">
+        <v>38968164</v>
+      </c>
+      <c r="L21">
+        <v>570032</v>
+      </c>
+      <c r="M21">
+        <v>43724619</v>
+      </c>
+      <c r="N21">
         <v>8302865</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>2538614</v>
       </c>
-      <c r="J21">
+      <c r="P21">
         <v>3884826</v>
       </c>
-      <c r="K21">
+      <c r="Q21">
         <v>38988918</v>
       </c>
-      <c r="L21">
+      <c r="R21">
         <v>294719</v>
       </c>
-      <c r="M21">
+      <c r="S21">
         <v>43168463</v>
-      </c>
-      <c r="N21">
-        <v>8683749</v>
-      </c>
-      <c r="O21">
-        <v>2653423</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>42672767</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B22">
-        <v>7862567</v>
+        <v>7586013</v>
       </c>
       <c r="C22">
-        <v>2422756</v>
+        <v>2222672</v>
       </c>
       <c r="D22">
-        <v>4186423</v>
+        <v>4526706</v>
       </c>
       <c r="E22">
-        <v>38968164</v>
+        <v>38658546</v>
       </c>
       <c r="F22">
-        <v>570032</v>
+        <v>1016007</v>
       </c>
       <c r="G22">
-        <v>43724619</v>
+        <v>44201259</v>
       </c>
       <c r="H22">
+        <v>8302865</v>
+      </c>
+      <c r="I22">
+        <v>2538614</v>
+      </c>
+      <c r="J22">
+        <v>3884826</v>
+      </c>
+      <c r="K22">
+        <v>38988918</v>
+      </c>
+      <c r="L22">
+        <v>294719</v>
+      </c>
+      <c r="M22">
+        <v>43168463</v>
+      </c>
+      <c r="N22">
         <v>8683749</v>
       </c>
-      <c r="I22">
+      <c r="O22">
         <v>2653423</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>42672767</v>
-      </c>
-      <c r="N22">
-        <v>9231487</v>
-      </c>
-      <c r="O22">
-        <v>2863195</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>41915257</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B23">
-        <v>8302865</v>
+        <v>7862567</v>
       </c>
       <c r="C23">
-        <v>2538614</v>
+        <v>2422756</v>
       </c>
       <c r="D23">
-        <v>3884826</v>
+        <v>4186423</v>
       </c>
       <c r="E23">
-        <v>38988918</v>
+        <v>38968164</v>
       </c>
       <c r="F23">
-        <v>294719</v>
+        <v>570032</v>
       </c>
       <c r="G23">
-        <v>43168463</v>
+        <v>43724619</v>
       </c>
       <c r="H23">
+        <v>8683749</v>
+      </c>
+      <c r="I23">
+        <v>2653423</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>42672767</v>
+      </c>
+      <c r="N23">
         <v>9231487</v>
       </c>
-      <c r="I23">
+      <c r="O23">
         <v>2863195</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>41915257</v>
-      </c>
-      <c r="N23">
-        <v>9829232</v>
-      </c>
-      <c r="O23">
-        <v>3259454</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>40921215</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B24">
-        <v>8683749</v>
+        <v>8302865</v>
       </c>
       <c r="C24">
-        <v>2653423</v>
+        <v>2538614</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3884826</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>38988918</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>294719</v>
       </c>
       <c r="G24">
-        <v>42672767</v>
+        <v>43168463</v>
       </c>
       <c r="H24">
+        <v>9231487</v>
+      </c>
+      <c r="I24">
+        <v>2863195</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>41915257</v>
+      </c>
+      <c r="N24">
         <v>9829232</v>
       </c>
-      <c r="I24">
+      <c r="O24">
         <v>3259454</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>40921215</v>
-      </c>
-      <c r="N24">
-        <v>10307179</v>
-      </c>
-      <c r="O24">
-        <v>3862335</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>39840387</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B25">
-        <v>9231487</v>
+        <v>8683749</v>
       </c>
       <c r="C25">
-        <v>2863195</v>
+        <v>2653423</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -5006,54 +5083,54 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>41915257</v>
+        <v>42672767</v>
       </c>
       <c r="H25">
+        <v>9829232</v>
+      </c>
+      <c r="I25">
+        <v>3259454</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>40921215</v>
+      </c>
+      <c r="N25">
         <v>10307179</v>
       </c>
-      <c r="I25">
+      <c r="O25">
         <v>3862335</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>39840387</v>
-      </c>
-      <c r="N25">
-        <v>10942694</v>
-      </c>
-      <c r="O25">
-        <v>4426185</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>38641022</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B26">
-        <v>9829232</v>
+        <v>9231487</v>
       </c>
       <c r="C26">
-        <v>3259454</v>
+        <v>2863195</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -5065,54 +5142,54 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>40921215</v>
+        <v>41915257</v>
       </c>
       <c r="H26">
+        <v>10307179</v>
+      </c>
+      <c r="I26">
+        <v>3862335</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>39840387</v>
+      </c>
+      <c r="N26">
         <v>10942694</v>
       </c>
-      <c r="I26">
+      <c r="O26">
         <v>4426185</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>38641022</v>
-      </c>
-      <c r="N26">
-        <v>11786620</v>
-      </c>
-      <c r="O26">
-        <v>4805486</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>37417795</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B27">
-        <v>10307179</v>
+        <v>9829232</v>
       </c>
       <c r="C27">
-        <v>3862335</v>
+        <v>3259454</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5124,54 +5201,54 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>39840387</v>
+        <v>40921215</v>
       </c>
       <c r="H27">
+        <v>10942694</v>
+      </c>
+      <c r="I27">
+        <v>4426185</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>38641022</v>
+      </c>
+      <c r="N27">
         <v>11786620</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>4805486</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>37417795</v>
-      </c>
-      <c r="N27">
-        <v>12581126</v>
-      </c>
-      <c r="O27">
-        <v>5096568</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>36332207</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B28">
-        <v>10942694</v>
+        <v>10307179</v>
       </c>
       <c r="C28">
-        <v>4426185</v>
+        <v>3862335</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5183,54 +5260,54 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>38641022</v>
+        <v>39840387</v>
       </c>
       <c r="H28">
+        <v>11786620</v>
+      </c>
+      <c r="I28">
+        <v>4805486</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>37417795</v>
+      </c>
+      <c r="N28">
         <v>12581126</v>
       </c>
-      <c r="I28">
+      <c r="O28">
         <v>5096568</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>36332207</v>
-      </c>
-      <c r="N28">
-        <v>13334156</v>
-      </c>
-      <c r="O28">
-        <v>5075930</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>35599815</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B29">
-        <v>11786620</v>
+        <v>10942694</v>
       </c>
       <c r="C29">
-        <v>4805486</v>
+        <v>4426185</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5242,54 +5319,54 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>37417795</v>
+        <v>38641022</v>
       </c>
       <c r="H29">
+        <v>12581126</v>
+      </c>
+      <c r="I29">
+        <v>5096568</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>36332207</v>
+      </c>
+      <c r="N29">
         <v>13334156</v>
       </c>
-      <c r="I29">
+      <c r="O29">
         <v>5075930</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>35599815</v>
-      </c>
-      <c r="N29">
-        <v>14507530</v>
-      </c>
-      <c r="O29">
-        <v>5210293</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>34292078</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B30">
-        <v>12581126</v>
+        <v>11786620</v>
       </c>
       <c r="C30">
-        <v>5096568</v>
+        <v>4805486</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5301,54 +5378,54 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>36332207</v>
+        <v>37417795</v>
       </c>
       <c r="H30">
+        <v>13334156</v>
+      </c>
+      <c r="I30">
+        <v>5075930</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>35599815</v>
+      </c>
+      <c r="N30">
         <v>14507530</v>
       </c>
-      <c r="I30">
+      <c r="O30">
         <v>5210293</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>34292078</v>
-      </c>
-      <c r="N30">
-        <v>15656647</v>
-      </c>
-      <c r="O30">
-        <v>6065610</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>32287644</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B31">
-        <v>13334156</v>
+        <v>12581126</v>
       </c>
       <c r="C31">
-        <v>5075930</v>
+        <v>5096568</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5360,54 +5437,54 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>35599815</v>
+        <v>36332207</v>
       </c>
       <c r="H31">
+        <v>14507530</v>
+      </c>
+      <c r="I31">
+        <v>5210293</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>34292078</v>
+      </c>
+      <c r="N31">
         <v>15656647</v>
       </c>
-      <c r="I31">
+      <c r="O31">
         <v>6065610</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <v>32287644</v>
-      </c>
-      <c r="N31">
-        <v>16708830</v>
-      </c>
-      <c r="O31">
-        <v>7672393</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>29628678</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B32">
-        <v>14507530</v>
+        <v>13334156</v>
       </c>
       <c r="C32">
-        <v>5210293</v>
+        <v>5075930</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5419,54 +5496,54 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>34292078</v>
+        <v>35599815</v>
       </c>
       <c r="H32">
+        <v>15656647</v>
+      </c>
+      <c r="I32">
+        <v>6065610</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>32287644</v>
+      </c>
+      <c r="N32">
         <v>16708830</v>
       </c>
-      <c r="I32">
+      <c r="O32">
         <v>7672393</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>29628678</v>
-      </c>
-      <c r="N32">
-        <v>17568325</v>
-      </c>
-      <c r="O32">
-        <v>9940124</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>26501452</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B33">
-        <v>15656647</v>
+        <v>14507530</v>
       </c>
       <c r="C33">
-        <v>6065610</v>
+        <v>5210293</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5478,54 +5555,54 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>32287644</v>
+        <v>34292078</v>
       </c>
       <c r="H33">
+        <v>16708830</v>
+      </c>
+      <c r="I33">
+        <v>7672393</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>29628678</v>
+      </c>
+      <c r="N33">
         <v>17568325</v>
       </c>
-      <c r="I33">
+      <c r="O33">
         <v>9940124</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>26501452</v>
-      </c>
-      <c r="N33">
-        <v>20322806</v>
-      </c>
-      <c r="O33">
-        <v>11341436</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>22345659</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B34">
-        <v>16708830</v>
+        <v>15656647</v>
       </c>
       <c r="C34">
-        <v>7672393</v>
+        <v>6065610</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5537,54 +5614,54 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>29628678</v>
+        <v>32287644</v>
       </c>
       <c r="H34">
+        <v>17568325</v>
+      </c>
+      <c r="I34">
+        <v>9940124</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>26501452</v>
+      </c>
+      <c r="N34">
         <v>20322806</v>
       </c>
-      <c r="I34">
+      <c r="O34">
         <v>11341436</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>22345659</v>
-      </c>
-      <c r="N34">
-        <v>21289761</v>
-      </c>
-      <c r="O34">
-        <v>13149676</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>19570464</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B35">
-        <v>17568325</v>
+        <v>16708830</v>
       </c>
       <c r="C35">
-        <v>9940124</v>
+        <v>7672393</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5596,54 +5673,54 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>26501452</v>
+        <v>29628678</v>
       </c>
       <c r="H35">
+        <v>20322806</v>
+      </c>
+      <c r="I35">
+        <v>11341436</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>22345659</v>
+      </c>
+      <c r="N35">
         <v>21289761</v>
       </c>
-      <c r="I35">
+      <c r="O35">
         <v>13149676</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
         <v>19570464</v>
-      </c>
-      <c r="N35">
-        <v>22879167</v>
-      </c>
-      <c r="O35">
-        <v>13741130</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>17389604</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B36">
-        <v>20322806</v>
+        <v>17568325</v>
       </c>
       <c r="C36">
-        <v>11341436</v>
+        <v>9940124</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5655,54 +5732,54 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>22345659</v>
+        <v>26501452</v>
       </c>
       <c r="H36">
+        <v>21289761</v>
+      </c>
+      <c r="I36">
+        <v>13149676</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>19570464</v>
+      </c>
+      <c r="N36">
         <v>22879167</v>
       </c>
-      <c r="I36">
+      <c r="O36">
         <v>13741130</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
         <v>17389604</v>
-      </c>
-      <c r="N36">
-        <v>24745853</v>
-      </c>
-      <c r="O36">
-        <v>13879852</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>15384196</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B37">
-        <v>21289761</v>
+        <v>20322806</v>
       </c>
       <c r="C37">
-        <v>13149676</v>
+        <v>11341436</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5714,54 +5791,54 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>19570464</v>
+        <v>22345659</v>
       </c>
       <c r="H37">
+        <v>22879167</v>
+      </c>
+      <c r="I37">
+        <v>13741130</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>17389604</v>
+      </c>
+      <c r="N37">
         <v>24745853</v>
       </c>
-      <c r="I37">
+      <c r="O37">
         <v>13879852</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>15384196</v>
-      </c>
-      <c r="N37">
-        <v>27065063</v>
-      </c>
-      <c r="O37">
-        <v>13015437</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>13929401</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B38">
-        <v>22879167</v>
+        <v>21289761</v>
       </c>
       <c r="C38">
-        <v>13741130</v>
+        <v>13149676</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5773,54 +5850,54 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>17389604</v>
+        <v>19570464</v>
       </c>
       <c r="H38">
+        <v>24745853</v>
+      </c>
+      <c r="I38">
+        <v>13879852</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>15384196</v>
+      </c>
+      <c r="N38">
         <v>27065063</v>
       </c>
-      <c r="I38">
+      <c r="O38">
         <v>13015437</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>13929401</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B39">
-        <v>24745853</v>
+        <v>22879167</v>
       </c>
       <c r="C39">
-        <v>13879852</v>
+        <v>13741130</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5832,13 +5909,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>15384196</v>
+        <v>17389604</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>27065063</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>13015437</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -5850,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>13929401</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -5873,60 +5950,119 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B40">
+        <v>24745853</v>
+      </c>
+      <c r="C40">
+        <v>13879852</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>15384196</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="2">
         <v>44391</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>27065063</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>13015437</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>13929401</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,1861 +556,1861 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="B2">
-        <v>337060</v>
+        <v>313256</v>
       </c>
       <c r="C2">
-        <v>31557</v>
+        <v>26969</v>
       </c>
       <c r="D2">
-        <v>162436</v>
+        <v>148880</v>
       </c>
       <c r="E2">
-        <v>199002</v>
+        <v>182644</v>
       </c>
       <c r="F2">
-        <v>1219494</v>
+        <v>1228968</v>
       </c>
       <c r="G2">
-        <v>1580932</v>
+        <v>1560492</v>
       </c>
       <c r="H2">
-        <v>3658</v>
+        <v>3689</v>
       </c>
       <c r="I2">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="J2">
-        <v>1825</v>
+        <v>1854</v>
       </c>
       <c r="K2">
-        <v>1030</v>
+        <v>1103</v>
       </c>
       <c r="L2">
-        <v>11309</v>
+        <v>12913</v>
       </c>
       <c r="M2">
-        <v>14164</v>
+        <v>15870</v>
       </c>
       <c r="N2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="O2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="R2">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="S2">
-        <v>657</v>
+        <v>714</v>
       </c>
       <c r="T2">
-        <v>735</v>
+        <v>758</v>
       </c>
       <c r="U2">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="V2">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="W2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="X2">
-        <v>1565</v>
+        <v>1704</v>
       </c>
       <c r="Y2">
-        <v>2031</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2">
-        <v>44657</v>
+        <v>44664</v>
       </c>
       <c r="B3">
-        <v>328614</v>
+        <v>337060</v>
       </c>
       <c r="C3">
-        <v>34073</v>
+        <v>31557</v>
       </c>
       <c r="D3">
-        <v>161287</v>
+        <v>162436</v>
       </c>
       <c r="E3">
-        <v>193193</v>
+        <v>199002</v>
       </c>
       <c r="F3">
-        <v>1097617</v>
+        <v>1219494</v>
       </c>
       <c r="G3">
-        <v>1452097</v>
+        <v>1580932</v>
       </c>
       <c r="H3">
-        <v>3729</v>
+        <v>3658</v>
       </c>
       <c r="I3">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="J3">
-        <v>1846</v>
+        <v>1825</v>
       </c>
       <c r="K3">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="L3">
-        <v>10150</v>
+        <v>11309</v>
       </c>
       <c r="M3">
-        <v>13017</v>
+        <v>14164</v>
       </c>
       <c r="N3">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="O3">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R3">
-        <v>478</v>
+        <v>519</v>
       </c>
       <c r="S3">
-        <v>611</v>
+        <v>657</v>
       </c>
       <c r="T3">
-        <v>850</v>
+        <v>735</v>
       </c>
       <c r="U3">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="V3">
-        <v>473</v>
+        <v>369</v>
       </c>
       <c r="W3">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="X3">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="Y3">
-        <v>2152</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2">
-        <v>44650</v>
+        <v>44657</v>
       </c>
       <c r="B4">
-        <v>310234</v>
+        <v>328614</v>
       </c>
       <c r="C4">
-        <v>36199</v>
+        <v>34073</v>
       </c>
       <c r="D4">
-        <v>151285</v>
+        <v>161287</v>
       </c>
       <c r="E4">
-        <v>177731</v>
+        <v>193193</v>
       </c>
       <c r="F4">
-        <v>919400</v>
+        <v>1097617</v>
       </c>
       <c r="G4">
-        <v>1248416</v>
+        <v>1452097</v>
       </c>
       <c r="H4">
-        <v>4164</v>
+        <v>3729</v>
       </c>
       <c r="I4">
-        <v>672</v>
+        <v>574</v>
       </c>
       <c r="J4">
-        <v>2153</v>
+        <v>1846</v>
       </c>
       <c r="K4">
-        <v>1109</v>
+        <v>1021</v>
       </c>
       <c r="L4">
-        <v>9438</v>
+        <v>10150</v>
       </c>
       <c r="M4">
-        <v>12700</v>
+        <v>13017</v>
       </c>
       <c r="N4">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="O4">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P4">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="Q4">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R4">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="S4">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="T4">
-        <v>1149</v>
+        <v>850</v>
       </c>
       <c r="U4">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="V4">
-        <v>654</v>
+        <v>473</v>
       </c>
       <c r="W4">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="X4">
-        <v>1688</v>
+        <v>1561</v>
       </c>
       <c r="Y4">
-        <v>2489</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="B5">
-        <v>301078</v>
+        <v>310234</v>
       </c>
       <c r="C5">
-        <v>41780</v>
+        <v>36199</v>
       </c>
       <c r="D5">
-        <v>141855</v>
+        <v>151285</v>
       </c>
       <c r="E5">
-        <v>162770</v>
+        <v>177731</v>
       </c>
       <c r="F5">
-        <v>747670</v>
+        <v>919400</v>
       </c>
       <c r="G5">
-        <v>1052295</v>
+        <v>1248416</v>
       </c>
       <c r="H5">
-        <v>5247</v>
+        <v>4164</v>
       </c>
       <c r="I5">
-        <v>856</v>
+        <v>672</v>
       </c>
       <c r="J5">
-        <v>2990</v>
+        <v>2153</v>
       </c>
       <c r="K5">
-        <v>1293</v>
+        <v>1109</v>
       </c>
       <c r="L5">
-        <v>9812</v>
+        <v>9438</v>
       </c>
       <c r="M5">
-        <v>14095</v>
+        <v>12700</v>
       </c>
       <c r="N5">
-        <v>381</v>
+        <v>272</v>
       </c>
       <c r="O5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P5">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="Q5">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="R5">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="S5">
-        <v>657</v>
+        <v>595</v>
       </c>
       <c r="T5">
-        <v>1552</v>
+        <v>1149</v>
       </c>
       <c r="U5">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="V5">
-        <v>1004</v>
+        <v>654</v>
       </c>
       <c r="W5">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="X5">
-        <v>2022</v>
+        <v>1688</v>
       </c>
       <c r="Y5">
-        <v>3228</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="B6">
-        <v>320381</v>
+        <v>301078</v>
       </c>
       <c r="C6">
-        <v>52934</v>
+        <v>41780</v>
       </c>
       <c r="D6">
-        <v>146615</v>
+        <v>141855</v>
       </c>
       <c r="E6">
-        <v>154589</v>
+        <v>162770</v>
       </c>
       <c r="F6">
-        <v>602042</v>
+        <v>747670</v>
       </c>
       <c r="G6">
-        <v>903246</v>
+        <v>1052295</v>
       </c>
       <c r="H6">
-        <v>7093</v>
+        <v>5247</v>
       </c>
       <c r="I6">
-        <v>1082</v>
+        <v>856</v>
       </c>
       <c r="J6">
-        <v>4424</v>
+        <v>2990</v>
       </c>
       <c r="K6">
-        <v>1654</v>
+        <v>1293</v>
       </c>
       <c r="L6">
-        <v>10840</v>
+        <v>9812</v>
       </c>
       <c r="M6">
-        <v>16918</v>
+        <v>14095</v>
       </c>
       <c r="N6">
-        <v>549</v>
+        <v>381</v>
       </c>
       <c r="O6">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P6">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="Q6">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="R6">
-        <v>506</v>
+        <v>452</v>
       </c>
       <c r="S6">
-        <v>808</v>
+        <v>657</v>
       </c>
       <c r="T6">
-        <v>2117</v>
+        <v>1552</v>
       </c>
       <c r="U6">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="V6">
-        <v>1489</v>
+        <v>1004</v>
       </c>
       <c r="W6">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="X6">
-        <v>2356</v>
+        <v>2022</v>
       </c>
       <c r="Y6">
-        <v>4109</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="B7">
-        <v>263373</v>
+        <v>320381</v>
       </c>
       <c r="C7">
-        <v>44050</v>
+        <v>52934</v>
       </c>
       <c r="D7">
-        <v>195682</v>
+        <v>146615</v>
       </c>
       <c r="E7">
-        <v>147602</v>
+        <v>154589</v>
       </c>
       <c r="F7">
-        <v>569292</v>
+        <v>602042</v>
       </c>
       <c r="G7">
-        <v>912576</v>
+        <v>903246</v>
       </c>
       <c r="H7">
-        <v>8894</v>
+        <v>7093</v>
       </c>
       <c r="I7">
-        <v>1220</v>
+        <v>1082</v>
       </c>
       <c r="J7">
-        <v>6443</v>
+        <v>4424</v>
       </c>
       <c r="K7">
-        <v>2105</v>
+        <v>1654</v>
       </c>
       <c r="L7">
-        <v>11808</v>
+        <v>10840</v>
       </c>
       <c r="M7">
-        <v>20356</v>
+        <v>16918</v>
       </c>
       <c r="N7">
-        <v>720</v>
+        <v>549</v>
       </c>
       <c r="O7">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P7">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="Q7">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="R7">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="S7">
-        <v>950</v>
+        <v>808</v>
       </c>
       <c r="T7">
-        <v>2655</v>
+        <v>2117</v>
       </c>
       <c r="U7">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="V7">
-        <v>2075</v>
+        <v>1489</v>
       </c>
       <c r="W7">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="X7">
-        <v>2613</v>
+        <v>2356</v>
       </c>
       <c r="Y7">
-        <v>4991</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B8">
-        <v>362240</v>
+        <v>263373</v>
       </c>
       <c r="C8">
-        <v>61074</v>
+        <v>44050</v>
       </c>
       <c r="D8">
-        <v>316885</v>
+        <v>195682</v>
       </c>
       <c r="E8">
-        <v>210897</v>
+        <v>147602</v>
       </c>
       <c r="F8">
-        <v>617287</v>
+        <v>569292</v>
       </c>
       <c r="G8">
-        <v>1145069</v>
+        <v>912576</v>
       </c>
       <c r="H8">
-        <v>11144</v>
+        <v>8894</v>
       </c>
       <c r="I8">
-        <v>1422</v>
+        <v>1220</v>
       </c>
       <c r="J8">
-        <v>9008</v>
+        <v>6443</v>
       </c>
       <c r="K8">
-        <v>2676</v>
+        <v>2105</v>
       </c>
       <c r="L8">
-        <v>12272</v>
+        <v>11808</v>
       </c>
       <c r="M8">
-        <v>23956</v>
+        <v>20356</v>
       </c>
       <c r="N8">
-        <v>941</v>
+        <v>720</v>
       </c>
       <c r="O8">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P8">
-        <v>470</v>
+        <v>319</v>
       </c>
       <c r="Q8">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="R8">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="S8">
-        <v>1134</v>
+        <v>950</v>
       </c>
       <c r="T8">
-        <v>3198</v>
+        <v>2655</v>
       </c>
       <c r="U8">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="V8">
-        <v>2507</v>
+        <v>2075</v>
       </c>
       <c r="W8">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="X8">
-        <v>2677</v>
+        <v>2613</v>
       </c>
       <c r="Y8">
-        <v>5521</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B9">
-        <v>503511</v>
+        <v>362240</v>
       </c>
       <c r="C9">
-        <v>81921</v>
+        <v>61074</v>
       </c>
       <c r="D9">
-        <v>543352</v>
+        <v>316885</v>
       </c>
       <c r="E9">
-        <v>313619</v>
+        <v>210897</v>
       </c>
       <c r="F9">
-        <v>682585</v>
+        <v>617287</v>
       </c>
       <c r="G9">
-        <v>1539556</v>
+        <v>1145069</v>
       </c>
       <c r="H9">
-        <v>13534</v>
+        <v>11144</v>
       </c>
       <c r="I9">
-        <v>1516</v>
+        <v>1422</v>
       </c>
       <c r="J9">
-        <v>11607</v>
+        <v>9008</v>
       </c>
       <c r="K9">
-        <v>3210</v>
+        <v>2676</v>
       </c>
       <c r="L9">
-        <v>12271</v>
+        <v>12272</v>
       </c>
       <c r="M9">
-        <v>27088</v>
+        <v>23956</v>
       </c>
       <c r="N9">
-        <v>1261</v>
+        <v>941</v>
       </c>
       <c r="O9">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P9">
-        <v>617</v>
+        <v>470</v>
       </c>
       <c r="Q9">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="R9">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="S9">
-        <v>1304</v>
+        <v>1134</v>
       </c>
       <c r="T9">
-        <v>3470</v>
+        <v>3198</v>
       </c>
       <c r="U9">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="V9">
-        <v>2795</v>
+        <v>2507</v>
       </c>
       <c r="W9">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="X9">
-        <v>2403</v>
+        <v>2677</v>
       </c>
       <c r="Y9">
-        <v>5527</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B10">
-        <v>642419</v>
+        <v>503511</v>
       </c>
       <c r="C10">
-        <v>102315</v>
+        <v>81921</v>
       </c>
       <c r="D10">
-        <v>848833</v>
+        <v>543352</v>
       </c>
       <c r="E10">
-        <v>439413</v>
+        <v>313619</v>
       </c>
       <c r="F10">
-        <v>717143</v>
+        <v>682585</v>
       </c>
       <c r="G10">
-        <v>2005389</v>
+        <v>1539556</v>
       </c>
       <c r="H10">
-        <v>15012</v>
+        <v>13534</v>
       </c>
       <c r="I10">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="J10">
-        <v>13660</v>
+        <v>11607</v>
       </c>
       <c r="K10">
-        <v>3480</v>
+        <v>3210</v>
       </c>
       <c r="L10">
-        <v>11075</v>
+        <v>12271</v>
       </c>
       <c r="M10">
-        <v>28215</v>
+        <v>27088</v>
       </c>
       <c r="N10">
-        <v>1524</v>
+        <v>1261</v>
       </c>
       <c r="O10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P10">
-        <v>736</v>
+        <v>617</v>
       </c>
       <c r="Q10">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="R10">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="S10">
-        <v>1350</v>
+        <v>1304</v>
       </c>
       <c r="T10">
-        <v>3357</v>
+        <v>3470</v>
       </c>
       <c r="U10">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="V10">
-        <v>2757</v>
+        <v>2795</v>
       </c>
       <c r="W10">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="X10">
-        <v>1918</v>
+        <v>2403</v>
       </c>
       <c r="Y10">
-        <v>4952</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B11">
-        <v>777547</v>
+        <v>642419</v>
       </c>
       <c r="C11">
-        <v>127486</v>
+        <v>102315</v>
       </c>
       <c r="D11">
-        <v>1249396</v>
+        <v>848833</v>
       </c>
       <c r="E11">
-        <v>597335</v>
+        <v>439413</v>
       </c>
       <c r="F11">
-        <v>738378</v>
+        <v>717143</v>
       </c>
       <c r="G11">
-        <v>2585109</v>
+        <v>2005389</v>
       </c>
       <c r="H11">
-        <v>15695</v>
+        <v>15012</v>
       </c>
       <c r="I11">
-        <v>1437</v>
+        <v>1532</v>
       </c>
       <c r="J11">
-        <v>14598</v>
+        <v>13660</v>
       </c>
       <c r="K11">
-        <v>3426</v>
+        <v>3480</v>
       </c>
       <c r="L11">
-        <v>9017</v>
+        <v>11075</v>
       </c>
       <c r="M11">
-        <v>27041</v>
+        <v>28215</v>
       </c>
       <c r="N11">
-        <v>1716</v>
+        <v>1524</v>
       </c>
       <c r="O11">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P11">
-        <v>803</v>
+        <v>736</v>
       </c>
       <c r="Q11">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="R11">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="S11">
-        <v>1306</v>
+        <v>1350</v>
       </c>
       <c r="T11">
-        <v>3144</v>
+        <v>3357</v>
       </c>
       <c r="U11">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="V11">
-        <v>2508</v>
+        <v>2757</v>
       </c>
       <c r="W11">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="X11">
-        <v>1331</v>
+        <v>1918</v>
       </c>
       <c r="Y11">
-        <v>4071</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B12">
-        <v>809625</v>
+        <v>777547</v>
       </c>
       <c r="C12">
-        <v>137850</v>
+        <v>127486</v>
       </c>
       <c r="D12">
-        <v>1532777</v>
+        <v>1249396</v>
       </c>
       <c r="E12">
-        <v>687597</v>
+        <v>597335</v>
       </c>
       <c r="F12">
-        <v>672910</v>
+        <v>738378</v>
       </c>
       <c r="G12">
-        <v>2893284</v>
+        <v>2585109</v>
       </c>
       <c r="H12">
-        <v>15049</v>
+        <v>15695</v>
       </c>
       <c r="I12">
-        <v>1240</v>
+        <v>1437</v>
       </c>
       <c r="J12">
-        <v>13663</v>
+        <v>14598</v>
       </c>
       <c r="K12">
-        <v>2915</v>
+        <v>3426</v>
       </c>
       <c r="L12">
-        <v>6606</v>
+        <v>9017</v>
       </c>
       <c r="M12">
-        <v>23184</v>
+        <v>27041</v>
       </c>
       <c r="N12">
-        <v>1792</v>
+        <v>1716</v>
       </c>
       <c r="O12">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P12">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="Q12">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="R12">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="S12">
-        <v>1166</v>
+        <v>1306</v>
       </c>
       <c r="T12">
-        <v>2632</v>
+        <v>3144</v>
       </c>
       <c r="U12">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="V12">
-        <v>2172</v>
+        <v>2508</v>
       </c>
       <c r="W12">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="X12">
-        <v>814</v>
+        <v>1331</v>
       </c>
       <c r="Y12">
-        <v>3168</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B13">
-        <v>703732</v>
+        <v>809625</v>
       </c>
       <c r="C13">
-        <v>127478</v>
+        <v>137850</v>
       </c>
       <c r="D13">
-        <v>1544092</v>
+        <v>1532777</v>
       </c>
       <c r="E13">
-        <v>640805</v>
+        <v>687597</v>
       </c>
       <c r="F13">
-        <v>521657</v>
+        <v>672910</v>
       </c>
       <c r="G13">
-        <v>2706554</v>
+        <v>2893284</v>
       </c>
       <c r="H13">
-        <v>13946</v>
+        <v>15049</v>
       </c>
       <c r="I13">
-        <v>989</v>
+        <v>1240</v>
       </c>
       <c r="J13">
-        <v>11934</v>
+        <v>13663</v>
       </c>
       <c r="K13">
-        <v>2225</v>
+        <v>2915</v>
       </c>
       <c r="L13">
-        <v>4177</v>
+        <v>6606</v>
       </c>
       <c r="M13">
-        <v>18336</v>
+        <v>23184</v>
       </c>
       <c r="N13">
-        <v>1753</v>
+        <v>1792</v>
       </c>
       <c r="O13">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P13">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="Q13">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="R13">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="S13">
-        <v>1014</v>
+        <v>1166</v>
       </c>
       <c r="T13">
-        <v>2120</v>
+        <v>2632</v>
       </c>
       <c r="U13">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="V13">
-        <v>1805</v>
+        <v>2172</v>
       </c>
       <c r="W13">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="X13">
-        <v>432</v>
+        <v>814</v>
       </c>
       <c r="Y13">
-        <v>2375</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B14">
-        <v>555697</v>
+        <v>703732</v>
       </c>
       <c r="C14">
-        <v>102729</v>
+        <v>127478</v>
       </c>
       <c r="D14">
-        <v>1320086</v>
+        <v>1544092</v>
       </c>
       <c r="E14">
-        <v>527687</v>
+        <v>640805</v>
       </c>
       <c r="F14">
-        <v>358530</v>
+        <v>521657</v>
       </c>
       <c r="G14">
-        <v>2206303</v>
+        <v>2706554</v>
       </c>
       <c r="H14">
-        <v>11487</v>
+        <v>13946</v>
       </c>
       <c r="I14">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="J14">
-        <v>9435</v>
+        <v>11934</v>
       </c>
       <c r="K14">
-        <v>1499</v>
+        <v>2225</v>
       </c>
       <c r="L14">
-        <v>2066</v>
+        <v>4177</v>
       </c>
       <c r="M14">
-        <v>13000</v>
+        <v>18336</v>
       </c>
       <c r="N14">
-        <v>1557</v>
+        <v>1753</v>
       </c>
       <c r="O14">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P14">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="Q14">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R14">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="S14">
-        <v>809</v>
+        <v>1014</v>
       </c>
       <c r="T14">
-        <v>1774</v>
+        <v>2120</v>
       </c>
       <c r="U14">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="V14">
-        <v>1541</v>
+        <v>1805</v>
       </c>
       <c r="W14">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="X14">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="Y14">
-        <v>1863</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B15">
-        <v>395424</v>
+        <v>555697</v>
       </c>
       <c r="C15">
-        <v>68050</v>
+        <v>102729</v>
       </c>
       <c r="D15">
-        <v>955924</v>
+        <v>1320086</v>
       </c>
       <c r="E15">
-        <v>364078</v>
+        <v>527687</v>
       </c>
       <c r="F15">
-        <v>200146</v>
+        <v>358530</v>
       </c>
       <c r="G15">
-        <v>1520148</v>
+        <v>2206303</v>
       </c>
       <c r="H15">
-        <v>9564</v>
+        <v>11487</v>
       </c>
       <c r="I15">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="J15">
-        <v>7594</v>
+        <v>9435</v>
       </c>
       <c r="K15">
-        <v>1055</v>
+        <v>1499</v>
       </c>
       <c r="L15">
-        <v>955</v>
+        <v>2066</v>
       </c>
       <c r="M15">
-        <v>9604</v>
+        <v>13000</v>
       </c>
       <c r="N15">
-        <v>1368</v>
+        <v>1557</v>
       </c>
       <c r="O15">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P15">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="Q15">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R15">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="S15">
-        <v>663</v>
+        <v>809</v>
       </c>
       <c r="T15">
-        <v>1443</v>
+        <v>1774</v>
       </c>
       <c r="U15">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="V15">
-        <v>1370</v>
+        <v>1541</v>
       </c>
       <c r="W15">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X15">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="Y15">
-        <v>1606</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B16">
-        <v>251412</v>
+        <v>395424</v>
       </c>
       <c r="C16">
-        <v>34617</v>
+        <v>68050</v>
       </c>
       <c r="D16">
-        <v>547518</v>
+        <v>955924</v>
       </c>
       <c r="E16">
-        <v>195560</v>
+        <v>364078</v>
       </c>
       <c r="F16">
-        <v>79260</v>
+        <v>200146</v>
       </c>
       <c r="G16">
-        <v>822338</v>
+        <v>1520148</v>
       </c>
       <c r="H16">
-        <v>8278</v>
+        <v>9564</v>
       </c>
       <c r="I16">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="J16">
-        <v>6612</v>
+        <v>7594</v>
       </c>
       <c r="K16">
-        <v>905</v>
+        <v>1055</v>
       </c>
       <c r="L16">
-        <v>546</v>
+        <v>955</v>
       </c>
       <c r="M16">
-        <v>8063</v>
+        <v>9604</v>
       </c>
       <c r="N16">
-        <v>1202</v>
+        <v>1368</v>
       </c>
       <c r="O16">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P16">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="Q16">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R16">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S16">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="T16">
-        <v>1170</v>
+        <v>1443</v>
       </c>
       <c r="U16">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V16">
-        <v>1298</v>
+        <v>1370</v>
       </c>
       <c r="W16">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X16">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Y16">
-        <v>1489</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B17">
-        <v>170551</v>
+        <v>251412</v>
       </c>
       <c r="C17">
-        <v>14491</v>
+        <v>34617</v>
       </c>
       <c r="D17">
-        <v>265724</v>
+        <v>547518</v>
       </c>
       <c r="E17">
-        <v>99757</v>
+        <v>195560</v>
       </c>
       <c r="F17">
-        <v>20375</v>
+        <v>79260</v>
       </c>
       <c r="G17">
-        <v>385856</v>
+        <v>822338</v>
       </c>
       <c r="H17">
-        <v>7059</v>
+        <v>8278</v>
       </c>
       <c r="I17">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J17">
-        <v>5927</v>
+        <v>6612</v>
       </c>
       <c r="K17">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="L17">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="M17">
-        <v>7229</v>
+        <v>8063</v>
       </c>
       <c r="N17">
-        <v>1036</v>
+        <v>1202</v>
       </c>
       <c r="O17">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="Q17">
+        <v>72</v>
+      </c>
+      <c r="R17">
+        <v>46</v>
+      </c>
+      <c r="S17">
+        <v>614</v>
+      </c>
+      <c r="T17">
+        <v>1170</v>
+      </c>
+      <c r="U17">
         <v>89</v>
       </c>
-      <c r="R17">
-        <v>33</v>
-      </c>
-      <c r="S17">
-        <v>555</v>
-      </c>
-      <c r="T17">
-        <v>994</v>
-      </c>
-      <c r="U17">
-        <v>75</v>
-      </c>
       <c r="V17">
-        <v>1108</v>
+        <v>1298</v>
       </c>
       <c r="W17">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="X17">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Y17">
-        <v>1262</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B18">
-        <v>140677</v>
+        <v>170551</v>
       </c>
       <c r="C18">
-        <v>9069</v>
+        <v>14491</v>
       </c>
       <c r="D18">
-        <v>91366</v>
+        <v>265724</v>
       </c>
       <c r="E18">
-        <v>155978</v>
+        <v>99757</v>
       </c>
       <c r="F18">
-        <v>7655</v>
+        <v>20375</v>
       </c>
       <c r="G18">
-        <v>254999</v>
+        <v>385856</v>
       </c>
       <c r="H18">
-        <v>5944</v>
+        <v>7059</v>
       </c>
       <c r="I18">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J18">
-        <v>4047</v>
+        <v>5927</v>
       </c>
       <c r="K18">
-        <v>2065</v>
+        <v>934</v>
       </c>
       <c r="L18">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="M18">
-        <v>6384</v>
+        <v>7229</v>
       </c>
       <c r="N18">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="O18">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P18">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="Q18">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="R18">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S18">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="T18">
-        <v>839</v>
+        <v>994</v>
       </c>
       <c r="U18">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="V18">
-        <v>838</v>
+        <v>1108</v>
       </c>
       <c r="W18">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="X18">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Y18">
-        <v>1105</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B19">
-        <v>114674</v>
+        <v>140677</v>
       </c>
       <c r="C19">
-        <v>7107</v>
+        <v>9069</v>
       </c>
       <c r="D19">
-        <v>71563</v>
+        <v>91366</v>
       </c>
       <c r="E19">
-        <v>122505</v>
+        <v>155978</v>
       </c>
       <c r="F19">
-        <v>4219</v>
+        <v>7655</v>
       </c>
       <c r="G19">
-        <v>198287</v>
+        <v>254999</v>
       </c>
       <c r="H19">
-        <v>5081</v>
+        <v>5944</v>
       </c>
       <c r="I19">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="J19">
-        <v>3432</v>
+        <v>4047</v>
       </c>
       <c r="K19">
-        <v>1843</v>
+        <v>2065</v>
       </c>
       <c r="L19">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="M19">
-        <v>5451</v>
+        <v>6384</v>
       </c>
       <c r="N19">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="O19">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P19">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q19">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="R19">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S19">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="T19">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="U19">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V19">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="W19">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="X19">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Y19">
-        <v>991</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B20">
-        <v>93220</v>
+        <v>114674</v>
       </c>
       <c r="C20">
-        <v>6181</v>
+        <v>7107</v>
       </c>
       <c r="D20">
-        <v>57054</v>
+        <v>71563</v>
       </c>
       <c r="E20">
-        <v>102245</v>
+        <v>122505</v>
       </c>
       <c r="F20">
-        <v>2652</v>
+        <v>4219</v>
       </c>
       <c r="G20">
-        <v>161951</v>
+        <v>198287</v>
       </c>
       <c r="H20">
-        <v>4402</v>
+        <v>5081</v>
       </c>
       <c r="I20">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="J20">
-        <v>2916</v>
+        <v>3432</v>
       </c>
       <c r="K20">
-        <v>1616</v>
+        <v>1843</v>
       </c>
       <c r="L20">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="M20">
-        <v>4653</v>
+        <v>5451</v>
       </c>
       <c r="N20">
-        <v>618</v>
+        <v>747</v>
       </c>
       <c r="O20">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P20">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q20">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S20">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="T20">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="U20">
+        <v>42</v>
+      </c>
+      <c r="V20">
+        <v>745</v>
+      </c>
+      <c r="W20">
+        <v>257</v>
+      </c>
+      <c r="X20">
         <v>29</v>
       </c>
-      <c r="V20">
-        <v>604</v>
-      </c>
-      <c r="W20">
-        <v>186</v>
-      </c>
-      <c r="X20">
-        <v>17</v>
-      </c>
       <c r="Y20">
-        <v>807</v>
+        <v>991</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B21">
-        <v>75512</v>
+        <v>93220</v>
       </c>
       <c r="C21">
-        <v>5587</v>
+        <v>6181</v>
       </c>
       <c r="D21">
-        <v>44023</v>
+        <v>57054</v>
       </c>
       <c r="E21">
-        <v>82755</v>
+        <v>102245</v>
       </c>
       <c r="F21">
-        <v>1710</v>
+        <v>2652</v>
       </c>
       <c r="G21">
-        <v>128488</v>
+        <v>161951</v>
       </c>
       <c r="H21">
-        <v>3733</v>
+        <v>4402</v>
       </c>
       <c r="I21">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J21">
-        <v>2336</v>
+        <v>2916</v>
       </c>
       <c r="K21">
-        <v>1435</v>
+        <v>1616</v>
       </c>
       <c r="L21">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M21">
-        <v>3845</v>
+        <v>4653</v>
       </c>
       <c r="N21">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="O21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P21">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q21">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S21">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="T21">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="U21">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V21">
-        <v>482</v>
+        <v>604</v>
       </c>
       <c r="W21">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="X21">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y21">
-        <v>690</v>
+        <v>807</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B22">
-        <v>61908</v>
+        <v>75512</v>
       </c>
       <c r="C22">
-        <v>4260</v>
+        <v>5587</v>
       </c>
       <c r="D22">
-        <v>15519</v>
+        <v>44023</v>
       </c>
       <c r="E22">
-        <v>81740</v>
+        <v>82755</v>
       </c>
       <c r="F22">
-        <v>969</v>
+        <v>1710</v>
       </c>
       <c r="G22">
-        <v>98228</v>
+        <v>128488</v>
       </c>
       <c r="H22">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="I22">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J22">
-        <v>1187</v>
+        <v>2336</v>
       </c>
       <c r="K22">
-        <v>2437</v>
+        <v>1435</v>
       </c>
       <c r="L22">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M22">
-        <v>3693</v>
+        <v>3845</v>
       </c>
       <c r="N22">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="O22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P22">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="Q22">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="R22">
         <v>3</v>
       </c>
       <c r="S22">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="T22">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="U22">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="V22">
-        <v>191</v>
+        <v>482</v>
       </c>
       <c r="W22">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="X22">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Y22">
-        <v>555</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B23">
-        <v>50564</v>
+        <v>61908</v>
       </c>
       <c r="C23">
-        <v>3980</v>
+        <v>4260</v>
       </c>
       <c r="D23">
-        <v>11215</v>
+        <v>15519</v>
       </c>
       <c r="E23">
-        <v>60407</v>
+        <v>81740</v>
       </c>
       <c r="F23">
-        <v>537</v>
+        <v>969</v>
       </c>
       <c r="G23">
-        <v>72159</v>
+        <v>98228</v>
       </c>
       <c r="H23">
-        <v>3220</v>
+        <v>3737</v>
       </c>
       <c r="I23">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J23">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="K23">
-        <v>2075</v>
+        <v>2437</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M23">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="N23">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="O23">
         <v>14</v>
       </c>
       <c r="P23">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q23">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S23">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="T23">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="U23">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V23">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="W23">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y23">
-        <v>444</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B24">
-        <v>40182</v>
+        <v>50564</v>
       </c>
       <c r="C24">
-        <v>3466</v>
+        <v>3980</v>
       </c>
       <c r="D24">
-        <v>8088</v>
+        <v>11215</v>
       </c>
       <c r="E24">
-        <v>43928</v>
+        <v>60407</v>
       </c>
       <c r="F24">
-        <v>286</v>
+        <v>537</v>
       </c>
       <c r="G24">
-        <v>52302</v>
+        <v>72159</v>
       </c>
       <c r="H24">
-        <v>2890</v>
+        <v>3220</v>
       </c>
       <c r="I24">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J24">
-        <v>618</v>
+        <v>826</v>
       </c>
       <c r="K24">
-        <v>1774</v>
+        <v>2075</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>2409</v>
+        <v>2936</v>
       </c>
       <c r="N24">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="O24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P24">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q24">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="T24">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="U24">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V24">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="W24">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B25">
-        <v>35398</v>
+        <v>40182</v>
       </c>
       <c r="C25">
-        <v>3207</v>
+        <v>3466</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>43928</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G25">
-        <v>40991</v>
+        <v>52302</v>
       </c>
       <c r="H25">
-        <v>2696</v>
+        <v>2890</v>
       </c>
       <c r="I25">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M25">
-        <v>2037</v>
+        <v>2409</v>
       </c>
       <c r="N25">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="O25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="T25">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="U25">
         <v>27</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="X25">
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B26">
-        <v>34128</v>
+        <v>35398</v>
       </c>
       <c r="C26">
-        <v>3421</v>
+        <v>3207</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>34131</v>
+        <v>40991</v>
       </c>
       <c r="H26">
-        <v>2845</v>
+        <v>2696</v>
       </c>
       <c r="I26">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>1815</v>
+        <v>2037</v>
       </c>
       <c r="N26">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="O26">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="T26">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="U26">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2476,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B27">
-        <v>36194</v>
+        <v>34128</v>
       </c>
       <c r="C27">
-        <v>4127</v>
+        <v>3421</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>31514</v>
+        <v>34131</v>
       </c>
       <c r="H27">
-        <v>3396</v>
+        <v>2845</v>
       </c>
       <c r="I27">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1954</v>
+        <v>1815</v>
       </c>
       <c r="N27">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="O27">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="T27">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="U27">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2553,18 +2553,18 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>511</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B28">
-        <v>45790</v>
+        <v>36194</v>
       </c>
       <c r="C28">
-        <v>5352</v>
+        <v>4127</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>33496</v>
+        <v>31514</v>
       </c>
       <c r="H28">
-        <v>4274</v>
+        <v>3396</v>
       </c>
       <c r="I28">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="N28">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="O28">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T28">
-        <v>775</v>
+        <v>636</v>
       </c>
       <c r="U28">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2630,18 +2630,18 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>578</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B29">
-        <v>56808</v>
+        <v>45790</v>
       </c>
       <c r="C29">
-        <v>6952</v>
+        <v>5352</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>36529</v>
+        <v>33496</v>
       </c>
       <c r="H29">
-        <v>5224</v>
+        <v>4274</v>
       </c>
       <c r="I29">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>2268</v>
+        <v>2133</v>
       </c>
       <c r="N29">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="O29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="T29">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="U29">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2707,18 +2707,18 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B30">
-        <v>70900</v>
+        <v>56808</v>
       </c>
       <c r="C30">
-        <v>9284</v>
+        <v>6952</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>40060</v>
+        <v>36529</v>
       </c>
       <c r="H30">
-        <v>6160</v>
+        <v>5224</v>
       </c>
       <c r="I30">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>2418</v>
+        <v>2268</v>
       </c>
       <c r="N30">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="O30">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T30">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="U30">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2784,18 +2784,18 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B31">
-        <v>86133</v>
+        <v>70900</v>
       </c>
       <c r="C31">
-        <v>11735</v>
+        <v>9284</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>44050</v>
+        <v>40060</v>
       </c>
       <c r="H31">
-        <v>6782</v>
+        <v>6160</v>
       </c>
       <c r="I31">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>2456</v>
+        <v>2418</v>
       </c>
       <c r="N31">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="O31">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T31">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="U31">
         <v>57</v>
@@ -2861,18 +2861,18 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>509</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B32">
-        <v>96900</v>
+        <v>86133</v>
       </c>
       <c r="C32">
-        <v>13728</v>
+        <v>11735</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2884,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>44990</v>
+        <v>44050</v>
       </c>
       <c r="H32">
-        <v>6841</v>
+        <v>6782</v>
       </c>
       <c r="I32">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>2331</v>
+        <v>2456</v>
       </c>
       <c r="N32">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="O32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="T32">
-        <v>770</v>
+        <v>877</v>
       </c>
       <c r="U32">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2938,18 +2938,18 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>405</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B33">
-        <v>104890</v>
+        <v>96900</v>
       </c>
       <c r="C33">
-        <v>16129</v>
+        <v>13728</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>43775</v>
+        <v>44990</v>
       </c>
       <c r="H33">
-        <v>6579</v>
+        <v>6841</v>
       </c>
       <c r="I33">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2979,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>2118</v>
+        <v>2331</v>
       </c>
       <c r="N33">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="O33">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T33">
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="U33">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3015,18 +3015,18 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>280</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B34">
-        <v>107937</v>
+        <v>104890</v>
       </c>
       <c r="C34">
-        <v>18925</v>
+        <v>16129</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>40380</v>
+        <v>43775</v>
       </c>
       <c r="H34">
-        <v>5988</v>
+        <v>6579</v>
       </c>
       <c r="I34">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3056,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>1788</v>
+        <v>2118</v>
       </c>
       <c r="N34">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="O34">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="T34">
-        <v>383</v>
+        <v>571</v>
       </c>
       <c r="U34">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3092,18 +3092,18 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B35">
-        <v>104405</v>
+        <v>107937</v>
       </c>
       <c r="C35">
-        <v>21703</v>
+        <v>18925</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3115,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>33894</v>
+        <v>40380</v>
       </c>
       <c r="H35">
-        <v>5162</v>
+        <v>5988</v>
       </c>
       <c r="I35">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3133,13 +3133,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>1349</v>
+        <v>1788</v>
       </c>
       <c r="N35">
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="O35">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3151,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="T35">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="U35">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3169,18 +3169,18 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>92</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B36">
-        <v>95261</v>
+        <v>104405</v>
       </c>
       <c r="C36">
-        <v>22568</v>
+        <v>21703</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>24978</v>
+        <v>33894</v>
       </c>
       <c r="H36">
-        <v>4052</v>
+        <v>5162</v>
       </c>
       <c r="I36">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3210,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>959</v>
+        <v>1349</v>
       </c>
       <c r="N36">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="O36">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="T36">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="U36">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3246,18 +3246,18 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B37">
-        <v>80585</v>
+        <v>95261</v>
       </c>
       <c r="C37">
-        <v>21570</v>
+        <v>22568</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>18887</v>
+        <v>24978</v>
       </c>
       <c r="H37">
-        <v>3067</v>
+        <v>4052</v>
       </c>
       <c r="I37">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3287,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>627</v>
+        <v>959</v>
       </c>
       <c r="N37">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="O37">
         <v>22</v>
@@ -3305,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="T37">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="U37">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3323,18 +3323,18 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B38">
-        <v>60267</v>
+        <v>80585</v>
       </c>
       <c r="C38">
-        <v>17420</v>
+        <v>21570</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3346,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>12333</v>
+        <v>18887</v>
       </c>
       <c r="H38">
-        <v>2234</v>
+        <v>3067</v>
       </c>
       <c r="I38">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3364,13 +3364,13 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="N38">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="O38">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -3382,13 +3382,13 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="T38">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="U38">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -3405,13 +3405,13 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B39">
-        <v>40729</v>
+        <v>60267</v>
       </c>
       <c r="C39">
-        <v>12032</v>
+        <v>17420</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>7277</v>
+        <v>12333</v>
       </c>
       <c r="H39">
-        <v>1619</v>
+        <v>2234</v>
       </c>
       <c r="I39">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="N39">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="O39">
         <v>11</v>
@@ -3459,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T39">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="U39">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -3477,18 +3477,18 @@
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B40">
-        <v>26284</v>
+        <v>40729</v>
       </c>
       <c r="C40">
-        <v>6813</v>
+        <v>12032</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>3805</v>
+        <v>7277</v>
       </c>
       <c r="H40">
-        <v>1483</v>
+        <v>1619</v>
       </c>
       <c r="I40">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="N40">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O40">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3536,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T40">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="U40">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -3554,83 +3554,160 @@
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B41">
+        <v>26284</v>
+      </c>
+      <c r="C41">
+        <v>6813</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>3805</v>
+      </c>
+      <c r="H41">
+        <v>1483</v>
+      </c>
+      <c r="I41">
+        <v>199</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>224</v>
+      </c>
+      <c r="N41">
+        <v>117</v>
+      </c>
+      <c r="O41">
+        <v>14</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>8</v>
+      </c>
+      <c r="T41">
+        <v>250</v>
+      </c>
+      <c r="U41">
+        <v>47</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="2">
         <v>44391</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>21089</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>3954</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>2310</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <v>1880</v>
       </c>
-      <c r="I41">
+      <c r="I42">
         <v>240</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
         <v>240</v>
       </c>
-      <c r="N41">
+      <c r="N42">
         <v>147</v>
       </c>
-      <c r="O41">
+      <c r="O42">
         <v>20</v>
       </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
         <v>7</v>
       </c>
-      <c r="T41">
+      <c r="T42">
         <v>357</v>
       </c>
-      <c r="U41">
+      <c r="U42">
         <v>72</v>
       </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
         <v>68</v>
       </c>
     </row>
@@ -3641,7 +3718,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3708,1429 +3785,1429 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="B2">
-        <v>6964911</v>
+        <v>6941649</v>
       </c>
       <c r="C2">
-        <v>1066526</v>
+        <v>1015525</v>
       </c>
       <c r="D2">
-        <v>7190108</v>
+        <v>7107432</v>
       </c>
       <c r="E2">
-        <v>4314109</v>
+        <v>4166940</v>
       </c>
       <c r="F2">
-        <v>38107861</v>
+        <v>38411969</v>
       </c>
       <c r="G2">
-        <v>49612078</v>
+        <v>49686341</v>
       </c>
       <c r="H2">
-        <v>7028326</v>
+        <v>6990843</v>
       </c>
       <c r="I2">
-        <v>1290903</v>
+        <v>1145129</v>
       </c>
       <c r="J2">
-        <v>7296048</v>
+        <v>7206378</v>
       </c>
       <c r="K2">
-        <v>4681656</v>
+        <v>4524355</v>
       </c>
       <c r="L2">
-        <v>37346582</v>
+        <v>37776810</v>
       </c>
       <c r="M2">
-        <v>49324286</v>
+        <v>49507543</v>
       </c>
       <c r="N2">
-        <v>7076214</v>
+        <v>7027474</v>
       </c>
       <c r="O2">
-        <v>1502333</v>
+        <v>1288836</v>
       </c>
       <c r="P2">
-        <v>7448135</v>
+        <v>7296672</v>
       </c>
       <c r="Q2">
-        <v>4833172</v>
+        <v>4683263</v>
       </c>
       <c r="R2">
-        <v>36783661</v>
+        <v>37347270</v>
       </c>
       <c r="S2">
-        <v>49064968</v>
+        <v>49327205</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>44657</v>
+        <v>44664</v>
       </c>
       <c r="B3">
-        <v>7013675</v>
+        <v>6964911</v>
       </c>
       <c r="C3">
-        <v>1152276</v>
+        <v>1066526</v>
       </c>
       <c r="D3">
-        <v>7204908</v>
+        <v>7190108</v>
       </c>
       <c r="E3">
-        <v>4519726</v>
+        <v>4314109</v>
       </c>
       <c r="F3">
-        <v>37775399</v>
+        <v>38107861</v>
       </c>
       <c r="G3">
-        <v>49500033</v>
+        <v>49612078</v>
       </c>
       <c r="H3">
-        <v>7098195</v>
+        <v>7028326</v>
       </c>
       <c r="I3">
-        <v>1506872</v>
+        <v>1290903</v>
       </c>
       <c r="J3">
-        <v>7447233</v>
+        <v>7296048</v>
       </c>
       <c r="K3">
-        <v>4830603</v>
+        <v>4681656</v>
       </c>
       <c r="L3">
-        <v>36783081</v>
+        <v>37346582</v>
       </c>
       <c r="M3">
-        <v>49060917</v>
+        <v>49324286</v>
       </c>
       <c r="N3">
-        <v>7183469</v>
+        <v>7076214</v>
       </c>
       <c r="O3">
-        <v>1764309</v>
+        <v>1502333</v>
       </c>
       <c r="P3">
-        <v>7677503</v>
+        <v>7448135</v>
       </c>
       <c r="Q3">
-        <v>5037350</v>
+        <v>4833172</v>
       </c>
       <c r="R3">
-        <v>36003353</v>
+        <v>36783661</v>
       </c>
       <c r="S3">
-        <v>48718206</v>
+        <v>49064968</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>44650</v>
+        <v>44657</v>
       </c>
       <c r="B4">
-        <v>7051466</v>
+        <v>7013675</v>
       </c>
       <c r="C4">
-        <v>1299786</v>
+        <v>1152276</v>
       </c>
       <c r="D4">
-        <v>7294305</v>
+        <v>7204908</v>
       </c>
       <c r="E4">
-        <v>4675369</v>
+        <v>4519726</v>
       </c>
       <c r="F4">
-        <v>37345088</v>
+        <v>37775399</v>
       </c>
       <c r="G4">
-        <v>49314762</v>
+        <v>49500033</v>
       </c>
       <c r="H4">
-        <v>7184617</v>
+        <v>7098195</v>
       </c>
       <c r="I4">
-        <v>1767691</v>
+        <v>1506872</v>
       </c>
       <c r="J4">
-        <v>7676655</v>
+        <v>7447233</v>
       </c>
       <c r="K4">
-        <v>5034482</v>
+        <v>4830603</v>
       </c>
       <c r="L4">
-        <v>36002569</v>
+        <v>36783081</v>
       </c>
       <c r="M4">
-        <v>48713706</v>
+        <v>49060917</v>
       </c>
       <c r="N4">
-        <v>7340265</v>
+        <v>7183469</v>
       </c>
       <c r="O4">
-        <v>2060560</v>
+        <v>1764309</v>
       </c>
       <c r="P4">
-        <v>8369146</v>
+        <v>7677503</v>
       </c>
       <c r="Q4">
-        <v>5139369</v>
+        <v>5037350</v>
       </c>
       <c r="R4">
-        <v>34756674</v>
+        <v>36003353</v>
       </c>
       <c r="S4">
-        <v>48265189</v>
+        <v>48718206</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="B5">
-        <v>7102203</v>
+        <v>7051466</v>
       </c>
       <c r="C5">
-        <v>1513671</v>
+        <v>1299786</v>
       </c>
       <c r="D5">
-        <v>7446133</v>
+        <v>7294305</v>
       </c>
       <c r="E5">
-        <v>4823786</v>
+        <v>4675369</v>
       </c>
       <c r="F5">
-        <v>36780251</v>
+        <v>37345088</v>
       </c>
       <c r="G5">
-        <v>49050170</v>
+        <v>49314762</v>
       </c>
       <c r="H5">
-        <v>7343079</v>
+        <v>7184617</v>
       </c>
       <c r="I5">
-        <v>2062622</v>
+        <v>1767691</v>
       </c>
       <c r="J5">
-        <v>8368761</v>
+        <v>7676655</v>
       </c>
       <c r="K5">
-        <v>5136508</v>
+        <v>5034482</v>
       </c>
       <c r="L5">
-        <v>34755074</v>
+        <v>36002569</v>
       </c>
       <c r="M5">
-        <v>48260343</v>
+        <v>48713706</v>
       </c>
       <c r="N5">
-        <v>7588956</v>
+        <v>7340265</v>
       </c>
       <c r="O5">
-        <v>2253718</v>
+        <v>2060560</v>
       </c>
       <c r="P5">
-        <v>10013108</v>
+        <v>8369146</v>
       </c>
       <c r="Q5">
-        <v>5232435</v>
+        <v>5139369</v>
       </c>
       <c r="R5">
-        <v>32577827</v>
+        <v>34756674</v>
       </c>
       <c r="S5">
-        <v>47823370</v>
+        <v>48265189</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="B6">
-        <v>7188123</v>
+        <v>7102203</v>
       </c>
       <c r="C6">
-        <v>1774721</v>
+        <v>1513671</v>
       </c>
       <c r="D6">
-        <v>7675977</v>
+        <v>7446133</v>
       </c>
       <c r="E6">
-        <v>5027431</v>
+        <v>4823786</v>
       </c>
       <c r="F6">
-        <v>35999762</v>
+        <v>36780251</v>
       </c>
       <c r="G6">
-        <v>48703170</v>
+        <v>49050170</v>
       </c>
       <c r="H6">
-        <v>7589638</v>
+        <v>7343079</v>
       </c>
       <c r="I6">
-        <v>2256742</v>
+        <v>2062622</v>
       </c>
       <c r="J6">
-        <v>10012637</v>
+        <v>8368761</v>
       </c>
       <c r="K6">
-        <v>5229922</v>
+        <v>5136508</v>
       </c>
       <c r="L6">
-        <v>32577075</v>
+        <v>34755074</v>
       </c>
       <c r="M6">
-        <v>47819634</v>
+        <v>48260343</v>
       </c>
       <c r="N6">
-        <v>7902839</v>
+        <v>7588956</v>
       </c>
       <c r="O6">
-        <v>2289689</v>
+        <v>2253718</v>
       </c>
       <c r="P6">
-        <v>12148491</v>
+        <v>10013108</v>
       </c>
       <c r="Q6">
-        <v>5690505</v>
+        <v>5232435</v>
       </c>
       <c r="R6">
-        <v>29634490</v>
+        <v>32577827</v>
       </c>
       <c r="S6">
-        <v>47473486</v>
+        <v>47823370</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="B7">
-        <v>4922246</v>
+        <v>7188123</v>
       </c>
       <c r="C7">
-        <v>1504174</v>
+        <v>1774721</v>
       </c>
       <c r="D7">
-        <v>8369206</v>
+        <v>7675977</v>
       </c>
       <c r="E7">
-        <v>4462914</v>
+        <v>5027431</v>
       </c>
       <c r="F7">
-        <v>34751405</v>
+        <v>35999762</v>
       </c>
       <c r="G7">
-        <v>47583525</v>
+        <v>48703170</v>
       </c>
       <c r="H7">
-        <v>5237693</v>
+        <v>7589638</v>
       </c>
       <c r="I7">
-        <v>1603693</v>
+        <v>2256742</v>
       </c>
       <c r="J7">
-        <v>12148624</v>
+        <v>10012637</v>
       </c>
       <c r="K7">
-        <v>5387344</v>
+        <v>5229922</v>
       </c>
       <c r="L7">
-        <v>29632591</v>
+        <v>32577075</v>
       </c>
       <c r="M7">
-        <v>47168559</v>
+        <v>47819634</v>
       </c>
       <c r="N7">
-        <v>5475882</v>
+        <v>7902839</v>
       </c>
       <c r="O7">
-        <v>1574138</v>
+        <v>2289689</v>
       </c>
       <c r="P7">
-        <v>14562981</v>
+        <v>12148491</v>
       </c>
       <c r="Q7">
-        <v>6180953</v>
+        <v>5690505</v>
       </c>
       <c r="R7">
-        <v>26215991</v>
+        <v>29634490</v>
       </c>
       <c r="S7">
-        <v>46959925</v>
+        <v>47473486</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B8">
-        <v>5053954</v>
+        <v>4922246</v>
       </c>
       <c r="C8">
-        <v>1597892</v>
+        <v>1504174</v>
       </c>
       <c r="D8">
-        <v>10021741</v>
+        <v>8369206</v>
       </c>
       <c r="E8">
-        <v>4762640</v>
+        <v>4462914</v>
       </c>
       <c r="F8">
-        <v>32573718</v>
+        <v>34751405</v>
       </c>
       <c r="G8">
-        <v>47358099</v>
+        <v>47583525</v>
       </c>
       <c r="H8">
-        <v>5465398</v>
+        <v>5237693</v>
       </c>
       <c r="I8">
-        <v>1580627</v>
+        <v>1603693</v>
       </c>
       <c r="J8">
-        <v>14572377</v>
+        <v>12148624</v>
       </c>
       <c r="K8">
-        <v>6176719</v>
+        <v>5387344</v>
       </c>
       <c r="L8">
-        <v>26214824</v>
+        <v>29632591</v>
       </c>
       <c r="M8">
-        <v>46963920</v>
+        <v>47168559</v>
       </c>
       <c r="N8">
-        <v>5755897</v>
+        <v>5475882</v>
       </c>
       <c r="O8">
-        <v>1547981</v>
+        <v>1574138</v>
       </c>
       <c r="P8">
-        <v>17157988</v>
+        <v>14562981</v>
       </c>
       <c r="Q8">
-        <v>7039120</v>
+        <v>6180953</v>
       </c>
       <c r="R8">
-        <v>22508959</v>
+        <v>26215991</v>
       </c>
       <c r="S8">
-        <v>46706067</v>
+        <v>46959925</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B9">
-        <v>5229604</v>
+        <v>5053954</v>
       </c>
       <c r="C9">
-        <v>1618481</v>
+        <v>1597892</v>
       </c>
       <c r="D9">
-        <v>12157100</v>
+        <v>10021741</v>
       </c>
       <c r="E9">
-        <v>5375529</v>
+        <v>4762640</v>
       </c>
       <c r="F9">
-        <v>29629231</v>
+        <v>32573718</v>
       </c>
       <c r="G9">
-        <v>47161860</v>
+        <v>47358099</v>
       </c>
       <c r="H9">
-        <v>5758356</v>
+        <v>5465398</v>
       </c>
       <c r="I9">
-        <v>1551283</v>
+        <v>1580627</v>
       </c>
       <c r="J9">
-        <v>17157160</v>
+        <v>14572377</v>
       </c>
       <c r="K9">
-        <v>7035796</v>
+        <v>6176719</v>
       </c>
       <c r="L9">
-        <v>22507350</v>
+        <v>26214824</v>
       </c>
       <c r="M9">
-        <v>46700306</v>
+        <v>46963920</v>
       </c>
       <c r="N9">
-        <v>5927007</v>
+        <v>5755897</v>
       </c>
       <c r="O9">
-        <v>1592113</v>
+        <v>1547981</v>
       </c>
       <c r="P9">
-        <v>18793468</v>
+        <v>17157988</v>
       </c>
       <c r="Q9">
-        <v>8015572</v>
+        <v>7039120</v>
       </c>
       <c r="R9">
-        <v>19681785</v>
+        <v>22508959</v>
       </c>
       <c r="S9">
-        <v>46490825</v>
+        <v>46706067</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B10">
-        <v>5467098</v>
+        <v>5229604</v>
       </c>
       <c r="C10">
-        <v>1596811</v>
+        <v>1618481</v>
       </c>
       <c r="D10">
-        <v>14575900</v>
+        <v>12157100</v>
       </c>
       <c r="E10">
-        <v>6164226</v>
+        <v>5375529</v>
       </c>
       <c r="F10">
-        <v>26205910</v>
+        <v>29629231</v>
       </c>
       <c r="G10">
-        <v>46946036</v>
+        <v>47161860</v>
       </c>
       <c r="H10">
-        <v>5926909</v>
+        <v>5758356</v>
       </c>
       <c r="I10">
-        <v>1597860</v>
+        <v>1551283</v>
       </c>
       <c r="J10">
-        <v>18796851</v>
+        <v>17157160</v>
       </c>
       <c r="K10">
-        <v>8012376</v>
+        <v>7035796</v>
       </c>
       <c r="L10">
-        <v>19675949</v>
+        <v>22507350</v>
       </c>
       <c r="M10">
-        <v>46485176</v>
+        <v>46700306</v>
       </c>
       <c r="N10">
-        <v>6040050</v>
+        <v>5927007</v>
       </c>
       <c r="O10">
-        <v>1652417</v>
+        <v>1592113</v>
       </c>
       <c r="P10">
-        <v>20133986</v>
+        <v>18793468</v>
       </c>
       <c r="Q10">
-        <v>9055320</v>
+        <v>8015572</v>
       </c>
       <c r="R10">
-        <v>17128172</v>
+        <v>19681785</v>
       </c>
       <c r="S10">
-        <v>46317478</v>
+        <v>46490825</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B11">
-        <v>5610741</v>
+        <v>5467098</v>
       </c>
       <c r="C11">
-        <v>1575333</v>
+        <v>1596811</v>
       </c>
       <c r="D11">
-        <v>17279465</v>
+        <v>14575900</v>
       </c>
       <c r="E11">
-        <v>7025036</v>
+        <v>6164226</v>
       </c>
       <c r="F11">
-        <v>22519370</v>
+        <v>26205910</v>
       </c>
       <c r="G11">
-        <v>46823871</v>
+        <v>46946036</v>
       </c>
       <c r="H11">
-        <v>5893661</v>
+        <v>5926909</v>
       </c>
       <c r="I11">
-        <v>1663892</v>
+        <v>1597860</v>
       </c>
       <c r="J11">
-        <v>20257123</v>
+        <v>18796851</v>
       </c>
       <c r="K11">
-        <v>9057038</v>
+        <v>8012376</v>
       </c>
       <c r="L11">
-        <v>17138231</v>
+        <v>19675949</v>
       </c>
       <c r="M11">
-        <v>46452392</v>
+        <v>46485176</v>
       </c>
       <c r="N11">
-        <v>6038487</v>
+        <v>6040050</v>
       </c>
       <c r="O11">
-        <v>1684410</v>
+        <v>1652417</v>
       </c>
       <c r="P11">
-        <v>22158953</v>
+        <v>20133986</v>
       </c>
       <c r="Q11">
-        <v>9853675</v>
+        <v>9055320</v>
       </c>
       <c r="R11">
-        <v>14274420</v>
+        <v>17128172</v>
       </c>
       <c r="S11">
-        <v>46287048</v>
+        <v>46317478</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B12">
-        <v>5925943</v>
+        <v>5610741</v>
       </c>
       <c r="C12">
-        <v>1616298</v>
+        <v>1575333</v>
       </c>
       <c r="D12">
-        <v>18801609</v>
+        <v>17279465</v>
       </c>
       <c r="E12">
-        <v>7998741</v>
+        <v>7025036</v>
       </c>
       <c r="F12">
-        <v>19667354</v>
+        <v>22519370</v>
       </c>
       <c r="G12">
-        <v>46467704</v>
+        <v>46823871</v>
       </c>
       <c r="H12">
-        <v>6182863</v>
+        <v>5893661</v>
       </c>
       <c r="I12">
-        <v>1687002</v>
+        <v>1663892</v>
       </c>
       <c r="J12">
-        <v>22039408</v>
+        <v>20257123</v>
       </c>
       <c r="K12">
-        <v>9839532</v>
+        <v>9057038</v>
       </c>
       <c r="L12">
-        <v>14261140</v>
+        <v>17138231</v>
       </c>
       <c r="M12">
-        <v>46140080</v>
+        <v>46452392</v>
       </c>
       <c r="N12">
-        <v>6392072</v>
+        <v>6038487</v>
       </c>
       <c r="O12">
-        <v>1641693</v>
+        <v>1684410</v>
       </c>
       <c r="P12">
-        <v>24567729</v>
+        <v>22158953</v>
       </c>
       <c r="Q12">
-        <v>10413190</v>
+        <v>9853675</v>
       </c>
       <c r="R12">
-        <v>10995261</v>
+        <v>14274420</v>
       </c>
       <c r="S12">
-        <v>45976180</v>
+        <v>46287048</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B13">
-        <v>6113428</v>
+        <v>5925943</v>
       </c>
       <c r="C13">
-        <v>1676275</v>
+        <v>1616298</v>
       </c>
       <c r="D13">
-        <v>20106983</v>
+        <v>18801609</v>
       </c>
       <c r="E13">
-        <v>9023286</v>
+        <v>7998741</v>
       </c>
       <c r="F13">
-        <v>17089973</v>
+        <v>19667354</v>
       </c>
       <c r="G13">
-        <v>46220242</v>
+        <v>46467704</v>
       </c>
       <c r="H13">
-        <v>6466161</v>
+        <v>6182863</v>
       </c>
       <c r="I13">
-        <v>1644869</v>
+        <v>1687002</v>
       </c>
       <c r="J13">
-        <v>24530417</v>
+        <v>22039408</v>
       </c>
       <c r="K13">
-        <v>10394218</v>
+        <v>9839532</v>
       </c>
       <c r="L13">
-        <v>10974280</v>
+        <v>14261140</v>
       </c>
       <c r="M13">
-        <v>45898915</v>
+        <v>46140080</v>
       </c>
       <c r="N13">
-        <v>6710026</v>
+        <v>6392072</v>
       </c>
       <c r="O13">
-        <v>1549282</v>
+        <v>1641693</v>
       </c>
       <c r="P13">
-        <v>25990113</v>
+        <v>24567729</v>
       </c>
       <c r="Q13">
-        <v>11656265</v>
+        <v>10413190</v>
       </c>
       <c r="R13">
-        <v>8104259</v>
+        <v>10995261</v>
       </c>
       <c r="S13">
-        <v>45750637</v>
+        <v>45976180</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B14">
-        <v>6194434</v>
+        <v>6113428</v>
       </c>
       <c r="C14">
-        <v>1720841</v>
+        <v>1676275</v>
       </c>
       <c r="D14">
-        <v>22048677</v>
+        <v>20106983</v>
       </c>
       <c r="E14">
-        <v>9810639</v>
+        <v>9023286</v>
       </c>
       <c r="F14">
-        <v>14235354</v>
+        <v>17089973</v>
       </c>
       <c r="G14">
-        <v>46094670</v>
+        <v>46220242</v>
       </c>
       <c r="H14">
-        <v>6647970</v>
+        <v>6466161</v>
       </c>
       <c r="I14">
-        <v>1566179</v>
+        <v>1644869</v>
       </c>
       <c r="J14">
-        <v>26028307</v>
+        <v>24530417</v>
       </c>
       <c r="K14">
-        <v>11660101</v>
+        <v>10394218</v>
       </c>
       <c r="L14">
-        <v>8107388</v>
+        <v>10974280</v>
       </c>
       <c r="M14">
-        <v>45795796</v>
+        <v>45898915</v>
       </c>
       <c r="N14">
-        <v>6862315</v>
+        <v>6710026</v>
       </c>
       <c r="O14">
-        <v>1493790</v>
+        <v>1549282</v>
       </c>
       <c r="P14">
-        <v>26357835</v>
+        <v>25990113</v>
       </c>
       <c r="Q14">
-        <v>13596764</v>
+        <v>11656265</v>
       </c>
       <c r="R14">
-        <v>5699241</v>
+        <v>8104259</v>
       </c>
       <c r="S14">
-        <v>45653840</v>
+        <v>45750637</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B15">
-        <v>6414467</v>
+        <v>6194434</v>
       </c>
       <c r="C15">
-        <v>1678301</v>
+        <v>1720841</v>
       </c>
       <c r="D15">
-        <v>24562863</v>
+        <v>22048677</v>
       </c>
       <c r="E15">
-        <v>10381759</v>
+        <v>9810639</v>
       </c>
       <c r="F15">
-        <v>10972555</v>
+        <v>14235354</v>
       </c>
       <c r="G15">
-        <v>45917177</v>
+        <v>46094670</v>
       </c>
       <c r="H15">
-        <v>6876688</v>
+        <v>6647970</v>
       </c>
       <c r="I15">
-        <v>1504168</v>
+        <v>1566179</v>
       </c>
       <c r="J15">
-        <v>26348254</v>
+        <v>26028307</v>
       </c>
       <c r="K15">
-        <v>13585896</v>
+        <v>11660101</v>
       </c>
       <c r="L15">
-        <v>5694939</v>
+        <v>8107388</v>
       </c>
       <c r="M15">
-        <v>45629089</v>
+        <v>45795796</v>
       </c>
       <c r="N15">
-        <v>7031651</v>
+        <v>6862315</v>
       </c>
       <c r="O15">
-        <v>1502381</v>
+        <v>1493790</v>
       </c>
       <c r="P15">
-        <v>13119984</v>
+        <v>26357835</v>
       </c>
       <c r="Q15">
-        <v>28222661</v>
+        <v>13596764</v>
       </c>
       <c r="R15">
-        <v>4133267</v>
+        <v>5699241</v>
       </c>
       <c r="S15">
-        <v>45475912</v>
+        <v>45653840</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B16">
-        <v>6660263</v>
+        <v>6414467</v>
       </c>
       <c r="C16">
-        <v>1578764</v>
+        <v>1678301</v>
       </c>
       <c r="D16">
-        <v>26019483</v>
+        <v>24562863</v>
       </c>
       <c r="E16">
-        <v>11648617</v>
+        <v>10381759</v>
       </c>
       <c r="F16">
-        <v>8102818</v>
+        <v>10972555</v>
       </c>
       <c r="G16">
-        <v>45770918</v>
+        <v>45917177</v>
       </c>
       <c r="H16">
+        <v>6876688</v>
+      </c>
+      <c r="I16">
+        <v>1504168</v>
+      </c>
+      <c r="J16">
+        <v>26348254</v>
+      </c>
+      <c r="K16">
+        <v>13585896</v>
+      </c>
+      <c r="L16">
+        <v>5694939</v>
+      </c>
+      <c r="M16">
+        <v>45629089</v>
+      </c>
+      <c r="N16">
         <v>7031651</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>1502381</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <v>13119984</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <v>28222661</v>
       </c>
-      <c r="L16">
+      <c r="R16">
         <v>4133267</v>
       </c>
-      <c r="M16">
+      <c r="S16">
         <v>45475912</v>
-      </c>
-      <c r="N16">
-        <v>7160934</v>
-      </c>
-      <c r="O16">
-        <v>1577260</v>
-      </c>
-      <c r="P16">
-        <v>12254673</v>
-      </c>
-      <c r="Q16">
-        <v>29956598</v>
-      </c>
-      <c r="R16">
-        <v>3060479</v>
-      </c>
-      <c r="S16">
-        <v>45271750</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B17">
-        <v>6876688</v>
+        <v>6660263</v>
       </c>
       <c r="C17">
-        <v>1504168</v>
+        <v>1578764</v>
       </c>
       <c r="D17">
-        <v>26348254</v>
+        <v>26019483</v>
       </c>
       <c r="E17">
-        <v>13585896</v>
+        <v>11648617</v>
       </c>
       <c r="F17">
-        <v>5694939</v>
+        <v>8102818</v>
       </c>
       <c r="G17">
-        <v>45629089</v>
+        <v>45770918</v>
       </c>
       <c r="H17">
+        <v>7031651</v>
+      </c>
+      <c r="I17">
+        <v>1502381</v>
+      </c>
+      <c r="J17">
+        <v>13119984</v>
+      </c>
+      <c r="K17">
+        <v>28222661</v>
+      </c>
+      <c r="L17">
+        <v>4133267</v>
+      </c>
+      <c r="M17">
+        <v>45475912</v>
+      </c>
+      <c r="N17">
         <v>7160934</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>1577260</v>
       </c>
-      <c r="J17">
+      <c r="P17">
         <v>12254673</v>
       </c>
-      <c r="K17">
+      <c r="Q17">
         <v>29956598</v>
       </c>
-      <c r="L17">
+      <c r="R17">
         <v>3060479</v>
       </c>
-      <c r="M17">
+      <c r="S17">
         <v>45271750</v>
-      </c>
-      <c r="N17">
-        <v>7291722</v>
-      </c>
-      <c r="O17">
-        <v>1749607</v>
-      </c>
-      <c r="P17">
-        <v>11949919</v>
-      </c>
-      <c r="Q17">
-        <v>30829431</v>
-      </c>
-      <c r="R17">
-        <v>2189265</v>
-      </c>
-      <c r="S17">
-        <v>44968615</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B18">
-        <v>7031651</v>
+        <v>6876688</v>
       </c>
       <c r="C18">
-        <v>1502381</v>
+        <v>1504168</v>
       </c>
       <c r="D18">
-        <v>13119984</v>
+        <v>26348254</v>
       </c>
       <c r="E18">
-        <v>28222661</v>
+        <v>13585896</v>
       </c>
       <c r="F18">
-        <v>4133267</v>
+        <v>5694939</v>
       </c>
       <c r="G18">
-        <v>45475912</v>
+        <v>45629089</v>
       </c>
       <c r="H18">
+        <v>7160934</v>
+      </c>
+      <c r="I18">
+        <v>1577260</v>
+      </c>
+      <c r="J18">
+        <v>12254673</v>
+      </c>
+      <c r="K18">
+        <v>29956598</v>
+      </c>
+      <c r="L18">
+        <v>3060479</v>
+      </c>
+      <c r="M18">
+        <v>45271750</v>
+      </c>
+      <c r="N18">
         <v>7291722</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>1749607</v>
       </c>
-      <c r="J18">
+      <c r="P18">
         <v>11949919</v>
       </c>
-      <c r="K18">
+      <c r="Q18">
         <v>30829431</v>
       </c>
-      <c r="L18">
+      <c r="R18">
         <v>2189265</v>
       </c>
-      <c r="M18">
+      <c r="S18">
         <v>44968615</v>
-      </c>
-      <c r="N18">
-        <v>7404599</v>
-      </c>
-      <c r="O18">
-        <v>1981131</v>
-      </c>
-      <c r="P18">
-        <v>11407859</v>
-      </c>
-      <c r="Q18">
-        <v>31622279</v>
-      </c>
-      <c r="R18">
-        <v>1594076</v>
-      </c>
-      <c r="S18">
-        <v>44624214</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B19">
-        <v>7160934</v>
+        <v>7031651</v>
       </c>
       <c r="C19">
-        <v>1577260</v>
+        <v>1502381</v>
       </c>
       <c r="D19">
-        <v>12254673</v>
+        <v>13119984</v>
       </c>
       <c r="E19">
-        <v>29956598</v>
+        <v>28222661</v>
       </c>
       <c r="F19">
-        <v>3060479</v>
+        <v>4133267</v>
       </c>
       <c r="G19">
-        <v>45271750</v>
+        <v>45475912</v>
       </c>
       <c r="H19">
+        <v>7291722</v>
+      </c>
+      <c r="I19">
+        <v>1749607</v>
+      </c>
+      <c r="J19">
+        <v>11949919</v>
+      </c>
+      <c r="K19">
+        <v>30829431</v>
+      </c>
+      <c r="L19">
+        <v>2189265</v>
+      </c>
+      <c r="M19">
+        <v>44968615</v>
+      </c>
+      <c r="N19">
         <v>7404599</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>1981131</v>
       </c>
-      <c r="J19">
+      <c r="P19">
         <v>11407859</v>
       </c>
-      <c r="K19">
+      <c r="Q19">
         <v>31622279</v>
       </c>
-      <c r="L19">
+      <c r="R19">
         <v>1594076</v>
       </c>
-      <c r="M19">
+      <c r="S19">
         <v>44624214</v>
-      </c>
-      <c r="N19">
-        <v>7586013</v>
-      </c>
-      <c r="O19">
-        <v>2222672</v>
-      </c>
-      <c r="P19">
-        <v>4526706</v>
-      </c>
-      <c r="Q19">
-        <v>38658546</v>
-      </c>
-      <c r="R19">
-        <v>1016007</v>
-      </c>
-      <c r="S19">
-        <v>44201259</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B20">
-        <v>7291722</v>
+        <v>7160934</v>
       </c>
       <c r="C20">
-        <v>1749607</v>
+        <v>1577260</v>
       </c>
       <c r="D20">
-        <v>11949919</v>
+        <v>12254673</v>
       </c>
       <c r="E20">
-        <v>30829431</v>
+        <v>29956598</v>
       </c>
       <c r="F20">
-        <v>2189265</v>
+        <v>3060479</v>
       </c>
       <c r="G20">
-        <v>44968615</v>
+        <v>45271750</v>
       </c>
       <c r="H20">
+        <v>7404599</v>
+      </c>
+      <c r="I20">
+        <v>1981131</v>
+      </c>
+      <c r="J20">
+        <v>11407859</v>
+      </c>
+      <c r="K20">
+        <v>31622279</v>
+      </c>
+      <c r="L20">
+        <v>1594076</v>
+      </c>
+      <c r="M20">
+        <v>44624214</v>
+      </c>
+      <c r="N20">
         <v>7586013</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>2222672</v>
       </c>
-      <c r="J20">
+      <c r="P20">
         <v>4526706</v>
       </c>
-      <c r="K20">
+      <c r="Q20">
         <v>38658546</v>
       </c>
-      <c r="L20">
+      <c r="R20">
         <v>1016007</v>
       </c>
-      <c r="M20">
+      <c r="S20">
         <v>44201259</v>
-      </c>
-      <c r="N20">
-        <v>7862567</v>
-      </c>
-      <c r="O20">
-        <v>2422756</v>
-      </c>
-      <c r="P20">
-        <v>4186423</v>
-      </c>
-      <c r="Q20">
-        <v>38968164</v>
-      </c>
-      <c r="R20">
-        <v>570032</v>
-      </c>
-      <c r="S20">
-        <v>43724619</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B21">
-        <v>7404599</v>
+        <v>7291722</v>
       </c>
       <c r="C21">
-        <v>1981131</v>
+        <v>1749607</v>
       </c>
       <c r="D21">
-        <v>11407859</v>
+        <v>11949919</v>
       </c>
       <c r="E21">
-        <v>31622279</v>
+        <v>30829431</v>
       </c>
       <c r="F21">
-        <v>1594076</v>
+        <v>2189265</v>
       </c>
       <c r="G21">
-        <v>44624214</v>
+        <v>44968615</v>
       </c>
       <c r="H21">
+        <v>7586013</v>
+      </c>
+      <c r="I21">
+        <v>2222672</v>
+      </c>
+      <c r="J21">
+        <v>4526706</v>
+      </c>
+      <c r="K21">
+        <v>38658546</v>
+      </c>
+      <c r="L21">
+        <v>1016007</v>
+      </c>
+      <c r="M21">
+        <v>44201259</v>
+      </c>
+      <c r="N21">
         <v>7862567</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>2422756</v>
       </c>
-      <c r="J21">
+      <c r="P21">
         <v>4186423</v>
       </c>
-      <c r="K21">
+      <c r="Q21">
         <v>38968164</v>
       </c>
-      <c r="L21">
+      <c r="R21">
         <v>570032</v>
       </c>
-      <c r="M21">
+      <c r="S21">
         <v>43724619</v>
-      </c>
-      <c r="N21">
-        <v>8302865</v>
-      </c>
-      <c r="O21">
-        <v>2538614</v>
-      </c>
-      <c r="P21">
-        <v>3884826</v>
-      </c>
-      <c r="Q21">
-        <v>38988918</v>
-      </c>
-      <c r="R21">
-        <v>294719</v>
-      </c>
-      <c r="S21">
-        <v>43168463</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B22">
-        <v>7586013</v>
+        <v>7404599</v>
       </c>
       <c r="C22">
-        <v>2222672</v>
+        <v>1981131</v>
       </c>
       <c r="D22">
-        <v>4526706</v>
+        <v>11407859</v>
       </c>
       <c r="E22">
-        <v>38658546</v>
+        <v>31622279</v>
       </c>
       <c r="F22">
-        <v>1016007</v>
+        <v>1594076</v>
       </c>
       <c r="G22">
-        <v>44201259</v>
+        <v>44624214</v>
       </c>
       <c r="H22">
+        <v>7862567</v>
+      </c>
+      <c r="I22">
+        <v>2422756</v>
+      </c>
+      <c r="J22">
+        <v>4186423</v>
+      </c>
+      <c r="K22">
+        <v>38968164</v>
+      </c>
+      <c r="L22">
+        <v>570032</v>
+      </c>
+      <c r="M22">
+        <v>43724619</v>
+      </c>
+      <c r="N22">
         <v>8302865</v>
       </c>
-      <c r="I22">
+      <c r="O22">
         <v>2538614</v>
       </c>
-      <c r="J22">
+      <c r="P22">
         <v>3884826</v>
       </c>
-      <c r="K22">
+      <c r="Q22">
         <v>38988918</v>
       </c>
-      <c r="L22">
+      <c r="R22">
         <v>294719</v>
       </c>
-      <c r="M22">
+      <c r="S22">
         <v>43168463</v>
-      </c>
-      <c r="N22">
-        <v>8683749</v>
-      </c>
-      <c r="O22">
-        <v>2653423</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>42672767</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B23">
-        <v>7862567</v>
+        <v>7586013</v>
       </c>
       <c r="C23">
-        <v>2422756</v>
+        <v>2222672</v>
       </c>
       <c r="D23">
-        <v>4186423</v>
+        <v>4526706</v>
       </c>
       <c r="E23">
-        <v>38968164</v>
+        <v>38658546</v>
       </c>
       <c r="F23">
-        <v>570032</v>
+        <v>1016007</v>
       </c>
       <c r="G23">
-        <v>43724619</v>
+        <v>44201259</v>
       </c>
       <c r="H23">
+        <v>8302865</v>
+      </c>
+      <c r="I23">
+        <v>2538614</v>
+      </c>
+      <c r="J23">
+        <v>3884826</v>
+      </c>
+      <c r="K23">
+        <v>38988918</v>
+      </c>
+      <c r="L23">
+        <v>294719</v>
+      </c>
+      <c r="M23">
+        <v>43168463</v>
+      </c>
+      <c r="N23">
         <v>8683749</v>
       </c>
-      <c r="I23">
+      <c r="O23">
         <v>2653423</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>42672767</v>
-      </c>
-      <c r="N23">
-        <v>9231487</v>
-      </c>
-      <c r="O23">
-        <v>2863195</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>41915257</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B24">
-        <v>8302865</v>
+        <v>7862567</v>
       </c>
       <c r="C24">
-        <v>2538614</v>
+        <v>2422756</v>
       </c>
       <c r="D24">
-        <v>3884826</v>
+        <v>4186423</v>
       </c>
       <c r="E24">
-        <v>38988918</v>
+        <v>38968164</v>
       </c>
       <c r="F24">
-        <v>294719</v>
+        <v>570032</v>
       </c>
       <c r="G24">
-        <v>43168463</v>
+        <v>43724619</v>
       </c>
       <c r="H24">
+        <v>8683749</v>
+      </c>
+      <c r="I24">
+        <v>2653423</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>42672767</v>
+      </c>
+      <c r="N24">
         <v>9231487</v>
       </c>
-      <c r="I24">
+      <c r="O24">
         <v>2863195</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>41915257</v>
-      </c>
-      <c r="N24">
-        <v>9829232</v>
-      </c>
-      <c r="O24">
-        <v>3259454</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>40921215</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B25">
-        <v>8683749</v>
+        <v>8302865</v>
       </c>
       <c r="C25">
-        <v>2653423</v>
+        <v>2538614</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3884826</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>38988918</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>294719</v>
       </c>
       <c r="G25">
-        <v>42672767</v>
+        <v>43168463</v>
       </c>
       <c r="H25">
+        <v>9231487</v>
+      </c>
+      <c r="I25">
+        <v>2863195</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>41915257</v>
+      </c>
+      <c r="N25">
         <v>9829232</v>
       </c>
-      <c r="I25">
+      <c r="O25">
         <v>3259454</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>40921215</v>
-      </c>
-      <c r="N25">
-        <v>10307179</v>
-      </c>
-      <c r="O25">
-        <v>3862335</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>39840387</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B26">
-        <v>9231487</v>
+        <v>8683749</v>
       </c>
       <c r="C26">
-        <v>2863195</v>
+        <v>2653423</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -5142,54 +5219,54 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>41915257</v>
+        <v>42672767</v>
       </c>
       <c r="H26">
+        <v>9829232</v>
+      </c>
+      <c r="I26">
+        <v>3259454</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>40921215</v>
+      </c>
+      <c r="N26">
         <v>10307179</v>
       </c>
-      <c r="I26">
+      <c r="O26">
         <v>3862335</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>39840387</v>
-      </c>
-      <c r="N26">
-        <v>10942694</v>
-      </c>
-      <c r="O26">
-        <v>4426185</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>38641022</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B27">
-        <v>9829232</v>
+        <v>9231487</v>
       </c>
       <c r="C27">
-        <v>3259454</v>
+        <v>2863195</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5201,54 +5278,54 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>40921215</v>
+        <v>41915257</v>
       </c>
       <c r="H27">
+        <v>10307179</v>
+      </c>
+      <c r="I27">
+        <v>3862335</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>39840387</v>
+      </c>
+      <c r="N27">
         <v>10942694</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>4426185</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>38641022</v>
-      </c>
-      <c r="N27">
-        <v>11786620</v>
-      </c>
-      <c r="O27">
-        <v>4805486</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>37417795</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B28">
-        <v>10307179</v>
+        <v>9829232</v>
       </c>
       <c r="C28">
-        <v>3862335</v>
+        <v>3259454</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5260,54 +5337,54 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>39840387</v>
+        <v>40921215</v>
       </c>
       <c r="H28">
+        <v>10942694</v>
+      </c>
+      <c r="I28">
+        <v>4426185</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>38641022</v>
+      </c>
+      <c r="N28">
         <v>11786620</v>
       </c>
-      <c r="I28">
+      <c r="O28">
         <v>4805486</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>37417795</v>
-      </c>
-      <c r="N28">
-        <v>12581126</v>
-      </c>
-      <c r="O28">
-        <v>5096568</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>36332207</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B29">
-        <v>10942694</v>
+        <v>10307179</v>
       </c>
       <c r="C29">
-        <v>4426185</v>
+        <v>3862335</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5319,54 +5396,54 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>38641022</v>
+        <v>39840387</v>
       </c>
       <c r="H29">
+        <v>11786620</v>
+      </c>
+      <c r="I29">
+        <v>4805486</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>37417795</v>
+      </c>
+      <c r="N29">
         <v>12581126</v>
       </c>
-      <c r="I29">
+      <c r="O29">
         <v>5096568</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>36332207</v>
-      </c>
-      <c r="N29">
-        <v>13334156</v>
-      </c>
-      <c r="O29">
-        <v>5075930</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>35599815</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B30">
-        <v>11786620</v>
+        <v>10942694</v>
       </c>
       <c r="C30">
-        <v>4805486</v>
+        <v>4426185</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5378,54 +5455,54 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>37417795</v>
+        <v>38641022</v>
       </c>
       <c r="H30">
+        <v>12581126</v>
+      </c>
+      <c r="I30">
+        <v>5096568</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>36332207</v>
+      </c>
+      <c r="N30">
         <v>13334156</v>
       </c>
-      <c r="I30">
+      <c r="O30">
         <v>5075930</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>35599815</v>
-      </c>
-      <c r="N30">
-        <v>14507530</v>
-      </c>
-      <c r="O30">
-        <v>5210293</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>34292078</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B31">
-        <v>12581126</v>
+        <v>11786620</v>
       </c>
       <c r="C31">
-        <v>5096568</v>
+        <v>4805486</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5437,54 +5514,54 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>36332207</v>
+        <v>37417795</v>
       </c>
       <c r="H31">
+        <v>13334156</v>
+      </c>
+      <c r="I31">
+        <v>5075930</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>35599815</v>
+      </c>
+      <c r="N31">
         <v>14507530</v>
       </c>
-      <c r="I31">
+      <c r="O31">
         <v>5210293</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <v>34292078</v>
-      </c>
-      <c r="N31">
-        <v>15656647</v>
-      </c>
-      <c r="O31">
-        <v>6065610</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>32287644</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="B32">
-        <v>13334156</v>
+        <v>12581126</v>
       </c>
       <c r="C32">
-        <v>5075930</v>
+        <v>5096568</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5496,54 +5573,54 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>35599815</v>
+        <v>36332207</v>
       </c>
       <c r="H32">
+        <v>14507530</v>
+      </c>
+      <c r="I32">
+        <v>5210293</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>34292078</v>
+      </c>
+      <c r="N32">
         <v>15656647</v>
       </c>
-      <c r="I32">
+      <c r="O32">
         <v>6065610</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>32287644</v>
-      </c>
-      <c r="N32">
-        <v>16708830</v>
-      </c>
-      <c r="O32">
-        <v>7672393</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>29628678</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B33">
-        <v>14507530</v>
+        <v>13334156</v>
       </c>
       <c r="C33">
-        <v>5210293</v>
+        <v>5075930</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5555,54 +5632,54 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>34292078</v>
+        <v>35599815</v>
       </c>
       <c r="H33">
+        <v>15656647</v>
+      </c>
+      <c r="I33">
+        <v>6065610</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>32287644</v>
+      </c>
+      <c r="N33">
         <v>16708830</v>
       </c>
-      <c r="I33">
+      <c r="O33">
         <v>7672393</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>29628678</v>
-      </c>
-      <c r="N33">
-        <v>17568325</v>
-      </c>
-      <c r="O33">
-        <v>9940124</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>26501452</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="B34">
-        <v>15656647</v>
+        <v>14507530</v>
       </c>
       <c r="C34">
-        <v>6065610</v>
+        <v>5210293</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5614,54 +5691,54 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>32287644</v>
+        <v>34292078</v>
       </c>
       <c r="H34">
+        <v>16708830</v>
+      </c>
+      <c r="I34">
+        <v>7672393</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>29628678</v>
+      </c>
+      <c r="N34">
         <v>17568325</v>
       </c>
-      <c r="I34">
+      <c r="O34">
         <v>9940124</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>26501452</v>
-      </c>
-      <c r="N34">
-        <v>20322806</v>
-      </c>
-      <c r="O34">
-        <v>11341436</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>22345659</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="B35">
-        <v>16708830</v>
+        <v>15656647</v>
       </c>
       <c r="C35">
-        <v>7672393</v>
+        <v>6065610</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5673,54 +5750,54 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>29628678</v>
+        <v>32287644</v>
       </c>
       <c r="H35">
+        <v>17568325</v>
+      </c>
+      <c r="I35">
+        <v>9940124</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>26501452</v>
+      </c>
+      <c r="N35">
         <v>20322806</v>
       </c>
-      <c r="I35">
+      <c r="O35">
         <v>11341436</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
         <v>22345659</v>
-      </c>
-      <c r="N35">
-        <v>21289761</v>
-      </c>
-      <c r="O35">
-        <v>13149676</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>19570464</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="B36">
-        <v>17568325</v>
+        <v>16708830</v>
       </c>
       <c r="C36">
-        <v>9940124</v>
+        <v>7672393</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5732,54 +5809,54 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>26501452</v>
+        <v>29628678</v>
       </c>
       <c r="H36">
+        <v>20322806</v>
+      </c>
+      <c r="I36">
+        <v>11341436</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>22345659</v>
+      </c>
+      <c r="N36">
         <v>21289761</v>
       </c>
-      <c r="I36">
+      <c r="O36">
         <v>13149676</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
         <v>19570464</v>
-      </c>
-      <c r="N36">
-        <v>22879167</v>
-      </c>
-      <c r="O36">
-        <v>13741130</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>17389604</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="2">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="B37">
-        <v>20322806</v>
+        <v>17568325</v>
       </c>
       <c r="C37">
-        <v>11341436</v>
+        <v>9940124</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5791,54 +5868,54 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>22345659</v>
+        <v>26501452</v>
       </c>
       <c r="H37">
+        <v>21289761</v>
+      </c>
+      <c r="I37">
+        <v>13149676</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>19570464</v>
+      </c>
+      <c r="N37">
         <v>22879167</v>
       </c>
-      <c r="I37">
+      <c r="O37">
         <v>13741130</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>17389604</v>
-      </c>
-      <c r="N37">
-        <v>24745853</v>
-      </c>
-      <c r="O37">
-        <v>13879852</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>15384196</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="2">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="B38">
-        <v>21289761</v>
+        <v>20322806</v>
       </c>
       <c r="C38">
-        <v>13149676</v>
+        <v>11341436</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5850,54 +5927,54 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>19570464</v>
+        <v>22345659</v>
       </c>
       <c r="H38">
+        <v>22879167</v>
+      </c>
+      <c r="I38">
+        <v>13741130</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>17389604</v>
+      </c>
+      <c r="N38">
         <v>24745853</v>
       </c>
-      <c r="I38">
+      <c r="O38">
         <v>13879852</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>15384196</v>
-      </c>
-      <c r="N38">
-        <v>27065063</v>
-      </c>
-      <c r="O38">
-        <v>13015437</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>13929401</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="2">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="B39">
-        <v>22879167</v>
+        <v>21289761</v>
       </c>
       <c r="C39">
-        <v>13741130</v>
+        <v>13149676</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5909,54 +5986,54 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>17389604</v>
+        <v>19570464</v>
       </c>
       <c r="H39">
+        <v>24745853</v>
+      </c>
+      <c r="I39">
+        <v>13879852</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>15384196</v>
+      </c>
+      <c r="N39">
         <v>27065063</v>
       </c>
-      <c r="I39">
+      <c r="O39">
         <v>13015437</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
         <v>13929401</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="2">
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="B40">
-        <v>24745853</v>
+        <v>22879167</v>
       </c>
       <c r="C40">
-        <v>13879852</v>
+        <v>13741130</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5968,13 +6045,13 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>15384196</v>
+        <v>17389604</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>27065063</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>13015437</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -5986,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>13929401</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -6009,60 +6086,119 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B41">
+        <v>24745853</v>
+      </c>
+      <c r="C41">
+        <v>13879852</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>15384196</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="2">
         <v>44391</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>27065063</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>13015437</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>13929401</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,1861 +556,1861 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2">
-        <v>44671</v>
+        <v>44664</v>
       </c>
       <c r="B2">
-        <v>313256</v>
+        <v>337060</v>
       </c>
       <c r="C2">
-        <v>26969</v>
+        <v>31557</v>
       </c>
       <c r="D2">
-        <v>148880</v>
+        <v>162436</v>
       </c>
       <c r="E2">
-        <v>182644</v>
+        <v>199002</v>
       </c>
       <c r="F2">
-        <v>1228968</v>
+        <v>1219494</v>
       </c>
       <c r="G2">
-        <v>1560492</v>
+        <v>1580932</v>
       </c>
       <c r="H2">
-        <v>3689</v>
+        <v>3658</v>
       </c>
       <c r="I2">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="J2">
-        <v>1854</v>
+        <v>1825</v>
       </c>
       <c r="K2">
-        <v>1103</v>
+        <v>1030</v>
       </c>
       <c r="L2">
-        <v>12913</v>
+        <v>11309</v>
       </c>
       <c r="M2">
-        <v>15870</v>
+        <v>14164</v>
       </c>
       <c r="N2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="O2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R2">
-        <v>576</v>
+        <v>519</v>
       </c>
       <c r="S2">
-        <v>714</v>
+        <v>657</v>
       </c>
       <c r="T2">
-        <v>758</v>
+        <v>735</v>
       </c>
       <c r="U2">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="V2">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="W2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="X2">
-        <v>1704</v>
+        <v>1565</v>
       </c>
       <c r="Y2">
-        <v>2172</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2">
-        <v>44664</v>
+        <v>44657</v>
       </c>
       <c r="B3">
-        <v>337060</v>
+        <v>328614</v>
       </c>
       <c r="C3">
-        <v>31557</v>
+        <v>34073</v>
       </c>
       <c r="D3">
-        <v>162436</v>
+        <v>161287</v>
       </c>
       <c r="E3">
-        <v>199002</v>
+        <v>193193</v>
       </c>
       <c r="F3">
-        <v>1219494</v>
+        <v>1097617</v>
       </c>
       <c r="G3">
-        <v>1580932</v>
+        <v>1452097</v>
       </c>
       <c r="H3">
-        <v>3658</v>
+        <v>3729</v>
       </c>
       <c r="I3">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="J3">
-        <v>1825</v>
+        <v>1846</v>
       </c>
       <c r="K3">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="L3">
-        <v>11309</v>
+        <v>10150</v>
       </c>
       <c r="M3">
-        <v>14164</v>
+        <v>13017</v>
       </c>
       <c r="N3">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="O3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P3">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R3">
-        <v>519</v>
+        <v>478</v>
       </c>
       <c r="S3">
-        <v>657</v>
+        <v>611</v>
       </c>
       <c r="T3">
-        <v>735</v>
+        <v>850</v>
       </c>
       <c r="U3">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="V3">
-        <v>369</v>
+        <v>473</v>
       </c>
       <c r="W3">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="X3">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="Y3">
-        <v>2031</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2">
-        <v>44657</v>
+        <v>44650</v>
       </c>
       <c r="B4">
-        <v>328614</v>
+        <v>310234</v>
       </c>
       <c r="C4">
-        <v>34073</v>
+        <v>36199</v>
       </c>
       <c r="D4">
-        <v>161287</v>
+        <v>151285</v>
       </c>
       <c r="E4">
-        <v>193193</v>
+        <v>177731</v>
       </c>
       <c r="F4">
-        <v>1097617</v>
+        <v>919400</v>
       </c>
       <c r="G4">
-        <v>1452097</v>
+        <v>1248416</v>
       </c>
       <c r="H4">
-        <v>3729</v>
+        <v>4164</v>
       </c>
       <c r="I4">
-        <v>574</v>
+        <v>672</v>
       </c>
       <c r="J4">
-        <v>1846</v>
+        <v>2153</v>
       </c>
       <c r="K4">
-        <v>1021</v>
+        <v>1109</v>
       </c>
       <c r="L4">
-        <v>10150</v>
+        <v>9438</v>
       </c>
       <c r="M4">
-        <v>13017</v>
+        <v>12700</v>
       </c>
       <c r="N4">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="O4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="P4">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="Q4">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="R4">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c r="S4">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="T4">
-        <v>850</v>
+        <v>1149</v>
       </c>
       <c r="U4">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="V4">
-        <v>473</v>
+        <v>654</v>
       </c>
       <c r="W4">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="X4">
-        <v>1561</v>
+        <v>1688</v>
       </c>
       <c r="Y4">
-        <v>2152</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2">
-        <v>44650</v>
+        <v>44643</v>
       </c>
       <c r="B5">
-        <v>310234</v>
+        <v>301078</v>
       </c>
       <c r="C5">
-        <v>36199</v>
+        <v>41780</v>
       </c>
       <c r="D5">
-        <v>151285</v>
+        <v>141855</v>
       </c>
       <c r="E5">
-        <v>177731</v>
+        <v>162770</v>
       </c>
       <c r="F5">
-        <v>919400</v>
+        <v>747670</v>
       </c>
       <c r="G5">
-        <v>1248416</v>
+        <v>1052295</v>
       </c>
       <c r="H5">
-        <v>4164</v>
+        <v>5247</v>
       </c>
       <c r="I5">
-        <v>672</v>
+        <v>856</v>
       </c>
       <c r="J5">
-        <v>2153</v>
+        <v>2990</v>
       </c>
       <c r="K5">
-        <v>1109</v>
+        <v>1293</v>
       </c>
       <c r="L5">
-        <v>9438</v>
+        <v>9812</v>
       </c>
       <c r="M5">
-        <v>12700</v>
+        <v>14095</v>
       </c>
       <c r="N5">
-        <v>272</v>
+        <v>381</v>
       </c>
       <c r="O5">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P5">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="Q5">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="R5">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="S5">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="T5">
-        <v>1149</v>
+        <v>1552</v>
       </c>
       <c r="U5">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="V5">
-        <v>654</v>
+        <v>1004</v>
       </c>
       <c r="W5">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="X5">
-        <v>1688</v>
+        <v>2022</v>
       </c>
       <c r="Y5">
-        <v>2489</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2">
-        <v>44643</v>
+        <v>44636</v>
       </c>
       <c r="B6">
-        <v>301078</v>
+        <v>320381</v>
       </c>
       <c r="C6">
-        <v>41780</v>
+        <v>52934</v>
       </c>
       <c r="D6">
-        <v>141855</v>
+        <v>146615</v>
       </c>
       <c r="E6">
-        <v>162770</v>
+        <v>154589</v>
       </c>
       <c r="F6">
-        <v>747670</v>
+        <v>602042</v>
       </c>
       <c r="G6">
-        <v>1052295</v>
+        <v>903246</v>
       </c>
       <c r="H6">
-        <v>5247</v>
+        <v>7093</v>
       </c>
       <c r="I6">
-        <v>856</v>
+        <v>1082</v>
       </c>
       <c r="J6">
-        <v>2990</v>
+        <v>4424</v>
       </c>
       <c r="K6">
-        <v>1293</v>
+        <v>1654</v>
       </c>
       <c r="L6">
-        <v>9812</v>
+        <v>10840</v>
       </c>
       <c r="M6">
-        <v>14095</v>
+        <v>16918</v>
       </c>
       <c r="N6">
-        <v>381</v>
+        <v>549</v>
       </c>
       <c r="O6">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P6">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="Q6">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="R6">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="S6">
-        <v>657</v>
+        <v>808</v>
       </c>
       <c r="T6">
-        <v>1552</v>
+        <v>2117</v>
       </c>
       <c r="U6">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="V6">
-        <v>1004</v>
+        <v>1489</v>
       </c>
       <c r="W6">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="X6">
-        <v>2022</v>
+        <v>2356</v>
       </c>
       <c r="Y6">
-        <v>3228</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2">
-        <v>44636</v>
+        <v>44629</v>
       </c>
       <c r="B7">
-        <v>320381</v>
+        <v>263373</v>
       </c>
       <c r="C7">
-        <v>52934</v>
+        <v>44050</v>
       </c>
       <c r="D7">
-        <v>146615</v>
+        <v>195682</v>
       </c>
       <c r="E7">
-        <v>154589</v>
+        <v>147602</v>
       </c>
       <c r="F7">
-        <v>602042</v>
+        <v>569292</v>
       </c>
       <c r="G7">
-        <v>903246</v>
+        <v>912576</v>
       </c>
       <c r="H7">
-        <v>7093</v>
+        <v>8894</v>
       </c>
       <c r="I7">
-        <v>1082</v>
+        <v>1220</v>
       </c>
       <c r="J7">
-        <v>4424</v>
+        <v>6443</v>
       </c>
       <c r="K7">
-        <v>1654</v>
+        <v>2105</v>
       </c>
       <c r="L7">
-        <v>10840</v>
+        <v>11808</v>
       </c>
       <c r="M7">
-        <v>16918</v>
+        <v>20356</v>
       </c>
       <c r="N7">
-        <v>549</v>
+        <v>720</v>
       </c>
       <c r="O7">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P7">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="Q7">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="R7">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="S7">
-        <v>808</v>
+        <v>950</v>
       </c>
       <c r="T7">
-        <v>2117</v>
+        <v>2655</v>
       </c>
       <c r="U7">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="V7">
-        <v>1489</v>
+        <v>2075</v>
       </c>
       <c r="W7">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="X7">
-        <v>2356</v>
+        <v>2613</v>
       </c>
       <c r="Y7">
-        <v>4109</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2">
-        <v>44629</v>
+        <v>44622</v>
       </c>
       <c r="B8">
-        <v>263373</v>
+        <v>362240</v>
       </c>
       <c r="C8">
-        <v>44050</v>
+        <v>61074</v>
       </c>
       <c r="D8">
-        <v>195682</v>
+        <v>316885</v>
       </c>
       <c r="E8">
-        <v>147602</v>
+        <v>210897</v>
       </c>
       <c r="F8">
-        <v>569292</v>
+        <v>617287</v>
       </c>
       <c r="G8">
-        <v>912576</v>
+        <v>1145069</v>
       </c>
       <c r="H8">
-        <v>8894</v>
+        <v>11144</v>
       </c>
       <c r="I8">
-        <v>1220</v>
+        <v>1422</v>
       </c>
       <c r="J8">
-        <v>6443</v>
+        <v>9008</v>
       </c>
       <c r="K8">
-        <v>2105</v>
+        <v>2676</v>
       </c>
       <c r="L8">
-        <v>11808</v>
+        <v>12272</v>
       </c>
       <c r="M8">
-        <v>20356</v>
+        <v>23956</v>
       </c>
       <c r="N8">
-        <v>720</v>
+        <v>941</v>
       </c>
       <c r="O8">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P8">
-        <v>319</v>
+        <v>470</v>
       </c>
       <c r="Q8">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="R8">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="S8">
-        <v>950</v>
+        <v>1134</v>
       </c>
       <c r="T8">
-        <v>2655</v>
+        <v>3198</v>
       </c>
       <c r="U8">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="V8">
-        <v>2075</v>
+        <v>2507</v>
       </c>
       <c r="W8">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="X8">
-        <v>2613</v>
+        <v>2677</v>
       </c>
       <c r="Y8">
-        <v>4991</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2">
-        <v>44622</v>
+        <v>44615</v>
       </c>
       <c r="B9">
-        <v>362240</v>
+        <v>503511</v>
       </c>
       <c r="C9">
-        <v>61074</v>
+        <v>81921</v>
       </c>
       <c r="D9">
-        <v>316885</v>
+        <v>543352</v>
       </c>
       <c r="E9">
-        <v>210897</v>
+        <v>313619</v>
       </c>
       <c r="F9">
-        <v>617287</v>
+        <v>682585</v>
       </c>
       <c r="G9">
-        <v>1145069</v>
+        <v>1539556</v>
       </c>
       <c r="H9">
-        <v>11144</v>
+        <v>13534</v>
       </c>
       <c r="I9">
-        <v>1422</v>
+        <v>1516</v>
       </c>
       <c r="J9">
-        <v>9008</v>
+        <v>11607</v>
       </c>
       <c r="K9">
-        <v>2676</v>
+        <v>3210</v>
       </c>
       <c r="L9">
-        <v>12272</v>
+        <v>12271</v>
       </c>
       <c r="M9">
-        <v>23956</v>
+        <v>27088</v>
       </c>
       <c r="N9">
-        <v>941</v>
+        <v>1261</v>
       </c>
       <c r="O9">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P9">
-        <v>470</v>
+        <v>617</v>
       </c>
       <c r="Q9">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="R9">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="S9">
-        <v>1134</v>
+        <v>1304</v>
       </c>
       <c r="T9">
-        <v>3198</v>
+        <v>3470</v>
       </c>
       <c r="U9">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="V9">
-        <v>2507</v>
+        <v>2795</v>
       </c>
       <c r="W9">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="X9">
-        <v>2677</v>
+        <v>2403</v>
       </c>
       <c r="Y9">
-        <v>5521</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="B10">
-        <v>503511</v>
+        <v>642419</v>
       </c>
       <c r="C10">
-        <v>81921</v>
+        <v>102315</v>
       </c>
       <c r="D10">
-        <v>543352</v>
+        <v>848833</v>
       </c>
       <c r="E10">
-        <v>313619</v>
+        <v>439413</v>
       </c>
       <c r="F10">
-        <v>682585</v>
+        <v>717143</v>
       </c>
       <c r="G10">
-        <v>1539556</v>
+        <v>2005389</v>
       </c>
       <c r="H10">
-        <v>13534</v>
+        <v>15012</v>
       </c>
       <c r="I10">
-        <v>1516</v>
+        <v>1532</v>
       </c>
       <c r="J10">
-        <v>11607</v>
+        <v>13660</v>
       </c>
       <c r="K10">
-        <v>3210</v>
+        <v>3480</v>
       </c>
       <c r="L10">
-        <v>12271</v>
+        <v>11075</v>
       </c>
       <c r="M10">
-        <v>27088</v>
+        <v>28215</v>
       </c>
       <c r="N10">
-        <v>1261</v>
+        <v>1524</v>
       </c>
       <c r="O10">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P10">
-        <v>617</v>
+        <v>736</v>
       </c>
       <c r="Q10">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R10">
-        <v>540</v>
+        <v>474</v>
       </c>
       <c r="S10">
-        <v>1304</v>
+        <v>1350</v>
       </c>
       <c r="T10">
-        <v>3470</v>
+        <v>3357</v>
       </c>
       <c r="U10">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="V10">
-        <v>2795</v>
+        <v>2757</v>
       </c>
       <c r="W10">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="X10">
-        <v>2403</v>
+        <v>1918</v>
       </c>
       <c r="Y10">
-        <v>5527</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2">
-        <v>44608</v>
+        <v>44601</v>
       </c>
       <c r="B11">
-        <v>642419</v>
+        <v>777547</v>
       </c>
       <c r="C11">
-        <v>102315</v>
+        <v>127486</v>
       </c>
       <c r="D11">
-        <v>848833</v>
+        <v>1249396</v>
       </c>
       <c r="E11">
-        <v>439413</v>
+        <v>597335</v>
       </c>
       <c r="F11">
-        <v>717143</v>
+        <v>738378</v>
       </c>
       <c r="G11">
-        <v>2005389</v>
+        <v>2585109</v>
       </c>
       <c r="H11">
-        <v>15012</v>
+        <v>15695</v>
       </c>
       <c r="I11">
-        <v>1532</v>
+        <v>1437</v>
       </c>
       <c r="J11">
-        <v>13660</v>
+        <v>14598</v>
       </c>
       <c r="K11">
-        <v>3480</v>
+        <v>3426</v>
       </c>
       <c r="L11">
-        <v>11075</v>
+        <v>9017</v>
       </c>
       <c r="M11">
-        <v>28215</v>
+        <v>27041</v>
       </c>
       <c r="N11">
-        <v>1524</v>
+        <v>1716</v>
       </c>
       <c r="O11">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11">
-        <v>736</v>
+        <v>803</v>
       </c>
       <c r="Q11">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="R11">
-        <v>474</v>
+        <v>378</v>
       </c>
       <c r="S11">
-        <v>1350</v>
+        <v>1306</v>
       </c>
       <c r="T11">
-        <v>3357</v>
+        <v>3144</v>
       </c>
       <c r="U11">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="V11">
-        <v>2757</v>
+        <v>2508</v>
       </c>
       <c r="W11">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="X11">
-        <v>1918</v>
+        <v>1331</v>
       </c>
       <c r="Y11">
-        <v>4952</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2">
-        <v>44601</v>
+        <v>44594</v>
       </c>
       <c r="B12">
-        <v>777547</v>
+        <v>809625</v>
       </c>
       <c r="C12">
-        <v>127486</v>
+        <v>137850</v>
       </c>
       <c r="D12">
-        <v>1249396</v>
+        <v>1532777</v>
       </c>
       <c r="E12">
-        <v>597335</v>
+        <v>687597</v>
       </c>
       <c r="F12">
-        <v>738378</v>
+        <v>672910</v>
       </c>
       <c r="G12">
-        <v>2585109</v>
+        <v>2893284</v>
       </c>
       <c r="H12">
-        <v>15695</v>
+        <v>15049</v>
       </c>
       <c r="I12">
-        <v>1437</v>
+        <v>1240</v>
       </c>
       <c r="J12">
-        <v>14598</v>
+        <v>13663</v>
       </c>
       <c r="K12">
-        <v>3426</v>
+        <v>2915</v>
       </c>
       <c r="L12">
-        <v>9017</v>
+        <v>6606</v>
       </c>
       <c r="M12">
-        <v>27041</v>
+        <v>23184</v>
       </c>
       <c r="N12">
-        <v>1716</v>
+        <v>1792</v>
       </c>
       <c r="O12">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P12">
-        <v>803</v>
+        <v>775</v>
       </c>
       <c r="Q12">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="R12">
-        <v>378</v>
+        <v>280</v>
       </c>
       <c r="S12">
-        <v>1306</v>
+        <v>1166</v>
       </c>
       <c r="T12">
-        <v>3144</v>
+        <v>2632</v>
       </c>
       <c r="U12">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="V12">
-        <v>2508</v>
+        <v>2172</v>
       </c>
       <c r="W12">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="X12">
-        <v>1331</v>
+        <v>814</v>
       </c>
       <c r="Y12">
-        <v>4071</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2">
-        <v>44594</v>
+        <v>44587</v>
       </c>
       <c r="B13">
-        <v>809625</v>
+        <v>703732</v>
       </c>
       <c r="C13">
-        <v>137850</v>
+        <v>127478</v>
       </c>
       <c r="D13">
-        <v>1532777</v>
+        <v>1544092</v>
       </c>
       <c r="E13">
-        <v>687597</v>
+        <v>640805</v>
       </c>
       <c r="F13">
-        <v>672910</v>
+        <v>521657</v>
       </c>
       <c r="G13">
-        <v>2893284</v>
+        <v>2706554</v>
       </c>
       <c r="H13">
-        <v>15049</v>
+        <v>13946</v>
       </c>
       <c r="I13">
-        <v>1240</v>
+        <v>989</v>
       </c>
       <c r="J13">
-        <v>13663</v>
+        <v>11934</v>
       </c>
       <c r="K13">
-        <v>2915</v>
+        <v>2225</v>
       </c>
       <c r="L13">
-        <v>6606</v>
+        <v>4177</v>
       </c>
       <c r="M13">
-        <v>23184</v>
+        <v>18336</v>
       </c>
       <c r="N13">
-        <v>1792</v>
+        <v>1753</v>
       </c>
       <c r="O13">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P13">
-        <v>775</v>
+        <v>736</v>
       </c>
       <c r="Q13">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="R13">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="S13">
-        <v>1166</v>
+        <v>1014</v>
       </c>
       <c r="T13">
-        <v>2632</v>
+        <v>2120</v>
       </c>
       <c r="U13">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="V13">
-        <v>2172</v>
+        <v>1805</v>
       </c>
       <c r="W13">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="X13">
-        <v>814</v>
+        <v>432</v>
       </c>
       <c r="Y13">
-        <v>3168</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2">
-        <v>44587</v>
+        <v>44580</v>
       </c>
       <c r="B14">
-        <v>703732</v>
+        <v>555697</v>
       </c>
       <c r="C14">
-        <v>127478</v>
+        <v>102729</v>
       </c>
       <c r="D14">
-        <v>1544092</v>
+        <v>1320086</v>
       </c>
       <c r="E14">
-        <v>640805</v>
+        <v>527687</v>
       </c>
       <c r="F14">
-        <v>521657</v>
+        <v>358530</v>
       </c>
       <c r="G14">
-        <v>2706554</v>
+        <v>2206303</v>
       </c>
       <c r="H14">
-        <v>13946</v>
+        <v>11487</v>
       </c>
       <c r="I14">
-        <v>989</v>
+        <v>681</v>
       </c>
       <c r="J14">
-        <v>11934</v>
+        <v>9435</v>
       </c>
       <c r="K14">
-        <v>2225</v>
+        <v>1499</v>
       </c>
       <c r="L14">
-        <v>4177</v>
+        <v>2066</v>
       </c>
       <c r="M14">
-        <v>18336</v>
+        <v>13000</v>
       </c>
       <c r="N14">
-        <v>1753</v>
+        <v>1557</v>
       </c>
       <c r="O14">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P14">
-        <v>736</v>
+        <v>634</v>
       </c>
       <c r="Q14">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="R14">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="S14">
-        <v>1014</v>
+        <v>809</v>
       </c>
       <c r="T14">
-        <v>2120</v>
+        <v>1774</v>
       </c>
       <c r="U14">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="V14">
-        <v>1805</v>
+        <v>1541</v>
       </c>
       <c r="W14">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="X14">
-        <v>432</v>
+        <v>215</v>
       </c>
       <c r="Y14">
-        <v>2375</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2">
-        <v>44580</v>
+        <v>44573</v>
       </c>
       <c r="B15">
-        <v>555697</v>
+        <v>395424</v>
       </c>
       <c r="C15">
-        <v>102729</v>
+        <v>68050</v>
       </c>
       <c r="D15">
-        <v>1320086</v>
+        <v>955924</v>
       </c>
       <c r="E15">
-        <v>527687</v>
+        <v>364078</v>
       </c>
       <c r="F15">
-        <v>358530</v>
+        <v>200146</v>
       </c>
       <c r="G15">
-        <v>2206303</v>
+        <v>1520148</v>
       </c>
       <c r="H15">
-        <v>11487</v>
+        <v>9564</v>
       </c>
       <c r="I15">
-        <v>681</v>
+        <v>479</v>
       </c>
       <c r="J15">
-        <v>9435</v>
+        <v>7594</v>
       </c>
       <c r="K15">
-        <v>1499</v>
+        <v>1055</v>
       </c>
       <c r="L15">
-        <v>2066</v>
+        <v>955</v>
       </c>
       <c r="M15">
-        <v>13000</v>
+        <v>9604</v>
       </c>
       <c r="N15">
-        <v>1557</v>
+        <v>1368</v>
       </c>
       <c r="O15">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="P15">
-        <v>634</v>
+        <v>534</v>
       </c>
       <c r="Q15">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="R15">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="S15">
-        <v>809</v>
+        <v>663</v>
       </c>
       <c r="T15">
-        <v>1774</v>
+        <v>1443</v>
       </c>
       <c r="U15">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="V15">
-        <v>1541</v>
+        <v>1370</v>
       </c>
       <c r="W15">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X15">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="Y15">
-        <v>1863</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2">
-        <v>44573</v>
+        <v>44566</v>
       </c>
       <c r="B16">
-        <v>395424</v>
+        <v>251412</v>
       </c>
       <c r="C16">
-        <v>68050</v>
+        <v>34617</v>
       </c>
       <c r="D16">
-        <v>955924</v>
+        <v>547518</v>
       </c>
       <c r="E16">
-        <v>364078</v>
+        <v>195560</v>
       </c>
       <c r="F16">
-        <v>200146</v>
+        <v>79260</v>
       </c>
       <c r="G16">
-        <v>1520148</v>
+        <v>822338</v>
       </c>
       <c r="H16">
-        <v>9564</v>
+        <v>8278</v>
       </c>
       <c r="I16">
-        <v>479</v>
+        <v>410</v>
       </c>
       <c r="J16">
-        <v>7594</v>
+        <v>6612</v>
       </c>
       <c r="K16">
-        <v>1055</v>
+        <v>905</v>
       </c>
       <c r="L16">
-        <v>955</v>
+        <v>546</v>
       </c>
       <c r="M16">
-        <v>9604</v>
+        <v>8063</v>
       </c>
       <c r="N16">
-        <v>1368</v>
+        <v>1202</v>
       </c>
       <c r="O16">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P16">
-        <v>534</v>
+        <v>496</v>
       </c>
       <c r="Q16">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R16">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="S16">
-        <v>663</v>
+        <v>614</v>
       </c>
       <c r="T16">
-        <v>1443</v>
+        <v>1170</v>
       </c>
       <c r="U16">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V16">
-        <v>1370</v>
+        <v>1298</v>
       </c>
       <c r="W16">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X16">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="Y16">
-        <v>1606</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2">
-        <v>44566</v>
+        <v>44558</v>
       </c>
       <c r="B17">
-        <v>251412</v>
+        <v>170551</v>
       </c>
       <c r="C17">
-        <v>34617</v>
+        <v>14491</v>
       </c>
       <c r="D17">
-        <v>547518</v>
+        <v>265724</v>
       </c>
       <c r="E17">
-        <v>195560</v>
+        <v>99757</v>
       </c>
       <c r="F17">
-        <v>79260</v>
+        <v>20375</v>
       </c>
       <c r="G17">
-        <v>822338</v>
+        <v>385856</v>
       </c>
       <c r="H17">
-        <v>8278</v>
+        <v>7059</v>
       </c>
       <c r="I17">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="J17">
-        <v>6612</v>
+        <v>5927</v>
       </c>
       <c r="K17">
-        <v>905</v>
+        <v>934</v>
       </c>
       <c r="L17">
-        <v>546</v>
+        <v>368</v>
       </c>
       <c r="M17">
-        <v>8063</v>
+        <v>7229</v>
       </c>
       <c r="N17">
-        <v>1202</v>
+        <v>1036</v>
       </c>
       <c r="O17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P17">
-        <v>496</v>
+        <v>433</v>
       </c>
       <c r="Q17">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="R17">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="S17">
-        <v>614</v>
+        <v>555</v>
       </c>
       <c r="T17">
-        <v>1170</v>
+        <v>994</v>
       </c>
       <c r="U17">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="V17">
-        <v>1298</v>
+        <v>1108</v>
       </c>
       <c r="W17">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="X17">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="Y17">
-        <v>1489</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2">
-        <v>44558</v>
+        <v>44551</v>
       </c>
       <c r="B18">
-        <v>170551</v>
+        <v>140677</v>
       </c>
       <c r="C18">
-        <v>14491</v>
+        <v>9069</v>
       </c>
       <c r="D18">
-        <v>265724</v>
+        <v>91366</v>
       </c>
       <c r="E18">
-        <v>99757</v>
+        <v>155978</v>
       </c>
       <c r="F18">
-        <v>20375</v>
+        <v>7655</v>
       </c>
       <c r="G18">
-        <v>385856</v>
+        <v>254999</v>
       </c>
       <c r="H18">
-        <v>7059</v>
+        <v>5944</v>
       </c>
       <c r="I18">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="J18">
-        <v>5927</v>
+        <v>4047</v>
       </c>
       <c r="K18">
-        <v>934</v>
+        <v>2065</v>
       </c>
       <c r="L18">
-        <v>368</v>
+        <v>272</v>
       </c>
       <c r="M18">
-        <v>7229</v>
+        <v>6384</v>
       </c>
       <c r="N18">
-        <v>1036</v>
+        <v>887</v>
       </c>
       <c r="O18">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="P18">
-        <v>433</v>
+        <v>254</v>
       </c>
       <c r="Q18">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="R18">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S18">
-        <v>555</v>
+        <v>466</v>
       </c>
       <c r="T18">
-        <v>994</v>
+        <v>839</v>
       </c>
       <c r="U18">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="V18">
-        <v>1108</v>
+        <v>838</v>
       </c>
       <c r="W18">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="X18">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="Y18">
-        <v>1262</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2">
-        <v>44551</v>
+        <v>44545</v>
       </c>
       <c r="B19">
-        <v>140677</v>
+        <v>114674</v>
       </c>
       <c r="C19">
-        <v>9069</v>
+        <v>7107</v>
       </c>
       <c r="D19">
-        <v>91366</v>
+        <v>71563</v>
       </c>
       <c r="E19">
-        <v>155978</v>
+        <v>122505</v>
       </c>
       <c r="F19">
-        <v>7655</v>
+        <v>4219</v>
       </c>
       <c r="G19">
-        <v>254999</v>
+        <v>198287</v>
       </c>
       <c r="H19">
-        <v>5944</v>
+        <v>5081</v>
       </c>
       <c r="I19">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="J19">
-        <v>4047</v>
+        <v>3432</v>
       </c>
       <c r="K19">
-        <v>2065</v>
+        <v>1843</v>
       </c>
       <c r="L19">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="M19">
-        <v>6384</v>
+        <v>5451</v>
       </c>
       <c r="N19">
-        <v>887</v>
+        <v>747</v>
       </c>
       <c r="O19">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P19">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="Q19">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="R19">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="S19">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="T19">
-        <v>839</v>
+        <v>722</v>
       </c>
       <c r="U19">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="V19">
-        <v>838</v>
+        <v>745</v>
       </c>
       <c r="W19">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="X19">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="Y19">
-        <v>1105</v>
+        <v>991</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2">
-        <v>44545</v>
+        <v>44537</v>
       </c>
       <c r="B20">
-        <v>114674</v>
+        <v>93220</v>
       </c>
       <c r="C20">
-        <v>7107</v>
+        <v>6181</v>
       </c>
       <c r="D20">
-        <v>71563</v>
+        <v>57054</v>
       </c>
       <c r="E20">
-        <v>122505</v>
+        <v>102245</v>
       </c>
       <c r="F20">
-        <v>4219</v>
+        <v>2652</v>
       </c>
       <c r="G20">
-        <v>198287</v>
+        <v>161951</v>
       </c>
       <c r="H20">
-        <v>5081</v>
+        <v>4402</v>
       </c>
       <c r="I20">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="J20">
-        <v>3432</v>
+        <v>2916</v>
       </c>
       <c r="K20">
-        <v>1843</v>
+        <v>1616</v>
       </c>
       <c r="L20">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="M20">
-        <v>5451</v>
+        <v>4653</v>
       </c>
       <c r="N20">
-        <v>747</v>
+        <v>618</v>
       </c>
       <c r="O20">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P20">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="Q20">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="R20">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S20">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="T20">
-        <v>722</v>
+        <v>620</v>
       </c>
       <c r="U20">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="V20">
-        <v>745</v>
+        <v>604</v>
       </c>
       <c r="W20">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="X20">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="Y20">
-        <v>991</v>
+        <v>807</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>44537</v>
+        <v>44531</v>
       </c>
       <c r="B21">
-        <v>93220</v>
+        <v>75512</v>
       </c>
       <c r="C21">
-        <v>6181</v>
+        <v>5587</v>
       </c>
       <c r="D21">
-        <v>57054</v>
+        <v>44023</v>
       </c>
       <c r="E21">
-        <v>102245</v>
+        <v>82755</v>
       </c>
       <c r="F21">
-        <v>2652</v>
+        <v>1710</v>
       </c>
       <c r="G21">
-        <v>161951</v>
+        <v>128488</v>
       </c>
       <c r="H21">
-        <v>4402</v>
+        <v>3733</v>
       </c>
       <c r="I21">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="J21">
-        <v>2916</v>
+        <v>2336</v>
       </c>
       <c r="K21">
-        <v>1616</v>
+        <v>1435</v>
       </c>
       <c r="L21">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="M21">
-        <v>4653</v>
+        <v>3845</v>
       </c>
       <c r="N21">
-        <v>618</v>
+        <v>546</v>
       </c>
       <c r="O21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="Q21">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="R21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="T21">
-        <v>620</v>
+        <v>515</v>
       </c>
       <c r="U21">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="V21">
-        <v>604</v>
+        <v>482</v>
       </c>
       <c r="W21">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="X21">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y21">
-        <v>807</v>
+        <v>690</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2">
-        <v>44531</v>
+        <v>44524</v>
       </c>
       <c r="B22">
-        <v>75512</v>
+        <v>61908</v>
       </c>
       <c r="C22">
-        <v>5587</v>
+        <v>4260</v>
       </c>
       <c r="D22">
-        <v>44023</v>
+        <v>15519</v>
       </c>
       <c r="E22">
-        <v>82755</v>
+        <v>81740</v>
       </c>
       <c r="F22">
-        <v>1710</v>
+        <v>969</v>
       </c>
       <c r="G22">
-        <v>128488</v>
+        <v>98228</v>
       </c>
       <c r="H22">
-        <v>3733</v>
+        <v>3737</v>
       </c>
       <c r="I22">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="J22">
-        <v>2336</v>
+        <v>1187</v>
       </c>
       <c r="K22">
-        <v>1435</v>
+        <v>2437</v>
       </c>
       <c r="L22">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M22">
-        <v>3845</v>
+        <v>3693</v>
       </c>
       <c r="N22">
-        <v>546</v>
+        <v>509</v>
       </c>
       <c r="O22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P22">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="Q22">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="R22">
         <v>3</v>
       </c>
       <c r="S22">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T22">
-        <v>515</v>
+        <v>449</v>
       </c>
       <c r="U22">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="V22">
-        <v>482</v>
+        <v>191</v>
       </c>
       <c r="W22">
-        <v>197</v>
+        <v>359</v>
       </c>
       <c r="X22">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Y22">
-        <v>690</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2">
-        <v>44524</v>
+        <v>44517</v>
       </c>
       <c r="B23">
-        <v>61908</v>
+        <v>50564</v>
       </c>
       <c r="C23">
-        <v>4260</v>
+        <v>3980</v>
       </c>
       <c r="D23">
-        <v>15519</v>
+        <v>11215</v>
       </c>
       <c r="E23">
-        <v>81740</v>
+        <v>60407</v>
       </c>
       <c r="F23">
-        <v>969</v>
+        <v>537</v>
       </c>
       <c r="G23">
-        <v>98228</v>
+        <v>72159</v>
       </c>
       <c r="H23">
-        <v>3737</v>
+        <v>3220</v>
       </c>
       <c r="I23">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="J23">
-        <v>1187</v>
+        <v>826</v>
       </c>
       <c r="K23">
-        <v>2437</v>
+        <v>2075</v>
       </c>
       <c r="L23">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>3693</v>
+        <v>2936</v>
       </c>
       <c r="N23">
-        <v>509</v>
+        <v>424</v>
       </c>
       <c r="O23">
         <v>14</v>
       </c>
       <c r="P23">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="Q23">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="R23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="T23">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="U23">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="V23">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="W23">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="X23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>555</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2">
-        <v>44517</v>
+        <v>44510</v>
       </c>
       <c r="B24">
-        <v>50564</v>
+        <v>40182</v>
       </c>
       <c r="C24">
-        <v>3980</v>
+        <v>3466</v>
       </c>
       <c r="D24">
-        <v>11215</v>
+        <v>8088</v>
       </c>
       <c r="E24">
-        <v>60407</v>
+        <v>43928</v>
       </c>
       <c r="F24">
-        <v>537</v>
+        <v>286</v>
       </c>
       <c r="G24">
-        <v>72159</v>
+        <v>52302</v>
       </c>
       <c r="H24">
-        <v>3220</v>
+        <v>2890</v>
       </c>
       <c r="I24">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="J24">
-        <v>826</v>
+        <v>618</v>
       </c>
       <c r="K24">
-        <v>2075</v>
+        <v>1774</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>2936</v>
+        <v>2409</v>
       </c>
       <c r="N24">
-        <v>424</v>
+        <v>370</v>
       </c>
       <c r="O24">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P24">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="Q24">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="T24">
+        <v>361</v>
+      </c>
+      <c r="U24">
+        <v>27</v>
+      </c>
+      <c r="V24">
+        <v>85</v>
+      </c>
+      <c r="W24">
+        <v>299</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>384</v>
-      </c>
-      <c r="U24">
-        <v>19</v>
-      </c>
-      <c r="V24">
-        <v>135</v>
-      </c>
-      <c r="W24">
-        <v>309</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2">
-        <v>44510</v>
+        <v>44503</v>
       </c>
       <c r="B25">
-        <v>40182</v>
+        <v>35398</v>
       </c>
       <c r="C25">
-        <v>3466</v>
+        <v>3207</v>
       </c>
       <c r="D25">
-        <v>8088</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>43928</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>52302</v>
+        <v>40991</v>
       </c>
       <c r="H25">
-        <v>2890</v>
+        <v>2696</v>
       </c>
       <c r="I25">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J25">
-        <v>618</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1774</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>2409</v>
+        <v>2037</v>
       </c>
       <c r="N25">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="O25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P25">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="T25">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="U25">
         <v>27</v>
       </c>
       <c r="V25">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>384</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2">
-        <v>44503</v>
+        <v>44496</v>
       </c>
       <c r="B26">
-        <v>35398</v>
+        <v>34128</v>
       </c>
       <c r="C26">
-        <v>3207</v>
+        <v>3421</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>40991</v>
+        <v>34131</v>
       </c>
       <c r="H26">
-        <v>2696</v>
+        <v>2845</v>
       </c>
       <c r="I26">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>2037</v>
+        <v>1815</v>
       </c>
       <c r="N26">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="O26">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="T26">
-        <v>416</v>
+        <v>511</v>
       </c>
       <c r="U26">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2476,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>423</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2">
-        <v>44496</v>
+        <v>44489</v>
       </c>
       <c r="B27">
-        <v>34128</v>
+        <v>36194</v>
       </c>
       <c r="C27">
-        <v>3421</v>
+        <v>4127</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>34131</v>
+        <v>31514</v>
       </c>
       <c r="H27">
-        <v>2845</v>
+        <v>3396</v>
       </c>
       <c r="I27">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1815</v>
+        <v>1954</v>
       </c>
       <c r="N27">
-        <v>332</v>
+        <v>414</v>
       </c>
       <c r="O27">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2535,36 +2535,36 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="T27">
+        <v>636</v>
+      </c>
+      <c r="U27">
+        <v>42</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
         <v>511</v>
-      </c>
-      <c r="U27">
-        <v>40</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2">
-        <v>44489</v>
+        <v>44482</v>
       </c>
       <c r="B28">
-        <v>36194</v>
+        <v>45790</v>
       </c>
       <c r="C28">
-        <v>4127</v>
+        <v>5352</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>31514</v>
+        <v>33496</v>
       </c>
       <c r="H28">
-        <v>3396</v>
+        <v>4274</v>
       </c>
       <c r="I28">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>1954</v>
+        <v>2133</v>
       </c>
       <c r="N28">
-        <v>414</v>
+        <v>515</v>
       </c>
       <c r="O28">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="T28">
-        <v>636</v>
+        <v>775</v>
       </c>
       <c r="U28">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2630,18 +2630,18 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>511</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2">
-        <v>44482</v>
+        <v>44475</v>
       </c>
       <c r="B29">
-        <v>45790</v>
+        <v>56808</v>
       </c>
       <c r="C29">
-        <v>5352</v>
+        <v>6952</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>33496</v>
+        <v>36529</v>
       </c>
       <c r="H29">
-        <v>4274</v>
+        <v>5224</v>
       </c>
       <c r="I29">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>2133</v>
+        <v>2268</v>
       </c>
       <c r="N29">
-        <v>515</v>
+        <v>604</v>
       </c>
       <c r="O29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="T29">
-        <v>775</v>
+        <v>888</v>
       </c>
       <c r="U29">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2707,18 +2707,18 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2">
-        <v>44475</v>
+        <v>44468</v>
       </c>
       <c r="B30">
-        <v>56808</v>
+        <v>70900</v>
       </c>
       <c r="C30">
-        <v>6952</v>
+        <v>9284</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>36529</v>
+        <v>40060</v>
       </c>
       <c r="H30">
-        <v>5224</v>
+        <v>6160</v>
       </c>
       <c r="I30">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>2268</v>
+        <v>2418</v>
       </c>
       <c r="N30">
-        <v>604</v>
+        <v>717</v>
       </c>
       <c r="O30">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T30">
-        <v>888</v>
+        <v>927</v>
       </c>
       <c r="U30">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2784,18 +2784,18 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>580</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2">
-        <v>44468</v>
+        <v>44461</v>
       </c>
       <c r="B31">
-        <v>70900</v>
+        <v>86133</v>
       </c>
       <c r="C31">
-        <v>9284</v>
+        <v>11735</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>40060</v>
+        <v>44050</v>
       </c>
       <c r="H31">
-        <v>6160</v>
+        <v>6782</v>
       </c>
       <c r="I31">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>2418</v>
+        <v>2456</v>
       </c>
       <c r="N31">
-        <v>717</v>
+        <v>775</v>
       </c>
       <c r="O31">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T31">
-        <v>927</v>
+        <v>877</v>
       </c>
       <c r="U31">
         <v>57</v>
@@ -2861,18 +2861,18 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>565</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2">
-        <v>44461</v>
+        <v>44454</v>
       </c>
       <c r="B32">
-        <v>86133</v>
+        <v>96900</v>
       </c>
       <c r="C32">
-        <v>11735</v>
+        <v>13728</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2884,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>44050</v>
+        <v>44990</v>
       </c>
       <c r="H32">
-        <v>6782</v>
+        <v>6841</v>
       </c>
       <c r="I32">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>2456</v>
+        <v>2331</v>
       </c>
       <c r="N32">
-        <v>775</v>
+        <v>786</v>
       </c>
       <c r="O32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T32">
-        <v>877</v>
+        <v>770</v>
       </c>
       <c r="U32">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2938,18 +2938,18 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>509</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2">
-        <v>44454</v>
+        <v>44447</v>
       </c>
       <c r="B33">
-        <v>96900</v>
+        <v>104890</v>
       </c>
       <c r="C33">
-        <v>13728</v>
+        <v>16129</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>44990</v>
+        <v>43775</v>
       </c>
       <c r="H33">
-        <v>6841</v>
+        <v>6579</v>
       </c>
       <c r="I33">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2979,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>2331</v>
+        <v>2118</v>
       </c>
       <c r="N33">
-        <v>786</v>
+        <v>712</v>
       </c>
       <c r="O33">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="T33">
-        <v>770</v>
+        <v>571</v>
       </c>
       <c r="U33">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3015,18 +3015,18 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>405</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2">
-        <v>44447</v>
+        <v>44440</v>
       </c>
       <c r="B34">
-        <v>104890</v>
+        <v>107937</v>
       </c>
       <c r="C34">
-        <v>16129</v>
+        <v>18925</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>43775</v>
+        <v>40380</v>
       </c>
       <c r="H34">
-        <v>6579</v>
+        <v>5988</v>
       </c>
       <c r="I34">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3056,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>2118</v>
+        <v>1788</v>
       </c>
       <c r="N34">
-        <v>712</v>
+        <v>641</v>
       </c>
       <c r="O34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="T34">
-        <v>571</v>
+        <v>383</v>
       </c>
       <c r="U34">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3092,18 +3092,18 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>280</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="2">
-        <v>44440</v>
+        <v>44433</v>
       </c>
       <c r="B35">
-        <v>107937</v>
+        <v>104405</v>
       </c>
       <c r="C35">
-        <v>18925</v>
+        <v>21703</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3115,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>40380</v>
+        <v>33894</v>
       </c>
       <c r="H35">
-        <v>5988</v>
+        <v>5162</v>
       </c>
       <c r="I35">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3133,13 +3133,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>1788</v>
+        <v>1349</v>
       </c>
       <c r="N35">
-        <v>641</v>
+        <v>500</v>
       </c>
       <c r="O35">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3151,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="T35">
-        <v>383</v>
+        <v>246</v>
       </c>
       <c r="U35">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3169,18 +3169,18 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>187</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="2">
-        <v>44433</v>
+        <v>44426</v>
       </c>
       <c r="B36">
-        <v>104405</v>
+        <v>95261</v>
       </c>
       <c r="C36">
-        <v>21703</v>
+        <v>22568</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>33894</v>
+        <v>24978</v>
       </c>
       <c r="H36">
-        <v>5162</v>
+        <v>4052</v>
       </c>
       <c r="I36">
-        <v>509</v>
+        <v>444</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3210,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>1349</v>
+        <v>959</v>
       </c>
       <c r="N36">
-        <v>500</v>
+        <v>334</v>
       </c>
       <c r="O36">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="T36">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="U36">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3246,18 +3246,18 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="2">
-        <v>44426</v>
+        <v>44419</v>
       </c>
       <c r="B37">
-        <v>95261</v>
+        <v>80585</v>
       </c>
       <c r="C37">
-        <v>22568</v>
+        <v>21570</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>24978</v>
+        <v>18887</v>
       </c>
       <c r="H37">
-        <v>4052</v>
+        <v>3067</v>
       </c>
       <c r="I37">
-        <v>444</v>
+        <v>380</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3287,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>959</v>
+        <v>627</v>
       </c>
       <c r="N37">
-        <v>334</v>
+        <v>247</v>
       </c>
       <c r="O37">
         <v>22</v>
@@ -3305,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="T37">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="U37">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3323,18 +3323,18 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="2">
-        <v>44419</v>
+        <v>44412</v>
       </c>
       <c r="B38">
-        <v>80585</v>
+        <v>60267</v>
       </c>
       <c r="C38">
-        <v>21570</v>
+        <v>17420</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3346,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>18887</v>
+        <v>12333</v>
       </c>
       <c r="H38">
-        <v>3067</v>
+        <v>2234</v>
       </c>
       <c r="I38">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3364,13 +3364,13 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>627</v>
+        <v>404</v>
       </c>
       <c r="N38">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="O38">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -3382,13 +3382,13 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="T38">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="U38">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -3405,13 +3405,13 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="2">
-        <v>44412</v>
+        <v>44405</v>
       </c>
       <c r="B39">
-        <v>60267</v>
+        <v>40729</v>
       </c>
       <c r="C39">
-        <v>17420</v>
+        <v>12032</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>12333</v>
+        <v>7277</v>
       </c>
       <c r="H39">
-        <v>2234</v>
+        <v>1619</v>
       </c>
       <c r="I39">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>404</v>
+        <v>280</v>
       </c>
       <c r="N39">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="O39">
         <v>11</v>
@@ -3459,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="T39">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="U39">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -3477,18 +3477,18 @@
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="2">
-        <v>44405</v>
+        <v>44398</v>
       </c>
       <c r="B40">
-        <v>40729</v>
+        <v>26284</v>
       </c>
       <c r="C40">
-        <v>12032</v>
+        <v>6813</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>7277</v>
+        <v>3805</v>
       </c>
       <c r="H40">
-        <v>1619</v>
+        <v>1483</v>
       </c>
       <c r="I40">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="N40">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O40">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3536,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="T40">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="U40">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -3554,18 +3554,18 @@
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="2">
-        <v>44398</v>
+        <v>44391</v>
       </c>
       <c r="B41">
-        <v>26284</v>
+        <v>21089</v>
       </c>
       <c r="C41">
-        <v>6813</v>
+        <v>3954</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3577,13 +3577,13 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>3805</v>
+        <v>2310</v>
       </c>
       <c r="H41">
-        <v>1483</v>
+        <v>1880</v>
       </c>
       <c r="I41">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3595,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="N41">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="O41">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -3613,13 +3613,13 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T41">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="U41">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -3631,83 +3631,6 @@
         <v>0</v>
       </c>
       <c r="Y41">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25">
-      <c r="A42" s="2">
-        <v>44391</v>
-      </c>
-      <c r="B42">
-        <v>21089</v>
-      </c>
-      <c r="C42">
-        <v>3954</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>2310</v>
-      </c>
-      <c r="H42">
-        <v>1880</v>
-      </c>
-      <c r="I42">
-        <v>240</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>240</v>
-      </c>
-      <c r="N42">
-        <v>147</v>
-      </c>
-      <c r="O42">
-        <v>20</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>7</v>
-      </c>
-      <c r="T42">
-        <v>357</v>
-      </c>
-      <c r="U42">
-        <v>72</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
         <v>68</v>
       </c>
     </row>
@@ -3718,7 +3641,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3785,1288 +3708,1288 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>44671</v>
+        <v>44664</v>
       </c>
       <c r="B2">
-        <v>6941649</v>
+        <v>6964911</v>
       </c>
       <c r="C2">
-        <v>1015525</v>
+        <v>1066526</v>
       </c>
       <c r="D2">
-        <v>7107432</v>
+        <v>7190108</v>
       </c>
       <c r="E2">
-        <v>4166940</v>
+        <v>4314109</v>
       </c>
       <c r="F2">
-        <v>38411969</v>
+        <v>38107861</v>
       </c>
       <c r="G2">
-        <v>49686341</v>
+        <v>49612078</v>
       </c>
       <c r="H2">
-        <v>6990843</v>
+        <v>7028326</v>
       </c>
       <c r="I2">
-        <v>1145129</v>
+        <v>1290903</v>
       </c>
       <c r="J2">
-        <v>7206378</v>
+        <v>7296048</v>
       </c>
       <c r="K2">
-        <v>4524355</v>
+        <v>4681656</v>
       </c>
       <c r="L2">
-        <v>37776810</v>
+        <v>37346582</v>
       </c>
       <c r="M2">
-        <v>49507543</v>
+        <v>49324286</v>
       </c>
       <c r="N2">
-        <v>7027474</v>
+        <v>7076214</v>
       </c>
       <c r="O2">
-        <v>1288836</v>
+        <v>1502333</v>
       </c>
       <c r="P2">
-        <v>7296672</v>
+        <v>7448135</v>
       </c>
       <c r="Q2">
-        <v>4683263</v>
+        <v>4833172</v>
       </c>
       <c r="R2">
-        <v>37347270</v>
+        <v>36783661</v>
       </c>
       <c r="S2">
-        <v>49327205</v>
+        <v>49064968</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>44664</v>
+        <v>44657</v>
       </c>
       <c r="B3">
-        <v>6964911</v>
+        <v>7013675</v>
       </c>
       <c r="C3">
-        <v>1066526</v>
+        <v>1152276</v>
       </c>
       <c r="D3">
-        <v>7190108</v>
+        <v>7204908</v>
       </c>
       <c r="E3">
-        <v>4314109</v>
+        <v>4519726</v>
       </c>
       <c r="F3">
-        <v>38107861</v>
+        <v>37775399</v>
       </c>
       <c r="G3">
-        <v>49612078</v>
+        <v>49500033</v>
       </c>
       <c r="H3">
-        <v>7028326</v>
+        <v>7098195</v>
       </c>
       <c r="I3">
-        <v>1290903</v>
+        <v>1506872</v>
       </c>
       <c r="J3">
-        <v>7296048</v>
+        <v>7447233</v>
       </c>
       <c r="K3">
-        <v>4681656</v>
+        <v>4830603</v>
       </c>
       <c r="L3">
-        <v>37346582</v>
+        <v>36783081</v>
       </c>
       <c r="M3">
-        <v>49324286</v>
+        <v>49060917</v>
       </c>
       <c r="N3">
-        <v>7076214</v>
+        <v>7183469</v>
       </c>
       <c r="O3">
-        <v>1502333</v>
+        <v>1764309</v>
       </c>
       <c r="P3">
-        <v>7448135</v>
+        <v>7677503</v>
       </c>
       <c r="Q3">
-        <v>4833172</v>
+        <v>5037350</v>
       </c>
       <c r="R3">
-        <v>36783661</v>
+        <v>36003353</v>
       </c>
       <c r="S3">
-        <v>49064968</v>
+        <v>48718206</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>44657</v>
+        <v>44650</v>
       </c>
       <c r="B4">
-        <v>7013675</v>
+        <v>7051466</v>
       </c>
       <c r="C4">
-        <v>1152276</v>
+        <v>1299786</v>
       </c>
       <c r="D4">
-        <v>7204908</v>
+        <v>7294305</v>
       </c>
       <c r="E4">
-        <v>4519726</v>
+        <v>4675369</v>
       </c>
       <c r="F4">
-        <v>37775399</v>
+        <v>37345088</v>
       </c>
       <c r="G4">
-        <v>49500033</v>
+        <v>49314762</v>
       </c>
       <c r="H4">
-        <v>7098195</v>
+        <v>7184617</v>
       </c>
       <c r="I4">
-        <v>1506872</v>
+        <v>1767691</v>
       </c>
       <c r="J4">
-        <v>7447233</v>
+        <v>7676655</v>
       </c>
       <c r="K4">
-        <v>4830603</v>
+        <v>5034482</v>
       </c>
       <c r="L4">
-        <v>36783081</v>
+        <v>36002569</v>
       </c>
       <c r="M4">
-        <v>49060917</v>
+        <v>48713706</v>
       </c>
       <c r="N4">
-        <v>7183469</v>
+        <v>7340265</v>
       </c>
       <c r="O4">
-        <v>1764309</v>
+        <v>2060560</v>
       </c>
       <c r="P4">
-        <v>7677503</v>
+        <v>8369146</v>
       </c>
       <c r="Q4">
-        <v>5037350</v>
+        <v>5139369</v>
       </c>
       <c r="R4">
-        <v>36003353</v>
+        <v>34756674</v>
       </c>
       <c r="S4">
-        <v>48718206</v>
+        <v>48265189</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>44650</v>
+        <v>44643</v>
       </c>
       <c r="B5">
-        <v>7051466</v>
+        <v>7102203</v>
       </c>
       <c r="C5">
-        <v>1299786</v>
+        <v>1513671</v>
       </c>
       <c r="D5">
-        <v>7294305</v>
+        <v>7446133</v>
       </c>
       <c r="E5">
-        <v>4675369</v>
+        <v>4823786</v>
       </c>
       <c r="F5">
-        <v>37345088</v>
+        <v>36780251</v>
       </c>
       <c r="G5">
-        <v>49314762</v>
+        <v>49050170</v>
       </c>
       <c r="H5">
-        <v>7184617</v>
+        <v>7343079</v>
       </c>
       <c r="I5">
-        <v>1767691</v>
+        <v>2062622</v>
       </c>
       <c r="J5">
-        <v>7676655</v>
+        <v>8368761</v>
       </c>
       <c r="K5">
-        <v>5034482</v>
+        <v>5136508</v>
       </c>
       <c r="L5">
-        <v>36002569</v>
+        <v>34755074</v>
       </c>
       <c r="M5">
-        <v>48713706</v>
+        <v>48260343</v>
       </c>
       <c r="N5">
-        <v>7340265</v>
+        <v>7588956</v>
       </c>
       <c r="O5">
-        <v>2060560</v>
+        <v>2253718</v>
       </c>
       <c r="P5">
-        <v>8369146</v>
+        <v>10013108</v>
       </c>
       <c r="Q5">
-        <v>5139369</v>
+        <v>5232435</v>
       </c>
       <c r="R5">
-        <v>34756674</v>
+        <v>32577827</v>
       </c>
       <c r="S5">
-        <v>48265189</v>
+        <v>47823370</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>44643</v>
+        <v>44636</v>
       </c>
       <c r="B6">
-        <v>7102203</v>
+        <v>7188123</v>
       </c>
       <c r="C6">
-        <v>1513671</v>
+        <v>1774721</v>
       </c>
       <c r="D6">
-        <v>7446133</v>
+        <v>7675977</v>
       </c>
       <c r="E6">
-        <v>4823786</v>
+        <v>5027431</v>
       </c>
       <c r="F6">
-        <v>36780251</v>
+        <v>35999762</v>
       </c>
       <c r="G6">
-        <v>49050170</v>
+        <v>48703170</v>
       </c>
       <c r="H6">
-        <v>7343079</v>
+        <v>7589638</v>
       </c>
       <c r="I6">
-        <v>2062622</v>
+        <v>2256742</v>
       </c>
       <c r="J6">
-        <v>8368761</v>
+        <v>10012637</v>
       </c>
       <c r="K6">
-        <v>5136508</v>
+        <v>5229922</v>
       </c>
       <c r="L6">
-        <v>34755074</v>
+        <v>32577075</v>
       </c>
       <c r="M6">
-        <v>48260343</v>
+        <v>47819634</v>
       </c>
       <c r="N6">
-        <v>7588956</v>
+        <v>7902839</v>
       </c>
       <c r="O6">
-        <v>2253718</v>
+        <v>2289689</v>
       </c>
       <c r="P6">
-        <v>10013108</v>
+        <v>12148491</v>
       </c>
       <c r="Q6">
-        <v>5232435</v>
+        <v>5690505</v>
       </c>
       <c r="R6">
-        <v>32577827</v>
+        <v>29634490</v>
       </c>
       <c r="S6">
-        <v>47823370</v>
+        <v>47473486</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>44636</v>
+        <v>44629</v>
       </c>
       <c r="B7">
-        <v>7188123</v>
+        <v>4922246</v>
       </c>
       <c r="C7">
-        <v>1774721</v>
+        <v>1504174</v>
       </c>
       <c r="D7">
-        <v>7675977</v>
+        <v>8369206</v>
       </c>
       <c r="E7">
-        <v>5027431</v>
+        <v>4462914</v>
       </c>
       <c r="F7">
-        <v>35999762</v>
+        <v>34751405</v>
       </c>
       <c r="G7">
-        <v>48703170</v>
+        <v>47583525</v>
       </c>
       <c r="H7">
-        <v>7589638</v>
+        <v>5237693</v>
       </c>
       <c r="I7">
-        <v>2256742</v>
+        <v>1603693</v>
       </c>
       <c r="J7">
-        <v>10012637</v>
+        <v>12148624</v>
       </c>
       <c r="K7">
-        <v>5229922</v>
+        <v>5387344</v>
       </c>
       <c r="L7">
-        <v>32577075</v>
+        <v>29632591</v>
       </c>
       <c r="M7">
-        <v>47819634</v>
+        <v>47168559</v>
       </c>
       <c r="N7">
-        <v>7902839</v>
+        <v>5475882</v>
       </c>
       <c r="O7">
-        <v>2289689</v>
+        <v>1574138</v>
       </c>
       <c r="P7">
-        <v>12148491</v>
+        <v>14562981</v>
       </c>
       <c r="Q7">
-        <v>5690505</v>
+        <v>6180953</v>
       </c>
       <c r="R7">
-        <v>29634490</v>
+        <v>26215991</v>
       </c>
       <c r="S7">
-        <v>47473486</v>
+        <v>46959925</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>44629</v>
+        <v>44622</v>
       </c>
       <c r="B8">
-        <v>4922246</v>
+        <v>5053954</v>
       </c>
       <c r="C8">
-        <v>1504174</v>
+        <v>1597892</v>
       </c>
       <c r="D8">
-        <v>8369206</v>
+        <v>10021741</v>
       </c>
       <c r="E8">
-        <v>4462914</v>
+        <v>4762640</v>
       </c>
       <c r="F8">
-        <v>34751405</v>
+        <v>32573718</v>
       </c>
       <c r="G8">
-        <v>47583525</v>
+        <v>47358099</v>
       </c>
       <c r="H8">
-        <v>5237693</v>
+        <v>5465398</v>
       </c>
       <c r="I8">
-        <v>1603693</v>
+        <v>1580627</v>
       </c>
       <c r="J8">
-        <v>12148624</v>
+        <v>14572377</v>
       </c>
       <c r="K8">
-        <v>5387344</v>
+        <v>6176719</v>
       </c>
       <c r="L8">
-        <v>29632591</v>
+        <v>26214824</v>
       </c>
       <c r="M8">
-        <v>47168559</v>
+        <v>46963920</v>
       </c>
       <c r="N8">
-        <v>5475882</v>
+        <v>5755897</v>
       </c>
       <c r="O8">
-        <v>1574138</v>
+        <v>1547981</v>
       </c>
       <c r="P8">
-        <v>14562981</v>
+        <v>17157988</v>
       </c>
       <c r="Q8">
-        <v>6180953</v>
+        <v>7039120</v>
       </c>
       <c r="R8">
-        <v>26215991</v>
+        <v>22508959</v>
       </c>
       <c r="S8">
-        <v>46959925</v>
+        <v>46706067</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>44622</v>
+        <v>44615</v>
       </c>
       <c r="B9">
-        <v>5053954</v>
+        <v>5229604</v>
       </c>
       <c r="C9">
-        <v>1597892</v>
+        <v>1618481</v>
       </c>
       <c r="D9">
-        <v>10021741</v>
+        <v>12157100</v>
       </c>
       <c r="E9">
-        <v>4762640</v>
+        <v>5375529</v>
       </c>
       <c r="F9">
-        <v>32573718</v>
+        <v>29629231</v>
       </c>
       <c r="G9">
-        <v>47358099</v>
+        <v>47161860</v>
       </c>
       <c r="H9">
-        <v>5465398</v>
+        <v>5758356</v>
       </c>
       <c r="I9">
-        <v>1580627</v>
+        <v>1551283</v>
       </c>
       <c r="J9">
-        <v>14572377</v>
+        <v>17157160</v>
       </c>
       <c r="K9">
-        <v>6176719</v>
+        <v>7035796</v>
       </c>
       <c r="L9">
-        <v>26214824</v>
+        <v>22507350</v>
       </c>
       <c r="M9">
-        <v>46963920</v>
+        <v>46700306</v>
       </c>
       <c r="N9">
-        <v>5755897</v>
+        <v>5927007</v>
       </c>
       <c r="O9">
-        <v>1547981</v>
+        <v>1592113</v>
       </c>
       <c r="P9">
-        <v>17157988</v>
+        <v>18793468</v>
       </c>
       <c r="Q9">
-        <v>7039120</v>
+        <v>8015572</v>
       </c>
       <c r="R9">
-        <v>22508959</v>
+        <v>19681785</v>
       </c>
       <c r="S9">
-        <v>46706067</v>
+        <v>46490825</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="B10">
-        <v>5229604</v>
+        <v>5467098</v>
       </c>
       <c r="C10">
-        <v>1618481</v>
+        <v>1596811</v>
       </c>
       <c r="D10">
-        <v>12157100</v>
+        <v>14575900</v>
       </c>
       <c r="E10">
-        <v>5375529</v>
+        <v>6164226</v>
       </c>
       <c r="F10">
-        <v>29629231</v>
+        <v>26205910</v>
       </c>
       <c r="G10">
-        <v>47161860</v>
+        <v>46946036</v>
       </c>
       <c r="H10">
-        <v>5758356</v>
+        <v>5926909</v>
       </c>
       <c r="I10">
-        <v>1551283</v>
+        <v>1597860</v>
       </c>
       <c r="J10">
-        <v>17157160</v>
+        <v>18796851</v>
       </c>
       <c r="K10">
-        <v>7035796</v>
+        <v>8012376</v>
       </c>
       <c r="L10">
-        <v>22507350</v>
+        <v>19675949</v>
       </c>
       <c r="M10">
-        <v>46700306</v>
+        <v>46485176</v>
       </c>
       <c r="N10">
-        <v>5927007</v>
+        <v>6040050</v>
       </c>
       <c r="O10">
-        <v>1592113</v>
+        <v>1652417</v>
       </c>
       <c r="P10">
-        <v>18793468</v>
+        <v>20133986</v>
       </c>
       <c r="Q10">
-        <v>8015572</v>
+        <v>9055320</v>
       </c>
       <c r="R10">
-        <v>19681785</v>
+        <v>17128172</v>
       </c>
       <c r="S10">
-        <v>46490825</v>
+        <v>46317478</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>44608</v>
+        <v>44601</v>
       </c>
       <c r="B11">
-        <v>5467098</v>
+        <v>5610741</v>
       </c>
       <c r="C11">
-        <v>1596811</v>
+        <v>1575333</v>
       </c>
       <c r="D11">
-        <v>14575900</v>
+        <v>17279465</v>
       </c>
       <c r="E11">
-        <v>6164226</v>
+        <v>7025036</v>
       </c>
       <c r="F11">
-        <v>26205910</v>
+        <v>22519370</v>
       </c>
       <c r="G11">
-        <v>46946036</v>
+        <v>46823871</v>
       </c>
       <c r="H11">
-        <v>5926909</v>
+        <v>5893661</v>
       </c>
       <c r="I11">
-        <v>1597860</v>
+        <v>1663892</v>
       </c>
       <c r="J11">
-        <v>18796851</v>
+        <v>20257123</v>
       </c>
       <c r="K11">
-        <v>8012376</v>
+        <v>9057038</v>
       </c>
       <c r="L11">
-        <v>19675949</v>
+        <v>17138231</v>
       </c>
       <c r="M11">
-        <v>46485176</v>
+        <v>46452392</v>
       </c>
       <c r="N11">
-        <v>6040050</v>
+        <v>6038487</v>
       </c>
       <c r="O11">
-        <v>1652417</v>
+        <v>1684410</v>
       </c>
       <c r="P11">
-        <v>20133986</v>
+        <v>22158953</v>
       </c>
       <c r="Q11">
-        <v>9055320</v>
+        <v>9853675</v>
       </c>
       <c r="R11">
-        <v>17128172</v>
+        <v>14274420</v>
       </c>
       <c r="S11">
-        <v>46317478</v>
+        <v>46287048</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>44601</v>
+        <v>44594</v>
       </c>
       <c r="B12">
-        <v>5610741</v>
+        <v>5925943</v>
       </c>
       <c r="C12">
-        <v>1575333</v>
+        <v>1616298</v>
       </c>
       <c r="D12">
-        <v>17279465</v>
+        <v>18801609</v>
       </c>
       <c r="E12">
-        <v>7025036</v>
+        <v>7998741</v>
       </c>
       <c r="F12">
-        <v>22519370</v>
+        <v>19667354</v>
       </c>
       <c r="G12">
-        <v>46823871</v>
+        <v>46467704</v>
       </c>
       <c r="H12">
-        <v>5893661</v>
+        <v>6182863</v>
       </c>
       <c r="I12">
-        <v>1663892</v>
+        <v>1687002</v>
       </c>
       <c r="J12">
-        <v>20257123</v>
+        <v>22039408</v>
       </c>
       <c r="K12">
-        <v>9057038</v>
+        <v>9839532</v>
       </c>
       <c r="L12">
-        <v>17138231</v>
+        <v>14261140</v>
       </c>
       <c r="M12">
-        <v>46452392</v>
+        <v>46140080</v>
       </c>
       <c r="N12">
-        <v>6038487</v>
+        <v>6392072</v>
       </c>
       <c r="O12">
-        <v>1684410</v>
+        <v>1641693</v>
       </c>
       <c r="P12">
-        <v>22158953</v>
+        <v>24567729</v>
       </c>
       <c r="Q12">
-        <v>9853675</v>
+        <v>10413190</v>
       </c>
       <c r="R12">
-        <v>14274420</v>
+        <v>10995261</v>
       </c>
       <c r="S12">
-        <v>46287048</v>
+        <v>45976180</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>44594</v>
+        <v>44587</v>
       </c>
       <c r="B13">
-        <v>5925943</v>
+        <v>6113428</v>
       </c>
       <c r="C13">
-        <v>1616298</v>
+        <v>1676275</v>
       </c>
       <c r="D13">
-        <v>18801609</v>
+        <v>20106983</v>
       </c>
       <c r="E13">
-        <v>7998741</v>
+        <v>9023286</v>
       </c>
       <c r="F13">
-        <v>19667354</v>
+        <v>17089973</v>
       </c>
       <c r="G13">
-        <v>46467704</v>
+        <v>46220242</v>
       </c>
       <c r="H13">
-        <v>6182863</v>
+        <v>6466161</v>
       </c>
       <c r="I13">
-        <v>1687002</v>
+        <v>1644869</v>
       </c>
       <c r="J13">
-        <v>22039408</v>
+        <v>24530417</v>
       </c>
       <c r="K13">
-        <v>9839532</v>
+        <v>10394218</v>
       </c>
       <c r="L13">
-        <v>14261140</v>
+        <v>10974280</v>
       </c>
       <c r="M13">
-        <v>46140080</v>
+        <v>45898915</v>
       </c>
       <c r="N13">
-        <v>6392072</v>
+        <v>6710026</v>
       </c>
       <c r="O13">
-        <v>1641693</v>
+        <v>1549282</v>
       </c>
       <c r="P13">
-        <v>24567729</v>
+        <v>25990113</v>
       </c>
       <c r="Q13">
-        <v>10413190</v>
+        <v>11656265</v>
       </c>
       <c r="R13">
-        <v>10995261</v>
+        <v>8104259</v>
       </c>
       <c r="S13">
-        <v>45976180</v>
+        <v>45750637</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>44587</v>
+        <v>44580</v>
       </c>
       <c r="B14">
-        <v>6113428</v>
+        <v>6194434</v>
       </c>
       <c r="C14">
-        <v>1676275</v>
+        <v>1720841</v>
       </c>
       <c r="D14">
-        <v>20106983</v>
+        <v>22048677</v>
       </c>
       <c r="E14">
-        <v>9023286</v>
+        <v>9810639</v>
       </c>
       <c r="F14">
-        <v>17089973</v>
+        <v>14235354</v>
       </c>
       <c r="G14">
-        <v>46220242</v>
+        <v>46094670</v>
       </c>
       <c r="H14">
-        <v>6466161</v>
+        <v>6647970</v>
       </c>
       <c r="I14">
-        <v>1644869</v>
+        <v>1566179</v>
       </c>
       <c r="J14">
-        <v>24530417</v>
+        <v>26028307</v>
       </c>
       <c r="K14">
-        <v>10394218</v>
+        <v>11660101</v>
       </c>
       <c r="L14">
-        <v>10974280</v>
+        <v>8107388</v>
       </c>
       <c r="M14">
-        <v>45898915</v>
+        <v>45795796</v>
       </c>
       <c r="N14">
-        <v>6710026</v>
+        <v>6862315</v>
       </c>
       <c r="O14">
-        <v>1549282</v>
+        <v>1493790</v>
       </c>
       <c r="P14">
-        <v>25990113</v>
+        <v>26357835</v>
       </c>
       <c r="Q14">
-        <v>11656265</v>
+        <v>13596764</v>
       </c>
       <c r="R14">
-        <v>8104259</v>
+        <v>5699241</v>
       </c>
       <c r="S14">
-        <v>45750637</v>
+        <v>45653840</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>44580</v>
+        <v>44573</v>
       </c>
       <c r="B15">
-        <v>6194434</v>
+        <v>6414467</v>
       </c>
       <c r="C15">
-        <v>1720841</v>
+        <v>1678301</v>
       </c>
       <c r="D15">
-        <v>22048677</v>
+        <v>24562863</v>
       </c>
       <c r="E15">
-        <v>9810639</v>
+        <v>10381759</v>
       </c>
       <c r="F15">
-        <v>14235354</v>
+        <v>10972555</v>
       </c>
       <c r="G15">
-        <v>46094670</v>
+        <v>45917177</v>
       </c>
       <c r="H15">
-        <v>6647970</v>
+        <v>6876688</v>
       </c>
       <c r="I15">
-        <v>1566179</v>
+        <v>1504168</v>
       </c>
       <c r="J15">
-        <v>26028307</v>
+        <v>26348254</v>
       </c>
       <c r="K15">
-        <v>11660101</v>
+        <v>13585896</v>
       </c>
       <c r="L15">
-        <v>8107388</v>
+        <v>5694939</v>
       </c>
       <c r="M15">
-        <v>45795796</v>
+        <v>45629089</v>
       </c>
       <c r="N15">
-        <v>6862315</v>
+        <v>7031651</v>
       </c>
       <c r="O15">
-        <v>1493790</v>
+        <v>1502381</v>
       </c>
       <c r="P15">
-        <v>26357835</v>
+        <v>13119984</v>
       </c>
       <c r="Q15">
-        <v>13596764</v>
+        <v>28222661</v>
       </c>
       <c r="R15">
-        <v>5699241</v>
+        <v>4133267</v>
       </c>
       <c r="S15">
-        <v>45653840</v>
+        <v>45475912</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>44573</v>
+        <v>44566</v>
       </c>
       <c r="B16">
-        <v>6414467</v>
+        <v>6660263</v>
       </c>
       <c r="C16">
-        <v>1678301</v>
+        <v>1578764</v>
       </c>
       <c r="D16">
-        <v>24562863</v>
+        <v>26019483</v>
       </c>
       <c r="E16">
-        <v>10381759</v>
+        <v>11648617</v>
       </c>
       <c r="F16">
-        <v>10972555</v>
+        <v>8102818</v>
       </c>
       <c r="G16">
-        <v>45917177</v>
+        <v>45770918</v>
       </c>
       <c r="H16">
-        <v>6876688</v>
+        <v>7031651</v>
       </c>
       <c r="I16">
-        <v>1504168</v>
+        <v>1502381</v>
       </c>
       <c r="J16">
-        <v>26348254</v>
+        <v>13119984</v>
       </c>
       <c r="K16">
-        <v>13585896</v>
+        <v>28222661</v>
       </c>
       <c r="L16">
-        <v>5694939</v>
+        <v>4133267</v>
       </c>
       <c r="M16">
-        <v>45629089</v>
+        <v>45475912</v>
       </c>
       <c r="N16">
-        <v>7031651</v>
+        <v>7160934</v>
       </c>
       <c r="O16">
-        <v>1502381</v>
+        <v>1577260</v>
       </c>
       <c r="P16">
-        <v>13119984</v>
+        <v>12254673</v>
       </c>
       <c r="Q16">
-        <v>28222661</v>
+        <v>29956598</v>
       </c>
       <c r="R16">
-        <v>4133267</v>
+        <v>3060479</v>
       </c>
       <c r="S16">
-        <v>45475912</v>
+        <v>45271750</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2">
-        <v>44566</v>
+        <v>44558</v>
       </c>
       <c r="B17">
-        <v>6660263</v>
+        <v>6876688</v>
       </c>
       <c r="C17">
-        <v>1578764</v>
+        <v>1504168</v>
       </c>
       <c r="D17">
-        <v>26019483</v>
+        <v>26348254</v>
       </c>
       <c r="E17">
-        <v>11648617</v>
+        <v>13585896</v>
       </c>
       <c r="F17">
-        <v>8102818</v>
+        <v>5694939</v>
       </c>
       <c r="G17">
-        <v>45770918</v>
+        <v>45629089</v>
       </c>
       <c r="H17">
-        <v>7031651</v>
+        <v>7160934</v>
       </c>
       <c r="I17">
-        <v>1502381</v>
+        <v>1577260</v>
       </c>
       <c r="J17">
-        <v>13119984</v>
+        <v>12254673</v>
       </c>
       <c r="K17">
-        <v>28222661</v>
+        <v>29956598</v>
       </c>
       <c r="L17">
-        <v>4133267</v>
+        <v>3060479</v>
       </c>
       <c r="M17">
-        <v>45475912</v>
+        <v>45271750</v>
       </c>
       <c r="N17">
-        <v>7160934</v>
+        <v>7291722</v>
       </c>
       <c r="O17">
-        <v>1577260</v>
+        <v>1749607</v>
       </c>
       <c r="P17">
-        <v>12254673</v>
+        <v>11949919</v>
       </c>
       <c r="Q17">
-        <v>29956598</v>
+        <v>30829431</v>
       </c>
       <c r="R17">
-        <v>3060479</v>
+        <v>2189265</v>
       </c>
       <c r="S17">
-        <v>45271750</v>
+        <v>44968615</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
-        <v>44558</v>
+        <v>44551</v>
       </c>
       <c r="B18">
-        <v>6876688</v>
+        <v>7031651</v>
       </c>
       <c r="C18">
-        <v>1504168</v>
+        <v>1502381</v>
       </c>
       <c r="D18">
-        <v>26348254</v>
+        <v>13119984</v>
       </c>
       <c r="E18">
-        <v>13585896</v>
+        <v>28222661</v>
       </c>
       <c r="F18">
-        <v>5694939</v>
+        <v>4133267</v>
       </c>
       <c r="G18">
-        <v>45629089</v>
+        <v>45475912</v>
       </c>
       <c r="H18">
-        <v>7160934</v>
+        <v>7291722</v>
       </c>
       <c r="I18">
-        <v>1577260</v>
+        <v>1749607</v>
       </c>
       <c r="J18">
-        <v>12254673</v>
+        <v>11949919</v>
       </c>
       <c r="K18">
-        <v>29956598</v>
+        <v>30829431</v>
       </c>
       <c r="L18">
-        <v>3060479</v>
+        <v>2189265</v>
       </c>
       <c r="M18">
-        <v>45271750</v>
+        <v>44968615</v>
       </c>
       <c r="N18">
-        <v>7291722</v>
+        <v>7404599</v>
       </c>
       <c r="O18">
-        <v>1749607</v>
+        <v>1981131</v>
       </c>
       <c r="P18">
-        <v>11949919</v>
+        <v>11407859</v>
       </c>
       <c r="Q18">
-        <v>30829431</v>
+        <v>31622279</v>
       </c>
       <c r="R18">
-        <v>2189265</v>
+        <v>1594076</v>
       </c>
       <c r="S18">
-        <v>44968615</v>
+        <v>44624214</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
-        <v>44551</v>
+        <v>44545</v>
       </c>
       <c r="B19">
-        <v>7031651</v>
+        <v>7160934</v>
       </c>
       <c r="C19">
-        <v>1502381</v>
+        <v>1577260</v>
       </c>
       <c r="D19">
-        <v>13119984</v>
+        <v>12254673</v>
       </c>
       <c r="E19">
-        <v>28222661</v>
+        <v>29956598</v>
       </c>
       <c r="F19">
-        <v>4133267</v>
+        <v>3060479</v>
       </c>
       <c r="G19">
-        <v>45475912</v>
+        <v>45271750</v>
       </c>
       <c r="H19">
-        <v>7291722</v>
+        <v>7404599</v>
       </c>
       <c r="I19">
-        <v>1749607</v>
+        <v>1981131</v>
       </c>
       <c r="J19">
-        <v>11949919</v>
+        <v>11407859</v>
       </c>
       <c r="K19">
-        <v>30829431</v>
+        <v>31622279</v>
       </c>
       <c r="L19">
-        <v>2189265</v>
+        <v>1594076</v>
       </c>
       <c r="M19">
-        <v>44968615</v>
+        <v>44624214</v>
       </c>
       <c r="N19">
-        <v>7404599</v>
+        <v>7586013</v>
       </c>
       <c r="O19">
-        <v>1981131</v>
+        <v>2222672</v>
       </c>
       <c r="P19">
-        <v>11407859</v>
+        <v>4526706</v>
       </c>
       <c r="Q19">
-        <v>31622279</v>
+        <v>38658546</v>
       </c>
       <c r="R19">
-        <v>1594076</v>
+        <v>1016007</v>
       </c>
       <c r="S19">
-        <v>44624214</v>
+        <v>44201259</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
-        <v>44545</v>
+        <v>44537</v>
       </c>
       <c r="B20">
-        <v>7160934</v>
+        <v>7291722</v>
       </c>
       <c r="C20">
-        <v>1577260</v>
+        <v>1749607</v>
       </c>
       <c r="D20">
-        <v>12254673</v>
+        <v>11949919</v>
       </c>
       <c r="E20">
-        <v>29956598</v>
+        <v>30829431</v>
       </c>
       <c r="F20">
-        <v>3060479</v>
+        <v>2189265</v>
       </c>
       <c r="G20">
-        <v>45271750</v>
+        <v>44968615</v>
       </c>
       <c r="H20">
-        <v>7404599</v>
+        <v>7586013</v>
       </c>
       <c r="I20">
-        <v>1981131</v>
+        <v>2222672</v>
       </c>
       <c r="J20">
-        <v>11407859</v>
+        <v>4526706</v>
       </c>
       <c r="K20">
-        <v>31622279</v>
+        <v>38658546</v>
       </c>
       <c r="L20">
-        <v>1594076</v>
+        <v>1016007</v>
       </c>
       <c r="M20">
-        <v>44624214</v>
+        <v>44201259</v>
       </c>
       <c r="N20">
-        <v>7586013</v>
+        <v>7862567</v>
       </c>
       <c r="O20">
-        <v>2222672</v>
+        <v>2422756</v>
       </c>
       <c r="P20">
-        <v>4526706</v>
+        <v>4186423</v>
       </c>
       <c r="Q20">
-        <v>38658546</v>
+        <v>38968164</v>
       </c>
       <c r="R20">
-        <v>1016007</v>
+        <v>570032</v>
       </c>
       <c r="S20">
-        <v>44201259</v>
+        <v>43724619</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2">
-        <v>44537</v>
+        <v>44531</v>
       </c>
       <c r="B21">
-        <v>7291722</v>
+        <v>7404599</v>
       </c>
       <c r="C21">
-        <v>1749607</v>
+        <v>1981131</v>
       </c>
       <c r="D21">
-        <v>11949919</v>
+        <v>11407859</v>
       </c>
       <c r="E21">
-        <v>30829431</v>
+        <v>31622279</v>
       </c>
       <c r="F21">
-        <v>2189265</v>
+        <v>1594076</v>
       </c>
       <c r="G21">
-        <v>44968615</v>
+        <v>44624214</v>
       </c>
       <c r="H21">
-        <v>7586013</v>
+        <v>7862567</v>
       </c>
       <c r="I21">
-        <v>2222672</v>
+        <v>2422756</v>
       </c>
       <c r="J21">
-        <v>4526706</v>
+        <v>4186423</v>
       </c>
       <c r="K21">
-        <v>38658546</v>
+        <v>38968164</v>
       </c>
       <c r="L21">
-        <v>1016007</v>
+        <v>570032</v>
       </c>
       <c r="M21">
-        <v>44201259</v>
+        <v>43724619</v>
       </c>
       <c r="N21">
-        <v>7862567</v>
+        <v>8302865</v>
       </c>
       <c r="O21">
-        <v>2422756</v>
+        <v>2538614</v>
       </c>
       <c r="P21">
-        <v>4186423</v>
+        <v>3884826</v>
       </c>
       <c r="Q21">
-        <v>38968164</v>
+        <v>38988918</v>
       </c>
       <c r="R21">
-        <v>570032</v>
+        <v>294719</v>
       </c>
       <c r="S21">
-        <v>43724619</v>
+        <v>43168463</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2">
-        <v>44531</v>
+        <v>44524</v>
       </c>
       <c r="B22">
-        <v>7404599</v>
+        <v>7586013</v>
       </c>
       <c r="C22">
-        <v>1981131</v>
+        <v>2222672</v>
       </c>
       <c r="D22">
-        <v>11407859</v>
+        <v>4526706</v>
       </c>
       <c r="E22">
-        <v>31622279</v>
+        <v>38658546</v>
       </c>
       <c r="F22">
-        <v>1594076</v>
+        <v>1016007</v>
       </c>
       <c r="G22">
-        <v>44624214</v>
+        <v>44201259</v>
       </c>
       <c r="H22">
-        <v>7862567</v>
+        <v>8302865</v>
       </c>
       <c r="I22">
-        <v>2422756</v>
+        <v>2538614</v>
       </c>
       <c r="J22">
-        <v>4186423</v>
+        <v>3884826</v>
       </c>
       <c r="K22">
-        <v>38968164</v>
+        <v>38988918</v>
       </c>
       <c r="L22">
-        <v>570032</v>
+        <v>294719</v>
       </c>
       <c r="M22">
-        <v>43724619</v>
+        <v>43168463</v>
       </c>
       <c r="N22">
-        <v>8302865</v>
+        <v>8683749</v>
       </c>
       <c r="O22">
-        <v>2538614</v>
+        <v>2653423</v>
       </c>
       <c r="P22">
-        <v>3884826</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>38988918</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>294719</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>43168463</v>
+        <v>42672767</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2">
-        <v>44524</v>
+        <v>44517</v>
       </c>
       <c r="B23">
-        <v>7586013</v>
+        <v>7862567</v>
       </c>
       <c r="C23">
-        <v>2222672</v>
+        <v>2422756</v>
       </c>
       <c r="D23">
-        <v>4526706</v>
+        <v>4186423</v>
       </c>
       <c r="E23">
-        <v>38658546</v>
+        <v>38968164</v>
       </c>
       <c r="F23">
-        <v>1016007</v>
+        <v>570032</v>
       </c>
       <c r="G23">
-        <v>44201259</v>
+        <v>43724619</v>
       </c>
       <c r="H23">
-        <v>8302865</v>
+        <v>8683749</v>
       </c>
       <c r="I23">
-        <v>2538614</v>
+        <v>2653423</v>
       </c>
       <c r="J23">
-        <v>3884826</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>38988918</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>294719</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>43168463</v>
+        <v>42672767</v>
       </c>
       <c r="N23">
-        <v>8683749</v>
+        <v>9231487</v>
       </c>
       <c r="O23">
-        <v>2653423</v>
+        <v>2863195</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -5078,36 +5001,36 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>42672767</v>
+        <v>41915257</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
-        <v>44517</v>
+        <v>44510</v>
       </c>
       <c r="B24">
-        <v>7862567</v>
+        <v>8302865</v>
       </c>
       <c r="C24">
-        <v>2422756</v>
+        <v>2538614</v>
       </c>
       <c r="D24">
-        <v>4186423</v>
+        <v>3884826</v>
       </c>
       <c r="E24">
-        <v>38968164</v>
+        <v>38988918</v>
       </c>
       <c r="F24">
-        <v>570032</v>
+        <v>294719</v>
       </c>
       <c r="G24">
-        <v>43724619</v>
+        <v>43168463</v>
       </c>
       <c r="H24">
-        <v>8683749</v>
+        <v>9231487</v>
       </c>
       <c r="I24">
-        <v>2653423</v>
+        <v>2863195</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -5119,13 +5042,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>42672767</v>
+        <v>41915257</v>
       </c>
       <c r="N24">
-        <v>9231487</v>
+        <v>9829232</v>
       </c>
       <c r="O24">
-        <v>2863195</v>
+        <v>3259454</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -5137,36 +5060,36 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>41915257</v>
+        <v>40921215</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
-        <v>44510</v>
+        <v>44503</v>
       </c>
       <c r="B25">
-        <v>8302865</v>
+        <v>8683749</v>
       </c>
       <c r="C25">
-        <v>2538614</v>
+        <v>2653423</v>
       </c>
       <c r="D25">
-        <v>3884826</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>38988918</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>294719</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>43168463</v>
+        <v>42672767</v>
       </c>
       <c r="H25">
-        <v>9231487</v>
+        <v>9829232</v>
       </c>
       <c r="I25">
-        <v>2863195</v>
+        <v>3259454</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -5178,13 +5101,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>41915257</v>
+        <v>40921215</v>
       </c>
       <c r="N25">
-        <v>9829232</v>
+        <v>10307179</v>
       </c>
       <c r="O25">
-        <v>3259454</v>
+        <v>3862335</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -5196,18 +5119,18 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>40921215</v>
+        <v>39840387</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2">
-        <v>44503</v>
+        <v>44496</v>
       </c>
       <c r="B26">
-        <v>8683749</v>
+        <v>9231487</v>
       </c>
       <c r="C26">
-        <v>2653423</v>
+        <v>2863195</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -5219,13 +5142,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>42672767</v>
+        <v>41915257</v>
       </c>
       <c r="H26">
-        <v>9829232</v>
+        <v>10307179</v>
       </c>
       <c r="I26">
-        <v>3259454</v>
+        <v>3862335</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -5237,13 +5160,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>40921215</v>
+        <v>39840387</v>
       </c>
       <c r="N26">
-        <v>10307179</v>
+        <v>10942694</v>
       </c>
       <c r="O26">
-        <v>3862335</v>
+        <v>4426185</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -5255,18 +5178,18 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>39840387</v>
+        <v>38641022</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2">
-        <v>44496</v>
+        <v>44489</v>
       </c>
       <c r="B27">
-        <v>9231487</v>
+        <v>9829232</v>
       </c>
       <c r="C27">
-        <v>2863195</v>
+        <v>3259454</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5278,13 +5201,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>41915257</v>
+        <v>40921215</v>
       </c>
       <c r="H27">
-        <v>10307179</v>
+        <v>10942694</v>
       </c>
       <c r="I27">
-        <v>3862335</v>
+        <v>4426185</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -5296,13 +5219,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>39840387</v>
+        <v>38641022</v>
       </c>
       <c r="N27">
-        <v>10942694</v>
+        <v>11786620</v>
       </c>
       <c r="O27">
-        <v>4426185</v>
+        <v>4805486</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -5314,18 +5237,18 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>38641022</v>
+        <v>37417795</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2">
-        <v>44489</v>
+        <v>44482</v>
       </c>
       <c r="B28">
-        <v>9829232</v>
+        <v>10307179</v>
       </c>
       <c r="C28">
-        <v>3259454</v>
+        <v>3862335</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5337,13 +5260,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>40921215</v>
+        <v>39840387</v>
       </c>
       <c r="H28">
-        <v>10942694</v>
+        <v>11786620</v>
       </c>
       <c r="I28">
-        <v>4426185</v>
+        <v>4805486</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -5355,13 +5278,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>38641022</v>
+        <v>37417795</v>
       </c>
       <c r="N28">
-        <v>11786620</v>
+        <v>12581126</v>
       </c>
       <c r="O28">
-        <v>4805486</v>
+        <v>5096568</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -5373,18 +5296,18 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>37417795</v>
+        <v>36332207</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2">
-        <v>44482</v>
+        <v>44475</v>
       </c>
       <c r="B29">
-        <v>10307179</v>
+        <v>10942694</v>
       </c>
       <c r="C29">
-        <v>3862335</v>
+        <v>4426185</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5396,13 +5319,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>39840387</v>
+        <v>38641022</v>
       </c>
       <c r="H29">
-        <v>11786620</v>
+        <v>12581126</v>
       </c>
       <c r="I29">
-        <v>4805486</v>
+        <v>5096568</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -5414,13 +5337,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>37417795</v>
+        <v>36332207</v>
       </c>
       <c r="N29">
-        <v>12581126</v>
+        <v>13334156</v>
       </c>
       <c r="O29">
-        <v>5096568</v>
+        <v>5075930</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -5432,18 +5355,18 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>36332207</v>
+        <v>35599815</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
-        <v>44475</v>
+        <v>44468</v>
       </c>
       <c r="B30">
-        <v>10942694</v>
+        <v>11786620</v>
       </c>
       <c r="C30">
-        <v>4426185</v>
+        <v>4805486</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5455,13 +5378,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>38641022</v>
+        <v>37417795</v>
       </c>
       <c r="H30">
-        <v>12581126</v>
+        <v>13334156</v>
       </c>
       <c r="I30">
-        <v>5096568</v>
+        <v>5075930</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -5473,13 +5396,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>36332207</v>
+        <v>35599815</v>
       </c>
       <c r="N30">
-        <v>13334156</v>
+        <v>14507530</v>
       </c>
       <c r="O30">
-        <v>5075930</v>
+        <v>5210293</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -5491,18 +5414,18 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>35599815</v>
+        <v>34292078</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
-        <v>44468</v>
+        <v>44461</v>
       </c>
       <c r="B31">
-        <v>11786620</v>
+        <v>12581126</v>
       </c>
       <c r="C31">
-        <v>4805486</v>
+        <v>5096568</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5514,13 +5437,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>37417795</v>
+        <v>36332207</v>
       </c>
       <c r="H31">
-        <v>13334156</v>
+        <v>14507530</v>
       </c>
       <c r="I31">
-        <v>5075930</v>
+        <v>5210293</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -5532,13 +5455,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>35599815</v>
+        <v>34292078</v>
       </c>
       <c r="N31">
-        <v>14507530</v>
+        <v>15656647</v>
       </c>
       <c r="O31">
-        <v>5210293</v>
+        <v>6065610</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -5550,18 +5473,18 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>34292078</v>
+        <v>32287644</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2">
-        <v>44461</v>
+        <v>44454</v>
       </c>
       <c r="B32">
-        <v>12581126</v>
+        <v>13334156</v>
       </c>
       <c r="C32">
-        <v>5096568</v>
+        <v>5075930</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5573,13 +5496,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>36332207</v>
+        <v>35599815</v>
       </c>
       <c r="H32">
-        <v>14507530</v>
+        <v>15656647</v>
       </c>
       <c r="I32">
-        <v>5210293</v>
+        <v>6065610</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -5591,13 +5514,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>34292078</v>
+        <v>32287644</v>
       </c>
       <c r="N32">
-        <v>15656647</v>
+        <v>16708830</v>
       </c>
       <c r="O32">
-        <v>6065610</v>
+        <v>7672393</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -5609,18 +5532,18 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>32287644</v>
+        <v>29628678</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2">
-        <v>44454</v>
+        <v>44447</v>
       </c>
       <c r="B33">
-        <v>13334156</v>
+        <v>14507530</v>
       </c>
       <c r="C33">
-        <v>5075930</v>
+        <v>5210293</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5632,13 +5555,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>35599815</v>
+        <v>34292078</v>
       </c>
       <c r="H33">
-        <v>15656647</v>
+        <v>16708830</v>
       </c>
       <c r="I33">
-        <v>6065610</v>
+        <v>7672393</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -5650,13 +5573,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>32287644</v>
+        <v>29628678</v>
       </c>
       <c r="N33">
-        <v>16708830</v>
+        <v>17568325</v>
       </c>
       <c r="O33">
-        <v>7672393</v>
+        <v>9940124</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -5668,18 +5591,18 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>29628678</v>
+        <v>26501452</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2">
-        <v>44447</v>
+        <v>44440</v>
       </c>
       <c r="B34">
-        <v>14507530</v>
+        <v>15656647</v>
       </c>
       <c r="C34">
-        <v>5210293</v>
+        <v>6065610</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5691,13 +5614,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>34292078</v>
+        <v>32287644</v>
       </c>
       <c r="H34">
-        <v>16708830</v>
+        <v>17568325</v>
       </c>
       <c r="I34">
-        <v>7672393</v>
+        <v>9940124</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -5709,13 +5632,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>29628678</v>
+        <v>26501452</v>
       </c>
       <c r="N34">
-        <v>17568325</v>
+        <v>20322806</v>
       </c>
       <c r="O34">
-        <v>9940124</v>
+        <v>11341436</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -5727,18 +5650,18 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>26501452</v>
+        <v>22345659</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2">
-        <v>44440</v>
+        <v>44433</v>
       </c>
       <c r="B35">
-        <v>15656647</v>
+        <v>16708830</v>
       </c>
       <c r="C35">
-        <v>6065610</v>
+        <v>7672393</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5750,13 +5673,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>32287644</v>
+        <v>29628678</v>
       </c>
       <c r="H35">
-        <v>17568325</v>
+        <v>20322806</v>
       </c>
       <c r="I35">
-        <v>9940124</v>
+        <v>11341436</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -5768,13 +5691,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>26501452</v>
+        <v>22345659</v>
       </c>
       <c r="N35">
-        <v>20322806</v>
+        <v>21289761</v>
       </c>
       <c r="O35">
-        <v>11341436</v>
+        <v>13149676</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -5786,18 +5709,18 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>22345659</v>
+        <v>19570464</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2">
-        <v>44433</v>
+        <v>44426</v>
       </c>
       <c r="B36">
-        <v>16708830</v>
+        <v>17568325</v>
       </c>
       <c r="C36">
-        <v>7672393</v>
+        <v>9940124</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5809,13 +5732,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>29628678</v>
+        <v>26501452</v>
       </c>
       <c r="H36">
-        <v>20322806</v>
+        <v>21289761</v>
       </c>
       <c r="I36">
-        <v>11341436</v>
+        <v>13149676</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -5827,13 +5750,13 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>22345659</v>
+        <v>19570464</v>
       </c>
       <c r="N36">
-        <v>21289761</v>
+        <v>22879167</v>
       </c>
       <c r="O36">
-        <v>13149676</v>
+        <v>13741130</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -5845,18 +5768,18 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>19570464</v>
+        <v>17389604</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="2">
-        <v>44426</v>
+        <v>44419</v>
       </c>
       <c r="B37">
-        <v>17568325</v>
+        <v>20322806</v>
       </c>
       <c r="C37">
-        <v>9940124</v>
+        <v>11341436</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5868,13 +5791,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>26501452</v>
+        <v>22345659</v>
       </c>
       <c r="H37">
-        <v>21289761</v>
+        <v>22879167</v>
       </c>
       <c r="I37">
-        <v>13149676</v>
+        <v>13741130</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -5886,13 +5809,13 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>19570464</v>
+        <v>17389604</v>
       </c>
       <c r="N37">
-        <v>22879167</v>
+        <v>24745853</v>
       </c>
       <c r="O37">
-        <v>13741130</v>
+        <v>13879852</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -5904,18 +5827,18 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>17389604</v>
+        <v>15384196</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="2">
-        <v>44419</v>
+        <v>44412</v>
       </c>
       <c r="B38">
-        <v>20322806</v>
+        <v>21289761</v>
       </c>
       <c r="C38">
-        <v>11341436</v>
+        <v>13149676</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5927,13 +5850,13 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>22345659</v>
+        <v>19570464</v>
       </c>
       <c r="H38">
-        <v>22879167</v>
+        <v>24745853</v>
       </c>
       <c r="I38">
-        <v>13741130</v>
+        <v>13879852</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -5945,13 +5868,13 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>17389604</v>
+        <v>15384196</v>
       </c>
       <c r="N38">
-        <v>24745853</v>
+        <v>27065063</v>
       </c>
       <c r="O38">
-        <v>13879852</v>
+        <v>13015437</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -5963,18 +5886,18 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>15384196</v>
+        <v>13929401</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="2">
-        <v>44412</v>
+        <v>44405</v>
       </c>
       <c r="B39">
-        <v>21289761</v>
+        <v>22879167</v>
       </c>
       <c r="C39">
-        <v>13149676</v>
+        <v>13741130</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5986,13 +5909,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>19570464</v>
+        <v>17389604</v>
       </c>
       <c r="H39">
-        <v>24745853</v>
+        <v>27065063</v>
       </c>
       <c r="I39">
-        <v>13879852</v>
+        <v>13015437</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -6004,13 +5927,13 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>15384196</v>
+        <v>13929401</v>
       </c>
       <c r="N39">
-        <v>27065063</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>13015437</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -6022,18 +5945,18 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>13929401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="2">
-        <v>44405</v>
+        <v>44398</v>
       </c>
       <c r="B40">
-        <v>22879167</v>
+        <v>24745853</v>
       </c>
       <c r="C40">
-        <v>13741130</v>
+        <v>13879852</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -6045,13 +5968,13 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>17389604</v>
+        <v>15384196</v>
       </c>
       <c r="H40">
-        <v>27065063</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>13015437</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -6063,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>13929401</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -6086,13 +6009,13 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="2">
-        <v>44398</v>
+        <v>44391</v>
       </c>
       <c r="B41">
-        <v>24745853</v>
+        <v>27065063</v>
       </c>
       <c r="C41">
-        <v>13879852</v>
+        <v>13015437</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6104,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>15384196</v>
+        <v>13929401</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -6140,65 +6063,6 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
-      <c r="A42" s="2">
-        <v>44391</v>
-      </c>
-      <c r="B42">
-        <v>27065063</v>
-      </c>
-      <c r="C42">
-        <v>13015437</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>13929401</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
         <v>0</v>
       </c>
     </row>

--- a/dati/dati_ISS_complessivi.xlsx
+++ b/dati/dati_ISS_complessivi.xlsx
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,1938 +556,1938 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B2">
-        <v>313256</v>
+        <v>287362</v>
       </c>
       <c r="C2">
-        <v>26969</v>
+        <v>23480</v>
       </c>
       <c r="D2">
-        <v>148880</v>
+        <v>136829</v>
       </c>
       <c r="E2">
-        <v>182644</v>
+        <v>164662</v>
       </c>
       <c r="F2">
-        <v>1228968</v>
+        <v>1225350</v>
       </c>
       <c r="G2">
-        <v>1560492</v>
+        <v>1526841</v>
       </c>
       <c r="H2">
-        <v>3689</v>
+        <v>3758</v>
       </c>
       <c r="I2">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="J2">
-        <v>1854</v>
+        <v>1825</v>
       </c>
       <c r="K2">
-        <v>1103</v>
+        <v>1113</v>
       </c>
       <c r="L2">
-        <v>12913</v>
+        <v>13949</v>
       </c>
       <c r="M2">
-        <v>15870</v>
+        <v>16887</v>
       </c>
       <c r="N2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="O2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R2">
-        <v>576</v>
+        <v>627</v>
       </c>
       <c r="S2">
-        <v>714</v>
+        <v>759</v>
       </c>
       <c r="T2">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="U2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="V2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="W2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="X2">
-        <v>1704</v>
+        <v>1939</v>
       </c>
       <c r="Y2">
-        <v>2172</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="B3">
-        <v>337060</v>
+        <v>313256</v>
       </c>
       <c r="C3">
-        <v>31557</v>
+        <v>26969</v>
       </c>
       <c r="D3">
-        <v>162436</v>
+        <v>148880</v>
       </c>
       <c r="E3">
-        <v>199002</v>
+        <v>182644</v>
       </c>
       <c r="F3">
-        <v>1219494</v>
+        <v>1228968</v>
       </c>
       <c r="G3">
-        <v>1580932</v>
+        <v>1560492</v>
       </c>
       <c r="H3">
-        <v>3658</v>
+        <v>3689</v>
       </c>
       <c r="I3">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="J3">
-        <v>1825</v>
+        <v>1854</v>
       </c>
       <c r="K3">
-        <v>1030</v>
+        <v>1103</v>
       </c>
       <c r="L3">
-        <v>11309</v>
+        <v>12913</v>
       </c>
       <c r="M3">
-        <v>14164</v>
+        <v>15870</v>
       </c>
       <c r="N3">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="O3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P3">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="R3">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="S3">
-        <v>657</v>
+        <v>714</v>
       </c>
       <c r="T3">
-        <v>735</v>
+        <v>758</v>
       </c>
       <c r="U3">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="V3">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="W3">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="X3">
-        <v>1565</v>
+        <v>1704</v>
       </c>
       <c r="Y3">
-        <v>2031</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2">
-        <v>44657</v>
+        <v>44664</v>
       </c>
       <c r="B4">
-        <v>328614</v>
+        <v>337060</v>
       </c>
       <c r="C4">
-        <v>34073</v>
+        <v>31557</v>
       </c>
       <c r="D4">
-        <v>161287</v>
+        <v>162436</v>
       </c>
       <c r="E4">
-        <v>193193</v>
+        <v>199002</v>
       </c>
       <c r="F4">
-        <v>1097617</v>
+        <v>1219494</v>
       </c>
       <c r="G4">
-        <v>1452097</v>
+        <v>1580932</v>
       </c>
       <c r="H4">
-        <v>3729</v>
+        <v>3658</v>
       </c>
       <c r="I4">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="J4">
-        <v>1846</v>
+        <v>1825</v>
       </c>
       <c r="K4">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="L4">
-        <v>10150</v>
+        <v>11309</v>
       </c>
       <c r="M4">
-        <v>13017</v>
+        <v>14164</v>
       </c>
       <c r="N4">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="O4">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P4">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R4">
-        <v>478</v>
+        <v>519</v>
       </c>
       <c r="S4">
-        <v>611</v>
+        <v>657</v>
       </c>
       <c r="T4">
-        <v>850</v>
+        <v>735</v>
       </c>
       <c r="U4">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="V4">
-        <v>473</v>
+        <v>369</v>
       </c>
       <c r="W4">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="X4">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="Y4">
-        <v>2152</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2">
-        <v>44650</v>
+        <v>44657</v>
       </c>
       <c r="B5">
-        <v>310234</v>
+        <v>328614</v>
       </c>
       <c r="C5">
-        <v>36199</v>
+        <v>34073</v>
       </c>
       <c r="D5">
-        <v>151285</v>
+        <v>161287</v>
       </c>
       <c r="E5">
-        <v>177731</v>
+        <v>193193</v>
       </c>
       <c r="F5">
-        <v>919400</v>
+        <v>1097617</v>
       </c>
       <c r="G5">
-        <v>1248416</v>
+        <v>1452097</v>
       </c>
       <c r="H5">
-        <v>4164</v>
+        <v>3729</v>
       </c>
       <c r="I5">
-        <v>672</v>
+        <v>574</v>
       </c>
       <c r="J5">
-        <v>2153</v>
+        <v>1846</v>
       </c>
       <c r="K5">
-        <v>1109</v>
+        <v>1021</v>
       </c>
       <c r="L5">
-        <v>9438</v>
+        <v>10150</v>
       </c>
       <c r="M5">
-        <v>12700</v>
+        <v>13017</v>
       </c>
       <c r="N5">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="O5">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P5">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="Q5">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R5">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="S5">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="T5">
-        <v>1149</v>
+        <v>850</v>
       </c>
       <c r="U5">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="V5">
-        <v>654</v>
+        <v>473</v>
       </c>
       <c r="W5">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="X5">
-        <v>1688</v>
+        <v>1561</v>
       </c>
       <c r="Y5">
-        <v>2489</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="B6">
-        <v>301078</v>
+        <v>310234</v>
       </c>
       <c r="C6">
-        <v>41780</v>
+        <v>36199</v>
       </c>
       <c r="D6">
-        <v>141855</v>
+        <v>151285</v>
       </c>
       <c r="E6">
-        <v>162770</v>
+        <v>177731</v>
       </c>
       <c r="F6">
-        <v>747670</v>
+        <v>919400</v>
       </c>
       <c r="G6">
-        <v>1052295</v>
+        <v>1248416</v>
       </c>
       <c r="H6">
-        <v>5247</v>
+        <v>4164</v>
       </c>
       <c r="I6">
-        <v>856</v>
+        <v>672</v>
       </c>
       <c r="J6">
-        <v>2990</v>
+        <v>2153</v>
       </c>
       <c r="K6">
-        <v>1293</v>
+        <v>1109</v>
       </c>
       <c r="L6">
-        <v>9812</v>
+        <v>9438</v>
       </c>
       <c r="M6">
-        <v>14095</v>
+        <v>12700</v>
       </c>
       <c r="N6">
-        <v>381</v>
+        <v>272</v>
       </c>
       <c r="O6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P6">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="Q6">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="R6">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="S6">
-        <v>657</v>
+        <v>595</v>
       </c>
       <c r="T6">
-        <v>1552</v>
+        <v>1149</v>
       </c>
       <c r="U6">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="V6">
-        <v>1004</v>
+        <v>654</v>
       </c>
       <c r="W6">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="X6">
-        <v>2022</v>
+        <v>1688</v>
       </c>
       <c r="Y6">
-        <v>3228</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="B7">
-        <v>320381</v>
+        <v>301078</v>
       </c>
       <c r="C7">
-        <v>52934</v>
+        <v>41780</v>
       </c>
       <c r="D7">
-        <v>146615</v>
+        <v>141855</v>
       </c>
       <c r="E7">
-        <v>154589</v>
+        <v>162770</v>
       </c>
       <c r="F7">
-        <v>602042</v>
+        <v>747670</v>
       </c>
       <c r="G7">
-        <v>903246</v>
+        <v>1052295</v>
       </c>
       <c r="H7">
-        <v>7093</v>
+        <v>5247</v>
       </c>
       <c r="I7">
-        <v>1082</v>
+        <v>856</v>
       </c>
       <c r="J7">
-        <v>4424</v>
+        <v>2990</v>
       </c>
       <c r="K7">
-        <v>1654</v>
+        <v>1293</v>
       </c>
       <c r="L7">
-        <v>10840</v>
+        <v>9812</v>
       </c>
       <c r="M7">
-        <v>16918</v>
+        <v>14095</v>
       </c>
       <c r="N7">
-        <v>549</v>
+        <v>381</v>
       </c>
       <c r="O7">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P7">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="Q7">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="R7">
-        <v>506</v>
+        <v>452</v>
       </c>
       <c r="S7">
-        <v>808</v>
+        <v>657</v>
       </c>
       <c r="T7">
-        <v>2117</v>
+        <v>1552</v>
       </c>
       <c r="U7">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="V7">
-        <v>1489</v>
+        <v>1004</v>
       </c>
       <c r="W7">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="X7">
-        <v>2356</v>
+        <v>2022</v>
       </c>
       <c r="Y7">
-        <v>4109</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="B8">
-        <v>263373</v>
+        <v>320381</v>
       </c>
       <c r="C8">
-        <v>44050</v>
+        <v>52934</v>
       </c>
       <c r="D8">
-        <v>195682</v>
+        <v>146615</v>
       </c>
       <c r="E8">
-        <v>147602</v>
+        <v>154589</v>
       </c>
       <c r="F8">
-        <v>569292</v>
+        <v>602042</v>
       </c>
       <c r="G8">
-        <v>912576</v>
+        <v>903246</v>
       </c>
       <c r="H8">
-        <v>8894</v>
+        <v>7093</v>
       </c>
       <c r="I8">
-        <v>1220</v>
+        <v>1082</v>
       </c>
       <c r="J8">
-        <v>6443</v>
+        <v>4424</v>
       </c>
       <c r="K8">
-        <v>2105</v>
+        <v>1654</v>
       </c>
       <c r="L8">
-        <v>11808</v>
+        <v>10840</v>
       </c>
       <c r="M8">
-        <v>20356</v>
+        <v>16918</v>
       </c>
       <c r="N8">
-        <v>720</v>
+        <v>549</v>
       </c>
       <c r="O8">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P8">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="Q8">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="R8">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="S8">
-        <v>950</v>
+        <v>808</v>
       </c>
       <c r="T8">
-        <v>2655</v>
+        <v>2117</v>
       </c>
       <c r="U8">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="V8">
-        <v>2075</v>
+        <v>1489</v>
       </c>
       <c r="W8">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="X8">
-        <v>2613</v>
+        <v>2356</v>
       </c>
       <c r="Y8">
-        <v>4991</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="B9">
-        <v>362240</v>
+        <v>263373</v>
       </c>
       <c r="C9">
-        <v>61074</v>
+        <v>44050</v>
       </c>
       <c r="D9">
-        <v>316885</v>
+        <v>195682</v>
       </c>
       <c r="E9">
-        <v>210897</v>
+        <v>147602</v>
       </c>
       <c r="F9">
-        <v>617287</v>
+        <v>569292</v>
       </c>
       <c r="G9">
-        <v>1145069</v>
+        <v>912576</v>
       </c>
       <c r="H9">
-        <v>11144</v>
+        <v>8894</v>
       </c>
       <c r="I9">
-        <v>1422</v>
+        <v>1220</v>
       </c>
       <c r="J9">
-        <v>9008</v>
+        <v>6443</v>
       </c>
       <c r="K9">
-        <v>2676</v>
+        <v>2105</v>
       </c>
       <c r="L9">
-        <v>12272</v>
+        <v>11808</v>
       </c>
       <c r="M9">
-        <v>23956</v>
+        <v>20356</v>
       </c>
       <c r="N9">
-        <v>941</v>
+        <v>720</v>
       </c>
       <c r="O9">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P9">
-        <v>470</v>
+        <v>319</v>
       </c>
       <c r="Q9">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="R9">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="S9">
-        <v>1134</v>
+        <v>950</v>
       </c>
       <c r="T9">
-        <v>3198</v>
+        <v>2655</v>
       </c>
       <c r="U9">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="V9">
-        <v>2507</v>
+        <v>2075</v>
       </c>
       <c r="W9">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="X9">
-        <v>2677</v>
+        <v>2613</v>
       </c>
       <c r="Y9">
-        <v>5521</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="B10">
-        <v>503511</v>
+        <v>362240</v>
       </c>
       <c r="C10">
-        <v>81921</v>
+        <v>61074</v>
       </c>
       <c r="D10">
-        <v>543352</v>
+        <v>316885</v>
       </c>
       <c r="E10">
-        <v>313619</v>
+        <v>210897</v>
       </c>
       <c r="F10">
-        <v>682585</v>
+        <v>617287</v>
       </c>
       <c r="G10">
-        <v>1539556</v>
+        <v>1145069</v>
       </c>
       <c r="H10">
-        <v>13534</v>
+        <v>11144</v>
       </c>
       <c r="I10">
-        <v>1516</v>
+        <v>1422</v>
       </c>
       <c r="J10">
-        <v>11607</v>
+        <v>9008</v>
       </c>
       <c r="K10">
-        <v>3210</v>
+        <v>2676</v>
       </c>
       <c r="L10">
-        <v>12271</v>
+        <v>12272</v>
       </c>
       <c r="M10">
-        <v>27088</v>
+        <v>23956</v>
       </c>
       <c r="N10">
-        <v>1261</v>
+        <v>941</v>
       </c>
       <c r="O10">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P10">
-        <v>617</v>
+        <v>470</v>
       </c>
       <c r="Q10">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="R10">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="S10">
-        <v>1304</v>
+        <v>1134</v>
       </c>
       <c r="T10">
-        <v>3470</v>
+        <v>3198</v>
       </c>
       <c r="U10">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="V10">
-        <v>2795</v>
+        <v>2507</v>
       </c>
       <c r="W10">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="X10">
-        <v>2403</v>
+        <v>2677</v>
       </c>
       <c r="Y10">
-        <v>5527</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B11">
-        <v>642419</v>
+        <v>503511</v>
       </c>
       <c r="C11">
-        <v>102315</v>
+        <v>81921</v>
       </c>
       <c r="D11">
-        <v>848833</v>
+        <v>543352</v>
       </c>
       <c r="E11">
-        <v>439413</v>
+        <v>313619</v>
       </c>
       <c r="F11">
-        <v>717143</v>
+        <v>682585</v>
       </c>
       <c r="G11">
-        <v>2005389</v>
+        <v>1539556</v>
       </c>
       <c r="H11">
-        <v>15012</v>
+        <v>13534</v>
       </c>
       <c r="I11">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="J11">
-        <v>13660</v>
+        <v>11607</v>
       </c>
       <c r="K11">
-        <v>3480</v>
+        <v>3210</v>
       </c>
       <c r="L11">
-        <v>11075</v>
+        <v>12271</v>
       </c>
       <c r="M11">
-        <v>28215</v>
+        <v>27088</v>
       </c>
       <c r="N11">
-        <v>1524</v>
+        <v>1261</v>
       </c>
       <c r="O11">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P11">
-        <v>736</v>
+        <v>617</v>
       </c>
       <c r="Q11">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="R11">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="S11">
-        <v>1350</v>
+        <v>1304</v>
       </c>
       <c r="T11">
-        <v>3357</v>
+        <v>3470</v>
       </c>
       <c r="U11">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="V11">
-        <v>2757</v>
+        <v>2795</v>
       </c>
       <c r="W11">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="X11">
-        <v>1918</v>
+        <v>2403</v>
       </c>
       <c r="Y11">
-        <v>4952</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="B12">
-        <v>777547</v>
+        <v>642419</v>
       </c>
       <c r="C12">
-        <v>127486</v>
+        <v>102315</v>
       </c>
       <c r="D12">
-        <v>1249396</v>
+        <v>848833</v>
       </c>
       <c r="E12">
-        <v>597335</v>
+        <v>439413</v>
       </c>
       <c r="F12">
-        <v>738378</v>
+        <v>717143</v>
       </c>
       <c r="G12">
-        <v>2585109</v>
+        <v>2005389</v>
       </c>
       <c r="H12">
-        <v>15695</v>
+        <v>15012</v>
       </c>
       <c r="I12">
-        <v>1437</v>
+        <v>1532</v>
       </c>
       <c r="J12">
-        <v>14598</v>
+        <v>13660</v>
       </c>
       <c r="K12">
-        <v>3426</v>
+        <v>3480</v>
       </c>
       <c r="L12">
-        <v>9017</v>
+        <v>11075</v>
       </c>
       <c r="M12">
-        <v>27041</v>
+        <v>28215</v>
       </c>
       <c r="N12">
-        <v>1716</v>
+        <v>1524</v>
       </c>
       <c r="O12">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P12">
-        <v>803</v>
+        <v>736</v>
       </c>
       <c r="Q12">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="R12">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="S12">
-        <v>1306</v>
+        <v>1350</v>
       </c>
       <c r="T12">
-        <v>3144</v>
+        <v>3357</v>
       </c>
       <c r="U12">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="V12">
-        <v>2508</v>
+        <v>2757</v>
       </c>
       <c r="W12">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="X12">
-        <v>1331</v>
+        <v>1918</v>
       </c>
       <c r="Y12">
-        <v>4071</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="B13">
-        <v>809625</v>
+        <v>777547</v>
       </c>
       <c r="C13">
-        <v>137850</v>
+        <v>127486</v>
       </c>
       <c r="D13">
-        <v>1532777</v>
+        <v>1249396</v>
       </c>
       <c r="E13">
-        <v>687597</v>
+        <v>597335</v>
       </c>
       <c r="F13">
-        <v>672910</v>
+        <v>738378</v>
       </c>
       <c r="G13">
-        <v>2893284</v>
+        <v>2585109</v>
       </c>
       <c r="H13">
-        <v>15049</v>
+        <v>15695</v>
       </c>
       <c r="I13">
-        <v>1240</v>
+        <v>1437</v>
       </c>
       <c r="J13">
-        <v>13663</v>
+        <v>14598</v>
       </c>
       <c r="K13">
-        <v>2915</v>
+        <v>3426</v>
       </c>
       <c r="L13">
-        <v>6606</v>
+        <v>9017</v>
       </c>
       <c r="M13">
-        <v>23184</v>
+        <v>27041</v>
       </c>
       <c r="N13">
-        <v>1792</v>
+        <v>1716</v>
       </c>
       <c r="O13">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P13">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="Q13">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="R13">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="S13">
-        <v>1166</v>
+        <v>1306</v>
       </c>
       <c r="T13">
-        <v>2632</v>
+        <v>3144</v>
       </c>
       <c r="U13">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="V13">
-        <v>2172</v>
+        <v>2508</v>
       </c>
       <c r="W13">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="X13">
-        <v>814</v>
+        <v>1331</v>
       </c>
       <c r="Y13">
-        <v>3168</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="B14">
-        <v>703732</v>
+        <v>809625</v>
       </c>
       <c r="C14">
-        <v>127478</v>
+        <v>137850</v>
       </c>
       <c r="D14">
-        <v>1544092</v>
+        <v>1532777</v>
       </c>
       <c r="E14">
-        <v>640805</v>
+        <v>687597</v>
       </c>
       <c r="F14">
-        <v>521657</v>
+        <v>672910</v>
       </c>
       <c r="G14">
-        <v>2706554</v>
+        <v>2893284</v>
       </c>
       <c r="H14">
-        <v>13946</v>
+        <v>15049</v>
       </c>
       <c r="I14">
-        <v>989</v>
+        <v>1240</v>
       </c>
       <c r="J14">
-        <v>11934</v>
+        <v>13663</v>
       </c>
       <c r="K14">
-        <v>2225</v>
+        <v>2915</v>
       </c>
       <c r="L14">
-        <v>4177</v>
+        <v>6606</v>
       </c>
       <c r="M14">
-        <v>18336</v>
+        <v>23184</v>
       </c>
       <c r="N14">
-        <v>1753</v>
+        <v>1792</v>
       </c>
       <c r="O14">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P14">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="Q14">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="R14">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="S14">
-        <v>1014</v>
+        <v>1166</v>
       </c>
       <c r="T14">
-        <v>2120</v>
+        <v>2632</v>
       </c>
       <c r="U14">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="V14">
-        <v>1805</v>
+        <v>2172</v>
       </c>
       <c r="W14">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="X14">
-        <v>432</v>
+        <v>814</v>
       </c>
       <c r="Y14">
-        <v>2375</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="B15">
-        <v>555697</v>
+        <v>703732</v>
       </c>
       <c r="C15">
-        <v>102729</v>
+        <v>127478</v>
       </c>
       <c r="D15">
-        <v>1320086</v>
+        <v>1544092</v>
       </c>
       <c r="E15">
-        <v>527687</v>
+        <v>640805</v>
       </c>
       <c r="F15">
-        <v>358530</v>
+        <v>521657</v>
       </c>
       <c r="G15">
-        <v>2206303</v>
+        <v>2706554</v>
       </c>
       <c r="H15">
-        <v>11487</v>
+        <v>13946</v>
       </c>
       <c r="I15">
-        <v>681</v>
+        <v>989</v>
       </c>
       <c r="J15">
-        <v>9435</v>
+        <v>11934</v>
       </c>
       <c r="K15">
-        <v>1499</v>
+        <v>2225</v>
       </c>
       <c r="L15">
-        <v>2066</v>
+        <v>4177</v>
       </c>
       <c r="M15">
-        <v>13000</v>
+        <v>18336</v>
       </c>
       <c r="N15">
-        <v>1557</v>
+        <v>1753</v>
       </c>
       <c r="O15">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P15">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="Q15">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R15">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="S15">
-        <v>809</v>
+        <v>1014</v>
       </c>
       <c r="T15">
-        <v>1774</v>
+        <v>2120</v>
       </c>
       <c r="U15">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="V15">
-        <v>1541</v>
+        <v>1805</v>
       </c>
       <c r="W15">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="X15">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="Y15">
-        <v>1863</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="B16">
-        <v>395424</v>
+        <v>555697</v>
       </c>
       <c r="C16">
-        <v>68050</v>
+        <v>102729</v>
       </c>
       <c r="D16">
-        <v>955924</v>
+        <v>1320086</v>
       </c>
       <c r="E16">
-        <v>364078</v>
+        <v>527687</v>
       </c>
       <c r="F16">
-        <v>200146</v>
+        <v>358530</v>
       </c>
       <c r="G16">
-        <v>1520148</v>
+        <v>2206303</v>
       </c>
       <c r="H16">
-        <v>9564</v>
+        <v>11487</v>
       </c>
       <c r="I16">
-        <v>479</v>
+        <v>681</v>
       </c>
       <c r="J16">
-        <v>7594</v>
+        <v>9435</v>
       </c>
       <c r="K16">
-        <v>1055</v>
+        <v>1499</v>
       </c>
       <c r="L16">
-        <v>955</v>
+        <v>2066</v>
       </c>
       <c r="M16">
-        <v>9604</v>
+        <v>13000</v>
       </c>
       <c r="N16">
-        <v>1368</v>
+        <v>1557</v>
       </c>
       <c r="O16">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P16">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="Q16">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R16">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="S16">
-        <v>663</v>
+        <v>809</v>
       </c>
       <c r="T16">
-        <v>1443</v>
+        <v>1774</v>
       </c>
       <c r="U16">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="V16">
-        <v>1370</v>
+        <v>1541</v>
       </c>
       <c r="W16">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X16">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="Y16">
-        <v>1606</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="B17">
-        <v>251412</v>
+        <v>395424</v>
       </c>
       <c r="C17">
-        <v>34617</v>
+        <v>68050</v>
       </c>
       <c r="D17">
-        <v>547518</v>
+        <v>955924</v>
       </c>
       <c r="E17">
-        <v>195560</v>
+        <v>364078</v>
       </c>
       <c r="F17">
-        <v>79260</v>
+        <v>200146</v>
       </c>
       <c r="G17">
-        <v>822338</v>
+        <v>1520148</v>
       </c>
       <c r="H17">
-        <v>8278</v>
+        <v>9564</v>
       </c>
       <c r="I17">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="J17">
-        <v>6612</v>
+        <v>7594</v>
       </c>
       <c r="K17">
-        <v>905</v>
+        <v>1055</v>
       </c>
       <c r="L17">
-        <v>546</v>
+        <v>955</v>
       </c>
       <c r="M17">
-        <v>8063</v>
+        <v>9604</v>
       </c>
       <c r="N17">
-        <v>1202</v>
+        <v>1368</v>
       </c>
       <c r="O17">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P17">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="Q17">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R17">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S17">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="T17">
-        <v>1170</v>
+        <v>1443</v>
       </c>
       <c r="U17">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V17">
-        <v>1298</v>
+        <v>1370</v>
       </c>
       <c r="W17">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X17">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Y17">
-        <v>1489</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="B18">
-        <v>170551</v>
+        <v>251412</v>
       </c>
       <c r="C18">
-        <v>14491</v>
+        <v>34617</v>
       </c>
       <c r="D18">
-        <v>265724</v>
+        <v>547518</v>
       </c>
       <c r="E18">
-        <v>99757</v>
+        <v>195560</v>
       </c>
       <c r="F18">
-        <v>20375</v>
+        <v>79260</v>
       </c>
       <c r="G18">
-        <v>385856</v>
+        <v>822338</v>
       </c>
       <c r="H18">
-        <v>7059</v>
+        <v>8278</v>
       </c>
       <c r="I18">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J18">
-        <v>5927</v>
+        <v>6612</v>
       </c>
       <c r="K18">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="L18">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="M18">
-        <v>7229</v>
+        <v>8063</v>
       </c>
       <c r="N18">
-        <v>1036</v>
+        <v>1202</v>
       </c>
       <c r="O18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="Q18">
+        <v>72</v>
+      </c>
+      <c r="R18">
+        <v>46</v>
+      </c>
+      <c r="S18">
+        <v>614</v>
+      </c>
+      <c r="T18">
+        <v>1170</v>
+      </c>
+      <c r="U18">
         <v>89</v>
       </c>
-      <c r="R18">
-        <v>33</v>
-      </c>
-      <c r="S18">
-        <v>555</v>
-      </c>
-      <c r="T18">
-        <v>994</v>
-      </c>
-      <c r="U18">
-        <v>75</v>
-      </c>
       <c r="V18">
-        <v>1108</v>
+        <v>1298</v>
       </c>
       <c r="W18">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="X18">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Y18">
-        <v>1262</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B19">
-        <v>140677</v>
+        <v>170551</v>
       </c>
       <c r="C19">
-        <v>9069</v>
+        <v>14491</v>
       </c>
       <c r="D19">
-        <v>91366</v>
+        <v>265724</v>
       </c>
       <c r="E19">
-        <v>155978</v>
+        <v>99757</v>
       </c>
       <c r="F19">
-        <v>7655</v>
+        <v>20375</v>
       </c>
       <c r="G19">
-        <v>254999</v>
+        <v>385856</v>
       </c>
       <c r="H19">
-        <v>5944</v>
+        <v>7059</v>
       </c>
       <c r="I19">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J19">
-        <v>4047</v>
+        <v>5927</v>
       </c>
       <c r="K19">
-        <v>2065</v>
+        <v>934</v>
       </c>
       <c r="L19">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="M19">
-        <v>6384</v>
+        <v>7229</v>
       </c>
       <c r="N19">
-        <v>887</v>
+        <v>1036</v>
       </c>
       <c r="O19">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P19">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="Q19">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="R19">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S19">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="T19">
-        <v>839</v>
+        <v>994</v>
       </c>
       <c r="U19">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="V19">
-        <v>838</v>
+        <v>1108</v>
       </c>
       <c r="W19">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="X19">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Y19">
-        <v>1105</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2">
-        <v>44545</v>
+        <v>44551</v>
       </c>
       <c r="B20">
-        <v>114674</v>
+        <v>140677</v>
       </c>
       <c r="C20">
-        <v>7107</v>
+        <v>9069</v>
       </c>
       <c r="D20">
-        <v>71563</v>
+        <v>91366</v>
       </c>
       <c r="E20">
-        <v>122505</v>
+        <v>155978</v>
       </c>
       <c r="F20">
-        <v>4219</v>
+        <v>7655</v>
       </c>
       <c r="G20">
-        <v>198287</v>
+        <v>254999</v>
       </c>
       <c r="H20">
-        <v>5081</v>
+        <v>5944</v>
       </c>
       <c r="I20">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="J20">
-        <v>3432</v>
+        <v>4047</v>
       </c>
       <c r="K20">
-        <v>1843</v>
+        <v>2065</v>
       </c>
       <c r="L20">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="M20">
-        <v>5451</v>
+        <v>6384</v>
       </c>
       <c r="N20">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="O20">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P20">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q20">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="R20">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="S20">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="T20">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="U20">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="V20">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="W20">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="X20">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Y20">
-        <v>991</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B21">
-        <v>93220</v>
+        <v>114674</v>
       </c>
       <c r="C21">
-        <v>6181</v>
+        <v>7107</v>
       </c>
       <c r="D21">
-        <v>57054</v>
+        <v>71563</v>
       </c>
       <c r="E21">
-        <v>102245</v>
+        <v>122505</v>
       </c>
       <c r="F21">
-        <v>2652</v>
+        <v>4219</v>
       </c>
       <c r="G21">
-        <v>161951</v>
+        <v>198287</v>
       </c>
       <c r="H21">
-        <v>4402</v>
+        <v>5081</v>
       </c>
       <c r="I21">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="J21">
-        <v>2916</v>
+        <v>3432</v>
       </c>
       <c r="K21">
-        <v>1616</v>
+        <v>1843</v>
       </c>
       <c r="L21">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="M21">
-        <v>4653</v>
+        <v>5451</v>
       </c>
       <c r="N21">
-        <v>618</v>
+        <v>747</v>
       </c>
       <c r="O21">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P21">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q21">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S21">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="T21">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="U21">
+        <v>42</v>
+      </c>
+      <c r="V21">
+        <v>745</v>
+      </c>
+      <c r="W21">
+        <v>257</v>
+      </c>
+      <c r="X21">
         <v>29</v>
       </c>
-      <c r="V21">
-        <v>604</v>
-      </c>
-      <c r="W21">
-        <v>186</v>
-      </c>
-      <c r="X21">
-        <v>17</v>
-      </c>
       <c r="Y21">
-        <v>807</v>
+        <v>991</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="B22">
-        <v>75512</v>
+        <v>93220</v>
       </c>
       <c r="C22">
-        <v>5587</v>
+        <v>6181</v>
       </c>
       <c r="D22">
-        <v>44023</v>
+        <v>57054</v>
       </c>
       <c r="E22">
-        <v>82755</v>
+        <v>102245</v>
       </c>
       <c r="F22">
-        <v>1710</v>
+        <v>2652</v>
       </c>
       <c r="G22">
-        <v>128488</v>
+        <v>161951</v>
       </c>
       <c r="H22">
-        <v>3733</v>
+        <v>4402</v>
       </c>
       <c r="I22">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J22">
-        <v>2336</v>
+        <v>2916</v>
       </c>
       <c r="K22">
-        <v>1435</v>
+        <v>1616</v>
       </c>
       <c r="L22">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M22">
-        <v>3845</v>
+        <v>4653</v>
       </c>
       <c r="N22">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="O22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P22">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q22">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S22">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="T22">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="U22">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V22">
-        <v>482</v>
+        <v>604</v>
       </c>
       <c r="W22">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="X22">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y22">
-        <v>690</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="B23">
-        <v>61908</v>
+        <v>75512</v>
       </c>
       <c r="C23">
-        <v>4260</v>
+        <v>5587</v>
       </c>
       <c r="D23">
-        <v>15519</v>
+        <v>44023</v>
       </c>
       <c r="E23">
-        <v>81740</v>
+        <v>82755</v>
       </c>
       <c r="F23">
-        <v>969</v>
+        <v>1710</v>
       </c>
       <c r="G23">
-        <v>98228</v>
+        <v>128488</v>
       </c>
       <c r="H23">
-        <v>3737</v>
+        <v>3733</v>
       </c>
       <c r="I23">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J23">
-        <v>1187</v>
+        <v>2336</v>
       </c>
       <c r="K23">
-        <v>2437</v>
+        <v>1435</v>
       </c>
       <c r="L23">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M23">
-        <v>3693</v>
+        <v>3845</v>
       </c>
       <c r="N23">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="O23">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P23">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="Q23">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="R23">
         <v>3</v>
       </c>
       <c r="S23">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="T23">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="U23">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="V23">
-        <v>191</v>
+        <v>482</v>
       </c>
       <c r="W23">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="X23">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Y23">
-        <v>555</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="B24">
-        <v>50564</v>
+        <v>61908</v>
       </c>
       <c r="C24">
-        <v>3980</v>
+        <v>4260</v>
       </c>
       <c r="D24">
-        <v>11215</v>
+        <v>15519</v>
       </c>
       <c r="E24">
-        <v>60407</v>
+        <v>81740</v>
       </c>
       <c r="F24">
-        <v>537</v>
+        <v>969</v>
       </c>
       <c r="G24">
-        <v>72159</v>
+        <v>98228</v>
       </c>
       <c r="H24">
-        <v>3220</v>
+        <v>3737</v>
       </c>
       <c r="I24">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J24">
-        <v>826</v>
+        <v>1187</v>
       </c>
       <c r="K24">
-        <v>2075</v>
+        <v>2437</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M24">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="N24">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="O24">
         <v>14</v>
       </c>
       <c r="P24">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q24">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S24">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="T24">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="U24">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V24">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="W24">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y24">
-        <v>444</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="B25">
-        <v>40182</v>
+        <v>50564</v>
       </c>
       <c r="C25">
-        <v>3466</v>
+        <v>3980</v>
       </c>
       <c r="D25">
-        <v>8088</v>
+        <v>11215</v>
       </c>
       <c r="E25">
-        <v>43928</v>
+        <v>60407</v>
       </c>
       <c r="F25">
-        <v>286</v>
+        <v>537</v>
       </c>
       <c r="G25">
-        <v>52302</v>
+        <v>72159</v>
       </c>
       <c r="H25">
-        <v>2890</v>
+        <v>3220</v>
       </c>
       <c r="I25">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J25">
-        <v>618</v>
+        <v>826</v>
       </c>
       <c r="K25">
-        <v>1774</v>
+        <v>2075</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>2409</v>
+        <v>2936</v>
       </c>
       <c r="N25">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="O25">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P25">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q25">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="T25">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="U25">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V25">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="W25">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="X25">
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="B26">
-        <v>35398</v>
+        <v>40182</v>
       </c>
       <c r="C26">
-        <v>3207</v>
+        <v>3466</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>43928</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G26">
-        <v>40991</v>
+        <v>52302</v>
       </c>
       <c r="H26">
-        <v>2696</v>
+        <v>2890</v>
       </c>
       <c r="I26">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>2037</v>
+        <v>2409</v>
       </c>
       <c r="N26">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="O26">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="T26">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="U26">
         <v>27</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="X26">
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="B27">
-        <v>34128</v>
+        <v>35398</v>
       </c>
       <c r="C27">
-        <v>3421</v>
+        <v>3207</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>34131</v>
+        <v>40991</v>
       </c>
       <c r="H27">
-        <v>2845</v>
+        <v>2696</v>
       </c>
       <c r="I27">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1815</v>
+        <v>2037</v>
       </c>
       <c r="N27">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="O27">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="T27">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="U27">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2553,18 +2553,18 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="B28">
-        <v>36194</v>
+        <v>34128</v>
       </c>
       <c r="C28">
-        <v>4127</v>
+        <v>3421</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>31514</v>
+        <v>34131</v>
       </c>
       <c r="H28">
-        <v>3396</v>
+        <v>2845</v>
       </c>
       <c r="I28">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>1954</v>
+        <v>1815</v>
       </c>
       <c r="N28">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="O28">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="T28">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="U28">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2630,18 +2630,18 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>511</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B29">
-        <v>45790</v>
+        <v>36194</v>
       </c>
       <c r="C29">
-        <v>5352</v>
+        <v>4127</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>33496</v>
+        <v>31514</v>
       </c>
       <c r="H29">
-        <v>4274</v>
+        <v>3396</v>
       </c>
       <c r="I29">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>2133</v>
+        <v>1954</v>
       </c>
       <c r="N29">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="O29">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="T29">
-        <v>775</v>
+        <v>636</v>
       </c>
       <c r="U29">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2707,18 +2707,18 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>578</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="B30">
-        <v>56808</v>
+        <v>45790</v>
       </c>
       <c r="C30">
-        <v>6952</v>
+        <v>5352</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>36529</v>
+        <v>33496</v>
       </c>
       <c r="H30">
-        <v>5224</v>
+        <v>4274</v>
       </c>
       <c r="I30">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>2268</v>
+        <v>2133</v>
       </c>
       <c r="N30">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="O30">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="T30">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="U30">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2784,18 +2784,18 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B31">
-        <v>70900</v>
+        <v>56808</v>
       </c>
       <c r="C31">
-        <v>9284</v>
+        <v>6952</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>40060</v>
+        <v>36529</v>
       </c>
       <c r="H31">
-        <v>6160</v>
+        <v>5224</v>
       </c>
       <c r="I31">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>2418</v>
+        <v>2268</v>
       </c>
       <c r="N31">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="O31">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T31">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="U31">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2861,18 +2861,18 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="B32">
-        <v>86133</v>
+        <v>70900</v>
       </c>
       <c r="C32">
-        <v>11735</v>
+        <v>9284</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2884,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>44050</v>
+        <v>40060</v>
       </c>
       <c r="H32">
-        <v>6782</v>
+        <v>6160</v>
       </c>
       <c r="I32">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>2456</v>
+        <v>2418</v>
       </c>
       <c r="N32">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="O32">
-        <v>26</v>
+        <v>21</v>
       </c>
     